--- a/data/구글리뷰/google_reviews.xlsx
+++ b/data/구글리뷰/google_reviews.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15135" windowHeight="10830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="finalGGG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">finalGGG!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>rank</t>
   </si>
@@ -31,6 +30,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
     <t>review_count</t>
   </si>
   <si>
@@ -40,57 +45,87 @@
     <t>아트리오</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로 10 콘래드호텔 서울점 2F</t>
+  </si>
+  <si>
     <t>{14: 별표 5개 -1달 전-}{13: 별표 5개 -9달 전-}{12: 별표 4개 -5달 전-}{11: 별표 4개 -2달 전-}{10: 별표 4개 -1년 전-}{9: 별표 1개 -1년 전-(Google 번역 제공) 음식은 단지 아주 끔찍합니다. 로비 카페 10G 또는 최상층의 그릴과 바 레스토랑에서 식사하는 것이 훨씬 낫습니다. 서비스와 분위기는 훌륭합니다.(원문)The food is simply quite terrible. You'd be much better off just eat at the lobby cafe 10G or their top floor grill and bar restaurant. Service and ambience is nice though.}{8: 별표 5개 -2년 전-훌륭함}{7: 별표 4개 -1년 전-스테이크는 괜찮고 나머지는 그저 그렇다... 그렇지만 인테리어와 분위기가 너무 좋다.}{6: 별표 4개 -3주 전-괜찮아요}{5: 별표 4개 -2년 전-스테이크 가성비도좋고 맛도 괜찮아요 :D 파스타는 별로고 피자는 소소였네요. 스테이크 때문에 재방문했었습니다.}{4: 별표 4개 -2년 전-메뉴가 많진 않지만 이런 분위기에서 이정도 가성비좋은 이탈리안 레스토랑으로 나쁘지 않음. 개인적으론 라자니아와 양고기 스테이크 추천....샐러드는 의외로 카프레제가 기본에 충실하면서 맛남 ^^}{3: 별표 2개 -9달 전-파스타와 스테이크 소스가 너무 짜다. 스테이크 굽기와 맛은 훌륭하나 그 외에 대부분 실망이다. 디저트는 어찌 이렇게 저렴한 맛만 골라 조합하는 것도 쉽지않을 듯한 너무 형편없었다. 차라리 맛있는 아이스크림 한덩이나 케이크 하나가 나을 듯하다. 식전빵은 평범한 맛이고 밋밋하다. 스탭분들은 미소와 친절이 좋지만 음식이 모두 망쳐놓았다}{2: 별표 2개 -9달 전-식전빵 빵인지 떡인지 모르게 질퍽하고 같이 나온 크림같은거는 조화스럽지 않았음   버터가 나을것 같구요! 빵 변경이 필요해 보입니다! 먹물파스타    냄새부터가 좋치 않았음. 젖깔냄새가 굉장히 파스타와 부조화 스럽고 토마토 붉은 색이랑 먹물 파스타 색이랑 어울리지 않음. 일단 맛이 무슨 맛인지를 도저히 모르겠음. 젖깔냄새가 많이난 그냥 짠 파스타 였음!크림파스타   트러플 풍미가 좋았습니다! 마르게리따…}{1: 별표 1개 -3주 전-콘래드 서울을 체크아웃하고 점심을 먹기 위해 아트리오 방문... 카프레제 샐러드 마르게리따 피자 봉골레 스파게티를 시켰다. 식전빵 부터 음식이 코스요리 처럼 하나씩 나오더니 다른 음식을 다 먹을동안 결국 스파게티는 나오지 않음. 10팀 정도가 있었고 우리 보다 더 늦게 온 손님들의 요리들까지 나온 상황에 직원을 불러 스타게티가 나오지 않았다고 말했지만 요리중이라는 말을 함. 10여분을 기다려도 요리가 나오지 않아 다시…}</t>
   </si>
   <si>
     <t>브루클린더버거조인트</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로2길 24</t>
+  </si>
+  <si>
     <t>{1: 별표 3개 -4달 전-치즈스커트 신선한 메뉴였어요. 치즈가 눌어붙으며 생긴 풍미와 소고기 패티의 육즙. 완전한 미국맛ㅋㅋ배가 크게 고프지 않을 때 방문했더니 다소 느끼하긴 했구요. 이ㅡ 감튀도 맛있더군요~ 양파튀김도 먹어보고 싶어요.}</t>
   </si>
   <si>
     <t>수하동</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로2길 17</t>
+  </si>
+  <si>
     <t>{10: 별표 4개 -6달 전-}{9: 별표 4개 -10달 전-}{8: 별표 2개 -6달 전-}{7: 별표 3개 -6달 전-}{6: 별표 3개 -7달 전-}{5: 별표 5개 -8달 전-}{4: 별표 3개 -5달 전-하동관과의 상관 관계에 대해서 생각하게 되는 집.}{3: 별표 3개 -2달 전-하동관과 컨셉이 비슷}{2: 별표 3개 -1달 전-맛있지만 비싸다 김치도맛있다}{1: 별표 4개 -2달 전-든든한 점심 한끼육수와 김치 모두 내 스타일하지만 고기는 많이 아쉬움}</t>
   </si>
   <si>
     <t>더스테이크하우스</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로 10</t>
+  </si>
+  <si>
     <t>{130: 별표 3개 -6달 전-}{129: 별표 5개 -1년 전-}{128: 별표 3개 -1년 전-}{127: 별표 5개 -1년 전-}{126: 별표 3개 -1년 전-}{125: 별표 2개 -1년 전-}{124: 별표 2개 -1년 전-}{123: 별표 3개 -8달 전-}{122: 별표 5개 -1년 전-}{121: 별표 5개 -6달 전-}{120: 별표 3개 -7달 전-}{119: 별표 4개 -9달 전-}{118: 별표 5개 -4년 전-}{117: 별표 4개 -6달 전-}{116: 별표 5개 -1년 전-}{115: 별표 5개 -3주 전-}{114: 별표 3개 -8달 전-}{113: 별표 3개 -1년 전-}{112: 별표 4개 -3주 전-}{111: 별표 4개 -1년 전-}{110: 별표 4개 -1년 전-}{109: 별표 4개 -1년 전-}{108: 별표 3개 -1년 전-}{107: 별표 5개 -2주 전-}{106: 별표 3개 -1년 전-}{105: 별표 3개 -1년 전-}{104: 별표 3개 -1년 전-}{103: 별표 4개 -1년 전-}{102: 별표 3개 -1년 전-}{101: 별표 5개 -4달 전-}{100: 별표 3개 -7달 전-}{99: 별표 4개 -1년 전-}{98: 별표 5개 -1년 전-}{97: 별표 3개 -1년 전-}{96: 별표 3개 -1년 전-}{95: 별표 3개 -1년 전-}{94: 별표 5개 -1년 전-}{93: 별표 4개 -1년 전-}{92: 별표 3개 -1년 전-}{91: 별표 5개 -1주 전-}{90: 별표 3개 -10달 전-}{89: 별표 4개 -1달 전-}{88: 별표 4개 -1주 전-}{87: 별표 5개 -2주 전-}{86: 별표 4개 -8달 전-}{85: 별표 5개 -7달 전-}{84: 별표 2개 -1년 전-}{83: 별표 4개 -1년 전-}{82: 별표 5개 -7달 전-}{81: 별표 4개 -5달 전-}{80: 별표 5개 -1년 전-}{79: 별표 3개 -1년 전-}{78: 별표 3개 -1년 전-}{77: 별표 4개 -7달 전-}{76: 별표 1개 -1주 전-}{75: 별표 4개 -1년 전-}{74: 별표 3개 -6달 전-}{73: 별표 3개 -1년 전-}{72: 별표 4개 -1년 전-}{71: 별표 4개 -1년 전-}{70: 별표 2개 -1년 전-}{69: 별표 3개 -1년 전-}{68: 별표 4개 -1년 전-}{67: 별표 4개 -4주 전-}{66: 별표 4개 -1년 전-}{65: 별표 5개 -7달 전-}{64: 별표 3개 -1년 전-}{63: 별표 5개 -1년 전-}{62: 별표 4개 -6달 전-}{61: 별표 3개 -1년 전-}{60: 별표 3개 -1년 전-}{59: 별표 2개 -1년 전-}{58: 별표 5개 -1년 전-}{57: 별표 4개 -1년 전-}{56: 별표 4개 -1년 전-}{55: 별표 4개 -1년 전-(Google 번역 제공) 맛 있었어요(원문)Вкусно понравилось}{54: 별표 5개 -1년 전-(Google 번역 제공) 큰(원문)Great}{53: 별표 5개 -1년 전-(Google 번역 제공) 여기 음식 맛있다.(원문)Food is delicious here}{52: 별표 4개 -1년 전-(Google 번역 제공) 스테이크가 좋다(원문)Stake is good}{51: 별표 4개 -1년 전-(Google 번역 제공) 맛있는 음식(원문)lækker mad}{50: 별표 4개 -1년 전-(Google 번역 제공) 여의도에서 최고의 스테이크.(원문)Best steaks in Yeoido.}{49: 별표 1개 -3년 전-(Google 번역 제공) 최악의 장소. 우선 나는 그 까다로운 사람이 아니라는 것을 지적해야합니다. 그러나 가능하다면이 장소에 부정적인 별 하나의 제곱근을 줄 것입니다. 특별한 사람을 만날 계획이라면이 장소를 피하십시오. 나이 든 ribeye 스테이크는 괜찮 았습니다. 그러나 그레이비 으깬 감자는 익히지 않았습니다. 또한 서버가 매우 참을성이없고 무례한 것을 알 수 있습니다. 그들은 마무리하기 전에 설거지를 계속했습니다.…}{48: 별표 5개 -8달 전-(Google 번역 제공) 음식은 영어로 의사 소통 할 수있는 훌륭한 직원이 아름답습니다.(원문)The food is beautiful with a good staff who can communicate in English}{47: 별표 5개 -6달 전-(Google 번역 제공) 서울에서 스테이크를 즐길 수있는 유일한 곳.(원문)The only place I was able to enjoy the steak in Seoul.}{46: 별표 3개 -1달 전-(Google 번역 제공) 점심 메뉴가있었습니다. (3.8) 단순한 스테이크. 그래도 돈 가치가 없습니다. 스테이크는 씹기가 매우 힘들었습니다. 죄송하지만 아웃백 스테이크 하우스가이 가격에 좋습니다.(원문)Had a lunch menu.(3.8) Just simple stake. Not worth the money though. The stake was quite tough to chew. Sorry but the outback stake house is better for this price.}{45: 별표 3개 -1년 전-스테이크 좋지요 근데너무비싸요}{44: 별표 3개 -1년 전-그냥그냥}{43: 별표 4개 -1년 전-단품보단 코스}{42: 별표 4개 -1년 전-먹을만하다}{41: 별표 4개 -1년 전-스테이크 요리전문점}{40: 별표 1개 -1년 전-스테이크 먹고 싶어 ooo쓴다고 갔는데 맛 없다}{39: 별표 2개 -1년 전-이건 좀..}{38: 별표 4개 -1년 전-깨끗하고 맛있었습니다}{37: 별표 4개 -1년 전-분위기도 맛도 좋은데 다소 비쌈}{36: 별표 3개 -3년 전-일반 스테이크의 경우 가격대가 높습니다. 점심의 경우 스테이크 햄버거나 파스타가 포함된 코스는 3만원대로 그나마 무난합니다.}{35: 별표 4개 -1년 전-맛잇어용}{34: 별표 4개 -1달 전-맛있음}{33: 별표 5개 -1년 전-맛나요~ㅎ}{32: 별표 1개 -1년 전-개뿔도 맛없음}{31: 별표 5개 -5달 전-굿}{30: 별표 1개 -1년 전-ㅜ 기분 완전 ㅜ 식사하다말고 옆가게로 이동 ㅜ}{29: 별표 4개 -1년 전-나쁘지 않음. 분위기포함 별 4개.}{28: 별표 3개 -1년 전-맛은 있는데 가격대가 많이 쎄네요 ㅜㅠ}{27: 별표 1개 -1년 전-별로. 서비스도 음식도 도대체가 수요미식회를 신뢰할수가 없는 음식점이었음.}{26: 별표 4개 -1년 전-너무 붐비지않아 좋아하는 곳입니다.}{25: 별표 3개 -1년 전-미국 스테이크 대비 정확히 2배 비싼집.}{24: 별표 1개 -1년 전-음식 맛이 변했어요. 예전 by  vips일때는 최애 스테이크 맛집이었는데...}{23: 별표 5개 -1년 전-좋은 스테이크를 합리적가격에 먹을수있음}{22: 별표 4개 -2년 전-티본스테이크 코스요리에 나오는 와인이 깔끔하고 맛있네요.}{21: 별표 4개 -1년 전-맨 안쪽 특별석 새장안에 있는듯한 특별한 분위기}{20: 별표 5개 -2주 전-맛있어요!!!}{19: 별표 4개 -1년 전-IFC 몰에서 점심 먹을 때 그나마 줄이 길지 않아 앉았는데차이는 서서 기다리느냐 앉아서 기다리느냐 뿐. ㅎ그래도 서서 기다리는 것보다는 여유있고  운치있게 이야기도  나누기엔 괜찮은 곳점심 메뉴로 리코타치즈프루트샐러드와 채끝등심 스테이크 먹었는데 나름 괜찮은 듯...}{18: 별표 4개 -1년 전-맛나고 현대적이네요}{17: 별표 5개 -1년 전-분위기도 괜찮고..스테이크 맛있네요.코스가 85천원이라 좀 비싸다 싶었는데 스테이크 고기도 연하고 굽기도 딱적당..디저트도 맛있었구요..만족합니다}{16: 별표 4개 -4달 전-무난무난하게 맛있었음&lt;U+2764&gt;}{15: 별표 2개 -8달 전-이돈주고 굳이.. 파스타가 그나마 먹을만함 돈값못하는집}{14: 별표 5개 -7달 전-역시 여의도.. 비싸지만 고급스럽고 또 가고 싶다!ㅎㅎ}{13: 별표 1개 -1년 전-지금은 사라진 종로지점에서 먹어보고 마음속 1순위였는데 지금은 손절했습니다. 360g 드라이에이징으로 미디움 주문했는데 레어 수준으로 나오고(굽기표 검색해서 대조해볼 정도) 따로 분리한 지방과 힘줄이 계란 1알정도 되는거 보고 다시는 안 갑니다. 매장이 너무너무 어두워서 사진 찍을 생각도 못 했네요.}{12: 별표 4개 -7달 전-안심 스테이크가 맛있어요. 봉골레파스타도 맛있음. 하지만 가격이 너무 비싼게 흠입니다 ㅠㅠ}{11: 별표 5개 -1달 전-깔끔합니다}{10: 별표 5개 -1년 전-데블스도어 맛있어요. 피자랑 스파게티 JMT}{9: 별표 4개 -1년 전-가격이정말 비쌈. 맛있긴함.}{8: 별표 3개 -3달 전-가성비에서 경쟁력 떨어진다고 생각합니다. 조금 더 나은 스테이크를 위해 이 가격을 지불하느니 다른 옵션을 택하겠어요.}{7: 별표 5개 -3달 전-더 스테이크 하우스~스테이크는 절대 거짓말하지 않는다!!맛있다!!}{6: 별표 4개 -1년 전-소개팅이나 특별한날 가면 좋겠네요.. 스테이크는 맛있어요.와인이나 맥주도 같이 먹기좋고}{5: 별표 3개 -2주 전-접근성이 좋은게 제일 장점 인거같습니다스테이크는 그냥 쏘쏘하고 세트메뉴가있어서 가격부담이 좀 덜어집니다}{4: 별표 4개 -1년 전-맛있고 배부르게 먹을 수 있는곳. 다만 가격이 좀 나온다는게 단점. 할인이 될경우 추천.스테이크 굽기는 보통 생각하는것보다 한단계 더 하는게 좋을듯 함.식전빵이 간이 잘되어 매우 맛있었음.}{3: 별표 4개 -6달 전-예약하고 가니까 안 쪽 조용한 자리에 앉을 수 있어서 좋았어요. 콜키지가 병당 2만원이라서 딱 적당한 것 같아요.기분좋은 날 분위기 내기 좋은 곳.Dry aged steak 좋네요!}{2: 별표 4개 -6달 전-일단 단가가 높은 편이라 점심시간에 좌석이 넉넉한 장점이 있음. 스테이크도 맛이 나쁘지 않고 오늘의 파스타 메뉴도 맛이 괜찮음... 봉골레가 괜찮았던 듯함... 스테이크는 립아이 보다는 뉴욕스트립을 추천...자주 먹는 메뉴는 못되지만 가끔 손님 접대나 특별한 Occasion이 있을때 괜찮은 곳...}{1: 별표 4개 -2주 전-가게 이름에 스테이크가 들어갈 만 한 곳. 스테이크가 아주 크고 튼실하며 맛도 좋고 재료도 좋다. 굽기 조절도 상당히 잘 해줌. 파스타도 생각지도 않았는데 소스가 매우 진하고 맛이 좋음. 가격대가 높긴 한데 음식 퀄리티를 보면 가성비가 좋다고 할 수 있을것 싶다}</t>
   </si>
   <si>
     <t>창고43</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로6길 33</t>
+  </si>
+  <si>
     <t>{413: 별표 1개 -3주 전-}{412: 별표 5개 -8달 전-}{411: 별표 3개 -6달 전-}{410: 별표 4개 -3주 전-}{409: 별표 5개 -2주 전-}{408: 별표 4개 -2년 전-}{407: 별표 4개 -1년 전-}{406: 별표 5개 -1년 전-}{405: 별표 4개 -6달 전-}{404: 별표 5개 -1년 전-}{403: 별표 5개 -2년 전-}{402: 별표 4개 -1년 전-}{401: 별표 4개 -1년 전-}{400: 별표 4개 -1년 전-}{399: 별표 4개 -2년 전-}{398: 별표 4개 -1년 전-}{397: 별표 5개 -6년 전-}{396: 별표 4개 -8달 전-}{395: 별표 4개 -1년 전-}{394: 별표 5개 -1년 전-}{393: 별표 3개 -2년 전-}{392: 별표 4개 -1년 전-}{391: 별표 3개 -2년 전-}{390: 별표 4개 -3년 전-}{389: 별표 4개 -2년 전-}{388: 별표 4개 -1년 전-}{387: 별표 4개 -3년 전-}{386: 별표 4개 -2년 전-}{385: 별표 4개 -1년 전-}{384: 별표 5개 -1년 전-}{383: 별표 1개 -1년 전-}{382: 별표 5개 -3주 전-}{381: 별표 4개 -1년 전-}{380: 별표 4개 -7달 전-}{379: 별표 4개 -4년 전-}{378: 별표 5개 -1년 전-}{377: 별표 1개 -3주 전-}{376: 별표 4개 -1년 전-}{375: 별표 4개 -1년 전-}{374: 별표 4개 -2년 전-}{373: 별표 5개 -1년 전-}{372: 별표 2개 -3년 전-}{371: 별표 5개 -1년 전-}{370: 별표 5개 -1년 전-}{369: 별표 5개 -2년 전-}{368: 별표 5개 -8달 전-}{367: 별표 4개 -2년 전-}{366: 별표 2개 -7달 전-}{365: 별표 5개 -1년 전-}{364: 별표 3개 -1년 전-}{363: 별표 3개 -7달 전-}{362: 별표 4개 -8달 전-}{361: 별표 4개 -2년 전-}{360: 별표 5개 -10달 전-}{359: 별표 4개 -3년 전-}{358: 별표 3개 -1년 전-}{357: 별표 5개 -11달 전-}{356: 별표 3개 -7달 전-}{355: 별표 4개 -1년 전-}{354: 별표 5개 -7달 전-}{353: 별표 4개 -8달 전-}{352: 별표 4개 -1년 전-}{351: 별표 4개 -2년 전-}{350: 별표 4개 -2년 전-}{349: 별표 4개 -1년 전-}{348: 별표 4개 -3주 전-}{347: 별표 4개 -2년 전-}{346: 별표 5개 -7달 전-}{345: 별표 5개 -2년 전-}{344: 별표 5개 -6달 전-}{343: 별표 4개 -1년 전-}{342: 별표 4개 -2년 전-}{341: 별표 5개 -1년 전-}{340: 별표 4개 -6달 전-}{339: 별표 3개 -3달 전-}{338: 별표 5개 -2년 전-}{337: 별표 5개 -7달 전-}{336: 별표 2개 -6달 전-}{335: 별표 4개 -9달 전-}{334: 별표 4개 -8달 전-}{333: 별표 4개 -1년 전-}{332: 별표 4개 -1달 전-}{331: 별표 5개 -1년 전-}{330: 별표 5개 -1년 전-}{329: 별표 5개 -2년 전-}{328: 별표 5개 -2년 전-}{327: 별표 4개 -1년 전-}{326: 별표 5개 -9달 전-}{325: 별표 4개 -1년 전-}{324: 별표 4개 -9년 전-}{323: 별표 5개 -1년 전-}{322: 별표 5개 -1년 전-}{321: 별표 3개 -8달 전-}{320: 별표 4개 -1년 전-}{319: 별표 4개 -8달 전-}{318: 별표 5개 -1년 전-}{317: 별표 4개 -1년 전-}{316: 별표 5개 -2년 전-}{315: 별표 3개 -5달 전-}{314: 별표 4개 -2년 전-}{313: 별표 3개 -2년 전-}{312: 별표 5개 -10달 전-}{311: 별표 4개 -9달 전-감사합니다..}{310: 별표 4개 -3주 전-}{309: 별표 4개 -1달 전-}{308: 별표 5개 -1년 전-}{307: 별표 3개 -3주 전-}{306: 별표 3개 -1년 전-}{305: 별표 5개 -10달 전-}{304: 별표 5개 -3달 전-}{303: 별표 3개 -1년 전-}{302: 별표 4개 -2주 전-}{301: 별표 4개 -8달 전-}{300: 별표 4개 -2주 전-}{299: 별표 5개 -7달 전-}{298: 별표 5개 -1년 전-}{297: 별표 5개 -11달 전-}{296: 별표 4개 -2년 전-}{295: 별표 5개 -11달 전-}{294: 별표 5개 -1년 전-}{293: 별표 1개 -8달 전-}{292: 별표 4개 -9달 전-}{291: 별표 5개 -2년 전-}{290: 별표 5개 -1년 전-}{289: 별표 3개 -2년 전-}{288: 별표 5개 -1년 전-}{287: 별표 3개 -1달 전-}{286: 별표 5개 -7달 전-}{285: 별표 4개 -8달 전-}{284: 별표 3개 -7달 전-}{283: 별표 4개 -1년 전-}{282: 별표 5개 -1년 전-}{281: 별표 3개 -8달 전-}{280: 별표 4개 -5달 전-}{279: 별표 4개 -7달 전-}{278: 별표 5개 -2년 전-}{277: 별표 3개 -4주 전-}{276: 별표 5개 -8달 전-}{275: 별표 4개 -10달 전-}{274: 별표 5개 -1년 전-}{273: 별표 5개 -3년 전-}{272: 별표 4개 -3년 전-}{271: 별표 4개 -9달 전-}{270: 별표 3개 -8달 전-}{269: 별표 3개 -1년 전-}{268: 별표 5개 -2년 전-}{267: 별표 5개 -2년 전-}{266: 별표 5개 -10달 전-}{265: 별표 5개 -1년 전-}{264: 별표 4개 -9달 전-}{263: 별표 4개 -1년 전-}{262: 별표 5개 -1년 전-}{261: 별표 4개 -7달 전-}{260: 별표 4개 -8달 전-}{259: 별표 4개 -5달 전-}{258: 별표 4개 -1년 전-감사합니다.}{257: 별표 5개 -3년 전-}{256: 별표 5개 -4년 전-}{255: 별표 3개 -1년 전-}{254: 별표 5개 -2년 전-}{253: 별표 4개 -1년 전-}{252: 별표 5개 -2달 전-}{251: 별표 5개 -1년 전-}{250: 별표 1개 -4년 전-}{249: 별표 5개 -1년 전-}{248: 별표 4개 -1년 전-}{247: 별표 4개 -3년 전-}{246: 별표 4개 -1년 전-안녕하세요.본점 담담자입니다.저의 매장에 방문해주신점  진심으로 감사드립니다.고객님에  소중한 의견에  더욱더신경써서  관리하겠습니다.특히  의견중  서버들의  매너교육에  조금더 신경을  쓰겠습니다.다음 방문시에는  실망하지않는 창고43본점으로 다가가겠습니다.감사합니다.}{245: 별표 5개 -1년 전-}{244: 별표 5개 -9달 전-}{243: 별표 3개 -1년 전-}{242: 별표 5개 -2년 전-}{241: 별표 3개 -1달 전-}{240: 별표 5개 -3년 전-}{239: 별표 4개 -2년 전-}{238: 별표 5개 -1년 전-}{237: 별표 4개 -1년 전-}{236: 별표 4개 -1년 전-}{235: 별표 5개 -1년 전-}{234: 별표 5개 -11달 전-}{233: 별표 4개 -2년 전-}{232: 별표 3개 -1년 전-}{231: 별표 3개 -1년 전-}{230: 별표 5개 -2년 전-}{229: 별표 3개 -2년 전-}{228: 별표 4개 -4일 전-}{227: 별표 4개 -1년 전-}{226: 별표 4개 -10달 전-}{225: 별표 4개 -1년 전-}{224: 별표 5개 -1년 전-}{223: 별표 3개 -2주 전-}{222: 별표 4개 -1달 전-(Google 번역 제공) 최고의 쇠고기.(원문)Best beef ever.}{221: 별표 3개 -1년 전-(Google 번역 제공) 부드러운 너머 고기(원문)Great meat that is beyond tender}{220: 별표 4개 -2년 전-(Google 번역 제공) 맛있지 만 너무 비싸다.(원문)Tastes good but too expensive.}{219: 별표 3개 -8달 전-(Google 번역 제공) 간단하고 맛있는 (약간 연기가 자욱한). 오후 6시 이후에 채워집니다. 값 비싼 편이지만 약간 고기의 품질에 항상 반영됩니다.(원문)simple and tasty (a bit smoky). fills up after 6pm. a bit on the expensive side but always reflected in the quality of the meat.}{218: 별표 4개 -4년 전-(Google 번역 제공) 높은 가격이지만 아주 맛있는(원문)High price but very delicious}{217: 별표 4개 -2년 전-(Google 번역 제공) 한두 경험 2 번을 원한다면(원문)If u reallu want 2 experience Hanwoo}{216: 별표 4개 -2년 전-(Google 번역 제공) 좋은 한국어 쇠고기 - 등심 바베큐를 가질 수 있습니다. 다른 한국인 들보 다 조금 비싸지 만 여전히 시도해 보는 것이 좋습니다.(원문)Could have good Korean beef-sirloin barbecue. Little expensive than other Koreans but still good to try.}{215: 별표 4개 -3년 전-(Google 번역 제공) 쇠고기 맛면에서 가장 위대한 음식 중 하나입니다. 가격면에서는 조금.(원문)In terms of beef taste one of the greatest ever. Pricewise a bit much though. }{214: 별표 5개 -1년 전-(Google 번역 제공) 고급 쇠고기를 사용한 고급 식사(원문)Fine dining with a quality beef}{213: 별표 5개 -1년 전-(Google 번역 제공) 좋은 쇠고기(원문)Nice beef}{212: 별표 4개 -1년 전-(Google 번역 제공) 훌륭한 한국식 바베큐. 서울에 돌아올 때마다 다시 갈 것입니다.(원문)Excellent Korean BBQ. No doubt I will go again whenever I am back in Seoul.}{211: 별표 5개 -3년 전-(Google 번역 제공) 이 식당은 깨끗하고 음식은 정말 맛있습니다. 구운 소고기는 매우 좋습니다. 그리고 모두 친절합니다. 그러나 가격은 약간 높을 수 있습니다.(원문)This restaurant is clean and foods are really delicious. Roasted beef is very good. And everybody is kind. But the price can be bit high.}{210: 별표 3개 -8달 전-(Google 번역 제공) 아주 좋은 품질의 쇠고기와 좋은 맛입니다. 그들은 그릴에서 봉사했습니다. 맥주 나 소주없이 쇠고기를 먹을 때 1 인당 약 60-70 $가 든다.(원문)It is very good quality of beef and good taste. They served on grill. It cost about 60-70$ per pax when eat beef without beer or soju.}{209: 별표 4개 -1년 전-(Google 번역 제공) 안녕하세요 품질이지만 비싸지 만 일반적으로 지불해야하지만 돈이 필요합니다 :)(원문)Hi quality but expensive generally it deserves to pay but you nees money :)}{208: 별표 4개 -7달 전-매운갈비찜... 점심으로는 조아요..저녁은.... 고기를 찢는거가 불편한...}{207: 별표 5개 -8달 전-투뿔! 맛남!}{206: 별표 4개 -7달 전-좋아요}{205: 별표 4개 -2달 전-가격압박 빼고 맛나요.}{204: 별표 3개 -3일 전-정말 맛있음!!!}{203: 별표 5개 -5년 전-환기 안됨}{202: 별표 4개 -4년 전-비싼만큼 맛있음}{201: 별표 4개 -4년 전-맛있었지만 비싸요.}{200: 별표 5개 -3년 전-여의도 창고와 대도 식당을 가봐야 소고기를 먹어 봤다고 말할수 있습니다.}{199: 별표 3개 -4년 전-회식으로 가면 가족들에게 괜시리 미안해지는 집.}{198: 별표 4개 -3년 전-고기맛 아주 좋습니다}{197: 별표 4개 -3년 전-굿굿}{196: 별표 5개 -3년 전-소고기맛 훌륭하죠!}{195: 별표 3개 -3년 전-최고!}{194: 별표 5개 -3년 전-소고기를 찢어서 먹는 맛집}{193: 별표 4개 -2년 전-종업원 친절도가  좀부족한   느낌이  드네요   음식맛은   최고   !}{192: 별표 4개 -7년 전-예전만큼은 아니지만 괜찮음}{191: 별표 5개 -2년 전-살아있는 육질...}{190: 별표 5개 -2년 전-맛있어요}{189: 별표 2개 -3년 전-가격 비쌈}{188: 별표 4개 -2년 전-한우하면  창고43이죠!}{187: 별표 4개 -2년 전-주차는 여의도백화점에 3시간 가능 여의도에서 최고의  고깃집}{186: 별표 5개 -2년 전-미역국}{185: 별표 4개 -2년 전-한우가 맛있음.}{184: 별표 5개 -2년 전-그저 그저}{183: 별표 4개 -7년 전-좋아요}{182: 별표 3개 -2년 전-회식}{181: 별표 4개 -1년 전-비싸긴 하지만 맛있습니다}{180: 별표 2개 -1년 전-고기는맛있는데 갈때마다 서비스 안좋아짐}{179: 별표 5개 -1년 전-나쁘지않음}{178: 별표 5개 -1년 전-서비스별로}{177: 별표 5개 -1년 전-여의도지역 소고기 계열의 전통의 명가}{176: 별표 3개 -2년 전-명불허전}{175: 별표 3개 -8달 전-예약하고 갔는데 예약없다고 하고 불친절해요}{174: 별표 1개 -10달 전-명불허전}{173: 별표 5개 -3년 전-대도식당류의 등심구이를 맛볼 수 있는 곳. 가격의 압박때문에 회식때 밖에는 갈 수가 없다}{172: 별표 4개 -7달 전-한우고기 강추합니다. }{171: 별표 1개 -2년 전-좋아요}{170: 별표 4개 -8달 전-좋은 육질과 높은 가격}{169: 별표 3개 -4년 전-맛은 있는데 비싸요}{168: 별표 4개 -3년 전-고기질은 최고. 가격은 비쌈.}{167: 별표 4개 -9달 전-맛집..조금 비싸요}{166: 별표 3개 -3년 전-너무 맛나지만 비싸요!}{165: 별표 3개 -2년 전-고기는 정말 맛있어요}{164: 별표 3개 -3년 전-소고기}{163: 별표 5개 -1년 전-맛있는데 비싸서 별 4개.}{162: 별표 4개 -1년 전-사나이 태어나서 3번만 우는것이 허락된다지만여기서 고기맛 보고 우는 것은 예외로 쳐줘야한다눈물나게 맛있다그리고 신나게 먹고난후 계산서 보면 그 눈물이 다시 터진다}{161: 별표 4개 -2년 전-비쌈 다만 맛은 있음}{160: 별표 5개 -7달 전-고기 질이 좋습니다}{159: 별표 4개 -8달 전-역시 등심은 창고가 최고.단지 가격이 조금 비싼편}{158: 별표 5개 -4년 전-비싸긴 하지만 맛은 있어요}{157: 별표 4개 -1년 전-서비스매장 서버들의 진심이 느껴지고계산대 매니저의 전문성이 보인다.}{156: 별표 5개 -3년 전-비싸고 양작음...^^}{155: 별표 5개 -3년 전-맛있어요 비싼것만 빼면}{154: 별표 4개 -1년 전-안심 맛있습니다.}{153: 별표 4개 -4년 전-대도식당 스타일의 고기집. 창고스페셜 깍두기볶음밥 Corkage Free}{152: 별표 3개 -3년 전-본점 시설은 새로운 곳이 더욱..}{151: 별표 3개 -1년 전-소고기철판구이의 지존 대도식당과 방식은동일하나 고기질과 숙성기술의압승}{150: 별표 4개 -2년 전-맛있어요}{149: 별표 4개 -2년 전-맛도 좋고 시설도 좋으나 값은 다소 비쌈}{148: 별표 4개 -3년 전-맛있음}{147: 별표 5개 -2년 전-남의 돈으면 먹으면 더 맛있는 천국 회식 고고}{146: 별표 4개 -7달 전-설화등심 맛이 훌륭합니다}{145: 별표 4개 -3년 전-워낙 커서 예약 없이도 갑자기 가기 좋은 곳}{144: 별표 4개 -3년 전-맛있어요 근데 연기가 심함}{143: 별표 5개 -3년 전-접대로 넓은 장소로 괜찮은 편}{142: 별표 3개 -2년 전-너무 맛있어요 하지만 비싸요}{141: 별표 3개 -3년 전-두툼한 소고기를 찢어 주는 곳맛 좋습니다}{140: 별표 5개 -1년 전-다른지점과 역시 같은 맛. 그러나 너무 기계적으로 이루어지는 업소}{139: 별표 3개 -1년 전-고기도 질겨지고 (처음것만 좋음)서비스는 불친절. 뭐 가져다 달리기 겁난다..}{138: 별표 5개 -1년 전-가격 압박 있지만 스페셜보다 등심이나 안심을 드셔보셔야 합니다. 매우~~~ 부드러운 육질}{137: 별표 4개 -3년 전-아저씨들 회식분위기가 싫지않다면 이만한 곳 없을 듯. 친구 동요들 끼리라면 여기를 손님접대라면 한와담블랙을}{136: 별표 4개 -4년 전-맛난 소고기를 적정한 가격에 먹을 수 있는 곳~}{135: 별표 1개 -2년 전-고기는 맛있는데 좌식입니다..다리 저려요ㅠ}{134: 별표 5개 -3년 전-비싸지만 맛나요ㅎ}{133: 별표 5개 -2년 전-항상 맛있어요 예약도 잘 돼요}{132: 별표 5개 -3년 전-정량~~항상기본품질이상}{131: 별표 4개 -1년 전-가성비 괜찮은 여의도 고기집. 단체모임에도 적당.}{130: 별표 4개 -1년 전-비싼거 빼고 좋음.. 회식때만 갈듯}{129: 별표 5개 -1년 전-창고 고기맛은 이미 검증되었죠 아일렉스점에비해 조금 혼잡하고 시끌시끌한 분위기였습니다}{128: 별표 4개 -2년 전-항상 만족스러움.}{127: 별표 4개 -3년 전-비싸고 맛있는 고기집}{126: 별표 5개 -1년 전-비싸지만 맛은 좋아요}{125: 별표 4개 -1년 전-서비스 꽝. 예전같지않아요}{124: 별표 4개 -1년 전-소고기 체인점 고기는 무난함. 그냥 소고기 체인점}{123: 별표 5개 -1년 전-온몸에 고기냄새가 배고 싶다면 가볼만한곳맛은 좋은 편임}{122: 별표 4개 -1년 전-고기를 너무 한번에 구워줘서 급하게 먹느라 무슨 맛으로 먹엇는지 모르겟네요}{121: 별표 1개 -1년 전-괜찮은 고기로 간단한 저녁.. 좋아욤.}{120: 별표 4개 -1년 전-고기가 맛있고 깍두기볶음밥도 맛있어요}{119: 별표 3개 -2년 전-고기맛 훌륭..너무 붐빈다 싶을 정도로 고객이 많음}{118: 별표 1개 -2년 전-가면 항상 맛있게 잘 먹죠. 밥 비벼먹거나 볶아 먹어서 과식하게 되고 냄새가 몸에...}{117: 별표 3개 -2년 전-점심메뉴는 만원전후라서 한번 먹을만 합니다. 여의도는 백반집도 8천원 하는 곳이라..}{116: 별표 4개 -1년 전-무난하다}{115: 별표 4개 -3년 전-비빔냉면이랑꼭같이드세용}{114: 별표 4개 -2년 전-무난한 딱 그 가격대의 고깃집}{113: 별표 5개 -1년 전-맛있음 가격이 쎈편임}{112: 별표 4개 -7달 전-무난한 집}{111: 별표 5개 -1년 전-한우구이 전문 고급식당}{110: 별표 4개 -1년 전-가격값 딱 하는 곳}{109: 별표 5개 -11달 전-쬐끔 우아한 고깃집입니다. 그만큼 가격도 있구요.}{108: 별표 4개 -7달 전-오우 점심메뉴진짜맛있네요ㅎ}{107: 별표 3개 -1년 전-맛은 아주 좋은데 가격이 후덜덜ㅠ}{106: 별표 4개 -8달 전-안심을 추찬합니다.}{105: 별표 3개 -2년 전-맛있는 집입니다.}{104: 별표 4개 -1년 전-소고기가 정말 부드러워요}{103: 별표 4개 -1년 전-창고는 어딜가나 고기는 맛있어요~~^^}{102: 별표 5개 -8달 전-맛있는 소고기등심보다는 안심!}{101: 별표 5개 -11달 전-직접 구워주셔서  편해요 결대로 찢어주시는데 더 맛있는 것 같아요 ㅜㅜ 된장말이밥도 넘 맛있음}{100: 별표 5개 -7달 전-겁나맛있음 . 옆에서 다 구워줌.}{99: 별표 4개 -1년 전-여의도 회식 비싸지만 맛있다. 비슷한 느낌은 대도식당}{98: 별표 4개 -1년 전-비인간적으로 너무 비쌈..}{97: 별표 5개 -1년 전-직원들이  바빠서  그런지 사무적이고  매우  불친철}{96: 별표 5개 -1년 전-맛도좋고 뭐 말이 필요없어요}{95: 별표 5개 -2년 전-고기좋고 다 조은데 조금 시끄럽고 연기가 자욱해요.}{94: 별표 3개 -1년 전-기본은 하는 집}{93: 별표 2개 -1년 전-맛이 짱... 직원들의 친절함이 좋아요.}{92: 별표 5개 -1년 전-존맛 jmt}{91: 별표 3개 -1년 전-한우가 괜찮은데.. 너무 비쌈..}{90: 별표 4개 -11달 전-좀 비싸지만 좋은고기 빨리 먹고 일어나기 아주 좋은 곳. 구워주고 잘라주고. 먹기만 하면 되는 곳.}{89: 별표 5개 -1년 전-고기 좋아요. 회식의 꽃.}{88: 별표 5개 -1년 전-종요한 저녁식사 자리로 좋습니다}{87: 별표 3개 -1년 전-찢어주는 등심 안심}{86: 별표 4개 -1년 전-세계최고 소고기집 뉴욕의 어떤 스테이크 하우스보다 토스카니 티본스테이크 집보다 맛있는집}{85: 별표 5개 -1년 전-별4개 후한 점수가위가 없는 고깃집은 처음팬과 가위 없이 손진해주시는 이모님만으로 가치가 충분한 집물론 고기도 훌륭}{84: 별표 4개 -1년 전-창고 43답게 고기 맛은 보장됨.다만 다른 지점에 비해서 종업원의 서비스 질이 현저히 떨어짐. 전반적으로 반응도 느리고 무뚝뚝한 편임.  종업원분들을 재교육할 필요가 있음.}{83: 별표 5개 -6달 전-괜찮음.근데 좀 비싼것 치곤 별로}{82: 별표 5개 -1년 전-소고기는 원래 좋아하지 않아서 그런지 모르겠지만 너무비싸다ㅠ.ㅠ 귀한 손님 접대하기엔 좋을것 같다.}{81: 별표 4개 -1년 전-고기맛 훌륭좀 비싸요^^}{80: 별표 4개 -2년 전-식기 및 서비스가 리뉴얼되서 좋았어요}{79: 별표 5개 -11달 전-여의도에서 품질 좋은 한우 구이를 맛보려면 창고43으로!고기 먹고나서 된장을 시키면 고기불판의 그을음을 정리해서 된장국밥 형태로 제공함.}{78: 별표 3개 -1년 전-창고. 대도식당. 모두 진리.}{77: 별표 5개 -8달 전-가격이 부담스럽지만 맛있으니...}{76: 별표 5개 -1년 전-가격은 어느정도 높지만 품질이 좋아서 맘에 듭니다.}{75: 별표 4개 -2년 전-감사합니다.}{74: 별표 4개 -1년 전-굿}{73: 별표 5개 -11달 전-고기의 질이 점점 싼티 나는 맛. 한우치고는 깊은맛이 약함}{72: 별표 4개 -1년 전-진짜 여기는 맛으로는 까면 안돼요~ ㅎㅎ}{71: 별표 5개 -1달 전-숯불도 아니고 환기도 안되는데 어떻게 장사가 되는지 이해가 안되는 집고기는 좋은편이나 한번 가서 연기와 기름을 뒤집어 쓰고나면 다시는 가고 싶지 않다}{70: 별표 3개 -1년 전-맛있는 소고기 로스를 먹고싶다면 강추파무침과 명이절임 그리고 석박지깍두기가 일품식사로 된장말이(된장죽)이나 볶음밥도 강추가격은 좀 비싼편}{69: 별표 5개 -8달 전-맛있음. 아줌마들이 좀 불친절하지만.1인분 주문할때랑 2인분할때 고기 퀄리티가 다름}{68: 별표 2개 -1년 전-비싸지만 맛있는 집고기먹고 먹는 된장죽이 별미}{67: 별표 4개 -1년 전-여의도의 저렴하고 분위기 있는 고깃집.찾기가 조금 어려우나 다음에 또 가고 싶은 곳}{66: 별표 4개 -2년 전-싸고 깨끗하고 친절합니다}{65: 별표 5개 -1년 전-고기 육즙을 느끼면서 먹을 수 있도록 만들어 주셔서 맛있게 먹었습니다. 가격도 인정할수 있는정도입니다.}{64: 별표 4개 -1년 전-질 좋은 한우 먹고 싶을 땐 가는 집.  창고스페셜 고기 조합이 좋고 마무리로 깍두기볶음밥도 별미}{63: 별표 5개 -9달 전-걍 고깃집임. 뭐 대단한 것도 없고 안대단할것도 없음. 개인적으로는 그냥 오버프라이스된 접대용 식당임}{62: 별표 4개 -1년 전-여기 친구데려가면 항상성공하는곳이에요~ 옛날부터 가던곳인데 점점 고기두께도얇아지고있고 양파도안주고 그러네요..가격은올라가고.. ㅠ}{61: 별표 5개 -1년 전-오래된 건물이나 맛이 좋어요}{60: 별표 3개 -1년 전-소고기는 여기가 최고임}{59: 별표 4개 -1년 전-직접 구워주는 소고기 집입니다파채를 고기와 함께 구워먹으면 맛있습니다.}{58: 별표 4개 -7달 전-단가는 있지만 맛있는 소고기집..규모가 커서 단체회식에 적합}{57: 별표 5개 -8달 전-한우 먹으로갈때 딱좋은곳}{56: 별표 5개 -1년 전-오랫만에 다시한번 갔지만 여전히 맛있는 곳 (코기를 먹기좋게 찢어주시는 곳 ㅎ)}{55: 별표 4개 -1년 전-비싼 만큼 고기가 부드럽고 맛있음}{54: 별표 5개 -7달 전-직원 서비스 나쁨주문하는데 가격표 다시 한번 더 보고 주문하라 함}{53: 별표 5개 -1년 전-맛은 좋지만 가격은 부담되는 곳}{52: 별표 4개 -7달 전-좀 시끄럽지만 좌석이 분리되어있고 고기를 직접구워주어 편합니다(4층에 위치)20190925 에인젤과 함께}{51: 별표 1개 -11달 전-미역국은 맛있지만 점심메뉴가 빨리 매진되는데 항상 갈때마다 문제가 되니 준비가 덜 되어 있다고 판단됨. 음식 맛은 좋음.}{50: 별표 5개 -6달 전-고기 너무 기름지고  쌈장 양파등 제공 안됨  가격대비  별로예요}{49: 별표 4개 -9달 전-여의도 최고의 고기집점심 메뉴도 좋아요.}{48: 별표 4개 -1년 전-음식이 약간 비싼건 말고는 아주 훌륭해요.}{47: 별표 1개 -10달 전-음~~가게에들어서자환기가안되는지고기냄새가진동을해서별로임~~ㅠ고기맛은나쁘지않았지만~}{46: 별표 4개 -9달 전-가성비ㅈ괜찮고 고기 맛도 좋아요}{45: 별표 5개 -2년 전-갈비 살이  가격대비 없구 개인적인건데  콩나물  조합은 별루}{44: 별표 4개 -6달 전-고기를 찢어주는게 특징인 소고기집. 점심에는 미역국과 비빔밥을 먹으러 가기에도 좋다. 가격도 과히 비싸지 않고 퀄리티 있게 나옴.}{43: 별표 4개 -7달 전-추천받아서 부모님 모시고 갔는데 정갈하고 맛있었습니다}{42: 별표 1개 -9달 전-비싸도 꼭 들려봐야 하는 식당. 질 좋은 소고기를 맛볼 수 있을뿐만 아니라 식후 철판에 끓여먹는 '된장국밥'은 일품 중의 일품!! 단가격이 부담스럽다는 점은 잊지말자!}{41: 별표 4개 -1년 전-팬 프라이의 매력}{40: 별표 5개 -8달 전-소고기좋아하는 저는 엄청맛있게 먹었어요}{39: 별표 5개 -3년 전-가성비는 별로인데 고기 맛은 좋아요}{38: 별표 4개 -1년 전-숙성고기를 강한화력냄비에 구워주고파조리개와 무김치 양배추등과 먹으면환상임}{37: 별표 3개 -1년 전-고기 육즙을 잘 유지시켜 매우 맛있음깍두기 볶음밥도 꼭 먹어야함}{36: 별표 4개 -6달 전-제가 좋아하는 고깃집..파무침도 진짜 맛있고 마무리는 역시 된장말이~}{35: 별표 4개 -8달 전-돼지기름보다는 버터가 좋은데..?}{34: 별표 5개 -7달 전-비싸지만 개맛있음}{33: 별표 5개 -11달 전-부드럽고 맛있음구워주셔서 더 좋음}{32: 별표 4개 -8달 전-직접 구워주시고 볶음밥도 예술입니다. 살짝 비싸긴 하지만 정말 맛있는 소고이에 대한 예의??ㅋㅋ 환기가 잘 안되는게 살짝 아쉽습니다. 되도록이면 예약 추천}{31: 별표 5개 -2주 전-한우 명품. 창고만의 철판 구이 최고입니다. 후식으로 먹는 된장말이 추천}{30: 별표 4개 -1년 전-내가 최고로 좋아하는 소고기집}{29: 별표 5개 -9달 전-감사합니다}{28: 별표 4개 -2달 전-말이 필요없는 소고기 명가. 안심 강추}{27: 별표 5개 -1년 전-맛만 따지고 볼 때 숯불구이가 최고지만 이 집의 두꺼운 철판구이 또한 그에 못지 않게 맛있음. 후식의 볶음밥은 간이 적당하지만 가끔 스트레스 받는 날 짜게 부탁해서 먹어도 좋음}{26: 별표 4개 -2달 전-가격 값어치를 하는 음식. 대화 나누기 좋은 룸. 하지만 좀 좁고 전면이 막혀 있어 답답함이 조금 느껴집니다}{25: 별표 4개 -8달 전-고기 맛은 이미 검증이 된 유명한 집이죠. 일하시는 분들이 서로 더 바쁘다고 내테이블은 그만 보내라고 큰소리 내시는 일만 없으면 더 맛있게 식사할 수 있을 것 같습니다}{24: 별표 5개 -5달 전-비싸짐... 예전같지 않아}{23: 별표 4개 -7달 전-비싸긴합니다 맛있기도 합니다. 비싸서 더 맛있습니다 볶음밥도 맛나고 된장찌개는 약간 청국장에 더가까워서 전 별로. 좀비싸긴한데 내돈으로는 먹으러가고 싶지 않아요 ..순대국밥 먹고 에어팟 살걸ㅠㅜ}{22: 별표 3개 -1주 전-지인들과 오랜만에 좋은 고기 먹으러 가자고 찾아간 창고43...처음 방문 했을 때 고기를 가위을 안쓰고 결대로 찢어 주시는 것 보고 놀라고다 구운 고기 첫 입을 먹고 놀랐던 인상이 깊은 음식점입니다. 여의도에서 시작해서 강남 등에 지점도 운영하고 있는 것으로 아는 데 소고기 집 중에서는 종로 더미와 더불어 최고의 고기집이라고 생각합니다. 좋은 가격에 좋은 품질의 소고기를 즐기시고 싶은 분들께 강력하게 추천 드립니다.}{21: 별표 4개 -1년 전-회식하기 좋은 소고기 맛집.자르지 않고 찢어서 소고기를 먹는 경험을 할 수 있다!}{20: 별표 5개 -11달 전-감사합니다.또뵙겠습니다.}{19: 별표 4개 -7달 전-식당도  깔끔  맛있는고기  먹었습니다}{18: 별표 5개 -1달 전-직접 구워주시고 비싸지만 맛있다깍두기볶음밥은 무슨맛인지 모르겠다담에는 된장말이밥을 먹어봐야지}{17: 별표 5개 -7달 전-가격은 좀 쎄지만 고기는 훌륭합니다. 깍두기 볶음밥 아주 맛있습니다.}{16: 별표 5개 -7달 전-안심추천고기 불판이 작아서 2인분 정도 굽기 가능함직접 구워 주는데 넙적한 도구?로 고기를 찢어주고 가는데 정말 살살 녹음..고기기름에 감자와 양배추 구이도 맛있다.단..사람이 많은 시간에 갔더니 고기를 주문하면 너무 늦게 나오니 주문을 바로바로 해야함}{15: 별표 4개 -8달 전-여의도 내 유명한 소고기구이집 중 하나. 여의도백화전 2층과 4층에 나누어 있으니 어디로 예약하셨는지 잘 확인하세요. 파무침 양상추 고추장이 시그니처이고 후식으로 깍두기밥 외에 최근에 된장밥이 생겼네요. 이것도 꽤 먹을만 합니다. 2인분만 해도 꽉차네요. 저녁 10시까지라 늦게까지 있지는 못하는 아쉬운이.. 최근에는 회식이 줄어서 그런지 저녁에 북적거리지는 않네요.}{14: 별표 5개 -1년 전-여의도 창고는 절대 가지 마세요불친절하고 시스템 엉망임결제직원과 대기고객 관리 직원이 따로 없어서순서도 엉망이고여자 점장이었고한참 기다렸다가 안내 안해주냐고 물어보니까무슨얘기하냐는 듯 표정으로1시간 기다려야 한다고 함미안하다는 말도 없었음 표정도 안좋았음진작 말해주던가..자주 가던 곳인데 정말 실망임왠만하면 다른 맛있는 고기집으로 가세요맛도 있고 친절한 곳 많아요}{13: 별표 1개 -8달 전-맨해튼(?) 빌딩의 1층과 2층 사이 MF층에 있어서 올라가는 계단을 못찾아 잠시 헤매었음;비싼만큼 맛있고 친절한 서비스의 소고기집}{12: 별표 4개 -6달 전-고기도 좋고 맛있긴 한데 특별한지는 잘 모르겠다.}{11: 별표 4개 -1년 전-맛도 좋고 분위기도 좋은 곳 입니다~^^}{10: 별표 5개 -1주 전-인테리어와 분위기가 고깃집 중에서는 좋은편 이었습니다. 한우의 식감과 맛 그리고 육즙은 훌륭했어요. 저는 개인적으로 고기와 곁들여진 감자가 맛있었어요. 식사로 제가 먹은 된장말이를 추천드립니다. 디저트로 준 매실이 식사를 깔끔하게 마무리해줘서 좋았어요. 하지만 사람이 많아서 직원들이 분주해서 서비스는 살짝 아쉬었습니다. 전체적으로 좋았어요.^^}{9: 별표 5개 -7달 전-고기도 맛있고 양배추감자구워 먹는것도 좋습니다.개인적으로 불판갖고싶네요ㅎㅎ 된장말이밥하고 깍두기밥이 같이 안되는게 아쉽네요ㅜ된장말이밥은 냄비에 같이 끓여오면되고 불판엔 깍두기밥만하는게 좋을것같아요.감자많이들어간 된장국에 밥말아먹는거랑 다를게없으니까요.고기를 조금 작게썰어주셨으면 좋겠습니다 가뜩이나 비싼데ㅜㅜ}{8: 별표 4개 -1년 전-소고기는 맛있다 서비스도 좋다아쉬운점은 바닥이 미끄럽다환기가 잘 안된다입구가 계단이라서 유모차가지고 출입하기 힘들다}{7: 별표 3개 -3달 전-우선 고기의 맛은 좋았습니다.다만 서비스 측면에서 아쉬운 점이 몇 가지 있었는데요.바쁘신 상황임을 인지 하더라도 너무 서빙이나 구워주시는 것이 느렸습니다.고기 추가주문을 수차례 했었는데 주문 할 때마다 너무 늦게오고ㅠ 오더라도 구워주시는데까지 시간이 너무 오래걸려서 결국 저희가 직접 구워먹었습니다.또한 와인 콜키지를 이용하였는데 잔 수가 부족하다고 하여 인원대로 받지 못하는 상황이 생겼습니다.인원이 꽤 있었고 바쁜 시간대에 가서 생긴 일이라 생각 되긴 하지만 가격대비에 만족스러운 서비스는 아니였습니다 ㅠ}{6: 별표 3개 -5달 전-올때마다 느끼지만 본점에서의 기억은 항상 좋다. 요즘 들어 서울시내 곳곳에 분점이 많이 생기고 있는데 본점에는 없는 break time이 있거나 본점에서의 식사만큼은 서비스 품질이 아닌 경우가 간혹 있다. (고기 구워주시는 서버분의 친절함이나 노련함 반찬 리필 대처 등)}{5: 별표 5개 -1년 전-가격에 비해 품질이 크게 만족스럽지 않고 공간이 독립되어 있지 않아 많이 시끄러운 곳}{4: 별표 3개 -1달 전-7-8개월만에 갔더니 고급스럽게 리노베이션이 되어서 확 달라진 실내에 알아서 척척 챙겨주시는 직원분들 넘 좋았어요. 스페셜세트 냉면 볶음밥 다 맛있었고 토요일 저녁 7시반 넘어서 갔더니 차분하고 깔끔한 느낌이었어요. 룸도 많이 생겨서 모임이나 단체행사도 가능하겠고 저희는 창고 너무 만족합니다. 생긴지 벌써 한 20-30년 된것 같은데 (잡지사 기자 출신이 창업) 당시 센세이션했던 몇년전 매각되고 다시 얼마전 삼성전자…}{3: 별표 5개 -7달 전-감사합니다다음에또뵙겠습니다}{2: 별표 4개 -1달 전-서버분들이 조금 아쉬웠지만. 고기 맛은 좋네요!숯불구이가 아니라 쿡탑에 대도식당 프라이팬이 있습니다.}{1: 별표 4개 -5달 전-여의도 [창고43]4.3kg의 무쇠팬에 구워내는 1+등급 한우 전문점.&lt;U+2800&gt;여의도에 위치한 고품격 프리미엄 한우 전문점 [창고43]. 재밌는 점은 치킨회사인 bhc에서 운영한다는 점이다. 회사의 자본력과 기존 경영노하우를 토대로 운영한다. 뿌링클이 만들어낸 한우전문점이다. 창고43의 의미는 4.3kg의 무쇠솥에 1g도 속이지 않는 정량과 최적의 숙성으로 한결같은 한우맛을 지켜내겠다는 의미라고 한다.&lt;U+2800&gt;여의도에만 4개의…}</t>
   </si>
   <si>
     <t>스시아라타</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로8길 16</t>
+  </si>
+  <si>
     <t>{77: 별표 5개 -2달 전-}{76: 별표 5개 -6달 전-}{75: 별표 5개 -6달 전-}{74: 별표 5개 -1년 전-}{73: 별표 4개 -2달 전-}{72: 별표 5개 -1년 전-}{71: 별표 5개 -1년 전-}{70: 별표 5개 -8달 전-}{69: 별표 5개 -3달 전-}{68: 별표 5개 -9달 전-}{67: 별표 5개 -11달 전-}{66: 별표 5개 -1년 전-}{65: 별표 5개 -1년 전-}{64: 별표 5개 -1년 전-}{63: 별표 5개 -1년 전-}{62: 별표 4개 -2달 전-}{61: 별표 5개 -7달 전-}{60: 별표 5개 -1년 전-}{59: 별표 5개 -8달 전-}{58: 별표 5개 -1년 전-}{57: 별표 5개 -1년 전-}{56: 별표 4개 -1년 전-}{55: 별표 3개 -4달 전-}{54: 별표 5개 -1년 전-}{53: 별표 5개 -7달 전-}{52: 별표 5개 -1년 전-}{51: 별표 5개 -11달 전-}{50: 별표 5개 -1년 전-}{49: 별표 3개 -1년 전-}{48: 별표 3개 -11달 전-}{47: 별표 5개 -1년 전-}{46: 별표 5개 -1년 전-}{45: 별표 4개 -11달 전-}{44: 별표 4개 -1년 전-}{43: 별표 5개 -1년 전-}{42: 별표 5개 -7달 전-}{41: 별표 5개 -7달 전-}{40: 별표 5개 -11달 전-}{39: 별표 5개 -10달 전-}{38: 별표 5개 -1년 전-(Google 번역 제공) 서울 최고의 스시 레스토랑! 고품질의 저렴한 가격 ♡(원문)The best Sushi restaurant in Seoul!! High quality low price♡}{37: 별표 5개 -1년 전-존맛 by ㅌㅇㅁ}{36: 별표 5개 -1년 전-그냥 최고}{35: 별표 3개 -1년 전-분위기로...}{34: 별표 3개 -1년 전-믿기지 않는 가격 맛있음}{33: 별표 5개 -1년 전-뭘 더 바라랴. 타쿠미곤 계열 숙성스시}{32: 별표 5개 -10달 전-예약이 어려운 스시오마까세}{31: 별표 5개 -1년 전-꼭 가야할곳 한번도 안가본 사람은 있어도 한번만 가본 사람은 없을것이다}{30: 별표 5개 -1년 전-최고의 숙성 스시}{29: 별표 3개 -10달 전-그냥 입문용 그이상 그 이하도 아님}{28: 별표 5개 -1년 전-숙성스시와 초샤리의 조화는 럽}{27: 별표 1개 -9달 전-7만원이라 저렴할수도 있지만 요새 3만5천원짜리도 많고 그수준 같음 여의도 스시아루히 가격2배인데 수준 같음}{26: 별표 3개 -11달 전-생각보다 샤리가 너무질고 빨리 물린다..네타의 숙성단계는 호불호가 있을 수 있음..밥이 너무 아쉽다.}{25: 별표 5개 -1년 전-가장 아끼는 스시야. 예약이 엄청 어렵지만 방문할 때마다 절대로 후회하지 않는 숙성스시의 맛을 느낄 수 있는 최애 업장!}{24: 별표 5개 -11달 전-디너 7만원에 이렇게 잘 나오면 반칙 아닌가요}{23: 별표 5개 -8달 전-예약좀 어떻게좀 ㅠㅠㅠㅠ 가성비란 말론 부족한 셰프님의 정성과 성의가 드러나는 맛도 양도 최고의 스시야}{22: 별표 4개 -8달 전-굳굳굳스시 뷔페 좋아하시는분 꼭 방문요~}{21: 별표 5개 -11달 전-베스트는 고등어&lt;U+0001F92A&gt;숙성스시 경험해 보고 싶으신 분들은 여기서 경험 해보시면 좋을 것 같아요~ 셰프님 친절하시고 센스 있으십니다^^}{20: 별표 4개 -10달 전-분위긴소박합니다. 하지만 가성비 괜찮고 무엇보다 맛있습니다. 이만하면 충분한 평가입니다 ^^}{19: 별표 4개 -5달 전-예약이 정말 어렵지만 맛은 좋다. 처음 온 손님에 대한 배려는 조금 부족한듯}{18: 별표 5개 -5달 전-맛있어요. 숙성이 참 좋아요}{17: 별표 5개 -1년 전-두 번째이자 2019년 처음이자 마지막 방문 최상의 행복을 맛보게 해주는 곳 입니다. 감사합니다}{16: 별표 5개 -8달 전-이 가격대에 이만한데도 드물다고 생각합니다. 예약이 꽤나 힘든 것이 단점.}{15: 별표 4개 -1년 전-다 좋은데 음식이 너무 느리게(?) 나옴}{14: 별표 4개 -8달 전-이정도 가격대에서 이정도 먹을 수 있는고은 확실히 없다. 어느 유튜버가 샤리 개노답이라고 했지만.. 그정도는 아니고 것 보단 가격대비 만족도는 높았으나 네타의 출신 과 포션이 약간 아쉬웠으나 가격을 생각하면 충분히 합리적이다. 매일 스시인을 갈 순 없지 아니한가}{13: 별표 5개 -1년 전-가성비 좋은 시간 보내고 왔습니다}{12: 별표 5개 -3달 전-셰프님의 고만과 열정으로 지금보다 앞으로가 기대되는 곳}{11: 별표 5개 -8달 전-예약이 어려워서 그렇지 갈 때마다 너무 만족하는 곳이에요 ㅎ}{10: 별표 5개 -7달 전-상대적 부담이 낮은 가격에 비해 맛이 좋아 예약하기 힘든 아라타. 곧 여의도로 이전한다고 합니다}{9: 별표 5개 -2달 전-진심 너무 맛있음 내 인생 초밥이며 내 인생 사시미이며내 인생 장어구이이며 내 인생 아이스크림이다예약하기가 정말 힘들지만 그만큼 값어치하는 최고의 가게재방문의사 100%}{8: 별표 4개 -7달 전-셰프님 목소리 좋고요숙성 스시 진입장벽 낮췄구요작은 공간 매력있구요이제 여의도로 진출하셔서 번창하시길}{7: 별표 5개 -1년 전-7만원으로 올랐지만 그만한 가치가 충분히 있습니다.}{6: 별표 5개 -1년 전-더할나위없었습니다. 첫 방문임에도 친절하게 응대해주시는 쉐프님과 맛있는 음식들. 최고의 경험ㅡ}{5: 별표 5개 -2달 전-방문해 볼 수만 있다면 추천~}{4: 별표 5개 -1년 전-디너 두번째...말이 필요없는 가성비. 스시에 가성비 따져서 미안한 마음이지만....그래도 가격대비 정말 훌륭. 후또마끼가 정말 후또후또 하다. 한입에 절대 불가. 오늘은 도화새우와 우니가 정말 훌륭했다.}{3: 별표 3개 -1년 전-좁지만 아늑한 분위기 셰프와 손님 사이의 매우 가까운 거리 보는 즐거움이 있는 거대한 후토마끼(다른 곳 두 배는 될듯) 등 대중들이 스시야에서 기대하는? 열광하는? 지점을 극대화한 스시야. 가성비는 압도적이나 서울에서 매우 높은 편에 속하는 예약 난이도를 감안하면 큰 의미는 없다.}{2: 별표 4개 -2달 전-국내에서 독특한 숙성방식으로 스시를 제공하는 몇 안되는 업장 중 하나.초반에는 가성비를 무기로 많은 사랑을 받았으며 현재는 여의도로 자리를 옮겨 김현식셰프님만의 스타일로 사랑을 받고 있다.국내는 물론 해외에서도 경험하기 어려운 독특한 스시오마카세 코스(양식+스시)를 제공한다.}{1: 별표 5개 -2달 전-코스의 중간중간 튀어나오는 창의적인 메뉴가 재미있으면서도 서빙 순서에 강약이 잘 조절되어 있어 김현식 셰프님께서 전체적인 흐름도 잘 고민해서 코스를 구성하셨을 거란 생각이 든다.파인다이닝에 온 느낌이었다. 샤리는 간이 세지 않은 편. 좋은 네타의 맛을 극대화해준다. 셰프님들께서 편하면서도 유쾌하게 접객해주셔서 즐거운 시간을 보낼 수 있었다. 또 기회가 있다면 가보고 싶다.}</t>
   </si>
   <si>
     <t>하쯔호</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의동로 213 금호리첸시아 B1</t>
+  </si>
+  <si>
     <t>{91: 별표 5개 -6달 전-}{90: 별표 5개 -1년 전-}{89: 별표 4개 -10달 전-}{88: 별표 5개 -1년 전-}{87: 별표 4개 -1년 전-}{86: 별표 5개 -1년 전-}{85: 별표 5개 -2년 전-}{84: 별표 5개 -3주 전-}{83: 별표 5개 -11달 전-}{82: 별표 5개 -7년 전-}{81: 별표 5개 -2년 전-}{80: 별표 4개 -1년 전-}{79: 별표 4개 -11달 전-}{78: 별표 5개 -1년 전-}{77: 별표 5개 -1년 전-}{76: 별표 5개 -1년 전-}{75: 별표 5개 -9달 전-}{74: 별표 4개 -1년 전-}{73: 별표 4개 -1년 전-}{72: 별표 5개 -10달 전-}{71: 별표 5개 -1년 전-}{70: 별표 5개 -7시간 전-}{69: 별표 5개 -10달 전-}{68: 별표 4개 -1년 전-}{67: 별표 5개 -3주 전-}{66: 별표 5개 -1년 전-}{65: 별표 5개 -3년 전-}{64: 별표 4개 -1달 전-}{63: 별표 5개 -5달 전-}{62: 별표 5개 -1년 전-}{61: 별표 5개 -2달 전-}{60: 별표 4개 -1년 전-}{59: 별표 5개 -11달 전-}{58: 별표 5개 -2년 전-}{57: 별표 4개 -2년 전-}{56: 별표 5개 -3달 전-}{55: 별표 5개 -2달 전-}{54: 별표 4개 -4달 전-}{53: 별표 4개 -1년 전-}{52: 별표 5개 -9달 전-}{51: 별표 4개 -3달 전-}{50: 별표 5개 -2년 전-}{49: 별표 5개 -1년 전-(Google 번역 제공) 진정한 스시 경험(원문)True sushi experience}{48: 별표 5개 -1년 전-(Google 번역 제공) 점잖은 스시 가게(원문)Decent place to go for sushi}{47: 별표 5개 -1년 전-여긴 멋진 곳!}{46: 별표 5개 -2년 전-정말 강추합니다.}{45: 별표 5개 -1년 전-여긴 아는 사람만 안다}{44: 별표 4개 -7년 전-점잖은 분위기. 점심정식 양이 상당함}{43: 별표 5개 -1년 전-좋습니다! 추천드립니다~!}{42: 별표 5개 -3년 전-상호명 '하쯔호'로 바뀜. 서울 미들급 스시의 최고존엄}{41: 별표 5개 -3년 전-저녁 오마카세 가성비 매우 좋음}{40: 별표 5개 -10달 전-깔끔한 식사}{39: 별표 4개 -7년 전-스시정식과 사시미정식으로 나뉨. 가격은 10~12만원선(저녁)양도 충분하고 예약은 필수나름 분위기 있고 조용한 편}{38: 별표 4개 -3년 전-가격대비 식사의 질이 상당합니다 분위기도 조용하고 직원들도 친절합니다. }{37: 별표 5개 -3년 전-하쯔호 맛있었습니다. 저녁에 10만원 오마카세 먹었는데 가격대 성능비가 좋습니다.}{36: 별표 4개 -1년 전-점시 스시 좋네요~}{35: 별표 5개 -1년 전-좋은 스시 적절한 가격}{34: 별표 5개 -1년 전-갓성비}{33: 별표 4개 -1년 전-만족할 만한 미들급 스시}{32: 별표 5개 -1년 전-적당한 고급일식당입니다.}{31: 별표 4개 -10달 전-맛있어요. 비싸요}{30: 별표 4개 -1년 전-깔끔하고 음식도 맛있네요.}{29: 별표 5개 -11달 전-좋은 서비스와 편안한 분위기}{28: 별표 5개 -6달 전-가격대비 최고}{27: 별표 5개 -1년 전-인근에선 확실히 젤 좋은 스시집. 분위기랑 뷰 빼면 63에 있는 슈치쿠를 누가 왜 가나 싶을 정도}{26: 별표 5개 -7달 전-항상 맛있게 잘 먹는 곳}{25: 별표 5개 -1년 전-항상 맛난 스시 친절한 서비스 제공해주셔서 감사감사. 방문할 때마다 발전하는 곳}{24: 별표 5개 -1년 전-일류 호텔 오마카세를 먹는 듯한 맛이었음. 스시맨에게 극찬을 하다나옴. 강추}{23: 별표 5개 -2년 전-정말 괜찮은 미들급 스시야입니다. 이 가격에 이정도 맛과 양 줄수있는데가 없어요.식사까지 완벽하게 맛있는 스시야임!}{22: 별표 5개 -1년 전-가성비 상당히 좋네요. 강남쪽 스시집에 손색없습니다. 강추합니다.}{21: 별표 5개 -7달 전-정말 맛있고 쉐프님들 친절하고 좋은 곳차가 없으면 가기 힘드나 예약 안하면 가기 힘드나자주 가고 싶은 곳.}{20: 별표 5개 -5달 전-아주 만족스러운 식사 가능}{19: 별표 4개 -3년 전-맛은 있지만 주말은 안해서 자주 애용하긴 힘들듯. 가격은 비싸긴한데 값어치는 해요.}{18: 별표 5개 -1년 전-재료의 질과 맛 모두 훌륭했습니다. 미리 장호 쉐프님 예약하고 가시는게 좋습니다. 디너는 값이 조금 비싸지만 재방문하고 싶네요. 2~3인 정도가 가기 좋은 것 같습니다.}{17: 별표 5개 -2달 전-너무 맛있었습니다. 먹느라고 사진을 다 못 찍은게 아쉬웠어요 다음에 또 방문하겠습니다!}{16: 별표 4개 -2달 전-전통적인 스시오마카세}{15: 별표 5개 -2년 전-런치 코스를 이용했습니다. 아주 만족스러웠고 일행 역시 즐겁게 식사를 했습니다. 이정도 비용이면 가성비를 판단하기 앞서 미안할 정도네요. 음식의 맛은 물론이고 세세한 부분까지 훌륭했습니다. 하나하나 나올 때마다 기대하며 식사를 즐겨본게 오랜만이라 조만간 가족들과 디너도 경험해보려고 합니다.}{14: 별표 5개 -1년 전-점심값 5만원이 아깝지 않음. 더 먹고 싶은 것은 더 만들어 줌}{13: 별표 4개 -10달 전-맛있는 미들급스시. 다만 후식 아이스크림으로 녹차아이스크림을 꼭 써야겠다면 하겐다즈로 내주세요서버분 물컵 잡으실때 가급적이면 위쪽말고 중앙쪽을 잡아주세요.}{12: 별표 4개 -2년 전-디너 오마카세로 양껏 먹고 갑니다. 맛은 말할것도 없고 장호 셰프님의 세심한 배려 덕에 짧지 않은 시간 동안 잘 대접 받는 느낌이 너무 좋았습니다. 내년에도 다시 찾아뵙겠습니다.}{11: 별표 5개 -10달 전-진짜 너무 맛있어서 눈물나요... 입에서 살살...~ 오마카세 너무 맛있네요....}{10: 별표 5개 -5일 전-여의도 최고의 스시집}{9: 별표 4개 -1년 전-미들급 스시의 강자여의도에서는 가장 괜찮은 곳}{8: 별표 5개 -6달 전-런치 스시 오마카세 전체적으로 양도 충분하고 음식 퀄리티도 훌륭. 재방문 의사 있음 나의 별점은 4.5점}{7: 별표 4개 -1년 전-여의도 금호리첸시아 지하에 위치한 스시집.신선함과 담백함으로 묵직하게 승부를 보는 미들급의 스시오마카세가 참으로 깔끔했습니다.}{6: 별표 5개 -5달 전-공덕의 정미와 더불어 가성비 최고의 미들급 스시야}{5: 별표 5개 -1년 전-좋은음식을 푸짐하게 대접 받으니 먹다보면 미안해지는 곳. 7만원 점심 오마카세 강력히 추천. 싫어하는 스시를 좋아하는 것으로 대치해줌. 주차장 입구가 좁지만 주차는 편리함.}{4: 별표 3개 -3년 전-가격에 비해 다양한 네타. 샤리는 초가 상당히 강한편. 초가 강한 샤리를 좋아하는 편이긴한데 사과식초같은 뉘앙스라 좀 낯선타입}{3: 별표 5개 -1주 전-재료가 너무 신선하고 셰프님이 친절하십니다. 만족도 10000% 믿고 가셔도 됩니다.}{2: 별표 5개 -1년 전-비싸네요.근데 돈값을 하는 집이니까.오마카세집이 여의도에 여러군데 있지만 탑클라스에 들어가는 집 중 하나.성게알 사용하는게 예술이고 밥알 계란 같은 재료에 공을 많이 들여서 음식을 하는 집.좋아하는 사람과 충분한 시간을 가지고 대화하면서 대접받는 식사를 하고 싶다면 추천.}{1: 별표 5개 -1달 전-여의도에서 평일 점심 오마카세 먹기 제일 좋은곳.스시가 정말 맛있고 마지막에 나오는 청어소바도 좋았습니다.디너는 가격이 조금 쎈편이었습니다.맛있는데 주말에는 안하는것이 아쉬웠어요.}</t>
   </si>
   <si>
     <t>피그인더가든</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의대로 56 한화손해보험빌딩 1F</t>
+  </si>
+  <si>
     <t>{299: 별표 4개 -7달 전-}{298: 별표 2개 -7달 전-}{297: 별표 4개 -1년 전-}{296: 별표 4개 -1년 전-}{295: 별표 4개 -2년 전-}{294: 별표 5개 -1달 전-}{293: 별표 5개 -10달 전-}{292: 별표 5개 -1년 전-}{291: 별표 4개 -10달 전-}{290: 별표 5개 -11달 전-}{289: 별표 4개 -4일 전-(Google 번역 제공) 건강하고 가벼운 식사를위한 좋은 선택입니다.내 하이라이트 :Power Bowl은 레스토랑에서 최고의 것으로 명명되었으며 실망하지 않았습니다. 퀴 노아와 아보카도를 포함하여 질감과 신선함을 제공합니다.시저 샐러드는 단순히 치즈 맛이 좋고 맛있었습니다.소고기 버섯 덮밥은 제가 개인적으로 좋아하는 불고기 맛이납니다.(원문)A good choice for a healthy and…}{288: 별표 4개 -1년 전-}{287: 별표 4개 -1달 전-}{286: 별표 4개 -1달 전-}{285: 별표 4개 -2년 전-}{284: 별표 3개 -2년 전-}{283: 별표 4개 -2년 전-}{282: 별표 4개 -2년 전-}{281: 별표 5개 -2년 전-}{280: 별표 5개 -1년 전-}{279: 별표 5개 -1년 전-}{278: 별표 2개 -10달 전-}{277: 별표 4개 -2년 전-}{276: 별표 5개 -1년 전-}{275: 별표 4개 -2년 전-}{274: 별표 5개 -1년 전-}{273: 별표 5개 -1년 전-}{272: 별표 4개 -1년 전-}{271: 별표 1개 -1년 전-}{270: 별표 4개 -2년 전-}{269: 별표 4개 -9달 전-}{268: 별표 5개 -2년 전-}{267: 별표 3개 -1년 전-}{266: 별표 3개 -6달 전-}{265: 별표 4개 -7달 전-}{264: 별표 5개 -1년 전-}{263: 별표 4개 -1년 전-}{262: 별표 5개 -6달 전-}{261: 별표 4개 -4달 전-}{260: 별표 2개 -2년 전-}{259: 별표 5개 -3주 전-}{258: 별표 3개 -6달 전-}{257: 별표 4개 -2년 전-}{256: 별표 5개 -8달 전-}{255: 별표 5개 -1년 전-}{254: 별표 3개 -2년 전-}{253: 별표 4개 -1년 전-}{252: 별표 4개 -8달 전-}{251: 별표 4개 -2달 전-}{250: 별표 5개 -9달 전-}{249: 별표 4개 -8달 전-}{248: 별표 5개 -1년 전-}{247: 별표 4개 -2년 전-}{246: 별표 4개 -1년 전-}{245: 별표 5개 -2달 전-}{244: 별표 3개 -1년 전-}{243: 별표 4개 -10달 전-}{242: 별표 4개 -1년 전-}{241: 별표 5개 -2주 전-}{240: 별표 2개 -1년 전-}{239: 별표 5개 -3달 전-}{238: 별표 4개 -1년 전-}{237: 별표 5개 -1년 전-}{236: 별표 3개 -1년 전-}{235: 별표 4개 -1년 전-}{234: 별표 4개 -2년 전-}{233: 별표 3개 -1년 전-}{232: 별표 5개 -11달 전-}{231: 별표 4개 -1년 전-}{230: 별표 5개 -10달 전-}{229: 별표 5개 -9달 전-}{228: 별표 3개 -11달 전-}{227: 별표 4개 -1년 전-}{226: 별표 3개 -11달 전-}{225: 별표 5개 -2년 전-}{224: 별표 4개 -8달 전-}{223: 별표 3개 -1년 전-}{222: 별표 5개 -1년 전-}{221: 별표 4개 -2년 전-}{220: 별표 5개 -2년 전-}{219: 별표 4개 -1년 전-}{218: 별표 4개 -2년 전-}{217: 별표 4개 -1년 전-}{216: 별표 4개 -2년 전-}{215: 별표 5개 -2년 전-}{214: 별표 5개 -6달 전-}{213: 별표 5개 -1년 전-}{212: 별표 5개 -5달 전-}{211: 별표 5개 -2주 전-}{210: 별표 4개 -4달 전-}{209: 별표 5개 -2달 전-}{208: 별표 5개 -2년 전-}{207: 별표 5개 -2년 전-}{206: 별표 4개 -4달 전-}{205: 별표 4개 -8달 전-}{204: 별표 5개 -1년 전-}{203: 별표 5개 -11달 전-}{202: 별표 5개 -6달 전-}{201: 별표 5개 -2달 전-}{200: 별표 4개 -1년 전-}{199: 별표 3개 -6달 전-}{198: 별표 5개 -2년 전-}{197: 별표 5개 -1년 전-}{196: 별표 4개 -1달 전-}{195: 별표 5개 -1달 전-}{194: 별표 3개 -1년 전-}{193: 별표 4개 -2년 전-}{192: 별표 4개 -2달 전-}{191: 별표 5개 -2년 전-}{190: 별표 4개 -2달 전-}{189: 별표 4개 -2년 전-}{188: 별표 5개 -3달 전-}{187: 별표 3개 -11달 전-}{186: 별표 5개 -8달 전-}{185: 별표 5개 -11달 전-}{184: 별표 5개 -1년 전-}{183: 별표 4개 -2년 전-}{182: 별표 4개 -1년 전-}{181: 별표 4개 -1년 전-}{180: 별표 5개 -2년 전-}{179: 별표 5개 -2주 전-}{178: 별표 4개 -1년 전-}{177: 별표 5개 -7달 전-}{176: 별표 5개 -1년 전-}{175: 별표 4개 -1년 전-}{174: 별표 5개 -1년 전-}{173: 별표 4개 -1년 전-}{172: 별표 2개 -2년 전-}{171: 별표 2개 -5달 전-}{170: 별표 3개 -1주 전-}{169: 별표 3개 -8달 전-}{168: 별표 4개 -1달 전-}{167: 별표 4개 -1년 전-}{166: 별표 4개 -3달 전-}{165: 별표 3개 -1년 전-}{164: 별표 4개 -2년 전-}{163: 별표 2개 -9달 전-}{162: 별표 3개 -1년 전-}{161: 별표 4개 -2년 전-}{160: 별표 4개 -9달 전-}{159: 별표 5개 -1년 전-}{158: 별표 5개 -2년 전-(Google 번역 제공) 신선한 재료(원문)Fresh ingredients}{157: 별표 3개 -1년 전-(Google 번역 제공) 확인.(원문)ok.}{156: 별표 5개 -1년 전-(Google 번역 제공) 우수한!(원문)Excellent !}{155: 별표 3개 -1년 전-(Google 번역 제공) 맛은 괜찮지 만 비싸지.(원문)Taste okay but pricy.}{154: 별표 5개 -8달 전-(Google 번역 제공) 놀랄 만한! 건강한(원문)Amazing! Healthy}{153: 별표 5개 -1년 전-(Google 번역 제공) 신선하고 맛있는 샐러드 맛있는 커피와 도움이되는 직원. 나는 단지 그것을 권고 할 수있다.(원문)Fresh and tasty Salad good Coffee and helpfull Staff. I can only recommand it.}{152: 별표 5개 -6달 전-(Google 번역 제공) 좋고 맛있는(원문)Good and tasty}{151: 별표 4개 -11달 전-(Google 번역 제공) 엉덩이 음식. 다이어트에 좋습니다.(원문)Hip food. Good for dieters.}{150: 별표 5개 -1년 전-(Google 번역 제공) 채식주의자를 위해 아주 좋은 선택권이 있고 값은 강남에있는 대중 음식점을 위해 적당하다.(원문)Pretty good options available for vegetarian and the price is affordable for restaurants in 강남.}{149: 별표 3개 -2년 전-(Google 번역 제공) 샐러드는 아주 신선하고 잘 준비되어 있습니다. 그러나 조미료는 크지 않습니다. 셀프 서비스 조미료 스테이션이 없기 때문에 러쉬 아워 동안 더 많은 소금과 후추 등을 구하기가 매우 어렵습니다. 점심 큐는 오래 가지 못하고 서비스가 매우 느립니다. 직원은 혼잡 시간에 참을성이 없습니다. 음식은 위대하고 건강하기 때문에 수치 스럽습니다.(원문)Salad is very fresh and well…}{148: 별표 5개 -1년 전-(Google 번역 제공) 건강에 좋은 음식(원문)Good healthy food}{147: 별표 5개 -1년 전-(Google 번역 제공) 아름다운 분위기와 음식도 좋습니다!(원문)Beautiful ambience and the food is also great!}{146: 별표 5개 -1년 전-(Google 번역 제공) 그런 놀라운 장소. 돼지 고기 배가이 세상에 있습니다.(원문)Such an amazing place. The pork belly is out of this world}{145: 별표 5개 -9달 전-(Google 번역 제공) resonable 가격 신선한 음식.(원문)resonable price fresh food.}{144: 별표 5개 -1년 전-(Google 번역 제공) 매우 맛있는 샐러드와 친절한 직원. 깨끗하고 빛이 가득하며 모두 좋은 환경에서.(원문)Very tasty salad and friendly staff. Clean full of light and all in all a good environment.}{143: 별표 5개 -1달 전-(Google 번역 제공) 그런 멋진 장소(원문)Such a lovely place}{142: 별표 5개 -9달 전-(Google 번역 제공) 그들은 훌륭하게 요리합니다. 그리고 유럽인에게는 음식이 이해하기 쉽습니다. 히비스커스 레몬 티를 좋아했습니다.(원문)Готовят отменно. И для европейца еда внятная. Очень понравился чай гибискус-лимон}{141: 별표 4개 -1년 전-(Google 번역 제공) 우리 둘다 처음으로 친구와 함께 갔다. 우리는 우리가 먹었던 음식 (우리는 샐러드를 먹었다)을 전부 즐겼다. 그리고 대기는 정말로 좋았다. 넓게 펼쳐진 창문으로 식물과 관목으로 자연 채광을 많이 보며 거리 건너편에 공원이 있습니다. 저의 가격은 조금 비쌌습니다. (대학원생이 말하기가 어려웠습니다.) 파삭 파삭 한 치킨 샐러드에 10000 원을 지불 했으므로 단지 4 개의 별만을 지불했습니다. 나는…}{140: 별표 5개 -3달 전-(Google 번역 제공) 비건 채식과 건강한 음식을 먹을 수있는 곳입니다.(원문)A decent place for vegan and healthy food.}{139: 별표 2개 -1년 전-(Google 번역 제공) 강남 지점만큼 혼잡하지는 않습니다. 잘 꾸며진 화려한 인테리어. 나는 연어와 아보카도 그릇을 주문하고 오리 그릇을 친구와 함께 구웠다. 음식 맛의 관점에서 나는 다른 가지들 사이에 큰 차이가 있다고 생각하지 않습니다. 프랜차이즈가 고객에게 제공하는 제품의 품질을 표준화하고 일관성있게 유지해야하기 때문입니다. 지점은 접근하기 편리한 위치에 있습니다. 9 호선과 5 호선 여의도역에서 도보로 3 분…}{138: 별표 4개 -1달 전-(Google 번역 제공) 서울의 여의도에서 가장 좋은 곳 중 하나입니다. 웰빙을 경험하고 싶다면 가서 서비스를 확인하십시오.(원문)One of very well place in Youido Seoul. If you woulike to experience wellbing. Please go and checkout there service.}{137: 별표 5개 -1년 전-(Google 번역 제공) 꽤 좋은 브런치 장소. 완벽한 샐러드 드레싱하지만 ade는 너무 달콤합니다.(원문)Fairly good brunch place. Perfect salad dressings but ade is way too sweet.}{136: 별표 3개 -2년 전-샐러다 둘이먹고 음료수 마시니 4만원이나오더라...}{135: 별표 3개 -2년 전-내취향은 아니라는}{134: 별표 5개 -2년 전-깔끔한 분위기}{133: 별표 4개 -2년 전-괜찮아요}{132: 별표 5개 -2년 전-감사합니다}{131: 별표 3개 -1년 전-생각보다...}{130: 별표 5개 -1년 전-꿀맛}{129: 별표 4개 -2년 전-정말 좋은 곳!}{128: 별표 4개 -1년 전-저렴한 생고기집}{127: 별표 4개 -1년 전-괜찮은}{126: 별표 5개 -9달 전-샐러드 맛집}{125: 별표 4개 -2년 전-신선하고 깔끔한 맛}{124: 별표 4개 -10달 전-좋아요}{123: 별표 5개 -2년 전-신선하고 든든한 샐러드}{122: 별표 2개 -1년 전-만원내고 풀때기 먹는집}{121: 별표 3개 -1년 전-가성비는 그닥}{120: 별표 3개 -2년 전-주문하고 자리에 앉아야하는데 주문이 오래걸림.}{119: 별표 4개 -2년 전-샐러드 괜찮음다만 공간이 건물로비와 완전히 구분되어 있지 않음겨울철에는 찬바람이 들이쳐서 추움}{118: 별표 4개 -1년 전-건강식최고봉}{117: 별표 3개 -2년 전-아침 커피 마시러 가줄만 함. 샐러드는 좀 비싼 느낌이 있음}{116: 별표 3개 -2년 전-아침식사 갠춘. 점심저녁은 안가봤으나 가성비가 별로라는 게 대다수의 평가인듯.}{115: 별표 5개 -1년 전-Spc계열임}{114: 별표 4개 -2년 전-보울이 더 맛있는거같다}{113: 별표 5개 -11달 전-맛있음 좀 비쌈}{112: 별표 4개 -1년 전-좀 가격이 있지만 참 맛나긴해요 건강한맛}{111: 별표 5개 -1년 전-다양한 메뉴 구성이 장점}{110: 별표 2개 -1년 전-첫방문은 좋았는데...}{109: 별표 5개 -10달 전-깔끔하고 맛있음}{108: 별표 4개 -1년 전-맛있지만 비싸다}{107: 별표 5개 -1년 전-점심을 가볍게~~^^}{106: 별표 5개 -2년 전-신선한 볼샐러드와 건강프레쉬주스로 기분좋은 한끼가능해서 좋았습니다.}{105: 별표 4개 -1년 전-건강하게 브런치를 즐기기 좋은곳}{104: 별표 3개 -1년 전-갈수록 서비스와 음식 품질이 떨어지고 있고 주문체계도 수시로 바뀌어 불편함}{103: 별표 3개 -1년 전-맛은 있는데 가격이 좀 있고 점심시간에 줄이 너무 길어요..}{102: 별표 4개 -1년 전-샐러드 맛집. 공룡모양 스낵도 판매함ㅋ}{101: 별표 4개 -1년 전-비싸지만 맛있는 쾌적한 샐러드집}{100: 별표 2개 -9달 전-그냥 비싼 샐러드요.}{99: 별표 3개 -1년 전-파리바게트가 운용하는 샐러드 위주 식당인데 여의도 강남 다 가봤는데 가격대비 좀 비싼듯 다른 샐러드 바에 비해 이것저것 담다보면 2만이 넘어가는데 오랜시간 먹는 집도 아닌데 가볍게 식사하는 장소로 보면 좀 비싼듯^^^}{98: 별표 4개 -1년 전-분위기 가격 적절 맛도 보통}{97: 별표 5개 -2달 전-셀러드 괜츊}{96: 별표 4개 -1년 전-가격은 좀 있지만 맛있음. 계절별로 메뉴가 좀 다르고 감자스프는 단짠단짠함}{95: 별표 4개 -1년 전-무난한샌드위치 메뉴가 좀만 더 다양했으면}{94: 별표 4개 -1년 전-샐러드 등 건강한음식파는 이미지..}{93: 별표 5개 -1년 전-사전정보없이 지나다 들어갔는데..햄버거 맛나요~^^}{92: 별표 3개 -8달 전-건강한 저녁식사}{91: 별표 5개 -2달 전-좋음}{90: 별표 5개 -1년 전-아주 건강식 음식입니다 다이어트 한다면 추천!!}{89: 별표 3개 -9달 전-샐러드인데 비싸요..ㅜㅜ}{88: 별표 3개 -1년 전-가격은 다소 비싸나 혼밥하기도 좋고 음식도 깔끔하게 나옵니다. 직원분들도 친절하고 빈자리 바로 치워줍니다.}{87: 별표 4개 -1년 전-샐러드 먹고싶은날 여의도까지 15분 내에 올수있다면 여기가 최선입니다}{86: 별표 5개 -7달 전-간강한 한끼}{85: 별표 4개 -9달 전-비싸지만 맛있는 샐러드}{84: 별표 3개 -1년 전-가성비 그닥이지만 샐러드 보울 퀄리티 나쁘지 않음ㅋ}{83: 별표 1개 -1년 전-음식값을 지불하기 전엔 테이블에 앉지못하는 음식점. 누구라도..노약자도 예외없음..}{82: 별표 4개 -1년 전-살짝 가격대는 있지만 야채도 많고 해서 먹을 만 합니다}{81: 별표 5개 -10달 전-깨끗하고 신선한 재료 음식}{80: 별표 5개 -3달 전-정신없긴 해도 맛있음}{79: 별표 3개 -11달 전-첫 방문자는 매우 어려움 샐러드의 서브웨이}{78: 별표 5개 -10달 전-와..신세계ㅋ 약간 비싸지만 넘 맛있었음ㅎㅎ}{77: 별표 4개 -1년 전-점심시간 웨이팅이 있음여의도 직장인에게 인기있는 점심장소}{76: 별표 5개 -1년 전-나만의 샐러드를 만들어먹을 수 있는 곳! 건강하고 맛있고 골라먹는 재미가 있어요}{75: 별표 4개 -1년 전-맛은 좋으나 이것저것 고르면 2마넌이 훌쩍 넘음}{74: 별표 3개 -1년 전-샐러드가 신선해서 좋았어요...근데 프레쉬 쥬스는....갈아주는것도 아니고...걍 시판 주스 느낌이에요...가격만 비싼듯~~샐러드는 좋아요}{73: 별표 4개 -10달 전-샐러드로 배가 찰 줄이야&lt;U+0001F618&gt;}{72: 별표 5개 -9달 전-여의도 최소조넘 샐러드집}{71: 별표 3개 -1년 전-충분히 섞여나오는 보울 샐러드가 만족스럽고 양도 식사대용으로 충분함. 다만 드레싱이 조금 짜다는 생각입니다.}{70: 별표 5개 -5달 전-중독성있는 맛연어 무슨 볼 개꿀맛~!}{69: 별표 4개 -2년 전-SPC그룹 샐러드 바 치킨세트에다가 스프 정도 먹으면 두명이서 4만원 대 맛은 나쁘지 않음 생각보다 비쌈}{68: 별표 4개 -7달 전-개인의 선호에 따라 샐러드를 선택할 수 있음.}{67: 별표 5개 -1년 전-건강식먹을때 가면좋은곳이에요 샐러드라고해서 양이적지않고 먹으면 든든하답니다. 단골지점등록하면 아메리카노 공짜로주네요~}{66: 별표 3개 -2달 전-점심때는 대기가 너무 길어요}{65: 별표 5개 -1주 전-신선해요}{64: 별표 5개 -7달 전-근처 직장인들에게 인기가 많아요!!!! 여의도공원가기전에 한번드셔보십쇼}{63: 별표 4개 -1년 전-SPC가 운영하는 오픈키친형태의 샐러드바. 가격 대비 양이 부족. 맛은 평타이상! 주중 11시반부터 직장인들로 문전성시!}{62: 별표 4개 -1년 전-비싼데 맛은있음}{61: 별표 5개 -2년 전-여의도공원 건너편 샐러드까페 가격이 저렴하진 않지만 내가 원하는 샐러드를 골라 먹을 수 있다~ 딸기 주스도 맛 좋음!!}{60: 별표 4개 -11달 전-신선한 한상을 먹을수 있다.가격은 1 이상이며 포만감은 여자라면 충분 남자라면 적당}{59: 별표 5개 -1년 전-배부르게 샐러드를 먹고 싶다면?? 여기 강추합니다. 신메뉴 하베스트 콥도 맛있어요 ♡}{58: 별표 3개 -5달 전-피그인더가든은 아니에용...맛있는데 먹고 배고픈}{57: 별표 5개 -10달 전-샐러드볼은 항상 맛있고 플레이트는 잘 골라야 맛있어요.오랜만에 여의도점을 또 찾았는데 클램차우더 맛있게 먹었었던게 사라졌네요.}{56: 별표 5개 -2년 전-신선한 샐러드를 즐길수 있는곳}{55: 별표 5개 -7달 전-쌜러드신선하고 아보카도샌드위치 너무 맛나요}{54: 별표 4개 -2달 전-비싼데 신선하고 좋아요}{53: 별표 3개 -9달 전-여의도라는 장소의 장점}{52: 별표 2개 -3주 전-음 생각보다비싸고별로요}{51: 별표 5개 -1년 전-기대하는 이상으로 나와서 깜짝 놀랐네요}{50: 별표 4개 -1년 전-만족스러운 공간과 음식}{49: 별표 3개 -1년 전-샐러드를 고급스러운 분위기에서 먹을 수 있다. 신선한 야채와 토핑은 좋으나 가격대비 만족스럽지는 않다. 제대로된 샐러드볼이면 만원을 훌쩍넘고 음료까지면 이만원 가까이하니 비싼 편이다.}{48: 별표 4개 -1년 전-여의도에 있는 샐러드 보울 음식점입니다. 여의도에 많은 샐러드집이 있지만 피그인더가든 같은경우에는 원하는 샐러드 조합을 구성할수 있다는 장점이 있어서 종종 찾는편입니다. 다만 대부분의 샐러드 음식점들이 그렇듯이 가성비가 좋은 식당은 아니구요 또한 평일 점심 피크타임에 갈 경우 사람이 상당히 많기때문에 다소 불편할수도 있습니다. 피그인더가든 외에 여의도에 있는 샐러드 대체 음식점으론 IFC몰에 있는 알로하포케나 테라스원에있는 스윗발란스등이 있겠네요 다만 여의도역에서 접근성은 피그인더가든이 제일 좋습니다.아무쪼록 일하는것도 좋지만 샐러드도 챙겨먹으면서 건강 잘 챙기자구요ㅎㅎㅎ}{47: 별표 4개 -8달 전-가격은 다소 있지만 양은 푸짐해서 밥으로 먹기에도 아쉽지 않아요. 싱싱한 채소와 함께 즐길 수 있어서 좋아요.}{46: 별표 4개 -1년 전-맛있긴 한데 비쌈 저거에 1만 5천?! 흠.......}{45: 별표 5개 -2년 전-둘이 샐러드하나에 스프 시키면 배불러요!! 빵 두조각 기본으로 나오는데 그거 대신에 다른 토핑으로 교체돼요 고구마나 단호박으로 하면 굳굳}{44: 별표 5개 -1달 전-점심을 두번 먹는 기적을 경험하게 됩니다..}{43: 별표 5개 -5달 전-신선하고 맛있어요 다양한 메뉴 도전해봐야지}{42: 별표 3개 -9달 전-샐러드를 돈 주고 사먹는걸 아까워하긴 하는 스타일인데 ㅎㅎ 맛은 있네요. 건강한 맛. 볼은 좀 더 가벼운 샐러드 플레이트는 고기가 든든하게 들어간 좀 무거운 샐러드! 샐러드를 근데 어떻게 만오천원이나 주고 사먹나여 흑흑.. 해피포인트 적립되서 좀 놀라웠습니다. 분위기는 깔끔해요.}{41: 별표 4개 -2년 전-베스트 메뉴인 로스트 치킨 주문. 신선도가 매우 좋고 맛도 훌륭. 자주와서 먹어야겠다.}{40: 별표 4개 -8달 전-샐러드보울과 플레이트가 있어 선택 가능이 좋다. 헌데 플레이트 선택시 아이템 2개가 너무 약하다. 특히 가지 선택시 2조각밖에 안준다. 적어도 3조각이상이었으면.주스나 음료선택시 스프없이는 2만원은 든다. 가격이 좀 부담된다}{39: 별표 4개 -6달 전-샐러드를 좋아하는 분이라면 좋은 곳.여러가지 선택할 수도 있고 좋았음.여의도라 가격은 저렴하진 않아요^^}{38: 별표 5개 -2년 전-여러 종류의 샐러드를 파는데 맛도 좋고 양도 많아서 좋았네요.}{37: 별표 5개 -6달 전-건강한 한끼 즐기기 좋음식사하면 주차가 2시간 무료라서 여유가 있다샐러드보울과 플레이트 모두 맛있고 해피포인트 적립시 5% 할인도 됨커피도 저렴하고 종종 재방문 할 의사가 넘침}{36: 별표 2개 -3달 전-시간대 못맞추면 웨이팅이 너무 길어요}{35: 별표 5개 -2년 전-해피포인트카드로 10%할인을 받을 수 있어서 정말 좋았습니다. 먹고싶은 것을 선택하여 만들어 먹을 수 있는게 큰 장점입니다.}{34: 별표 4개 -9달 전-웨이트하는 사람에게 최고의 식당. 다만 Plate에 기본으로 나오는 '마늘빵'은 빼주길. 건강식에 왠 탄수화물이니. 여의도점은 11시 30분부터 줄선다는 것도 참고할 포인트}{33: 별표 4개 -2년 전-토핑이 푸짐한 샐러드 전문점. 공원 옆이라 식후 산책도 가능한 장점이 있음.}{32: 별표 4개 -2달 전-식사시간대에는 웨이팅이 좀 긴 편입니다. 음식은 맛있어요}{31: 별표 4개 -7달 전-조금 비싸긴 한데 음식 질은 좋네요! 다만 처음 오면 주문이 조금 어려울 수 있을 것 같네요파워 보울 ￦11300}{30: 별표 5개 -1달 전-대ㅡ존ㅡ맛 계절메뉴 꿀맛참맛}{29: 별표 4개 -2주 전-샐러드맛집입니다~~~샐러드외에도  플레이트 샌드위치 스프들이  있어요~~~맛있어요  하지만  이 코로나시기에 좌석이  좀  타이트하네요   떨어뜨려서 좌석배치부탁해요}{28: 별표 4개 -1년 전-레인보우 믹스는...제가 원했던 익기가 아니였다는...ㅋㅋ그래도 맛도 괜찮고 양도 좋았습니다ㅋ}{27: 별표 4개 -1년 전-맛있는 샐러드를 취향에 따라 먹을 수 있는곳입니다.알찬 구성으로 맛있는 식사가 될 수 있습니다.샌드위치가 정말 맛있습니다.가성비가 좋습니다}{26: 별표 4개 -1년 전-깔끔하고 좋은 브런치카페 골라먹는 재미가 있음}{25: 별표 4개 -1년 전-건물 로비에 있는 구조로 답답하지 않아서 넓고 쾌적해요.}{24: 별표 4개 -2년 전-요즘 다이어트 중으로...주말 점심시간 방문.메뉴는 크게 2가지로 bowl과 plate임.Bowl은 make your own할 수 있음. 물론 기존에 있는 메뉴에서도 추가토핑 및 드레싱을 변경할 수 있음.Plate에서 와규는 인기가 많은지 일일 한정수량 있음.건강건강한 맛임. 음식부터 음료까지*주차는 2시간까지 지원**수프도 괜찮음.}{23: 별표 3개 -1년 전-인테리어와 청결 부분은 매우 양호SPC그룹이 웬일이지 파워보울 주문드레싱이 너무 듬뿍 뿌려져있어서 짰음채소 닭가슴살 아보카도 계란 등 재료 퀄리티는 좋음가성비는 물론 떨어짐가끔 샐러드 먹고싶을때 오는정도가 될듯점심엔 아마 직장인들로 붐비겠지주차는 2시간 무료 주차권}{22: 별표 5개 -1달 전-건강해지는 식단입니다&lt;U+0001F605&gt;}{21: 별표 3개 -8달 전-샐러드의 소스가 맛있다. 내용물도 나쁘지 않다. 다만 1만원이 넘는 샐러드 가격에 비해 기타 재료들이 푸짐하게 들어있다고 말하긴 힘들다.}{20: 별표 4개 -1년 전-괜찮았어요. 신선하고 전체적으로 맛있는}{19: 별표 4개 -1달 전-SPG에서 하는 샐러드 집}{18: 별표 4개 -2년 전-양은 적당. 샐러드는 주로  11000원. 베스트메뉴인 로스트치킨은 15000원. 다른 샐러드 집보다 재료가 신선해서 만족스러운 곳. 지하주차장 2시간 줌. 기본으로}{17: 별표 4개 -2달 전-평일 12시 이후에는 자리가 많음플레이트(샐러드류 택2) 14000원샐러드볼 11000원 수준이미 조리된 음식이긴 하지만 맛있고 구이류는 새로 데워줌가격이나 조리상태가 약간 아쉽지만 선택권도 많고 결과적으로 맛있음풀상태가 그렇게 좋지 않은 경우도 있음.. ㅠㅠ}{16: 별표 5개 -9달 전-샐러드를 전문으로 판매하는 곳이 많지 않은데 만족합니다. SPC그룹에서 운영하고 있는 것 같습니다.}{15: 별표 4개 -6달 전-주문속도가 조금 느리긴 하지만 맛있어요.온몸이 채소로 가득찬 느낌이에요.I’m full of green}{14: 별표 3개 -1년 전-가격은 비싼 편이라고 생각하지만 맛있었어요. 다이어트식을 찾거나 가볍게 끼니를 먹고자할 때 괜찮을 곳. 근데 요즘은 샐러드 저렴한 곳도 많아서 가격이 아쉽네요!}{13: 별표 4개 -1년 전-먹기만 해도 건강해지는 듯한 착각. 맛있고 깔끔하지만 새모이를 먹는 듯한 양.}{12: 별표 4개 -1년 전-샐러드가 땡긴다면 괜찮습니다. 메뉴가 다양해서 좋습니다. 다만 샐러드 치고는 가격대가 조금 있는 편입니다.}{11: 별표 3개 -5달 전-가격이나 재료 신선도 대부분 괜찮아요다만 테이블 의자등의 인테리어가 요즘에 비해 아쉬워요특히 바닥에 떨어진 것들이 여기저기 좀 있네요청결도에서 사알짝 눈쌀이 찌푸러짐요}{10: 별표 4개 -1년 전-가격은 다소 비싼 편이지만 샐러드 양이 정말 많아서 배부르네요. 만족스러운 식사였습니다. 다만 주변에 직장이 많아 점심시간에 줄 서있음.... 평일 오후 1시에 이후에 가는 것을 추천!!! 바로 옆에 여의도공원이 있어서 먹고 산책하기 좋네요 굳굳}{9: 별표 3개 -1년 전-여의도역 근처 한화손해보험 건물 1층에 있는 샐러드 전문점. SPC에서 운영하는 곳이라 그런지 직원들도 많고 서비스도 괜찮은 편입니다. 요즘 건강식을 찾는 사람들이 많아서 그런지 점심때는 앉을 자리가 없어 주문을 못 할 정도입니다. 샐러드 외에도 로스트 치킨 크리스피 포크밸리 그릴 연어스테이크 로스트 와규비프 베이비 깔라마리&amp;쉬림프 등 다양한 메뉴들이 준비되 있으며 나만의 플레이트를 만들어 먹을수 있습니다. 샐러드도…}{8: 별표 4개 -3달 전-건강한 돼지가 되는 느낌. 가격대가 조금 있지만 맛있어요!}{7: 별표 4개 -1년 전-야채들이 신선하고 토핑 재료들이 많습니다 다만 다양한 야채들이 없어 아쉬웠습니다}{6: 별표 4개 -1년 전-샐러드 정말 맛있고 커스텀이 가능해서 더 좋아요!! 단점은 메뉴판이 나뉘어져 있어서.. 샐러드 부분에서 다 골랐는데 뒤에 더 있다는걸 몰라서 당황했네요. 음료 집었더니 뒤에 쥬스 있더라고요... 다시 두고왔어요 ㅋㅋㅋ 그런 부분만 아니면 너무 좋습니다!}{5: 별표 4개 -1년 전-패밀리레스토란 분위기에 친구나 가족들과 오기 좋은 곳. 샐러드 신선하고 맛도 괜춘!}{4: 별표 3개 -1년 전-신메뉴인 아보카도 연어 보울은 연어와 아보카도의 양이 너무 적고 이벤트라 무료로 받은 아메리카노는 쓰고 맛이 없음.}{3: 별표 5개 -1주 전-가격이 조금높지만 건강한 한끼 여유롭게 먹을 수 있어서 좋았어요}{2: 별표 4개 -1달 전-자주 시켜먹는 샐러드 집인데 파워보울이 구성이 가장 좋은 것 같습니다. 그리고 여기 강점은 닭가슴살이 엄청 부드럽고 냄새도 안 나고 맛있어요. 채소들은 대부분 신선했어요. 다만 플레이트는 양이 너무 적어서 깜짝 놀랬습니다.. 가격도 비싼 편인데 말이죠.. 플레이트 종류들은 야채도 적었어요. 비트머쉬룸라이스는 현미밥이 있어 우스갯소리로 소불고기쌈밥이라고 불러요. 다이어트용은 아니고 맛있는 건강식입니다. 에그마요샐러드는 부드러운 곡물브레드빵이라 부드러운 식감입니다. 샐러드 당 추가메뉴가 많아 다양하게 먹기 좋았어요.}{1: 별표 4개 -2주 전-건강한 샐러드와 여러가지 토핑을 맛보기 위한 최적의 장소 직장인 점심식사로도 엄청난 인기를 끌고 있는곳 : ) 여의도 근무하시는 분들중에 다이어트하고 계시는 여성분들이 있다면 90%는 피그인더가든을 선택하지 않을까 싶다 오늘 먹은 연어포케는 정말 최고였고 단호박스프는 정말 든든하기 짝이 없는 최고의 선택이 될것 같다. 앞으로 자주 갈 생각이라 쿠폰도 찍음}</t>
   </si>
   <si>
     <t>정인면옥</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국회대로76길 10</t>
+  </si>
+  <si>
     <t>가양칼국수버섯매운탕</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로 78</t>
+  </si>
+  <si>
     <t>{759: 별표 4개 -9달 전-}{758: 별표 4개 -1년 전-}{757: 별표 4개 -1달 전-}{756: 별표 4개 -1년 전-}{755: 별표 4개 -1년 전-}{754: 별표 5개 -2년 전-}{753: 별표 5개 -1년 전-}{752: 별표 5개 -1달 전-}{751: 별표 3개 -1년 전-}{750: 별표 2개 -1년 전-}{749: 별표 2개 -2년 전-}{748: 별표 4개 -1년 전-}{747: 별표 5개 -9달 전-}{746: 별표 1개 -2달 전-}{745: 별표 5개 -9달 전-}{744: 별표 4개 -10달 전-}{743: 별표 5개 -1년 전-}{742: 별표 3개 -10달 전-}{741: 별표 5개 -9달 전-}{740: 별표 5개 -2년 전-}{739: 별표 5개 -1년 전-}{738: 별표 3개 -3년 전-}{737: 별표 5개 -2년 전-}{736: 별표 5개 -3년 전-}{735: 별표 5개 -3년 전-}{734: 별표 5개 -9달 전-}{733: 별표 4개 -1년 전-}{732: 별표 4개 -3주 전-}{731: 별표 4개 -2년 전-}{730: 별표 4개 -4주 전-}{729: 별표 4개 -8달 전-}{728: 별표 4개 -9달 전-}{727: 별표 5개 -2년 전-}{726: 별표 4개 -9달 전-}{725: 별표 1개 -1년 전-}{724: 별표 5개 -1년 전-}{723: 별표 5개 -2년 전-}{722: 별표 5개 -1년 전-}{721: 별표 5개 -2년 전-}{720: 별표 4개 -1년 전-}{719: 별표 5개 -1년 전-}{718: 별표 3개 -2년 전-}{717: 별표 4개 -8달 전-}{716: 별표 3개 -2년 전-}{715: 별표 5개 -2년 전-}{714: 별표 5개 -8달 전-}{713: 별표 4개 -1년 전-}{712: 별표 5개 -11달 전-}{711: 별표 5개 -1년 전-}{710: 별표 5개 -6달 전-}{709: 별표 5개 -1년 전-}{708: 별표 5개 -2년 전-}{707: 별표 5개 -1년 전-}{706: 별표 5개 -2년 전-}{705: 별표 5개 -1달 전-}{704: 별표 5개 -2년 전-}{703: 별표 5개 -11달 전-}{702: 별표 4개 -1년 전-}{701: 별표 5개 -3년 전-}{700: 별표 5개 -7달 전-}{699: 별표 4개 -1년 전-}{698: 별표 5개 -11달 전-}{697: 별표 4개 -7달 전-}{696: 별표 5개 -1년 전-}{695: 별표 5개 -1년 전-}{694: 별표 5개 -1년 전-}{693: 별표 5개 -2년 전-}{692: 별표 5개 -1년 전-}{691: 별표 4개 -10달 전-}{690: 별표 4개 -1년 전-}{689: 별표 5개 -6달 전-}{688: 별표 4개 -10달 전-}{687: 별표 5개 -2년 전-}{686: 별표 4개 -1년 전-}{685: 별표 1개 -1년 전-}{684: 별표 5개 -9달 전-}{683: 별표 4개 -1년 전-}{682: 별표 5개 -7달 전-}{681: 별표 4개 -1년 전-}{680: 별표 4개 -6달 전-}{679: 별표 5개 -5달 전-}{678: 별표 4개 -1년 전-}{677: 별표 4개 -2달 전-}{676: 별표 3개 -2년 전-}{675: 별표 4개 -8달 전-}{674: 별표 5개 -1년 전-}{673: 별표 5개 -1년 전-}{672: 별표 5개 -2년 전-}{671: 별표 3개 -5달 전-}{670: 별표 3개 -1년 전-}{669: 별표 5개 -1년 전-}{668: 별표 4개 -8달 전-}{667: 별표 4개 -1년 전-}{666: 별표 3개 -10달 전-}{665: 별표 2개 -1년 전-}{664: 별표 5개 -3달 전-}{663: 별표 4개 -8달 전-}{662: 별표 5개 -2년 전-}{661: 별표 3개 -1년 전-}{660: 별표 4개 -1년 전-}{659: 별표 4개 -2년 전-}{658: 별표 3개 -10달 전-}{657: 별표 4개 -1년 전-}{656: 별표 4개 -7달 전-}{655: 별표 5개 -1년 전-}{654: 별표 4개 -1년 전-}{653: 별표 4개 -9달 전-}{652: 별표 5개 -1년 전-}{651: 별표 5개 -3주 전-}{650: 별표 3개 -1년 전-}{649: 별표 5개 -1년 전-}{648: 별표 5개 -1년 전-}{647: 별표 3개 -2년 전-}{646: 별표 5개 -9달 전-}{645: 별표 5개 -1년 전-}{644: 별표 1개 -1년 전-}{643: 별표 5개 -11달 전-}{642: 별표 4개 -1년 전-}{641: 별표 5개 -1년 전-}{640: 별표 4개 -1년 전-}{639: 별표 1개 -1년 전-}{638: 별표 5개 -7달 전-}{637: 별표 5개 -1년 전-}{636: 별표 2개 -10달 전-}{635: 별표 5개 -1년 전-}{634: 별표 4개 -1년 전-}{633: 별표 5개 -1년 전-}{632: 별표 5개 -6달 전-}{631: 별표 4개 -11달 전-}{630: 별표 3개 -7달 전-}{629: 별표 5개 -5달 전-}{628: 별표 3개 -3주 전-}{627: 별표 5개 -9달 전-}{626: 별표 4개 -7달 전-}{625: 별표 4개 -10달 전-}{624: 별표 5개 -6달 전-}{623: 별표 3개 -7달 전-}{622: 별표 2개 -8달 전-}{621: 별표 5개 -2년 전-}{620: 별표 5개 -2년 전-}{619: 별표 4개 -1년 전-}{618: 별표 4개 -3주 전-}{617: 별표 4개 -1년 전-}{616: 별표 5개 -1달 전-}{615: 별표 5개 -7달 전-}{614: 별표 4개 -1년 전-}{613: 별표 4개 -1년 전-}{612: 별표 5개 -1년 전-}{611: 별표 5개 -2달 전-}{610: 별표 1개 -1년 전-}{609: 별표 4개 -2년 전-}{608: 별표 5개 -8달 전-}{607: 별표 4개 -2달 전-}{606: 별표 5개 -8달 전-}{605: 별표 5개 -2년 전-}{604: 별표 5개 -1년 전-}{603: 별표 5개 -3년 전-}{602: 별표 3개 -9달 전-}{601: 별표 3개 -1년 전-}{600: 별표 4개 -2달 전-}{599: 별표 1개 -1년 전-}{598: 별표 3개 -2년 전-}{597: 별표 4개 -5달 전-}{596: 별표 5개 -1년 전-}{595: 별표 5개 -2달 전-}{594: 별표 5개 -7달 전-}{593: 별표 5개 -1달 전-}{592: 별표 5개 -1년 전-}{591: 별표 4개 -7달 전-}{590: 별표 5개 -11달 전-}{589: 별표 4개 -1년 전-}{588: 별표 4개 -9달 전-}{587: 별표 4개 -6달 전-}{586: 별표 4개 -8달 전-}{585: 별표 5개 -10달 전-}{584: 별표 3개 -6달 전-}{583: 별표 3개 -2년 전-}{582: 별표 3개 -3주 전-}{581: 별표 4개 -10달 전-}{580: 별표 5개 -1년 전-}{579: 별표 4개 -6달 전-}{578: 별표 3개 -1년 전-}{577: 별표 5개 -3년 전-}{576: 별표 4개 -6달 전-}{575: 별표 3개 -2년 전-}{574: 별표 4개 -2년 전-}{573: 별표 2개 -4달 전-}{572: 별표 5개 -1달 전-}{571: 별표 5개 -11달 전-}{570: 별표 5개 -3달 전-}{569: 별표 5개 -10달 전-}{568: 별표 3개 -1년 전-}{567: 별표 5개 -1년 전-}{566: 별표 5개 -2년 전-}{565: 별표 5개 -7달 전-}{564: 별표 5개 -7달 전-}{563: 별표 5개 -3년 전-}{562: 별표 5개 -1년 전-}{561: 별표 5개 -2년 전-}{560: 별표 5개 -1년 전-}{559: 별표 4개 -6달 전-}{558: 별표 5개 -1년 전-}{557: 별표 4개 -2년 전-}{556: 별표 4개 -2년 전-}{555: 별표 4개 -9달 전-}{554: 별표 4개 -2년 전-}{553: 별표 4개 -9달 전-}{552: 별표 4개 -7달 전-}{551: 별표 4개 -10달 전-}{550: 별표 4개 -1년 전-}{549: 별표 3개 -1년 전-}{548: 별표 4개 -9년 전-}{547: 별표 5개 -1년 전-}{546: 별표 4개 -1년 전-}{545: 별표 3개 -3주 전-}{544: 별표 5개 -2년 전-}{543: 별표 5개 -6달 전-}{542: 별표 3개 -6달 전-}{541: 별표 5개 -1년 전-}{540: 별표 5개 -4주 전-}{539: 별표 4개 -9달 전-}{538: 별표 4개 -6달 전-}{537: 별표 5개 -9달 전-}{536: 별표 4개 -7달 전-}{535: 별표 4개 -1년 전-}{534: 별표 4개 -6달 전-}{533: 별표 4개 -1년 전-}{532: 별표 5개 -1년 전-}{531: 별표 5개 -10달 전-}{530: 별표 4개 -1년 전-}{529: 별표 5개 -9달 전-}{528: 별표 5개 -1년 전-}{527: 별표 4개 -10달 전-}{526: 별표 4개 -1년 전-}{525: 별표 5개 -9달 전-}{524: 별표 4개 -3년 전-}{523: 별표 1개 -1년 전-}{522: 별표 3개 -1년 전-}{521: 별표 4개 -1년 전-}{520: 별표 4개 -1년 전-}{519: 별표 4개 -8달 전-}{518: 별표 4개 -9달 전-}{517: 별표 5개 -2년 전-}{516: 별표 4개 -2년 전-}{515: 별표 4개 -2년 전-}{514: 별표 5개 -10달 전-}{513: 별표 4개 -3달 전-}{512: 별표 5개 -9달 전-}{511: 별표 5개 -1년 전-}{510: 별표 4개 -1년 전-}{509: 별표 5개 -1년 전-}{508: 별표 5개 -10달 전-}{507: 별표 3개 -2년 전-}{506: 별표 5개 -3년 전-}{505: 별표 5개 -11달 전-}{504: 별표 5개 -1년 전-}{503: 별표 5개 -1년 전-}{502: 별표 5개 -2년 전-}{501: 별표 4개 -2년 전-}{500: 별표 4개 -1년 전-}{499: 별표 5개 -10달 전-}{498: 별표 4개 -8달 전-}{497: 별표 4개 -1년 전-}{496: 별표 5개 -5달 전-}{495: 별표 5개 -1년 전-}{494: 별표 4개 -7달 전-}{493: 별표 4개 -9달 전-}{492: 별표 5개 -1년 전-}{491: 별표 5개 -2년 전-}{490: 별표 4개 -1년 전-}{489: 별표 5개 -1년 전-}{488: 별표 5개 -10달 전-}{487: 별표 3개 -7달 전-}{486: 별표 4개 -8달 전-}{485: 별표 1개 -11달 전-}{484: 별표 5개 -1년 전-}{483: 별표 3개 -2년 전-}{482: 별표 4개 -1년 전-}{481: 별표 5개 -2년 전-}{480: 별표 5개 -7달 전-}{479: 별표 4개 -1년 전-}{478: 별표 5개 -3년 전-}{477: 별표 5개 -3달 전-}{476: 별표 4개 -2년 전-}{475: 별표 4개 -2달 전-}{474: 별표 5개 -1년 전-}{473: 별표 5개 -1달 전-}{472: 별표 4개 -2년 전-}{471: 별표 4개 -2년 전-}{470: 별표 4개 -1년 전-}{469: 별표 4개 -5달 전-}{468: 별표 5개 -2년 전-}{467: 별표 5개 -6달 전-}{466: 별표 4개 -3년 전-}{465: 별표 5개 -1달 전-}{464: 별표 5개 -1달 전-}{463: 별표 2개 -2년 전-}{462: 별표 3개 -1년 전-}{461: 별표 3개 -1년 전-}{460: 별표 4개 -1년 전-}{459: 별표 5개 -3년 전-}{458: 별표 5개 -6달 전-}{457: 별표 4개 -10달 전-}{456: 별표 5개 -9달 전-}{455: 별표 4개 -9달 전-}{454: 별표 3개 -1년 전-}{453: 별표 5개 -9달 전-}{452: 별표 5개 -11달 전-}{451: 별표 5개 -11달 전-}{450: 별표 5개 -10달 전-}{449: 별표 4개 -1년 전-}{448: 별표 5개 -2년 전-}{447: 별표 3개 -2년 전-}{446: 별표 5개 -11달 전-}{445: 별표 5개 -1년 전-}{444: 별표 4개 -7달 전-}{443: 별표 4개 -1년 전-}{442: 별표 5개 -3주 전-}{441: 별표 4개 -1년 전-}{440: 별표 5개 -1년 전-}{439: 별표 3개 -1달 전-}{438: 별표 5개 -1년 전-}{437: 별표 4개 -1년 전-}{436: 별표 5개 -1년 전-}{435: 별표 5개 -1년 전-}{434: 별표 5개 -1년 전-}{433: 별표 4개 -1년 전-}{432: 별표 4개 -1년 전-}{431: 별표 4개 -10달 전-}{430: 별표 5개 -1년 전-}{429: 별표 5개 -1년 전-}{428: 별표 4개 -5달 전-}{427: 별표 4개 -7달 전-}{426: 별표 1개 -8달 전-}{425: 별표 5개 -2년 전-}{424: 별표 5개 -1년 전-}{423: 별표 5개 -4년 전-(Google 번역 제공) 소주를위한 훌륭한 음식(원문)Great food for soju}{422: 별표 4개 -1년 전-(Google 번역 제공) 좋은(원문)Good}{421: 별표 5개 -3년 전-(Google 번역 제공) 매운 국물이 있다면 강력히 추천합니다(원문)If you have spicy soup i strongly recommand}{420: 별표 5개 -1년 전-(Google 번역 제공) 정말 좋다(원문)really good}{419: 별표 5개 -8달 전-(Google 번역 제공) 점등 됐어.(원문)It’s lit}{418: 별표 5개 -1년 전-(Google 번역 제공) ￥ 1100 버섯 뷔페! 내 ~~~~~~~ 우!(원문)￥1100 きのこ食べ放題！まい~~~~~~~う!}{417: 별표 4개 -1년 전-(Google 번역 제공) 좋은 맛이지만 너무 많은 MSG 느낌(원문)Good taste but feels like too much MSG on it}{416: 별표 5개 -1년 전-(Google 번역 제공) 여의도의 소고기 샤브샤브 점 소주와 잘 어울리는 곳.(원문)Decent beef shabu-shabu place in Yeouido for the locals nice match with soju}{415: 별표 5개 -1년 전-(Google 번역 제공) 여의도에서 일요일에 열리는 몇 안되는 행사 중 하나입니다. 홍우 빌딩 지하 1 층에 위치하고 계단을 이용하여 식당에 가야합니다. 상점에는 옷을 깨끗하게 유지하려는 고객을위한 앞치마가 있습니다. 의자가있는 테이블 석과 바닥 석이있는 전통적인 로우 테이블이 있습니다. 테이블에는기구 상자 간장 와사비가 있습니다. 주문할 때 김치의 미니 항아리가 나옵니다.기본 메뉴는…}{414: 별표 5개 -5년 전-(Google 번역 제공) &lt;U+00A0&gt;버섯 매운탕 맛있다! 칼국수에 마감 폿쿤팟뿌 최고의 141207(원문) キノコメウンタン旨い！カルククスに締めのポックンパップ、最高 141207}{413: 별표 5개 -1년 전-(Google 번역 제공) 맛있다 !!!! 국수는 두껍고 wy 깃합니다. 국물에는 약간의 향신료가 있지만 사람들은 그것을 먹을 수 없습니다 (나에게). 버섯과 채소를 더 많이 먹을 수 있으며 마지막에는 죽을 위해 밥을 줄 것입니다!(원문)Delish!!!! Noodles are thick and chewy. Broth has a little spice but not so much people can't eat it (to…}{412: 별표 4개 -10달 전-(Google 번역 제공) 칼국수의 버섯은 매우 wy 깃해서 맛있고면은 che 깃하고 강합니다. 볶음밥은 무제한이기 때문에 맛있지 만 볶음밥을 먹으면 배가 고프다.(원문)The mushrooms in kalguksu are very chewy so it's delicious and the noodles are very chewy and strong. Stir-fried rice is also good because it is unlimited but once you eat fried rice you feel full.}{411: 별표 5개 -1년 전-(Google 번역 제공) 탁월한 왕국. 그들에게는 무제한의 버섯이 있습니다.(원문)Excellent kal gook su. They have unlimited mushroom which is a great deal.}{410: 별표 4개 -2달 전-(Google 번역 제공) 칼국수는 보통 수제 다진 국수이지만이 식당은 버섯과 물 파슬리가 많은 매운 수프를 의미하는 매운 칼국수 샤브샤브를 제공합니다. 스프 워터 파슬리 버섯은 모두 무제한으로 제공됩니다. 버섯과 물 파슬리를 충분히 먹은 후에 즐길 수있는 nooldes와 쌀 메뉴가 제공됩니다. 여의도 지역에서 수년간 유명 했으며이 독특한 국수를 사용해 보는 것이 좋습니다.(원문)The kalguksu is…}{409: 별표 4개 -4년 전-좋아요}{408: 별표 5개 -3년 전-맛있어요}{407: 별표 5개 -3년 전-십년전 메기 매운탕도 그립네요}{406: 별표 5개 -3년 전-최고의 샤브샤브집}{405: 별표 5개 -3년 전-맛집}{404: 별표 5개 -3년 전-버섯칼국수맛집}{403: 별표 5개 -3년 전-10년째 이용하는 곳. 홍우빌딩의 스타}{402: 별표 4개 -3년 전-맛남}{401: 별표 5개 -3년 전-존맛}{400: 별표 4개 -2년 전-여의도에 칼국수 맛집 입니다}{399: 별표 4개 -2년 전-맛있고 푸짐하게 먹을수 있지만 서비스면에서 최고는 아니에요}{398: 별표 5개 -2년 전-맛있어요 추천꾹~~}{397: 별표 5개 -2년 전-최고}{396: 별표 5개 -2년 전-칼칼한 버섯 칼국수}{395: 별표 5개 -2년 전-다 맛있다 굿굿}{394: 별표 4개 -2년 전-맛나는데 가격이...}{393: 별표 3개 -3년 전-맛은 평타. 가격은 저렴하다.}{392: 별표 5개 -2년 전-버섯전골 맛있어요}{391: 별표 3개 -2년 전-맛있음}{390: 별표 3개 -2년 전-가격이또오름}{389: 별표 4개 -2년 전-맛집}{388: 별표 4개 -2년 전-가성비 좋음}{387: 별표 3개 -2년 전-얼큰한 국물}{386: 별표 5개 -2년 전-구냥저냥}{385: 별표 5개 -2년 전-존맛}{384: 별표 5개 -2년 전-너무 맛있음 &lt;U+0001F60B&gt;}{383: 별표 4개 -2년 전-언제나 맛집}{382: 별표 4개 -1년 전-화끈 땀 만빵}{381: 별표 3개 -1년 전-버섯 칼국수 무한리필}{380: 별표 5개 -1년 전-맛있음}{379: 별표 5개 -2년 전-맛있어요}{378: 별표 4개 -1년 전-맛있어요}{377: 별표 4개 -1년 전-맛나요}{376: 별표 5개 -2년 전-맛나당~~~~~}{375: 별표 3개 -1년 전-가격이 후덜덜}{374: 별표 4개 -1년 전-칼국수가 아쉬워요}{373: 별표 5개 -1년 전-완전쵝오 ㅎㅎㅎㅎ}{372: 별표 5개 -1년 전-맛있어요}{371: 별표 2개 -1년 전-너무 매움}{370: 별표 5개 -8달 전-넘 맛있어요!!!!}{369: 별표 4개 -5달 전-가양칼국수버섯매운탕 !!!}{368: 별표 5개 -1년 전-완전 최고 맛집!!!}{367: 별표 5개 -1년 전-맛있게 먹었습니다!}{366: 별표 5개 -10달 전-존맛탱}{365: 별표 3개 -1년 전-괞챦습니다.}{364: 별표 5개 -2년 전-가성비 맛 좋음}{363: 별표 5개 -2년 전-15년 단골단골집 ㅋ}{362: 별표 5개 -2년 전-맛은 최고임!}{361: 별표 4개 -10달 전-맛있습니다}{360: 별표 4개 -2년 전-얼큰하고 겨울별미}{359: 별표 4개 -2년 전-완전맛있음ㅋㅋ}{358: 별표 4개 -5달 전-맛굳~~}{357: 별표 5개 -1년 전-맛점가능}{356: 별표 5개 -1년 전-죽이랑 칼국수존맛}{355: 별표 5개 -11달 전-맛있어요}{354: 별표 4개 -1년 전-무한리필 짱!!!}{353: 별표 5개 -2년 전-칼국수랑 죽 무한리필ㅜㅜ 존맛}{352: 별표 3개 -7달 전-나쁘진 않아요}{351: 별표 4개 -11달 전-존맛}{350: 별표 5개 -1년 전-버섯 미나리 무제한이라 좋았어요!!!}{349: 별표 4개 -2년 전-버섯먹고 칼국수먹고 밥비벼서 먹고 배터진다 배터져.}{348: 별표 5개 -1년 전-완전 대박 칼국수 강추*1000}{347: 별표 4개 -2년 전-맛은 예전하고 똑같아서 좋습니다만... 가격이 자꾸 올라서 만원이댔어요.}{346: 별표 3개 -2년 전-느타리 버섯을 좋아한다면 추천 !}{345: 별표 5개 -3년 전-맛집인정 비싸지만 무한리필}{344: 별표 4개 -10달 전-항상 가는곳}{343: 별표 3개 -1년 전-볶음밥은 솔직히 별로에요}{342: 별표 5개 -3년 전-언제나 한결같은 그맛 그리고 무한리필}{341: 별표 4개 -3년 전-오랜 여의도의 명소. 버섯과 면이 무한리필되는 자애로움.}{340: 별표 5개 -2년 전-너무맛있는 버섯칼국수 또가고싶어요}{339: 별표 5개 -3년 전-국수 버섯 아기밥이 리필되는데맛도 좋지만 인심이 후해서&lt;U+0001F44D&gt;}{338: 별표 4개 -2년 전-가성비 좋은 맛집입니다}{337: 별표 5개 -2년 전-너무좋아요 가성비 갑}{336: 별표 5개 -9달 전-맛있고 푸짐하고}{335: 별표 5개 -6달 전-존맛탱}{334: 별표 5개 -9달 전-굿}{333: 별표 5개 -2년 전-맛있었어요 집에서 식당까지 거리가 좀 되지만 또가고 싶을 정도로}{332: 별표 3개 -2년 전-좋은버섯을 많이 먹을수 있습니다.}{331: 별표 5개 -3년 전-맛있게 버섯을 샤브로 먹다가 칼국수 먹는맛이 일품}{330: 별표 5개 -1년 전-미나리버섯은 무한리필입니다}{329: 별표 5개 -2년 전-싼 가격 맛 있는 음식!}{328: 별표 5개 -3년 전-좋음 변함없는 맛친절한편임}{327: 별표 4개 -1년 전-가성비는 good. 가심비는 not bad.}{326: 별표 5개 -1년 전-맛있네요~^^}{325: 별표 5개 -1년 전-가성비 탑 양 탑 굿}{324: 별표 4개 -1년 전-맛있고 부담없는  하지만 이젠 가격이 ㅜㅜ}{323: 별표 5개 -8달 전-가성비 짱}{322: 별표 5개 -2년 전-친구추천으로갔는데 맛있네요!!}{321: 별표 5개 -7달 전-굿굿}{320: 별표 3개 -2년 전-양 많이 준다. 버섯이 무한대다.}{319: 별표 5개 -1년 전-맛이 좋아요}{318: 별표 3개 -1년 전-기대이하엿네요 왜맛집인지 모르겟다}{317: 별표 4개 -1년 전-버섯매운탕  아주 맛있어요조금 짠 거랑 사람이 많아 친절을 기대하기는 좀 ....}{316: 별표 5개 -3년 전-무한리필. 가격대비 만족}{315: 별표 5개 -1년 전-맛있습니다 버섯이 끝내줘요}{314: 별표 5개 -4년 전-값싸게 맛난 음식을 먹을수 있는 곳!}{313: 별표 5개 -1년 전-가장 좋아하는 버섯칼국수입니다}{312: 별표 5개 -3년 전-가성비 좋음. 맛도 훌륭}{311: 별표 5개 -2년 전-야채 버섯 리필해줍니다.}{310: 별표 4개 -1년 전-맛있어요 근데 종업원들이 좀 쿨하심...}{309: 별표 5개 -1년 전-참 맛있는 집}{308: 별표 5개 -9달 전-대 존맛탱}{307: 별표 5개 -1년 전-북적거리고 정신없지만 칼칼하니 시원한 국물이 훌륭합니다}{306: 별표 5개 -1년 전-리필 무료 가성비 짱}{305: 별표 2개 -1년 전-가격이 너무 비싸졌다.}{304: 별표 4개 -1년 전-굵은 칼국수 식감이 좋아요}{303: 별표 5개 -1년 전-여전히 맛있음}{302: 별표 3개 -4년 전-매콤하고 넓적한 칼국수에 느타리 버섯이 들어있어 깔끔하면서도 무게가 있는 맛입니다. 겨울철에 갈 만한 집입니다.}{301: 별표 4개 -1년 전-매우 맛있었음. 술이 술술 들어가서 꽐라 주의.}{300: 별표 5개 -1년 전-맛있어요 무한리필이라 좋아요}{299: 별표 4개 -3년 전-맵고 얼큰한 국물을 원하시는 분들께 추천 드립니다. }{298: 별표 5개 -2년 전-저녁시간이라면 식사하면서 간단히 한잔하기엔 더할나위 없다고 생각하네요.}{297: 별표 4개 -4년 전-얼큰한 샤브샤브 버섯 칼국수 ~~ 미나리도 넣어 먹는데 맛있다 ~~ 다만 직장인 대상으로 하는 곳이라 그런지 친절하지는 않음}{296: 별표 4개 -6달 전-버섯맛집ㅋ}{295: 별표 4개 -2년 전-십년 넘게 다녔는데 갈때마다 조금씩 바뀌는게 있는거 같네요 ㅎㅎ 칼칼한게 땡길때 갑니다 ㅎㅎ 다른분 말씀처럼 리필이라던지 부수적인걸 요구하면 싫어하시는거 같아요 ㅎㅎㅎ}{294: 별표 5개 -2년 전-매우 맛남 크으으으}{293: 별표 5개 -2년 전-여기 대박맛집 버섯도계속리필해주고 최고맛집인정}{292: 별표 3개 -1년 전-날씨가 쌀쌀해지면 생각나는 음식. 버섯 리필 가능. 국수. 죽까지 즐길수 있음}{291: 별표 4개 -3년 전-육식주의자와 베지테리언을 모두 포용하는 엄마같은 집.}{290: 별표 4개 -2년 전-맛있고 사리나 볶음밥 무한리필이라 좋아요ㅎㅎ}{289: 별표 3개 -2년 전-맛은 괜찮은데 너무 붐비고 조리를 전부 손님이 해야함}{288: 별표 3개 -2년 전-여의도에도 있다니..본점만 생각했는데. 좋아요}{287: 별표 3개 -2년 전-맛은 그럭저럭직원들 불친절..추가무료 못시키겠음...}{286: 별표 5개 -5달 전-맛있어요}{285: 별표 5개 -3년 전-푸짐하고 맛있는 국물 굵은 국수 면발~ 칼칼한 국물이 생각나면 딱인 곳}{284: 별표 4개 -1년 전-친절하고 맛도 좋고}{283: 별표 4개 -2년 전-맛이야 말할 것이 없는데 직원들이 힘들어 보일때는 알아서 움직여라.}{282: 별표 5개 -1년 전-맛나요 무한리필에..}{281: 별표 4개 -1년 전-가까운데 드시기 괜춘하죠?}{280: 별표 4개 -1년 전-맛남 무한리필 볶음밥개꿀맛}{279: 별표 5개 -1년 전-비올때 김치칼국수면 최곱니당}{278: 별표 3개 -3년 전-지역마다 하나씩은 있을 법한 식당. 맛은 평이하다. 나쁘지 않다.}{277: 별표 3개 -10달 전-푸짐하게 먹었습니다.}{276: 별표 4개 -5달 전-맛있어요}{275: 별표 5개 -2년 전-가성비 뛰어난 맛집. 강추}{274: 별표 4개 -2년 전-버섯 무한리필 되서 좋고 뜨끈한 국물 먹고 싶을때 딱이에요}{273: 별표 1개 -1년 전-바뿌면 서비스꽝 먹을곳이없어서 감}{272: 별표 5개 -3년 전-무한리필이므로 버섯 칼국수 땡기는대로 시켜먹음칼칼하고 깊은맛나나 가끔 짜게 나올때는 물을 미리 많이 부어 놓고 먹는게 좋음}{271: 별표 3개 -2년 전-먹을만하지만 무한리필이라해놓고 면은안된다고 함}{270: 별표 5개 -2년 전-맛있음. 리필되서 양도 푸짐. 직원친절은 별루.}{269: 별표 5개 -1년 전-싱싱한 미나리 버섯이 무제한}{268: 별표 5개 -9달 전-핵쩐맛♡♡}{267: 별표 5개 -7달 전-맛있어요.}{266: 별표 5개 -1년 전-점심에 왔는데 후회함...국물 한번 먹는 순간 소주 생각남....넘많있는데 개취로는 칼국수 면이 앏은거  선호 하는데 여기 면은 두꺼움...}{265: 별표 5개 -2년 전-매번 갈 때 마다 맛과 양에 감탄합니다. 야채는 무한리필이에요~~}{264: 별표 3개 -7달 전-국물좋아요}{263: 별표 2개 -1년 전-맛있는데 불친절. 서비스업에서의 기본을 잃은듯하다}{262: 별표 5개 -2달 전-항상 맛남}{261: 별표 3개 -2년 전-버섯과 칼국수가 무한리필인 점은 좋으나 고기는 포함되지않은 리얼 버섯전골이라 고기는 또 따로 시켜야 한다}{260: 별표 5개 -7달 전-아주 맛있어요}{259: 별표 3개 -1년 전-가성비는 옛말. 11000. 어쩌다 먹을만한정도.}{258: 별표 5개 -8달 전-베리굿}{257: 별표 3개 -1년 전-여의도에서 칼국수 맛있게 먹을수 있는곳}{256: 별표 4개 -1년 전-오래된 검증된 여의도 맛집 중 하나입니다.}{255: 별표 4개 -2년 전-변치않는 맛에 브레이크타임 없이 혼자가도 먹을수있어 좋습니다}{254: 별표 4개 -8달 전-무한리필}{253: 별표 2개 -2년 전-버섯이랑 칼국수 밥은 무난하게 맛있음. 직원들의 인성이 나날이 나빠지는 듯하다. 먹고싶은 만큼 리필이 가능하지만 직원이 싫어하는 티를 많이 냄.}{252: 별표 4개 -2년 전-넘넘 맛있고 양도많고 좋아여! 단 냄새가 몸에 배는건 어쩔수없네요&lt;U+0001F602&gt;}{251: 별표 5개 -1년 전-오후5시부터 사람이 꽉 찰 정도로 맛집이내요~~}{250: 별표 5개 -1년 전-자주 찾아가는 맛집}{249: 별표 2개 -1년 전-먹고나서 여기 왜이리 사람이 많지? 하는 의문을 남긴집}{248: 별표 5개 -2년 전-너무 맛있어요칼국수 좋아요 버섯도 좋아요 마지막 볶음밥? 죽?이 너무 맛있었어요}{247: 별표 5개 -2달 전-굳}{246: 별표 5개 -7달 전-가격&lt;U+0001F44D&gt;맛&lt;U+0001F44D&gt;}{245: 별표 5개 -2년 전-여의도 맛집마늘향이강한 얼큰한 버섯매문탕버섯양이어마어마함!}{244: 별표 5개 -1년 전-무한리필로 버섯은 얼마든지 먹을 수 있어요}{243: 별표 4개 -1년 전-가격대비 아주 맛있어용}{242: 별표 5개 -1년 전-버섯 야채 무한 리필 가능}{241: 별표 4개 -2년 전-여의도 주민이라면 모르는 사람이 없는 곳 매해 값이 오르지만 그만큼 뭔가 더 줌 가족단위 친구끼리 모두 같이 가도 좋은 곳}{240: 별표 5개 -1년 전-완전맛있고 가성비굿}{239: 별표 5개 -1년 전-30년 고객인데 지금도 질리지 않습니다. 맛 최고입니다.}{238: 별표 5개 -3년 전-유사 체인점과 양이 정말 차이남. 버섯부터 칼국수 죽 사리까지 리필이 된다는게 행복함. 고등학교 다닐 때인 10년 전부터 지금까지 여의도 가면 꼭 가는 식당. }{237: 별표 4개 -1년 전-가격이 날로 상승하면서 가성비가 다소 떨어지심}{236: 별표 5개 -6달 전-종종 가서 먹어줘야!!!}{235: 별표 4개 -1년 전-맛과 양이 함께 있는곳}{234: 별표 5개 -2년 전-면과 버섯을 무한으로 먹을수 있으며 간간히 생각나는 맛으로 많은사람들이 찾는곳}{233: 별표 3개 -1년 전-처음 갔을땐 맛도 좋았고 직원들도 친절하고서비스도 좋아서 자주 갔다가  최근 한참만에 갔더니 좀 실망스러웠어요 가격도 많이 올랐고 버섯칼국수인데 버섯종류가 느타리 하나였어요 친절도도 많이 떨어진듯}{232: 별표 3개 -10달 전-나쁘지않은곳 자극적이다.}{231: 별표 4개 -1년 전-얼큰하고 맛있음. 하지만.... 깔끔한 느낌은 없음}{230: 별표 4개 -2년 전-한번은 게눈 감추듯 먹는데고기샤브샤브 시키고 하면 둘이 30.000원이다.싼듯 하면서 비싸다결국 거친 음식을 꽤나 비싸게장바닥 분위기에서 먹는다그래도 한번은 먹어 주자}{229: 별표 3개 -1년 전-맛있어요. 술 먹은 다음날 아주 좋아요. ㅎㅎㅎ}{228: 별표 2개 -2년 전-맛있어서 생각날때마다 가지만 서비스는 갈수록 형편 없다. 눈칫밥 먹느라 토하는 줄 알았다}{227: 별표 5개 -9달 전-언제나 한결같은 맛!!}{226: 별표 5개 -1년 전-싸고 건강하고 맛있어요}{225: 별표 3개 -2년 전-가격은 저렴하지만 샤브샤브 고기가 넘 질겨요~}{224: 별표 5개 -2년 전-대박 맛있음~ 무한리필짱}{223: 별표 5개 -8달 전-싸고 버섯 무한리필}{222: 별표 3개 -1년 전-가격에 비해 맛은 그닥.. 양은 그럭저럭.}{221: 별표 5개 -1년 전-맛있다. 고기추가는 필수..}{220: 별표 4개 -9달 전-비싼거 빼고는 만족}{219: 별표 5개 -1년 전-일년에 다섯번은 갑니다 ㅠㅠ 너무 맛있어요너무 자주 리필하면 차림사분께서 눈치주심ㅋㅋ}{218: 별표 5개 -1년 전-마늘향 강하게 나서 맛나네요}{217: 별표 5개 -1년 전-가성비 좋은 버섯칼국수. 맛납니다}{216: 별표 5개 -2년 전-저렴한 가격에 맛도 좋습니다. 특히나 향긋한 미나리를 무한으로 먹을 수 있다는게 최고였습니다.}{215: 별표 3개 -6달 전-그냥 평범함}{214: 별표 4개 -1년 전-국물맛이 좋은 버섯 샤브샤브 칼국수집입니다. 버섯은 리필이되구요!}{213: 별표 5개 -1년 전-버섯과 야채를 무한리필로 마음껏 멋을수 있어서 좋아요..}{212: 별표 5개 -1년 전-가성비 짱입니다. 야채 버섯 리필되고요. 맛도 최곱니다.}{211: 별표 1개 -8달 전-예전 보다 맛없고 비싸기만하네}{210: 별표 5개 -2년 전-가격대비 싸고 무한리필이라 항상 여기가면 배가 부르네요}{209: 별표 3개 -10달 전-평범한데 사람이 너무 많음.}{208: 별표 5개 -3년 전-얼큰한 버섯매운탕을 먹고 난뒤에 그 국물에 칼국수..그리고 남은 국물에 밥을 넣어서 볶음밥 까지 즐길수 있다. 딱히 저렴하다고 보긴 어렵지만 가격대비는 훌륭하다.}{207: 별표 5개 -1년 전-면. 야채. 버섯. 밥. 추가 무료}{206: 별표 4개 -2년 전-면이 수제면이다. 맛으로서 특별하진 않지만 못난것 없능 맛이다.}{205: 별표 5개 -2년 전-우리 가족모두 좋아하는 맛집아이들 어려서 부터 부모손잡고 가기시작해서 오늘도 온가족이 다녀왔음.}{204: 별표 3개 -1년 전-1인1분에 1만1000원. 가성비 최강이던 가양은 아님..}{203: 별표 5개 -8달 전-지글지글 짝짝보글보글 짝짝}{202: 별표 5개 -1년 전-야채와 칼국수를 마음껏 먹을  수 있어서 행복했음}{201: 별표 5개 -1년 전-제 인생맛집입니다... 50번은 넘게 온 것 같아요ㅠㅠ ㅠㅠㅠㅠ 다대기가 뭔지 일단 국물이 너무 맛있구여 김치도 맛있어서 버섯이랑 고기 다 건져먹고 칼국수 먹을때 김치를 흡입하게 돼용 마지막엔 국물 어느정도 남기고 볶음밥해드시면 되는데 이것두 맛있어용}{200: 별표 5개 -1년 전-다른곳보다 살짝 비싸긴한데 충분히 만족스럽습니다}{199: 별표 5개 -2년 전-저렴한가격에 푸짐한 양.칼칼하고 담백한 육수.원하는만큼 버섯과 야채면이 리필가능1인 만원에 배불리 먹을 수 있다.소주가 절로 생각나는 칼국수맛집}{198: 별표 5개 -1년 전-유일한 흠이 있다면 주차 공간이 굉장히 협소하다는 점과 차량을 이용하지 않으면 10분 정도 걸어야 된다는 점. 음식의 맛 양 가격 서비스 모두 별 다섯 개가 아깝지 않습니다.}{197: 별표 5개 -8달 전-무한리필 굿}{196: 별표 5개 -1년 전-꽤 맛있음. 양 많음. 매콤함. 많이 맵지는 않음}{195: 별표 3개 -1년 전-버섯칼국수가 맛있는지는 잘 모르겠음마지막에 나오는 볶음밥이 맛있어서 그거때문에 감}{194: 별표 4개 -2년 전-양도 푸짐하고 맛도 좋아요. 아기밥도 주시고 버섯과 칼국수도 리필. 조금만 친절한 분위기면 정말 좋겠지만... 욕심일지도요 ㅋ}{193: 별표 5개 -7달 전-맛있고 무한리필}{192: 별표 5개 -1년 전-여기는 진짜강추!! 버섯 무제한 칼국수무제한 너무좋다~ 고민된다면 고민안하고가면되는곳!!}{191: 별표 5개 -1년 전-기본으로 셋팅된 양이 엄청 많음 그리고 버섯 야채 밥의 무한리필까지}{190: 별표 5개 -1년 전-국물 시원하고 버섯 미나리 칼국수 육수 무한리필 되는 아주 맛있고 배부르게 먹을 수 있는 곳!}{189: 별표 4개 -1년 전-버섯을 샤브샤브처럼 먹는다는게 신선함 죽 괜찮음}{188: 별표 4개 -1년 전-맛은 있지만 위생상태가 너무 별로였다 페트병 재활용에 청소도 제대로 안된 느낌..}{187: 별표 5개 -1년 전-여기도 20년 단골비슷한 류의 버섯칼국수가 유행처럼 지나갔어도 오리지날은 영원하도다단일 메뉴이고 반드시 머릿수에 맞게 먹어주는 예의주차가 불편해도 별을 뺄수가 없는집}{186: 별표 5개 -6달 전-존맛탱!! 칼국수 꼭 추가하세요}{185: 별표 3개 -1년 전-국물맛이 예전하고 다르네요..미나리 버섯은 셀프추가라 편하네요}{184: 별표 5개 -10달 전-맛이담백항}{183: 별표 3개 -1년 전-아내 따라서 지겹도록 먹었는데. 그만좀 먹고 싶은데. 막상 가면 또 맛있게 먹고있음.}{182: 별표 4개 -1년 전-매콤하면서 마늘향이 풍부한 맛 버섯과 밥 면사리가 리필가능 면이 두툼해서 식감이 쫀득함}{181: 별표 5개 -1년 전-버섯 전골을 하는 집으로 인생 맛집 중 하나(느타리 버섯 좋아하는 분 추천)}{180: 별표 1개 -1년 전-옛날의 명성과 맛을 추억하며 일부러 찾아갔는데 맛도 없고 분위기도 별로이고...많이 실망하고 왔어요}{179: 별표 5개 -1년 전-사람 엄청 많은 시간 피해서 가시면 여유롭고 편하게 리필 많이 해드실 수 있어요!}{178: 별표 4개 -2년 전-차장님이 인생 버섯칼국수라며 추천해주셔서 가봄. 버섯  야채 푸짐하고 칼국수도 맛있음. 다먹고 볶음밥 안볶아먹으면 후회할듯. 볶음밥이 메인메뉴마냥 맛있음}{177: 별표 5개 -1년 전-여긴 대박임 근데 과식하게 됨}{176: 별표 5개 -1년 전-나름 맛집이며 가성비좋음}{175: 별표 5개 -7달 전-맛있습니다 여의도에서 찾아갈만해요}{174: 별표 5개 -2년 전-가격 대비 맛있고 훌륭한 곳입니다. 버섯과 국수 밥을 마음껏 배부르게 먹을 수 있는 식당이고 조금 여유가 있으면 저렴하게 고기도 먹을 수 있어요.}{173: 별표 5개 -3달 전-간단한데 맛있다}{172: 별표 5개 -3주 전-최고}{171: 별표 5개 -1년 전-맛있는 버섯 매운탕.. 칼국수에.. 볶음밥까지.. 넘 맛있어용.. ㅎ}{170: 별표 4개 -1년 전-좋아요 얼큰하니 해장용으로 좋아요. 김치도 만족바빠서 그런지 직원분들은 초큼 불친절.}{169: 별표 5개 -1년 전-맛있음..고기 샤브샤브 외에 모두 무한리필}{168: 별표 5개 -8달 전-한번 간 사람은 있어도 한번만 가본 사람은 없음 진짜 ㅋㅋ}{167: 별표 5개 -1년 전-무한리필~~  느타리버섯 실컷 먹을수있습니다. 국수면이 굵어서 식감이 좋아요.}{166: 별표 5개 -1년 전-얼큰한 국물에 채소를 샤브샤브한 다음 맛보고 칼국수 후루룩 먹고 남은 국물에 밥 볶아먹으면 짱이죠}{165: 별표 5개 -1년 전-마늘과 버섯과 비나리. 건강해 지는 맛. 가격이 좀 올랐지만 그럼에도 가상비가 느껴짐.}{164: 별표 4개 -10달 전-맛있어요 그외는 음...}{163: 별표 5개 -1년 전-샤브샤브고기는 꼭 넣어드세요! 칼국수사리도 수타면?느낌이라 너무쫀득하고 마무리 볶음밥까지 정말 고소했다.}{162: 별표 4개 -1년 전-미나리 면 사리 밥 아기 밥 모두 무료 리필.}{161: 별표 5개 -1년 전-여의도 가면 그냥 여기로 간다. 버섯칼국수중에 가장 얼큰하고 맛있는 듯. 특이하게 굵은 면발이 중독성 강함}{160: 별표 4개 -1년 전-고기가 없는게 제일 큰 아쉬움이였고 버섯이 다양했으면 좋았을텐데 느타리밖에 없어서 아쉬운거 빼고는 맛은 좋았어요!&lt;U+0001F44D&gt;}{159: 별표 5개 -1년 전-너무나 깔끔하고 맛납니다 배터짐주의!ㅋ}{158: 별표 5개 -2달 전-매운탕이 맛있어요}{157: 별표 4개 -1년 전-맛있어요. 무난한 편  다만 국수익는데 시간이 엄청걸리니 참고하삼}{156: 별표 5개 -8달 전-사랑하는 곳입니다!}{155: 별표 3개 -6달 전-버섯과 칼국수 볶음밥이 맛있어봤자...}{154: 별표 4개 -1년 전-감기기운이 있으면 생각나는 버섯칼국수! 가성비도 훌륭한 편.}{153: 별표 4개 -1년 전-2년반만에 찾은 버섯 매운탕~ 변함 없이 맛있네요~ 버섯을 고기삼아 푸짐히 먹었습니다. 밥 야채 칼국수 버섯이 리필되니 좋네요. 근데 생각보다 양 많습니다.^^}{152: 별표 5개 -1년 전-무제한 리필이라 좋아요. 버섯과 미나리 실컷 먹을 수 있어 좋아요}{151: 별표 5개 -10달 전-요즘같은 쌀쌀한 날씨에 완전 몸보신}{150: 별표 3개 -5달 전-그냥 맛남.}{149: 별표 5개 -5달 전-오랜만에 갔는데 역시나 맛있네요 ^^}{148: 별표 5개 -7달 전-맛있고 친절해요}{147: 별표 4개 -1년 전-늘 먹던 익숙한 그맛. 고기를 넣으면 더 맛있지만 넣지않아더 충분히 칼칼합니다. 맵고 짠거 부담되는 분들은 물을 점 타야함}{146: 별표 4개 -1년 전-맛있다! 고기빼고 다 무한리필! 여의도 직장인들이 너무 많아서 점심시간은 피해서 1시뒤에 가세요~ 식기세척기소리 되게 시끄러움}{145: 별표 4개 -8달 전-오랜만에 재방문 느타리버섯 칼국수 죽은 샐프로 바뀌었고 좌식 테이블이 줄고 식탁 테이블이 늘어났다}{144: 별표 4개 -10달 전-버섯과 채소를 마음껏 먹을 수 있고 조금 많이 먹은 것 같아도 소화가 부담스럽지 않음}{143: 별표 5개 -10달 전-추운날이면 더생각나는맛 모든재료  무한으로 추가가능}{142: 별표 5개 -1년 전-칼칼한 맛이 좋았다. 가격도 저렴한 펀이고 나중에 볶음밥도 맛이 좋았다. 단지 칼국수 면이 두꺼운 편이라 내입맛에는 맛지 않았다}{141: 별표 5개 -9달 전-간이 좀 있지만 무한리필}{140: 별표 5개 -1년 전-저렴하게 마음껏 먹을수있는 버섯샤브샤브 칼국수집입니다.소고기를 넣으면 넣을수록 국물이 진해지는 칼국수^^버섯.밥.아이들. 밥.칼국수면.국물 모두 무료추가가능합니다.넉넉하고 건강하게 드실수있어요. 와이프가 좋아해서 생각날때마다갑니다.^^}{139: 별표 3개 -1년 전-마늘향이 강해서 좋았어요.느타리버섯 미나리는 셀프 리필이 되고 칼국수는 요청 하면 됩니다. 얼큰한 맛은 괜찮지만 가성비는 좀 비싼듯 !}{138: 별표 3개 -9달 전-보통입니다 가끔 가면 좋을듯.. 국수 버섯 밥 무제한}{137: 별표 5개 -1년 전-미나리와 버섯 건져먹는 재미칼칼한 국물을 떠먹는 재미피니쉬는 볶음밥!!1차로 가도 좋고 2차로 한 잔 국물과 함께해도 좋습니다!!단 마감시간 22시}{136: 별표 4개 -1년 전-등촌샤브칼국수 스타일 마늘향이 꽤나 강하다. 어쨌든 맛있게 먹음}{135: 별표 4개 -1년 전-한결같이 맛있어요.버섯미나리 무한리필}{134: 별표 5개 -2년 전-다수의 리뷰처럼 맛이 보장된 집입니다. 같이 가본 사람들은 모두 다 좋아하구요 칼칼한 버섯샤브칼국수 딱 떠올리는 그맛입니다. 오래된 집이라 세련된 인테리어 아니지만 의자테이블 방석테이블 모두 있고 지저분하진 않습이다. 한번에  서비스를 콜하기엔 조금 시끄럽기도 해서 응대가 지연되기도 하는데 크게 마음불편할 정도는 아닙니다. 오히려 아이와 갔을땐 잘 챙겨주셔서 고마웠습니다.}{133: 별표 5개 -6달 전-버섯과 미나리 무제한~~}{132: 별표 4개 -1년 전-버섯과 미나리가 무한리필 ^^ 마늘맛이 강하지민 맛은 굳굳}{131: 별표 1개 -10달 전-직원들 너무 불친절맛도없지만 맛있었다고해도 다신안감돈내고 먹는건데 왜 기분이 나쁘죠?}{130: 별표 4개 -1년 전-예전에도 가성비 좋았는데 지금도 뭐 나쁘지 않다.술한잔 하기 딱 좋은 곳이넹다만!교통이 불편함.}{129: 별표 5개 -1년 전-얼큰하고 버섯과 칼국수 무한리필이라 좋았어요}{128: 별표 5개 -6달 전-술이 죽죽 들어간다.}{127: 별표 5개 -7달 전-버섯칼국수 샤브샤브 맛집...너무 맛있어서 많이 먹게 되는 단점이 있어요^^;;}{126: 별표 4개 -1년 전-여의도 소재 음식점은 비쌉니다.이곳도 버섯초무침이 안주로 있었는데없어졌더군요. 가격이 오른만큼 추가주문시무료로 더 주셔서 배부르게 잘 먹었습니다}{125: 별표 5개 -6달 전-맛이 끝내줍니다~~}{124: 별표 5개 -10달 전-육수 얼큰하고 양도 넉넉하고 맛있네요}{123: 별표 4개 -2년 전-맛있다}{122: 별표 3개 -8달 전-싸고 자극적인게 땡길때}{121: 별표 4개 -1년 전-여의도 맛집! 칼국수 버섯 추가가 무료다}{120: 별표 5개 -1년 전-항상 먹을때마다 느끼지만 국물은 적당히 칼칼하고 버섯 면 밥은 원하는대로 맘껏 먹을수 있어서 너무 좋습니다.}{119: 별표 5개 -2주 전-양이푸짐하네요}{118: 별표 5개 -6달 전-버섯과 미나리는 무한리필이다.}{117: 별표 4개 -2년 전-여의도 직장인들이 즐겨찾는 버섯칼국수집. 매콤한 국물베이스와 버섯이 잘 어우러짐. 먼저 버섯을 매콤한 육수에 데치듯 끓여 먹고나서 살짝 익혀 나오는 칼국수 면을 넣고 끓여 먹음. 그리고 마지막으로 준비된 죽을 끓여먹는 방식. 매콤한 음식이 생각날때 가볼만한 집}{116: 별표 2개 -1년 전-별로... 버섯도 종류가.. 가성비 떨어짐}{115: 별표 5개 -1년 전-정말 오랫동안 변함없이 있는곳. 점심식사로 좋고 특히 마늘 맛을 좋아한다면 매우 입에 맞을듯}{114: 별표 4개 -3달 전-버섯 미나리 무한리필 ㅋㅋㅋ}{113: 별표 4개 -3달 전-고기도 안주면서 쓸데없이 괜찮음}{112: 별표 3개 -8달 전-맛집이래소 갔는데 평범한 맛 버섯칼국수 맛입니더..}{111: 별표 4개 -10달 전-맛있고푸짐함. 칼국수좋아하면한번꼭들려볼곳}{110: 별표 1개 -1년 전-가격은 11000원..무한리필은 버섯과 미나리 국수가 제공 되는데.. 버섯은 솔직히 하품 인듯하고 미나리는 질겨서 찝기 힘들면서..국수는 세끼 손가락굴기로..가격대비 헐..두번다시 한가고 싶다!리뷰 와 별점 보고 갔는데..개실망}{109: 별표 3개 -1년 전-근처 계시다면 가보실만합니다. 멀리서 굳이 찾아갈 정도는 아니였어요. 버섯 칼국수 밥이 무한리필인게 장점입니다. 하지만 사람이 많아서 리필하기가 쉽지 않았어요;; 카운터에 가서 가져와야 했답니다. 맵지는 않았어요~ 샤브샤브 고기는 살짝 질겨요!}{108: 별표 3개 -1년 전-얼큰하고 칼칼한 버섯매운탕칼국수 무한리필의 메리트로 점심시간을 꽉 메웠다ㆍ 지하공간인데도 불구하고 주변의 직장인들의 맛집임에는 거부할수없는 매력의 버섯칼국수  이열치열의 여름별미로 거듭나다~}{107: 별표 5개 -6달 전-숭덩숭덩 잘라놓은듯한 면이 제 취향입니다. 호불호 갈릴수도 있겠네요}{106: 별표 4개 -8달 전-갈때마다 과식하게 됩니다. 정말 좋아요.}{105: 별표 5개 -7달 전-점심시간에 느타리와 미나리의 무한리필 매운탕. 칼국시와 비빔밥은 서비스~}{104: 별표 5개 -11달 전-가성비. 맛. 주차도 가능한 여의도 최강맛집...강추 강추합니다}{103: 별표 5개 -2달 전-좋음}{102: 별표 4개 -1년 전-진한국물 변치않는맛여의도의옛추억을생각나게하는옛지도까지ㅋ}{101: 별표 4개 -10달 전-보기엔 허름하고 들어가는 재료도 별거없어 보이지만 먹어보면 너무 맛있는 곳.}{100: 별표 1개 -6달 전-최악입니다. 2마디 만함 바퀴벌레가 천장에 붙어서 우리의 식사모습를 관찰하는 가게입니다.}{99: 별표 5개 -8달 전-무한 리필되는 야채와 국물맛이 최고!}{98: 별표 5개 -10달 전-고기대신 버섯이라 더부룩하지않고 깔끔해요!맛납니다}{97: 별표 1개 -1년 전-어떻게 이게 맛있을수가있지? 이해불가..가성비도 별로고 재료가 좋은것고 아니고 국물이 맛있는것도 아니고 (김치는 맛있지만) 엄청굵은 밀가루맛 칼국수랑 그다지 좋아보이지않는 야채가 끝 왜 점수가 높은지 이해가 안감}{96: 별표 4개 -1년 전-여의도 대표맛집중 하나.가격(11000원)도 무한리필(면 버섯 볶은밥) 생각하면 그렇게 아깝지가 않음.솔직히 여기는 여의도 안사는 타지인에게도 추천할만함}{95: 별표 4개 -3달 전-마성의 마늘육수와 느타리버섯의 콜라보소오주 수혈 주의!!!}{94: 별표 4개 -1달 전-언제 가도 좋아}{93: 별표 2개 -4주 전-그냥저냥 무한리필집}{92: 별표 5개 -8달 전-가끔 생각나는 특유의 얼큰함.}{91: 별표 5개 -2년 전-칼칼한 버섯 칼국수 + 볶음밥이 무한리필!!!  매번 생각나는 맛}{90: 별표 3개 -1년 전-여의도의 소울푸드라고 불릴 수 있는 가양칼국수버섯매운탕. 현재는 가격이 상당히 올라 11000원이다. 여의도 주민들은 알겠지만 원래 5000원 정도 했던 메뉴... 갈때마다 가격이 올라 놀랄때가 많지만 그래도 버섯 면 볶음밥이 무한리필이기 때문에 항상 배불리 먹을 수 있는 곳이다. 마늘향이 상당히 강해 마늘 안좋아하시는 분들에게는 추천하지 않는다. 감기 걸린 날 가장 생각나는 메뉴다.}{89: 별표 4개 -9달 전-맛이나 가격은 너무 좋았다.하지만 사람이 늘 많은건 감안하고 가시길}{88: 별표 5개 -1년 전-조미료맛이 좀 나긴 하지만 친절하고 버섯 미나리 칼국수 밥등을 계속 리필할 수 있어서 좋습니다.아이와 함께가면 애기밥 이란것을 별도로 챙겨주십니다.}{87: 별표 4개 -10달 전-버섯 미나리 무한리필 얼큰하니 양도 푸짐하고 좋으나 가격이 인당 1만1천원}{86: 별표 4개 -1달 전-밥과 버섯과 칼국수를 계속 먹을수 있어요.}{85: 별표 3개 -6달 전-맛은 있지만 가격 너무 올라버렸고 이모님들 마인드가... 어휴}{84: 별표 5개 -5달 전-약간 매운칼국수 먹고싶을때 강추합니다}{83: 별표 3개 -7달 전-무한리필은 좋으나 칼국수 가격이 착하진 않다}{82: 별표 4개 -3달 전-맛있는 집 얼큰하고 깔끔한집}{81: 별표 5개 -1년 전-너무 맛난다! 한 20번 온 것 같다!}{80: 별표 5개 -7달 전-따뜻한 육수에 샤브샤브 국수 마지막에 볶음밥 까지 최고예요}{79: 별표 5개 -1년 전-여의도 인기 샤브샤브 칼국수 음식점. 해가 지날수록 가격이 오르고 직원들도 불친절하지만 이상하게도 찾는 손님은 갈수록 늘어나는..그만큼 맛있다랄까? 적당히 얼큰하고 시원한 육수에 버섯과 채소를 듬뿍 넣을 수 있다는 것이 큰 장점}{78: 별표 4개 -8달 전-맛이 갈끔함 주인아주머님이 친절하심~ 햇님언니 고마워요}{77: 별표 3개 -9달 전-양념을 더 추가해서 먹음 맛있고 무한이 참 매력적임. 칼국수면이 특히 상태강좋음}{76: 별표 5개 -5달 전-매운칼국수 맛집. 변함없는 맛}{75: 별표 5개 -7달 전-버섯과 면사리 무한리필이 장점. 소주를 부르는 국물맛}{74: 별표 4개 -7달 전-야채 무한 리필에 국물에 마늘 맛이 많이 나서 진하고 맛있습니다.}{73: 별표 4개 -10달 전-얼큰한 버섯 칼국수가 메인입니다. 고기 빼고 다 리필됩니다. 마무리 볶음밥까지 먹으면 제대로 드셨습니다.}{72: 별표 4개 -1년 전-공항칼국수보다는 감동이 덜한 맛하지만 버섯과 칼국수 볶음밥이 무제한인건 매우 높게 평가할 수 있다.더불어 어른들도 좋아할 아기밥이 제공되는 엄청난 장점도 있습니다.}{71: 별표 1개 -1년 전-한창 먹을 나이의 가족이 있거나 그 나잇대 친구들이 우르르 몰려가 리필해가며 먹긴 좋지만 딱 정량만 먹거나 많이 먹어야 죽이나 볶음밥이나 좀 추가해서 먹는다면 조금의 메리트도 없다. 메인메뉴인 버섯칼국수는 고기가 기본이 아니니 참고할 것. 비슷한 방식의 샤브샤브 맛있게 하는 곳이 많으니 이 메뉴때문에 여기까지 올 필욘 없을듯 하다.특히 샤브샤브에 나오는 칼국수를 좋아하신다면 여긴 필히 걸러야한다. 두껍고 찰기도 없이 뚝뚝 끊어진다.}{70: 별표 5개 -7달 전-너무너무 시원하고 맛있어요. 겨울이면 생각나는 맛}{69: 별표 5개 -10달 전-맛집입니다. 재료무한리필인데 면드시지마시고 버섯만무한리필해서드시고 감자남겨놨다가 밥이랑비벼드세요. 혜자}{68: 별표 4개 -9달 전-오랜 동네 맛집. 날이 쌀쌀해지니 생각나는 곳이예요. 최근에는 버섯과 미나리 칼국수면이 무한리필이라 부담없이 먹기 좋아요&amp;&amp;}{67: 별표 4개 -1년 전-맛있음. 칼국수 밥 버섯 무한 리필!! 지하고 조금 깔끔하진 않음. So delicious. Noodle rice and mushroom are no limited supplied.}{66: 별표 3개 -6달 전-맛  4.5 / 5( 약간 매운버섯샤브샤브를 좋아하신다면 실패없는맛. 버섯 미나리 밥(?) 면이 무한리필. 면이 굵어서 호불호가 갈릴 가능성 있습니다.  )서비스 2 / 5(주문했는데 빤히 쳐다본 후 대답없이 주문넣으러가고 추가주문하려고 불러도 안오네요. 전체적으로  퉁명스러운 분위기^^. 일하시는분들이 한 명은 아니시니 사바사 케바케겠지만요.)위생 3 / 5(이번에 갔을때 나온 용기나 수저젓가락…}{65: 별표 4개 -6달 전-자극적이지 않고 사리들이 무료라 맘에듦}{64: 별표 4개 -5달 전-워낙 유명한 칼국수 맛집인데 명성 그대로입니다}{63: 별표 4개 -10달 전-버섯보다 미나리가 맛잇는집. 버섯 미나리 샤브고기 최대한 드시고 마지막에 칼국수끓여드세여.}{62: 별표 4개 -2달 전-자주가는집 그냥 좋은집 불친절하고 비싸도...}{61: 별표 5개 -1년 전-아주머니들 친절하시며 버섯미나리 추가해도 눈치볼것도 없음 오히려 더 많이 주심^^}{60: 별표 5개 -1달 전-여의도 칼국수는 여기가 최고}{59: 별표 4개 -10달 전-맵고 자극적인 맛을 좋아하는 사람에게 잘 맞습니다. 염도는 좀 높아요.. 버섯 무제한 제공 되고 음식양은 충분한 편입니다}{58: 별표 5개 -8달 전-1인분 8000원 할때부터 자주 갔는데 벌써 11000원이네요.오랜만에 먹었는데 여전히 맛있네요}{57: 별표 5개 -7달 전-진짜 진짜 진짜 맛있음! 특히 칼국수 면이 수타라서 끝내줌. 모든게 무료로 리필됨. 김치도 좀 매운데 정말 맛있음.}{56: 별표 4개 -1달 전-생각보다 맛있네요 자리도 넓습니다}{55: 별표 5개 -1년 전-몇년만에 다시 가보니 역시 대박}{54: 별표 4개 -1년 전-무한리필ㅋ 배불러용 항상사람많아요}{53: 별표 1개 -10달 전-너무 맛없어요... 서비스도 별로고.... 자꾸 직원분들이 리필하면 죽일듯이 쳐다보고... 이 음식을 코로먹는지 입으로먹는지 모르겠어요.... 근데 술은 진짜로 코로 먹었음. 진로 없음 진로 지도는 다른곳에서.}{52: 별표 5개 -1달 전-변함없이맛나고술해장하기좋코 ㅎ}{51: 별표 4개 -7달 전-등촌칼국수 비슷하다. 사람이 항상 많은데 많이 안기다린다. 서버분들이 많아 좋다. 근데 가격이 그동안 계속 인상 ㅠㅠ}{50: 별표 4개 -11달 전-일인분 11000원. 강한 마늘향이 나는 매운탕국물에 버섯 칼국수 죽을 순서대로 먹는곳임}{49: 별표 5개 -9달 전-가격은 올랐지만 인심은 그대로라 그래도 자주가고있어요!끓이면서 거품올라오면  따로 제거 안하셔두되요 그거 양념이라서}{48: 별표 4개 -1년 전-가양 칼국수 무한리필집가양 버섯매운탕 1인 11000원 샤브샤브 11000원아기밥 추가밥 축칼국수 추가야채 모두 무료예전에는 계속 이모님들께 주문했어야 했는데...지금은 조금은 번거롭지만 덜 부담되게 셀프로 갔다 먹으면됨정말 맛난 집 슬한잔 하기도 최고 인원수대로 계산하고 샤브는 한테이블에 1~2개만 추가해 먹으면 최고.}{47: 별표 5개 -7달 전-동네맛집 느낌 풀풀. 가성비 진짜 괜찮습니다.}{46: 별표 5개 -8달 전-존맛탱. 깔끔한 맛}{45: 별표 4개 -1년 전-오전11시30분에 왔는데도 30분가량 대기해서 먹음 ..ㅋㅋ맛있게 잘먹었습니다 버섯 야채 칼국수 전부 무한ㅋ}{44: 별표 5개 -1달 전-존맛탱에 가성비 박살}{43: 별표 5개 -6달 전-여기 진짜 너무 맛있어요. 직장인들 때문에 점심에 빨리 안가면 안됩니다.}{42: 별표 4개 -5달 전-가성비 좋음. 좋아하는 버섯을 맘껏먹을수 있음.}{41: 별표 4개 -5달 전-좋은재료 그렇게 짜지 않은 음식이 맛이 좋아요. 고기가 기본 포함되어있지 않아요}{40: 별표 5개 -1년 전-얼큰하고 맵고 짜고. 이 정도면 한국인의 소울푸드}{39: 별표 3개 -4달 전-참 맛있고  양도  많고 반찬도 정갈하고 좋네요 매워요  넘  매워요}{38: 별표 5개 -1년 전-소고기 빼고 거의 무한 리필이라고 봐도 된다 맛은 깔끔하고 뒤끗은 없다}{37: 별표 5개 -10달 전-그냥 기본 버섯매운탕만먹어도 충분히 맛있는곳.신선한재료와 얼큰한국물이 일품이다.개인적으로 칼국수면보다버섯과미나리를 리필해먹고 볶음밥까지 야무지게 해먹으면 좋다.}{36: 별표 5개 -1년 전-여의도 맛집중 하나! 버섯도 무제한 주고 칼국수와 죽도 맛있습니다.}{35: 별표 4개 -9달 전-점심에 단체로 버섯칼국수 매운탕을 먹다. 장소는  어두침침한 지하에 있으나 활기넘치는 곳이다. 송이느타리버섯과 제철 미나리가 무한 리필되는 곳. 시원하고 칼칼한 맛이 좋다}{34: 별표 4개 -1년 전-버섯과 면 밥 등의 추가가 무료이기 때문에 1인당 11000원이라는 가격도 납득이 감. 칼국수 면이 굵어서 맘에 들었음. 다만 겨울에 매장이 다소 추운데 물도 얼음물이라 더 춥다}{33: 별표 4개 -2달 전-맛있고 양많아요 마늘맛이좀만 덜났으면좋겠음}{32: 별표 5개 -8달 전-버섯 미나리가 무한 리필!!! 베이스되는 육슈도 맛나네요 지하에 있다 보니 약간의 냄새는 낫는것 같았어요 그것빼곤 다 좋네요}{31: 별표 5개 -1년 전-버섯밥면 무료리필됩니다. 버섯 이미 많이 주시고 정말 맛있습니다!}{30: 별표 5개 -6달 전-넘넘넘 맛나요^^ 무한리필 버섯과 야채까지}{29: 별표 5개 -10달 전-버섯매운탕 이라는걸 처음 먹어봤는데 너무 맛있어요!!버섯도 맛있고 칼국수와 볶음밥까지 정말 최고!!버섯응 계속 먹을 수 있어서 좋고요. 게다가 국물이 정말 예술입니다!!}{28: 별표 4개 -6달 전-국물이 칼칼하고 맛이 좋습니다~ 느타리 버섯과 미나리 국수와 밥까지 맛있고 배부르게 먹을 수 있답니다. 직장가 점심의 여느 식당이 그렇듯 시끄럽고 정신이 없어서 대화를 나누며 식사하는 장소로는 적합하지 않네요}{27: 별표 5개 -6달 전-괜찮음. 등촌샤브샤브 칼국수랑 맛이 똑같은데 거기보다 좋은덤은 미나리 버섯 육수가 무한리필이라는 점. 싸게 쏘주먹고싶은날 칭구들 데꼬와서 먹으면 싹일듯.}{26: 별표 1개 -1년 전-왜 인기 있는지 모르겠어요... 마늘이 너무 많이 들어갔고 맵고 짜고 모든 것이 자극적...}{25: 별표 5개 -1년 전-여의도 최고맛집}{24: 별표 5개 -9달 전-10시까지 하고 버섯 밥 칼국수 야채는 무한!  가격이 조금 올랐지만 여전히 맛잇고 칼칼하다!  여의도에서 꼭 가볼곳 중 하나!샤브샤브 메뉴는 샤브샤브고기 추가입니다}{23: 별표 5개 -6달 전-너무맛있게잘먹었어요! 무엇보다 좋은점은 버섯 미나리 면 육수 김치가 다 무한이에요ㅋㅋㅋ정말 11000원에 배터지게먹었어여ㅋ}{22: 별표 4개 -8달 전-여기저기 여러 공중파 방송에 소개된 맛집. 1인분에 11000원. 소고기 샤브샤브용은 별도로 11000원. 추가 채소 버섯 국수 밥은 무료. 육수가 구수한데 소고기 넣으면 더 감츨 맛이 나죠. 무엇보다 간장소스가 일품. 각 재료의 맛을 도드라지게 잡아주는 게 너무 좋았어요. 집사람은 등촌동 버섯칼국수가 더 좋다네요. 나는 잘 기억이 안 나는데....}{21: 별표 5개 -2달 전-다른 곳에는 존재하지 않는 셀프바가 있어 버섯과 야채를 무제한으로 먹을 수 있다.}{20: 별표 4개 -1년 전-익숙한 아는 맛이지만 그래서 더 맛있다.30년 넘은 맛집.}{19: 별표 5개 -7달 전-어릴 적 목욕 끝나고 오던 칼국수 집입니다.정말 수십만원짜리 코스 요리를 먹은것만큼 만족스러운 식사입니다3만3천원으로 둘이 먹을 수 있는 단언컨데 가장 맛있는 국물음식점이라고 생각합니다.꼭 샤브샤브를 추가해서 드시고 직장인이 많은 여의도라 주중 저녁시간에 오시면 다소 복잡해 친절하지 않다고 느끼실 수도 있지만 직원분들의 수와 손님들의 수를 고려해보시면 당연하다고 생각합니다. 맛과 활기를 느낄 수 있는 집이였습니다}{18: 별표 5개 -1년 전-여기는 여의도 레전드죠. 10년 전이나 지금이나 변함이 없네요. 가격만 1만1천원으로 올랐을 뿐.버섯이나 야채는 무한리필. 어디가서 버섯을 한 번에 이렇게 많이 먹어볼 수 있는 곳도 없을 거에요. 칼국수도 괜찮고 마지막 볶음밥도 맛있지만 무엇보다 기본이 되는 그 마늘 베이스의 칼칼한 육수가 백미. 한숟갈 떠보면 누구나 시원하다고 느낄만한 맛으로 그 국물에 어떤걸 넣어도 맛이 우러나는 거죠.}{17: 별표 4개 -1달 전-내가 버칼진짜좋아하는데 공항칼국수 약간하위호한인정?}{16: 별표 5개 -3달 전-너무 맛있어요. 먹느라 사진찍는 것을 깜빡했을 뿐..강추초강추 버섯 국수 채소 무한리필. 배불러서 못먹는건 함정}{15: 별표 4개 -2주 전-변한것은 가게 크기뿐... 추억의 버섯칼국수 마지막 볶음밥은 화룡점정}{14: 별표 1개 -8달 전-숫가락에 밥풀이 그대로 묻어있다. 엄청 딱딱해 떼어내지 못할 정도다. 접시에 낀 고추가루는 미처 촬영 못했다. 이정도면 설거지를 엉망으로 했고 수저 상태를 점검하지도 않았다는 얘기다. 먹는 걸 파는 식당에서 이정도 위생이면 문닫아야할 수준이다. 그런데 가격은 또 올랐다. 해마다 천원씩 오른다. 11000원이면 싼 집은 아닌데 위생은 바닥이다.}{13: 별표 4개 -3달 전-가격대비 괜찮은 곳이에요. 칼국수도 굵직하고 맛도 괜찮아요.}{12: 별표 4개 -1달 전-주말에 갔는데 직원분들은 불친절하시지만 가성비 먹기엔 괜찮은곳이에요죽해달라고 했는데 한참을 기다려도 안해주시고 ㅠㅠ 그래서 셀프로 해먹었어요 ㅋㅋ무한리필로 면 칼국수 야채 먹을수 있어서 좋아요}{11: 별표 5개 -7달 전-20년도 더 된 제 단골집 입니다.결혼전에 처음 방문했었고입덧을 할때도 찾았었고 지금은 대학생이 된 제 아이가 꼬꼬마 였을때도 같이 먹었고 오늘도 옛 추억을 회상하며또 찾았습니다. 세월이 그렇게 지났지만 칼칼하면서 시원한 국물 맛과 넘치는 양과 따뜻한 정은 변하지 않은 곳이에요. 11000원에 버섯 칼국수 그리고 마지막 죽까지 계속 리필가능합니다. 고기를 좋아하시는 분들은 샤부용 고기도 추가 할수 있어요. 날씨가…}{10: 별표 5개 -1년 전-진한 마늘맛으로 사람 발목 잡고 늘어지는 유형의 버섯 칼국수. 버섯 매운탕으로 메뉴는 하나뿐임. 들어가서 자리 잡고 앉으면 무조건 명수대로 가져다주심. 버섯과 야채는 무제한 무료인 대담한스타일 칼국수 면이 떡볶이 마냥 굵고 큼직한게 매력 그것 또한 무제한. 가격은 11000원 소고기 샤브샤브는 무조건 추가해서 드시고 그것고 11000원}{9: 별표 3개 -1달 전-칼칼하고 맛있어용 사리랑 채소 볶음밥 무한리필이예요가격도 적당하고 가성비 좋아서 회사원들 진짜 많아용볶음밥 특히 추천이요~~~~!!!!손님이 많다보니 직원아주머니들의 친절함은 바라지마세용}{8: 별표 5개 -1년 전-여기 진짜 각종 야채 및 면 무한리필!최고에요. 엄마뻘의 종업원분들도 넘 친절하시고!오래 장사 잘 되는 이유가 있는 것 같아요또가고싶네요}{7: 별표 3개 -1달 전-11000원에 버섯 사리 무한 리필 짜고 미원맛이지만 든든하게 먹을만함}{6: 별표 3개 -1년 전-지하1층에 있고 역에서 거리가 있는 편인데 사람이 많음. 밑반찬은 마늘향이 많이 나는 김치밖에 없는데 이 김치가 맛있음. 1인 11.000원에 버섯매운탕 칼국수 죽을 먹을 수 있음. 얼큰한 것이 먹고 싶을때 추천함. (직원들의 친절은 기대안하는게 좋음. 알아서 해먹어야하고 언제 먹어야한다는 가이드도 전혀 제시하지 않음. 그냥 재료랑 기본세팅만 해준다고 보면 됨)}{5: 별표 2개 -1년 전-여의도에서 인기 많은 버섯칼국수집평일 저녁에 방문했는데 손님 많음 웨이팅은 없음가격이 올랐다고 하는데 그래도 비싼가격은 아님직원분이 그냥 인원수보고 알아서 셋팅을 해줌고기는 처음에 몇점 나오고 더 먹으려면 주문해야함나머지 미나리 버섯 면 등은 다 셀프 무료임국물맛은 마늘이 많이 들어가 맛이 좋지만나머지는 다 별로 버섯도 한가지 채소도 또한 미나리 한가지그냥 가성비?양? 으로 승부고기 추가로 주문했는데…}{4: 별표 5개 -5달 전-여의도 [가양칼국수 버섯매운탕]여의도 주민들의 SOUL FOOD&lt;U+2800&gt;1990년에 여의도 홍우빌딩 지하 1층에 자리를 잡은 후 어언 30년 가까이 운영 중이신 샤브 칼국수 전문점. 실제로 12년전 중학교 다닐 때 처음으로 방문했던 식당이다. 내부는 100석 정도 되보일 정도로 넓지만 평일 저녁에는 직장인들로 바글바글하다. 여의도에 사는 주민들 혹은 직장인들에게 이 음식은 SOUL FOOD와도 같다.&lt;U+2800&gt;이 곳은 ‘등촌칼국수’와…}{3: 별표 4개 -1달 전-고추장 마늘 맛이 강한 자극적인 진한 국물의 칼국수였어요. 맛은 있으나 속이 편한 건 아니어서 별 하나 뺐어요. 버섯과 미나리를 계속 리필해서 먹을 수 있어서 좋았고 볶음밥도 맛있었어요. 칼국수 면이 오동통해서 씹는 맛이 좋았네요.}{2: 별표 5개 -3달 전-몇번을 가도 질리지않고 맛있는 곳고기 추가없이 먹어도 괜찮지만 고기넣는게 더 맛있기는 함 미나리와 버섯 그리고 면까지 모두 무제한 추가 가능함. 칼국수 면이 두꺼워서 익을 때까지 기다리는 것은 좀 힘들지만 면과 수제비 중간이라 푹익혀서 먹으면 맛있음볶음밥도 추가 가능했던 것으로 기억되나 대식가가 아니면 추가할 일은 없을 듯모든 샤브 칼국수가 그렇지만 볶음밥할때 물을 많이 하지 않는것이 좋음매콤한 맛이라 술이랑 같이 먹어두 괜찮음늘 손님이 많지만 대기하지는 않음}{1: 별표 5개 -1달 전-지상 주차장이 비좁아서 주차하기 만만치 않습니다. 큰길로 가지 마시고 건물 후면이 주차장 입구입니다. 지하 1층에 있고요. 버섯매운탕 1인 11000원인데 김과 참기름 간장 넣은 밥 + 칼국수 + 볶음밥 재료 기본 세팅해 주시고.. 칼국수 야채(쑥갓 버섯)는 계속 가져다 드실 수 있어요.. 샤브샤브용 고기는 추가 주문 11000원 입니다. 무엇보다 얼음물이 시원하니 덥지도 않고 뜨거운 국물 마구 흡입합니다. 맵기…}</t>
   </si>
   <si>
@@ -100,12 +135,24 @@
     <t>폴앤폴리나</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 의사당대로 108 아일렉스상가 1F</t>
+  </si>
+  <si>
     <t>{55: 별표 4개 -10달 전-}{54: 별표 5개 -10시간 전-}{53: 별표 4개 -2달 전-}{52: 별표 5개 -1년 전-}{51: 별표 4개 -1년 전-}{50: 별표 5개 -1년 전-}{49: 별표 5개 -3년 전-}{48: 별표 4개 -1년 전-}{47: 별표 5개 -1년 전-}{46: 별표 5개 -1년 전-}{45: 별표 5개 -1년 전-}{44: 별표 5개 -1년 전-}{43: 별표 5개 -10달 전-}{42: 별표 5개 -1년 전-}{41: 별표 5개 -1달 전-}{40: 별표 4개 -2년 전-}{39: 별표 5개 -3년 전-(Google 번역 제공) 훌륭한 작은 프랑스 빵집. 맛있는 버터 프레즐!(원문)Great little French bakery. Delicious butter pretzels!}{38: 별표 4개 -4년 전-깜파뉴가 인상적이었다. 장인정신으로 무장된..}{37: 별표 5개 -3년 전-짱맛!!!!}{36: 별표 5개 -3년 전-존맛}{35: 별표 5개 -3년 전-정말 맛있어요! 유럽식 빵!}{34: 별표 5개 -2년 전-엄청 맛있음.}{33: 별표 5개 -1년 전-치아바타 최고}{32: 별표 4개 -1년 전-테이크아웃전용이에요}{31: 별표 4개 -3년 전-빵집}{30: 별표 5개 -3년 전-나의 베스트 빵집프리첼 바게트 너무 맛있다 }{29: 별표 4개 -1년 전-빵을 사기에는 좀 불편한 시스템이지만 맛은 담백하고 괜찮다}{28: 별표 1개 -6년 전-촬영한다고 판매를 하지않는 다는건 진짜 아닌듯하네요...홍대에서 정말 맛있게 먹은기억이 나는데요...정말 실망이예요차별하는 빵집인지 정말 몰랐어요}{27: 별표 5개 -2년 전-그래 이맛이야. 드디어 제대로된 유러피안 빵을 찾다}{26: 별표 4개 -1년 전-일반 베이커리와 다른 폴앤폴리나만의 빵을 맛볼수 있지만 본점에 비해 빵의 따뜻하진 않아요 그리고 매장이 작아 기다리는 줄과 빵을 받는 줄이 좀 복잡하니 그나마 한가한 시간을 노리시길 바랍니다.}{25: 별표 4개 -1년 전-담백하고 맛있어요. 가격이 좀 비싼게 흠이죠 ㅋ}{24: 별표 4개 -1년 전-버터프레첼 꼭 드세요 존맛탱}{23: 별표 5개 -2년 전-최고의 빵집. 모든 빵이 맛있고 정성가득하다. 깜파뉴 최고다. 서울에서 가본 빵집 중 제일 최고라고 생각한다.}{22: 별표 5개 -1년 전-빵이 정말 맛있어요특히 버터프레첼이랑 치아바타  진짜 맛나요}{21: 별표 3개 -1년 전-유명한 집이라서 여의도 갔을 때 방문했는데 특별한지는 모르겠어요.}{20: 별표 4개 -1년 전-여의도에서일할때자주사먹었던집&lt;U+0001F956&gt;&lt;U+0001F956&gt;&lt;U+0001F956&gt;}{19: 별표 5개 -1년 전-빵 단독으로 먹어도 맛있지만 샐러드랑 같이 먹으면 더 맛있는 빵. 자극적이지 않고 너무 맛있어요 ㅊㅊ}{18: 별표 5개 -2년 전-발효빵이 정말 맛있는 가게입니다. 치아바타 따뜻할 때 사면 집에 무사히 못 들고 옵니다 정말이지 무시무시해요... 버터프레첼을 꼭 사오고 싶은데 주말에는 금방 품절되니 서두르세요}{17: 별표 5개 -5달 전-아무리 다녀봐도 여기가 젤 나음}{16: 별표 5개 -9달 전-초콜렛 크로쌍 맛있네요.}{15: 별표 5개 -2달 전-예술이야}{14: 별표 5개 -1달 전-건강한 빵집}{13: 별표 5개 -1년 전-발효빵의 기본. 버터와 설탕이 베이스가 아닌 진정한 빵의 풍미를 맛볼 수 있는 곳. 높은 가격대를 제외하면 언제나 만족}{12: 별표 5개 -1년 전-아일렉스 상가 안 1층에 있는데 간판이 눈에 띄지 않아서 은근 찾기 힘들었네요 생각보다 조그마하고 진열대 하나에 몇가지 빵이 있습니다. 버터프레즐 유명하다고 그랬는데 전 그보다는 화이트 치아바타먹고 우와 그랬어요!}{11: 별표 5개 -8달 전-버터프레첼 치아바타 등등 맛나요~}{10: 별표 5개 -7달 전-건강하고 담백한 빵이 많아서 좋습니다}{9: 별표 5개 -1달 전-와...버터프레첼 블랙올리브 존맛탱}{8: 별표 5개 -1달 전-여기 빵먹고 나면 가스 안차고 속이 편함}{7: 별표 4개 -2년 전-갓구은 신선한 빵을 살 수 있는 곳특히 크로아상. 벵 오 쇼콜라와 버터를 넣은 프레젤이 맛있는 집&lt;U+11A2&gt;그러나 낮 12시가 돼야 문을 연다. 헛걸음하지 않도록&lt;U+11A2&gt;}{6: 별표 5개 -10달 전-인생빵집&lt;U+2757&gt;&lt;U+FE0F&gt;&lt;U+2757&gt;&lt;U+FE0F&gt;여기알고 다른 곳에서 빵 잘 안먹어요.가지수는 많지않고 바게트치아바타올리브샌드위치 그리고 버터프레젤 있는데 어떤게 최고다 할 거 없이 다 맛있어요...한개사러갔다가 시식빵먹고 세개 들고나오는 집입니다 ㅠㅠ...}{5: 별표 5개 -7달 전-뭘 골라도 후회없는 너무너무 좋아하는 곳이예요. 전화로 미리 예약해두고 가면 픽업이 빨라서 좋아요.}{4: 별표 3개 -7달 전-건강한맛  프레첼  맛집.달달하고 촉촉한식감은 아닙니다}{3: 별표 4개 -3주 전-탁월한 퀄리티. 가격이 비싼것 빼면 좋다}{2: 별표 5개 -2달 전-빵 다 맛있는데특히 브라운 치아바타 너무 최고에요♡}{1: 별표 5개 -5달 전-여의도 공원으로 산책 삼아 가면 종종 여기서 좋아하는 깜빠뉴를 사다 먹는다.. 겉은 바삭하고 거친 맛이고 안쪽은 촉촉한 깜빠뉴 식감과 향이 정말 좋다. 폴앤폴리나의 스콘이나 치아바타도 아주 만족스럽다.. 다른 사람들도 많이 사가는 식빵도 사다 먹어 봐야지..}</t>
   </si>
   <si>
     <t>바스버거</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로 20 율촌빌딩 B1</t>
+  </si>
+  <si>
+    <t>{965: 별표 5개 -1년 전-}{964: 별표 3개 -3년 전-}{963: 별표 4개 -2년 전-}{962: 별표 5개 -2년 전-}{961: 별표 4개 -2년 전-}{960: 별표 4개 -1년 전-}{959: 별표 4개 -1년 전-}{958: 별표 5개 -3주 전-}{957: 별표 4개 -1년 전-}{956: 별표 3개 -2년 전-}{955: 별표 5개 -11달 전-}{954: 별표 5개 -2년 전-}{953: 별표 4개 -1년 전-}{952: 별표 4개 -2년 전-}{951: 별표 5개 -1년 전-}{950: 별표 5개 -10달 전-}{949: 별표 4개 -10달 전-}{948: 별표 5개 -1년 전-}{947: 별표 4개 -7달 전-}{946: 별표 5개 -1년 전-}{945: 별표 4개 -1년 전-}{944: 별표 3개 -2년 전-}{943: 별표 5개 -1달 전-}{942: 별표 5개 -9달 전-}{941: 별표 5개 -1년 전-}{940: 별표 5개 -8달 전-}{939: 별표 4개 -2년 전-}{938: 별표 5개 -1년 전-}{937: 별표 3개 -11달 전-}{936: 별표 4개 -3년 전-}{935: 별표 4개 -1달 전-}{934: 별표 5개 -1년 전-}{933: 별표 5개 -6달 전-}{932: 별표 4개 -1년 전-}{931: 별표 5개 -2년 전-}{930: 별표 3개 -1주 전-}{929: 별표 5개 -3달 전-}{928: 별표 2개 -2년 전-}{927: 별표 5개 -2년 전-}{926: 별표 4개 -8달 전-}{925: 별표 5개 -4년 전-}{924: 별표 4개 -3년 전-}{923: 별표 5개 -1년 전-}{922: 별표 5개 -6달 전-}{921: 별표 3개 -9달 전-}{920: 별표 5개 -1년 전-}{919: 별표 4개 -1년 전-}{918: 별표 5개 -2년 전-}{917: 별표 4개 -3년 전-}{916: 별표 5개 -8달 전-}{915: 별표 5개 -1년 전-}{914: 별표 5개 -1년 전-}{913: 별표 5개 -1년 전-}{912: 별표 3개 -2년 전-}{911: 별표 4개 -1년 전-}{910: 별표 5개 -8달 전-}{909: 별표 4개 -8달 전-}{908: 별표 4개 -2주 전-}{907: 별표 4개 -2년 전-}{906: 별표 2개 -8달 전-}{905: 별표 5개 -2년 전-}{904: 별표 5개 -1년 전-}{903: 별표 5개 -1달 전-}{902: 별표 5개 -1년 전-}{901: 별표 4개 -1년 전-}{900: 별표 4개 -6달 전-}{899: 별표 5개 -1년 전-}{898: 별표 2개 -1년 전-}{897: 별표 5개 -2년 전-}{896: 별표 5개 -1년 전-}{895: 별표 4개 -8달 전-}{894: 별표 5개 -1년 전-}{893: 별표 4개 -3년 전-}{892: 별표 3개 -6달 전-}{891: 별표 3개 -1년 전-}{890: 별표 4개 -2달 전-}{889: 별표 5개 -3달 전-}{888: 별표 5개 -2달 전-}{887: 별표 5개 -1년 전-}{886: 별표 5개 -3달 전-}{885: 별표 4개 -1년 전-}{884: 별표 4개 -6달 전-}{883: 별표 5개 -2년 전-}{882: 별표 4개 -2년 전-}{881: 별표 4개 -1년 전-}{880: 별표 5개 -2년 전-}{879: 별표 5개 -1년 전-}{878: 별표 3개 -10달 전-}{877: 별표 5개 -1년 전-}{876: 별표 5개 -8달 전-}{875: 별표 4개 -2년 전-}{874: 별표 4개 -1년 전-}{873: 별표 5개 -3년 전-}{872: 별표 3개 -1년 전-}{871: 별표 5개 -7달 전-}{870: 별표 5개 -1년 전-}{869: 별표 4개 -1년 전-}{868: 별표 5개 -1년 전-}{867: 별표 5개 -7달 전-}{866: 별표 4개 -1년 전-먼저 찾아주셔서 감사합니다. 찾아주시는 고객님들께 만족을 드리고 싶은게 저희 마음인데..만족을 드리지 못해 너무나도 죄송합니다..어떤 부분이 아쉬우셨는지 말씀해주시면 최대한 반영하여 다음번 방문때는 만족드릴 수 있도록 개선하겠습니다. 감사합니다.}{865: 별표 3개 -2달 전-}{864: 별표 4개 -1달 전-}{863: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다. 점심시간에 고객님들이 많이 찾아주셔서 너무나도 감사하지만..한편으론 기다리게 해드려 죄송한 마음도 든답니다 ㅠ..ㅠ..이 부분 저희도 항상 고민하고 있습니다..! 빠른 시일내로 개선할 수 있도록 최선을 다하겠습니다. 감사합니다.}{862: 별표 4개 -2년 전-}{861: 별표 5개 -2년 전-}{860: 별표 4개 -2년 전-}{859: 별표 5개 -2년 전-}{858: 별표 4개 -1년 전-}{857: 별표 4개 -1년 전-}{856: 별표 3개 -1년 전-}{855: 별표 4개 -2년 전-}{854: 별표 5개 -2년 전-}{853: 별표 4개 -2년 전-}{852: 별표 5개 -1주 전-}{851: 별표 5개 -11달 전-}{850: 별표 5개 -2년 전-}{849: 별표 3개 -1일 전-}{848: 별표 5개 -7달 전-}{847: 별표 5개 -3주 전-}{846: 별표 4개 -2년 전-}{845: 별표 3개 -1년 전-}{844: 별표 4개 -1년 전-}{843: 별표 5개 -2년 전-}{842: 별표 5개 -7달 전-}{841: 별표 3개 -1년 전-}{840: 별표 5개 -2년 전-}{839: 별표 4개 -1년 전-}{838: 별표 5개 -1년 전-(Google 번역 제공) 햄버거는 조금 비싸지 만 요이도 최고의 햄버거(원문)Bit expensive for burgers but the best burger in yoido}{837: 별표 5개 -3일 전-(Google 번역 제공) 이 맛있어요!(원문)It's delicious!}{836: 별표 5개 -2년 전-(Google 번역 제공) 맛있는 햄버거와 크래프트 맥주(원문)Delicious burger and craft beer}{835: 별표 4개 -8달 전-(Google 번역 제공) 우수한 품질(원문)Fine quality}{834: 별표 4개 -1년 전-(Google 번역 제공) ybd의 상단(원문)top in ybd}{833: 별표 5개 -1년 전-(Google 번역 제공) 큰(원문)Great}{832: 별표 3개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족해 주셨나요! 고객님만의 세트구성이 있으시다면 추천해주세요! 저도 그 조합으로 도전해 보겠습니다. 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{831: 별표 5개 -6달 전-(Google 번역 제공) 맛있는(원문)yummy}{830: 별표 3개 -6달 전-방문해주셔서 감사합니다. 언제 방문하셔도 한결같은 맛과 분위기로 고객님을 만족 시켜 드릴 수 있도록 노력하는 바스버거가 되겠습니다. 소중한 리뷰와 별점 만점 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{829: 별표 5개 -1년 전-(Google 번역 제공) 꼭 가야합니다.(원문)Must Go Place.}{828: 별표 5개 -1년 전-(Google 번역 제공) 맥주와 함께 햄버거를 먹기 좋은 곳(원문)Good place to have burger with beer}{827: 별표 4개 -8달 전-(Google 번역 제공) 벌레 좋아. 비어 플레이트 불량. 무료 감자 칩 ..(원문)Buger good. Beer plate bad..free potato chip excellent..}{826: 별표 4개 -2년 전-Thank you for your visit! From now on come to me when you think of burgers and beer! I'll be ready. Thank you:)}{825: 별표 4개 -7달 전-(Google 번역 제공) goooooooood 맥주와 함께 좋은 햄버거(원문)nice burger with goooooooood beer}{824: 별표 3개 -2년 전-(Google 번역 제공) 다른 날 나는 내가 전에 가지고 있었던 다른 모든 괴롭히기꾼들에게 탱크를 달아 놓아야 할 귀중한 경험을 할 수 있었다. 어디에? 바로 여기에..썩은 빵은 내가 얼마나 맛있는 Mcdollds인지 생각 나게한다.양상추가 패티에 붙어있어 잼처럼 물 파인애플과 잘 조화를 이룹니다. thak you Bas .. 나는 행복을 가지고 무엇이든 Lott *** Mcd ***를 시도 할 수 있습니다.(원문)…}{823: 별표 5개 -2년 전-저희는 이름 그대로 "바스버거" 버거를 판매하는 곳입니다맛과 퀄리티를 항상 노력하고 개선하여 최고의 퀄리티를 낼 수 있도록 항상 노력하고있습니다오고 가실때 꼭 꼭 찾아주시면 감사하겠습니다!!}{822: 별표 5개 -9달 전-(Google 번역 제공) 그들은 햄버거를 제공합니다(원문)They serve burgers}{821: 별표 4개 -2년 전-(Google 번역 제공) 절대 최고의 버거!(원문)The absolutly best burgers ever!}{820: 별표 4개 -5달 전-(Google 번역 제공) 좋은 햄버거 좋은 곳(원문)Good burger nice place}{819: 별표 4개 -1년 전-Thank you. Come and see us again when you want to have a burger &amp; beer!}{818: 별표 5개 -2년 전-(Google 번역 제공) 맥주 한잔과 함께 햄버거를 즐기기에 좋은 곳입니다.(원문)Good place to enjoy a burger with a glass of beer.}{817: 별표 4개 -1년 전-(Google 번역 제공) 괜찮은 가격의 훌륭한 버거이지만 점심 식사 중 세트를 찾는 것은 처음에는 오지 않는 악몽 일 수 있습니다. 그러나 먼저 봉사하지만 좌석을 비운 파티에 가장 가까이 서있는 사람은 누구든지 될 수 있습니다. 그것은 나에게 이해가되지 않으며 음악 의자를 연주하는 것보다 평일 버거의 다른 곳으로 가면 충분합니다.(원문)Great burgers at a decent price but finding a…}{816: 별표 4개 -2년 전-(Google 번역 제공) 될 수있는 좋은 곳. 그러나 기다리는 사람들이있을 것을 조심하십시오.(원문)Good place to be. But beware there will be people waiting}{815: 별표 4개 -1년 전-Thank you~!}{814: 별표 5개 -3달 전-(Google 번역 제공) 중대한 햄버거는 중간 크기의 햄버거를 주문할 수 없었고 유일한 단점이었습니다.(원문)Great burger couldn't order a medium burger was my only downside.}{813: 별표 3개 -2년 전-Thank you for finding it. We will reflect your opinion and try to improve it. Thank you.}{812: 별표 4개 -1년 전-(Google 번역 제공) 좋다. 그러나 SCM은 개선되어야한다.(원문)Good but SCM has to be improved}{811: 별표 4개 -1년 전-(Google 번역 제공) 아주 좋은 아메리칸 장식. 맥주와 햄버거 선택이 좋습니다.(원문)Very nice american decor. Beer and burger selection is good.}{810: 별표 5개 -10달 전-(Google 번역 제공) 친절한 직원과 고급 버거(원문)Very kind staff and fine quality burgers}{809: 별표 5개 -1년 전-Thank you for your visit! As you said Yeouido and the Houses of Parliament are located in Yeouido! From now on I will do my best to help you become not only a favorite hamburger store in Yeouido but also in Korea. Thank you.}{808: 별표 5개 -2년 전-(Google 번역 제공) 여의도에서 가장 좋아하는 햄버거 장소. 공원 맞은 편에 다른 곳이 있습니다.(원문)favorite burger place in Yeouido by far. there's another one just like it across the park.}{807: 별표 4개 -1년 전-(Google 번역 제공) 멋진 분위기 맛있는 음식 !!!(원문)Nice atmosphere Delicious food!!!}{806: 별표 5개 -1달 전-(Google 번역 제공) 이 곳은 평상시의 점심 시간에 기업가 / 경제인들 덕분에 매우 잘 포장됩니다. 햄버거는 "세트"가있는 값은 &lt;U+0001F4B0&gt;(원문)This place gets very packed during weekday lunch times thanks to businessmen / businesswomen working around. Burgers with "set" are value for the &lt;U+0001F4B0&gt;}{805: 별표 4개 -1년 전-Thank you for visiting.I'm glad you like it.If you visit me again I will make you satisfied.Thank you :)}{804: 별표 5개 -1년 전-(Google 번역 제공) 지역 브랜드에서 잘 만들어진 버거. Shake Shack의 것과 아주 비슷합니다.(원문)A well made burger from a local brand. Quite similar to that of Shake Shack.}{803: 별표 4개 -1년 전-(Google 번역 제공) 그들은 다양한 버거와 맥주 종류 (수돗물과 병)를 제공합니다. 셀프 서비스 레스토랑으로 튀긴 칩을 무료로 제공합니다.(원문)They offer are large variety of burgers and types of of beers (tap and bottle). It is a self-serve restaurant and offer fried chips for free.}{802: 별표 4개 -1년 전-(Google 번역 제공) 서울의 금융 중심지에있는 멋진 버거 조인트.(원문)An awesome burger joint at the financial heart of Seoul.}{801: 별표 5개 -1년 전-바스버거를 이용해주셔서 감사드립니다 !!!!!!! 다음번이용시에도 더욱더 만족을 드릴수있도록 노력하는바스버거가 되겠습니다 ! 별 다섯개 정말 감사드립니다 ~!!!}{800: 별표 3개 -2달 전-(Google 번역 제공) 맛과 맛(원문)Good and taste}{799: 별표 4개 -4주 전-(Google 번역 제공) 사람들이 왜 불평하는지 상상할 수 없습니다. 몇 마일 정도 떨어진 곳에서 가장 좋은 햄버거 중 하나입니다. 나는 더블 베이컨을 먹었습니다. 기대 이상!(원문)Can't imagine why people complain. It's one of the better burger places miles around. I had the double bacon: which was delicious. Beyond expectations!}{798: 별표 3개 -6달 전-Thank you for visiting me first!Thank you very much for your favorable assessment in all areas.Come visit me when you want to enjoy hamburgers with beer in the future.Thank you :)}{797: 별표 3개 -1년 전-(Google 번역 제공) 맛있는 햄버거뿐만 아니라 프라이드 치킨 스페셜 프라이 쐐기 등과 같은 다양한 가벼운 음식을 제공하는 멋진 버거 바 또한 현지 및 세계 각지의 맥주를 다양하게 갖추고 있으며 친절한 직원이 친절합니다. 포장 된 밤을 쉽게 처리 할 수 &lt;U+200B&gt;&lt;U+200B&gt;있습니다!(원문)Nice burger bar with a great assortment of tasty burgers but also other light…}{796: 별표 4개 -5달 전-We apologize for any inconvenience you may have experienced first. I'm working hard for a good atmosphere where the store is small but I can't feel them. I'll try to show you a better version of me. Thank you =]}{795: 별표 5개 -9달 전-(Google 번역 제공) 많은 팬에게 서비스를 제공하기에 너무 작은 공간(원문)Too small space to serve many of fans}{794: 별표 5개 -1년 전-(Google 번역 제공) 맛있지 않아(원문)Not that tasty}{793: 별표 5개 -1년 전-Thank you for finding it. Please visit me again when you think of hamburgers in the future! I will always be ready. I'll see you again. Thank you.}{792: 별표 5개 -1년 전-(Google 번역 제공) 작년에 여러 번 여기 먹었어요. 햄버거는 이국적인 음식이 아닙니다. 그들은 단지 아주 좋은 사람입니다. 아주 좋은 쇠고기. 그들은 맥주 15 ~ 20 회 정도의 벽을 가지고 있습니다. 나는 한 번 한국에 여행을 먹으려 고 노력합니다. 콘래드 (Conrad)와 IFC 몰 건너편.(원문)I've eaten here several times over the last year. Burgers…}{791: 별표 5개 -1년 전-방문해주셔서 감사합니다 ^^ 부드러운 번과 육즙가득한 패티~!!!그리고 무제한으로 즐길수 있는 제임스감(감자칩)~!! 항상 맛있는바스버거가 되겠습니다.고객님의 소중한리뷰와 별점 감사합니다.}{790: 별표 5개 -1년 전-(Google 번역 제공) 무료 칩과 함께 신선한 햄버거(원문)Fresh burger with free chips}{789: 별표 5개 -1년 전-(Google 번역 제공) 마을에서 최고의 햄버거와 맥주 선택. 맥주는 서울의 다른 인기있는 주점보다 비슷하거나 좋습니다.(원문)Best burgers and selection of beers in town. Beers are comparable or better than other popular gastropub establishments in Seoul.}{788: 별표 5개 -1년 전-방문해 주셔서 감사합니다 ^^ 맛있게 드셔서 사진이 없다니 ㅠㅠ 안타깝습니다. 다음 방문시에도눈깜짝 할 사이에 없어질수 있는 맛있는 바스버거가 되겠습니다 ^^ 감사합니다.}{787: 별표 5개 -1년 전-(Google 번역 제공) 버거의 진실.사진이 없어서 사진이 없습니다.(원문)True of Burger.No photo because it has gone.}{786: 별표 4개 -1년 전-Thank you for your delicious meal!Next time you visit us we'll help you have more delicious potato chips and beer!Thank you :)}{785: 별표 4개 -2년 전-(Google 번역 제공) 내가 확신하는 것의 좋은 선택은 한국의 모든 공예 맥주입니다. IPA가 필요합니다. 무제한 리필 사내 칩을 만들었습니까? 아주 좋아.(원문)Nice selection of what I'm pretty sure is all Korean craft beer.  The IPA is on point.  Unlimited refill in-house made chips?  Very nice.}{784: 별표 3개 -10달 전-방문해주셔서 감사합니다. 더블베이컨치즈버거를 드셨던 것 중에 가장 맛있는 버거라고 극찬해주셔서 감사합니다! 직원들이 꼽은 베스트 메뉴중 하나인데요! 역시 드실줄 아시는 고객님 ㅇ_ㅇ 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요. 감사합니다. :D}{783: 별표 5개 -9달 전-(Google 번역 제공) 내가 맛본 최고의 베이컨 치즈 버거 중 하나.(원문)One of the best bacon cheese burgers I've ever tasted.}{782: 별표 4개 -2년 전-(Google 번역 제공) 매우 신선하고 육즙이 많은 햄버거에 엄선 된 공예 맥주를 제공합니다.햄버거는 다소 작지만 다른면을 사용할 수 있습니다. 합리적으로 가격이 책정되므로 큰 부분이 필요할 경우 다른 것을 가질 수 있습니다.작지만 좋은 분위기. 점심 시간에는 매우 바쁘지만 12시 30 분 이후에는 훨씬 나아집니다. 저녁 시간도 바쁠 수 있습니다.환기가 오래되었거나 인기가 계속 유지되어야합니다. (그 이유 중 하나 적은…}{781: 별표 4개 -9달 전-여의도 바스버거를 방문해주셔서 감사합니다저희 매장은 기본 감자튀김과  제임스감 탄산음료가 무료로 무한 제공 해드리고있습니다필요하실때 언제든지 요청해주시면 됩니다 ㅎㅎ다음번에도 많은 방문 부탁드리겠습니다 감사합니다}{780: 별표 3개 -1달 전-(Google 번역 제공) 바스 버거Chip + Burger + Fries&lt;U+0001F44F&gt;&lt;U+0001F3FB&gt;(원문)Bas BurgerChip+Burger+Fries&lt;U+0001F44F&gt;&lt;U+0001F3FB&gt;}{779: 별표 5개 -3년 전-Thank you for visiting first.I'm really glad you're satisfied with everything!I'll do my best to make sure you to your satisfaction the next time you come.Thank you :)}{778: 별표 4개 -1년 전-(Google 번역 제공) 좋은 장소 좋은 공예 맥주와 음식(원문)Great place good craft beer and food}{777: 별표 4개 -3달 전-방문 해주셔서 감사드립니다!^^ 맛있게 드셔주신 것 같아 저 역시 기분이 좋습니다!! 다음번에는 저희가 처음으로 수줍게 만든 ㅂㄲ라거도 강력 추천드립니다 !! 늘 언제나 소중한식사시간을 맛있게 채워 드릴 수 있는 바스버거가 되겠습니다. 감사합니다.}{776: 별표 4개 -1년 전-(Google 번역 제공) 아늑하고 수박 맥주를 맛보십시오.(원문)nice cosy try watermelon beer really nice taste (sweet)}{775: 별표 4개 -2년 전-방문해주셔서 감사합니다. 버거세트와 버팔로치킨윙을 주문해 주셨군요! 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 패티와 번은 바스버거만의 노하우로 다른곳에선 느낄 수 없는 맛입니다! 감자튀김과 치킨윙은 만족시켜 드리지 못해 속상한 마음입니다. 고객님의 소중한 피드백 감사드리며 고객님의 피드백을 귀기울여 듣고 다음 방문에서는 모든 부분에서 만족을 드릴 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{774: 별표 5개 -1년 전-(Google 번역 제공) 햄버거는 좋은 고기와 롤빵 균형입니다. 꽤 신선한. 감자 튀김은별로 좋지 않습니다. 그들은 건조하고 작습니다. 버팔로 윙은 작지만 고기가 없지만 상당히 맛이 있습니다. 버거를 위해 다시 가고 감자 튀김과 버팔로 윙을 피하십시오.(원문)Burgers are good meat and bun balance.  Pretty fresh. Fries aren't very good.  They are dry…}{773: 별표 3개 -10달 전-먼저 방문해주셔서 감사합니다 ^^ ifc몰 주변에 여러 버거집들이 있지만 최고는 바스버거죠 ~!!항상 최고가 될수 있게 노력하는 바스버거가 되겠습니다. 또한 여러가지 테이블이 있기 때문에여러명이 함께 오셔도 충분한 자리가 있습니다~!!고객님의 소중한 의견과 별점 감사합니다. 좋은하루 되세요~!}{772: 별표 4개 -1년 전-(Google 번역 제공) 신선한 야채 육즙이 많은 고기 및 멋진 햄버거 롤빵은 모든 것이 완벽합니다. IFC 근처에서 햄버거 식당을 찾으면 여기 있습니다. 그들은 맥주 소다 및 밀크 쉐이크도 가지고 있습니다! 긴 테이블은 한 번에 4 명 이상을 지원할 수 있습니다.(원문)fresh vegi juicy meat and nice burger bun all things are perfect. if u find…}{771: 별표 5개 -1년 전-고객님 안녕하세요 바스버거 이용 후 만족스러우셨다니 너무 다행입니다 ! 다음번에 또 찾아주신다면 또 만족스러우실수있도록 항상 기다리고 있겠습니다 ㅎㅎ ! 더노력하는 바스버거가 되겠습니다. 감사합니다 ♡}{770: 별표 4개 -1년 전-(Google 번역 제공) BAS와 브루클린 버거는 서울에서 버거를 먹어야 할 유일한 곳입니다(원문)BAS and brooklyn burger are the only places you should eat burgers in seoul}{769: 별표 5개 -2달 전-먼저 방문해주셔서 감사합니다. 프렌차이즈와 수제버거와는 정말 다른 맛이 있지요 ㅎㅎ수제버거만의 육즙과 바삭한 프렌치프라이~!! 항상 고객님들께 만족을 드리기 위해 최선을 다하는 바스버거 입니다^^ 다음방문시에도 더욱 맛있는 버거로 기다리겠습니다.고객님의 소중한리뷰와 별점 감사합니다 !!}{768: 별표 5개 -2년 전-(Google 번역 제공) 빛이 많지 않아 약간 어둡고 메뉴가 많으며 감자 튀김을 무료로 먹을 수 있습니다. 예상대로 손으로 만든 버거는 패스트 푸드 버거와 달리 매우 바삭하고 계속 먹고 싶습니다.(원문)It’s a little dark there because there’s not much light.And there are many menu and you can eat French fries for free. As expected hand made buger is very crispy unlike fast food burger and I want to keep eating it.}{767: 별표 5개 -1년 전-(Google 번역 제공) 그들이 제공 한 감자 칩으로 오랫동안 기다릴 수 있다면 따뜻한 버거를 먹을 수 있습니다.(원문)If you could wait for a long time with potato chips they provided you can have warm burger.}{766: 별표 4개 -1년 전-Thank you for your delicious meal! From now on I will try to be a hot place not only in Seoul but also in Korea! Thank you :)}{765: 별표 5개 -9달 전-(Google 번역 제공) 취향은 매우 좋았다. 나는 서울에서 가장 좋은 햄버거를 마침내 발견했다.나는 Double Double Burger와 Shake를 위해 이곳을 추천합니다. &lt;U+0001F60D&gt;&lt;U+263A&gt;(원문)The tastes were so good. I finally found the best burger in Seoul lolI recommend here for the Double Double Burger and the Shake. &lt;U+0001F60D&gt;&lt;U+263A&gt;}{764: 별표 2개 -1년 전-안녕하세요 저희 바스버거를 이용해주셔서 감사드립니다 ! 맛있게 드셨다니 너무 다행입니다 !! 홀에서 무료로 제공되는 감자칩은 바스버거만의 큰 장점 인데요  만족 하셨다니 다행입니다 ㅎㅎ  다음번에도 방문 해주셔서 맛있게 드셔주시는 고객님의 모습 기다리고 있겠습니다 :-) 감사합니다 더 발전하는 바스버거가 되겠습니다 ♥}{763: 별표 1개 -1년 전-(Google 번역 제공) 합리적인 가격의 괜찮은 버거. 감자 칩이 무료로 제공됩니다. 저를 처음 방문한 친구는 OK Burger라고 말했습니다. 패티와 소스는 SF의 슈퍼 듀퍼 버거를 생각 나게합니다.전반적으로 나쁘지 않다. 특별한 imo는 없습니다.재미있는 사실 ; Deloitte KR과 KPMG KR에서 각각 2 개의 CPA에 의해 설립되었습니다.(원문)Decent burger with reasonable…}{762: 별표 4개 -1년 전-(Google 번역 제공) 롤빵과 패티의 질감은 정말 부드럽습니다. 기름기가 많고 육즙이 많은 패티는 맛이 좋습니다. 그들은 사이드 메뉴와 맥주를 선택할 수있는 많은 옵션이 있습니다.(원문)Texture of bun and patty is really soft. Quite greasy and juicy patty is flavorful. They have many option to choose for side menu and beers.}{761: 별표 4개 -1년 전-(Google 번역 제공) 그것은 꽤 일관되고 튀김을 좋아합니다-뜨겁고 맛있습니다. 내 동료 중 일부는 감자 튀김을 좋아하지 않으며 이유를 모릅니다.버섯과 하와이 버거는 내가 보통 얻는 것입니다. 다른 버거 중 일부는 나에게 너무 작고 욕심 많은 버거는 너무 많습니다.(원문)It's pretty consistent and i like the fries - they're hot and juciy. Some of my…}{760: 별표 5개 -3년 전-방문해 주셔서 감사합니다 ^^ 저희 바스버거는 촉촉한번과 육즙 가득한 패티로항상 고객님께 최고의버거를 제공합니다. 다음방문시에도 만족하실수 있게 더욱 노력하는바스버거가 되겠습니다. 감사합니다.}{759: 별표 5개 -2년 전-(Google 번역 제공) 내 바보이 햄버거는 사랑 스러웠다! !! 빵은 솜털 같은 구름과 같았습니다. 고기는 주스에 흠뻑 적셔서 고르게 양념했습니다. 크래프트 맥주도 좋았습니다! &lt;U+0001F92A&gt;(원문)My gawd these burgers were lovely!!! Buns were like fluffy clouds. Meat was drenched in their juices and seasoned evenly. Craft beer was good too! &lt;U+0001F92A&gt;}{758: 별표 4개 -9달 전-방문해주셔서 감사합니다 ^^ 쉑쉑보다 저희 빵이 더 맛있다니~^^ 최고의 버거가 되게노력하는 바스버거가 되겠습니다!!! 감사합니다. 다음방문시에도 최고의 맛으로 보답해드리겠습니다. 소중한 리뷰와 별점 감사합니다 ^ㅡ^}{757: 별표 5개 -2년 전-(Google 번역 제공) 훌륭한 맛 합리적인 가격 흔들림 같은 맛 부드러운 맛 빵(원문)Great taste reasonable price for this quality taste like shake shack but with better soft taste buns}{756: 별표 5개 -6달 전-First of all thank you for using our store. I'm also very sorry to have disappointed you with some food. I'm going to show you that I'm working harder to satisfy you with everything. Thank you very much.}{755: 별표 4개 -7달 전-(Google 번역 제공) 나는 수분이 많고 맛좋은 하와이 버거를 먹었습니다. 그러나 그들의 감자 튀김과 날개는 평범했습니다. 햄버거 만 먹으면 갈거야(원문)I had their Hawaiian burger which was juicy and quite tasty. But their fries and wings were mediocre. I would go if only for the burger}{754: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다^^ 쉬림프버거가 맛있다고 해주셔서 감사합니다~!!저희 매장에서 가벼운 맥주와 버거를 즐기실수 있는 분위기를 추구하고 있습니다.다음방문시에는 가벼운 펍의 느낌으로 버거와 맥주는 즐겨보세요~!감사합니다.}{753: 별표 5개 -3년 전-(Google 번역 제공) 나는 새우 버거를 먹었고 꽤 맛있었습니다. 가벼 웠지만 만족했습니다. 내가 그것을 더 높게 읽을 수없는 이유는 그것이 너무 비싸고 그들이 제공 한 무료 선박이 좋지 않다고 생각하기 때문입니다. 너무 어려워요! 전반적으로 분위기가 좋았습니다. 펍 느낌이납니다. 낮에는 더 많은 조명을 선호했을 것입니다.(원문)I had the shrimp burger and it was pretty tasty.…}{752: 별표 5개 -1년 전-방문해주셔서 감사합니다. 바스버거는 고객님의 부담을 덜어드리고자 제임스감자칩프렌치프라이소스탄산음료를 무한리필 해드리고 있고 코울슬로미니를 100원에 판매하고 있답니다. 항상 고객님의 입장에서 만족을 드릴 수 있도록 노력하는 바스버거가 되겠습니다. 감사합니다. 또 방문해주세요! :D}{751: 별표 4개 -5달 전-(Google 번역 제공) 햄버거는 맛이 좋고 음식에 감자 칩이 있고 카운터에서 음식을 사 먹습니다. 떠나면 직원 전원이 다시 돌아올 수 있습니다. (한국어)(원문)Hamburger 好味，有薯片任食，counter 買餐自取，臨走時所有職員同&lt;U+4F60&gt;講可能是歡迎再次光臨？(因韓語)}{750: 별표 4개 -11달 전-맨날 기다림}{749: 별표 4개 -2년 전-수제버거}{748: 별표 5개 -1년 전-꽤 시간이 지났음에도 패티의 온기는 사그러들줄 모름}{747: 별표 5개 -1년 전-햄버거 싸고 맛있어요}{746: 별표 4개 -1년 전-가성비 good!!}{745: 별표 5개 -3년 전-맛좋은 햄버거}{744: 별표 5개 -1년 전-맛있습니다}{743: 별표 3개 -2년 전-맛있음. 단가는 비쌈}{742: 별표 4개 -2주 전-줄 서 먹습니다.}{741: 별표 4개 -1년 전-자극적이지 자극적이지 않은 맛이 최고의 맛}{740: 별표 5개 -11달 전-너무 맛있어용^^}{739: 별표 4개 -1년 전-최고의 버거집}{738: 별표 5개 -2년 전-맛있음}{737: 별표 5개 -1년 전-맛있음}{736: 별표 5개 -1년 전-맛있는데 빨리 좀 만들자}{735: 별표 4개 -7달 전-맛있게 드셔주셔서 감사합니다 :) 앞으로도 항상 맛있는 버거로 찾아뵙겠습니다! }{734: 별표 5개 -7달 전-맛있습니다~~}{733: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 맛있는 버거로 찾아뵙겠습니다 :) 감사합니다.}{732: 별표 4개 -5달 전-맛있어요}{731: 별표 3개 -3년 전-버거 맥주가 맛있습니다}{730: 별표 4개 -2년 전-8 ㅣ}{729: 별표 5개 -1달 전-맛있음}{728: 별표 4개 -6달 전-진짜맛있음}{727: 별표 5개 -1년 전-계란후라이}{726: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 고객님께 만족드릴 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{725: 별표 4개 -2년 전-버거도맛있고 맥주도맛있습니다}{724: 별표 4개 -1년 전-안녕하세요~! 찾아주셔서 감사합니다 :)~ 고객님이 저희 바스버거를 사랑해주시니 너무나 기쁘고 뿌듯하네요~! 많은 사랑 받는 만큼 보다 푸짐하게! 건강하게! 사랑스럽게! 맛있는 버거 만들도록 최선을 다하겠습니다~! 감사합니다.}{723: 별표 5개 -3년 전-바스버거 넘 좋아요~!!^^}{722: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다!앞으로도 자주 찾아오실 수 있도록 최선을 다하는 바스버거 되겠습니다.감사합니다 :)}{721: 별표 4개 -1년 전-괜찮은 버거집}{720: 별표 2개 -1년 전-맛있게 드셔주셔서 감사합니다!앞으로도 고객님들께 항상 만족 드릴 수 있는 바스버거가 되겠습니다~감사합니다 :)}{719: 별표 3개 -2달 전-맛있어요}{718: 별표 4개 -2주 전-맛있게 드셔주셔서 감사합니다 :) 앞으로도 맛있는 버거로 보답하겠습니다. 감사합니다.}{717: 별표 4개 -2년 전-맛나요}{716: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다!다음에 찾아주실 때도 만족감 드릴 수 있도록 최선을 다하겠습니다.감사합니다 :)}{715: 별표 5개 -2년 전-여의도에서는 여기만한데 없음}{714: 별표 5개 -9달 전-맛있게 드셔주셔서 감사합니다! 앞으로도 맛있는 버거로 찾아뵙겠습니다 :)~ 다음에 또 뵈요~!}{713: 별표 5개 -2달 전-버거 맛있어요^^}{712: 별표 5개 -2년 전-먼저 방문해주셔서 감사합니다!!엄청 맛있는 버거하고 뒤에 하트 세개까지 !! 앞으로도 고객님들께 사랑을 담아 더욱 만족드릴 수 있도록 하겠습니다♡♡♡♡감사합니다 :)}{711: 별표 4개 -2년 전-엄청 맛있는 버거♡♡♡}{710: 별표 4개 -10달 전-찾아주셔서 감사합니다! 맛 햄버거 하면 바스버거가 딱 떠오르네요! 앞으로도 맛 햄버거 하면 생각나는 맛있는 바스버거 준비하고 있겠습니다! 감사합니다 :)}{709: 별표 4개 -11달 전-맛 햄버거}{708: 별표 4개 -7달 전-좋습니다.}{707: 별표 5개 -2년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 고객님께 보다 맛잇는 버거 대접할 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{706: 별표 4개 -1년 전-맛있다 !!!!}{705: 별표 4개 -1달 전-찾아주셔서 감사합니다! 앞으로는 쉑쉑버거보다 맛있는 버거가 아닌 세계에서 제일 맛있는 버거로 거듭날 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{704: 별표 5개 -2년 전-쉑쉑보다 맛남}{703: 별표 4개 -5달 전-맛있게 드셔주셔서 감사합니다!다음번에 방문하실 때에도 맛있는 햄버거 드실 수 있도록 노력하겠습니다!감사합니다 :)}{702: 별표 5개 -10달 전-맛나게먹었어욥}{701: 별표 5개 -5달 전-맛있어요}{700: 별표 4개 -1년 전-맛있어요~}{699: 별표 3개 -9달 전-시끄럽고 번잡하다}{698: 별표 4개 -2년 전-먼저 방문해주셔서 감사드리며 소중한 시간 내주시어 방문해주셨는데 실망을 드린 것 같아 정말 죄송합니다.어떤 부분에서 실망하셨는지 구체적으로 남겨주시면 해당파트 재교육 하여 개선될 수 있도록 노력하겠습니다.다음에 방문해주신다면 고객님께 만족드려 별점만점 받을 수 있도록 하겠습니다.다시한번 정말 죄송합니다.}{697: 별표 5개 -2년 전-별루}{696: 별표 5개 -3년 전-먼저 방문해주셔서 감사합니다!다음에 방문해주실 때는 고객님께서 더욱 만족하실 수 있도록 노력하는 바스버거가 되겠습니다!찾아주셔서 감사합니다 :)}{695: 별표 4개 -1년 전-낫뱃..........}{694: 별표 4개 -2년 전-감사합니다 고객님!! 맛있는 한끼를 행복하게 드셔서 저희도 행복합니다 ^^}{693: 별표 5개 -9달 전-맛있어요}{692: 별표 4개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{691: 별표 5개 -10달 전-대존맛}{690: 별표 5개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{689: 별표 3개 -1년 전-맛있어요 ♡♡}{688: 별표 5개 -10달 전-맛나요}{687: 별표 5개 -2년 전-나이스 감자칩}{686: 별표 4개 -2년 전-여의도 수제버거의 희망!}{685: 별표 4개 -2년 전-맛있음}{684: 별표 4개 -1년 전-맛있음}{683: 별표 4개 -11달 전-방문해주셔서 감사합니다. 역삼 클라이밍랩님! 역삼점과 여의도점 모두 방문해 주셨나요 ㅇ_ㅇ 혹시 여의도점만 방문해 주셨다면 역삼점도 있으니 참고 부탁드리며 소중한 리뷰와 별점 만점 모두 감사드립니다. 다음에 또 방문해주세요! 감사합니다.  :D}{682: 별표 5개 -2년 전-흥해라 바스버거}{681: 별표 3개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족해 주셨나요! 고객님만의 세트조합이 있으시다면 추천해주세요. 저도 그 조합으로 도전해 보겠습니다! 소중한 리뷰와 별점 만점 감사드리며 언제나 이번처럼 만족을 드릴 수 있는 바스버거가 되도록 노력하겠습니다. 감사합니다. :D}{680: 별표 4개 -5달 전-맛있음.}{679: 별표 5개 -2년 전-방문해주셔서 감사합니다. 언제나 한결같은 맛과 분위기 서비스로 고객님께 감동을 드릴 수 있는 바스버거가 되도록 노력하겠으며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{678: 별표 4개 -1년 전-맛있음}{677: 별표 5개 -1년 전-좋은 평가 감사드립니다!!^^ 다음번에는 제일 괜춘한 곳에서 제일 맛있어서 또 방문하고 싶다는 평을 받을 수 있도록 더욱 노력하겠습니다 ^^ 고객님들의 평가는 저희에게 힘이 됩니다.}{676: 별표 4개 -1년 전-괜춘}{675: 별표 5개 -1년 전-먼저 저희 바스버거를 이용해주셔서 감사드립니다 :D 더욱 더 맛있는 버거를 위해 노력하는 모습 보여드리겠습니다! 좋은 별점과 리뷰 감사드립니다 ^__^}{674: 별표 3개 -8달 전-맛있음}{673: 별표 4개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴를 주문해주시고 만족해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요. 저도 고객님의 세트구성으로 도전해보도록 하겠습니다. ㅇ_ㅇ 소중한 리뷰와 별점 만점 감사드리며 항상 발전하는 바스버가 되겠습니다. 감사합니다. ♥}{672: 별표 5개 -7달 전-맛있어요}{671: 별표 5개 -8달 전-방문해주셔서 감사합니다. 바스버거는 주요 오피스지역에 많이 입점되어 있습니다. 고객님들 직장 근처 가까운 곳에 바스버거가 있을 수 있으니 검색 부탁 드리며 어느 매장을 가도 같은 맛과 분위기로 고객님들에게 만족을 드릴 수 있도록 하겠습니다. 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{670: 별표 4개 -1년 전-여의도오면 한번 먹어봐야함}{669: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다!소중한 시간 내주시어 방문해주셨을텐데 만족하신 것 같아 정말 뿌듯합니다 '0'다음에 방문해주실때도 고객님께 맛있는 한끼 드릴 수 있도록 노력하겠습니다~감사합니다 :)}{668: 별표 3개 -11달 전-햄버거중 최고!}{667: 별표 4개 -2년 전-방문해주셔서 감사합니다. 바스버거에서 판매중인 쉐이크는 전문점 못지 않은 수준의 쉐이크를 제공해드리고 있습니다. 알아봐주셔서 감사드리며 현재에 만족하지 않고 더욱 발전하고 고객님께 만족을 드리는 바스버거가 되도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{666: 별표 4개 -2년 전-쉐이크제이엠티}{665: 별표 4개 -2년 전-찾아주셔서 감사합니다. 조금 아쉬운 부분이 있으시군요 ㅠ.ㅠ..다음번엔 고객님이 만족하실 수 있도록 준비하고 있겠습니다. 감사합니다.}{664: 별표 4개 -1년 전-좋음 한번쯤은}{663: 별표 4개 -11달 전-커피좋아요}{662: 별표 3개 -1년 전-그냥 그럭저럭}{661: 별표 4개 -2년 전-방문해주셔서 감사합니다 ^^ 다음방문시에도 맛있는 바스버거로 대접하겠습니다. 항상최고의 재료들로 매일준비하는 바스버거 입니다 ^^ 다음에도 최고  로 맛있는 바스버거로 대접하겠습니다.감사합니다.}{660: 별표 3개 -6달 전-굳}{659: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다! 더블베이컨 버거가 입맛에 맞으셨다니 너무나도 기쁘네요! 앞으로도 고객님의 입맛을 사로잡을 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{658: 별표 5개 -2년 전-더블베이커 진짜맛남}{657: 별표 5개 -11달 전-바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{656: 별표 4개 -1년 전-감자 무한!}{655: 별표 4개 -1달 전-찾아주셔서 감사합니다! 햄버거와 맥주의 조합b 신선하고 최고의 조합이죠?! 앞으로도 항상 고객님이 만족하실 수 있도록 준비하고 있겠습니다 :) 감사합니다.}{654: 별표 1개 -1년 전-햄버거랑 맥주랑 맛있어요}{653: 별표 4개 -2년 전-퇴근하고 맥주한잔에 햄버거+감튀... 진리임다...가끔 포장해서 한강에서 먹곤해욤.. 크..}{652: 별표 4개 -11달 전-방문해주셔서 감사합니다 ^^ 맛있다니~ 너무너무 언제나 들어도 참 좋은말 같습니다. 고객님의 칭찬에 힘입어 더욱더 열심히 맛있는 바스버거가 되겠습니다.고객님의 소중한 리뷰와 별점 감사합니다 ^^}{651: 별표 5개 -7달 전-너무 맛있어요!!!}{650: 별표 5개 -8달 전-겁나 비쌈~~}{649: 별표 5개 -5달 전-만족스러운 식사하신 것 같아 더 기분이 좋네요~! 앞으로도 최고의 맛! 최고의 서비스로 대접하겠습니다 :)~ 감사합니다.}{648: 별표 4개 -1년 전-맛도  서비스도 좋으네요}{647: 별표 2개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{646: 별표 5개 -1년 전-맛있당}{645: 별표 3개 -1년 전-여의도 버거의 왕입니다}{644: 별표 3개 -6달 전-역시 수제버거! 수제맥주! 하면 바스버거쥬~! 앞으로도 맛있는 버거로 보답하겠습니다. 감사합니다 :)}{643: 별표 4개 -2년 전-수제버거 수제맥주}{642: 별표 4개 -1년 전-hakrok lee고객님 여의도 바스버거를 방문해주셔서 정말 감사드립니다.맛있다하신 칭찬의 말씀 깊게 새겨 듣고 더욱 발전하는 바스버거 여의도점 되겠습니다!!오늘도 좋은 하루 되세요~}{641: 별표 5개 -1년 전-맛있음}{640: 별표 5개 -1년 전-찾아주셔서 감사합니다. 대기시간이 길어..아쉬우셨군요 ㅠ.ㅠ...점심시간에 많은 고객님들이 찾아주셔서 항상 감사한 마음을 가지고 있습니다만..한편으론 기다림으로 인해 아쉬움을 드려 죄송한 마음이 드네요 ㅠ..ㅠ..이 부분 개선할 방안 열심히 찾고 있습니다! 빠른시일내로 개선될 수 있도록 노력하겠습니다. 감사합니다 .}{639: 별표 3개 -2년 전-대기시간이 넘 길어요}{638: 별표 5개 -2년 전-맛있게 드셔주셔서 감사합니다!더블바스버거에 계란후라이 추가는 어떠세요?고소함이 더해져 훨씬 풍부한 맛을 느끼실 수 있습니다 '0'다음에 찾아주실 때도 만족감 드릴 수 있도록 최선을 다하겠습니다!감사합니다 :)}{637: 별표 4개 -2년 전-신선한 재료.}{636: 별표 5개 -9달 전-맛있게 드셔주셔서 감사합니다! 하와이안 버거는 바스버거 다음으로 인기가 짱짱b많은 버거랍니다! 앞으로도 고객님께 맛있는 버거 대접할 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{635: 별표 4개 -9달 전-하와이안버거 맛있어요~~}{634: 별표 5개 -2년 전-즉석에서 만든 신선한 느낌}{633: 별표 4개 -4주 전-햄버거 맛나네요}{632: 별표 4개 -5달 전-방문해주셔서 감사합니다. 청진동IPA 맥주를 주문해 주셨군요! 바스버거에서 가장 많이 판매되는 맥주중 하나인데요. 묵직하고 씁쓸한 맛으로 고객님들의 사랑을 듬뿍 받고 있는 맥주이죠. 알아봐주셔서 감사드리며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{631: 별표 3개 -1년 전-청진동IPA 맛있음^^}{630: 별표 5개 -6달 전-찾아주셔서 감사합니다. 어수선했던 부분이 아쉬우셨군요..다음번엔 좀 더 여유로운 분위기를 즐기실 수 있도록 준비하고 있겠습니다. 감사합니다:)}{629: 별표 3개 -1년 전-서빙하시는 분들이 약간 어수선 합니다.}{628: 별표 5개 -3년 전-먼저 방문해주셔서 감사합니다!날씨가 많이 추워졌는데 기다림을 감수하고 찾아주셔서 정말 더욱 감사한 마음이 듭니다..ㅠㅠ 고객님들께서 사랑해주시는 만큼 더욱 맛있는 햄버거로 보답드리겠습니다. 감사합니다!! :)}{627: 별표 4개 -1년 전-맛있죠....줄이 길 뿐}{626: 별표 5개 -2년 전-방문해 주셔서 감사합니다 ^^ 고객님의 응원에 힘입어 더더욱 발전하는 바스버거가 되겠습니다 ^^다음방문시에도 최선을 다해 고객님을 맞이하겠습니다 감사합니다.}{625: 별표 5개 -1년 전-맛있어용~~}{624: 별표 4개 -9달 전-먼저 방문해주셔서 감사합니다!맛있게 드셔주신것 같아 더욱 기쁘네요 '0'!!다음에 찾아주신다면 조금 더 보완해 별점만점 받을 수 있도록 노력하겠습니다!!감사합니다 :)}{623: 별표 4개 -1년 전-가볍게 즐길만함}{622: 별표 4개 -9달 전-방문해주셔서 감사합니다. 어떤 메뉴를 주문해 주시고 맛있게 드셨나요! 저도 고객님만의 세트조합으로 도전해 보겠습니다. 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{621: 별표 4개 -2년 전-맛있음}{620: 별표 4개 -10달 전-먼저 매장에 방문해주셔서 감사합니다 ^^방문하시고 맛있게 드셨다니 저희도 너무 기분 좋습니다 ^^ 항상 최고의 맛을 내기위해 노력하는바스버거입니다 ~!! 다음방문시에도 더욱 맛있는 바스버거가 될수 있게 노력하고 있겠습니다.추운 날씨에 감기 조심하세요. 감사합니다.리뷰와 별점 감사합니다 ^^}{619: 별표 4개 -2년 전-맛있습니다}{618: 별표 3개 -1년 전-맥주에 버거 좋아요 ㅋ}{617: 별표 4개 -3년 전-방문해주셔서 감사합니다. 치킨버거는 당일 오전 한정수량만 작업하여 판매하고 있습니다. 다행히 품절되기 전에 주문해 주셨군요! 바스버거는 다른버거들에 비해 가장 밸런스가 좋은 버거로 어떤 토핑을 추가해도 잘어울리는 버거랍니다. 알아봐주셔서 감사드리며 다음 방문시에도 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{616: 별표 4개 -1년 전-바스버거와 치킨버거 짱!!}{615: 별표 5개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족감을 느껴주셨나요! 고객님만의 세트구성이 있으시다면 추천해주세요. 저도 그 조합으로 도전해 보겠습니다!  소중한 리뷰와 별점 만점 감사드리며 이번 방문처럼 언제나 만족을 드릴 수 있도록 노력하겠습니다. 감사합니다. :D}{614: 별표 5개 -2달 전-맛잇음}{613: 별표 4개 -2년 전-저희 바스버거에 찾아주셔서 감사드리고 맛있다고 해주시니 더더욱 감사할 따름입니다ㅠㅠ 언제나 맛있는 음식 만들도록 노력하겠습니다! 감사합니다!!}{612: 별표 5개 -3년 전-맛있다}{611: 별표 5개 -9달 전-방문해주셔서 감사합니다 ^^ 역시 바스는 존잘맛이지요~항상 최고의 맛으로 기다리겠습니다.}{610: 별표 4개 -2년 전-존잘맛}{609: 별표 4개 -1년 전-방문해주셔서 감사합니다. 쾌적한 매장 환경을 만들고자 점심시간에는 만석이 되었을 경우 웨이팅 제도를 시행 중에 있으며 보통 15분 내외로 주문 가능하십니다! 회전율이 빠른 편이라 걱정하지 않으셔도 된답니다! 언제나 고객님의 만족을 위해 고민하는 바스버거가 되도록 노력하겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{608: 별표 5개 -1년 전-대기시간이 길어요}{607: 별표 3개 -1년 전-맛 있는 집}{606: 별표 4개 -1년 전-방문해주셔서 감사합니다. 바스버거가 자랑스럽게 어필하는 부분들을 말씀해 주셨군요! 어느것 하나 빠지지 않고 모든부분에서 만족을 드릴 수 있도록 항상 개발과 노력을 멈추지 않겠습니다.  소중한 리뷰와 별점만점 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{605: 별표 4개 -3년 전-햄버거쉐이크맥주포테이토칩}{604: 별표 4개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 맛나게 드셨나요! 바스버거는 고객님만의 세트조합으로 여러구성을 즐기실 수 있답니다. 맛있게 드셔주셔서 감사드리며 소중한 리뷰 감사드립니다. 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{603: 별표 4개 -1년 전-맛있어요 냠냠}{602: 별표 5개 -1년 전-고객님 마음에 들었다니 감사합니다 !! 앞으로도 더욱 맛있는 버거맛집이 되게 노력하겠습니다!!}{601: 별표 4개 -7달 전-퀄리티 있는 버거맛집:)}{600: 별표 5개 -8달 전-먼저 방문해 주셔서 감사합니다. 항상 맛있는 버거를 만들기 위해 노력하는 바스버거가 되도록 하겠습니다다양한 조합들로 항상 새로운 맛을 느끼실 수 있도록 이 달의 버거조합들도 있도 많은 옵션들이 있으니 다음번에도 많은 방문 부탁드리겠습니다!!!고객님의 소중한 의견과 별점 감사합니다. 오늘하루도 좋은 하루 되세요~!!}{599: 별표 5개 -1년 전-맛집}{598: 별표 5개 -2년 전-찾아주셔서 감사합니다 ㅠ.ㅠ..다른 바스버거 지점에 비해서 조금 아쉬우셨군요..어떤 부분이 아쉬우셨는지 말씀해주시면 개선할 수 있도록 노력하겠습니다. 감사합니다.}{597: 별표 5개 -9달 전-다른 바스버거 체인에 비해서는 그냥그랬음}{596: 별표 4개 -2년 전-여의도에서 그나마 괜찮은 수제버거}{595: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다 :)~ 앞으로도 건강하게 푸짐하게 맛있는 버거 만들어 대접하겠습니다~! 감사합니다.}{594: 별표 4개 -5달 전-맛있는 수제버거}{593: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 바스버거를 자주 이용해주시는 고객님이시군요! 고객님의 꿀팁 감사합니다 b 앞으로도 맛있는 버거로 보답하겠습니다. }{592: 별표 5개 -1년 전-맛있어요 펍 같은 분위기 싫어하면 의사당 앞 바스버거 추천}{591: 별표 5개 -1년 전-방문해 주셔서 감사합니다 ^^ 너무나도 감사한 칭찬 정말 감사합니다 ^^앞으로도 더욱 더 맛있는 바스버거가 되겠습니다. 항상 최고가 될수 있게 노력하는 바스버거가 되겠습니다. 감사합니다 ~!!!}{590: 별표 4개 -1년 전-쉑쉑보다 나음}{589: 별표 4개 -1년 전-합리적인 가격의 훌륭한 수제버거}{588: 별표 5개 -10달 전-맛있게 드셔주셔서 감사합니다! 항상 신선한재료로 맛있는 버거 대접하고 싶은게 저희 마음이랍니다! 앞으로도 고객님께 항상 신선하고 맛있는 버거 대접할 수 있도록 최선을 다하겠습니다. 감사합니다.}{587: 별표 5개 -1년 전-맛있고 신선한 느낌입니다}{586: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다!앞으로도 더욱 더 맛있게 드실 수 있도록 최선을 다하겠습니다!감사합니다 :)}{585: 별표 4개 -1년 전-맛은괜찮아요~}{584: 별표 4개 -1년 전-펍 같은 분위기에 싸고 맛있고 좋아요 ㅎㅎ}{583: 별표 4개 -2년 전-감사합니다^^! 맛있는 버거를 위해 전직원이 함께 노력하고 있습니다. 고객님께도 맛있는 버거로 다가갈 수 있어 기분이 좋습니다 ㅎㅎ 더욱 맛있게 만들도록 항상 노력하는 바스버거가 되겠습니다.}{582: 별표 5개 -7달 전-맛있어요}{581: 별표 4개 -1년 전-안녕하세요 고객님 ! 보통이아닌 최고로 거듭날 수 있도록 노력하겠습니다 ㅜㅜ ! 다음번 이용시엔 최고에요 라는 리뷰를 남기실수 있도록 최선을 다 하는 바스버거가 되겠습니다 !! 정성스런 리뷰와 별점 감사드립니다 ! ^__^}{580: 별표 4개 -7달 전-쏘쏘해요}{579: 별표 4개 -2년 전-감튀 맛집}{578: 별표 5개 -2년 전-맛있네요}{577: 별표 5개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴를 주문해 주시고 맛있게 드셔주셨나요! 바스버거는 고객님만의 다양한 세트 구성으로 즐기실 수 있는 장점이 있답니다. 항상 고객님의 만족을 위해 노력하는 바스버거가 되도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{576: 별표 5개 -5달 전-맛있어요 ㅎㅎ}{575: 별표 4개 -1년 전-안녕하세요 아리아리냠냠님!! 저희 바스버거 매장에 방문해주셔서 감사합니다 ㅎㅎㅎ별5점을 주셨네요!! 그만큼 맛있게 잘드시고 가셨다고 생각이 듭니다!!앞으로도 무한변신 바스버거가 될 예정이오니다음번에도 많은 방문 부탁드리겠습니다 감사합니다!!}{574: 별표 4개 -7달 전-잡솨보세요}{573: 별표 5개 -2년 전-방문해주셔서 감사합니다. 바스버거는 한국을 넘어 세계에서 인정받는 수제버거가 되도록 노력중이랍니다. 항상 고객님들의 의견을 귀기울여들으며 발전할 수 있도록 하겠습니다. 다음에 또 방문해주세요. 감사합니다. :D}{572: 별표 3개 -1년 전-최고의 수제버거}{571: 별표 5개 -2년 전-찾아주셔서 감사합니다! 맛있는 음식은 0칼로리~!랍니다! 앞으로도 항상 고객님께 맛있는 버거 대접할 수 있도록 최선을 다하겠습니다. 감사합니다.}{570: 별표 5개 -1년 전-살 찌고 싶다면 ㅎㅎㅎ 맛 좋음}{569: 별표 4개 -1년 전-와사비마요-쉬림프 버거의 매력에 빠지셨군요! 톡쏘는 와사비향과 통통한 새우의 조합은 잊을 수 없는 조합이랍니다. 앞으로도 한번 먹으면 잊을 수 없는 맛으로 찾아뵙겠습니다! 감사합니다.}{568: 별표 4개 -7달 전-새우와사비 맛나요 별미임}{567: 별표 4개 -1달 전-분위기 좋음}{566: 별표 4개 -1년 전-어둡고 자리 좁고버거는 so so}{565: 별표 3개 -7달 전-이색 수제버거 전문점}{564: 별표 3개 -6달 전-☆☆☆.5}{563: 별표 5개 -1년 전-찾아주셔서 감사합니다. 아쉬운 방문이셨던 것 같은데 ㅠ.ㅠ..어떤 부분이 아쉬우셨는지 말씀해주시면..개선할 수 있도록 노력하겠습니다. 감사합니다.}{562: 별표 1개 -1년 전-칩 무료인거 빼곤 버거킹이랑 다른게 뭐죠?}{561: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다. 많은 고객님들이 찾아주셔서 항상 감사한 마음도 들지만..기다리게 해드려 죄송한 마음도 든답니다ㅠ.ㅠ..다음번엔 좀 더 만족스러운 식사가 될 수 있도록 노력하겠습니다. 감사합니다.}{560: 별표 5개 -10달 전-맛있으나 웨이팅이 길다}{559: 별표 5개 -2달 전-11시 땡 치면 바로 들어가서 먹고 나올쯤 끊임없이 들어오는 회사원들을 보며 늘 감탄하는 곳맛있고 늘 만족스럽다}{558: 별표 5개 -1년 전-일반 버거 가격으로 느끼는 수제버거의 맛 ^^}{557: 별표 5개 -2년 전-방문해주셔서 감사합니다!맛있는 한끼를 드신 것 같아 더욱 만족스럽고 감사드립니다~!앞으로도 여의도에 오시면 바스버거가 생각날 수 있도록 더욱 최선을 다하겠습니다!!감사합니다 :)}{556: 별표 5개 -2년 전-#여의도 #햄버거홀릭}{555: 별표 4개 -1년 전-바스버거는 패티를 겉은 바삭 속은 촉촉하게 미디움으로 굽고 있답니다~! 육즙 팡팡을 느끼신 것 같아 기분이 좋네요! 앞으로도 촉촉하고 맛있는 버거 제공 할 수 있도록 노력하겠습니다. 감사합니다 :)}{554: 별표 3개 -1년 전-육즙이 많고 풍미가 좋습니다}{553: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다!다음에도 찾아주신다면 더욱 만족감 드릴 수 있도록 노력하겠습니다!!감사합니다 :)}{552: 별표 5개 -2년 전-맛있습니다 좋아요ㅋㅋ 근데좀비싸다는ㅠ}{551: 별표 5개 -11달 전-방문해주셔서 감사합니다 ^^ 탐욕버거를 드셨군요 ㅎㅎ 저희매장의 최고의 버거 ㅎㅎ 탐욕이지요엄청난 양과 맛!! 넘처흐르는 육즙들 다음방문시에도 더욱 맛있는 버거로 기다리고 있겠습니다.방문 감사드리고 소중한리뷰와 별점 고맙습니다~!!}{550: 별표 1개 -1년 전-탐욕버거 진짜 맛있어요}{549: 별표 5개 -1년 전-가성비 정말 좋습니다.}{548: 별표 5개 -1년 전-신선하고 맛있는 수제버거}{547: 별표 3개 -1달 전-햄버거와 크래프트 맥주가 맛있는 집..}{546: 별표 5개 -2년 전-달달한 파인애플과 고소한 패티의 만남! 그 누구도 거부할 수 없는 맛이죠~?! 저 또한 하와이안버거가 최애버거랍니다~! 앞으로도 강!추! 할 수 있는 맛있는 버거 제공할 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{545: 별표 5개 -10달 전-하와이안버거 강추!}{544: 별표 3개 -3달 전-찾아주셔서 감사합니다! 바스버거는 다른 수제버거집과 다르게 고객님들이 한손에 드시기 편하도록 만들고 있습니다만..양이 조금 아쉬우셨군요 ㅠ.ㅠ 다음번엔 계란 후라이 추가해서 드셔보세요~! 담백하고 푸짐하게 즐길 수 있답니다.}{543: 별표 5개 -2년 전-다른 수제버거집에 비해 버거는 작은편이나 사이드디쉬 양이 괜찮고 버거맛도 괜찮음}{542: 별표 5개 -9달 전-찾아주셔서 감사합니다! ㅠ.ㅠ..점심시간은 피크타임이라 앉을 곳이 없어 불편하셨군요 ㅠ.ㅠ..매번 찾아주시는 고객님들께 감사한 마음이 들지만 한편으론 죄송한 마음도 든답니다..이 부분 저희도 계속 개선방안을 찾고있습니다만..최대한 빨리 개선될 수 있도록 노력하겠습니다. 감사합니다.}{541: 별표 4개 -1년 전-버거는 맛나요 점심에 앉을곳이 없는게 흠이에요}{540: 별표 5개 -3년 전-간단히먹을수있는곳}{539: 별표 4개 -1년 전-비슷한 퀄리티의 버거집중 비교적 저렴한 가격에 세트를 맛볼 수 있음.}{538: 별표 4개 -1년 전-맛있어요}{537: 별표 5개 -2년 전-여기 적당히 맛있습니다.}{536: 별표 3개 -1년 전-맛있게 드셔주셔서 감사합니다! 든든하게 드신 것 같아 뿌듯하네요! 앞으로도 푸짐하고 맛있는 버거 제공할 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{535: 별표 4개 -9달 전-맛나고 풍부한 맛이 느껴집니다}{534: 별표 4개 -2년 전-오케이버거와 함께 추천하는 햄버거집}{533: 별표 3개 -5달 전-어두침침한 분위기가 좋다 ㅎ}{532: 별표 5개 -2년 전-수제 햄버거와 크래프트 맥주가 맛있네요}{531: 별표 4개 -2년 전-점심저녁시간 러쉬만 피해서 가면 진짜좋을 것 같아요}{530: 별표 4개 -3년 전-쏘쏘 더이상 설명은 생략합니다}{529: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다. 고객님들이 한손에 드시기 편한 사이즈로 만들고 있다 보니 양이 조금 아쉬우셨군요 ㅠ.ㅠ 다음번엔 계란 후라이 추가해서 드셔보세요~! 고소하고! 단백하고! 푸짐하답니다~! 아주 속이 든든하실 겁니다! :)}{528: 별표 4개 -2년 전-양은 적지만 버거맛은 굿}{527: 별표 1개 -1년 전-고객님의 소중한 의견 감사합니다! 메뉴 보는게 조금 어려우셨군요 ㅠ..ㅠ..이 부분 수렴하여 개선할 수 있도록 노력하겠습니다. 감사합니다 :)}{526: 별표 5개 -2년 전-맛은 있으나 메뉴 보는게 사시1차 수준임.}{525: 별표 4개 -1년 전-미국적인 분위기에 미국 햄버거맛이 제대로나는 수제버거집}{524: 별표 5개 -11달 전-찾아주셔서 감사합니다! 음악부분이 조금 아쉬우셨군요 ㅠ.ㅠ 고객님의 소중한 의견 반영하여 저희도 열심히 고민해보겠습니다~! 감사합니다.}{523: 별표 5개 -6달 전-미국 본토맛 그런데 노래는 좀 잔잔했으면}{522: 별표 5개 -6달 전-맛있게 드셔주셔서 감사합니다! 여의도에서 최고라고 해주시니 너무나 기쁘네요 b 여의도를 넘어 세계 최고가 될 수 있도록 노력하겠습니다! 감사합니다.}{521: 별표 4개 -1년 전-맛나요!! 여의도에선 최고}{520: 별표 5개 -2년 전-다양한 풍미의 맥주 샘플러가 매력적인 곳}{519: 별표 5개 -1년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{518: 별표 4개 -5달 전-수제버거  맛있네요  가격은  좀  비싸요}{517: 별표 5개 -9달 전-안녕하세요 고객님 ~ 이용해주셔서  너무 감사드립니다.다음 이용시에도 만족스럽다는 리뷰를 남기실수 있도록서비스 맛 모두 노력하는 바스버거가 되겠습니다 ! 감사합니다 :-) !}{516: 별표 2개 -5달 전-맛있어용}{515: 별표 5개 -2년 전-트렌디함. 수제버거 거기서 거기}{514: 별표 5개 -3년 전-맛있게 드셔주셔서 감사합니다. 만족을 드린 것 같아 너무나 뿌듯하네요. 앞으로도 가성비 갑b! 푸짐하고 맛있게 준비하여 기다리고 있겠습니다 :) 감사합니다.}{513: 별표 3개 -1년 전-가성비 갑}{512: 별표 5개 -1달 전-찾아주셔서 감사합니다! 다음번엔 맛있음!!! 이라는 말이 나올 수 있도록 최선을 다하겠습니다! 감사합니다. :)}{511: 별표 4개 -1달 전-괜찮음}{510: 별표 5개 -1년 전-현재 여의도 최고 맛집빵의 부드러움 패티의 부드러움에 놀란다.}{509: 별표 4개 -3달 전-사람많아서 일찍가셔야해요}{508: 별표 5개 -7달 전-역심점이 좀더 괜찮기는 하지만 서비스는 좋습니다}{507: 별표 5개 -1년 전-분위기도 괜찮고 맛있습니다. 가격대도 세트메뉴가 만원 이내라 아주 비싼 편은 아닙니다.}{506: 별표 4개 -1년 전-가격도 괜찮고 음식도 깔끔함. 버거와 맥주한잔하기 딱좋은곳}{505: 별표 4개 -1년 전-찾아주셔서 감사합니다! 앞으로도 신선하게! 맛있게! 만들어 대접할 수 있도록 준비하고 있겠습니다 :) 다음에 또 뵙겠습니다. 감사합니다.}{504: 별표 4개 -2년 전-맥주버거 맛있고 늦은밤 2차 가기좋은곳}{503: 별표 5개 -2년 전-햄맥? 땡길때 가는 곳. 전 항상 탐욕버거만 냠냠..ㅎ}{502: 별표 5개 -1년 전-감사합니다 고객님 ^^ 항상 칭찬 들을수 있도록 노력하겠습니다!!}{501: 별표 4개 -3년 전-직원분들이 친절하세요}{500: 별표 5개 -3년 전-부드러운 빵과 육즙이 팡팡 터지는 고기의 조화가 말이 아니죠~? 앞으로도 부드럽게 드실 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{499: 별표 5개 -2년 전-빵과 고기의 부드러운 조화}{4</t>
+  </si>
+  <si>
+    <t>가장 무난하면서도 맛나고 수제맥주도 괜찮음. 점심시간에는 손님이 많으니 우선 자리부터 잡고 주문하는게 좋음. }{161: 별표 4개 -1년 전-방문해주셔서 감사합니다. 더블베이컨에 계란추가는 직원들이 손꼽는 최고의 조합중에 하나랍니다. 역시 드실 줄 아시는 고객님!! 바스버거는 회전률이 빠른편이라 메뉴 고르시고 주문하셔도 충분하답니다! 항상 고객님들에게 쾌적한 환경을 제공해드릴 수 있도록 노력하는 바스버거가 되겠습니다. 감사합니다. :D}{160: 별표 3개 -2달 전-맛있어요. 더블베이컨치즈버거가 최고. 계란도 추가해서 드세요. 점심시간에 가려면 11시30분까지는 도착해야합니다. 그래도 최근 브루클린버거조인트 등이 생기면서 12시 넘어서는 좀 한산해진 것 같아요.}{159: 별표 5개 -8달 전-안녕하세요 고객님 먼저 바스버거를 이용해 주셔서 감사드립니다 ㅎㅎ이용해주시고 만족스러우셨던 것 같아 너무 다행입니다 &gt;_&lt; 다음 이용 시에도 만족 하실 수 있도록 노력 또 노력 하는 바스버거가 될테니많은이용 부탁드립니다 ㅎㅎ 감사합니다 좋은 하루 보내세요 ♡}{158: 별표 5개 -6달 전-맛5 가격4}{157: 별표 4개 -11달 전-먼저 방문해주셔서 대단히 감사합니다퀄리티와 더욱더 맛있게 만들어 비싸다는 생각이 안들게 감탄만 나오는 그런 바스가 되도록 도력하겠습니다고객님의 소중한 리뷰와 별4점 감사드립니다.}{156: 별표 5개 -1달 전-비싸지만 버거맛은괜춘}{155: 별표 1개 -1년 전-방문해 주셔서 감사합니다 ^^ 가격이지만 최고의 맛으로 보답하는 바스버거 입니다 ^^가벼운 식사와 함께 맥주 한잔 곁들일수있는 그런 버거!! 감자칩또한 맛이 어머어마합니다~!!다음방문 시에도 최고의 버거가 될수 있게 노력하겠습니다 감사합니다~!!}{154: 별표 3개 -1년 전-가벼운 가격과 가벼운 사이즈여자들끼리 한끼식사로 딱입니다감자칩 무한리필}{153: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다 :) 맛! 분위기! 하면 바스버거죠! 앞으로도 좋은 분위기에 맛있는 버거를 드실 수 있도록 최선을 다하겠습니다! 감사합니다.}{152: 별표 4개 -1년 전-완전 맛있음. 분위기 좋음.저녁에 맥주 한잔해도 좋을 곳.점심엔 11시 반 전에 가야 좌석 확보}{151: 별표 4개 -7달 전-여의도 햄버거집 중에서는 베스트인듯..맥주 종류도 여럿...사이즈도 작은게 있어서 점심에 같이 먹기에 부담 없음}{150: 별표 4개 -9달 전-먼저 방문해주셔서 감사합니다 ^^ 버거이지만 항상 신선한 재료들과 최고의 재료들만 사용하여 깔끔하고 맛있는 맛을 내는 바스버거 입니다!! 자주 방문해주셔서 정말 감사하고 다음주문시에 살짝 귀뜸해주시면 자그마한 서비스라도 챙겨드리겠습니다 ^^ 다음방문시에도 최고의 맛으로대접할수있는 바스버거가 되겠습니다. 감사합니다~!!}{149: 별표 4개 -7달 전-버거인데 건강한 느낌. 맛 깔끔해서 테이크아웃 해서 종종 먹습니다. 가게는 지하. 펍. 아지트 느낌}{148: 별표 5개 -9달 전-저희의 맛과 서비스의 매력을 알아봐주신 것 같아 정말 기분이 좋습니다 ^^!!! 고객님들의 소중한 식사시간을 맛있는 음식과 좋은 분위기속에서 보낼 수 있도록 전직원들과 함께 힘쓰겠습니다. 자주 방문 부탁드리며 매번 더 맛있고 더 좋은 서비스로 다가갈 수 있는 바스버거가 되겠습니다. 좋은 평가 감사드립니다.}{147: 별표 4개 -1년 전-직원들도 친절하시고 들어가자마자 엄청크게 인사해주셔서 대박이였어요맛도 신세계.. 이런 버거 처음먹어봤어요앞으로 자주 가야겠습니다잘먹었습니다!!}{146: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다!모든 부분에서 만족하며 드셨다니..ㅠㅠ 정말 정말 감사합니다!!앞으로도 야근하지 마시고 칼퇴 꼭 하셔서 자주 방문 부탁드립니다 'ㅇ'감사합니다 :)}{145: 별표 4개 -1년 전-평일 저녁에 햄버거에 맥주한잔씩 하러 자주 가는데 역시 바스버거 분위기도 좋고 맛도 좋고 대만족입니다. 웨이팅이 길어서 칼퇴하고 가야한다는점 빼곤 대만족!!}{144: 별표 5개 -10달 전-안녕하세요 고객님! 먼저 저희 바스버거를 이용해주셔서 감사합니다 :-)고객님께 좋은 인상을 드릴 수 있어 정말 뿌듯합니다 ^__^ 더욱 좋은 맛과 좋은 서비스로 다가갈 수 있는 저희 바스버거가 되겠습니다 감사합니다 ~~♥}{143: 별표 3개 -1년 전-수제버거 맛있게 먹었어요 직원분들 친절합니다}{142: 별표 5개 -11달 전-말이 필요없음 냠냠 또 가고 싶어요ㅜㅜ}{141: 별표 4개 -9달 전-버거자체의 맛은 있으나 세트는 과하다. 프라이가 느끼하고짠건 나만??}{140: 별표 5개 -3년 전-합리적인 가격과 뛰어난 맛.. 더불어 다른 수제버거와 달리 정말 버거처럼 손에 쥐고 먹을 수 있어 좋습니다.}{139: 별표 4개 -1년 전-안녕하세요 고객님 ! 감자라 하면 저희가 홀에서 서비스로 제공해드리는 제임스 감을 말씀 하시는건가요? 아니시면 레귤러컷을 말씀하시는 것이신지요..??ㅠ.ㅠ혹시 어떤 컨디션에서 그런부분을 느끼셨을지요? 방문시간때에 따라 다를수도 있는걸까요?ㅠㅠ 이런문제가 생기지 않도록 참고하고 개선하려고 하고 있습니다. 고객님께서 조금만 자세히 알려주실수 있으시다면 꼭 발전하여 다음방문시에 고객님께서 만족하실수 있게 개선 시키도록 하겠습니다. 또한 누가 하든 항상 똑같은 맛과 퀄리티 유지하기위해 다시한번 메뉴얼까지도 확실시 수정하여 교육 진행 하겠습니다. 고객님의 소중한 의견 기다리고 있겠습니다. 소중한 피드백을 귀담아 듣고 발전하는 바스버거가 되겠습니다.. !!! 감사합니다.}{138: 별표 4개 -1년 전-그때그때 다른 감자 퀄리티...}{137: 별표 5개 -1달 전-안녕하세요 고객님 저희 바스버거는 얼핏 보면 굉장히 분위기 좋은 펍이라고 생각할정도로 분위기와 인테리어 조성에 많은 신경을 썼습니다&gt;_&lt; 알아봐주시니 기분이 좋습니다 ㅎㅎ바스버거 전 지점이 조금 씩 다르긴 하지만 저희와 비슷한 분위기로 꾸며져 있으니 다른지점도 한번 가보시길 추천드립니다 ㅎㅎ다음에 또 방문해주셔도 별 다섯점 주실수있게 노력하는 바스버거가 되겠습니다 감사합니다 ♡}{136: 별표 4개 -1년 전-분위기갑 맛나요맛나 감튀무제한 굳}{135: 별표 4개 -10달 전-오늘도 바스버거를 이용해주셔서 감사드립니다!!!저희도 더 지원해 드리고 싶지만 ㅜㅜ 못하는점은 아쉽게 생각하고  있습니다 그래도 다행히 버거는 만족하셔서 다행이네요!!!담에 이용하실때에는 별점5점을 받을수 있는 바스버거가 되겠습니다!!정말 감사드립니다:)}{134: 별표 5개 -3년 전-주차 1시간만 지원되어서 별 하나 뺐어요}{133: 별표 5개 -7달 전-안녕하세요 :) 먼저 저희 매장을 방문해주시고 좋은 평과 별점 남겨주셔서 감사드립니다 :D 앞으로도 고객님께 항상 좋은 평을 받을 수 있는 바스버거가 되도록 노력하겠습니다! 추운 날씨 감기 조심하시고 새해 복 많이 받으세요! 다시 한 번 감사드립니다~~♥}{132: 별표 4개 -9달 전-머시룸버거 추천합니다. 간단하게 가볍게 애일 한 잔 즐기기 좋아요.}{131: 별표 4개 -11달 전-성재우님 먼저 주문해주셔서 감사합니다^^! 방문고객님들께는 음식 기다시는동안 이용하실 수 있도록  제임스감(감자칩)을 서비스 드리고 있습니다!! 세트메뉴에서도 사이드메뉴가 포함되어있기 때문에 나가실때는 정말 배부르게 나가실 수 있습니다 !!! 소중한 한끼 든든하게 채워드리겠습니다. 방문해주셔서 감사합니다.}{130: 별표 5개 -10달 전-감자칩이 세트포함인줄알았는데 프렌치프라이가또나와요! 가격도 싸고 맛있어요}{129: 별표 4개 -2년 전-안녕하세요 고객님 매일 아침 받은 식재로 당일 손질하여 사용하고있습니다 ! 패티도 초이스프라임 등급의 소고기로 만들어진 아주 담백하니 맛있는 패티로 고객님들께 최상의 맛을 선사 해 드리려 노력 중인 저희의 마음을 전해 받으신 것 같아 기분이 좋습니다 ㅎㅎ ! 다음번 이용시에도 만족 드릴 수 있도록 노력하는 바스버거가 되겠습니다 감사합니다 !! ^-^}{128: 별표 5개 -6달 전-양파토마토 신선 패티도 고기맛이 느껴짐. 간도 약함.}{127: 별표 5개 -1년 전-안녕하세요 고객님 ! 만족스럽게 식사 하셨는데 어쩐일로 별점은 세개 인지요 ㅜㅜ !! 다음엔 만족스러운 식사와 더불어 별점도 5개 남기실수있도록 노력 또 노력하는 바스버거가 되도록 노력하겠습니다 정성스런 리뷰와 별점 감사드립니다 !!!! ^-^}{126: 별표 4개 -1년 전-만족스럽게 식사했습니다~}{125: 별표 5개 -1년 전-한달에 3~4번씩 먹는 버거집이었는데....  요즘엔 패티상태 별루 안좋습니다. 오늘은 까맣게 타서 숯덩이가 된 것을 보내줬네요. 배달상품에도 관심을 기울여 주시길...감자튀김은 점점 바뀌어서 이젠 정말 맛이 없다는 것이 여러사람들 의견입니다. (물론 배달로 인해 싸늘히 식은 것이라 그럴수도 있어요. 매장에서 따끈할때 먹는 것에는 문제 없을수도 있음)장사가 잘될수록 더 좋은 재료를 제공해야하지 않을까요?그래두 초창기…}{124: 별표 5개 -1년 전-안녕하세요 고객님 저희 매장을 방문해주셨는데 무료로 제공되는 제임스감이 짜다고 남겨주셨군요 ㅠㅠ 직원들과 파트타이머 분들 에게 공유하여 재교육 진행하도록 하겠습니다. 리뷰와 의견 감사드립니다 ^_^}{123: 별표 4개 -1년 전-적당한 맛의 수제버거. 서비스 감튀는 짜요.}{122: 별표 4개 -7달 전-먼저 방문해주셔서 감사합니다 ^^기다리시는동안 드시는 저희 바스의 매력인 제임스감(감자칩) 정말 별미이죠 ㅎㅎ 수제맥주와 궁합도 엄청 좋습니다 ^^.고기고기한 패티 저희바스의 자랑이죠 ㅎㅎ 아드님께서도 좋아하신다니 더더욱 맛과 질의 더욱 신경써서 항상 맛있는 바스버거가 되곘습니다. 고객님의 소중한 리뷰와 별점 감사합니다.!!}{121: 별표 4개 -11달 전-가격대비 정말 우수하다.  무한 감자칩도 별미.  채식거부자를 위한 미친고기패티도 멋지고 무엇보다 우리 아들이 좋아한다.  감사합니다}{120: 별표 4개 -2달 전-방문해주셔서 감사합니다. 배달로도 주문해 주셨나 봅니다! 항상 매장에서 드시는 것 처럼 따뜻하고 퀄리티 있는 음식을 제공해드리려 노력하고 있습니다. 매장에서 드시는 것 처럼 배달로도 만족시켜 드릴 수 있도록 노력하겠습니다. 소중한 리뷰와 별점 만점 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{119: 별표 5개 -1년 전-아주 맛난 바스 버거. 딜리버리도 되지만 역시 바로 먹어야 맛나다.}{118: 별표 3개 -2년 전-안녕하세요 고객님 ! 저희 바스버거를 이용해주시고 만족스러우셨다니 다행입니다 ! 이용해주셔서 너무 감사드립니다 .다음 번 이용 때도 만족 시켜 드릴 수 있도록 노력하는 바스버거가 되겠습니다 감사합니다 ♡♡}{117: 별표 2개 -7달 전-분위기가 너무 좋구 맛도 너무 맛있네요!!}{116: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ 매력적인 감자칩(제임스감) 이거에 또 맥주가 그렇게 맛있답니다 ^^ 다음방문시에는 한번 맥주와 곁들어보시길 ㅎㅎ 항상 최고의 매장이 될수있게 노력하겠습니다.}{115: 별표 4개 -2년 전-수제버거집. 여의도가 전반적으로 비싼편이라 가성비가 있게 느껴진다. 감자칩을 무한정 가져올수있는게 매력이고 음료도 리필된다. 괜찮은 가게임.}{114: 별표 5개 -11달 전-감히 서울 최고의 수제버거라고 칭하겠음. 서울에 브루클린더버거조인트나 스모키살룬처럼 훌륭한 다른 수제버거들도 많지만 거기 버거들은 다 포크와 나이프를 써서 먹어야 하는 부담스러운 수제버거임. 여기에 비해 바스버거는 육즙의 고소한 느낌과 야채의 신선한 느낌을 함께 잘 조화시켰음. 이와 동시에 한 손으로 들고 먹을 수 있기에 진정한 수제버거의 강자라고 할 수 있음. 훌륭한 맥주 셀렉션도 있으니 방문해서 버맥을 즐겨 보기를 바람.}{113: 별표 4개 -7달 전-최예슬님 매장에서도 배달로도 저희 바스버거를 많이 이용하시나봐요!!정말정말 감사드립니다~~!! 항상 든든한 식사과 행복한 맛을 전해드릴수 있도록 노력하겠습니다앞으로도 많은 이용 부탁드리겠습니다!!}{112: 별표 5개 -11달 전-배달해더 맛있거 직접가서먹어도 맛있음감자틔김은 진짜 쵝오!!!}{111: 별표 4개 -1년 전-Hyunsu Lee님 먼저 주문해주셔서 감사합니다.좋은댓글과 높은 별점 남겨주셨네요.고객님의 소중한 의견 꼭 참고하여다음에 방문하실때 꼭 만족시켜드릴수있도록노력하는 바스버거 여의도점되겠습니다!!!오늘도 좋은 하루 되세요~~~}{110: 별표 1개 -7달 전-감자칩은 버거 나오기전 조금만 ㅎ 버거는 맛있어요!}{109: 별표 4개 -11달 전-북미 분위기가 살짝 나는 분위기의 인테리어에 바스버거 특유의 메뉴를 만날 수 있는 곳입니다. 서비스나 맛 등 모두 무난했습니다.}{108: 별표 4개 -2년 전-안녕하세요 고객님 먼저 바스버거를 이용해주셔서 감사드립니다 !!버거가 다소 아쉬우셨다니 ㅠㅠ 더더욱 노력하여 만족 드릴수있도록 노력 하겠습니다 ! 다만 어떤부분이 정확히 아쉬운지 몰라 정확히 피드백을 드릴수없어 안타깝습니다 ㅜㅜ !!!! 다음번 이용시에는 100%에 가깝게 만족 드릴수있도록 하겠습니다 감사합니다 ~~}{107: 별표 4개 -1년 전-버거가 조금 약하다}{106: 별표 5개 -1년 전-방문해주셔서 감사합니다. 버거는 만족스러우셨으나 프라이가 실망스러우셨군요. 모든 부분에서 만족을 드리지 못해 안타까운 마음입니다. 감자튀김은 크런치한 맛으로 즐기실 수 있도록 크런치한 느낌이 강한 감자튀김을 사용중인데 고객님 말씀처럼 튀김과정에 문제가 있었는지 확인 해보았고 감자튀김들 중에서도 유독 딱딱할 수 있는 부분이 있는것을 확인하였습니다. 이 부분들이 고객님들에게 제공되지 않도록 개선하겠습니다. 저희를 위한 소중한 피드백 감사드리며 항상 고객님들의 말씀을 귀기울여 듣고 만족스러운 식사를 제공해드릴 수 있도록 하겠습니다. 감사합니다.}{105: 별표 4개 -11달 전-버거는 먹을만 합니다. 번은 부드럽고 패티 익힘도 적당.. 개인적으로 소스는 맛이 좀더 부드러웠으면 하지만.. 야채도 신선하고 나쁘지 않아요. 다만...프렌치프라이는 최악입니다. 기름 온도를 못맞춰서 기름을 머금고 딱딱해요.. 정말 최악입니다. 감자칩도 딱딱하고 맛이 없어요. 튀김에 확실히 문제가 있네요.}{104: 별표 5개 -6달 전-찾아주셔서 감사합니다. 더블베이컨치즈버거와 싱글베이컨치즈버거에는 야채가 들어가지 않습니다만..이 외에 다른버거들은 야채가 들어간답니다. 또한 모든 부분에서 아쉬움을 드린 것 같아 저희도 너무나 아쉽습니다..고객님의 소중한 의견 수렴하여 반영될 수 있도록 노력하겠습니다. 다음엔 발전된 모습으로 찾아뵙겠습니다. 감사합니다.}{103: 별표 4개 -1년 전-제가 메뉴를 잘못골랐는지 야채 하나 없는 버거에 살짝 당황스러웠습니다. 등록되어있는 다른 버거들의 사진하고도 꽤나 괴리가 있어서 조금 실망스러웠습니다. 직접 주문대에 가서 주문해야 하고 픽업도 직접해야 합니다. 세트 메뉴의 감자튀김을 콘슬로우로 변경해서 먹었는데 매우 잘못된 선택이었습니다. 콘슬로우에 마요네즈가 꽤나 진득하게 들어있고 맛이 강해 버거의 맛을 가려 곁들여 먹기에 적절하지 않았습니다. 패티의 맛은 가격대에 적절한 정도의 맛이었습니다. 여의도 물가에 익숙하지 않아서 그런지 가격대비 만족도는 낮은편이었습니다.}{102: 별표 4개 -5달 전-제일 비싼 탐욕 버거 먹었는데 그닥 특색은 없어요 하와이안 혹은 머쉬룸 버거 추천합니다}{101: 별표 5개 -7달 전-여긴 음식점이 아니라 스트레스 해소를 위한 파라다이스다. 먹자. 징하게 먹자.}{100: 별표 5개 -1달 전-찾아주셔서 감사합니다! 앞으로도 항상 맛있게 드실 수 있도록 최선을 다하겠습니다! 감사합니다 :)~}{99: 별표 3개 -9달 전-여의도에서 가장 좋아하는 수제 햄버거집직접 경영하고싶을정도로 좋아하는집~}{98: 별표 3개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ 여의도에서 분위기 좋은 버거집 하면 바스버거가 생각날수 있게 노력하는 바스버거 입니다 ^^ 이런 힙한 분위기에 가벼운 수제맥주한잔 하시면서 좋은 기분을 느끼셨으면 좋겠습니다~!! 최고의 버거와 좋은 분위기서비스로 고객님께 만족드릴수 있게 발전하는 바스버거가 되겠습니다. 고객님의 소중한 리뷰와 별점 감사합니다.}{97: 별표 5개 -5달 전-좋아하는 버거집인데 여의도에도 체인이 있어서 다녀와 봤습니다. 하와이언버거 역시 일품이고 분위기도 힙하고 좋아요!}{96: 별표 5개 -1년 전-안녕하세요! 저희 바스버거를 이용해주셔서 감사합니다 : ) 세트에 추가하실수있는 프라이가 많은것이 저희의 큰 장점중 하나인데요 !  레귤러 프라이와 어니언링도 맛있지만 트러플파마산 프라이나 맥앤치즈볼 도 추천 해드리고 싶습니다. :-) 이외에도 맛있는 프라이메뉴들이 많으니 다음번에도 이용 부탁드립니다 ! 고객님들이 모두 만족하실때까지 노력하는 바스버거가 되겠습니다 ! 감사합니다 ♥}{95: 별표 5개 -2년 전-바스버거는 맛있는 곳이다무한의 감자칩이 제공됨프렌치프라이보다는 다음에는 어니언링을 고르는게 나을것 같다}{94: 별표 4개 -10달 전-이우제님 축하의 말씀 감사드립니다!!!이렇게 저희 바스버거 여의도 점을 생각해주시며 1순위의 올라가는 꿀팁!!까지 알려주시니정말로 열심히 노력하여 항상 1순위하는 바스버거 여의도점 되겠습니다.이우제님의 1순위 바스버거 감사드리며 오늘도 좋은 하루 되세요~~}{93: 별표 5개 -3달 전-여의도 버거 2순위 ㅊㅊ합니다더블베이컨치즈버거에 에그 추가하면 1순위}{92: 별표 4개 -1년 전-Angie JP님 바스버거에 방문해주셔서 감사드립니다!!저희 바스버거를 사랑해주시고 칭찬해주시는 점정말 감사드립니다^^Angie JP님께서 응원해주신 만큼 더욱 노력하여 재방문때도 만족시켜드리는 바스버거 여의도점 되겠습니다!!오늘도 좋은하루 되세요~~}{91: 별표 5개 -2년 전-여긴 그냥 버거도 다 괜찮지만 치킨버거가 짱입니다 여러분 한번만 드셔보세요!!!!}{90: 별표 4개 -8달 전-먼저 방문해주셔서 감사합니다 ^^ 고객님의 취저 했다니~ 저희도 너무 좋습니다 ㅎㅎ 좋은 음악과 맛있는 버거~ 다음방문시에는 더욱더 좋은 음식과 노래들로 기다리고 있겠습니다. 감사합니다 ^^고객님의 소중한리뷰와 별점 감사합니다. 좋은하루 되세요~}{89: 별표 5개 -2달 전-나의 첫 바스버거 집 사람들 수요에 비해 공간이 좀 좁지만음악선곡이 좋고 트렌디함.감자칩 무한리필 취저}{88: 별표 4개 -3년 전-와사비쉬림프버거에 대한 솔직한 후기 감사드립니다^^! 맛있게 드셔주신것 같아 감사합니다 ! 와사비소스는 다른소스에 비해 향이 강해 간혹 강하게 느껴지실 수 있습니다 . 소스량은 요청사항에 말씀해주시면 조절해드리고 있습니다. 더욱 맛있는 바스버거가 되겠습니다 솔직한 후기 감사합니다!}{87: 별표 5개 -1년 전-와사비쉬림프는 와사비맛이 좀 쌧지만 전체적으로 괜찮은 버거}{86: 별표 5개 -4주 전-안녕하세요 고객님 !저희 바스버거는 맛과 인테리어 서비스 모두 충실하기 위해 노력 중인데요 !! 그런 노력이 고객님께 전해 진것 같아 다행입니다 ㅎㅎ 앞으로도 더욱더 친절하게 응대할수있도록 노력하겠습니다 !!다른부분에서도 놓치지 않는 바스버거가 될테니 많은 이용 부탁 드립니다 감사합니다 ♡}{85: 별표 4개 -9달 전-미국식인테리어에 친절한직원~}{84: 별표 5개 -11달 전-방문해주셔서 감사합니다. 더블바스버거나 더블베이컨치즈버거탐욕버거 중에 하나를 주문해 주셨군요! 패티가 한장인 버거에도 패티치즈 추가로 풍성하게 즐기 실 수 있는점 참고 부탁드리며 다음 방문에서는 별점 만점 받을 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{83: 별표 5개 -2년 전-더블패티가 들어간 햄버거가 먹을만 합니다.}{82: 별표 5개 -4년 전-이태훈님 저희 여의도점 바스버거를 방문해주셔서 감사합니다!!!!겉바속촉으로 식감과 풍미를 더 할 수 있도록 준비해드리는 패티가 입맛에 들으셨다니 정말 다행입니다 :D앞으로도 많은 발전으로 다음번엔 별5점을 받을수있게 항상 노력하겠습니다!!다음번에도 많은 방문 부탁드리겠습니다 감사합니다★}{81: 별표 5개 -11달 전-고기가 맛있고 기본충실한 버거}{80: 별표 5개 -9달 전-이알알님!!! 저희 바스버거 여의도점을 방문해주셔서 감사합니다!!!통 새우 7마리가 들어가  입 안에서 뽀득뽀득 터지는 와사비 마요 쉬림프 버거를 드셔주셨네요!!와사비 소스가 느끼함을 잡아줘 인기있는 메뉴중 하나입니다고객님의 센스로 역시 인기있는버거 골라 주문해주셨네요 ㅎㅎㅎ매장에 많은 버거들과 다양한 조합들이 준비되어있으니 다음번에도 많은 방문과 입소문 부탁드리겠습니다!!!그럼 다음에 또 뵙겠습니다!! 뿅★}{79: 별표 5개 -1년 전-와사비마요쉬림프 버거 맛있어요!!}{78: 별표 4개 -6달 전-안녕하세요 고객님 먼저 방문해주셔서 감사합니다 ^^맛있게 드셨지만 아쉬움을 드려 죄송합니다...좀더 좋은 서비스와 더 좋은 맛들로 아쉬운점을 더 만회할수 있는 바스버거가 되도록 하겠습니다.고객님의 소중의 피드백 과 별점 감사드리고 더욱 발전해서다음방문시에는 아쉬움이 없는 바스버거가 될수 있게 노력하겠습니다.소중한 의견 감사드리고 오늘하루도 좋은하루 되세요~!!}{77: 별표 5개 -2년 전-맛은 있지만 가격에 비해 패티가 좀 작은 것 같습니다}{76: 별표 3개 -1년 전-강성록님 칭찬 감사드립니다!!칭찬해주신 만큼 더욱 노력하여 발전해 나아가는 모습 보여드리며다양하고 맛있는 메뉴들 많이 준비되어 있으니다시 찾아 뵜을때는 정말 맛있는 바스버거 여의도점으로 보여드리겠습니다.^^소중한 말씀 감사드리며오늘도 좋은 하루 되세요~~}{75: 별표 5개 -3년 전-햄버거가 촉촉하니 맛있습니다. 감자칩무한리필도 좋아여}{74: 별표 4개 -1달 전-방문해 주셔서 감사합니다 ^^ 무제한으로 즐길수 있는 제임스감의 매력이 넘치죠 ㅎㅎ 버거가 맛있다고 해주시니 너무나도 감사할 따름입니다~다만 아쉬움을 드린부분에 있어 죄송스럽고 고객님의 소중한 피드백으로 인해 더욱 발전하는 바스버거가 되겠습니다. 감사합니다 ~^^}{73: 별표 5개 -4주 전-맛있고 분위기 짱짱맨!!! 칩은 공짜로 많이 먹을 수 있으나 너무 많이 먹으면 메인 햄버거 맛을 잘 못느낌. 햄버거는 패티랑 전체적인 조화는 너무 좋음 다만 빵에 패티 기름이 좀 많이 배어 먹고 나서 김치가 생각남.}{72: 별표 4개 -1달 전-바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{71: 별표 5개 -7달 전-합리적인 가격에 만족스러운 맛}{70: 별표 5개 -8달 전-방문해주셔서 감사합니다. 더욱 더 맛있는 버거를 만들어 버거를 먹기위해 여의도를 방문하고 싶도록 만들겠습니다. 고객님의 소중한 피드백과 별점 감사드립니다. 더욱 발전하는 바스버거가 되겠습니다. 감사합니다.}{69: 별표 3개 -5달 전-평일 점심에는 직장인이몰려 웨이팅이있습니다.많이긴편은 아니구요(1분~15분소요)맛은 그럭저럭 먹을만합니다.인생맛집정도는아니예여..}{68: 별표 3개 -3달 전-방문해주셔서 감사합니다. 하와이안버거를 주문해 주셨는데 파인애플이 작게 느껴지셨군요ㅠㅠ 바스버거는 주문이 들어오는 동시에 조리에 들어가기 때문에 수분이 빠져서 작아졌거나 했을 가능성은 적지만 혹시나 이번 피드백을 통해서 그러한 상황이 있었는지 체크해보는 계기로 삼고 개선사항이 있다면 개선하도록 하겠습니다. 저희를 위한 소중한 피드백 감사드리며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{67: 별표 2개 -1년 전-두번째 먹어보는 수제버거. 파인애플을 시켰는데 수분이 빠져 작은건지 원래 작은 건지 모르겠지만 암튼 내 기준으로는 작아서 약간 실망...}{66: 별표 3개 -6달 전-찾아주셔서 감사합니다. 칠면조 버거에 패티가 조금 아쉬우셨군요 ㅠ.ㅠ다음번엔 더더욱 만족하실 수 있도록 준비하고 있겠습니다! 감사합니다.}{65: 별표 4개 -10달 전-칠면조 버거 개낚임. 터키햄 슬라이스 들어감. 칠면조 고기가 패티처럼 들어가는 줄... 맥주는 다 수제라서 가격이 꽤 비쌈. 맛은 있음 분위기도 있음 감자튀김 무한은 짱짱!}{64: 별표 5개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ 맛있게 드셨다니 저희도 너무 기분이 좋습니다 ^^ 다만 아쉬움을 고객님께 드려 죄송할 따름입니다 ..ㅠㅠ 다음번 방문시에는 밀크쉐이크 뿐만 아니라 다른 쉐이크도 드셔보시면 좋을거 같습니다 ^^ 항상 최고의 퀄리티를 유지할수 있게 최선을 다하겠습니다.고객님의 소중한 리뷰와 별점 감사하며 발전하는 바스버거가 되겠습니다. 감사합니다.}{63: 별표 5개 -6달 전-주로 하와이안버거를 먹는데 맛있음.코울슬로는 감자도 같이 있어서 든든하고 양이 많아 좋음.단감자튀김은 그냥그래서 고구마튀김을 개발했으면 좋겠음.밀크쉐이크는 30년전 전지분유 맛이 강함 호불호 나뉠수 있겠음. 개인적으론 좀 맛이 이것보단 약했으면 함.콜라리필 좋음.감자칩 그때끄때 다르나 오늘맛은 좋았음.}{62: 별표 4개 -1년 전-안녕하세요 고객님 방문해주셔서 감사드립니다!!몇번이고 먹어보고 테스팅하여 선택한 최상의 번으로 제공해드리고있습니다다음번 방문에는 별5점이 될 수 있도록 노력하는 바스버거가 되겠습니다많은 방문 부탁드리겠습니다 감사합니다!!!}{61: 별표 5개 -2년 전-부드러운 빵이 맛있는 버거집}{60: 별표 5개 -5달 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족해 주셨나요! 추천해 주신다면 저도 고객님의 메뉴로 도전해보도록 하겠습니다. 언제나 발전하고 최고의 수제거버브랜드가 될 수 있도록 노력하겠으며 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{59: 별표 4개 -1달 전-말이 필요없이 최고인 수제버거집}{58: 별표 4개 -2년 전-감자칩을 무료로 무제한 먹을 수 있어 좋습니다.}{57: 별표 3개 -3주 전-방문해주셔서 감사합니다. 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리하여 수준높은 음식을 제공해드리고 있습니다. 고객님만의 세트구성으로 다양한 조합을 드실 수 있는 장점도 있답니다. 참고 부탁드리며 제임스감자칩은 다소 짜게 느껴지셨군요! 고객님의 의견을 소중히 듣고 개선할 부분은 개선 하도록 하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{56: 별표 2개 -1년 전-맛있어요 프리로 주는 감튀는 많이 짜지만 햄버거는 훌륭합니다}{55: 별표 2개 -1년 전-바스버거 여의도점을 방문해주셔서 감사합니다매장 방문 식사가 입에 맞으셔서 다행입니다항상 언제 방문해도 맛있고 즐거운 식사시간 보내실수 있도록노력하고 발전하는 바스버거가 되겠습니다고객님의 소중한 리뷰와 별5점 감사드립니다!!}{54: 별표 3개 -1년 전-패스트푸드지만 건강한 느낌의 맛좋은 버거}{53: 별표 4개 -1년 전-방문해주셔서 감사합니다^^ 최고의 버거집이 될 수 있도록 늘 노력하고 있습니다! 다음에도 꼭 방문 부탁드리며 항상 맛있는버거로 다가가겠습니다. 감사합니다.}{52: 별표 5개 -2년 전-일요일 저녁에 문득 수제가 급땡겨서 다녀왔어요!분위기 좋고 ㅎ 맛도 좋고 ! 추천합니다~!}{51: 별표 4개 -6달 전-먼저 방문해주셔서 감사합니다!제임스감은 저희 바스버거만의 별미인데 맛있게 드신것 같아 정말 뿌듯합니다!다음에 방문해주실 때에는 별점만점 받을 수 있도록 더욱 노력하겠습니다.감사합니다 :)}{50: 별표 5개 -7달 전-수제 햄버거와 사이드 메뉴! 맛있음튀긴감자 무료로 먹을수도 있음}{49: 별표 4개 -3달 전-안녕하세요 고객님 ! 먼저 바스버거를 이용해주셔서 감사드립니다 !여의도 내에서 제일가는 버거 라는 칭찬 보기만해도 힘이 솟아나는것 같습니다 ㅎㅎ !!!! 다만 손님이 많을때와 적을 때의 맛의 차이를 느끼셨군요 ㅠㅠ.. 해당내용은 모든 직원들끼리 공유하여 언제 어느 시간대에 오시든 동일한 맛과 퀄리티로 대접해드리도록 노력하겠습니다 ..!!!다음 번 이용시에는 더욱 만족드리도록 하는 바스버거가 되겠습니다 감사합니다 ^_^!!}{48: 별표 5개 -2달 전-여의도 내에서 기장 만족하는 버거. 손님이 별로없을때 버거가 더 맛남.}{47: 별표 4개 -6달 전-방문해주셔서 감사합니다. 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 또한 고객님의 부담을 덜어 드리고자 프렌치프라이제임스감자칩탄산음료소스 무한리필을 시행중에 있고 코울슬로 미니를 백원에 판매하고 있습니다. 직장인들의 식사시간에 잠시나마 일탈의 느낌을 선사하고자 펍의 느낌을 살려서 분위기 조성이 되있답니다. 항상 고객님께 만족을 드릴 수 있도록 서비스나 맛 분위기 어느것 하나 빠지지 않고 개선하고 발전하도록 하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{46: 별표 4개 -9달 전-맛있어요 가격대 조금 비싸긴하지만 펍느낌나고 직원이 친절해서 좋았어요.}{45: 별표 4개 -3주 전-방문해주셔서 감사합니다. 5월1일 근로자의 날에 방문해 주셨군요! 여의도 바스버거는 평일을 제외한 주말에는 언제 오셔도 웨이팅은 거의 없으니 편하게 오셔도 되겠습니다! 이번 방문에서는 패티기름이 번에 스며들어 빵이 젖었던 것 같은데 그릴파트와 조립파트에 다시 교육을 실시 하여 이런일이 재발 하지 않도록 하겠습니다. 저희를 위한 소중한 피드백 감사드리며 다음 방문시에는 모든 부분에서 만족을 느끼 실 수 있도록 하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{44: 별표 3개 -1년 전-여의도점이라 사람이 많을 거 같았는데 5월 1일 근로자의 날에 가서 웨이팅이 없어서 좋았다. 기름이 엄청난데 수제버거가 대체로 그렇지만 유독 심했던? 빵까지 기름 범벅.. 하지만 패티가 맛있었고 머쉬룸버거에 버섯이 통으로 들어가서 식감이 좋았다는 점? 감자칩이 무료라는 점은 괜찮았다.칼로리 폭탄이 걱정되기 때문에 별 3개..그리고 비싼 편이다.. 이윤 많이 남기실 듯ㅎㅎ}{43: 별표 4개 -1달 전-여의도 근처에서 가장 인기좋은 수제햄버거집~ 평일엔 1130에가도 줄서서기다려야함..맛은 있는편이나...평일에 이만큼 기다릴바엔 맥이나 버거킹으로.....}{42: 별표 5개 -2주 전-방문해주셔서 감사합니다 ^^ 쉐이크가 버거랑 은근 잘어울리는 음료입니다 ㅎㅎ 감자칩이 약간 딱딱 하셨다니.ㅠㅠ 직원들 모두와 공유해서 더욱 맛있게 만들도록 하겠습니다. 소중한리뷰와 별점 감사합니다 오늘하루도 좋은하루 되세요~}{41: 별표 4개 -2달 전-쉐이크가 맛있음. 무료감자칩은 약간 딱딱}{40: 별표 4개 -3달 전-안녕하세요 고객님 !! 친절하다는 칭찬 감사드립니다 ^^맛있는 버거들도 많이 준비되어있으니 다음 이용시에는 식사시간에 오셔서 버거도 드셔보시길 추천 드립니다 ^^음악소리가 커서 조금 불편 하시면 오셔서 음악소리 조금만 줄여달라고 말씀해주시면 고객님의 의견 즉각 반영하여 낮출수있는 선에서 최대한 낮춰 드리도록 하겠습니다 ! 감사합니다 !! ^_^}{39: 별표 4개 -8달 전-바스버거 참맛있다 네요 점심후라서음료수 만 마시네요 종업원도  많고친절하시네요  다만 음악소리가  조금은 큰것 같으나  젊은이들은 좋을지도 모르지요}{38: 별표 5개 -1년 전-안녕하세요 ^__^ 일요일에 방문해주셨군요! 먼저 좋은 별점과 리뷰 감사드립니다 :) 나중에 방문하시게 된다면 다른 맛있는 버거들도 이용해주시면 감사하겠습니다~~&lt;3 내일부터 많이 추워진다는데 감기 조심하시고 나중에 또 뵈는 날 더 맛있고 좋은 퀄리티의 버거로 고객님을 기다리겠습니다 :D 다시 한 번 너무 감사드립니다 ♥}{37: 별표 3개 -8달 전-바스 싱글 버거 그리고 더블치즈버거 세트로 오더 했어요! 약2만원 초반대 나왔어요! 바스버거는 채소가 들어가 있어 깔끔하고 더블치즈버거는 패티  치즈2장씩 들어가서 헤비한 느낌이였어요!조금만 먹어도 배부른 느낌 나요~! 일요일 점시 시간즈음 방문하여서 사람이 많지 않았고 매장도 꽤 넓어요~! 공짜로 먹을수 있는 감자칩도 감자자체가 두껍게 튀겨져서 생각보다 맛있게 먹었어요:-)! Ifc에는 사람 꽤 많고 복잡한데 여의도 왔을때 햄버거 드시러 오기 좋은 장소에요!}{36: 별표 4개 -1년 전-유영리님 먼저 방문해주셔서 감사합니다!!별5점으로 맛있게 드셨다고 믿고있겠습니다 :D쉑쉑과는 비교도 못하게 더욱 더 발전하여 바스버거가 더 나은 수제버거집이 되겠습니다앞으로도 많은 방문 부탁드리겠습니다 감사합니다★}{35: 별표 4개 -2년 전-쉑쉑과는 또다른 미국 버거의 맛}{34: 별표 4개 -6달 전-맛은 보통! 맥주 먹기에 분위기가 좋은 곳.}{33: 별표 4개 -2달 전-안녕하세요 !! 먼저 바스버거 여의도점을 이용해주셔서 감사드립니다 !!저희 여의도점은 점심에는 활기차고 저녁에는 조명 조도를 낮춰 어두운 분위기로 아늑하고 무드있게 즐기실수있도록 운영중입니다 ㅎㅎ바스버거는 펍같은 분위기로 맥주랑도 깔끔하게 드실수있도록 버거 외에도 여러 프라이메뉴도 심혈을 기울여 만들어드리니 종종 찾아오셔서 햄맥 즐기시고 가주시면 감사하겠습니다 !!!!!!!!소중한 리뷰 감사드립니다 ♡}{32: 별표 5개 -1년 전-바스버거 여의도점은 다른 지점들과는 다르게 펍같은 분위기가 느껴집니다. 버거외에 감자튀김이 맛있습니다.}{31: 별표 5개 -1년 전-이창용님 반갑습니다 저희 여의도 바스버거 매장에 방문해주셔서 감사드립니다:D여의도에 음식점들이 굉장히 많은데 숨은 맛집중 하나라고 칭찬을 해주셔서 대단히 감사드립니다!!!앞으로 숨어있지 않고 당당하게 여의도 하면 바스버거가 생각날수 있게!! 그날 까지 열심히 노력하고 발전하도록하겠습니다앞으로도 많은 방문 부탁드리겠습니다 감사합니다!!}{30: 별표 4개 -1년 전-내가 알고 있는 몇 안되는 여의도 숨은 맛집중 하나.}{29: 별표 5개 -3주 전-감자칩(감자튀김 아니에요~) 무한리필(소스는 약 3종) 가능. 해당 건물 측면 전용 주차장에 1시간 주차가능(영수증 제출처리 이상시 유료) 가격은 수제버거보다는 싸고 체인점버거보다는 살짝 비싼~ 여의도 직장인들에게 인기는 많지만 맛집이라고 찾아갈 정도는 아니에요 ㅋ 그래도 쉑쉑 느낌도 나고 추천~}{28: 별표 5개 -8달 전-노우정님 오늘도 바스버거를 이용해주셔서 감사합니다!긴장마가 끝나는 첫주말에 방문해서 맛있게 드셔주시고 별점5점 주시점 정말 감사드립니다! 이제 무더위가 시작할텐데 건강관리  잘하시고 담에도 또 방문해주세요:) 정말 감사합니다!}{27: 별표 4개 -1년 전-맛있어요. 가끔 금요일 저녁을 먹죠. 온가족이...}{26: 별표 5개 -1달 전-버거의 맛과 직원들의 친절 대부분이 만족스럽다고 좋은 칭찬을 해주셔서 감사드립니다!!!하지만 별 3점ㅠㅠ..직원들과 많은 노력과 발전을 통해 다음번 방문해 주실때에는 별5점을 받을 수 있도록 하겠습니다!!앞으로도 많은 방문 부탁드리겠습니다감사합니다!!☆}{25: 별표 4개 -1년 전-버거 맛 훌륭. 친절한 직원 등 대부분 만족스럽다}{24: 별표 3개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ . 머쉬룸과 더블베이컨을 주문해주셨군요~!! 통으로 들어간 버섯이 처음에는 신기하지만 맛을 보시면 정말 의외로 꿀맛인 버거입니다 ㅎㅎ 저녁에 방문해주신다면 맛있는 버거에 가볍게 맥주한잔~ 정말 좋은 조합으로 고객님께 만족을 드리겠습니다~!! 방문해주셔서 감사하고 소중한리뷰와 별점 감사합니다.!!}{23: 별표 4개 -1년 전-일요일 오전에 방문한 바스버거는 한가하고 조용해서 참 좋왔다. 정말 다 먹고 싶었지만 나는 가을이니까 싶어서 버섯버거 감자튀김 코운슬로 탄산수를 같이온 친구는 더블베이컨 케이준치킨 감자튀김 콜라를 시켰다. 메뉴가 나오길 기다리는 동안 포테이토 침을 한접시먹으며 담소를 나누고 있었다. 머쉬룸버거는 버섯이 통째로 튀겨져서 햄버거에 끼워져 있었는데 처음 비주얼은 너무나 낫설었만 의외로 정말 맛있었다. 그외 다른 사이드나 감자튀김이 특별한지는 모르겠다. 저녁때 지나갈일이 있다면 맥주에 다시한번 즐겨보고 싶다.}{22: 별표 5개 -3달 전-방문해주셔서 감사합니다. 고객님만의 세트 조합으로 주문해 주셨군요! 코울슬로와 치즈베이컨 조합은 어느것 하나 부족함 없는 조합이겠네요. 음료 역시 탄산으로 부족한 부분을 쉐이크로 채워주었다니 역시 드실 줄 아시는 고객님! 소중한 리뷰 감사드리며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 다음에 또 방문해주세요. 감사합니다. :D}{21: 별표 4개 -2달 전-바스버거세트 2개에 천원추가해서 코우슬로와 치즈베이컨감튀로 바꾸고 콘푸로스트 쉐이크와 콜라시켰는데 너무맛있고 좋아요. 수제버거먹는다면 종종갈거같습니다. 추천드려요.^^}{20: 별표 4개 -8달 전-방문해주셔서 감사합니다 ^^ 맛있게 드셨다니 저희도 너무 뿌듯합니다 ㅎㅎ 매일 아침 들어오는 신선한 야채들과 패티들로 고객님께 최고의 맛으로 다가갈수 있게 직원 모두 노력하고 발전 하는 바스버거입니다!!다음 방문시에도 더욱 발전하여 맛으로 보답드리겠습니다. 감사합니다. 좋은하루 되세요 ~^^}{19: 별표 5개 -1달 전-패티가 아주 좋았어요쉐이크도 약간 달지만 좋았구요야채들의 퀄리티도 좋고 무엇보다패티의 상태가 제일 좋았어요}{18: 별표 3개 -1년 전-방문해주셔서 감사합니다. 무한리필이지만 퀄리티만큼은 자부할 수 있습니다! 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리해드리고 있어 언제나 신선한 버거를 드실 수 있고 다양한 라인업의 수제맥주도 준비되어 있어서 고객님 만의 메뉴구성을 드실 수 있답니다. 디핑소스 또한 바스버거만의 특별한 소스인데 알아봐주셔서 감사합니다! 매일매일와도 항상 같은 맛과 분위기로 고객님을 만족 시켜 드릴 수 있도록 노력하겠습니다. 감사합니다. :D}{17: 별표 4개 -2달 전-질리지 않는 무한리필 감자칩. 청량감 넘치는 수제 맥주. 느끼하지 않고 풍부한 맛이 느껴지는 햄버거. 평범한 감자튀김. 그러나 900원 추가하고 트러플 딥핑소스에 찍어먹으면 마법같은 맛으로 변모. 일주일에 세번가도 안질릴것 같은 맛입니다.  애주 추천합니다~~}{16: 별표 4개 -1달 전-안녕하세요 고객님 ㅠㅠ 매장에 방문해주셨는데 바닥이 미끄러우셨나요 ㅠㅠ.. 먼저 불편을 드려 정말 죄송하다는 말씀 드리고싶습니다..!손님들이 테이블을사용하시다가 퇴점하시면 즉시 나가서 바로 홀 청소를 하고 있지만 바닥을 조금 더 신경쓰도록 하겠습니다 ㅠㅠ .. 고객님이 주신 피드백은 다른직원들에게 모두 공유하여 다같이 신경써서 조금 더 나은 바스버거가 될수있도록 하겠습니다 ! 감사합니다 :-)}{15: 별표 4개 -1년 전-가성비좋은 수제버거. 바닥이 너무 미끌거림. 이상하게 손님들 물이좋음;;;}{14: 별표 5개 -2주 전-방문해주셔서 감사합니다. 점심피크 시간에 방문해 주셨군요. 고객님들의 피드백으로 현재는 매장에 방문해주시는 고객님들에게 배달이나 포장으로 인해 주문을 늦게 내어드리는 일이 없도록 하고 있습니다. 항상 이번처럼 저희가 부족한 부분이 보이셨다면 주저말고 말씀해주세요. 고객님들의 의견을 귀기울여 듣고 개선 할 부분은 개선 할 수 있도록 하겠습니다. 더블바스버거는 가장 밸런스가 좋은 버거중 하나며 하와이안은 고객님들에게 가장 인기가 많은 버거랍니다. 다음엔 꼭 드셔보시길 추천드리며 다음에 또 방문해주세요! 감사합니다. :D}{13: 별표 3개 -1달 전-저녁시간에 맞춰갔었는데 사람도 많고 배달주문도 많아서 시간이 조금 걸렸네요.더블바스버거랑 머쉬룸? 버거 먹었는데 더블바스버거가 좀 더 깔끔하게 맛이 있었습니다.하와이안 버거? 가 1위 메뉴던데 나중에 먹어보고 싶네요.}{12: 별표 4개 -10달 전-Ji-young Kim 먼저 주문해주셔서 감사드립니다!!저희 매장 버거를 맛있게 먹어주시고이렇게 칭찬까지 해주셔서 정말 감사드리며Ji-young Kim님께서 다음에 다시 찾아 주실때도만족하시면서 드실수있게 항상 노력하는 바스버거 여의도점 되겠습니다.오늘도 좋은하루되세요~~~}{11: 별표 4개 -1년 전-맛있는 버거집입니다. 코울슬로도 맛있구요.전 쉑쉑버거보다 여기가 훨 맛있네요}{10: 별표 5개 -4주 전-방문해주셔서 감사합니다^^ 매장의 대표메뉴 탐욕버거 ㅎㅎ저희 직원들이 열심히 준비해드린 음식을 드시고 만족하신다는 엄청난 칭찬을 해주셨습니다.. (감동♡)항상 최선을 다해 실망감을 안겨드리지 않도록 노력하는 바스버거가 되겠습니다!!!다음번에도 많은 주문 부탁드리겠습니다고객님의 소중한 리뷰와 별5점 감사합니다!!!}{9: 별표 4개 -1년 전-탐욕버거 먹었는데. ㅎㅎ 맛나네요. 여의도에서 수제버거 먹어본거중에 짱인듯. 브룩클린보다 맛나요.}{8: 별표 4개 -2주 전-안녕하세요 고객님 !! 바스버거는 아주 기본에 충실한 맛이고 탐욕버거는 바스버거에 존재하는 거의 모든 종류의 토핑이 들어가 이름처럼 아주 탐욕스러운 맛이 나는 버거입니다 ㅎㅎ 아주 잘 드셔주시고 저희의 마음도 잘 이해해 주신것 같아 기분이 좋습니다 ㅎㅎ 저희는 보다 낮은 가격에 맛은 뒤쳐지지않는 맛으로 고객님께 다가가려 노력중입니다 !!!!!!! 많은 이용 부탁 드리며 더욱 더 노력 하는 바스버거가 되겠습니다 감사합니다 ♡}{7: 별표 4개 -1년 전-바스버거 탐욕버거 2가지만 먹어봤는데 바스버거는 누구나 좋아하는 햄버거 맛이구요. 탐욕버거는 정말 탐욕스런맛? 여튼 맛있어요 ㅎㅎ 그리고 수제버거집 중에 가격도 착한 편이라 가성비 좋습니다.}{6: 별표 5개 -3주 전-Hyo Seong Lee님 안녕하세요좋은 리뷰에 좋은별점 남겨주셔서 감사드립니다!!고객님께서 말씀해주신 칭찬 가슴깊게 새기며 다음에는 맛과 분위기 모두 만족시켜 드릴수있도록 노력하는 바스버거 여의도점되겠습니다!!오늘도 좋은하루 되세요^^}{5: 별표 5개 -1달 전-가게 분위기도 좋고 인테리어도 좋으나 맛은 평범하고 문안한 맛이 였다!}{4: 별표 5개 -3주 전-방문해주셔서 감사합니다. 바스버거는 당일 오전 배송되는 신선한 식재료로 조리해드리고 있습니다. 또한 고객님의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료소스 무한리필과 코울슬로 미니를 백원에 판매하고 있습니다. 바스버거는 버거 라인업 중에 가장 밸런스가 좋은 버거로 어떤 토핑을 추가하셔도 균형잡힌 맛을 느끼실 수 있답니다. 쉐이크 또한 전문점수준의 퀄리티로 여러가지 시리얼 쉐이크로 변경도 가능한점 참고 부탁드립니다! 언제나 고객님들에게 최고의 만족을 드리기 위해 고민하고 발전하는 바스버가가 되겠습니다. 소중한 리뷰와 별점 만점 감사드리며 다음에 또 방문해주세요. 감사합니다. :D}{3: 별표 3개 -2달 전-여기 진짜 괜찮았어요! 버거도 맛있고 수제버거 치고 가격도 몹시 합리적이고 포테이토칩도 무제한 먹을 수 있고 소스도 다양하더라구요.(개인적으로 포테이토칩에는 마요네즈가 잘 어울렸다고 생각해요.)바스버거 더블패티로 먹었고 야채를 좋아해서 베이컨샐러드랑 밀크쉐이크 먹었는데 바스버거는 정말 맛있었어요. 샐러드의 바질페스토드레싱은 특색있긴 했지만 베이컨 때문인지 야채 때문인지 드레싱 때문인지는 모르겠으나 쌉쌀한 맛이라 저는 특별히…}{2: 별표 5개 -1년 전-안녕하세요 !!! 요즘같이 더운날 햄버거한입에 맥주 한모금은 진리죠 !!!홀에서 이용시 기본제공되는 무한리필 제임스감도 아주아주 매력적인 부분이죠 ㅎㅎ !! 다음 이용시에도 만족 드릴수있도록 더더욱 노력하는 바스버거가 되겠습니다 정성스런 리뷰와 칭찬 감사합니다 ^-^}{1: 별표 4개 -2달 전-맥주와 햄버거가 맛있는 집. 기본으로 나오는 토테이토 칩이 굉장히 맛있다. 적당히 두둠해서 식감도 좋다. 햄버거는 가격만큼의 맛이 있는 것 같고 후렌치후라이는 그냥 그렇다. 분위기는 좋고 직원들이 매우 친절하다. 1시간 무료 주차가 된다.}"</t>
+  </si>
+  <si>
     <t>진가와</t>
   </si>
   <si>
@@ -115,60 +162,90 @@
     <t>팥이재</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의대방로65길 17</t>
+  </si>
+  <si>
     <t>{109: 별표 4개 -1년 전-}{108: 별표 5개 -1년 전-}{107: 별표 4개 -1년 전-}{106: 별표 5개 -9달 전-}{105: 별표 4개 -1년 전-}{104: 별표 3개 -1년 전-}{103: 별표 1개 -1년 전-}{102: 별표 3개 -1년 전-}{101: 별표 4개 -1년 전-}{100: 별표 5개 -1년 전-}{99: 별표 5개 -1년 전-}{98: 별표 3개 -7달 전-}{97: 별표 3개 -8달 전-}{96: 별표 4개 -2달 전-}{95: 별표 5개 -1년 전-}{94: 별표 4개 -8달 전-}{93: 별표 3개 -1년 전-}{92: 별표 5개 -1년 전-}{91: 별표 5개 -11달 전-}{90: 별표 3개 -1년 전-}{89: 별표 4개 -2년 전-}{88: 별표 5개 -3년 전-}{87: 별표 4개 -3달 전-}{86: 별표 4개 -1년 전-}{85: 별표 4개 -1년 전-}{84: 별표 5개 -9달 전-}{83: 별표 3개 -7달 전-}{82: 별표 4개 -7달 전-}{81: 별표 5개 -2년 전-}{80: 별표 4개 -1년 전-}{79: 별표 5개 -1년 전-}{78: 별표 3개 -9달 전-}{77: 별표 5개 -3년 전-}{76: 별표 3개 -9달 전-}{75: 별표 2개 -1년 전-}{74: 별표 5개 -2달 전-}{73: 별표 4개 -1년 전-}{72: 별표 4개 -2년 전-}{71: 별표 4개 -1년 전-}{70: 별표 5개 -1년 전-}{69: 별표 3개 -3년 전-}{68: 별표 4개 -11달 전-}{67: 별표 4개 -1년 전-}{66: 별표 5개 -1년 전-}{65: 별표 5개 -7달 전-}{64: 별표 2개 -8달 전-}{63: 별표 4개 -2달 전-}{62: 별표 3개 -1년 전-}{61: 별표 4개 -1년 전-}{60: 별표 5개 -9달 전-}{59: 별표 4개 -11달 전-}{58: 별표 1개 -2달 전-}{57: 별표 4개 -3년 전-(Google 번역 제공) 그것은 좋은하지만 조금 비싼 맛.(원문)It tastes good but little expensive.}{56: 별표 5개 -1년 전-(Google 번역 제공) 수제 팥소를 곁들인 루시! 아름 e! 정말 좋은 !!! 상단에!(원문)Lucious bing-su with a handmade red bean paste! Exqui! Vraiment bon!!! Au top!}{55: 별표 5개 -2일 전-빙수에 들어가는 팥이 일품입니다}{54: 별표 3개 -3년 전-우유로 만든 눈꽃빙수가 맛은있지만 비싸}{53: 별표 4개 -1년 전-이국적인 붕어빵}{52: 별표 5개 -3년 전-포실포실한 빙수!}{51: 별표 5개 -3년 전-좀 비싼데 정말 맛있어요}{50: 별표 4개 -1년 전-팥빙수 강추}{49: 별표 4개 -9달 전-붕어빵 정말 맛있습니다}{48: 별표 5개 -2년 전-넘나 맛있어요..... 겨울에도 먹고싶음}{47: 별표 5개 -1년 전-팥도 맛있고 빙수도 맛있고}{46: 별표 5개 -3년 전-팥빙수 전문점.. 다양한 종류 &amp; 기본에 충실한 맛}{45: 별표 5개 -1년 전-맛집..조금 좁은게..}{44: 별표 5개 -2년 전-빙수와 붕어빵 맛이 좋고 서비스가 친절함.}{43: 별표 4개 -1년 전-맛잇어요 우유가 너무 부드러워요}{42: 별표 4개 -1년 전-좋아하는 팥빙수 집팥이 정말 맛있어 계속 가는 집}{41: 별표 5개 -3년 전-겨울에 뜨끈한 팥죽이 생각나서 들러본 곳. 여의도에는 팥죽을 파는 곳이 꽤 되는데 이곳은 매장에서 직접 3시간동안 끓여낸 국내산 팥을 강조하며 달지 않은것은 아니지만 은은하여 기분이 좋은 정도. 팥을 완전히 갈아내지않고 알알이 남아있어 식감도 살아있고 해바라기씨 밤 호두 떡을 골고루 넣어 한입한입이 즐거움. 그외 팥을 이용한 라떼 타이야끼 등도 판매하고 수제 청을 구매할수도있음}{40: 별표 3개 -2달 전-달지 않아용}{39: 별표 5개 -1년 전-묘한 질감이 매력적인 팥빙수}{38: 별표 5개 -1년 전-팥빙수도 정말 맛있고 붕어빵도 정말 맛있어요~~}{37: 별표 4개 -1년 전-여러가지 밭빙수가 있고 밭이 너무 달지 않고 좋고 에스프레소와 곁을인 맛이 일품입니다.}{36: 별표 4개 -1년 전-일요일은 쉬고 평일엔 2시~6시 브레이크타임 토요일은 대기가 많으니 참고하세용. 빙수 마시써여}{35: 별표 5개 -1달 전-팥이 안달고 맛있음}{34: 별표 5개 -1년 전-식사후 필수 후식코스.엄마 아빠 팥빙수 딸기빙수 먹고 팥죽으로 마무~~으리!거두절미 끝.}{33: 별표 3개 -8달 전-커피는 보통 디저트도 보통}{32: 별표 5개 -1년 전-세상까다로움의 극치인 남동생에게 추천하고픈 곳.놀랬습니다. 단것만으로 승부하는 세상에서 이런 맛을 유지하는 곳이 있다는것에..감사합니다..}{31: 별표 4개 -1년 전-수제팥과 우유빙수가 맛있네요}{30: 별표 5개 -1년 전-너무 친절합니다! 2주전 지갑을 잃어버렸는데 사장님께서 너무 편하게 해주셨어요. 손님도 많고 여의도 갈때마다 이용하려구요!}{29: 별표 5개 -1년 전-팥맛잇음 우유얼음도 맛남 강추 또가고픔}{28: 별표 2개 -1년 전-맛있고 놋그릇도 이쁘고..하지만 한분이 일하시는지 손님이 많지 않아도 웨이팅이 너무 길어요}{27: 별표 4개 -11달 전-팥빙수.그중 아빠빙수가 좋아요~(에스프레소가 들어있음)}{26: 별표 5개 -8달 전-엄마아빠(빙수)사랑해여}{25: 별표 4개 -11달 전-담백하고 맛이었음. 팥이 특히 맛있었고 우유얼음도 안느끼하고 고소했음}{24: 별표 3개 -3년 전-3대 팥빙수라 그러던데 여의도동에 3대 팥빙수 아니냐. 집근처 가까운데로 가자. 여의도에 왔을때 먹으면 되지.}{23: 별표 3개 -1년 전-평일 밤 늦게 갔는데도 홀은 꽉 차 있어서 밖에서 먹었어요.전체적으로 좀 달아요 ㅠㅠ그래도 우유빙수 자체가 맛나네요!!!!바로 근처에 있는 홍설이 더 건강한 맛인거 같긴 해요 ㅋㅋㅋ잘 먹었습니다!!!}{22: 별표 3개 -2주 전-평범보다 조금 위 빙수집}{21: 별표 4개 -6달 전-우유결 좋고 너무달지않아서 괜찮았다}{20: 별표 4개 -8달 전-조용하고 아담한 빙수집. 연유가 많이 들어간 듯 한 빙수가 인상적이었습니다.}{19: 별표 5개 -4년 전-보통 빙수를 먹다보면 얼음만 가득 남게 되는 경우가 생기는데 얘는 빅맥처럼 중간에도 팥을 넣어줘서 먹기 편함.팥의 질감이 밀탑과 아띠제의 중간쯤이고고명으로 얹어준 대추가 굉장히 바삭한편이라 과자를 먹는 느낌인데 이게 엄청 맘에 들었음.}{18: 별표 5개 -3달 전-최고의 팥빙수~날 더우면 무조건 생각난다}{17: 별표 3개 -1달 전-2인용 엄마빙수 16천원....비싸다}{16: 별표 3개 -2달 전-머 그냥..딱히? 맛있는지 모르겠음}{15: 별표 5개 -11달 전-맛있는 우유얼음으로 만든 팥빙수집이에요! 팥과 과일의 퀄리티가 좋아 정말 맛있네요. 가격대가 좀 있긴 하지만 충분히 제값 해내는 빙수집입니다.}{14: 별표 5개 -2달 전-맛있었어요살짝 비싼가 싶은데 양이 은근 많아서 만족했습니다}{13: 별표 4개 -1달 전-팥이 직접 끓여서 달지않고 진해서 좋으나 점점  양이 줄어드는 느낌}{12: 별표 3개 -3주 전-망고가 오래된 맛이 나요}{11: 별표 4개 -1년 전-팥이 많이 달지 않으면서 얼음은 부드럽고 시원함~~! 정말 맛있음. 다만 가격에 비해 양은 약간 적음}{10: 별표 4개 -1년 전-팥 좋아하면 가볼만&lt;U+2764&gt;팥알이 살아있고 많이 달지않다}{9: 별표 5개 -2달 전-팥이 진리입니다 진심 강추1일 1빙수로 먹는중}{8: 별표 1개 -1년 전-몇년전에 비해 더러운 인테리어조명에 먼지가..선풍기에 날려 팥빙수에 다 떨어지고있을꺼 같은 느낌.불편한 테이블 위치들. 정리안된 장식장? 소품들.다시 오고싶지않은 곳}{7: 별표 4개 -1년 전-여의도에서 시원한 팥빙수를 찾는다면 이곳을 추천한다.그렇게 달지않은 팥이 매력적인 곳이다.고운 우유 얼음이 혀위에서 녹아내릴때 그 시원함은말로 설명하기 어렵다.한여름 밤의 팥빙수 이 곳을 추천한다.예전과 살짝 바뀐 레시피는 아쉽다. 고명으로 올라가던 대추 맛도 괜찮았었는데. .}{6: 별표 5개 -1년 전-여의도에 있는 팥빙수 집입니다.가게가 넓진 않지만 아늑한 느낌이 있습니다. 이 집의 장점이라고 하면 우유로 만든 팥빙수라고 할 수 있습니다. 우유로 만든 눈꽃빙수 사이에 들어있는 팥이 클래식한 빙수를 좋아하시는 분들과 요즘 스타일의 빙수를 좋아하시는 분들 모두의 취향에 맞을 것 같습니다.}{5: 별표 4개 -1년 전-수제팥으로만든 빙수집! 팥이재!엄마빙수 2인분 시켜서먹어봤습니다다른곳에비해 단만은 적고 팥도 단백한맛이나고좋네요다먹고나서 배에부담감이없습니다위에올려준 떡은 쫄깃쫄깃해요마치 현대백화저무밀탑에 있는 팥빙수 위에 떡이랑 비슷합니다. 팥은 빙수 맨위에 한덩이중간에한덩이주는데 중간에주는게 맨윗부분에있는거보더 양이작아요~그래서 마지막에는 빙수만 먹었습니다자리는 한 8테이블? 정도있는거같아보였어요그리크지않은 장소고사람들이많아서 피크시간에는 기다려야할거같아보였습니다메뉴판 찾아보기힘들었어요계산하는데 쪽으로 가야A4용지로출력된 메뉴를 볼수있었습니다}{4: 별표 5개 -4주 전-팥이 달지않아서 더맛있고 우유빙수 우유 진해서 너무 좋았어요}{3: 별표 3개 -2달 전-맛은 있는편이지만 내부가 너무 지저분하네요...테이블도 잘 안닦는지 끈적거리고 왕벌 한마리가 계속 맴돌아서 신경쓰이고 짜증나더라구요.메뉴 자체의 금액이 저렴한편도 아닌데 카페내부가 좀 지저분하고 정리가 안되어있는 편이라서 인테리어가 좀 필요해보입니다...}{2: 별표 4개 -1달 전-빙수가 달지 않아서 좋네요...탑처럼 높은 빙수 모양이 좋기는 한데그릇이 작아서 먹는 과정에서 무너지면서 밖으로 틸출 하는 빙수량이 제법되네요그릇을 넓고 큰 것으로 바꿔야 할 듯 합니다맛은 좋아요....}{1: 별표 4개 -3달 전-코지마에서 점심을 든든하게 먹고 나와 커피를 마실만한 가게가 있나 살펴보니 가고싶다에 세이브해 둔 여기 팥이재가 보여 평소에도 팥빙수를 좋아하는데 위치도 마침 근처여서 들러보기로 함.근처여서 금방 가게 앞에 도착하니 가게 앞에 놓인 야외 테이블과 의자엔 나처럼 점심을 먹고 디저트 느낌으로 즐기러 들른 것 같은 직장인들이 앉아 있었고 가게 안으로 들어가니 안에도 직장인들로 거의 가득 차 있었음.카운터로 다가가 메뉴를 보니…}</t>
   </si>
   <si>
     <t>갓포아키</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 의사당대로 16</t>
+  </si>
+  <si>
     <t>{165: 별표 5개 -7달 전-}{164: 별표 5개 -1년 전-}{163: 별표 3개 -7달 전-}{162: 별표 5개 -10달 전-}{161: 별표 1개 -8달 전-}{160: 별표 5개 -2달 전-}{159: 별표 5개 -2달 전-}{158: 별표 5개 -1년 전-}{157: 별표 4개 -3주 전-}{156: 별표 4개 -3달 전-}{155: 별표 4개 -2달 전-}{154: 별표 4개 -1년 전-}{153: 별표 3개 -1년 전-}{152: 별표 4개 -1년 전-}{151: 별표 4개 -1년 전-}{150: 별표 4개 -1년 전-}{149: 별표 5개 -1년 전-}{148: 별표 4개 -1년 전-}{147: 별표 5개 -3달 전-}{146: 별표 5개 -8달 전-}{145: 별표 3개 -11달 전-}{144: 별표 4개 -10달 전-}{143: 별표 5개 -7달 전-}{142: 별표 5개 -10달 전-}{141: 별표 5개 -1년 전-}{140: 별표 4개 -1년 전-}{139: 별표 4개 -6달 전-}{138: 별표 4개 -1년 전-}{137: 별표 5개 -1년 전-}{136: 별표 3개 -1년 전-}{135: 별표 4개 -3주 전-}{134: 별표 4개 -1년 전-}{133: 별표 5개 -7달 전-}{132: 별표 5개 -11달 전-}{131: 별표 5개 -11달 전-}{130: 별표 5개 -1년 전-}{129: 별표 5개 -11달 전-}{128: 별표 4개 -3주 전-}{127: 별표 5개 -1년 전-}{126: 별표 3개 -1달 전-}{125: 별표 4개 -1년 전-}{124: 별표 5개 -1년 전-}{123: 별표 4개 -2주 전-}{122: 별표 4개 -1년 전-}{121: 별표 5개 -1년 전-}{120: 별표 4개 -10달 전-}{119: 별표 5개 -1달 전-}{118: 별표 4개 -1년 전-}{117: 별표 5개 -8달 전-}{116: 별표 5개 -1년 전-}{115: 별표 5개 -1년 전-}{114: 별표 4개 -1년 전-}{113: 별표 4개 -2년 전-}{112: 별표 5개 -1년 전-}{111: 별표 5개 -1년 전-}{110: 별표 5개 -8달 전-}{109: 별표 5개 -1년 전-}{108: 별표 4개 -10달 전-}{107: 별표 5개 -1년 전-}{106: 별표 5개 -10달 전-}{105: 별표 4개 -1년 전-}{104: 별표 5개 -2년 전-}{103: 별표 5개 -1년 전-}{102: 별표 5개 -11달 전-}{101: 별표 5개 -1년 전-}{100: 별표 4개 -10달 전-}{99: 별표 5개 -2년 전-}{98: 별표 4개 -2달 전-}{97: 별표 5개 -8달 전-}{96: 별표 5개 -1년 전-}{95: 별표 4개 -1년 전-}{94: 별표 3개 -2년 전-}{93: 별표 4개 -1년 전-}{92: 별표 4개 -10달 전-}{91: 별표 5개 -1달 전-}{90: 별표 4개 -3달 전-}{89: 별표 5개 -7달 전-}{88: 별표 4개 -11달 전-}{87: 별표 5개 -7달 전-}{86: 별표 3개 -8달 전-}{85: 별표 3개 -1달 전-}{84: 별표 5개 -1년 전-}{83: 별표 5개 -8달 전-}{82: 별표 5개 -9달 전-}{81: 별표 4개 -2년 전-}{80: 별표 5개 -1년 전-}{79: 별표 5개 -10달 전-}{78: 별표 5개 -1년 전-}{77: 별표 3개 -3달 전-(Google 번역 제공) 코스 메뉴를 건너 뛰고 개별 요리를 주문하십시오.우리 네 명에게 약 200000 원이었고 이것은 당신이 얻는 것에 대한 괜찮은 가격입니다.내 사진에서 세 가지를 주문하십시오.(원문)Skip the course menu and order individual dishes.It was about 200000 krw for the four of us which is an okay price for what you get.Just order the three things in my photos.}{76: 별표 5개 -11달 전-(Google 번역 제공) 흥미로운 요리가있는 멋진 장소이지만 합리적인 가격입니다. 청어 초밥을 좋아했습니다. Akii 이외의 다른 곳에서는 얻을 수 없습니다. 모든 것이 크림 같고 맛있었습니다.(원문)A fancy place with interesting dishes but they are reasonably priced. Loved their herring sushi. Can't get that anywhere but Akii. Everything was sooooooo creamy and tasty.}{75: 별표 5개 -2년 전-맛이 좋다}{74: 별표 5개 -1년 전-강추합니다}{73: 별표 3개 -7달 전-비쌈.}{72: 별표 5개 -1년 전-컬리티짱♡}{71: 별표 3개 -1년 전-그냥 그가격 그서비스 그맛}{70: 별표 5개 -1년 전-가격은 쎄나 맛은 있습니다}{69: 별표 3개 -11달 전-참으로 애매}{68: 별표 4개 -1년 전-가격이좀올라서 예전만큼 놀랍지는않지만 여전히 음식 잘하는집}{67: 별표 4개 -7달 전-맛있어요}{66: 별표 4개 -11달 전-김밥굿}{65: 별표 4개 -1년 전-비싸지만 맛은 있었어요}{64: 별표 5개 -1년 전-비싸지만 맛나는. 금태초밥 짱}{63: 별표 4개 -7달 전-믿고 먹는 갓포아키.}{62: 별표 5개 -10달 전-항상 만족}{61: 별표 4개 -1년 전-퀄리티 괜찮은 일식당}{60: 별표 4개 -2년 전-일식당이라기보다는 퓨전식 일식당으로 깔끔한 맛..}{59: 별표 3개 -1년 전-반일에도 불구하고 힙스터들은 끊이지지 않았다.}{58: 별표 4개 -1년 전-양과 가격만 제외하고나머지는 대만족}{57: 별표 3개 -1년 전-여의도의 살인적인 물가때문인지 비싸다. 맛은 충분히 있지만 비싼만큼인지는 잘 모르겠다.}{56: 별표 5개 -1년 전-아주 맛있습니다. 문을 찾기가 어렵습니다.}{55: 별표 1개 -1년 전-주문하면 너무 늦게 나옴서버의 미숙함은 이해하나 실수에 대한 사과 없음두번이나 다른 테이블의 음식을 가져다 주었으면 최소한의 사과는 있어야 하는거 아닌지맛은 무난하나 현재 가격은 너무 오버 미슐랭 특급 일식집도 이 정도 가격은 아닐듯}{54: 별표 5개 -1년 전-닷지바에서 친절한직원들과 얘기도하면서 새로운 맛잇는 식사를 즐길수 있습니다}{53: 별표 1개 -1년 전-돈 아깝다!!!호텔 같지도 않은데 음식점 들어가는 입구도 개떡 같고(가 보면 알 것임)음식서비스값 모두 다 착하지 않고 정말 별로다!!!식사를 위주로 가족이 갈 거면 정말 비추!!!}{52: 별표 5개 -1년 전-음식이 맛있어요~!!! ^^}{51: 별표 5개 -1년 전-음식맛잇고 깔끔합니다조금만 조용했어두... 그게 아쉽네요}{50: 별표 5개 -6달 전-깔끔하고 맛있는 갓포요리}{49: 별표 4개 -2년 전-가격 대비 괜찮은 퀄리티}{48: 별표 5개 -1년 전-웬만하면 별안주는데}{47: 별표 5개 -8달 전-우니올라간 후토마키가 너무인상적이에요}{46: 별표 1개 -1년 전-몇 번 다녔던 곳인데 오늘 매우 실망했다. 룸이어서 더 그랬을까. 룸차지 5만원을 냈음에도 불구하고 호출을 하면 뒤늦게 온다. 이것 저것 주문을 했는데 주문이 빠진다. 물 하나  공기밥 하나 도 빨리 오지 않는다. 서빙하시는 분들이 너무 초보적인 교육도 안되어 있고 실수가 많았다. 도저히 갓포아키 인 것이 믿기지 않는 서비스다. 아마에비를 아들이 너무 좋아해서 아마에비 좀 부탁드릴 수 있냐고 했더니 알아보고…}{45: 별표 4개 -2달 전-맛있더라}{44: 별표 4개 -1년 전-룸같이 4인이상을 위한공간은 부족합니다음식은 가격대비 꽤 괜찮았습니다.설명도 해주시고...입구가 스피크이지바처럼 되어있고 객실이 섞여있는 층이라 처음 들어갈때 헤맸습니다}{43: 별표 3개 -1년 전-여의도에서는 제일 맛있는 일식집이지만 청담보다는 좀 맛이 떨어집니다.}{42: 별표 5개 -9달 전-맛있고 좋았어요. 분위기도 좋고...}{41: 별표 4개 -1년 전-맛있으나 너무 비싸다}{40: 별표 4개 -7달 전-여의도 최고의 맛집중 하나에요! 맛있어요~~!}{39: 별표 5개 -2년 전-분위기와 음식 모두 내맘을 사로잡은 곳~ 쫌 가격은 있음}{38: 별표 5개 -10달 전-분위기 맛 서비스. 여의도 최고의 이자카야. 후토마끼는 사랑입니다 ♡}{37: 별표 4개 -9달 전-맛있음. 그러나 이 가격대 값을 하는지는 의문. 그냥 분위기값이라고 보면 이해가 편하다.}{36: 별표 4개 -1년 전-멋진 야경과 자부심을 느낄 수 있는 음식이 맛있는 곳. 기격은 좀 쎈편}{35: 별표 4개 -1년 전-맛있는 음식. 편안한 분위기. 가격만 좀더 착했음 좋은^^}{34: 별표 5개 -1년 전-깔끔한 일식일품식당입니다. 술값은 사악합니다}{33: 별표 5개 -1년 전-최고급 일식 갓포 요리.비싼거빼면최고}{32: 별표 4개 -1년 전-가격은 좀 있는 편이지만분위기 있고 맛있는 곳이네요사람많을때 가면 그래도 시끄럽지만...}{31: 별표 4개 -1년 전-청담에서 유명한 갓포아키가 여의도 GLAD호텔에도 생겼다길래 방문.}{30: 별표 5개 -1년 전-가격은 다소 높으나 분위기 좋게 갓포요리를 즐길수 있는곳!}{29: 별표 4개 -10달 전-무료주차 최대 3시간. 천천히음식나옴. 붐빔. 싸지않음. 맛과 서비스는  좋음. 예약필수}{28: 별표 5개 -1달 전-비싸지만 맛잇어요 ㅠㅠㅠㅠ존맛탱}{27: 별표 5개 -2년 전-가격이 살짝 있는 편이지만 전혀 아깝지 않을 정도록 맛 있음.}{26: 별표 4개 -6달 전-맛있고 요리 하나하나에 정성이 들어간 느낌은 나는데 술값이 넘 비싸고 일반소주 안팔아요}{25: 별표 4개 -8달 전-맛있어도 자주갈 수없는집. 양이 너무적고 비싸다. 술도 비싸고. 음식도 콩알만큼. 소식하는 사람들이 가는곳일듯..}{24: 별표 4개 -1년 전-가격 대비 구성이 좋음}{23: 별표 1개 -11달 전-냉우동에 우니 추가했는데..  우동한그릇에 53000원....추가금액 3천원인것처럼 메뉴 개판으로 써놓고 사기당한느낌. 서버분들은 친절한데 어설픈 메뉴때매 기분잡쳤다. 일본 한국 통틀어 가장 비싼 냉우동 한그릇 아닐까}{22: 별표 5개 -11달 전-가심비 좋은 곳. 좋은 사람들과 가볍게 술 마시기 좋은 곳}{21: 별표 5개 -3달 전-맛있어유~ 기본이 됐네유}{20: 별표 5개 -10달 전-너무 너무 맛있는 집. 이 이상 말이 필요 없음.}{19: 별표 4개 -1년 전-사시미 퀄이 다른 갓포나 이자카야에 비해 넘사임. 그외 다른 가게에서 보기 힘든 요리들이 많아 먹는 재미가 있다. 가게 크기는 다소 작아서 시끌시끌한 분위기이나 방해받을 정도는 아님.}{18: 별표 4개 -1년 전-도산공원/청담점보다 자리는 좋고 음식은 약간 떨어진다. 그래도 갓포아키.}{17: 별표 4개 -7달 전-최근에 갓포집이 유행이긴 하나 그중에서도 단연 으뜸으로 생각됩니다.  음식 서비스 모두 만족합니다.  룸이 하나있는데 룸차지 따로 있어요. 참고하시기 바랍니다.}{16: 별표 5개 -6달 전-친절한 서비스와 음식에 대한 정성과 매장 분위기 관리까지 훌륭합니다. 중요한 사람과 시간을 보내시기엔 매우 좋은 선택이 될것 같네요}{15: 별표 5개 -1년 전-사시미부터 나베 구이 무엇하나 맛없는 것이 없는 최애 이자카야!분위기도 좋고 글래드호텔과 연결되어 있어 편하게 방문할 수 있어요}{14: 별표 4개 -6달 전-갓포요리의 기본에 충실합니다 재료도 신선하고 다양하고 맛있는 요리로 미각을 즐겁게 해줍니다. 하이엔드는 아니지만 그래도 맛있게 즐길수 있는 요리들이 꽤 있습니다. 다만 보양식당 온이 좀더 퀄러티가 좋았던것 같습니다.}{13: 별표 4개 -1년 전-크아~~ 초밥맛이 일품입니다.금태초밥 한입에 정신이 번쩍 들어요.. 너무 맛나요!! 혀가 호강을 하네요.. 소주를 안팔아 아쉬웟지만 전체적인 메뉴가 미각을 엄청나게 즐겁게해주네요}{12: 별표 4개 -2달 전-맛 대비 저렴. 맛도 준수}{11: 별표 4개 -1년 전-음식이 전반적으로 깔끔하고 맛깔스러움. 특히 우니고노와다 굿. 대게 튀김 등 맛은 최고. 그러나 양이 적고 가격이 상대적으로 좀 있는편}{10: 별표 4개 -7달 전-오마카세로 지인들과 신년모임을 갖었습니다. 다양한 종류의 음식이 나와서 배부르게 먹고 왔네요. 특히 초반에 나왔던 "금테스시" 한점이 맛있었어요. 레스토랑 분위기가 전반적으로 괜찮았고 서비스도 잘해주셔서 즐거웠습니다.}{9: 별표 5개 -9달 전-안주가 철마다 조금씩 다르게 나오고 맛도 좋습니다. 어설픈 스시집 가는 것 보다 여기서 스시 먹는게 더 괜찮아요. 가격대비 만족도도 좋습니다.}{8: 별표 4개 -3달 전-괜찮은 식사룰 제공한다. 스키야키와 고둥어봉초밥 참치내장젓을 버무린 광어참치를 먹었는데 전반적으로 모든 메뉴가 괜찮았다. 호텔방을 개조하여 만든 식당으로 뷰가 전혀 없다는 것이 단점이나 고급스러운 분위기로 커버 가능한 수준. 호텔 객실 엘리베이터를 공유하여 호텔 이용객과 동선이 겹치는것은 단점}{7: 별표 5개 -1년 전-여의도에서 젤 맛있는 일식집. 방문할때마다 다른 음식을 도전하지만 한번도 날 실망시킨 적이 없다!!!계속 쭉 그렇게 초심을 지켜주시길♡80이 넘으신 부모님도 맛있게 드셔주시고 또한 10대의 자녀들도 좋아하는 다양한 세대를 어우르는 행복한 맛 ♡♡}{6: 별표 5개 -2달 전-말이 필요없는곳이죠. 꼭 한번 들러보길 추천합니다.}{5: 별표 5개 -2달 전-글래드에 위치하고 있고 여의도에 있다보니 접근성이 좋아요 모듬 사시미도 맛있고 사바도 맛있고 스키야키도 양도 많아요 분위기도 괜찮고 가성비가 좋은 편이에요}{4: 별표 5개 -9달 전-#위치여의도 글래드호텔 14층호텔 메인 입구로 들어거 엘베#실외글래드호텔#실내- 벽같이 생긴 문이 열리고 들어가면 어둡고 조용한 분위기- 바(다찌)와 테이블 자리가 있음- 바가 모두 오픈되어서 요리하는 모습이 잘보임. 단 우측에는 가스렌지 싱크대등이 있어 우측보다는 좌측 바자리에 앉는것을 추천드림#메뉴- 생선회 2인 5.9제철 생선회로 2피스씩 나옴. 싱싱하고 조개류가 특히 맛있었음.- 장어구이…}{3: 별표 5개 -9달 전-글래드호텔 14층에 위치한 고급 레스토랑이자까야글래드 여의도는 좋은 레스토랑 두곳을 보유하고 있다1층에 있는 그리츠도 적당한 가격에 질좋은 뷔페로 유명한데이곳 갓포야끼는 한층 더 고급스러운 느낌에 맛있는 음식을제공한다가격대가 조금 쌘편이지만 조용하게 중요한 지인이나 손님과 식사를 하고 싶다면 매우 추천합니다.보통 풀좌석이기에 예약은 필수라는 점! 아니면 운을 믿어보세요~~ 사시미 회뿐만 아니라 다른 음식들도 높은 퀄리티와 맛을 가지고 있으니 한번쯤 도전해보시길}{2: 별표 5개 -2주 전-요리가 맛있다. 좁은건 불편하다기보다 개성있다. 함께한사람 목소리가 잘들렸다. 별다섯개}{1: 별표 3개 -3달 전-일본 음식이 대체적으로 단짠이 강해서 좋아하는 타입이 아닙니다만 후기가 워낙 좋아 방문 해 보았습니다. 예상대로 단짠이 강한 맛이라 제 입 맛엔 맞진 않았네요 서비스와 가격대는 나쁘지 않았습니다. 오피스 타운답게 저녁 시간대에는 만석이니 예약이 꼭 필요합니다.}</t>
   </si>
   <si>
     <t>스시혜정</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의대방로 376</t>
+  </si>
+  <si>
     <t>{28: 별표 5개 -9달 전-}{27: 별표 3개 -6달 전-}{26: 별표 4개 -8달 전-}{25: 별표 5개 -7달 전-}{24: 별표 5개 -1주 전-}{23: 별표 5개 -9달 전-}{22: 별표 5개 -9달 전-}{21: 별표 5개 -6달 전-혜정이 긴자 바릅니다}{20: 별표 5개 -6달 전-완전 좋아요}{19: 별표 5개 -11달 전-국내 최고의 고등어!!}{18: 별표 5개 -6달 전-최고입니다^^}{17: 별표 4개 -8달 전-여의도 핫플레이스}{16: 별표 5개 -10달 전-맛있고 너무 마음 에 듭니다.}{15: 별표 5개 -7달 전-오~~~~~스시하나하나아주 좋아요}{14: 별표 5개 -5달 전-항상 만족하는 스시야셰프님의 고민과 열정이 느껴지는 가게임}{13: 별표 5개 -6달 전-최고의 스시야에요}{12: 별표 5개 -8달 전-와우오마카세 너무 좋아요}{11: 별표 5개 -10달 전-가격도 착하고 질도 좋고 분위기도 좋아요! 매번 만족스럽습니다!!^^}{10: 별표 3개 -9달 전-6석 스시야 아담하고 맛도좋고 셰프님도 친절하시다}{9: 별표 5개 -1년 전-여의도의 신생 스시야로 앞으로가 매우 기대됩니다}{8: 별표 5개 -8달 전-여의도의 신생 스시야기대만큼 맛있는 식사였습니다.}{7: 별표 4개 -1달 전-정성스럽고 위생적인 음식}{6: 별표 5개 -1달 전-런치였지만 피스도 많으면서 맛은 소문대로 매우 맛있다.}{5: 별표 5개 -1달 전-런치 메뉴엿습니다. 테이블이 작아 조금 더 조용한 분위기고 점심치고 구성이 훌륭합니다. 약간 간은 쎗던듯.(조절해주심)}{4: 별표 5개 -7달 전-간판도 없어서 처음에 찾는데 애먹었어요점심 저녁 타임별 딱 7명까지만 예약 가능하고 점심은 넉넉하게 오후3시까지 식사할 수 있어서 참 좋아요. 아담하고 오붓한 식사가 가능해요혜정이란 이름은 쉐프님 아내분 이름이래요~런치7만원_무조건 예약 필수인 곳}{3: 별표 5개 -3주 전-미들급 스시야 중 최고 수준의 맛집입니다.}{2: 별표 4개 -3달 전-가격 대비 다채로운 네타를 선보이는곳 그리고 샤리의 초가 강렬해 깜짝 놀랐다는점..초가 쨍한걸로도 유명한 스시이토보다 어떻게 보면 더 강렬했다}{1: 별표 3개 -5달 전-셰프님의 취향과 나의 취향이 완벽하게 부합한다 말할 순 없겠지만 자신의 개성과 스타일 목적에 따라 스시를 쥐고 계시는듯 했다. 확실한건 기존의 스시야와는 다른 느낌이며 나의 취향과 셰프님의 취향 사이의 간극이 좁혀진다면 참 좋아질만한 공간인듯 하다. 더불어 고만고만한 스시야가 지겨우시다면 유니크함 때문에라도 들러 볼만한 공간이라고 생각한다.오픈 초기의 방문이며 최근 또 바뀌었으니 최근 후기를 보시기 바랍니다.}</t>
   </si>
   <si>
     <t>경천애인</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로8길 31</t>
+  </si>
+  <si>
     <t>{81: 별표 4개 -2달 전-}{80: 별표 5개 -10달 전-}{79: 별표 5개 -8달 전-}{78: 별표 3개 -1년 전-}{77: 별표 4개 -9달 전-}{76: 별표 2개 -5달 전-}{75: 별표 3개 -9달 전-}{74: 별표 3개 -1달 전-}{73: 별표 4개 -8달 전-}{72: 별표 3개 -1년 전-}{71: 별표 4개 -1달 전-}{70: 별표 5개 -8달 전-}{69: 별표 5개 -9달 전-}{68: 별표 3개 -10달 전-}{67: 별표 5개 -9달 전-}{66: 별표 5개 -1달 전-}{65: 별표 3개 -7달 전-}{64: 별표 5개 -2달 전-}{63: 별표 5개 -1달 전-}{62: 별표 5개 -3달 전-}{61: 별표 5개 -1달 전-}{60: 별표 3개 -6달 전-}{59: 별표 2개 -7달 전-}{58: 별표 5개 -11달 전-}{57: 별표 4개 -2달 전-}{56: 별표 3개 -11달 전-}{55: 별표 5개 -2달 전-}{54: 별표 3개 -11달 전-}{53: 별표 5개 -2달 전-}{52: 별표 4개 -10달 전-}{51: 별표 5개 -3달 전-}{50: 별표 3개 -7달 전-}{49: 별표 4개 -1년 전-}{48: 별표 4개 -8달 전-}{47: 별표 4개 -3달 전-}{46: 별표 5개 -8달 전-(Google 번역 제공) 그레이트 바베큐(원문)Great bbq}{45: 별표 4개 -9달 전-(Google 번역 제공) 소유자의 재량에 따라 좋았지 만 음료는 없었습니다.(원문)It was good but no drinks as per owners discretion.}{44: 별표 1개 -1년 전-(Google 번역 제공) 서비스가없고 무엇을 서두르고 있는지 모르겠습니다.돈에 대한 소개와 가치가 없다면이 돈은 소시지를 3 개 더 먹는 것이 좋습니다!(원문)沒有什&lt;U+9EBC&gt;服務，而且不知道在&lt;U+8D95&gt;什&lt;U+9EBC&gt;，&lt;U+8D95&gt;下班&lt;U+5427&gt;。沒有任何介紹，物無所&lt;U+503C&gt;，這錢不如再吃3餐&lt;U+70E4&gt;腸！}{43: 별표 5개 -8달 전-맛집입니다}{42: 별표 5개 -8달 전-맜있어요~}{41: 별표 3개 -6달 전-다소 비쌈}{40: 별표 4개 -8달 전-맛있지만 매우비쌈}{39: 별표 5개 -8달 전-고기 굽기를 매우 잘함}{38: 별표 4개 -1달 전-안창없음}{37: 별표 5개 -1년 전-언제가도 맛있습니다}{36: 별표 4개 -1년 전-대접받는 느낌의 식당}{35: 별표 3개 -8달 전-가격대를 생각하면 조금 아쉬운 집.}{34: 별표 5개 -1년 전-조용하고 서비스가 좋습니다.}{33: 별표 2개 -11달 전-고기는 잘 숙성되서 맛있었지만 양에 비해 가격이 비싼것이 아쉬웠고기타 음식은 타 음식점과 별로 특색이 없어서 실망입니다}{32: 별표 4개 -1년 전-오찬도 맛잇고 저녁 고기도 굿굿}{31: 별표 3개 -8달 전-음 고기가 생각만큼은 아니네요 특히 등심은 좀 퍽퍽했네요}{30: 별표 4개 -8달 전-기본 이상은 하는 고깃집}{29: 별표 5개 -1년 전-한우를 아는 사람중에 여기 모르는 사람이 있을까?}{28: 별표 3개 -5달 전-이제는 프렌차이즈화 되어버린 구맛집.}{27: 별표 5개 -8달 전-소고기 파티~~ 분위기 맛 최고}{26: 별표 5개 -8달 전-소고기에서도 손꼽는 곳입니다!!!}{25: 별표 3개 -8달 전-석박지가 물러서 별 두개 뺌... 고기나 다른 부분은 괜찮음 치즈소스 맛남}{24: 별표 5개 -1달 전-맛있고 깔끔}{23: 별표 3개 -7달 전-고기의 질은 좋으나 갈비탕 맛없음. 가성비 안좋음}{22: 별표 4개 -1년 전-한우라 가격은 좀 비싸지만 맛있습니다.}{21: 별표 5개 -1년 전-밑반찬과 육회비빔밥 모두 맛있어요~ 마늘을 직접까는 새로움!}{20: 별표 5개 -6달 전-고기맛최고!!!  콜키지프리는 행복이죠}{19: 별표 3개 -7달 전-여의도답게 비쌈. 갈비탕 먹었는데.. 뭐랄까..그냥 맛은 보통입니다.}{18: 별표 4개 -2달 전-안심 최고 에이징 내스타일 아님  콜키지 프리}{17: 별표 5개 -7달 전-분위기가 좋아요}{16: 별표 5개 -7달 전-술은 안팔지만 음식이 매우 맛있음. 특히 마지막 볶은밥이 맛있다}{15: 별표 5개 -10달 전-맛있네요 비싸서 그렇지만요 술을 안팔아서 밖에서 사와야 합니다 그럼 잔은 제공 해주구요}{14: 별표 3개 -1달 전-가격대비  그냥 그랬음}{13: 별표 5개 -7달 전-강남쪽에만 가다가 여의도에도 있다고 해서 방문함. 역시 경천애인 입니다. 점심때 육회비빔밥도 아주 든든하고 맛있어요^^}{12: 별표 3개 -2달 전-와이프와 토요일 점심에 방문하였습니다.자리에 여유가 있어서 방으로 안내 받았는데 인테리어가 특이하였습니다.(돌담 아래서 고기 먹는 느낌)기본 서빙 야채 등은 비슷하나 마늘장아찌가 다른 곳에서 볼 수 없는 맛으로 참 마음에 들었습니다.인테리어나 서비스 찬류를 감안하더라도 여의도는 창고가 꽉 잡고 있는 동네이다 보니 차별점이 약하지 않나 생각합니다.}{11: 별표 5개 -9달 전-주류를 판매하지않습니다.밖에서 사가지고 가면 잔을 준비해주네요.오로지 맛있는 고기에 집중한다는 고집을 보이는데 그래서 그런지 고기맛 아주 좋아요^^ 가격은 조금 비싼편이지만 고기를 즐기기 좋아요^^}{10: 별표 4개 -1달 전-조용하고 분위기 있게 식사}{9: 별표 5개 -8달 전-완전 추천해요! 또 가고싶어요~ 꼬기 정말 맛있고 후식까지 최고~ 내 생애 최고의 아포가토 였습니다. 프라이빗하고 서비스도  최고입니다. 술은 챙겨가셔야 합니다. 콜키지 프리구용~ 직원 짱짱맨 친절해요~!!! 팁을 엄청 주고싶었음...}{8: 별표 5개 -3달 전-소고기 퀄리티가 좋고 고기에 맞는 주류를 직접 가져오는 음식점. 서비스도 친절함}{7: 별표 5개 -5달 전-조용하고 고기도 맛나게 구워주시고 육회도 맛남재 방문의사 있음.콜키지 프리이고 잔은 1개씩 주시고 굳굳}{6: 별표 5개 -7달 전-고급진 숙성한우를 먹을수있습니다. 안심은 입에서 살살녹고 치즈랑 곁들여먹으면 아주맛있습니다. 미니리볶음밥도 시그니쳐메뉴중 하나인데 누룽지를 눌려서 만들어줘서 식감이좋습니다. 직원들도 친절하여 특별한 날에 가기 좋습니다.}{5: 별표 5개 -1달 전-살면서 먹어본 소고기 중에 손꼽힐정도로 맛있어요~ 가격은 꽤 나왔지만 재방문의사가 매우 높은 곳입니다!}{4: 별표 5개 -1달 전-색다른 분위기가 있고 독특한 방식의 스테이크를 준비하여 굽고 한식의 차별화를 느낄수가 있는 식당입니다. 특히 외국인들의 접대장소로 추천합니다.}{3: 별표 5개 -2주 전-음식 퀄리티가 좋고 분위기도 좋다.}{2: 별표 4개 -1달 전-주로 점심에 갈비탕과 육회비빔밥을 먹었는데 쾌적한 시설과 생각보다 손님이 많지 않아서 조용히 식사하기 좋은 곳. 맛도 중상급이상. 커피메뉴도 있어서 따로 커피숍으로 이동하지 않아도 되는곳.}{1: 별표 3개 -4주 전-여의도 SK증권빌딩 지하 디스트릭스Y 내에 위치한 육성 한우를 파는 고깃집. 가격대가 비싼 편이고 숙성한 고기를 사용하므로 육질이 부드럽긴하나 가격대비 특별하지는 않음. 이 집의 특징중의 하나는 주류를 판매하지 않기때문에 술을 마시려면 별도로 준비해와야 함. 와인 콜키지를 부과하지 않는다는 점은 좋으나 주류를 챙겨와야하는 번거로움은 감수해야 함. 숙성육이라 생고기 한우대비 고퀄의 한우가 제공되는것은 아닌 것으로 생각됨. 가계 전체 인테리어는 양호한 편이고 서비스도 양호한 편임}</t>
   </si>
   <si>
     <t>에덴식당</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 의사당대로 127</t>
+  </si>
+  <si>
     <t>{247: 별표 4개 -6달 전-}{246: 별표 3개 -1달 전-}{245: 별표 4개 -1년 전-}{244: 별표 4개 -8달 전-}{243: 별표 5개 -10달 전-}{242: 별표 5개 -1년 전-}{241: 별표 4개 -9달 전-}{240: 별표 5개 -4달 전-}{239: 별표 5개 -10달 전-}{238: 별표 5개 -2달 전-}{237: 별표 5개 -1년 전-}{236: 별표 3개 -7달 전-}{235: 별표 5개 -8달 전-}{234: 별표 5개 -10시간 전-}{233: 별표 2개 -1년 전-}{232: 별표 5개 -1주 전-}{231: 별표 5개 -8달 전-}{230: 별표 5개 -1년 전-}{229: 별표 5개 -2년 전-}{228: 별표 5개 -1년 전-}{227: 별표 4개 -2년 전-}{226: 별표 5개 -1년 전-}{225: 별표 5개 -1년 전-}{224: 별표 4개 -8달 전-}{223: 별표 1개 -1년 전-}{222: 별표 4개 -3년 전-}{221: 별표 5개 -11달 전-}{220: 별표 5개 -2년 전-}{219: 별표 5개 -1년 전-}{218: 별표 5개 -1년 전-}{217: 별표 5개 -6달 전-}{216: 별표 5개 -1년 전-}{215: 별표 5개 -2년 전-}{214: 별표 5개 -1달 전-}{213: 별표 4개 -3년 전-}{212: 별표 4개 -1년 전-}{211: 별표 5개 -3년 전-}{210: 별표 4개 -7달 전-}{209: 별표 3개 -9달 전-}{208: 별표 5개 -1년 전-}{207: 별표 4개 -1년 전-}{206: 별표 4개 -1년 전-}{205: 별표 4개 -1년 전-}{204: 별표 5개 -1년 전-}{203: 별표 3개 -9달 전-}{202: 별표 5개 -3주 전-}{201: 별표 2개 -1년 전-}{200: 별표 5개 -1달 전-}{199: 별표 4개 -11달 전-}{198: 별표 4개 -1년 전-}{197: 별표 5개 -11달 전-}{196: 별표 4개 -1년 전-}{195: 별표 5개 -4달 전-}{194: 별표 4개 -1년 전-}{193: 별표 4개 -9달 전-}{192: 별표 5개 -1년 전-}{191: 별표 5개 -8달 전-}{190: 별표 5개 -1년 전-}{189: 별표 4개 -5달 전-}{188: 별표 4개 -2년 전-}{187: 별표 5개 -3달 전-}{186: 별표 5개 -7달 전-}{185: 별표 4개 -1년 전-}{184: 별표 5개 -9달 전-}{183: 별표 5개 -6달 전-}{182: 별표 5개 -1년 전-}{181: 별표 5개 -3주 전-}{180: 별표 4개 -1년 전-}{179: 별표 5개 -1년 전-}{178: 별표 4개 -6달 전-}{177: 별표 5개 -1년 전-}{176: 별표 4개 -2년 전-}{175: 별표 4개 -2년 전-}{174: 별표 1개 -1년 전-}{173: 별표 5개 -2년 전-}{172: 별표 3개 -6달 전-}{171: 별표 1개 -1년 전-}{170: 별표 3개 -1년 전-}{169: 별표 5개 -1년 전-}{168: 별표 2개 -11달 전-}{167: 별표 5개 -1년 전-}{166: 별표 4개 -1년 전-}{165: 별표 3개 -1년 전-}{164: 별표 5개 -2달 전-}{163: 별표 5개 -1달 전-}{162: 별표 4개 -6달 전-}{161: 별표 4개 -1달 전-}{160: 별표 5개 -1년 전-}{159: 별표 4개 -1년 전-}{158: 별표 5개 -10달 전-}{157: 별표 5개 -8달 전-}{156: 별표 4개 -5달 전-}{155: 별표 4개 -1년 전-}{154: 별표 5개 -11달 전-}{153: 별표 4개 -6달 전-}{152: 별표 3개 -9달 전-}{151: 별표 5개 -1년 전-}{150: 별표 3개 -1년 전-}{149: 별표 5개 -3년 전-}{148: 별표 4개 -2년 전-}{147: 별표 3개 -2년 전-}{146: 별표 3개 -8달 전-}{145: 별표 3개 -4주 전-}{144: 별표 4개 -1년 전-}{143: 별표 5개 -1년 전-}{142: 별표 3개 -1년 전-}{141: 별표 1개 -9달 전-}{140: 별표 3개 -1년 전-}{139: 별표 4개 -1년 전-}{138: 별표 5개 -6달 전-}{137: 별표 4개 -1년 전-}{136: 별표 4개 -1년 전-}{135: 별표 4개 -1년 전-}{134: 별표 5개 -3년 전-}{133: 별표 5개 -1년 전-}{132: 별표 5개 -2년 전-}{131: 별표 5개 -1년 전-}{130: 별표 5개 -1년 전-}{129: 별표 3개 -2년 전-}{128: 별표 3개 -1년 전-}{127: 별표 3개 -7달 전-}{126: 별표 5개 -7달 전-}{125: 별표 5개 -9달 전-}{124: 별표 5개 -10달 전-}{123: 별표 5개 -2년 전-(Google 번역 제공) 전통적인 한국 음식 !! 특별한 유기농 맛(원문)Traditional korean food!! Special organic taste}{122: 별표 5개 -1년 전-(Google 번역 제공) 우아한 메뉴가있는 훌륭한 한식 레스토랑. 이 모든 요리는 매우 높은 수준의 한국산 건강 식품입니다.(원문)Excellent Korean restaurant with elegant menu. All those dishes represent very high standard Korean healthy food.}{121: 별표 4개 -1일 전-밑반찬이 깔끔하고 맛갈집니다. 재방문 의사 있음.}{120: 별표 5개 -4일 전-건강에 좋은 음식}{119: 별표 3개 -3년 전-된장국 맛있습니다}{118: 별표 5개 -2년 전-건강식 산채비빕밥♥}{117: 별표 5개 -2년 전-에덴식당(여의도점)지리산 산나물정식}{116: 별표 5개 -2년 전-좋은 식재료와 맛있는 솜씨}{115: 별표 5개 -2년 전-나물이 너무 맛있고 깔끔함}{114: 별표 5개 -2년 전-먹을만함 몸이 좋아짐}{113: 별표 5개 -1년 전-맛있었어요}{112: 별표 5개 -2년 전-최고의 맛집입니다~}{111: 별표 5개 -1년 전-베리굿}{110: 별표 4개 -2년 전-제철 나물을 먹을수있어요.  다만 홀이 시끄럽네요}{109: 별표 5개 -1년 전-산나물정식 맛있음. 들기름 좋음.}{108: 별표 3개 -1년 전-회식하기 좋은 식당}{107: 별표 5개 -2년 전-산나물밥이 아주 맛있었어요.}{106: 별표 5개 -1년 전-훌륭합니다.}{105: 별표 4개 -1년 전-집밥과 식당밥의 중간 어디쯤}{104: 별표 4개 -3년 전-밥집같은 식당. 나물.청국장.등심구이 다맛남}{103: 별표 5개 -5달 전-맛집}{102: 별표 2개 -1년 전-사람은 너무 많고 그다지 특징은 없는... 가성비는 별로...}{101: 별표 5개 -2년 전-진정한 지리산 나물 비빔밥. 하루전 예약 필수}{100: 별표 4개 -7달 전-지리산 산나물로 채식위주의 식당}{99: 별표 4개 -1년 전-건강식이 땡길때마다 생각나는 곳}{98: 별표 5개 -2년 전-너무 맛나는 건강한 나물 한상차림}{97: 별표 5개 -3년 전-맛있게 잘 먹은 집. 반찬 메인요리 서빙 스텝 모두 굳.}{96: 별표 5개 -1년 전-아주맛있는 건강식 최고 ^^}{95: 별표 1개 -1년 전-가격에 비해 맛없어요ㅜ}{94: 별표 4개 -3년 전-정식한 음식이라 생각됨. 양은 많지 않으나 많은 종류에 나물이 나오며 된장 찌게 맛나요}{93: 별표 3개 -3년 전-비싼임대료로 인해 음식의 양과 질에 비해 가격이 비싼것이 흠. 그 외 맛은 좋았다.갈비도 괜찮았고 해물로 만든 탕도 나쁘지않았다.}{92: 별표 5개 -2년 전-제대로된 산나물과 맛깔나는 반찬들 그리고 좋음 은식 최고입니다~~}{91: 별표 5개 -1년 전-담백하고 맛있는 집밥같은 식당이에요}{90: 별표 5개 -1년 전-깔끔하고 속편하게 먹을 수 있어서 좋아요}{89: 별표 4개 -2년 전-맛있음. 가격이 약간 비싸지만 나물과 참기름이 좋음}{88: 별표 5개 -2년 전-나물도 많고 반찬도 넉넉하고 너무 맛있었어요!!}{87: 별표 5개 -1년 전-삼삼 깔끔}{86: 별표 4개 -1년 전-건강식 먹기 좋은 곳입니다.}{85: 별표 5개 -1년 전-깨끗하고 건강한 맛!!! 칭찬해주고 싶어요~}{84: 별표 3개 -3년 전-미리 세팅한 나물반찬을 집어먹었다고 해도 가져감.. 가격은 싸지않으나 밑반찬에 너무 박하여 훌륭한 음식맛이 반감됨 }{83: 별표 5개 -10달 전-산나물비빔밥 강추합니다}{82: 별표 5개 -2년 전-강추. 산채비빔밥으로 이만한 곳이 없음. 버섯탕수 요리도 일품.}{81: 별표 3개 -1년 전-평범한 식당가격은 그닥 착하지 않음}{80: 별표 4개 -1년 전-나물이랑 된장찌개 좋아하시면 추천 양은 적음}{79: 별표 5개 -9달 전-여의도 거의 유일건강식}{78: 별표 4개 -1년 전-음식 깔끔하고 맛있습니다.}{77: 별표 5개 -10달 전-건강해지는 느낌}{76: 별표 4개 -2년 전-신선한 재료로 조리한 음식으로 건강하게 즐긴거 같아요}{75: 별표 4개 -10달 전-건강해진 느낌}{74: 별표 4개 -4년 전-친절한 주인소박한 나물비빔밥과 청국장이 깔끔하다. 계란후라이가 있었으면... 현미밥을 선택한 사람들에겐 좀더 거칠어도 현미으ㅡ 비율이 높았으면...}{73: 별표 3개 -1년 전-건강한 맛이다. 하지만 가성비는 조금 아쉬움.}{72: 별표 1개 -1년 전-음식 가격은 비싼데 비해 식당 분위기가 너무 시끄러웠습니다.도통 식사에 집중할 수가 없었어요.같은 건물에 있는 다른 곳은 그렇지 않은데 유독 에덴식당만 그렇네요.갈 때마다 느끼는 사항입니다.}{71: 별표 4개 -1년 전-점심에 청국장 나물비빔밥 좋습니다.}{70: 별표 4개 -2년 전-음식은 최고. 그런데 너무 시끄러워서 이야기하다 목이 쉼}{69: 별표 4개 -1년 전-건강해지는 느낌이 나는 식당}{68: 별표 5개 -3년 전-#여의도 맛집#여의도 웰빙#저염식 #깔끔 #건강식 #취향저격}{67: 별표 4개 -10달 전-은근한 맛이 좋음}{66: 별표 5개 -1년 전-너무너무  친절하시고 음식도 너무 맛있게  잘 먹어습니다~}{65: 별표 5개 -1년 전-너무 맛있었어요 . 특히 청국장은 말할필요가 없었네요}{64: 별표 5개 -1년 전-지리산 산채정식 나물 청국장 간도 세지않고 도토리묵은 집에서 한것처럼 맛있네요}{63: 별표 4개 -2년 전-가격은 다소 부담스럽지만 먹으면 건강해지는 기분.}{62: 별표 3개 -1년 전-성철이하구 갔었는데 조미료 안쓰는 건강맛집. 롯데캐슬 지하1층}{61: 별표 5개 -8달 전-나물이 부드럽고 맛있어요}{60: 별표 5개 -1달 전-굳 맛있음}{59: 별표 3개 -6달 전-내 입맛에는 그냥 그렇더군요!!}{58: 별표 4개 -1년 전-알차고 담백하게 먹었습니다. 비빔밥 맛있어요. 간이 센걸 좋아하는 본인과 간이 약한걸 좋아하는 여친 둘 다 모두 만족함. 스태프 모두 친절하심.}{57: 별표 5개 -1년 전-친절하고 맛도 좋고 건강에도 너무 좋은 매뉴~~}{56: 별표 5개 -1년 전-깔끔한 맛으로 매우 만족합니다.청국장과 비지찌개 그리고산나물 먹는게 좋아요}{55: 별표 4개 -1년 전-메뉴는 건강식이고 맛있어서 마음에 드는데...평일 점심때는 옆테이블과 너무 가깝고 직원들이 의자를 툭툭쳐서 밥이 코로 들어가는 느낌입니다}{54: 별표 4개 -2년 전-나물비빔밥을 제대로 하는 집이네요. 제가 고기가 먹고 싶었는데 와이프가  자기는 다이어트 해야 된다고 나물비빔밥 먹자고 해서  저는 억지로 먹어서 별 4개입니다만 나물바빔밥 먹고 싶을 때 갔었으면 5개 줬을 것 같습니다.   와이프가 나물밥만 먹자고 하는 것을 졸라서 명란젓 하나 시켜 먹었는데  명란젓 도 정말 맛있네요.}{53: 별표 4개 -1년 전-건강한 음식을 먹고 싶을때 강추하지만 가격대는싸지 않다}{52: 별표 4개 -1년 전-건강한 맛입니다. 성인남자기준으로 양이 좀 적습니다.}{51: 별표 5개 -1년 전-좋아요 밥좀 많이 먹고싶었는데 그게 살짝 아쉬울뿐ㅜ}{50: 별표 4개 -2년 전-건강한 나물 비빔밥지리산 나물 비빔밥을 컨셉으로간이 세지 않고 식사 후 속이 더부룩하지 않아 추천하는 식당입니다. 저녁에는 더욱 다양한 요리가 준비되어 있어 모임에도 좋고 간단히 막걸리 마시기도 좋은 장소입니다.어른들 모시고 갔을때도 좋아하셨어요단 내부 테이블 간격이 좁고 주방쪽 소음이 있는 관계로 조용히 대화할 수 있는 장소는 아닙니다.}{49: 별표 5개 -1년 전-나물이 정말 맛있고 모든 음식이 신선해서 그런지 속도 아주 편합니다~ 집밥이 그리울때 몸이 좋지 않을때 가면 정말 최고입니다. 위안이 되는 음식이랄까요? 정말 맛있습니다.}{48: 별표 4개 -1년 전-배달로 많이 먹던 곳인데 오늘은 직접 사장님만 뵙고 포장해 가네요. 엄청 친절하시고 진정성 있어보이시는 분인듯 합니다. 담엠 식당에서 직접 먹어볼게요.}{47: 별표 5개 -7달 전-깔끔한 산나물과 청국장으로 건강한밥상}{46: 별표 4개 -2달 전-여의도역 인근에 한식당}{45: 별표 5개 -7달 전-내 장을 책임지는 식이섬유의 환장파티. 나물이 이렇게 맛있기 있기?}{44: 별표 5개 -8달 전-여의도 건강식 중 단연 최고입니다.}{43: 별표 5개 -1년 전-여러 지방의 막걸리도 경험할수 있고 산나물 정식은 정말 재료하나하나가 만족스런 식감을 주는 훌륭한 식당입니다. 어르신들이 정말 좋아하시는 메뉴가 많아서 대접하기도 좋은곳이니 롯데캐슬 엠파이어 근처에 오시면 한번은 들러보시면 좋을거 같네요.}{42: 별표 5개 -1년 전-오랜만에 간 많이 하지않고 재료 본연의 맛을 살린 건강한 맛의 식당을 만나서 좋았습니다. 짜지 않고 구수한 청국장도 정말 맛있습니다. 양념맛에 길들여진 분들은 심심하실 수도 있어요.}{41: 별표 3개 -7달 전-건강한 식사를 할 수 있음 (채식위주)}{40: 별표 5개 -7달 전-나물이 아주 많습니다. 맛있습니다}{39: 별표 4개 -3달 전-가격 비싼것 빼고는 괜찮음}{38: 별표 4개 -1년 전-산나물 비빔밥은 생각보다는 대단치는 않아요. 평범한 맛이에요. 더덕전은 존맛. 일부러 택시타고 여기까지 왓는데 그정도로 찾아올 맛은 아니고... 근처시거나 여의도 놀러와서 한식 먹고 싶을때 걍 가볍게 찾아오면 됨. 산나물이 특별한건 없고 그냥 반찬나물 조금씩 나와요. 깔끔하고 정갈하고 안 짜서 점수줌 ㅇㅇㅇ}{37: 별표 4개 -9달 전-건강한 맛있는 음식. 맛보다는 건강에 방점!}{36: 별표 4개 -2달 전-여의도역 근처에 있는 한식집}{35: 별표 5개 -1년 전-가격대비 맛있어요~ 조미료맛안나고 깔끔하고 맛있어요! 또 올것같아요~}{34: 별표 5개 -2달 전-산의 향기가 진심 느껴짐}{33: 별표 4개 -6달 전-깔끔하고 가볍지만 고급스러운 식당}{32: 별표 4개 -1년 전-음식이 정갈하고 맛있음}{31: 별표 4개 -9달 전-나물과 청국장을 좋아하시는 분께 추천.황태강정도 맛나요^^}{30: 별표 5개 -7달 전-건강해지는 느낌! 청국장을 싫어하지만 맛과 향이 과하지 않다. 가격도 적당}{29: 별표 5개 -5달 전-건강식이지만 맛난 건강식을 찾으신다면 강추!!}{28: 별표 5개 -2달 전-건강한 음식으로 강추}{27: 별표 4개 -4주 전-정갈하고 맛있어요}{26: 별표 5개 -1년 전-봄이와서 몸에 좋고 봄기운받고싶어서 검색해서 찾아갔어요. 부모님 모시고가서 점심예약하는게 좋구요. 12시에 예약하면 12시10분으로 예약해주십니다. 직장인들이 몰리는 시간이라서 그런가보다했습니다. 맛은 청국장도 반찬도 제입맛에 짜지않고 깔끔하고 담백해서 좋았어요. 8가지 산나물정식이 있고 5가지산나물정식이 있으니 잘보고 주문하세요. 저 8가지산나물정식 생각하고 주문했는데 점심때 5가지를 주로시키셔서 그런지 5가지로…}{25: 별표 5개 -2년 전-정갈한 음식 &amp; 친절.보쌈 약간 스모키한 매력}{24: 별표 4개 -7달 전-15도짜리 해남(?) 에서 올라온 막걸리가 있는데요. 걸쭉한게 정말 맛나요. 비싸간 하지만. 나물도 맛나답니다}{23: 별표 5개 -1년 전-인생 밥집외국인들에게도 추천}{22: 별표 4개 -5달 전-나물 비빔밥을 맛있게 먹을 수 있는 곳입니다.}{21: 별표 5개 -2달 전-최고의 버섯과 나물요리!}{20: 별표 5개 -6달 전-음식도 맛있고 여의도 치곤 저렴하고요  직원분들도 친절하셨어요^^   전 담백한 음식을 좋아하는 지라  간도 적당해서 안 짜요 밥 먹고 짜서 물 마실 필요 없습니다 특히 고기가  부드럽네요  잘 먹고 갑니다~~}{19: 별표 5개 -2년 전-산나물 정식 해물탕 청국장 안심구이 낙지볶음 다 맛있어요! 밑반찬 하나하나에도 정성이 가득 담긴 건강한 밥상!}{18: 별표 5개 -7달 전-가성비가 좋음. 여러가지 국내 막걸리가 준비되었습니다. 예를들어 해남 해창막걸리도 있어 일행들이 많이 좋아했어요}{17: 별표 4개 -1달 전-음식 맛이 좋아요.}{16: 별표 4개 -1달 전-건강한 음식 맛있었습니다.. 가격이 조금 비싼 편이라 별 하나 까먹었네요}{15: 별표 5개 -10달 전-자극적이지 않고 깔끔한 맛의 나물정식을 맛볼 수 있음. 청국장이 강하지 않아서 좋음.고기가 연하고 먹기 편합니다.}{14: 별표 5개 -1년 전-좋습니다. 매우.막걸리 추천도 매우 굿굿.}{13: 별표 3개 -1달 전-가격대비 좀 음식이 부실한듯해요}{12: 별표 5개 -1달 전-자연송이탕 깔끔하고 시원합니다.}{11: 별표 5개 -2년 전-여의도 뿐 아니라 서울 최고 수준의 청국장 및 나물 밥집. 증권사 출신의 사장님께서 굉장히 꼼꼼하게 엄선해서 나물을 가지고 오십니다. 기본 정찬이 만원인데 다섯 가지 나물과 식당에서 직접 만든 반찬들과 청국장이 나옵니다. 직접 만든 도토리묵을 꼭 드셔보세요 정말 진국입니다. 손님과 함께 오거나 사람들 여럿이서 오시면은 세트로 시켜 드셔도 괜찮아요.}{10: 별표 3개 -10달 전-가격이 전반적으로 비싼편이나 음식이 정갈하고 깔끔하게 나옵니다. 반찬가지수에 비해 공기밥 양이 적은 편이구요. 나물을 다양하게 먹을 수 있어서 좋아요. 도토리묵은 양념장이 너무 고추장 맛이 강해서 아쉬움이 있구요. 묵사발은 육수가 너무 신 맛이 강하더라구요.}{9: 별표 3개 -9달 전-음식은 장맛으로 먹는다는데 달달한 고추장과 은은한 들기름 맛이 정말 좋은집이에요 쌀맛도 좋아요 산나물도  집에서 흔하게 못먹는 음식이니까 먹어보기 좋구요 근데 상차림에 비해서 가격이 너무 비싸고 ... 평범한백반인데11000원이니까요... 곁들여나오는 청국장이 맛이 없어요....그냥.. 맛있는 나물비빔밥 먹었다 정도!}{8: 별표 4개 -1달 전-몸이 건강해지는 식당다양한 막걸리도 좋은데 포천쪽 막걸리도 공수해주세요}{7: 별표 4개 -3주 전-정갈한 비빔밥을 파는 곳 청국장과 나물 모두 맛있다}{6: 별표 5개 -6일 전-자연이 주는 산선한 나물 밥상..}{5: 별표 5개 -1달 전-모든 반찬들이 다 간이 약한데도 맛이 깊고 좋습니다.건강해지는 느낌 제대로 들어요}{4: 별표 4개 -2달 전-가격대비 구성이나 재료는 괜챦다는 판단이지만나물의 양이 작고 (추가하면 그에 따른  값을 따로 내야  함) 인색하다는 느낌! 옆 상가들이 쉬는 날임에도 식사할 수  있어  좋았으나 종업원 응대는 그닥(묵이 쉰듯하다는 지적에 '묵은 안 쉬어요').}{3: 별표 5개 -3달 전-오늘 처음 방문 했는데 숨은 맛집을 찾아서 좋아요.반찬이 싱거워서 좋았어요.분위기도 좋고 가격도 생각보다 저렴해요.한식좋아하시거나 모임시 추천해요.}{2: 별표 5개 -1달 전-여의도 최애 건강식 밥집. 근본없는 상당수 여의도 음식점을 말살시키는 퀄리티. 산나물 비빔밥과 청국장이 기본 베이스. 맛의 깊이가 있고 청국장도 남다름. 보리굴비의 지존 '영의정'과 함께  밥 다운 밥 먹기 최고인 곳.}{1: 별표 4개 -1달 전-4명이서 2인세트를 두개 시켰어요! 1세트 당 1인당 산나물비빔밥과 소요리가 하나 나오는데 6야채와등심구이와 수제고추장 볶음을 선택했어요. 주문하고 기다리니 10분정도 뒤에 요리가 한번에 나왔어요. 밑반찬은 양파절임 백김치 도토리묵 깍뚜기 깻잎절임이 나왔어요. 건강식 전문으로 하는 음식점이라 그런지 자극적인 음식이 없었어요. 버섯된장찌개도 구수한 느낌이고 수제고추장에 비빈 산나물도 아주 담백한 맛입니다. 등심야채구이는 와사비와 주는데 저는 소금도 달라고 해서 믹어먹었어요. 낙지볶음도 약간 불맛이 나는데 맵진 않았습니다. 고기나 나물도 질기지않고 맛있게 건강식으로 먹고 나왔습니다.}</t>
   </si>
   <si>
     <t>신원</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의대로 56</t>
+  </si>
+  <si>
     <t>{21: 별표 5개 -2달 전-}{20: 별표 4개 -3달 전-}{19: 별표 4개 -3년 전-}{18: 별표 4개 -2달 전-}{17: 별표 3개 -3달 전-}{16: 별표 4개 -1년 전-}{15: 별표 4개 -2달 전-}{14: 별표 5개 -1년 전-}{13: 별표 5개 -1달 전-}{12: 별표 3개 -3달 전-}{11: 별표 4개 -2달 전-}{10: 별표 3개 -1년 전-}{9: 별표 4개 -8달 전-}{8: 별표 3개 -2달 전-}{7: 별표 3개 -1주 전-}{6: 별표 3개 -5달 전-고등어조림 짭짤하니 맛있네요}{5: 별표 1개 -1년 전-고등어조림이 양은냄비로 서비스. 두뇌 건강은 포기하고 먹자?}{4: 별표 4개 -1년 전-우거지 고등어 조림이 주 메뉴. 그런데 이 집은 차돌박이가 150g에 19000원. 훌륭하다. 여의도에서 이가격이 이 퀄리티의 차돌박이 먹기 쉽지 않은듯...}{3: 별표 4개 -2달 전-여의도 이가격에 이정도 퀄리티하는 고등어집 없음}{2: 별표 4개 -2주 전-가성비 굿}{1: 별표 4개 -11달 전-점심 때 방문함. 사람들로 만원이었는데운이 좋아서 바로 자리를 안내 받았다. 고등어 조림 1인분과 라면 사리를 시킴. 우거지의 깊은 우러난 맛이 아닌 조미료의 가벼운 맛과 중국산으로 추정되는 김치  반찬이  조금 아쉬웠으나큰 냄비에 우거지와 고등어 몸통 2개가 9천원으로 가성비가 높고 직원들의 친절함에 만족스러웠음.}</t>
   </si>
   <si>
     <t>그레이에스프레소</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의대방로 379</t>
+  </si>
+  <si>
     <t>{21: 별표 5개 -1년 전-}{20: 별표 5개 -11달 전-}{19: 별표 5개 -1년 전-}{18: 별표 3개 -1년 전-}{17: 별표 4개 -1달 전-}{16: 별표 5개 -1년 전-}{15: 별표 5개 -1년 전-플렛 화이트 꿀맛입니다}{14: 별표 5개 -2년 전-회사근처에서 수시로 이용하는곳.}{13: 별표 5개 -1년 전-늘 만족합니다~^^강추}{12: 별표 5개 -1년 전-맛있어요 특히 모카에초콜렛이들어있어 더좋아요}{11: 별표 5개 -1년 전-플랫화이트랑 카푸치노 맛있었어요}{10: 별표 4개 -1년 전-프랜차이즈 커피 보다 좋습니다ㅡ}{9: 별표 5개 -1년 전-주인장은 항상 인상쓰고 있지만 커피맛은 좋다}{8: 별표 5개 -3년 전-맛&amp;가격 최고. 쥔장님 깔끔니스트}{7: 별표 5개 -3달 전-커피 맛잇어요!}{6: 별표 4개 -11달 전-왠만한 커피전문점들보다 맛있고 좋아합니다. 특히 플랫화이트를 가장 좋아해요. 처음엔 작은게 왜이렇게 비싸냐고 생각했지만 얼음이 없어서 은근 양도 꽤되고 맛있어요. 카페라떼랑 비슷하지만 차이는 있어요. 그 차이는....설명을 들었지만 잊어버렸네요. 카페 내부는 자리가 거의 없어서 테이크아웃점이라고 생각해도 됩니다. 카페 안에는 재즈풍의 음악들이 흘러나와요.}{5: 별표 4개 -3년 전-커피 맛있고 가격도 좋다. 매장이 좁지만 깔끔하다. 테이크아웃 추천}{4: 별표 5개 -5달 전-가성비 최고의 커피}{3: 별표 5개 -3년 전-개인적으로 커피를 좋아해서 여기저기 많이 다니면서 많은 커피를 마셔봤지만-가격대비 진하고 취향저격하는 커피는 여기 b플랫화이트 3천원 이라는 가격에 최고의 맛진저라떼 4천5백원? 진짜 여기가 최고에요 대박아포가토 하겐다즈아수쿠림인가 흠 지이이인한 커피에 지이이이인한 아수쿠림 환상의 조합공간은 좁아요 앉을 수 있는 인원 최대 10명...?되려나?! 테이크아웃 하는 사람들이 대부분!여기때문에 여의도 이사오고 싶을 정도-그리고 사장님 깔끔니스트 인정 ㅋㅋㅋ 멋져요!}{2: 별표 4개 -1년 전-깔끔한 인테리어 신맛커피는 꽤 좋음. 가성비 훌륭.}{1: 별표 5개 -3달 전-카피 참 좋아하는데 플랫화이트는 처음. 너무 좋네요.}</t>
   </si>
   <si>
     <t>패트릭스와플</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로 112</t>
+  </si>
+  <si>
     <t>{2: 별표 3개 -8달 전-쫄깃하고 달다}{1: 별표 2개 -3주 전-일단 분점이라서 벨기에 사장님은 없음.와플 겉면이 굉장히 바삭하다고 해서 기대했는데눅눅했음..기본2 코코넛 녹차 시켰는데녹차만 바삭.. (녹차는 와플 속에 들어있음.)달지 않아서 좋았으나 와플 자체가 눅눅. 하..직원들 앞에서우리끼리 대놓고 눅눅하다고 말했는데 리액션은 없더군..}</t>
   </si>
   <si>
     <t>브로드웨이</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국회대로76길 16</t>
+  </si>
+  <si>
     <t>{221: 별표 4개 -4년 전-}{220: 별표 4개 -2년 전-}{219: 별표 3개 -1년 전-}{218: 별표 4개 -7달 전-}{217: 별표 3개 -10달 전-}{216: 별표 5개 -1년 전-}{215: 별표 4개 -1년 전-}{214: 별표 4개 -1년 전-}{213: 별표 5개 -3달 전-}{212: 별표 3개 -10달 전-}{211: 별표 4개 -1달 전-}{210: 별표 5개 -1년 전-}{209: 별표 5개 -1달 전-}{208: 별표 4개 -1년 전-}{207: 별표 5개 -2달 전-}{206: 별표 3개 -1년 전-}{205: 별표 5개 -1년 전-}{204: 별표 5개 -1년 전-}{203: 별표 3개 -8달 전-}{202: 별표 2개 -5달 전-}{201: 별표 2개 -7달 전-}{200: 별표 4개 -1년 전-}{199: 별표 4개 -1년 전-}{198: 별표 5개 -7달 전-}{197: 별표 5개 -7달 전-}{196: 별표 3개 -1년 전-}{195: 별표 5개 -3주 전-}{194: 별표 4개 -9달 전-}{193: 별표 4개 -11달 전-}{192: 별표 5개 -3년 전-}{191: 별표 3개 -1달 전-}{190: 별표 5개 -11달 전-}{189: 별표 4개 -10달 전-}{188: 별표 2개 -3년 전-}{187: 별표 4개 -1년 전-}{186: 별표 5개 -1달 전-}{185: 별표 5개 -2달 전-}{184: 별표 4개 -3달 전-}{183: 별표 5개 -8달 전-}{182: 별표 5개 -1년 전-}{181: 별표 3개 -1년 전-}{180: 별표 5개 -7달 전-}{179: 별표 3개 -1년 전-}{178: 별표 5개 -1년 전-}{177: 별표 5개 -1년 전-}{176: 별표 4개 -11달 전-}{175: 별표 5개 -7달 전-}{174: 별표 5개 -8달 전-}{173: 별표 3개 -1년 전-}{172: 별표 4개 -1년 전-}{171: 별표 5개 -8달 전-}{170: 별표 3개 -1년 전-}{169: 별표 2개 -1년 전-}{168: 별표 5개 -1달 전-}{167: 별표 3개 -1년 전-}{166: 별표 4개 -1달 전-}{165: 별표 4개 -1년 전-}{164: 별표 2개 -7달 전-}{163: 별표 3개 -1년 전-}{162: 별표 5개 -6달 전-}{161: 별표 5개 -7달 전-}{160: 별표 1개 -1년 전-}{159: 별표 4개 -2년 전-}{158: 별표 5개 -3달 전-}{157: 별표 5개 -5달 전-}{156: 별표 5개 -7달 전-}{155: 별표 5개 -1년 전-}{154: 별표 4개 -2년 전-}{153: 별표 4개 -7달 전-}{152: 별표 3개 -10달 전-}{151: 별표 4개 -10달 전-}{150: 별표 5개 -8달 전-}{149: 별표 4개 -1년 전-}{148: 별표 4개 -11달 전-}{147: 별표 4개 -7달 전-}{146: 별표 5개 -1달 전-}{145: 별표 2개 -1년 전-}{144: 별표 4개 -11달 전-}{143: 별표 5개 -3주 전-}{142: 별표 4개 -1년 전-}{141: 별표 4개 -1년 전-}{140: 별표 5개 -9달 전-}{139: 별표 4개 -7달 전-}{138: 별표 3개 -1년 전-}{137: 별표 4개 -1년 전-}{136: 별표 4개 -1년 전-}{135: 별표 5개 -1년 전-}{134: 별표 5개 -7달 전-}{133: 별표 3개 -1년 전-}{132: 별표 5개 -9달 전-}{131: 별표 4개 -1년 전-}{130: 별표 5개 -5달 전-}{129: 별표 5개 -10달 전-}{128: 별표 5개 -6달 전-}{127: 별표 5개 -8달 전-}{126: 별표 5개 -1년 전-}{125: 별표 5개 -1년 전-}{124: 별표 4개 -1년 전-}{123: 별표 4개 -1년 전-}{122: 별표 4개 -8달 전-}{121: 별표 4개 -3주 전-}{120: 별표 5개 -8달 전-}{119: 별표 4개 -9달 전-}{118: 별표 2개 -1년 전-}{117: 별표 5개 -8달 전-}{116: 별표 5개 -1년 전-}{115: 별표 4개 -7달 전-}{114: 별표 5개 -2년 전-}{113: 별표 3개 -8달 전-}{112: 별표 4개 -3년 전-}{111: 별표 5개 -10달 전-}{110: 별표 4개 -5달 전-}{109: 별표 5개 -1년 전-}{108: 별표 3개 -1년 전-}{107: 별표 5개 -8달 전-}{106: 별표 3개 -1년 전-}{105: 별표 3개 -1년 전-}{104: 별표 4개 -1년 전-}{103: 별표 3개 -1년 전-}{102: 별표 5개 -8달 전-}{101: 별표 5개 -7달 전-}{100: 별표 5개 -1년 전-(Google 번역 제공) Kensington에서의 지난 날에 우리는 브로드 웨이에서 점심 뷔페를 먹었다. 우리는 종종 현지 호텔 (사이판)에서 부페를 먹습니다. 브로드 웨이가 최고입니다. 아시아와 서양 요리의 훌륭한 선택. 그 중 많은 것들은 전에 없었습니다.(원문)Last day at the Kensington we had the lunch buffet at the Broadway. We often go to our…}{99: 별표 5개 -1년 전-(Google 번역 제공) 훌륭한 음식 품질!(원문)Great quality of food!}{98: 별표 4개 -3년 전-가성비 좋은 숙소}{97: 별표 5개 -2년 전-캔싱턴여의도 호텔  부페식당입니다}{96: 별표 5개 -2년 전-좋아요}{95: 별표 5개 -1년 전-맛있어요!!!!! 직원분들도 친절!}{94: 별표 5개 -11달 전-좋아요}{93: 별표 3개 -1년 전-평범해요}{92: 별표 5개 -8달 전-송년회}{91: 별표 5개 -10달 전-인생 맛집!!}{90: 별표 5개 -1년 전-굿! 더이상 뭐!}{89: 별표 5개 -11달 전-고기류는 콜}{88: 별표 3개 -1년 전-그저그런 뷔페}{87: 별표 3개 -1년 전-주말 조식은 먹을만해요 평일은 부실하구요}{86: 별표 4개 -3년 전-조용히 한 잔 하기에 좋은 장소 같습니다.}{85: 별표 4개 -1년 전-고급스럽고 괜찮아요}{84: 별표 5개 -1년 전-음식이 참 맛있어요}{83: 별표 3개 -1년 전-솔직히 돈이 좀 아까움}{82: 별표 5개 -2년 전-쾌적하고 가족과함께 식사하기 괜찬은 곳입니다}{81: 별표 5개 -1년 전-가짓수가 많지는 않지만 각각 퀄리티가 GOOD!이 정도 가격에 이 정도 퀄리티면 괜찮다고 생각합니다.}{80: 별표 4개 -1년 전-조식깔끔}{79: 별표 4개 -2년 전-호텔 부페라 깔끔하고 맛있어요. 종류는 아주 많지는 않아요.}{78: 별표 3개 -11달 전-조식 제돈주고 먹기 아까워요...}{77: 별표 5개 -1년 전-딸기 생크림케익 진짜 맛있어요ㅠㅠ}{76: 별표 4개 -1년 전-조식이 맛있어요}{75: 별표 5개 -3달 전-좋아요}{74: 별표 5개 -1년 전-음식이 하나 하나 다 아주 맛있었습니다. 근데 제가 간 날은 전반적으로 좀 짰어요 ^^}{73: 별표 3개 -8달 전-손님 없는 이유가 있었음}{72: 별표 3개 -9달 전-미국 바 분위기 물씬 풍기는 곳!!!!}{71: 별표 5개 -1년 전-남자친구랑 갔었는데 서비스도좋고 맛도좋았습니다!}{70: 별표 2개 -1년 전-전체적으로 청소가 안되어 있어서 불쾌했습니다.}{69: 별표 4개 -1년 전-개인적으로 질보다 양으로 승부하는 뷔페보다 이런 질적 뷔페가 맘에 든다. 근데 치즈가 너무 안습이다..다른 음식맛 다 깨는 맛.}{68: 별표 4개 -2년 전-이랜드 계열 켄싱턴 호텔 깔끔하고 친절하고 무엇보다 기본에 충실한 곳입니다. 음식은 기본 이상입니다.}{67: 별표 3개 -1년 전-맛은 괜찮으나 종류가 다소 적음}{66: 별표 5개 -1년 전-가짓수가 많진 않지만 스시와 그릴요리 맛이좋았습니다.}{65: 별표 4개 -1달 전-좋아요}{64: 별표 4개 -2년 전-가성비가 뛰어난 뷔페입니다.직원들도 아주 친절하고 저녁에 맥주와 와인이 무제한 입니다. 음식의 가짓수와 식당의 넓이는 적고 작지만 가격대비 퀄리티는 우수합니다.}{63: 별표 5개 -1년 전-야채랑 얼큰한게 없었다는거 외엔 괜찮았어요~~}{62: 별표 5개 -1년 전-종류가 다양하지않아도 높은 퀄리티로 만족스런 식사를 할수있었다 특히 디저트가 훌륭하다}{61: 별표 3개 -1년 전-가격에 부응하는지는 잘...일단 장소가 생각보다 협소했습니다.3시부터 5시까지를 브레이크 타임으로 알고 갔는데 2시부터 슬슬 음식 리필이 더뎌지는 것 같더니 2시 20~30분부터는 매장 정리에 들어갑니다. 각 테이블마다 곧 정리에 들어간다 안내는 해주지만 청소를 이미 그 시간부터 시작하면서 직원들도 주변환경도 부산스러워집니다.그런 점이 좀 아쉬웠습니다.그래도 음식 맛은 대체적으로 좋았습니다. 디저트도 다양하고 맛있게 먹었어요.}{60: 별표 5개 -10달 전-퀄리티 좋은 음식 먹기 좋아요}{59: 별표 5개 -1년 전-조식 종류도 많고 다 맛도있었습니다}{58: 별표 4개 -1년 전-음식 구성도 좋고 맛도 좋고 깔끔합니다}{57: 별표 3개 -11달 전-6만이든 5만이든 안가요 이제.. 와인도 완전 별로고ㅠㅠ 고기도 걍 그랬음 ㅠㅠ}{56: 별표 4개 -1년 전-양갈비가 맛있고 종류가많진않지만 적당한 가짓수에 음식 질을 어느정도 관리하는 듯해 좋았다!!디저트도 맛있긴한데 달다..}{55: 별표 5개 -9달 전-메뉴를 간소화한 후 맛을 올린 곳}{54: 별표 4개 -6달 전-음식 종류가 많지는 않지만그래도 음식들이 다 맛있음다만 커피머신 완전 묵은때 지저분하게 껴있는 모습보고별 4개}{53: 별표 5개 -2달 전-음식 짱맛 가성비 짱}{52: 별표 4개 -3년 전-음식 가지수는 적은편인데 퀄리티는 괜찮은듯합니다.}{51: 별표 4개 -1년 전-음식의  종류는  적으나  퀄리티는 좋아요.하지만   낡은 노후?시설로  화장실도 너무 춥고  특히  그릴스테이션에  환기는  최악!! 직원들도  친절은 하나  기본적인 교육이 부족해요.이부분은  호텔 측의   교육파트 측에서  개선해야할꺼같아요.}{50: 별표 4개 -5달 전-일식코너가 좋네요}{49: 별표 5개 -1년 전-적당한 가격 알찬구성에 퀄리티 좋은  음식. 아늑하고 조용함}{48: 별표 5개 -1달 전-친절 맛있음}{47: 별표 5개 -9달 전-음식이 맛있습니다 주차타워 주차시 발렛을 해줍니다 주차시간은 150분 무료입니다}{46: 별표 5개 -1년 전-최근 트렌드에 맞게 잘 정돈된 뷔페 입니다음식의 가지수보다 식재료와 퀄리티가 높아졌네요}{45: 별표 4개 -9달 전-가짓수가 많지는 않지만 하나하나 퀄리티가 좋음 주류가 무제한이라 좋지만 와인종류에따라 잔도 바뀌는게 맞는데 그렇지 않아서 아쉬웠음 직원들 차분히 응대도 좋았음 구이류가 괜찮았고 사시미도 좋았음}{44: 별표 4개 -11달 전-음식이 깔끔하고 맛있어요}{43: 별표 4개 -7달 전-음식이 가성비가 좋습니다. 인테리어가 아쉽습니다.}{42: 별표 4개 -10달 전-종류가많지않지만질은괜찮은거같습니다}{41: 별표 4개 -10달 전-약간 짭짤하기도 했지만 조식 정말 맛있게 먹었습니다~}{40: 별표 4개 -1년 전-평일과 주말 가격 차이도 많이 나고 가격에 비해메뉴 수는 많은 편은 아니나 맛이 있고 후식이 매우 맘에 들었습니다. 또한와인과 수제 생맥주 무한리필!!이 좋습니다.}{39: 별표 5개 -7달 전-종류는 많지 않지만 퀄리티가 좋네요}{38: 별표 5개 -1년 전-가격은 조금 쎄지만... 평일 점심 5만원돈..맛있는건 물론이고 식재료가 신선하다는 느낌이 팍 드는 음식이네요.회사돈으로 먹어서 더 맛있엇습니다.}{37: 별표 4개 -7달 전-잘나오네요 종류는적어요}{36: 별표 4개 -8달 전-가성비 좋은 스시그릴 하우스. 추천합니다.}{35: 별표 1개 -1년 전-가격대비 가짓수가 너무 적고 선도도 딱히 좋은거같진 않습니다초밥4종류 비린내가 좀 납니다사시미4종류와 데친전복(활전복 선도가 떨어져서 더 상태가 안좋아지기 전에 데친거같은 느낌)탕수육 튀겨놓은지 꽤된걸 다시 데워 나와서 딱딱함등심스테이크는 질기고 퍽퍽함 빨간김치도 없고 피클도 없어서 느끼함을 없앨수가 없음과일은 메론 파인애플 자몽 딱 세가지 그외에 딱히 먹을만한 음식은 없네요탄산음료는 말해야 가져다줍니다…}{34: 별표 5개 -1년 전-리뉴얼했네요~인테리어가 확실히 깔끔해지고 메뉴도 싹다 바꾼듯 합니다셰프가 직접 잡아주는 스시랑 사시미가 젤괜찮았어요ㅎ 와인맥주 무료로 무제한이랑}{33: 별표 5개 -1년 전-다른 호텔 뷔페에 비해 정말 가짓수가 많이 없어요. 근데 집중해서 먹을 수 있어서 좋아요. 스시의 경우 바로 앞에서 만들어서 내놓기 때문에 맛있구요 회는 참돔이랑 농어 연어 나옵니다. 멍게랑 소라도 있습니다. 더덕두릅 참나물 샐러드와 양갈비 맛있습니다. 쌀국수도 국물이 좋아요. 볶음밥은 조금 별로 였습니다. 저는 스시랑 회 양갈비 집중해서 먹고 동행인은 와인을 종류별로 따라 마셨네요. 디저트류도 다양해서…}{32: 별표 5개 -7달 전-맛있습니다^^ 특히 즉석에서 구어주는 스테이크가 맛있네요~}{31: 별표 5개 -10달 전-뷔페가 맛있기 힘든데 음식 가짓수는 많지 않지만 대체적으로 조리한 음식이 맛 좋음. 규모는 작으나 가성비 좋음}{30: 별표 5개 -10달 전-뷔페음식 잘 안먹는데 이곳 음식은 내게 딱 맞아 아주 잘 먹었다. 분위기도 차분하니 참 좋았다. ~^^}{29: 별표 5개 -1년 전-음식 퀄리티 괜찮습니다.주류 무제한이라 술좋아하는 분들 만족하실듯.전반적으로 간이 삼삼해요. 스테이크 맛있고 의외로 케익이 맛있어요. 케익맛집}{28: 별표 4개 -1년 전-음식맛은 퀄리티가 있습니다.종류는 다양하지 않아도 필요한 것 다 있고흔하고 싸구려는 없는 느낌이랄까요.주차는 불편한 면이 있습니다.옆건물레 주차하고 와서 식사후 정산영수증을 들고와서 다시환불 받았습니다.직원도 깔끔하고 친절했습니다.}{27: 별표 5개 -1년 전-음식 종류는 적당히 있어 하나씩 맛볼수 있어 좋아요제철과일 양고기 등심 회종류 초밥등등 양념이 세지않고 적당하니 맛있습니다디저트도 훌륭하구요전반적으로 만족합니다}{26: 별표 4개 -10달 전-가짓수가 엄청 많지않지만 메뉴하나하나가 맛있고 정성스럽네요. 분위기역시 복잡하지않고 차분해고 조용해 만족스런 식사였어요}{25: 별표 4개 -6달 전-뷔페치고 작지만 가성비 좋은 호텔 뷔페 가지수 보다 퀄리티에 집중.}{24: 별표 4개 -7달 전-메뉴가 여느뷔페처럼 다양한건아니지만 재료가 신선한것같아서 좋았어요.}{23: 별표 5개 -11달 전-가짓수는 많지 않지만 재료가 신선하고 맛 있는 집이네요 또 오고 싶어요~~}{22: 별표 5개 -1년 전-가지수는 많지 않지만 음식이 하나하나 다 맛있어요!!}{21: 별표 5개 -3주 전-음식 종류는 적지만 음식 퀄리티는 상당한편}{20: 별표 5개 -7달 전-양고기 스테이크와 디저트가 괜찮음. 주류는 와인 칵테일 맥주등이 무제한인데 많이 드시려면 와인추천. 나머지 칵테일류에는 사이다가 들어가 배가부르고 맥주도 마찬가지.}{19: 별표 5개 -1년 전-친구들 연인 가족들 모임에서 즐길수 있는 장소로 강추요^^확실하게 입맛 사로잡는 적당한 가지수의 음식과 주당들이 좋아할만하게 무한제공되는 와인 맥주 음료.일단한번 가보셔요&lt;U+0001F60D&gt;}{18: 별표 5개 -2주 전-작지만 알차다!}{17: 별표 5개 -1년 전-부페 사이즈가 아담해 혼잡하지 않아서 맘에듬 해산물이 싱싱함 직화요리 퀄리티도 좋음 수준급의 파티셰 디저트}{16: 별표 5개 -10달 전-음식 메뉴는 적지만 퀄리티가 굉장히 좋았다}{15: 별표 5개 -1년 전-음식 모두 만족! 기억나는 연어♡♡마무리는 망고맛 마카롱♡♡♡}{14: 별표 4개 -1달 전-음식은 깔끔하고 좋았어요. 공간이 좀 협소한 느낌이 조금 아쉬움이 있어요.}{13: 별표 4개 -3달 전-음식 맛이 괜찮음 뷔페에서 나오는 해산물들 퀄리티가 훌륭하로 서비스도 아주 좋음 다만 가격대비 품목수구 적다}{12: 별표 5개 -2주 전-가성비 정말 좋은 뷔페. 알차다.}{11: 별표 4개 -5달 전-호텔 뷔페치고 살짝 스케일이 작은 느낌이만 가격이 비교적 합리적이고 있을 건 다 있고 맛있다.}{10: 별표 4개 -1년 전-가성비대비 음식의 퀄리티가 좋았습니다! 타 호텔부페보다 음식의 종류가  많지는 않았지만 알차게 구성되어있었구요 특히 스테이크와 회를 맛있게 먹었습니다~다만 음식먹는내내 모기와의 전쟁을...ㅜㅜ}{9: 별표 4개 -1주 전-맛이 좋습니다. 새우가 특히 맛나요}{8: 별표 5개 -1달 전-위치도 좋고 한강에서 가볍게 놀다가 바베큐요리들로 하루를 마무리하고 싶을때 딱이에요!}{7: 별표 4개 -1년 전-음식 종류는 많지 않지만 바로바로 조리해서 주시고 음식 퀄리티도 매우 좋음. 스시도 2개 이상은 만들어놓지 않으시고 신선하게 제공}{6: 별표 5개 -7달 전-생일에 여친님의 선물로 오게된 켄싱턴호텔 뷔페...스테이크 너무 맛있고 해산물 최고 신선함.. jmt..  음식들이 엄청 다양하진 않아서 처음엔 좀 아쉽다 생각들었지만 먹고나선 정말 대만족... 오히려 딱 적당하다 생각듬... 어디 어설픈 종류많고 맛없는 뷔페보다 음식 하나하나 다 맛있고 종류 적당한게 최고인듯... 또와야지.. 커피만 마시고 나간다...}{5: 별표 5개 -1달 전-사람많지않고 가성비 좋음. 메뉴는 많지 않지만 퀄리티 괜찮고 무제한으로 제공하는 와인도 나쁘지않음.(레드와인 괜찮고 화이트와인 별로) 재방문의사 있음.}{4: 별표 3개 -2주 전-음식 종류는 많지 않은데 퀄리티가 전반적으로 나쁘지 않아서 가성비로 괜찮네요. 다만 여름 프로모션으로 그릴링 음식을 추가하신 같은데 환기시설이 충분치 않아서인지 업장 전체에 구름낀 듯 연기가 자욱한 건 조금 불편했네요. 맥주도 무제한이고 선어회와 삼겹살 요리 등은 맛있게 잘 먹었습니다.}{3: 별표 5개 -3달 전-호텔뷔페치고 구성이 작다고 할수 있지만 매우 알차게 메뉴가 구성되어 있어 딱히 거를 타선이 없다는게 가장 큰 장점이다.간단한 와인이나 생맥주도 무제한으로 이용이 가능하다.그릴메뉴는 LA갈비 양갈비 채끝등심이 있으며 이중 채끝등심은 직원에게 말하면 직접 테이블로 서빙해준다.}{2: 별표 4개 -6일 전-사실 뷔페가 이정도면 굉장히 괜찮다. 다만 주력 메뉴에 집중해서 퀄리티가 좋은 대신 가격대에 비해 구성이 다양하지 않아 아쉬울 수 있는 곳. 하지만 이 가격대에 주력 메뉴들을 이 퀄리티로 먹을 수 있다는 건 대단한 장점.}{1: 별표 4개 -1달 전-평일 런치이지만 거의 만석이었음. 혹시 모르니 미리 전화하고 예약을 하는게 좋을 것 같음. 음식 종류는 많은건 아니지만 음식 한가지한가지 정성스럽게 요리가 되어있음. 샐러드 디저트 해산물 그릴메뉴 모두 다 평균 이상. 가성비 괜찮은곳.}</t>
   </si>
   <si>
     <t>야마야</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의대로 66</t>
+  </si>
+  <si>
     <t>{329: 별표 3개 -1달 전-}{328: 별표 4개 -2달 전-}{327: 별표 5개 -6달 전-}{326: 별표 5개 -3년 전-}{325: 별표 4개 -11달 전-}{324: 별표 5개 -6달 전-}{323: 별표 5개 -2년 전-}{322: 별표 1개 -10달 전-}{321: 별표 5개 -1년 전-}{320: 별표 4개 -1년 전-}{319: 별표 4개 -3년 전-}{318: 별표 4개 -1년 전-}{317: 별표 3개 -1년 전-}{316: 별표 5개 -1년 전-}{315: 별표 5개 -1년 전-}{314: 별표 4개 -2년 전-}{313: 별표 4개 -1년 전-}{312: 별표 3개 -2년 전-}{311: 별표 5개 -1년 전-}{310: 별표 1개 -2년 전-}{309: 별표 4개 -6달 전-}{308: 별표 5개 -6달 전-}{307: 별표 4개 -7달 전-}{306: 별표 4개 -1달 전-}{305: 별표 5개 -8달 전-}{304: 별표 4개 -1년 전-}{303: 별표 3개 -1년 전-}{302: 별표 5개 -1년 전-}{301: 별표 5개 -1년 전-}{300: 별표 5개 -11달 전-}{299: 별표 4개 -7달 전-}{298: 별표 4개 -2년 전-}{297: 별표 4개 -1년 전-}{296: 별표 3개 -2달 전-}{295: 별표 4개 -1년 전-}{294: 별표 4개 -3년 전-}{293: 별표 2개 -11달 전-}{292: 별표 5개 -2년 전-}{291: 별표 4개 -1년 전-}{290: 별표 3개 -1년 전-}{289: 별표 4개 -2년 전-}{288: 별표 5개 -1달 전-}{287: 별표 4개 -2년 전-}{286: 별표 5개 -2년 전-}{285: 별표 5개 -11달 전-}{284: 별표 5개 -2년 전-}{283: 별표 3개 -1년 전-}{282: 별표 4개 -8달 전-}{281: 별표 5개 -7달 전-}{280: 별표 2개 -3년 전-}{279: 별표 5개 -2년 전-}{278: 별표 4개 -1달 전-}{277: 별표 5개 -1년 전-}{276: 별표 4개 -8달 전-}{275: 별표 4개 -10달 전-}{274: 별표 4개 -1년 전-}{273: 별표 4개 -1년 전-}{272: 별표 5개 -9달 전-}{271: 별표 5개 -2년 전-}{270: 별표 3개 -1년 전-}{269: 별표 4개 -10달 전-}{268: 별표 3개 -1년 전-}{267: 별표 5개 -2년 전-}{266: 별표 5개 -1년 전-}{265: 별표 4개 -2년 전-}{264: 별표 4개 -2년 전-}{263: 별표 5개 -6달 전-}{262: 별표 4개 -1년 전-}{261: 별표 5개 -1년 전-}{260: 별표 4개 -3년 전-}{259: 별표 4개 -1년 전-}{258: 별표 4개 -2년 전-}{257: 별표 4개 -2달 전-}{256: 별표 5개 -11달 전-}{255: 별표 4개 -2년 전-}{254: 별표 4개 -7달 전-}{253: 별표 3개 -8달 전-}{252: 별표 5개 -10달 전-}{251: 별표 5개 -1년 전-}{250: 별표 5개 -2년 전-}{249: 별표 3개 -2년 전-}{248: 별표 5개 -1년 전-}{247: 별표 4개 -2년 전-}{246: 별표 4개 -3년 전-}{245: 별표 5개 -2년 전-}{244: 별표 4개 -1년 전-}{243: 별표 5개 -11달 전-}{242: 별표 4개 -2년 전-}{241: 별표 3개 -2년 전-}{240: 별표 3개 -1년 전-}{239: 별표 4개 -1년 전-}{238: 별표 4개 -1년 전-}{237: 별표 4개 -3년 전-}{236: 별표 5개 -3달 전-}{235: 별표 4개 -2년 전-}{234: 별표 3개 -1년 전-}{233: 별표 4개 -2년 전-}{232: 별표 4개 -2년 전-}{231: 별표 3개 -1년 전-}{230: 별표 5개 -2년 전-}{229: 별표 5개 -3년 전-}{228: 별표 4개 -1년 전-}{227: 별표 3개 -5달 전-}{226: 별표 5개 -2년 전-}{225: 별표 3개 -3주 전-}{224: 별표 1개 -6달 전-}{223: 별표 4개 -2년 전-}{222: 별표 3개 -1년 전-}{221: 별표 5개 -2년 전-}{220: 별표 3개 -2년 전-}{219: 별표 4개 -2년 전-}{218: 별표 4개 -2년 전-}{217: 별표 3개 -11달 전-}{216: 별표 5개 -1년 전-}{215: 별표 4개 -8달 전-}{214: 별표 4개 -2년 전-}{213: 별표 4개 -2년 전-}{212: 별표 1개 -2년 전-}{211: 별표 5개 -1년 전-}{210: 별표 3개 -1년 전-}{209: 별표 4개 -11달 전-}{208: 별표 3개 -1년 전-}{207: 별표 5개 -1달 전-}{206: 별표 5개 -2년 전-}{205: 별표 3개 -1년 전-}{204: 별표 1개 -11달 전-}{203: 별표 4개 -11달 전-}{202: 별표 2개 -6달 전-}{201: 별표 4개 -8달 전-}{200: 별표 4개 -7달 전-}{199: 별표 3개 -11달 전-}{198: 별표 4개 -1년 전-}{197: 별표 5개 -2년 전-}{196: 별표 4개 -1년 전-}{195: 별표 4개 -2년 전-}{194: 별표 3개 -10달 전-}{193: 별표 4개 -2년 전-}{192: 별표 2개 -2년 전-}{191: 별표 3개 -1년 전-}{190: 별표 3개 -2년 전-}{189: 별표 1개 -2년 전-}{188: 별표 5개 -2년 전-}{187: 별표 5개 -1년 전-}{186: 별표 3개 -1년 전-}{185: 별표 5개 -7달 전-}{184: 별표 5개 -11달 전-}{183: 별표 4개 -2년 전-}{182: 별표 2개 -1년 전-}{181: 별표 5개 -1년 전-}{180: 별표 5개 -1년 전-}{179: 별표 5개 -2년 전-}{178: 별표 4개 -5달 전-}{177: 별표 4개 -3년 전-}{176: 별표 5개 -5달 전-}{175: 별표 4개 -2달 전-}{174: 별표 5개 -2년 전-}{173: 별표 5개 -1년 전-}{172: 별표 4개 -11달 전-}{171: 별표 3개 -1년 전-}{170: 별표 3개 -1년 전-}{169: 별표 4개 -1년 전-}{168: 별표 3개 -8달 전-}{167: 별표 4개 -11달 전-}{166: 별표 3개 -2년 전-}{165: 별표 3개 -1년 전-}{164: 별표 5개 -1년 전-}{163: 별표 5개 -11달 전-}{162: 별표 5개 -7달 전-}{161: 별표 5개 -9달 전-}{160: 별표 4개 -1달 전-}{159: 별표 5개 -2년 전-(Google 번역 제공) 좋은(원문)Good}{158: 별표 5개 -2년 전-(Google 번역 제공) 좋은(원문)Good}{157: 별표 3개 -2년 전-(Google 번역 제공) 맛있는. 트리 프 전문(원문)Yummy. Tripe specialized}{156: 별표 3개 -2년 전-(Google 번역 제공) 나쁘지 않아(원문)not too bad}{155: 별표 5개 -2년 전-(Google 번역 제공) 입구를 찾기가 어렵지만 방문 할 가치가 있습니다.(원문)Hard to find entrance but worth visiting}{154: 별표 4개 -3년 전-(Google 번역 제공) 소금에 절인 대구 알을 무제한으로 리필하여 점심을 선택하십시오.(원문)Good lunch selection with unlimited refills of salted cod roe at reasonable price.}{153: 별표 3개 -1년 전-(Google 번역 제공) 퓨전 일본어. 맛이 좋지만 맛은 약간 비쌉니다.(원문)Fusion Japanese.  Tastes all right but bit expensive for the food quality.}{152: 별표 4개 -1년 전-(Google 번역 제공) 맛있다. 완전히 일본의 맛. 가격은 높다.(원문)美味しい。完全に日本の味。&lt;U+4FA1&gt;格は高め。}{151: 별표 3개 -3년 전-(Google 번역 제공) 다양한 술이나 요리가 없습니다. 따라서 서버는 때때로 손님의 주문을 잊어 버립니다.(원문)It does not have diverse sakes or dishes. Therefore servers sometime forget guests' orders.}{150: 별표 4개 -1년 전-(Google 번역 제공) 일본 수프 MotzeNabe '-'bb(원문)Japanese soup MotzeNabe ' - ' bb}{149: 별표 3개 -1년 전-(Google 번역 제공) 점심 시간에 무한 명찰 방문!요리는 일반적으로 내 취향에 약간 짠 맛입니다.(원문)Visit during the lunch time for unlimited 명란!Dishes are generally a little salty on my taste.}{148: 별표 4개 -2년 전-(Google 번역 제공) 멋진 점심 장소. 점심 세트는 모두 맛있고 서비스는 매우 빠릅니다. 11.30에서 12.30 사이에 매우 바쁩니다. 생선 알을 무제한 리필하여 돈을 위해 가치가 있습니다.(원문)Great lunch spot. Lunch sets are all delicious and service is very fast. It gets very busy between 11.30 to 12.30. Unlimited refill for fish roe so it’s value for money.}{147: 별표 4개 -1년 전-(Google 번역 제공) 일본인 친구에게 소개되고 처음갔습니다 일본인이 좋아하는 일본의 맛을 또 먹고 싶어 다시 방문했습니다. 주위는 한국인 뿐이지 만 맛은 틀림 없었습니다! ! 단지 가격이 점심 1300 엔이므로 높다. .(원문)日本人の友達に紹介されて初めていきましたが日本人が好きな、日本の味でまた食べたくなり再訪問しました。周りは韓&lt;U+56FD&gt;人ばかりだけど、味は間違いなかったです！！ただ値段がランチ1300円なので高め。。}{146: 별표 3개 -2년 전-나쁘지않음}{145: 별표 3개 -2년 전-모츠나베 꿀맛}{144: 별표 4개 -1년 전-안주 가격이 비쌈}{143: 별표 5개 -2년 전-명란 계란말이.  명란소스 닭튀김 술안주 짱이죠.}{142: 별표 5개 -2년 전-맛나요}{141: 별표 4개 -1년 전-모츠나베가 맛있음}{140: 별표 4개 -2년 전-무난무난}{139: 별표 2개 -1년 전-좀 비싸요.}{138: 별표 3개 -1년 전-엄청 시끄럽네요;;}{137: 별표 4개 -1년 전-조아요}{136: 별표 4개 -1년 전-느끼하다}{135: 별표 3개 -5달 전-명란의 향연.}{134: 별표 1개 -1년 전-ㅅㅂ}{133: 별표 4개 -1년 전-맛 좋아요}{132: 별표 3개 -2년 전-의자가 바지소재에 따라 나무가루가 묻는경우가잇음}{131: 별표 4개 -1년 전-점심 예약만 되면 좋으련만}{130: 별표 3개 -1년 전-그냥그래요}{129: 별표 4개 -2년 전-맛있어요. 조금 짜요 ㅎ}{128: 별표 2개 -1년 전-비싸고 딱히 맛집이라고 하긴 애매}{127: 별표 5개 -2년 전-점심시간에는 명란젓갈이 무한 제공됨}{126: 별표 4개 -1년 전-맥주 먹기 좋네요}{125: 별표 5개 -2년 전-매우 좋아하는 곳!! 다만 보통 소주는 아예 없고 화요 및 사케 맥주류만 판매하니 알고 가세요!}{124: 별표 4개 -1년 전-명란이 맛나요}{123: 별표 3개 -2년 전-점심메뉴외 그외는 비추. 가격은 청담 양은 창렬}{122: 별표 5개 -1년 전-곱창전골 짱맛!}{121: 별표 2개 -2년 전-비싸지만 맛은 평범함}{120: 별표 4개 -2년 전-맛있다. 맛있다. 정말 괜찮다.}{119: 별표 1개 -8달 전-돼지 냄새남}{118: 별표 3개 -2년 전-일본 야마야에 비해서는 떨어지는 느낌 ㅠ}{117: 별표 3개 -1년 전-가격은비쌈 명란젓 성애자들은 본전뽑을수있을듯 점심메뉴는 고등어 대창 이런거보다 그냥 치킨밥이 제일무난함}{116: 별표 4개 -2년 전-붐비지않을 시간에 가면 더 좋을듯}{115: 별표 4개 -2년 전-명란을 좋아하신다면 추천합니다}{114: 별표 4개 -7달 전-오사카에 온줄^^}{113: 별표 4개 -2년 전-분위기도 조용허고 정갈하니 맛있는데 좀 짜요.}{112: 별표 4개 -9달 전-맛있었고 가격 쎈편.}{111: 별표 4개 -4년 전-명란젓을 무제한 먹을 수 있다니!!!ㅋㅋㅋㅋ}{110: 별표 4개 -2년 전-대창 점심메뉴 추천해요~ 입에서 녹아요}{109: 별표 4개 -3년 전-명란이 유명한 여의도 맛집 점심때는 11시반까지 모든 멤버가 다 와 있어야 입장가능. 이후 잠시 기다릴 수 있음}{108: 별표 3개 -1년 전-주말런치는 모츠나베 안돼요ㅠㅠ}{107: 별표 1개 -2년 전-가격 비싸고 음식은 적고 짜다점심 1.3만원(일본에서 880엔짜리 수준)인원 다 모여야 자리 안내(주인장 갑질로 보일 수 있음)여의도 퓨전일식(규수 하카다풍)}{106: 별표 4개 -2년 전-가격대는 좀 있는 편. 맛있고 분위기 좋습니다.}{105: 별표 4개 -1년 전-분위기 좋은데 음식은 좀 짬}{104: 별표 3개 -3년 전-소대창된장소스볶음.. 좋아요..!! }{103: 별표 1개 -1년 전-돈아까움 대박}{102: 별표 3개 -2년 전-깔끔한 맛이에요. 여의도에서 인테리어 분위기는 괜찮고 맛도 깔끔하지만 가격이 좀 높다는게 단점.}{101: 별표 3개 -2년 전-공격적인 명란젓 섭취는 오후의 피로와 부은 손으로 귀결된다.}{100: 별표 3개 -1년 전-어리버리한 서빙보는 분 덕분에 식사내내 불편}{99: 별표 5개 -3년 전-맛있지만 비쌈}{98: 별표 3개 -1년 전-맛이 기억이 잘 안남;;;}{97: 별표 3개 -1년 전-가끔씩 먹고 싶은 음식}{96: 별표 3개 -2년 전-여의도에서 가볍게 일식 이자카야를 느낄수 있는 집입니다 여의도 답게 가격대는 양에비해 좀 있습니다 단품 가격은 저렴하나 양도 작기에...}{95: 별표 4개 -9달 전-모츠나베가 괜찮았어요!}{94: 별표 4개 -9달 전-대창볶음  닭튀김 맛있음}{93: 별표 3개 -1년 전-맛은 좋으나 가성비가 좋은지 의문임}{92: 별표 4개 -2년 전-깔끔한 안주와 주류를 즐길 수 있는 곳.}{91: 별표 3개 -2년 전-점심에만 가봤어요. 비싸네요. 명란젓은 좋아요. 음식은 전체적으로 짜요}{90: 별표 3개 -1년 전-맛있고 서비스가 좋다. 하지만 계단 뿐이라 접근이 어렵다.}{89: 별표 3개 -2년 전-모츠나베 맛은 있는데 엄청 맛있다 정도까진 아님.. 가격 꽤 있는 편이나 후쿠오카 현지에선 보통 자릿세 받으므로 감안 가능}{88: 별표 5개 -1년 전-점심에는 셋트메뉴가 좋은저녁에는 가볍게 한잔하기 좋은~}{87: 별표 4개 -1년 전-간단한 술과 안주 먹기 좋아요}{86: 별표 3개 -1년 전-맛도좋고 위치도 좋고 하지만 가격이 좀 비싸요}{85: 별표 3개 -2년 전-점심시간에 종종 들리는 음식점입니다. 기본 반찬으로 명란젓갈을 줍니다. 런치 메뉴는 다 무난합니다만 대창 볶음은 양이 매우 적습니다.}{84: 별표 4개 -3년 전-맛은 좋은데 양이 적어요. ㅠ }{83: 별표 4개 -3년 전-맛있다. 명란젓으로 무얼 하든 맛 없을 수가 없다. 분위기도 괜찮다. 다만 그 가격만큼 맛있는 지는 장담할 수 없다.}{82: 별표 2개 -1년 전-전체적으로 음식이 짬 참이슬이나 프래쉬 없음 비싼술 시켜야함 다른분들이 남긴 음식평 90% 정확함}{81: 별표 4개 -1년 전-가격은 비싸지만 맛은 보장된 곳. 한번쯤 가봄직하다 ^^}{80: 별표 5개 -1년 전-일본식 가정집백반 느낌 특히 명란이 일품}{79: 별표 3개 -7달 전-아재 입장에선 쏘쏘}{78: 별표 4개 -3년 전-분위기 좋은 사케집..눈 오는 날 더 좋아요..술 값이 조금 부담 되요..ㅜ}{77: 별표 3개 -1년 전-괜찮은 밥집. 호불호가 갈리니 감안하세요. 명란젓 좋아요.}{76: 별표 4개 -1년 전-맛있어 보이기도 하고 맛이 없는 건 아닌데.. 뭔가 딱 입맛에 맞지는 않는 느낌.. 느끼함도 좀 있음. 개인 취향 차이가 좀 있을 것 같음.}{75: 별표 5개 -1년 전-분위기도 좋고 명란계란말이 짭짤하면서 맛있었다}{74: 별표 3개 -8달 전-가격도 맛도 별로..}{73: 별표 3개 -1년 전-큰 특징없는 이자까야. 나베는 곱창의 품질개선이 필요할 듯}{72: 별표 4개 -1년 전-연어카프라제와 맥주 먹기좋은 곳}{71: 별표 3개 -9달 전-맛있네요 근데 좀 짜요}{70: 별표 5개 -1년 전-이자카야로 점심 특선도 좋고 저녁에 간단히 한 잔하기 좋은 곳}{69: 별표 5개 -1년 전-여기는 제 페이보릿 플레이스! 간장나베에 야끼만두 에 생맥주하면 캬아~!! 친구한테도 항상추천하는곳이에요!!}{68: 별표 4개 -1년 전-무난하게 한 끼 먹을 수 있는 집이고 명란젓 무제한 리필됩니다.}{67: 별표 1개 -1년 전-야마야 단골입니다. 개인적으로 좋아하는 집이어서 다른 사람들한테도 많이 소개해줬었죠. 오늘 방문하고 완전 실망했습니다. 앞으로 다시 갈 일은 없을 듯. 장사좀 된다고 손님 알기를 우습게 아네요.}{66: 별표 3개 -1년 전-회식 안주로서는 전반적으로 메뉴가 느끼함. 의외로 점심 식사는 나쁘지 않았음}{65: 별표 5개 -7달 전-안주가 다 맛나요}{64: 별표 2개 -1년 전-주말에 가지 마세요~여의도는 주말에 식당을 잘 골라 가셔야 합니다}{63: 별표 4개 -1년 전-깔끔한 안주깨끗한 내부다만 너무 시끄러움 ㅜ}{62: 별표 4개 -11달 전-점심 시간에는 대기가 많습니다}{61: 별표 4개 -1년 전-여의도 직장인들이 애용하는 선술집. 분위기 좋음. 가격은 사악함. 곱창 찌개?던가 매운 스키야키 요리는 곱창이들어감. 아주맛있음.}{60: 별표 4개 -1년 전-대체로 무난한 이자까야. 주로 낮에 점심먹으러 가곤 했는데 점심 치고는 가격도 세고 많이 기다려야 해서 특별히 올있을때 예약하고 많이 갔었어요.얼마전에는 저녁에 방문했는데 금요일이라 그런지 단체 회식 손님도 별로 없고 생각보다는 많이 붐비지 않았습니다.다만 시킨지 20분이 넘도록 나베가 안나와서 좀 불편했어요. 다른 식당에 다 있는 호출벨이 없어서 일일이 넓은 홀에서 점원 부르는게 조금 불편했습니다.음식은 무난하고 양이…}{59: 별표 5개 -1년 전-일단 맛있고 양도 가격도 딱 좋습니다! 명란젓이 정말 맛있음... 평일 런치는 직장인 점심시간이라 붐비고 웨이팅 10~20분 있음}{58: 별표 4개 -9달 전-괜찮은데 값이 약간 비싼 편입니다}{57: 별표 4개 -1년 전-일본식 곱창전골 한번쯤 먹을만 하네요. 전체적인 분위기가 좋고 인테리어도 깔끔해요.}{56: 별표 3개 -1년 전-맛있음. 하지만 비싸다. 13000원. 여의도에서는 어쩔수 없나..}{55: 별표 3개 -1년 전-맛있지만 서비스 마인드 부족. 약간비싼느낌}{54: 별표 4개 -6달 전-직장인 점심먹기 좋습니다}{53: 별표 3개 -1년 전-맛은 괜찮은 편. 소주만 안파는것 같더라구요.. 고집이신지 사정이 있으신건지 아무튼 모츠나베에 소주 좋아하는 입장에서 소주가 아쉬운마음에 3점..}{52: 별표 4개 -9달 전-짭니다 그러나 계속 먹게되는 중독적인맛입니다}{51: 별표 2개 -1년 전-맛은 있으나  나베와 감바스 비슷한거랑 명란들어간 국밥같은거 먹고 현재 시각 오전 02:54분까지 설사함. 일행도 설사함. 매우 힘듬P.s 아침까지 설사로 고생중입니다.}{50: 별표 3개 -2년 전-1인당 2~3만원 정도 수준으로 괜찮은 이자카야를 즐길 수 있음. 메뉴가 전반적으로 매력적이고 맛도 준수한 편. 소주를 팔지 않아 조금 아쉬웠습니다. IFC 에서 가까워서 접근성도 좋은편입니다.}{49: 별표 4개 -6달 전-맛있고 분위기도 굿 나베전문점}{48: 별표 5개 -8달 전-분위기도맛도좋은데 쫌비쌈}{47: 별표 5개 -2년 전-대창파구이가 초초존맛 . 하지만 덮어두고 먹으면 거지꼴을 못면하는 사악한 가격. 그래도 재방문의사 다분함.}{46: 별표 1개 -1달 전-최악의 가성비}{45: 별표 5개 -5달 전-맛있고 좋아요}{44: 별표 5개 -6달 전-대창덮밥 ㅠㅠ 맛있어.. 명란젓도 최고}{43: 별표 3개 -1년 전-그냥 일본 가정식 비스므리한 이자카야임. 오챠즈케 같은건 상당히 비추. 명란젓이 무제한인것이 장점. 점심먹기 나쁘진 않은데 딱히 좋지도 않음}{42: 별표 2개 -1년 전-후쿠오카를 갔다온지 얼마 안되서 먹었는데.. 일단 얼큰한 맛을 먹었는데 고추장 찌개에 대창을 넣은 느낌이었다.. 맥주도 처음 거품은 좋은데.. 생맥주 같지 않다.. 신선하지 않다.. 가격도.. 에휴.. 다신 안갑니다..}{41: 별표 3개 -7달 전-음식이 맛있고 생맥주가 잘 관리됩니다. 음식이 나오는 속도가 느리고 가격이 비싼 편입니다.}{40: 별표 2개 -1년 전-가면 갈수록 맛이 떨어짐....특히 곱창전골은 절대 시켜선 안되는 음식.....곱창이 아무리 씹어도 씹혀 지질 않음. 스테이크도 질기고....여긴 그냥 명란 계란말이 정도가 딱 알맞은 안주....}{39: 별표 4개 -1년 전-대창이 질기지않고 냄새도 나지않아 맛있지만 역시 양대비 가격은 사악하다. 여러명이 먹는다면 비행기표사서 후쿠오카에 가서 먹는게 남는 장사일수도 있는. 마지막에 죽추가해서 국물에 밥을 끓였는데 일본에서 흔히 구매할수있는 오야코동 베이스 소스에 계란추가해서 죽을 끓인 맛이었다. 죽추가 추천. 고소하고 맛있다.}{38: 별표 4개 -9달 전-직원분들 친절하고 모쯔나베 맛있었어요 다만 야부리명란구이가 엄청짯어요 아무튼 잘먹었습니다}{37: 별표 5개 -2달 전-비싸지만 맛있는 곳}{36: 별표 5개 -6달 전-페럼 타워만 몇 번 가 보고 여의도는 첨인데 모츠 나베는  진짜 맛있징:)}{35: 별표 5개 -3년 전-수요일 저녁 각종 모임으로 빈자리가 없습니다.된장소스 모츠나베와 면사리 먹었는데 곱창도 많고 함께 들어간 양배추와 두부도 맛있네요.주문하면 살짝 끓여서 나오고 자리에서 직원이 조리를 도와줍니다.생맥주와 사케가 종류별로 준비되어 있어 술한잔 하기 좋은 곳이에요.}{34: 별표 3개 -2년 전-명란을 좋아한다면 추천하지만 모든 다른 식사류는 매우 미묘한 맛 을지로 점도 여의도 점도 사람이 많음}{33: 별표 5개 -5달 전-맛난 음식이 많아요. 가성비는 쏘쏘}{32: 별표 4개 -7달 전-적당한 가격의 소량 안주를 판매하여 혼술 2차등으로 가기에 적당함}{31: 별표 5개 -9달 전-맛있어요. 명란하고 시래기무침? 도 밥도둑으로 맛있네요}{30: 별표 5개 -3년 전-런치정식이 조금은 비싸지만 명란과 밥을 무한대로 먹을수 있습니다}{29: 별표 2개 -1년 전-쌀밥을 시키면 바로 만들어서 주는걸로 알았는데 해놓은것을 가져다 주는걸로 알았는데 해둔것을 가져가줌 표면이 살짝 말라있고 밥향이 별로 안남 하이볼은 위스키비율이 적어서 밍밍함 전골은 냄새 하나도 안나고 맛있음 친절도는 특별히 친절하지도 불친절하지도 않음}{28: 별표 4개 -5달 전-야마야 시샤모 존맛탱 여기 나베정말 잘해여}{27: 별표 3개 -6달 전-분위기는 좋은데 비쌈곱창전골의 곱창이 너무 작고 적음그래도 가고싶다}{26: 별표 3개 -6달 전-퇴근 후 간단하게 한잔하기 좋은 곳인데 너무 퓨전 일식이라 제겐 별로였어요}{25: 별표 3개 -5달 전-한끼 먹음 든든~~한 곱창전골 뚝딱하면 든든합니다. 지갑은 심하게 가벼워집니다ㅠ}{24: 별표 4개 -2주 전-맛있다 명란}{23: 별표 3개 -5달 전-일본식 밥집. 일본 스타일은 맞는데 맛은 한국식. 많이 비싸요.}{22: 별표 5개 -2년 전-맛나다 부터 나오는게 맞는 곳이네요반찬으로 나오는  명란이 짜지도 않고 좋습니다밥이랑 명란도 무한리필해주고기본 메뉴들도 맛있습니다점심때 맛나게 든든하게 먹었네요}{21: 별표 2개 -1년 전-점심 정식이 있는데 하도 창렬스럽다는 얘길들어서 모츠나베 정식을 먹음와..근데 왜 이 가격이지 하는 생각을 가지고 먹음엄청 짜고(참고로 난 짠걸 좋아해서 잘 먹긴 햇다)}{20: 별표 4개 -3주 전-가끔 가는 곳입니다.가격이 약간 있는 편이지만 나베 대창요리나 닭튀김등이 맛있습니다!}{19: 별표 5개 -2년 전-점심때는 명란젓 무제한! 1인 1.3만원.다만1.일행이 다 오거나2.일행의 주문을 다 해야만 입장이 가능하다.닭튀김 정식과 생선구이 정식.}{18: 별표 4개 -9달 전-추운날 방문해서 뜨끈한 모츠나베 한 그릇 너무 잘 먹었습니다.간이 짭짤하지만 그게 모즈나베의 매력. 후쿠오카 갔을때 먹었던 맛이 생각나서 좋았어요}{17: 별표 4개 -1년 전-음식 맛이고 분위기 좋은데 단 울림으로 인해 대화 힘듬}{16: 별표 4개 -1년 전-점심 한정 명란젓 무제한이 매우 굿.네 가지 세트중에서 개인적으론 가메니 추천 ^^}{15: 별표 5개 -1년 전-여의도에서 곱창전골(나베)가 맛있는 이자까야입니다. 여의도 증권가 한복판에있구요 다좋은데 저녁에는 가격이 조금 비싸다는 단점이있습니다. 맛은 나베든 사이드메뉴던 대체로 훌륭하구요 맥주 하이볼 사케 종류 위주로 판매합니다.저녁보다는 점심메뉴들이 가성비고려시 나쁘지않은것 같구요 특히 식사때 명란을 주기때문에... 명란좋아하시는 분들은 꼭 가보시면 좋을것 같아요. 무엇보다 식당 분위기가 나쁘지않습니다. 넓은 좌식 테이블들이구요 창밖을보며 앉는 테이블도있습니다. 종합적으로 추천드리는 맛집입니다.}{14: 별표 4개 -6달 전-깔끔하고 맛깔난 일본식 음식..데이트 코스로 좋아보여요}{13: 별표 4개 -3년 전-명란과 모츠나베가 맛있는 집.일반소주는 안팔아요.저녁에는 예약 필수입니다.}{12: 별표 4개 -7달 전-이번이 3번째 방문 합니다.  여전히 맛있고 연말에  분위기.내기 좋은 인테리어로 이루어져 있어요. 오차쯔케를 처음 시켜 봤는데 맛은 있는데 너무 짰어요 ㅠ 그밖에 곱창 전골 등등은 너무 맛있어요. 하지만 양이 가격에 비해ㅠ 적네요}{11: 별표 5개 -3달 전-일본식 나베의 특색을 느끼기 좋음. 소주보다 맥주 강추}{10: 별표 3개 -7달 전-분위기 좋고 깔끔하지만 맛있는지는 잘 모르겠다. 연어도 살이 좀 무른 느낌이고.. 특히 양이 너무 적어서 안주를 여러개 시켜야한다.}{9: 별표 4개 -5달 전-일본 본토 수준의 일식을 즐길 수 있는 곳 가격은 비싸다..}{8: 별표 5개 -3주 전-비록 대창의 양은 적었지만 너무 맛있었어요..!!된장대창+모츠나베 짱짱}{7: 별표 3개 -1달 전-생각보다 사람이 많아서 시끄러움나베는 곱창?이 들어가서 고소하고 맛있음소주가 없어서 술값이 더 나오는 곳}{6: 별표 3개 -2달 전-사람 많음. 명란젓은 일본 야마야보다는 별루}{5: 별표 2개 -1달 전-마치 그럴듯해 보이는 마케팅(소주없음 자칭 명란이 맛있다고함 본토맛의 식당?)이지만 요란하고 속은 허한 가성비 매우 낮은 식당여의도는 맛집이 없나..그런데 사람은 많아서 의아했던 곳젤 맛있었던게 요리가 아닌 생맥....}{4: 별표 4개 -3달 전-종로 말고 여의도 에도 있다해서 방문 . 낮에는 런치세트로 깔끔하고 간편하게 먹을 수 있다 다음엔 저녁에 와서 모츠나베를 끓이면서 먹고 싶다}{3: 별표 4개 -1달 전-무난한 일식 맛집. 대창정식은 많이 느끼하니 주의. 생선정식은 넘 늦게 나오므로 점심땐 패스}{2: 별표 5개 -7달 전-낮에 가끔 기름지지만 말끔한 그리고 아 이거 밥비벼먹으면 좋겠다 싶었던 술안주가 있었다면. 여기를 선택하는 것을 추천.사진또한 그런느낌입니다.성인남성이라면.. 상당히 높은확률로공기밥 한공기에는 명란 추가 한공기에는 안주비벼먹겠죠.}{1: 별표 3개 -3주 전-메뉴는 일본 현지의 이자카야 메뉴와 상당히 비슷해서 놀랐다. 맛도 현지의 맛과 비슷한 정도.  여의도 회사원들의 영향인지 비가 많이 오는 목요일 저녁에 방문했을 때에도 사람이 아주 많았고 예약이 불가라고 해서 일단 갔는데 딱 1테이블 남아있었다. 명찬치킨 모쯔나베 명란계란말이 야끼교자 및 주류 진저에일 우롱차를 주문했는데 3명이서 10만원 정도로 가격도 일본 현지 수준으로 비쌌다. 장소는 빌딜들 사이에 있어서 처음 가는 사람들은 찾기 힘들 수도 있다.}</t>
   </si>
   <si>
@@ -181,30 +258,45 @@
     <t>배꼽집</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로2길 32</t>
+  </si>
+  <si>
     <t>{116: 별표 3개 -3주 전-}{115: 별표 3개 -1달 전-}{114: 별표 4개 -2달 전-}{113: 별표 5개 -3달 전-}{112: 별표 4개 -9달 전-}{111: 별표 4개 -1년 전-}{110: 별표 3개 -7달 전-}{109: 별표 5개 -1년 전-}{108: 별표 4개 -7달 전-}{107: 별표 3개 -7달 전-}{106: 별표 3개 -6달 전-}{105: 별표 4개 -1년 전-}{104: 별표 5개 -1년 전-}{103: 별표 5개 -1년 전-}{102: 별표 3개 -9달 전-}{101: 별표 5개 -8달 전-}{100: 별표 3개 -7달 전-}{99: 별표 5개 -7달 전-}{98: 별표 1개 -9달 전-}{97: 별표 4개 -3주 전-}{96: 별표 4개 -9달 전-}{95: 별표 3개 -1년 전-}{94: 별표 4개 -3주 전-}{93: 별표 4개 -8달 전-}{92: 별표 5개 -11달 전-}{91: 별표 4개 -8달 전-}{90: 별표 4개 -6달 전-}{89: 별표 2개 -7달 전-}{88: 별표 4개 -1년 전-}{87: 별표 3개 -1년 전-}{86: 별표 4개 -1년 전-}{85: 별표 1개 -1달 전-}{84: 별표 4개 -8달 전-}{83: 별표 5개 -10달 전-}{82: 별표 5개 -1달 전-}{81: 별표 5개 -1년 전-}{80: 별표 5개 -2달 전-}{79: 별표 3개 -6달 전-}{78: 별표 1개 -11달 전-}{77: 별표 3개 -9달 전-}{76: 별표 4개 -8달 전-}{75: 별표 3개 -5달 전-}{74: 별표 4개 -1년 전-}{73: 별표 4개 -1년 전-}{72: 별표 5개 -1년 전-}{71: 별표 5개 -10달 전-}{70: 별표 5개 -8달 전-}{69: 별표 5개 -8달 전-}{68: 별표 4개 -8달 전-}{67: 별표 3개 -1달 전-}{66: 별표 5개 -10달 전-}{65: 별표 4개 -6달 전-}{64: 별표 4개 -10달 전-}{63: 별표 5개 -10달 전-}{62: 별표 3개 -7달 전-}{61: 별표 5개 -9달 전-}{60: 별표 3개 -1달 전-}{59: 별표 5개 -1년 전-}{58: 별표 3개 -7달 전-}{57: 별표 4개 -1년 전-}{56: 별표 4개 -8달 전-}{55: 별표 3개 -9달 전-}{54: 별표 5개 -10달 전-}{53: 별표 5개 -3주 전-}{52: 별표 5개 -1주 전-}{51: 별표 5개 -3주 전-}{50: 별표 3개 -3달 전-}{49: 별표 4개 -2달 전-}{48: 별표 3개 -1년 전-(Google 번역 제공) 그래서 ~ ~ ...(원문)So~ so...}{47: 별표 4개 -3일 전-양곰탕 맛있어요! 저녁에도 가보고싶네요}{46: 별표 1개 -1년 전-불친절}{45: 별표 5개 -1년 전-맛있어요}{44: 별표 3개 -1년 전-깔끔함.}{43: 별표 4개 -6달 전-갈비}{42: 별표 3개 -11달 전-갈비탕 나쁘지 않음}{41: 별표 3개 -1년 전-냉면 좋음}{40: 별표 4개 -1년 전-무난함}{39: 별표 2개 -1년 전-두번은 안갈듯..}{38: 별표 4개 -1년 전-평타 이상은 하는 곳}{37: 별표 4개 -1년 전-여의도에서 먹을만한 곳이에요}{36: 별표 5개 -5달 전-맛나요}{35: 별표 4개 -1년 전-고기가 맛있는곳}{34: 별표 3개 -6달 전-전골 요리가 맛있음}{33: 별표 4개 -1년 전-맛있다 조금 비싸다}{32: 별표 4개 -1년 전-얼큰한 국물이 일품입니다}{31: 별표 4개 -1년 전-이베리코 돼지고기로 소고기 먹는 느낌}{30: 별표 5개 -1달 전-양곰탕 12000원}{29: 별표 5개 -11달 전-고기맛나고 평양냉면 맛있는 집}{28: 별표 5개 -1년 전-이베리코 돼지고기 추천함돠}{27: 별표 5개 -1년 전-소고기 맛있습니다. 이베리코도 추천해요}{26: 별표 5개 -9달 전-양곰탕 젤루 좋아}{25: 별표 4개 -9달 전-이베리코 추천합니다}{24: 별표 5개 -1달 전-고기가 맛있습니다}{23: 별표 3개 -1년 전-배꼽집스페셜 99000주문했는데  점심시간에는 구워주질 않아요. 그럼 몬가 다른 서비스라던가 가격할인은 없이...ㅜㅜ 고기굽기 바빳네요}{22: 별표 4개 -1년 전-자주 가는 여의도 고기집 직원들 친절하고 고기질 좋음}{21: 별표 5개 -1년 전-먹을만했어요 갈비 3대는 많네요 둘이서}{20: 별표 4개 -1년 전-비싸지만 음식좋음 점심양곰탕은 처음보다 양이 확 줄은듯}{19: 별표 5개 -1년 전-점심 특선을 선택해서 먹게되면 가격은 조금 비싼면이 있으나 만족스러운 식사가능함. 다만 저녁으로 고기를 먹는다면 조금 가격이 비싸기에 부담이 될수있음.}{18: 별표 4개 -6달 전-고기 맛이 최고 입니다요}{17: 별표 4개 -7달 전-무난하지만좀 비싸요}{16: 별표 3개 -6달 전-논현동 오리지널 보다는 못미치는...}{15: 별표 4개 -1달 전-소고기 맛나요~^^}{14: 별표 5개 -2주 전-고기 맛있었음}{13: 별표 4개 -4달 전-맛있긴한데 칼부림사건때문에  무서워서 못가겟음}{12: 별표 4개 -1년 전-고기도좋고평냉도 좋고}{11: 별표 3개 -11달 전-소고기도 맛있고 이베리코돼지도 맛있는집.여의도라는 지리적 위치상 가성비는 논의불가.맛있지만 생각보다 양이 적게 느껴지고밑반찬은 보통이며 후식 냉면(평양스타일)도 비싼편임.}{10: 별표 5개 -5달 전-넘나 맛있었어요. 아이들도 넘 잘먹어요}{9: 별표 4개 -1년 전-우선 런치매뉴 가성비 좋았고요물냉 비냉  맛있었어요  다른고기 또한 엄청 맛있어보였습니다. 배가불러서 물냉곱베기 비냉 과 런치메뉴고기 맛있게 먹었어요^^}{8: 별표 3개 -8달 전-소고기와 평양냉면이 유명한집인데 오늘은 이베리코 돼지고기만 먹었습니다. 고기질 좋습니다. 밑반찬중에는 갓김치가 맛있네요. 간장게장도 괜찮긴한데 제입맛엔 심심합니다.}{7: 별표 4개 -9달 전-적당히 무난한 한우쇠고기..다 구워주심.생각보다 한우보다도 이베리코 돼지고기가 좀더 만족스러웠던 곳. 특히 돼지참갈비 좋았음.건물 1층지하라 위치가 왜 이곳에란 생각이들었었으나 큰건물지하다보니 고기집치고는 깔끔한시설~평양냉면전문점이라고도 나오는데 나름괜찮았고 또 은근히 된장찌게와 밥이 구수했던...어찌보면 메인보다 서브에서 은근한 만족을 줬던 가게.}{6: 별표 3개 -3달 전-가성비 생각하면 쉽게 갈 수 없는 곳맛도 아주 인상적이진 않음서비스는 좋은 편}{5: 별표 3개 -10달 전-배꼽집.. 참 좋아하고 자주 들리는 음식점입니다. 그러나 여의도점은 다른 지점에 비해 2% 부족한 느낌이...}{4: 별표 5개 -1달 전-돼지갈비인 참갈비 강추. 서비스 좋음}{3: 별표 3개 -5달 전-그냥 고기집. 맛있지도 맛없지도 않지만 이 가성비를 따진라다면 다른 곳을 먼저 생각할듯}{2: 별표 5개 -3달 전-모든 메뉴가 일정 수준  이상합니다. 점심때 주로 먹는 양곰탕 맵지만 맛나서 자주 갑니당.서빙직원분들이 세심하게 고객 챙기는 점이 좋습니당}{1: 별표 5개 -2달 전-여의도 최애맛집. 양곰탕만 먹는집. 최고의 양곰탕집입니다. 다른고기도 맛있지만 얼큰한 양곰탕이 일품. 가격만 비싼 여의도 음식집 중 유일하게 가성비 높은 음식집}</t>
   </si>
   <si>
     <t>아루히</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의나루로 42</t>
+  </si>
+  <si>
     <t>{126: 별표 5개 -8달 전-}{125: 별표 4개 -8달 전-}{124: 별표 5개 -7달 전-}{123: 별표 5개 -11달 전-}{122: 별표 5개 -3달 전-}{121: 별표 5개 -8달 전-}{120: 별표 5개 -7달 전-}{119: 별표 4개 -1달 전-}{118: 별표 4개 -6달 전-}{117: 별표 4개 -11달 전-}{116: 별표 5개 -7달 전-}{115: 별표 5개 -11달 전-}{114: 별표 5개 -8달 전-}{113: 별표 4개 -1주 전-}{112: 별표 3개 -8달 전-}{111: 별표 5개 -6달 전-}{110: 별표 4개 -10달 전-}{109: 별표 4개 -6달 전-}{108: 별표 5개 -11달 전-}{107: 별표 5개 -9달 전-}{106: 별표 5개 -6달 전-}{105: 별표 5개 -11달 전-}{104: 별표 5개 -7달 전-}{103: 별표 5개 -8달 전-}{102: 별표 4개 -6달 전-}{101: 별표 2개 -10달 전-}{100: 별표 4개 -7달 전-}{99: 별표 5개 -10달 전-}{98: 별표 5개 -6달 전-}{97: 별표 4개 -1년 전-}{96: 별표 2개 -6달 전-}{95: 별표 4개 -2달 전-}{94: 별표 5개 -9달 전-}{93: 별표 5개 -3달 전-}{92: 별표 3개 -7달 전-}{91: 별표 4개 -9달 전-}{90: 별표 5개 -5달 전-}{89: 별표 5개 -7달 전-}{88: 별표 5개 -6달 전-}{87: 별표 5개 -5달 전-}{86: 별표 5개 -10달 전-}{85: 별표 5개 -7달 전-}{84: 별표 5개 -9달 전-}{83: 별표 5개 -11달 전-}{82: 별표 5개 -11달 전-(Google 번역 제공) 가격을 고려하면 내가 본 최고의 스시 레스토랑.(원문)Considering the price Best sushi restaurant I have ever been.}{81: 별표 5개 -1년 전-(Google 번역 제공) 특히 쌀면에서 본고장 스시! 높은 품질의 물고기와 기술 높은 수준의 서비스!(원문)Authentic sushi especially in terms of rice! High quality of fish and skills also high standard of service!}{80: 별표 5개 -7달 전-최고}{79: 별표 5개 -1년 전-최고}{78: 별표 4개 -5달 전-가성비 갑}{77: 별표 5개 -10달 전-이 가격에?? 말도안됩니다 정말}{76: 별표 5개 -10달 전-이 가격 이런 곳 있을까..? 여의도인뎁?}{75: 별표 5개 -7달 전-사장님이 보는눈이 있으십니다 jmt}{74: 별표 4개 -1년 전-가성비 굿.}{73: 별표 5개 -8달 전-친절하고 맛있다}{72: 별표 5개 -8달 전-와 . 맞아요. 가성비 귯~~}{71: 별표 5개 -7달 전-매우 만족스러운 식사였습니다.}{70: 별표 5개 -7달 전-언제나 최고입니다}{69: 별표 5개 -11달 전-여의도 인근 최고의 가성비 오마카세}{68: 별표 5개 -7달 전-최고.}{67: 별표 4개 -11달 전-25k 런치 오마카세를 이용했다오마카세는 말 뜻대로 쉐프에게 모든걸 맡긴다마치 술집에서 "아무거나"를 주문하면 뭐가 나올지 모르는 것처럼 설렘이 있다아루히의 오마카세는 그것과는 조금 다른 의미로 다가온다평소에 알던 생각했던 대로의 가격 내에서 나오는 메뉴들이 나온다그럼에도 불구하고 코스가 아닌 오마카세라 할 수 있는 이유가 있으니 엔가와와 거대한 후토마키가 그것이다엔가와는 무슨 이유인지 지느러미와 등살을 붙여…}{66: 별표 4개 -11달 전-가성비 엄청난 여의도의 초밥 이가격에 이정도 초밥이라니 무조건 고}{65: 별표 5개 -6달 전-언제나 좋아~~예약이 좀 어려움 ㅇㅁㅠ}{64: 별표 5개 -10달 전-완전!! 완전!! 강추!! 꼭 가보세요}{63: 별표 5개 -9달 전-너무 친절하셨고 맛잇게 잘 먹었습니다!}{62: 별표 5개 -7달 전-가성비최고!!}{61: 별표 5개 -9달 전-가성비가 매우 좋은 곳}{60: 별표 5개 -8달 전-사장님 최고!!}{59: 별표 4개 -9달 전-친절하고 양많아서 좋네요}{58: 별표 4개 -7달 전-샤리 온도감은 아쉽 가격대비 만족}{57: 별표 5개 -6달 전-예약하기 어렵지만 강추}{56: 별표 5개 -8달 전-가성비 좋은 오마카세}{55: 별표 5개 -1주 전-어마어마한곳임}{54: 별표 5개 -1년 전-가격대비 굿}{53: 별표 5개 -8달 전-굿 최고입니다 가성비데낄이ㅡ}{52: 별표 5개 -7달 전-채고시다 채고시다!!}{51: 별표 5개 -1년 전-꽤 자주 다니고있는 스시집입니다  예약이 어려운것이 흠이지  맛도 친절도도 흠잡을데가 없습니다 강추합니다}{50: 별표 5개 -6달 전-사장님이 매우친절하시고 너무 맛있습니다!}{49: 별표 5개 -4달 전-런치 3만원에 이정도 퀄리티 오마카세면 가성비 갑이라고 생각합니다&lt;U+0001F44D&gt;&lt;U+0001F3FB&gt; 예약이 어려운게 한가지 흠..}{48: 별표 5개 -6달 전-초밥 아주 맛 있었습니다}{47: 별표 5개 -8달 전-가성비 좋고 맛도 좋아요~셰프님들도 친절하시고 양도 많아서 배불리 먹었어요~담에 또 오고싶은 곳이네요~}{46: 별표 4개 -1년 전-혼술로 좋은 사케와 한 잔 하고 싶은 집}{45: 별표 5개 -7달 전-런치 솔플로 소주한병 시키면너무 기분좋은 식사를 할 수 있다}{44: 별표 5개 -7달 전-매우 좋음. 강력 추천!}{43: 별표 5개 -7달 전-맛있어요. 예약이 어렵지만 이 날을 기다린만큼 즐거운 식사였어요}{42: 별표 5개 -10달 전-비린 맛에 취약해서 평소에 못 먹던 생선들도 맛있게 먹을 수 있던 곳이었어요! 런치도 좋았지만 디너에 여유롭게 술 한잔 먹으면서 먹는다면 더더욱 맛있을 거 같아요 &lt;U+263A&gt;}{41: 별표 5개 -1주 전-말할필요가 읍다아~이가격에 이 맛 느낄수 있는곳 있음 나와보라구 하소~굳이 가격을 안따져도 존맛탱}{40: 별표 5개 -10달 전-가성비 좋고 맛있었읍니다.너무많이주셔서 배가 터질뻔했읍니다.다음에는 친구덜과 또 오겠읍니다 ^^}{39: 별표 5개 -5달 전-4만원도 안되는 가격으로 오마카세!!! 그런데도 말이안되는 퀄리티! 네이버 예약만 받습니다. 경쟁에서 승리하려면 운을 믿으세요}{38: 별표 5개 -11달 전-단골 되면 단골보다 같이 데려간사람한테 더 대우해주는 착한가게}{37: 별표 5개 -1년 전-1인당 점심 2.5만원 &amp; 저녁 3.5만원의 오마카세를 여의도에서 즐길 수 있으리란 생각은 해 본족이 없었는데... 게다사 쉐프님의 미소와 함께 곁들이는 사케 한잔이면 좋은 사람들과의 시간이 더 좋아지더라구요. 강력 추천!!!!!}{36: 별표 5개 -11달 전-가격대비 최상의 만족감을 느낄 수 있는 스시야. 저렴한 스시야의 단점이 서비스적인 부분인 반면 아루히는 상당히 많은 손님을 소화하면서도 서비스가 뒤떨어지지않는다.}{35: 별표 5개 -9달 전-예약없이 갈 수없는곳! 너무 맛있고 사장님 내외분이 너무 잘해주심. 한반가면 또가고싶은 매력있는곳!}{34: 별표 5개 -8달 전-최고의 맛과 퍼펙트한 서비스를 받았습니다.}{33: 별표 5개 -9달 전-매 철마다 조금씩 다른 초밥이 나옴 재료들이 전체적으로 연하고 부드러운 느낌으로 숙성되어있음}{32: 별표 5개 -7달 전-3만 5천원에 이런 퀄리티의 스시를 먹을 수 있다니 과연 여의도의 축복! - 친절하신 셰프님과 사케와 함께 하면 맛이 열배로}{31: 별표 5개 -1년 전-3.5의 미친 가성비. 예약하기가 너무 어려움}{30: 별표 4개 -3달 전-정말 맛있고 깔끔하고 구성도 좋은데 예약이 너무 힘듬}{29: 별표 4개 -1년 전-특별한 솜씨는 없지만 극강의 가성비!!!.}{28: 별표 5개 -6달 전-가성비 너무 좋은 오마카세입니다. 예약이 힘들지만 가보시면 후회없을 맛이에요.}{27: 별표 4개 -3달 전-튀김이 많다. 맛있다. 하지만 난 고추 가지 호박 그닥..}{26: 별표 5개 -8달 전-집만 가까우면 자주가고싶은 스시집가성비 끝판왕이아닐까싶음}{25: 별표 3개 -11달 전-가성비를 생각하면 별 다섯개이나 업장은 가성비가 다가 아님.디너 첫타임 방문인데도 바닥이 그렇게 더러울 수 없었음.쉐프님은 접객이 굉장히 친절하고 위트있으신데 뒷주방 인원들이 거의 허수아비 수준...쉐프님이 뭘 시키지 않으면 혼자 가만히 있음.시스템 에어컨은 거의 에어컨 발명후 한번도 청소 안한듯 더러움.츠마미 포함 약 스무개의 접시중 시메사바 비린거청어마끼 무맛인거후토마끼 크기에 비해 벨런스 엉망인거 빼면 전체적으로 만족}{24: 별표 1개 -4달 전---;;;; 으악... 확인하러 2번 들렸는데 직원분들이 마스크 / 위생 장갑들을 안 쓰세요..! 우리 모두 조심합니다... 방심 금물... 위생에 제발 제발 신경 좀 써주세요 ~~~~}{23: 별표 5개 -1년 전-가성비쵝오 저렴하게 스시 오마카세를 즐길 수 있음}{22: 별표 5개 -8달 전-예약만 성공한다면 언제 어느 때와 누구와 가도 훌륭한 오마카세를 즐길수 있습니다. 곁들일수 있는 술 또한 일품입니다. 서울에서 가성비와 맛을 다 잡은 몇 안되는 식당 중에 하나라고 자부합니다. 여러번가도 또 가고 싶은 식당입니다.}{21: 별표 4개 -1년 전-맛도 좋고 가성비 최고}{20: 별표 5개 -3달 전-두번째 방문! 예약이 치열해서 자주 가지는 못하지만 넘맛..... 양도 딱 적당하고 회들도 부드럽게 좋아염. 그리고 무엇보다 갓성비b}{19: 별표 5개 -1달 전-예약하기 힘들고 저렴하고 맛있는 오마카세}{18: 별표 5개 -6달 전-깔끔한 내부 친절한 직원분들 가격대를 믿을 수 없는 퀄리티 하이엔드급 재료만 빠졌을 뿐 서비스는 감동을 주기에 충분하다. 괜히 가성비 최고의 집이라 불리는지 알 것 같다. 지상주차는 협소하고 복잡하니 대중교통을 추천한다}{17: 별표 5개 -2달 전-가성비 최고봉의 여의도 오마카세여의도종합상가에 위치해있음점심시간엔 직장인을 위해 12시40분컷을 해주심}{16: 별표 5개 -4달 전-한번에 예약성공해서 아주 기분좋게 다녀왔어요!! 스시오마카세는 처음이었는데 생각보다 배부르고 넘 맛있음 ㅠㅠ 다음에도 성공할수있었으먼 좋겟어요....}{15: 별표 5개 -1주 전-친절한 사장님 사모님과 이 가격에 맛볼수 없는 스시를 경험할 수 있습니다! 예약이 되신다면 천번 만번 가세요}{14: 별표 5개 -7달 전-3만원대에 즐길 수 있는 ‘오마카세’ 초밥집입니다.런치는 3만원 디너는 3만 5천원이지만네이버로만 예약을 받고 있고 인기가 높아예약하기 어려운 곳입니다.약 15피스 정도의 수준높은 초밥과 마끼를 맛볼 수 있습니다. 2만원짜리 초밥세트 드실바에는 만원 더주고 여기와서 드세요. 예약이 힘든게 문제이지만..겸손하고 친절하신 사장님 때문에 더 기분좋아지는오마카세. 아루히 추천합니다.}{13: 별표 5개 -8달 전-점심 오마카세 3만원으로 이렇게 맛있고 배불리 먹을 수 있는 곳이 과연 있을까. 예약하기가 하늘에 별따기라는 명성답게 그 맛을 보여준다. 물론 3만원이라는 가격을 생각해서}{12: 별표 5개 -6달 전-예약하기가 대학교 수강신청을 방불케 하지만이 가격에 이정도 퀄리티는 미쳤다가족들이랑 한달에 한번씩 먹기로함 ㅎㅎ점심예약은 11:3012:3013:30 이 있는데팁을 말하자면 13:30이후로 바로 들어오는 손님이 없기 때문에 조금 여유롭게 나갈 수 있다!그리고 너무 일찍와도 앞타임 손님들이 아직 나가지 않았기때문에 딱맞춰 도착하는게 좋음!저녁예약이 더 힘들기 때문에 아직 성공하지 못함ㅜㅜ}{11: 별표 5개 -3주 전-3만 3천원 런치로 다녀왔다. 가격이 가격인지라 와사비 아마에비 우니 참치는 아쉬웠다. 하지만 다른 것들은 가격에 비해 정말 월등한 수준.. 강남 미들급이랑 비교해도 꿀리지 않는다. 가격은 두 배 차이인데..}{10: 별표 5개 -3달 전-&lt;U+0001F924&gt;맛(4.5)&lt;U+0001F921&gt;참신함(4.0)&lt;U+0001F4B8&gt;가성비(5.0)점심 3만원 저녁 3만5천원의 말도 안되는 오마카세구성! 매월 하루 열리는 네이버 예약으로 전쟁에서 승리해야 갈 수 있는 곳. 생선 퀄리티도 장난없고 쉐프님의 자부심도 대단함. 저녁에는 술을 시켜야 함.청어마끼와 후또마끼에서 입덕완료!}{9: 별표 5개 -1년 전-아루히의 좋았던 점1. 일단 가성비로 씹어 먹고 들어가는 집2. 35000원짜리 오마카세를 먹으면서 디테일하게 불평을 하는 것은 예의가 아니라고 생각한다.3. 모든 손님에게 친절하셨지만 특히 스시를 잘 모르는 손님들에게 더 친절하게 설명해주시는 사장님이 참 좋았다.4. 네타와 재료의 선도도 좋았고 전체적으로 깔끔한 느낌을 받았다.5. 일단 재료의 조합이 너무 좋아서 맛이 없을 수가 없는 사기 요리들이 몇 개…}{8: 별표 5개 -6달 전-오마카세 많이 가보진 않았는데 깔끔하고 정갈하고 신선하고 맛있습니다. 사케와 함께 잘 어우러지는 곳. 직원분들과 손님들도 매너를 지키게 되는 곳.한달 전 예약오픈 시 예약은 필수입니다}{7: 별표 5개 -2달 전-말이 필요없는 여의도 아니 서울 최고의 스시오마카세말도 안되게 신선한 국내산 우니와 후토마끼 그리고 도미조림까지 최고의 한상이다}{6: 별표 5개 -5달 전-정말 친구가 맛있다고하고 저번 어떤 맛집에 갔는데 손님들이 다 이곳은 진리라고 해서 너무 가보고싶었는데 예약이 흡사 BTS 콘서트 같아 20일에 들어가도 늦게하면 예약하기가 힘듭니다 저도 바로 들어가서 했는데. 너무나 긴장되었습니다 일단 이 날만 기달리고 갔는데 이곳은 한때 제가 많이 가던 건물이였는데 아루히가 있는 곳일줄야ㅠㅠ 들어가자마자 깔끔하고 정갈함이 바로 느껴집니다. 응대 서비스도 부담스럽지 않으면서 친절함이…}{5: 별표 4개 -1년 전-&lt;미섭랭가이드&gt;여의도 스시 아루히 &lt;U+0001F363&gt; -그냥 미쳤다-매일 준비한 생선으로 차려주시는 곳이날은 광어와 참치 방어 등 다양한 구성이었다. -제일 인상적인건 내 입으로 먹기에도 큰 후토마끼였는데... 한 줄 다 먹고 싶다!-유쾌하시며 세심한 셰프님과 배불리 먹고 나오면 여의도가 참 아름다워보인다..!}{4: 별표 5개 -2달 전-가성비 좋은 일식집 사비스도 훌륭합니다}{3: 별표 5개 -5일 전-정말 만족한 한 끼였습니다.셰프님 복제해서 더 자주 갈 수 있었으면 좋겠네요.}{2: 별표 5개 -1주 전-여의도의 갓성비 스시 오마카세 아루히!가격으로 맛을 평가하지말고맛도 좋고 접객도 좋은 아루히.한번 방문하면 단골이 되는 가게!기회 있으시면 꼭 방문하세요}{1: 별표 5개 -1달 전-가성비 좋은 오마카세더이상 수식어가 필요없는 곳샤리의 초맛이 좀 강한편이고 밥알이 꼬들한편이라약간의 호불호가 있을수 있지만저렴한 가격과 구성이 모든걸 커버한다특히 대왕 후토마끼는 비주얼이 압도적!아쉬운건 예약이 점점 힘들어지고최근 방문시 런치 구성이 좀 단조로웠다는 점한달에 평균 서너번 방문했었는데 요즘 가기가 꽤힘들다사진은 마지막 방문시 런치 오마카세..}</t>
   </si>
   <si>
     <t>아이엠베이글</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 국제금융로 86</t>
+  </si>
+  <si>
     <t>{20: 별표 4개 -5달 전-}{19: 별표 5개 -2달 전-}{18: 별표 5개 -3주 전-}{17: 별표 4개 -1달 전-}{16: 별표 5개 -4일 전-}{15: 별표 4개 -11달 전-}{14: 별표 4개 -2달 전-}{13: 별표 5개 -1년 전-}{12: 별표 5개 -3달 전-(Google 번역 제공) 이곳은 맛있는 베이글을 판매하는 곳입니다. 베이글은 신선한 재료로 가득하고 소스는 맛있기 때문에 간단한 것을 원할 때 종종갑니다. 나는 여기서 샐러드를 먹어 본 적이 없지만 맛있을 것이라고 생각합니다. 나는 거기에 샐러드를 가진 많은 사람들을 보았다.(원문)This is a place that sells delicious bagels. Bagels are full of fresh…}{11: 별표 5개 -1달 전-맛있어요~}{10: 별표 5개 -6달 전-찾아가기가 사알짝 헷갈리지만 맛은 &lt;U+0001F604&gt;&lt;U+0001F44D&gt;}{9: 별표 5개 -2주 전-너무 맛있어요}{8: 별표 3개 -1달 전-맛은 그럭저럭 이네요}{7: 별표 4개 -7달 전-치폴레샐러드 좀 매워용. 가게는 미국식인데 뉴욕 브랜드 치폴레나 한국 쿠차라 생각하면 안맞아용 ㅋㅋ 대신 깨끗 친절. 베이글이나 딴 샐러드먹어보러 가려고요}{6: 별표 4개 -5달 전-좋았어요.원래 베이글 좋아하는데 맛있고 분위기도 조아요.재방문의사 있어요}{5: 별표 4개 -3달 전-편안하게 미국스타일 베이글을 즐길수 있는집}{4: 별표 4개 -7달 전-혼자서 샐러드 먹으러 가기엔 완벽한 접근성 그것이 좋다.매장에 들어선 순간  이미 여러사람들이 홀로 샐러드를 즐기고 있는 모습을 발견할 수 있다. 내용물이 완벽하달 순 없다. 그래도 여의도 한가운데 생태탕 황태탕 이런 음식점만 있을 법한 컴컴한 지하 1층에 깜찍한 샐러드가게 있다.}{3: 별표 4개 -11달 전-베이글 2개 (하나는 플레인/ 하나는 에브리띵 그레인) 파 크림치즈 테이크아웃으로 구매했습니다 베이글은 훕훕베이글/ 포비베이글/코끼리베이글 순으로 좋아하는데 훕훕베이굴과 포비 베이글 가운데의 느낌으로 상위권의 베이글이라고 생각해요(개인적인 랭크입니다)카드결재할때는 기계로 주문하라고 하십니다크림치즈는 1개 1700원인데 생각보다 양이 적다고 느꼈는데 직접 발라 먹어보니깐 1개 넉넉하게 발라 먹을 정도입니다 (하지만 앞에 포장하는 분꺼 봤는데 매장에서 발라서 해주시는게 좀더 많은 양을 발라 주는 느낌(?)이라 다음에는 매장에서 먹어보려고요~)}{2: 별표 5개 -2달 전-베이글짱 맛있었음.샐러드랑 베이글이랑 커피랑 먹었는데 국내 최고인듯아직도 베이글 맛이 생각이날정도}{1: 별표 4개 -1달 전-괜찮은 수준. 완벽이라고 하기엔 조금 어설프게 흉내내는 감이 있다.}</t>
   </si>
   <si>
     <t>대오옛집</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의나루로 53-1</t>
+  </si>
+  <si>
     <t>{10: 별표 3개 -1년 전-}{9: 별표 3개 -7달 전-}{8: 별표 4개 -5달 전-}{7: 별표 3개 -1달 전-}{6: 별표 3개 -3달 전-}{5: 별표 5개 -1주 전-맛있어요}{4: 별표 5개 -1년 전-여기 돈까스 맛있어요}{3: 별표 1개 -7달 전-기름에 쩐 돈까스 가격은 저렴여의도에서 6천원 돈까스 없지 않을까}{2: 별표 4개 -1달 전-점심시간에도 북적이지 않습니다}{1: 별표 4개 -1달 전-카레돈까스가 맛있는 집입니다.다른음식도 전체적으로 맛있고 저렴합니딙}</t>
   </si>
   <si>
     <t>그리너리샐러드</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 은행로 29</t>
+  </si>
+  <si>
     <t>{15: 별표 4개 -1년 전-}{14: 별표 5개 -1년 전-}{13: 별표 5개 -6일 전-}{12: 별표 5개 -11달 전-}{11: 별표 5개 -11달 전-(Google 번역 제공) 일주일에 거의 두 번 샐러드를하고 신선하고 신선합니다.(원문)having salad here almost twice a week nice and fresh and fulfiling}{10: 별표 4개 -11달 전-먹을만함}{9: 별표 4개 -1년 전-점심 먹기 싫을 때나 야근할 때 가끔 이용합니다. 양이 좀 많아서 양을 좀 줄이고 가격을 낮췄으면 하는 개인적인 바램이 있습니다.}{8: 별표 4개 -9달 전-메뉴개편되고 더 좋아짐.}{7: 별표 5개 -2년 전-건강하게 샐러드~}{6: 별표 5개 -1년 전-서빙이 조금 느리고 홀이 작으나 맛은 괜찮음}{5: 별표 4개 -3년 전-건강하게 한끼를 먹는 느낌. 야채 건강 비빔 음식이다. 아이디어 참신하고 판매자와 구매자 중계를 잘 하는 느낌의 음식점. }{4: 별표 5개 -3년 전-샐러드로 식사의 밸런스를 맞추어보세요! 정우빌딩 지하 일층! 귀한 맛집입니다. 호박스프 렌틸콩스프도 좋구요! 과채 생쥬스도 강추합니다.}{3: 별표 5개 -2년 전-토핑 추가를 추천합니다}{2: 별표 5개 -1년 전-7900원대 샐러드. 퀄리티 양 모두 만족스러운 식사}{1: 별표 1개 -1주 전-음식 조리가 너무 더러워요.방문하면 주방내부및조리과정을 보세요  바퀴벌레 에  음식 만드는 사람 너무 드러워묘}</t>
   </si>
   <si>
@@ -235,6 +327,9 @@
     <t>쿠치나후</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 의사당대로 1</t>
+  </si>
+  <si>
     <t>{240: 별표 5개 -6달 전-}{239: 별표 5개 -3달 전-}{238: 별표 4개 -1년 전-}{237: 별표 5개 -1주 전-}{236: 별표 4개 -1년 전-}{235: 별표 3개 -7달 전-}{234: 별표 5개 -1년 전-}{233: 별표 5개 -1년 전-}{232: 별표 4개 -2년 전-}{231: 별표 4개 -1년 전-}{230: 별표 4개 -1년 전-}{229: 별표 5개 -1년 전-}{228: 별표 4개 -1년 전-}{227: 별표 4개 -1년 전-}{226: 별표 5개 -1년 전-}{225: 별표 5개 -2년 전-}{224: 별표 5개 -6달 전-}{223: 별표 4개 -1년 전-}{222: 별표 5개 -1년 전-}{221: 별표 5개 -2년 전-}{220: 별표 5개 -1일 전-}{219: 별표 5개 -1년 전-}{218: 별표 4개 -3년 전-}{217: 별표 5개 -8달 전-}{216: 별표 4개 -3달 전-}{215: 별표 5개 -1년 전-}{214: 별표 5개 -1년 전-}{213: 별표 5개 -1년 전-}{212: 별표 5개 -7달 전-}{211: 별표 5개 -2주 전-}{210: 별표 5개 -1년 전-}{209: 별표 4개 -8달 전-}{208: 별표 3개 -7달 전-}{207: 별표 5개 -7달 전-}{206: 별표 5개 -1년 전-}{205: 별표 5개 -7달 전-}{204: 별표 5개 -2년 전-}{203: 별표 5개 -1년 전-}{202: 별표 5개 -2달 전-}{201: 별표 1개 -2년 전-}{200: 별표 5개 -1년 전-}{199: 별표 5개 -2년 전-}{198: 별표 5개 -8달 전-}{197: 별표 5개 -10달 전-}{196: 별표 5개 -11달 전-}{195: 별표 4개 -7달 전-}{194: 별표 5개 -5달 전-}{193: 별표 5개 -3년 전-}{192: 별표 5개 -1년 전-}{191: 별표 5개 -8달 전-}{190: 별표 4개 -11달 전-}{189: 별표 4개 -2년 전-}{188: 별표 4개 -1년 전-}{187: 별표 4개 -11달 전-}{186: 별표 5개 -7달 전-}{185: 별표 4개 -11달 전-}{184: 별표 4개 -2년 전-}{183: 별표 3개 -1달 전-}{182: 별표 5개 -1년 전-}{181: 별표 5개 -1년 전-}{180: 별표 4개 -2년 전-}{179: 별표 5개 -1년 전-}{178: 별표 5개 -9달 전-}{177: 별표 5개 -2달 전-}{176: 별표 5개 -7달 전-}{175: 별표 3개 -3달 전-}{174: 별표 4개 -1년 전-}{173: 별표 5개 -1년 전-}{172: 별표 4개 -2년 전-}{171: 별표 5개 -8달 전-}{170: 별표 1개 -1년 전-}{169: 별표 5개 -6달 전-}{168: 별표 4개 -1년 전-}{167: 별표 5개 -1년 전-}{166: 별표 5개 -2년 전-}{165: 별표 5개 -2년 전-}{164: 별표 4개 -1년 전-}{163: 별표 5개 -1달 전-}{162: 별표 5개 -2년 전-}{161: 별표 5개 -4주 전-}{160: 별표 5개 -6달 전-}{159: 별표 4개 -1년 전-}{158: 별표 5개 -2년 전-}{157: 별표 5개 -9달 전-}{156: 별표 5개 -10달 전-}{155: 별표 3개 -9달 전-}{154: 별표 4개 -7달 전-}{153: 별표 5개 -8달 전-}{152: 별표 5개 -1년 전-}{151: 별표 1개 -2년 전-}{150: 별표 4개 -7달 전-}{149: 별표 5개 -8달 전-}{148: 별표 4개 -8달 전-}{147: 별표 4개 -7달 전-}{146: 별표 5개 -7달 전-}{145: 별표 4개 -1년 전-}{144: 별표 4개 -9달 전-}{143: 별표 4개 -1년 전-}{142: 별표 5개 -1년 전-}{141: 별표 5개 -8달 전-}{140: 별표 5개 -1년 전-}{139: 별표 5개 -1달 전-}{138: 별표 4개 -2년 전-}{137: 별표 4개 -8달 전-}{136: 별표 4개 -9달 전-}{135: 별표 3개 -1년 전-}{134: 별표 3개 -5달 전-}{133: 별표 5개 -1년 전-}{132: 별표 5개 -8달 전-}{131: 별표 5개 -4주 전-}{130: 별표 4개 -7달 전-}{129: 별표 5개 -4주 전-}{128: 별표 4개 -1년 전-}{127: 별표 4개 -10달 전-}{126: 별표 5개 -6달 전-}{125: 별표 4개 -4주 전-}{124: 별표 4개 -2년 전-}{123: 별표 5개 -9달 전-}{122: 별표 5개 -1달 전-}{121: 별표 4개 -1년 전-}{120: 별표 4개 -9달 전-}{119: 별표 5개 -2년 전-}{118: 별표 4개 -1년 전-}{117: 별표 5개 -2년 전-}{116: 별표 5개 -9달 전-}{115: 별표 5개 -2년 전-(Google 번역 제공) 완전한. 절대적으로 완벽한 식사.(원문)Perfect. Absolutely perfect dining.}{114: 별표 5개 -1년 전-(Google 번역 제공) 멋진 광경 !!! ^^(원문)Great view !!! ^^}{113: 별표 5개 -3년 전-가격대비 훌륭한 맛 분위기}{112: 별표 4개 -3년 전-분위기 진짜 좋음 맛음 중상}{111: 별표 4개 -2년 전-디너 메뉴 좋음}{110: 별표 4개 -2년 전-풍경이 좋네요...}{109: 별표 5개 -2년 전-맛잇엇습니다}{108: 별표 3개 -2년 전-런치보다 디너가 나아요}{107: 별표 1개 -1년 전-너무 맛있어요}{106: 별표 3개 -1년 전-분위기 좋아요}{105: 별표 3개 -1년 전-아재천국}{104: 별표 4개 -1년 전-비싼맛}{103: 별표 2개 -1년 전-보통}{102: 별표 5개 -1년 전-가성비 좋음.}{101: 별표 5개 -2년 전-조용하고맛잇음}{100: 별표 4개 -2년 전-조용하고 한강뷰 좋음}{99: 별표 4개 -1년 전-전망 베스트}{98: 별표 5개 -2년 전-야경이 아름다운 레스토랑입니다.}{97: 별표 4개 -1년 전-전망 베스트}{96: 별표 5개 -2년 전-좋은 뷰 맛난 음식 적정 가격!}{95: 별표 4개 -1년 전-국회의사당 내 파스타 레스토랑으로 전망은 좋으나 서비스가 부족합니다.}{94: 별표 3개 -1년 전-코스구성과 분위기는 좋으나 메인요리가 부족하다.}{93: 별표 5개 -2년 전-음식도 괜찮고 조용하고 한강도 보이는 괜찬은 곳이네요.}{92: 별표 4개 -2년 전-음식 맛있고 야경좋음 가성비 굳}{91: 별표 5개 -11달 전-아주좋습니다.}{90: 별표 2개 -2년 전-주차가 안되는 국회의사당내 식당이라... 매력이 있나?}{89: 별표 4개 -1년 전-분위기좋고 맛좋은 곳.}{88: 별표 5개 -8달 전-가성비좋음}{87: 별표 5개 -2년 전-의외의 장소에 의외의 맛집. 멋진 한강뷰는 덤. 예약이 힘들수 있음.}{86: 별표 4개 -2년 전-점심 코스세트는 여의도 최고의 가성비라고 봐도 무방하다. 서강팔경 뺨치는 한강뷰. 늘 점심 예약 마감에는 이유가 있다.}{85: 별표 5개 -2년 전-한강의 야경을 보며 고급스러운 분위기에서 식사가 가능합니다. 음식도 맛있고요}{84: 별표 5개 -9달 전-가성비 짱짱}{83: 별표 5개 -1년 전-뷰가 좋고 음식도 맛있어요}{82: 별표 4개 -1년 전-런치세트 가성비와 한강뷰 좋음}{81: 별표 5개 -1년 전-경치 좋고 맛 괜찮고 가격 훌륭}{80: 별표 3개 -1년 전-국회의사당 안에 있는 이탈리안 레스토랑으로 6층에 위치하여 전망은 좋으나 서비스가 훌륭하지는 않습니다. 주차는 국회의사당 내 주차장을 이용합니다.}{79: 별표 5개 -1년 전-음식이 맛있고 전망이 좋아요. 예약은 필수입니다.}{78: 별표 5개 -1년 전-국회에 이렇게 훌륭한 레스토랑이 있다니}{77: 별표 4개 -1년 전-여의도 생각보다 맛집 어색한사람한테 추천가능할정도}{76: 별표 5개 -1년 전-맛도 가격도 만족스러운 곳입니다.}{75: 별표 4개 -7달 전-국회에서 한강을 내려다보며 이태리식사를.}{74: 별표 3개 -2년 전-국회에 이런 곳이 있다니 놀랐음. 한강을 바라보며 먹는 뷰가 일품. 음식은 그냥 먹을만한 정도. 가격대비 양 무지 적음.}{73: 별표 4개 -1년 전-전망좋고 음식도 괜찮았어요}{72: 별표 5개 -2년 전-맛있기도 하지만 분위기 뷰도 좋아요}{71: 별표 5개 -1년 전-뷰도 좋고 맛도 좋다 분위기는 덤}{70: 별표 5개 -1년 전-전망과 맛 두가지 모두 만족!!}{69: 별표 5개 -5달 전-굳굳 걍 여기 가세요}{68: 별표 5개 -1년 전-분위기도 좋고 음식맛도 양도 딱 좋아요♡ 여직원분 정말 친절하시구요♡}{67: 별표 5개 -3주 전-분위기가 다했음}{66: 별표 4개 -1년 전-가성비 굿 뷰도 좋다. 그저 계속 덜 알려진 상태면 좋겠다.}{65: 별표 5개 -9달 전-음식이 맛있고 디저트도 좋았어요}{64: 별표 4개 -10달 전-일단 뷰가 장점입니다 건물이 높진않지만 한강보이는 뷰가 아름답습니다식사는 가격이조금비싼편인데 양도많지않은점은 살짝 아쉽습니다}{63: 별표 5개 -11달 전-스테이크 정말 맛있어요. 가성비 굿}{62: 별표 4개 -1년 전-국회의사당 안으로 들어가서 찾아야함의정회관 6층인가...예약해야 하며 이태리 음식 입니다경치가 좋으며 맛있어요}{61: 별표 4개 -8달 전-가격이 좀 있는만큼 맛도 괜찮은집  코스요리를 못먹어봐서 평가하기가 조금 곤란하지만 국회에 있는 레스토랑이니까 격식차리기는 괜찮을듯합니다 예약하기가 너무 힘듭니다 가시고싶으시면 미리미리 예약을 하셔야할듯합니다}{60: 별표 3개 -1년 전-서민들이 가기에는 가격대가 비쌉니다. 양도 많은편도 아니고... 데이트 장소로는 최고인듯합니다. 한강뷰 자리 기준!}{59: 별표 4개 -10달 전-경치 맛 분위기}{58: 별표 5개 -1달 전-조망이 좋아요}{57: 별표 5개 -11달 전-국회안의 숨은 진주. 뷰도 좋고 맛도 좋음 강추}{56: 별표 5개 -7달 전-전망도 좋고 음식 맛 훌륭해요.}{55: 별표 5개 -9달 전-뷰 쩌는거에 비해 가격이 쌈.}{54: 별표 4개 -8달 전-장소 분위기는 최상입니다. 맛은 so so}{53: 별표 4개 -2년 전-상견례 중요한 약속 시 좋습니다.}{52: 별표 5개 -3년 전-전망좋고 음식도 괜찮아요. 가격도 합리적인 편}{51: 별표 5개 -3달 전-경관도 좋고 음식도 좋네요}{50: 별표 4개 -1달 전-전망이 엄청 좋음}{49: 별표 5개 -2년 전-깨끗하고 친절하고 뷰도좋고 다시 방문하고픈 곳 입니다}{48: 별표 4개 -3년 전-국회안 이탈리안 식당! 한강뷰가 좋아요! 음식도 굿!}{47: 별표 1개 -6달 전-별도아까움 여자직원이 손님개무시메뉴판에없으니까 설명하지 이딴식으로 이야기하는 어처구니없는 서비스마인드.음식도형편없음}{46: 별표 3개 -2달 전-장소가 좋아요}{45: 별표 5개 -10달 전-깔끔하고 맛있었어요. 서비스도 빠르고 친절하고. 식당 찾는 길이 조금 어려웠지만 ㅎ}{44: 별표 5개 -2달 전-음식 맛있고 뷰도 좋은 곳}{43: 별표 5개 -8달 전-좋은 경치 훌륭한 음식 상대적으로 저렴한 가격 덕에 기념일에 부담없이 가기에 좋아요!}{42: 별표 4개 -7달 전-음식에 비해 가격이 너무 싸다갠적으로는 살치살?스테이크는 소소디저트 완전 맛있음}{41: 별표 5개 -6달 전-양도 적절하고 맛있었어요}{40: 별표 5개 -4주 전-전망도 좋고 분위기도 좋고 굿굿!}{39: 별표 5개 -2년 전-조용하고 뷰도좋고 잔잔한음악을 깔아줘서 분위기도 좋았습니다음식도 깔끔하고 맛있었고 직원도 친절했어요}{38: 별표 5개 -9달 전-편하게 맛 좋은 음식 즐길 수 있음}{37: 별표 4개 -6달 전-가격대비 분위기 서비스 맛 모두 만족}{36: 별표 4개 -1달 전-음식 맛있고 무엇보다 야경 짱. 근데 양이 좀 적어요.}{35: 별표 5개 -7달 전-좋은 분위기.좋은 야경좋은 음식.}{34: 별표 4개 -2년 전-런치 파스타 코스가 가성비 굿이에요 : ) 분위기 좋아요}{33: 별표 4개 -3달 전-가격은 좀 있는데 풍광 좋고 넓은곳}{32: 별표 5개 -1년 전-너무 맛있었어요! 야경도 너무 예뻤구요~}{31: 별표 5개 -1년 전-가성비 좋고 친절하시고 좋았어요^^ 외부에서 사온 케이크도 드셔도 된다하시고 접시랑 포크도 주신다는 것을 죄송해서 사신만 찍었습니다^^}{30: 별표 4개 -2달 전-가격 적당하고 view 좋아요 인테리어는 조금 그래요}{29: 별표 5개 -8달 전-식전빵 스프 전채요리 3가지 파스타 스테이크 디저트까지 2시간의 저녁을 쉴틈없이 먹었네요. 맛집 인정.가격도 나쁘지 않습니다.강추!}{28: 별표 5개 -4달 전-여의도 전경을 보며 코스요리를 즐길수 있어요 요리도 대체로 맛있고 합리적인 가격이에요}{27: 별표 4개 -4달 전-분위기 너무좋고 가격대비 음식도 좋았으나 종업원들태도가 별을 깎게함}{26: 별표 4개 -2년 전-회식으로 룸에서 디너코스 먹었는데 분위기도 좋고 맛도 좋고 서비스도 너무 친절해서 좋았어요~^^다만 한강뷰를 바라보며 먹는데 창에 먼지가 많아서 살짝 아쉬웠네요. 미세먼지가 가득했던 어제가 있어 어쩔수없었지만요.}{25: 별표 5개 -6달 전-한강의뷰가 보이는 홀이 있고 룸도 있어요. 음식 수준도 상당합니다. 주방장 스프와 파스타 꼭 드셔보시기를... 서 여의도 지역 근무하는분 추천 드려요.  주차는 둔치주차장을 이용해야해서 좀 불편  걷는거 좋아하시면 ^^}{24: 별표 4개 -2년 전-크리스마스 디너코스먹음. 평소에 좀 조용한 식당 가고싶다면 추천. 테이블간 거리가 확보되어 있어 대화하기 좋음. 음식맛 매우 괜춘. 야경은 생각했던것보단 별로지만 없는것보단 당연히좋다. 기분내고싶을때 오기좋은곳.가격은 평소 디너기준 6만원. 다른 단품메뉴도 훌륭할것으로 예상함...!}{23: 별표 5개 -1년 전-국회의사당 안에서 음식을 즐길 수 있는 신기한 경험. 전망도 매우 뛰어나다. 특히 맑은날에 가면 서울에서 보기힘든 탁 트인 하늘을 즐길 수 있다. 음식은 식전빵이 매우 맛있고 다른 메뉴도 만족스러웠다.}{22: 별표 4개 -3주 전-런치세트 좋네요.그런데 창가자리가 너무 적어요.}{21: 별표 4개 -2달 전-독특한 장소의 좋은 음식}{20: 별표 4개 -5달 전-한강을 바라보면서 와인한잔 미시기 좋은 곳이예요.}{19: 별표 5개 -2달 전-뷰가 진짜 좋고 음식도 전반적으로 맛있습니다. 다만 런치코스를 먹었는데 생각보다 양이 안차서 아쉬웠어요..ㅠㅠ}{18: 별표 5개 -2주 전-분위기좋은날 추천합니다 맛있고 친절하고 뷰가조아요}{17: 별표 5개 -8달 전-회식으로 룸사용했습니다 친절하고 맛도 그럭저럭좋고 룸이라그런지 조용하고 코스요리먹었는데 맛나게 잘먹었습니다}{16: 별표 4개 -1년 전-조용하고 음식 맛있고 분위기 좋고 다 좋은데가격은 그만큼 비싸고 또 외져서 차를 타고 와야 편함.}{15: 별표 5개 -7달 전-전쟁터에서 가장 평화로운 곳. 음식도 좋아서 기념일에 방문하기 좋음}{14: 별표 4개 -4주 전-나름 프라이빗 '안가' 느낌 가보신분은 이유 알듯맛도 휼룽합니다. 런치.메뉴도 합리적!!}{13: 별표 3개 -1년 전-가성비 좋은 레스토랑. 뷰 좋음. 근데 파스타 면을 매우 덜익혀 나와서 실망함}{12: 별표 4개 -9달 전-국회의사당 내 국회예산처 건물에 있는 이탈리안 음식점입니다사람이 좀 많아서 방으로 예약이 되었는데 6층으로 층이 높지는 않지만 한강이 잘 보이는 전망이 좋은 방이어서 아주 좋았습니다음식은 상당히 좋았고 가격도 저렴한 편입니다 샐러드-스프 또는 파스타-스테이크-커피의 4코스로 양이 다소 적은 편이었으나 점심이라 적당했습니다서빙도 잘 하는 편이고 외국인 서버가 있어서 특이했습니다다만 손님이 몰려는 점심시간이어서 그런지 음식이 너무 늦게 나와서 아쉬웠습니다건물 특성상 주차가 어려운 곳이라 대중교통 이용을 추천합니다}{11: 별표 5개 -8달 전-런치세트 중 하나를 먹었는데 양은 많지 않았지만 그만큼 가격도 적당한 수준이었습니다. 음식도 다들 신선하고 맛있었습니다. 한강이 보이는 전망은 매우 좋았습니다. 겨울이라 황량하녔지만 봄철 특히 벚꽃이 만개할 때는 엄청나겠구나 싶었어요.}{10: 별표 2개 -3달 전-뷰는상당히좋았습니다 맛과서비스는그렇지못했습니다 나빴어요}{9: 별표 5개 -1년 전-쿠치나후는 정말 가성비 좋은 여의도내 레스토랑. 유명해지지않았으면 하는곳. 국회 의정관에 위치해 도보로간다면 좀 찾기힘들수도. 런치 파스타코스가 26000원 정도였던거같다. 애피타이저 스프파스타 커피까지 나오는 세트로 5000원인가 3000원인가 추가하면 디저트도 준다! 최고! 파스타와 리조또는 전부 다 괜찮고 스테이크는 이번에첨먹어봤는데 나쁘지않았다. 이베리코 스테이크가 은근 부드럽고 쫄깃했다. 스테이크 런치세트는…}{8: 별표 4개 -1년 전-음식도 맛있고 가성비가 좋음 예약은 필수임. 국회안에있으며 전망이 좋고. 식사후 국회내에 사랑재 산책하기도 좋음. 국회 직원은 디너에 런치 코스를 주문할수있는 혜택이닌 혜택이있음. 주차는 주말에는 국회 경내 도로에 주차가능하지만 평일 이용시에는 예약하면서 주차 차량등록을 해야 주차가 가능합니다.}{7: 별표 4개 -7달 전-국회안에 있는 이태리 식당으로 비교적 한적하고 한강뷰 야경이 멋지다.음식맛도 괜찮고 가성비가 좋은편이다.서빙이 편안하고 추천해 주신 와인도 괜찮았다.예약을 요하고 주차 가능하다 ^^*}{6: 별표 5개 -1달 전-단독룸은 없지만 분리된 느낌의 공간은 있고 뷰가 아주 좋습니다.}{5: 별표 5개 -7달 전-해지기 30분에서 1시간 전쯤 가는게 젤 좋음. 한강의 일몰과 야경을 모두 즐길 수 있음. 음식도 재료가 좋아서 속도 편하고 맛도 좋으며 가격도 괜찮음. 와인도 뷰랑 분위기 생각하면 합리적인 편임. 코스요리랑 와인을 먹었는데 전체적인 가성비는 최고수준. 더 맛있는 집들은 있지만 만족스러운 집은 찾기 쉽지않음.}{4: 별표 4개 -1년 전-국회내 자리잡은 이탈리안 레스토랑. 음식도 퀄리티가 있고 가성비가 뛰어난다. 밤에 야경이 너무 훌륭하고 분위기 좋다..단..레스토랑을 찾는데 다소 시간이 걸리고 주차가 편하진 않았다.}{3: 별표 3개 -5달 전-전체적인 음식 퀄리티는 괜찮았으나 엄청 맛있지는 않았어요.직원들도 친절하다고 써있었는데 잘 모르겠네요.둘이 디너코스 먹고 14만원 내고 왔는데 그정도 맛집인지는 모르겠어요.}{2: 별표 5개 -6달 전-합리적인 가격에 서양식 코스요리를 맛볼 수 있다.특히 파스타를 좋아하는 사람이라면 점심 런치세트를 추천한다.전면 유리창으로 된 바깥풍경이 훌륭해서 다수의 가족모임을 하더라도 쾌적한 분위기를 느낄 수 있다는 것도 장점이다.바깥풍경은 한강 남쪽에서 북쪽을 바라보고 있어 빛반사 없이 풍경이 또렷하여 야경보다는 낮시간대 방문이 더 좋다.디너타임에 방문하더라도 조금 이른 시간으로 예약하여 낮부터 석양풍경까지 느끼는 것이 가장…}{1: 별표 5개 -1달 전-가성비굳. 양도 적당하고 맛도 있고 뷰맛집이라서 분위기 차려야할 때 오기 딱인 것 같아요. 저녁에 오면 한강 노을 보여서 더 좋다고하네욤}</t>
   </si>
   <si>
@@ -247,6 +342,9 @@
     <t>구이구이</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 의사당대로 38</t>
+  </si>
+  <si>
     <t>{198: 별표 5개 -1년 전-}{197: 별표 4개 -1년 전-}{196: 별표 5개 -8달 전-}{195: 별표 4개 -2달 전-}{194: 별표 4개 -1년 전-}{193: 별표 3개 -3달 전-}{192: 별표 5개 -2년 전-}{191: 별표 5개 -6달 전-}{190: 별표 4개 -8달 전-}{189: 별표 4개 -1달 전-}{188: 별표 4개 -7달 전-}{187: 별표 4개 -1달 전-}{186: 별표 5개 -1년 전-}{185: 별표 4개 -2년 전-}{184: 별표 4개 -1년 전-}{183: 별표 5개 -1년 전-}{182: 별표 4개 -2달 전-}{181: 별표 4개 -2년 전-}{180: 별표 4개 -1년 전-}{179: 별표 5개 -2달 전-}{178: 별표 4개 -1년 전-}{177: 별표 1개 -1년 전-}{176: 별표 4개 -11달 전-}{175: 별표 5개 -11달 전-}{174: 별표 3개 -11달 전-}{173: 별표 5개 -7달 전-}{172: 별표 3개 -11달 전-}{171: 별표 3개 -1년 전-}{170: 별표 5개 -6달 전-}{169: 별표 5개 -3달 전-}{168: 별표 2개 -7달 전-}{167: 별표 5개 -8달 전-}{166: 별표 4개 -11달 전-}{165: 별표 5개 -1년 전-}{164: 별표 3개 -8달 전-}{163: 별표 3개 -1년 전-}{162: 별표 4개 -7달 전-}{161: 별표 4개 -1달 전-}{160: 별표 2개 -1년 전-}{159: 별표 4개 -1년 전-}{158: 별표 3개 -1년 전-}{157: 별표 5개 -2년 전-}{156: 별표 4개 -1년 전-}{155: 별표 5개 -1년 전-}{154: 별표 3개 -2년 전-}{153: 별표 4개 -8달 전-}{152: 별표 5개 -1년 전-}{151: 별표 5개 -10달 전-}{150: 별표 5개 -5달 전-}{149: 별표 4개 -6달 전-}{148: 별표 5개 -2년 전-}{147: 별표 4개 -3달 전-}{146: 별표 4개 -1년 전-}{145: 별표 5개 -1년 전-}{144: 별표 5개 -2주 전-}{143: 별표 5개 -2년 전-}{142: 별표 4개 -2주 전-}{141: 별표 5개 -10달 전-}{140: 별표 3개 -1년 전-}{139: 별표 4개 -1년 전-}{138: 별표 3개 -10달 전-}{137: 별표 5개 -3달 전-}{136: 별표 4개 -8달 전-}{135: 별표 4개 -2달 전-}{134: 별표 5개 -1년 전-}{133: 별표 3개 -1년 전-}{132: 별표 4개 -2년 전-}{131: 별표 4개 -7달 전-}{130: 별표 5개 -1달 전-}{129: 별표 5개 -1년 전-}{128: 별표 3개 -8달 전-}{127: 별표 3개 -2년 전-}{126: 별표 4개 -11달 전-}{125: 별표 4개 -2주 전-}{124: 별표 4개 -8달 전-}{123: 별표 4개 -1년 전-}{122: 별표 4개 -8달 전-}{121: 별표 4개 -7달 전-}{120: 별표 5개 -1년 전-}{119: 별표 4개 -1년 전-}{118: 별표 4개 -2년 전-}{117: 별표 3개 -2달 전-}{116: 별표 4개 -1년 전-}{115: 별표 5개 -1달 전-}{114: 별표 5개 -2년 전-}{113: 별표 4개 -1년 전-}{112: 별표 4개 -5달 전-}{111: 별표 4개 -1년 전-}{110: 별표 4개 -11달 전-}{109: 별표 5개 -1년 전-(Google 번역 제공) 비싸다.(원문)Expensive it deserves.}{108: 별표 5개 -1년 전-(Google 번역 제공) 해산물 요리. 특히 구운 생선이 인기입니다.(원문)Good at seafood. Especially baked fish is popular}{107: 별표 3개 -11달 전-(Google 번역 제공) 무료 반찬은 매우 좋습니다(원문)Free side dishes are very nice}{106: 별표 3개 -3년 전-밑반찬ok}{105: 별표 3개 -1년 전-식당}{104: 별표 2개 -10달 전-그닥}{103: 별표 5개 -1년 전-여의도맛집}{102: 별표 3개 -1년 전-그럭저럭 비쌈}{101: 별표 5개 -5달 전-맛있습니다}{100: 별표 5개 -11달 전-여의도 맛집}{99: 별표 2개 -1년 전-서비스 최악임}{98: 별표 4개 -11달 전-깔끔}{97: 별표 4개 -1년 전-직원친절}{96: 별표 5개 -2년 전-오 내 사랑 구이구이 ㅠㅠ 생선구이뿐 아니라 기본반찬이 예술이다.}{95: 별표 2개 -9달 전-너무 비싸요}{94: 별표 5개 -9달 전-좋아요}{93: 별표 4개 -2년 전-맛 가격이 좋죠. 다만 손님 대응이 조금...}{92: 별표 4개 -1년 전-고등어구이 정말일품였습니다}{91: 별표 5개 -2년 전-맛도괜찮고 친절하셨음}{90: 별표 4개 -11달 전-생선이 맛있음}{89: 별표 5개 -3년 전-여의도 최고위 생선구이집은 다미라고 하겠지만 여기도 갠춘가지튀김 핵존맛}{88: 별표 4개 -1년 전-그나마 KBS본관 앞에서 먹을만한 곳}{87: 별표 5개 -2년 전-비싼데 아주 맛있다. 가지튀김이 맛있어서 기억에 남는 곳}{86: 별표 5개 -1년 전-정말 맛있엉ㆍㅡ}{85: 별표 5개 -8달 전-생선구이 대존맛}{84: 별표 4개 -1년 전-맛은 있으나 값이 비쌈}{83: 별표 3개 -1년 전-맛있으나 가격이 비쌈}{82: 별표 1개 -8달 전-너무짜요~/}{81: 별표 5개 -2년 전-맥주 안주하기 좋고  좋은 사람이면 더 좋고}{80: 별표 3개 -1년 전-맛은 덜해졌고 서비스도 더 덜해졌음}{79: 별표 3개 -1년 전-생선 치고는 가격대가 좀 있음}{78: 별표 5개 -1년 전-점심 맛있게 먹을 수 있음~!^^}{77: 별표 2개 -10달 전-비싸고 좀 비리다.}{76: 별표 4개 -1년 전-생선은 맛있으나 가격이}{75: 별표 4개 -3달 전-생선구이 강추!!!}{74: 별표 5개 -1년 전-맛은 최고!단점은 사람이 많아 기다려야 한다는거}{73: 별표 5개 -2년 전-밑반찬이 너무 맛있는 집. 메인 메뉴도 맛져요.}{72: 별표 1개 -2달 전-불친절}{71: 별표 4개 -5달 전-ㅅㅌㅊ}{70: 별표 3개 -1년 전-2호점은 kbs쪽}{69: 별표 5개 -1년 전-생선구이도 맛있고 반찬이 푸짐합니다. 특히 가지튀김이 맛있습니다.}{68: 별표 5개 -9달 전-다양한 메뉴}{67: 별표 4개 -1년 전-생선구이 전문점. 가지튀김 강추.}{66: 별표 1개 -8달 전-오징어 구이 시켰는데 숙회 나욈}{65: 별표 1개 -1년 전-맛은 괜찮음...하지만 서빙하시는 여자분 두분 정말 불친절함..일단 절대 대답 안 하고 얼굴에 짜증이 가득하심..세번째인데 이제는 재방문 의사없음..}{64: 별표 5개 -9달 전-가지반찬 하나 만으로도 100점!!!}{63: 별표 4개 -1년 전-반찬도 맛있고 생선도 괜찮음.특히 가지를 살짝 튀겨서 무친 반찬이 맛있음}{62: 별표 5개 -2달 전-좋아요}{61: 별표 5개 -1년 전-밥 먹기도 술 마시기도 좋은 류의 가게^^}{60: 별표 1개 -1년 전-대로변쪽에 있는 1호점에 2명이 갔더니 테이블이 있음에도 불구하고 없다고 내쫓김. 바로 뒤에 3명 손님도 있었는데 4인석 자리에 앉는다고 했더니 "아 그 자리는..."하면서 띠꺼워함. 사장님인지 직원인지 모르겠지만 2인 손님은 손님도 아닌가봄}{59: 별표 3개 -1년 전-나쁘지 않은 가격 개인메뉴. (Feat.스카우트회의)}{58: 별표 1개 -9달 전-생선이 한번 구운걸 전자레인지에 데워서 나옴...}{57: 별표 4개 -1달 전-좋습니다}{56: 별표 5개 -2년 전-3가지 생선 요리를 시켰는데 모두 다 맛이 최고였어요. 서브 매너도 좋고 내부 분위기도 상급입니다. 화장실이 밖으로 나가 주차장 건너 옆건물에 있어서 불편했음.}{55: 별표 4개 -1년 전-생선구이 맛집!!! 밑반찬 너무 맛있어요. 탕류도 다 좋네요~ 조금 매운편이예요 ~~~ 화장실 먼거빼고 굿!}{54: 별표 4개 -1년 전-맛있어요~ 곁반찬도 다 맛있고 근데 가격이 부담없이 즐기는 그런 가격은 아니예요~}{53: 별표 1개 -10달 전-너무 바빠 좀 불친절.. 점심 단가치고 쎄요}{52: 별표 4개 -1년 전-생선도 괜찮지만 반찬들도 다 맛있어요}{51: 별표 5개 -7달 전-여의도 최고 밥집}{50: 별표 5개 -10달 전-음식 깔끔! 고급스러운 맛!}{49: 별표 2개 -10달 전-생선구이 전문점 특별한 감동 없음}{48: 별표 5개 -1년 전-1호점보다 100배 친절}{47: 별표 4개 -1주 전-저렴}{46: 별표 5개 -11달 전-맛은괜찮은편입니다}{45: 별표 3개 -10달 전-구이는 괜찮으나 탕 종류는 모든 탕이 국물 맛이 똑같다}{44: 별표 1개 -9달 전-반찬과 탕은 괜찮은데.. 정작 구이는..}{43: 별표 3개 -1년 전-밑반찬 구성이 다양하고 본 메뉴도 맛좋고 양도 푸짐한 편인데 가격대를 생각하면 "가볍게 들르기 좋은 맛집"이라는 관점에서 아주 좋은 평점을 주기에는 무리가 있습니다. 서버들의 서비스 수준은 개선의 여지가 있습니다.}{42: 별표 4개 -11달 전-가격이 조금 아쉽지만 맛난 탕과 생선구이를 먹을수 있어요}{41: 별표 4개 -1년 전-고등어조림 생선구이 및 반찬이 너무 맛있는곳!!단 1인분 양이 좀 많아서 1인당 1메뉴 주문하지 않으면 반찬 리필이 안됌.반찬 남겨서 버리는거 많은데 돈보단 환경도 생각해 주셨으면 좋겠음.}{40: 별표 5개 -11달 전-맛있아요! 배부른데 맛있어서 계속 먹음!}{39: 별표 4개 -9달 전-반찬도 잘나오고 괜찮아요}{38: 별표 4개 -8달 전-정성스런 반찬에 한표!!}{37: 별표 5개 -1년 전-생선구이 찜 탕 다 맛있고반찬이 준한정식급으로 잘 나옴}{36: 별표 4개 -1년 전-생선구이가 땡기는날 가격은 보통 맛은 만족}{35: 별표 4개 -5달 전-건강한맛 1인1주문은 힘들어}{34: 별표 5개 -1년 전-반찬이 정말 잘나옵니다. 가지반찬 엄청 맛있고요.생선구이등 정말 잘합니다.여기만 가면 과식하는거 같아요.}{33: 별표 5개 -10달 전-반찬이 다양하며 정갈하고 맛있다. 생선구이도 살이 많아 좋다}{32: 별표 4개 -6달 전-왠만한 음식들이 다 괜찮다. 맛있습니다}{31: 별표 4개 -5달 전-반찬이 푸짐하고 맛있고 메인 식사 또한 괜츈! 하지만 가격이 쎄다 ㅠ}{30: 별표 3개 -6달 전-맛은있음. 직원이 상당히 불친절한 정신없는 가게. 장사 잘된다고 배짱 부리시는듯. 알탕이랑 임연수는 맛있음}{29: 별표 1개 -6달 전-가격이 턱없이 비싼데 맛은 가격만큼 못 따라가는 아쉬움이 많은 식당}{28: 별표 5개 -2달 전-항상 정갈한 맛^^}{27: 별표 4개 -8달 전-생선구이를 맛있게 먹을 수 있어요. 밑반찬이 또 맛있고요.}{26: 별표 5개 -9달 전-밑반찬이  메인을 안시켜도 좋을만큼 맛있네요.메인으로 나오는 구이나 탕 모두 정말 신선하고 간도 딱 좋고 맛이 최고였어요}{25: 별표 5개 -1년 전-밑반찬부터 하나하나 퀄리티가 높습니다. 자극적이지 않으면서도 맛이 좋습니다. 메인 요리 역시 좋고요. 식사와 반주 모두 훌륭한 선택이 될겁니다.}{24: 별표 5개 -2년 전-맘에 드는 합리적인 가격의 생선구이집 찾기가 참 어려워졌어요! KBS앞 더샵  일층에 위치한 구이구이! 숯불에 구운 듯한 생선구이 삼치 연어 고등어 정말 맛있습니다. 저는 연어구이 좋아합니다. 혼자 먹긴 양이 많아서 2인 1조로 탕하나 구이하나 먹으면 딱 좋아요! 반찬으로 나오는 가지튀김 무침은 두고두고 생각나는 반찬입니다. 중국집 가지튀김보다 개인적으로는 더 맛이 있습니다. 김치도 서울식 멸치볶음도 서울식으로  깔끔 짭조름…}{23: 별표 3개 -6달 전-다양한 생선구이와 찌개가 맛이 좋음가격이 다소 높음}{22: 별표 5개 -7달 전-사이드 메뉴가 신선하고 풍족하며 맛있네요}{21: 별표 5개 -11달 전-밑반찬이 깔끔하고 맛있어요. 메인보다 밑반찬이 더 맛있기는 처음인듯하네요. 유명인사들이 자주  오는 곳이라네요. 벨이 없는게 단점이지만 만족합니다.}{20: 별표 5개 -1달 전-밑반찬도 생선도 맛있네요}{19: 별표 4개 -6달 전-바쁠때 서빙에게 큰 기대만 안하면 식사하러 가기 딱 좋은곳}{18: 별표 5개 -5달 전-생선구이도 맛있지만 밑반찬이 더욱 맛있는 집!}{17: 별표 5개 -8달 전-항상 실망시키지 않는 음식점.다양학&lt;U+11A2&gt; 정갈한 밑반찬.일식 구이의 최고보봉}{16: 별표 4개 -5달 전-다양한 생선요리를 맛볼 수 있음. 밑반찬이 다양해서 좋음.}{15: 별표 5개 -3달 전-좀 비싸지만 맛있어요~ 생선구이 15000원 정도}{14: 별표 3개 -2년 전-구이구이집이지만생선구이가 훌륭하진않다.반찬이 집반찬처럼 정갈해서 맛있는데가지튀김감자오뎅볶음 등이 무난하다.가격이 비싼편이다.그리고 1인당 1개씩 안시키면 눈치 많이 주는곳.그래서 여자 둘이 가면 엄청 많이 남는다.}{13: 별표 4개 -3달 전-조금 비싸지만 퀄리티가 높은 식당}{12: 별표 5개 -1년 전-평일 점심시간엔 근처 직장인들이 몰리기 떄문에 11시반에 가도 기다려서 먹어야 합니다. 야외 좌석이 있어서 날씨가 너무 덥지 않을 때는 야외에서 먹어도 괜찮습니다. 점심에는 구이식당으로 저녁에는 술집으로 운영됩니다.반찬이 10여가지 나오며 모두 맛이 괜찮습니다. 반찬은 리필이 가능합니다.반찬 중에서는 가지조림이 특히나 맛있으며(따로 판매해도 괜찮을 만큼) 리필이 가능합니다.구이 중에서는 옥돔구이와 연어구이를 추천합니다!!건물 지하에 주차도 가능하며 식사 후 계산 시 주차권을 받을 수 있습니다.}{11: 별표 4개 -3달 전-맛은 최고. 너무 바빠서 이모님이랑 아이컨택 한번 하려면 최소 5번은 불러야해서 아쉬움}{10: 별표 5개 -10달 전-생산구이 고등어구이 알탕 시켰는데 정말 맛있어요. 특히 반찬도 맛있어요.}{9: 별표 5개 -1년 전-너어어무 맛있어요. 생선도 깔끔하고 맛있고 밑반찬이 정갈하고 맛있습니다! 강력히 추천드려요}{8: 별표 4개 -2달 전-메인메뉴보다도 밑반찬들이 너무 맛있는 밥집이군요^^ 잘 먹었습니다}{7: 별표 5개 -1년 전-정말 맛있어요. 특히 고등어구이. 반찬도 정갈하고 맛있어요. 강추. 열무김치 정말 맛있어요.}{6: 별표 4개 -1달 전-생선구이랑 찜 가격이 좀 있습니다. 알탕 만삼천원에 먹었는데 날 많이 들어있고 반참도 마름 깔끔합니다.}{5: 별표 5개 -1달 전-모든메뉴 맛있습니다. 반찬들도 맛있구요. 생선좋아하시는분들 추천드려요!}{4: 별표 5개 -1년 전-생선구이 전문점.. 흔치 않은 메로구이도 많이 나오는 곳. 전반적으로 깔끔하고 간이 많이 쎄지 않아 좋은 듯}{3: 별표 4개 -2달 전-종종 가는데 괜찮습니다 집에서 생선을 구울수가 없으니 냄새 때문에}{2: 별표 5개 -1주 전-사장님도 친절 독특한 캐릭터 입니다. 맛도 짱이구여}{1: 별표 4개 -2달 전-생선구이 먹고싶을때 가면 행복한 그곳.. 가격은 쌔긴하지만 쌘 값을 한다. 반찬도 깔끔하고 여러 종류의 생선을 먹을수 있는 곳!}</t>
   </si>
   <si>
@@ -259,12 +357,18 @@
     <t>영원식당</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의나루로 117</t>
+  </si>
+  <si>
     <t>{399: 별표 2개 -1년 전-}{398: 별표 5개 -2년 전-}{397: 별표 3개 -1년 전-}{396: 별표 4개 -1년 전-}{395: 별표 5개 -3주 전-}{394: 별표 3개 -1년 전-}{393: 별표 4개 -4년 전-}{392: 별표 3개 -1년 전-}{391: 별표 4개 -1달 전-}{390: 별표 3개 -10달 전-}{389: 별표 4개 -7달 전-}{388: 별표 5개 -9달 전-}{387: 별표 2개 -1년 전-}{386: 별표 4개 -7달 전-}{385: 별표 5개 -1년 전-}{384: 별표 3개 -2년 전-}{383: 별표 4개 -3달 전-}{382: 별표 5개 -1년 전-}{381: 별표 5개 -1년 전-}{380: 별표 5개 -2년 전-}{379: 별표 5개 -1년 전-}{378: 별표 5개 -1년 전-}{377: 별표 4개 -1년 전-}{376: 별표 4개 -6달 전-}{375: 별표 4개 -2년 전-}{374: 별표 4개 -1년 전-}{373: 별표 3개 -3달 전-}{372: 별표 3개 -1년 전-}{371: 별표 3개 -1년 전-}{370: 별표 4개 -8달 전-}{369: 별표 5개 -11달 전-}{368: 별표 4개 -2년 전-}{367: 별표 5개 -1년 전-}{366: 별표 2개 -2년 전-}{365: 별표 5개 -8달 전-}{364: 별표 5개 -2년 전-}{363: 별표 3개 -2달 전-}{362: 별표 4개 -1년 전-}{361: 별표 5개 -2년 전-}{360: 별표 5개 -3년 전-}{359: 별표 3개 -1년 전-}{358: 별표 3개 -11달 전-}{357: 별표 5개 -9달 전-}{356: 별표 4개 -1년 전-}{355: 별표 5개 -2년 전-}{354: 별표 4개 -9달 전-}{353: 별표 5개 -1년 전-}{352: 별표 4개 -1년 전-}{351: 별표 4개 -1년 전-}{350: 별표 3개 -3년 전-}{349: 별표 4개 -1년 전-}{348: 별표 3개 -1년 전-}{347: 별표 3개 -2년 전-}{346: 별표 1개 -8달 전-}{345: 별표 4개 -7달 전-}{344: 별표 5개 -9달 전-}{343: 별표 4개 -1달 전-}{342: 별표 5개 -1년 전-}{341: 별표 4개 -1년 전-}{340: 별표 4개 -3주 전-}{339: 별표 4개 -6달 전-}{338: 별표 2개 -11달 전-}{337: 별표 5개 -1년 전-}{336: 별표 5개 -1년 전-}{335: 별표 5개 -1년 전-}{334: 별표 4개 -1달 전-}{333: 별표 4개 -7달 전-}{332: 별표 4개 -7달 전-}{331: 별표 4개 -8달 전-}{330: 별표 4개 -1년 전-}{329: 별표 5개 -6달 전-}{328: 별표 3개 -7달 전-}{327: 별표 4개 -8달 전-}{326: 별표 1개 -10달 전-}{325: 별표 5개 -1년 전-}{324: 별표 5개 -1년 전-}{323: 별표 4개 -1달 전-}{322: 별표 3개 -3주 전-}{321: 별표 4개 -10달 전-}{320: 별표 4개 -7달 전-}{319: 별표 3개 -1년 전-}{318: 별표 3개 -1년 전-}{317: 별표 5개 -1년 전-}{316: 별표 4개 -2달 전-}{315: 별표 5개 -1년 전-}{314: 별표 3개 -9달 전-}{313: 별표 2개 -8달 전-}{312: 별표 5개 -10달 전-}{311: 별표 4개 -1년 전-}{310: 별표 4개 -6달 전-}{309: 별표 5개 -1년 전-}{308: 별표 3개 -10달 전-}{307: 별표 4개 -3년 전-}{306: 별표 4개 -3달 전-}{305: 별표 4개 -1년 전-}{304: 별표 5개 -2년 전-}{303: 별표 4개 -2년 전-}{302: 별표 5개 -10달 전-}{301: 별표 4개 -2달 전-}{300: 별표 5개 -3년 전-}{299: 별표 4개 -1년 전-}{298: 별표 3개 -1년 전-}{297: 별표 4개 -8달 전-}{296: 별표 4개 -2년 전-}{295: 별표 5개 -1년 전-}{294: 별표 5개 -10달 전-}{293: 별표 4개 -1년 전-}{292: 별표 5개 -2년 전-}{291: 별표 4개 -1년 전-}{290: 별표 4개 -2년 전-}{289: 별표 5개 -1년 전-}{288: 별표 3개 -1년 전-}{287: 별표 5개 -9달 전-}{286: 별표 5개 -1년 전-}{285: 별표 4개 -1년 전-}{284: 별표 5개 -1년 전-}{283: 별표 3개 -2년 전-}{282: 별표 4개 -8달 전-}{281: 별표 5개 -1년 전-}{280: 별표 5개 -11달 전-}{279: 별표 4개 -1년 전-}{278: 별표 5개 -1년 전-}{277: 별표 5개 -9달 전-}{276: 별표 3개 -3년 전-}{275: 별표 5개 -2년 전-}{274: 별표 5개 -7달 전-}{273: 별표 5개 -3년 전-}{272: 별표 3개 -9달 전-}{271: 별표 5개 -8달 전-}{270: 별표 4개 -3달 전-}{269: 별표 3개 -1년 전-}{268: 별표 5개 -9달 전-}{267: 별표 4개 -2년 전-}{266: 별표 3개 -2년 전-}{265: 별표 4개 -10달 전-}{264: 별표 4개 -11달 전-}{263: 별표 4개 -1년 전-}{262: 별표 4개 -1년 전-}{261: 별표 4개 -1년 전-}{260: 별표 3개 -10달 전-}{259: 별표 3개 -3달 전-}{258: 별표 5개 -3년 전-}{257: 별표 4개 -10달 전-}{256: 별표 5개 -6달 전-}{255: 별표 5개 -6달 전-}{254: 별표 4개 -1년 전-}{253: 별표 4개 -10달 전-}{252: 별표 3개 -1달 전-}{251: 별표 5개 -1년 전-}{250: 별표 4개 -10달 전-}{249: 별표 3개 -1년 전-}{248: 별표 4개 -10달 전-}{247: 별표 3개 -3년 전-}{246: 별표 5개 -11달 전-}{245: 별표 5개 -1년 전-}{244: 별표 4개 -1년 전-}{243: 별표 5개 -10달 전-}{242: 별표 4개 -1년 전-}{241: 별표 5개 -3년 전-}{240: 별표 3개 -1년 전-}{239: 별표 4개 -3달 전-}{238: 별표 1개 -11달 전-}{237: 별표 5개 -9달 전-}{236: 별표 5개 -2년 전-}{235: 별표 5개 -3년 전-}{234: 별표 4개 -7달 전-}{233: 별표 5개 -3년 전-}{232: 별표 5개 -1년 전-}{231: 별표 5개 -8달 전-}{230: 별표 4개 -6달 전-}{229: 별표 4개 -1년 전-}{228: 별표 4개 -1년 전-}{227: 별표 3개 -1년 전-}{226: 별표 5개 -1년 전-}{225: 별표 4개 -1년 전-}{224: 별표 5개 -8달 전-}{223: 별표 4개 -1년 전-}{222: 별표 5개 -2달 전-}{221: 별표 4개 -1년 전-}{220: 별표 1개 -1년 전-}{219: 별표 4개 -11달 전-}{218: 별표 4개 -8달 전-}{217: 별표 4개 -2년 전-}{216: 별표 4개 -10달 전-}{215: 별표 5개 -1년 전-}{214: 별표 2개 -8달 전-}{213: 별표 4개 -9달 전-}{212: 별표 3개 -1년 전-}{211: 별표 3개 -7달 전-}{210: 별표 4개 -1년 전-}{209: 별표 5개 -4일 전-}{208: 별표 5개 -9달 전-}{207: 별표 4개 -10달 전-(Google 번역 제공) 이 식당에는 맛있는 수제비가 있습니다.이 식당의 직원은 친절합니다.내가 추천하는 음식은 수제비와 감자 팬케이크입니다.여기 분위기가 정말 좋습니다.(원문)This restaurant has delicious sujebi.This restaurant's staff is kind.My recommended foods here are sujebi and potato pancake.The atmosphere here is really nice.}{206: 별표 3개 -6달 전-(Google 번역 제공) 내 관리자가 말한대로 과대 광고를하지 않습니다. 평일 점심 시간에 방문 할 때 긴 줄을 기대해야합니다. 수프는 일반적으로 한국인이 새해 첫날 첫 식사를 위해 먹는 전통 새해 요리 인 덕국을 상기시켰다.내가 지적하고 싶은 몇 가지는 국물을 만들기 위해 너무 많은 식품 첨가물을 넣은 것과 같은 맛입니다. 그리고 영양 탄수화물 탄수화물 탄수화물 탄수화물 !!! 영양 적으로 균형 잡힌 음식이…}{205: 별표 3개 -1년 전-(Google 번역 제공) 어머니의 맛 계수제비 (수제비 수제비)가 유명 언론에도 소개 된 가게.평일 낮에는 직장인들로 붐빈다 가능성 높습니다.작은 담아 쌀이 무료. 김치는 3 종류.파전 (파전) 막걸리 (막걸리)와 함께 먹고있는 사람이 역시 많다.(원문)おふくろの味系スジェビ(수제비 すいとん)が有名で マスコミにも紹介された店。平日の&lt;U+663C&gt;にはサラリ&lt;U+30FC&gt;マン達で混む可能性高いです。小盛りのライスが無料。キムチは3種類。パジョン(파전) マッコリ(막걸리)と一&lt;U+7DD2&gt;に食べてる人がやっぱり多い。}{204: 별표 5개 -5년 전-맛있더}{203: 별표 4개 -4년 전-수제비 맛있음}{202: 별표 5개 -4년 전-여의도 맛집}{201: 별표 4개 -3년 전-수제비 맛집}{200: 별표 3개 -3년 전-MSG의 맛에 흠뿍!}{199: 별표 4개 -3년 전-수제비 갑}{198: 별표 3개 -3년 전-보통이었어요}{197: 별표 5개 -3년 전-수제비가 맛남}{196: 별표 5개 -2년 전-너무 맛나요}{195: 별표 4개 -2년 전-내입맛엔 딱.}{194: 별표 4개 -1년 전-맛있어요}{193: 별표 4개 -2년 전-ㅍ.}{192: 별표 3개 -1년 전-맛있어요}{191: 별표 5개 -1년 전-맛있어요}{190: 별표 5개 -1년 전-너무맛있음}{189: 별표 1개 -1년 전-별로..}{188: 별표 5개 -1년 전-맛남}{187: 별표 5개 -1년 전-괜찮음}{186: 별표 4개 -6달 전-수제비}{185: 별표 4개 -3년 전-맛있는 수제비집}{184: 별표 5개 -1년 전-수제비맛있어}{183: 별표 4개 -2년 전-수제비 유명함}{182: 별표 4개 -2년 전-맛최고}{181: 별표 4개 -2년 전-수제비 닭도리탕 감자}{180: 별표 2개 -1년 전-예전만 못하다}{179: 별표 3개 -2년 전-국수가 맛있었다.}{178: 별표 4개 -2년 전-수제비가 일품}{177: 별표 4개 -1년 전-수제비가 먹을만함}{176: 별표 1개 -8달 전-너무 비싸요}{175: 별표 4개 -3년 전-수제비와 닭도리탕이 시그니처 메뉴입니다. 단 점심은 수제비만 팔구요 닭도리탕은 좀 기둘려야되니 예약하세요.}{174: 별표 5개 -1년 전-맛있는 수제비}{173: 별표 4개 -1년 전-수제비는 거의 남바원}{172: 별표 5개 -11달 전-마이쪄엉}{171: 별표 5개 -2년 전-수제가 생각날때}{170: 별표 1개 -2년 전-종업원 불친절 음식 청결도 좋지 않음}{169: 별표 4개 -1년 전-맛있는 수제비}{168: 별표 4개 -1년 전-늘언제나 밀가루땡기면 고고}{167: 별표 4개 -1년 전-낮에는 수제비 저녁엔 닭도리탕이 진리죠}{166: 별표 5개 -9달 전-맛있어요}{165: 별표 5개 -4년 전-DJ DOC 하늘이형 추천집}{164: 별표 4개 -1년 전-수제비 맛있어요}{163: 별표 1개 -2년 전-서비스 그지임 먼저온 2명 대기해도 뒤늦게온 3명 4명 먼저들여보내줌 돈에 미친곳같음}{162: 별표 5개 -2년 전-수제비는 두말 할 것 없이 맛있고 저녁에 가면 닭도리탕을 하는데 끝내줍니다!}{161: 별표 4개 -3년 전-msg맛 가득한 수제비 맛집}{160: 별표 4개 -2년 전-수제비가 맛있는데 후추맛이강해요}{159: 별표 5개 -8년 전-웬만한 여의도사람은 다 아는 맛집이죠. 수제비 맛이 일품입니다. 감자전도 맛있고 양도 푸짐합니다}{158: 별표 4개 -2년 전-맛 좋은 집. 노후화.}{157: 별표 4개 -3년 전-수제비가 맛있으나 평일 점심에는 사람이 많음}{156: 별표 4개 -3년 전-구 MBC 근처 직장인 분들에게는 너무 좋은 수제비 맛집!}{155: 별표 4개 -2년 전-전통작 수제비맛집}{154: 별표 5개 -3년 전-유서깊은 수제비집. 사골스타일의 수제비라 더 귀하다.}{153: 별표 3개 -7달 전-짜다}{152: 별표 5개 -8달 전-맛집입니다.}{151: 별표 3개 -1년 전-여의도 수제비의 레전설}{150: 별표 4개 -2년 전-옛날 수제비를 추억하게 한다. 맛 좋다}{149: 별표 4개 -2년 전-수제비가 유명함. 닭도리탕과 감자전. 과메기. 다소 비쌈}{148: 별표 5개 -11달 전-수제비 최고}{147: 별표 4개 -3년 전-최고의 수제비. 단점은 빨리가야 먹음. 파전도 맛나요}{146: 별표 3개 -1년 전-간이 전반적으로 좀 쎕니다 (조미료의 맛)}{145: 별표 4개 -1년 전-과메기를 먹어보라...감동할지니 ㅋㅋ}{144: 별표 5개 -1년 전-수제비가 일품~}{143: 별표 4개 -1년 전-수제비가 먹고 싶을 땐 어김없이 영원식당.저녁엔 닭볶음탕에 막걸리가 짱이지요.}{142: 별표 4개 -2년 전-수제비로 유명한 곳이지만 파전도 맛있습니다.}{141: 별표 4개 -1년 전-생각하는 그맛 이상의맛도 없음 딱 그맛!}{140: 별표 4개 -1년 전-맛있는 집입니다}{139: 별표 4개 -8달 전-국물이 진해요.}{138: 별표 4개 -1년 전-맞있긴한데 약간비싸요}{137: 별표 3개 -1년 전-맛은 있지만 분위기가...}{136: 별표 4개 -2년 전-수제비 과메기가 맛있음 김치가 4종에서 3종으로 줄은게 아쉬움}{135: 별표 3개 -1년 전-밀가루반죽이덜된것같고 파전? 너무성의없는맛}{134: 별표 4개 -1년 전-수제비가 맛있어요..}{133: 별표 5개 -1년 전-아주 맛난 수제비....}{132: 별표 4개 -1년 전-수제비는 그대로인데 겉절이의 맛이 예전대비 많이 악화... 예전렌 겉절이만 먹곤 했는데...}{131: 별표 5개 -1년 전-존맛}{130: 별표 4개 -2년 전-최고의 수제비집. 맛있는 닭도리탕은 덤}{129: 별표 1개 -10달 전-기다린 보람도 없는 곳}{128: 별표 4개 -1년 전-여의도 수제비 맛집 특히 감자전은 진짜 맛있다. 단점은 정오 넘으면 품절.}{127: 별표 3개 -1년 전-수제비 맛나요. 주말 여의도서 가볼만한 집... 근데 파전은 좀 비싼듯 한...나만 그러나?}{126: 별표 3개 -1년 전-예전보다 양이 줄고 국의 농도(?)도 낮아졌으나 여전히 맛있음}{125: 별표 3개 -9달 전-평범한 맛}{124: 별표 3개 -11달 전-여의도에서 수제비는 여기가 좋을 듯..}{123: 별표 1개 -1년 전-사람이 갑자기 많아졌다. 15 년 단골집이였는데 뚱댕이 아줌마 때문에 방송광고 오지네 한동안 못가겠다.}{122: 별표 5개 -1년 전-전통의 수제비 맛남}{121: 별표 1개 -8달 전-좀 기대이하입니다}{120: 별표 4개 -1달 전-맛있습니다.}{119: 별표 1개 -11달 전-위생이 별로...}{118: 별표 5개 -8달 전-파전과 수제비 매우맛있음}{117: 별표 4개 -2년 전-가격이 싸지는 않지만 항상 점심시간에 분주한 수제비 전문점. 가끔 갈때마다 실망시키지 않는 맛!감자전과 파전도 먹을만함}{116: 별표 5개 -1년 전-수제비 맛과 김치 겉절이의 조화!}{115: 별표 4개 -1년 전-수제비는 이집이 단연 최고}{114: 별표 4개 -1년 전-파전&amp;수제비 괜찮네요...}{113: 별표 4개 -1년 전-점심 간단하게 먹기 좋네요}{112: 별표 5개 -1년 전-수제비도 맛있고 겉절이김치도 아주 맛있어요}{111: 별표 4개 -7달 전-자꾸 생각나는맛}{110: 별표 4개 -1년 전-수제비전문점 간단한 점심식사}{109: 별표 2개 -1년 전-그냥수제비맛 청결이;^^}{108: 별표 3개 -5달 전-수제비 먹었어요.}{107: 별표 4개 -9달 전-좋아요~~주차두 되구요12시 반만 되도 사람들이 훅 빠지더라구요수제비가 진짜 맛있지만파전두 감자전두 맛있어요특히 요즘은 감자전 먹으러 자주 가게 되는 곳입니다}{106: 별표 4개 -1년 전-맛좋은 닭볶음탕 파전 그리고 수제비!}{105: 별표 4개 -6달 전-여의도 오래된 칼국수 맛집}{104: 별표 3개 -2년 전-그냥 저냥 먹을만한 수제비 김치는 달달한게 수제비를 먹을때 딱 적당한 그런 양념입니다. 조미료의 맛이 많이 나지만 그 때문에 맛있습니다.}{103: 별표 4개 -1년 전-점심땐 줄서야함. 수제비 굿}{102: 별표 4개 -10달 전-다 좋은데 위생이.. ㅠㅠ 별로...}{101: 별표 4개 -10달 전-몸에는 안좋은맛같지만 한번씩 먹기에 맛있는}{100: 별표 5개 -7달 전-The best 수제비}{99: 별표 4개 -1년 전-수제비 맛있습니다. 짜지않은 시원한 국물 굿~}{98: 별표 4개 -11달 전-수제비 국물이 좀 짠데..이건 개취이니 참고하세요.}{97: 별표 2개 -10달 전-맛과양이 예전만 못해요}{96: 별표 3개 -8달 전-점심때는 손님이 너무 많아 불친절.}{95: 별표 3개 -1년 전-노멀해요 생각보다 가성비는 별로 였어요}{94: 별표 1개 -9달 전-매우 불친절 밥먹다가 기분이 나빠질 정도 파전은 들어간것도 없이 비싸기만함}{93: 별표 1개 -1년 전-너무 짜고 용기는 플라스틱 ㅋㅋ}{92: 별표 5개 -1년 전-수재비 + 김치가 맛있어요.}{91: 별표 1개 -11달 전-불친절 맛없음 위생불량}{90: 별표 5개 -9달 전-굿입니다.}{89: 별표 4개 -1년 전-시원한수제비 국물과 김치와의 환상조합}{88: 별표 5개 -10달 전-굿 수제기 맛집}{87: 별표 2개 -11달 전-강렬한 맛이 있는 곳}{86: 별표 2개 -3달 전-그냥 그렇더라}{85: 별표 5개 -1년 전-2000년에 여의도 근무할때 자주 가던 칼국수집. 정말 오랜만에 먹었는데 여전히 맛있네요.}{84: 별표 4개 -9달 전-맛있는겉절이와수제비}{83: 별표 5개 -1년 전-세상 맛있는 수제비였어요! 겉절이와 익은김치를 같이 주는 곳 너무 맛있게 먹었어요! ♡♡♡}{82: 별표 4개 -1년 전-난 수제비를 좋아하니 별4개!}{81: 별표 2개 -1년 전-딱 조미료 맛. 조미료 중독이신 분들과 옛추억이 있는 분들은 아주 좋아할듯.}{80: 별표 4개 -2년 전-수제비와 감자전에 막걸리 강추}{79: 별표 4개 -1년 전-평범한수제비맛}{78: 별표 5개 -2달 전-수제비 맛있어요}{77: 별표 1개 -8달 전-가격에비해맛이너무없음 음식이 성의없게 보임}{76: 별표 5개 -5달 전-파전 너무 맛나요!}{75: 별표 5개 -1년 전-여의도역 인근 서울아파트 상가2층 모든 메뉴가 셀랍입니다 그 중 베스트는 역시 수제비}{74: 별표 5개 -1년 전-수제비 맛집이다. 언제 먹어도 변함없이 맛있는 집이다. 김치와 함께 먹으면 매우 맛있다. 가끔 계란 껍질이 수제비에 들어 있어서 조심해야 된다. 나는 10년이 넘도록 이 집에서 수제비를 먹었다.}{73: 별표 1개 -9달 전-굳이 여기까지 찾아와서 먹을 이유가 없다.}{72: 별표 3개 -1년 전-수제비 두께 적당하니 먹을만 함.가끔씩 국물이 너무 짜다.}{71: 별표 5개 -1년 전-내가 수제비로 제일 좋아하는 곳. 김치도 맛있다.}{70: 별표 4개 -11달 전-깔끔하고 맛있다! 국물은 만둣국 같은 맛}{69: 별표 4개 -1년 전-파전도 수제비도 맛있고 분위기도 좋음.하지만 평일에 줄을 너무 길다.}{68: 별표 4개 -1년 전-수제비. 파전.다만 다소 짜다..  물한컵 넣어먹어도 좋음}{67: 별표 3개 -7달 전-오랜만에 왔는데 해물전이 예전보다 못하네요. 그래도 국물은 맛나네요.}{66: 별표 3개 -11달 전-점심은 파전과 수제비만 되는데 맛은 그냥 저냥임. 그래도 사람 많음.}{65: 별표 4개 -1달 전-영원한 수제비}{64: 별표 3개 -8달 전-맛이 있긴 하지만 MSG의 맛이..그리고 항상 느끼지만 주방이 넘 더러워요.}{63: 별표 5개 -6달 전-오랜만에 들렸는데 맛이 여전합니다}{62: 별표 3개 -7달 전-수제비 파전은 괜찮지만 과메기는 비추입니다}{61: 별표 4개 -10달 전-가끔 가지만 깔끔한 맛의 수제비 그리고 구수한 파전}{60: 별표 5개 -1년 전-수제비 파전 닭볶음탕 맛있어요.원래 수제비랑 김치로 유명했던곳인데 김치는 예전 그맛은 아니지만 그래도 맛있어요}{59: 별표 4개 -7달 전-특별하지 않지만 맛있는 수제비에요 공기밥양이 매우적지만 기본으로 제공되니 아이들은 밥말아 먹으면 돼요 ㅎㅎ 주차가 헬이라 별하나뺐어요}{58: 별표 3개 -1년 전-맛이 옛날같지 않음. 이젠 그냥 평범한 맛.그래도 수제비 파는 곳이 별로 없어서 꼭 먹고싶으면 한번쯤 와서 먹는 수준.}{57: 별표 2개 -10달 전-맛있는것도 양이많은것도 친절한것도 아닌데 왜캐 줄이긴지 이해가 안감}{56: 별표 3개 -1년 전-맛은 있는 것 같은데 2명 갔는데 점심 때라 파전 1에 수제비 1은 안된다며 수제비 2개를 꼭 시키라 강요함.ㅎㅎㅎ 점심 때는 자리값이 비싸다는 것인지. 다소 이해 안됨}{55: 별표 5개 -1년 전-이곳은 서울상가라는 건물이고  주위에 금융기관.  방송국등.셀러리맨 들이  점심.퇴근시 한잔하기 좋은곳이며 가격도 저렴한편입니다 .  다양한 메뉴를가진 상가입니다!}{54: 별표 5개 -10달 전-수제비 유명하다고해서 가봤는데 정말 맛집이더라구요 사람 너무 많은거 빼고는 다 만족입니다}{53: 별표 4개 -9달 전-진한 멸치육수 매끈 쫄깃한 수제비 다소 비싸지만 맛있음}{52: 별표 4개 -8달 전-맛있어요 날추울때면 생각나요}{51: 별표 4개 -1년 전-수제비가 유명한곳. 수제비가 맛있습니다. 감자전도 맛이 있어서 갈때마다 감자전도 같이 주문해서 먹었었는데 갑자기 감자전이 안되는 날도 있더라구요ㅜ 그래서 파전 먹었는데 파전도 맛이 괜찮습니다. 다른메뉴는 안먹어봐서 모르겠고 서빙보시는 아주머니가 상당히 시크하십니다}{50: 별표 5개 -8달 전-여기보다 맛있는 수제비 맛집을 아직 찾지 못했다}{49: 별표 1개 -1년 전-진짜 불친절... 메뉴도 다 안된다하는데 미리 얘기해주시던지... 주문 다 받아놓구선 나중에 안된다하고 반찬도 몇 개 없으니 알아서 먹으라하지 않나... 이럴거면 아예 손님을 받지 말던가 참;;;진짜 기분만 더러워지고 왔네요}{48: 별표 3개 -11달 전-비가 오는 날이라 수제비가 먹고싶어서 갔어요저희 엄마가해준 수제비같네요집 수제비 느낌입니다;-)가격은 7천원으로 여의도에선 저렴한편입니다.}{47: 별표 2개 -4달 전-여전히 불친절한 쥔장...주변에 수제비 먹을데가 이 집 밖에 없으니 어쩔 수 없이 아주 가끔 가는정도??}{46: 별표 4개 -6달 전-수제비 맛있어요. 파전은 생각보다는...}{45: 별표 5개 -7달 전-새로운맛집이네요ㆍ탁자식이면 금상첨화}{44: 별표 4개 -10달 전-진한 수제비 국물에 감자전 하나면 세상 행복하다. 평일 점심은 기다리고 저녁은 사람이없다잉 알지 이곳은 여친이랑 오는 곳이 아니여 !}{43: 별표 5개 -1달 전-맛있는 수제비.}{42: 별표 3개 -7달 전-맛은 전형적인 칼국수의 맛입니다. 다만 식기나 물통의 세척상태가 아주 뛰어난 편은 아닌것으로 생각됩니다.}{41: 별표 4개 -1년 전-신의 가루맛?이면 어때 마이쪄}{40: 별표 1개 -9달 전-비추입니다.방송보고 찾아갔는데 맛없다.일부러 점심시간 피해서 장거리 택시타고 갔었는데  기대이하였고 불친절했다.손님이 들어왔을때 몇시까지 식사해주시라고 하시던가 아님 3시부터 브레이크타임이라고 알려주시던가손님이  있는데 숟가락 내려놓자 바로 테이블로 와서  테이블을 정리했다.}{39: 별표 5개 -2년 전-안가봤는데 한국 최고의 수제비집이라고...}{38: 별표 4개 -7달 전-수제비보다 파전이 더 맛나요. 수제비 국물이 맛있어요.}{37: 별표 3개 -6달 전-명성에 비해 많이 부족한 맛.간이 쎄서 거북.}{36: 별표 1개 -1년 전-일욜이라 손님이 한팀도 없음에도 불구하고.주문한지십분지나서야 주방이모가 주문하셨나 물어보고 홀이모는 아까수제비한개라고 얘기하지않았냐그러고 .음식나올때도 계산할때도  친절함은 일도없는..줄서는맛집은 그래도 되는건지..맛도그닥..두번은가고싶지 않는..}{35: 별표 3개 -9달 전-백반기행에나와서  찾아가봤는데 ...감자전은 맛있었어요..밀가루가 많이들어가긴 했어도..수제비는..그닥..  제 입맛이 이상한지 조미료밋이 너무마니나서리.ㅠ ㅁ}{34: 별표 4개 -6달 전-GD가 여의도오면 간다는 그곳.기본이상은 한다.}{33: 별표 4개 -7달 전-조미료 맛의 정수라고 봅니다. 조미료 맛이 많이나면 금방 질리는데 가끔생각납니다. 늘 줄이길지만 기다려서라도 먹을정도로요.  회전이빨라 대기는 길지않습니다. 좀 불친절하고 그릇들이 낡아서 좀 비위생적으로 보입니다만...그래도 가끔 줄서서 먹고싶어지는 희한한 조미료 맛이네요ㅎㅎ}{32: 별표 5개 -5달 전-수제비 최고입니다 빈대떡은 안먹어봐서 모르겠어요}{31: 별표 4개 -2달 전-20년전 단골인데&lt;U+11A2&gt;오랜만에가도 그대로라 좋았네요 비오는날 이곳 수제비먹던 추억이 몽글몽글}{30: 별표 1개 -3년 전-불친절의 끝. 이 불쾌함을 상쇄할 만한 맛이 있는것도 아님. 접객 아주머니들 싹 해고하기 전엔 재방문 의사 0%}{29: 별표 4개 -1년 전-감자전과 수제비. 음... 1인1메뉴 무조건인가}{28: 별표 5개 -6달 전-수제비 감자전을 시작으로 정말 맛있는 집입니다.}{27: 별표 1개 -5달 전-최악 이렇게 불친절할 수 있나? 지인 추천 받고 간 곳인데 이렇게 최악일 수 없다. 수저 꺼내는 중인데 수저통 닫으라고 명령 하질 않나 김치 리필 부탁하니까 왜 자꾸 먹냐고 궁시렁 댐.ㅋㅋㅋㅋㅋ서비스 기대하고 간 적 없고 정중히 부탁하는 태도에 이러시니 돈 내고 싶지 않았음. 바빠서 그렇다엔 평일 저녁에 손님 두테이블 뿐이었음. 여기 불친절하다는 후기 많은데 직장인들이 팔아주니까 싸가지가 하늘을 뚫음...놀랍게도 맛도 별로}{26: 별표 1개 -9달 전-백반기행 시청후  찾아갔었는데  맛별루였어요.맛이 흔한 익숙한 맛  조미료 맛?방송 인터뷰할때 주인이 으깬감자를 넣는다고 해서 기대했었는데 평범한 수제비였고  감자전도  맛없어요.  감자전 감자알갱이가 씹히야 맛있는데...3시되니까 다먹었냐고  물어보더니 그릇을 치워버렸어요.  손님보고 나가라는거잖아요.}{25: 별표 1개 -3주 전-한여름에 에어컨도 안틀어주고 먹어서 땀이뻘뻘뻘...}{24: 별표 5개 -2달 전-수제비  이집   아주  특 미 입니다}{23: 별표 5개 -10달 전-은지원님 추천으로 와버렸는데 근처에 회사가 있어서 그런지 점심시간 때 회사원 너무 많더라고요 대만친구랑 같이 와가지구 다행이 다들 입맛에 딱 맞아서 좋았어요!! ^^*}{22: 별표 3개 -1년 전-파전 낙지볶음은 별로인데 수제비 맛집 답게 수제비는 맛있다.}{21: 별표 4개 -6달 전-수제비 국물이 맛있어요. 파전도 슴슴하니 짜지 않고 묵은지 올려먹으면 맛나요}{20: 별표 4개 -5달 전-여의도에선 가장 맛있는 수제비집! 감자전도 괜찮은편}{19: 별표 3개 -1달 전-주변에 드문 수제비집...해물파전을 너무 작다}{18: 별표 5개 -2달 전-항상 포근하게 감싸주는 수제비의 힘}{17: 별표 5개 -3달 전-닭볶음탕 정말 맛있습니다 강추 사장님도 친절하시고 최고 입니다}{16: 별표 5개 -1년 전-수제비 맛집 파전도 맛남. 단 주차공간은 제한적. 여의나루역과 가까우니 걸어가서 먹어라}{15: 별표 5개 -10달 전-식객 허영만의 백반기행 박하선 편 우연히 보고여의도에 갈일 생겨 바로 가봤는데늦은 오후시간이라 줄없이 편하게 식사할 수 있었음수제비 감자전 먹었는데3종 김치가 너무 맛있음김치로만 막걸리 마실수 있을듯네츄럴 감자전+푸짐한 수제비 / 끝.}{14: 별표 4개 -1년 전-직장인이 많이 가는 곳엔 가는 이유가 있다.너무 특별하지도 못나지도 않은 무난한 맛}{13: 별표 4개 -1년 전-수제비와 파전 겉절이 김치가 맛있는 곳.}{12: 별표 5개 -2달 전-사랑의 콜센터를 틀어놓기 때문입니다}{11: 별표 1개 -4달 전-이게 8천원이라니...맛도 없고..음식에 성의도 없어보임. 새로 신선하게 끓인게 아니라 설날 떡국 다시데워 먹는 식감과 맛...돈 아까워}{10: 별표 3개 -1년 전-밥블레스유를 보게 되어 갔어요~11시 오픈 시간에 맞춰가서 그런지 우리가 1등어서 조용히 먹었어요~수제비 맛과 김치맛은 좋았으나 가격이 7000원은 좀 아니듯하네요~매장 분위기도 그렇고 수제비 그릇도 먹고나니 오래된 그릇이라 보이 안좋았어요~일부러 찾아가서 먹기는 비추예요~}{9: 별표 4개 -1년 전-최고의 수제비를 먹을수 있는곳. 해물파전과 세트로 많이 시키며 옆 식당을 인수해서 두개 점포를 운영중인데. 점심때는 원래 식당은 11시반이면 자리가 없고. 옆 식당도 45분 정도에는 다 차서 줄을 서야한다.}{8: 별표 1개 -3달 전-소면에서 머리카락 나왔다고 말씀드렸더니 아줌마가 아무말 없이 휙 가져감 주방에서 남자가 우리 들으라는듯이 "머리카락이 어딨단거야?" 시전. 그러니까 옆에서 아줌마가 "여기 있잖아..." 그리고 아줌마가 다시 와서 죄송하단 말 한마디 없이 "뭐 다른거 시킬래요?" 이럼. 돈내고 이런 취급 받아야하는지?}{7: 별표 4개 -4주 전-수제비는 맛있음. 점심시간에는 대기 기본}{6: 별표 4개 -3달 전-수제비 맛집이라 찾아 갔는데 추천인들이 파전도 꼭 먹어야 한다네요.. 개인적으로 수제비는 좋았습니다. 파전도 나쁘진 않지만 원래 그런건지 바쁜때라 그런지 몰라도 개인적으로 내용물이 너무 빈약하다는 생각이 드네요..}{5: 별표 4개 -1달 전-더운날씨인데도 맛난 수제비 먹었습니다.국물과 수제비 뿐인데도 품미가 참 좋습니다}{4: 별표 5개 -2달 전-수제비가 맛나고 좋았습니다. 같이 나온 겉절이도 수제비와 잘 어울리고 좋습니다.}{3: 별표 4개 -1년 전-수제비의 굿물이 맛있다. 뒷맛이 깔끔하면서 묘한 끌림이있다. 쉰김치 겉절이김치를 주어 질리지않게 먹을수있다. 해물파전의 1만5천원으로 비싼거 같고 맛은 보통이다. 수제비 추천}{2: 별표 4개 -1달 전-제가 여의도에 갈때마다 점심 식사하러 들르는 식당이구요 이곳의 점심 메뉴는 수제비 한가지입니다. 파전 등의 곁들여 먹는 사이드 메뉴가 있기는 하지만 메인 점심은 수제비 하나이죠.비쥬얼도 그렇고 특별히 화려하다는 느낌은 들지 않습니다만 집에서 직접 해먹는 수제비 느낌이 난다고 할까요 인공 조미료가 들어가지 않은 은은한 맛에 다시 찾게 됩니다.나름 이동네에서는 맛집으로 인정받는 덕분에 요즘같은 코로나 시국에도 점심…}{1: 별표 4개 -1달 전-맛집프로에 많이 소개된 집..아파트 상가에 위치해 있으며 수제비로 각광받았던 곳 중 하나이다예전 문화방송국이 있었을 때 기다림의 압박이 엄청났던 곳..오랫만에 방문했는데 수제비가 맛있긴 했으나 좀 짜다는 느낌을 받았다그런대로 예전의 인테리어는 정겹기만 하다#여의도맛집 #영원식당 #수제비 #감자전}</t>
   </si>
   <si>
     <t>카레오</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 여의동로3길 10</t>
+  </si>
+  <si>
     <t>{158: 별표 3개 -1년 전-}{157: 별표 5개 -3주 전-}{156: 별표 1개 -1년 전-}{155: 별표 4개 -2년 전-}{154: 별표 3개 -10달 전-}{153: 별표 5개 -1년 전-}{152: 별표 5개 -1년 전-}{151: 별표 4개 -6달 전-}{150: 별표 5개 -2달 전-}{149: 별표 4개 -1년 전-}{148: 별표 5개 -1달 전-}{147: 별표 5개 -1년 전-}{146: 별표 5개 -2년 전-}{145: 별표 4개 -2년 전-}{144: 별표 5개 -1년 전-}{143: 별표 5개 -1년 전-}{142: 별표 4개 -1년 전-}{141: 별표 5개 -1년 전-}{140: 별표 5개 -2년 전-}{139: 별표 1개 -11달 전-}{138: 별표 5개 -10달 전-}{137: 별표 4개 -1년 전-}{136: 별표 5개 -1년 전-}{135: 별표 3개 -1년 전-}{134: 별표 3개 -1년 전-}{133: 별표 4개 -1달 전-}{132: 별표 4개 -1년 전-}{131: 별표 5개 -2년 전-}{130: 별표 5개 -2년 전-}{129: 별표 3개 -7달 전-}{128: 별표 4개 -11달 전-}{127: 별표 3개 -1년 전-}{126: 별표 5개 -1년 전-}{125: 별표 4개 -5달 전-}{124: 별표 5개 -1년 전-}{123: 별표 5개 -1년 전-}{122: 별표 5개 -1년 전-}{121: 별표 5개 -9달 전-}{120: 별표 3개 -6달 전-}{119: 별표 5개 -1년 전-}{118: 별표 3개 -2달 전-}{117: 별표 4개 -2년 전-}{116: 별표 4개 -1년 전-}{115: 별표 5개 -2년 전-}{114: 별표 3개 -2달 전-}{113: 별표 5개 -1년 전-}{112: 별표 5개 -2년 전-}{111: 별표 4개 -1년 전-}{110: 별표 4개 -1년 전-}{109: 별표 5개 -2년 전-}{108: 별표 4개 -2년 전-}{107: 별표 4개 -1년 전-}{106: 별표 4개 -1년 전-}{105: 별표 5개 -1년 전-}{104: 별표 5개 -2년 전-}{103: 별표 4개 -1년 전-}{102: 별표 5개 -1년 전-}{101: 별표 4개 -2년 전-}{100: 별표 5개 -1년 전-}{99: 별표 5개 -1년 전-}{98: 별표 4개 -8달 전-}{97: 별표 4개 -2년 전-}{96: 별표 5개 -1년 전-}{95: 별표 3개 -9달 전-}{94: 별표 5개 -1년 전-}{93: 별표 5개 -1년 전-}{92: 별표 4개 -2달 전-}{91: 별표 4개 -9달 전-}{90: 별표 4개 -10달 전-}{89: 별표 5개 -11달 전-}{88: 별표 4개 -1년 전-}{87: 별표 4개 -1년 전-}{86: 별표 5개 -1년 전-(Google 번역 제공) JMT(원문)JMT}{85: 별표 4개 -3년 전-(Google 번역 제공) 일본의 카레라이스를 먹을 수 있습니다 &lt;U+2757&gt;(원문)日本のカレ&lt;U+30FC&gt;ライスが食べられます&lt;U+2757&gt;}{84: 별표 5개 -1년 전-(Google 번역 제공) 우수한 카레 소스(원문)Excellent  curry sauce}{83: 별표 5개 -2년 전-(Google 번역 제공) 여의도 최고의 일식 카레 하우스(원문)Best japanese curry house in Yeouido}{82: 별표 5개 -5달 전-(Google 번역 제공) 카레를 먹는 가장 좋은 장소 중 하나(원문)one of the best place to eat curry}{81: 별표 5개 -1년 전-(Google 번역 제공) 굉장한 일본식 카레 !!(원문)Awesome Japanese style Curry!!}{80: 별표 5개 -2년 전-꿀맛}{79: 별표 5개 -2년 전-맛있음 좀 비쌈}{78: 별표 5개 -1년 전-맛남}{77: 별표 3개 -1년 전-해장 카레 어떠심!!!!}{76: 별표 5개 -1년 전-맛있어요!}{75: 별표 2개 -8달 전-비싸요}{74: 별표 5개 -7달 전-맛남}{73: 별표 5개 -11달 전-동내 맛집}{72: 별표 4개 -1년 전-좋았어요^^♡}{71: 별표 4개 -3년 전-가격대가 좀 있지만 깔끔하고 맛있음}{70: 별표 5개 -1년 전-맛있는 일식 카레}{69: 별표 5개 -1년 전-카레향이 강하지 않아서 향에 민감하더라도 먹을만하다}{68: 별표 4개 -4년 전-토핑 선택이 자유롭고 카레 맛도 훌륭}{67: 별표 4개 -1년 전-맛있긴한데 비싼편 카레단품이8000원이고 돈까스나 고로케 토핑은 3000원정도로 별도주문필요}{66: 별표 4개 -3년 전-최근 먹어본 카레집중 제일 맛있네요. 점심시간에 일찍가지 않으면 기다려야 합니다}{65: 별표 5개 -1년 전-우동면이 특히 맛있음}{64: 별표 4개 -1년 전-일본인이 하는 정통카레집으로 기타 돈까스 밎 고로께도 너무 맛나게 함}{63: 별표 4개 -1년 전-꼭 가보고 싶은곳}{62: 별표 4개 -1년 전-카레오 늘 맛있어요.}{61: 별표 5개 -1년 전-굳. 미니돈까스는 필수로 먹어봐야함.}{60: 별표 5개 -2년 전-맛잇다}{59: 별표 4개 -1년 전-일본식 카레맛집 짜지않아서 좋음}{58: 별표 4개 -1년 전-이랏샤이마세~ 몇분이세요~?}{57: 별표 2개 -1년 전-여기를 줄서먹는다고? 일본카레 흉내만}{56: 별표 5개 -1달 전-카레가 맛있음}{55: 별표 5개 -1년 전-여의도 최고의 일본 카레집}{54: 별표 4개 -2년 전-카레와 섞어먹는 양배추가 맛있는 집 입니다. 평일 점심엔 대기가 좀 있고 밥과 카레는 리필 됩니다. 돈카츠 토핑이 맛있습니다.}{53: 별표 4개 -11달 전-온천계란에 비벼먹은 카레 정말 맛있음한가지 아쉬운건 바깥쪽이 비닐로 되어있어서지저분해보이고 오픈했는지 안했는지 모르겠음그리고 간판불도 밝지 않음}{52: 별표 4개 -2년 전-맛은 아주 좋아요. 다만 저는 식후 혈당체크를 하는데 여기 음식이 당수치가 좀 높은가봐요. 당뇨가 걱정되는 분들은 다른 음식을 드시는게 좋겠어요.}{51: 별표 3개 -1년 전-일본식 카레집 맥주는 맛있으나 너무 비쌈}{50: 별표 5개 -2년 전-정말 명성 그대로에요. 카레도 맛있지만 토핑으로 먹는 각종 고로께 돈가츠 새우튀김 등이 하나같이 일품입니다.}{49: 별표 4개 -1년 전-맛있고 튀김이 바삭하면서 좋았다다만 양이 좀 적었다}{48: 별표 4개 -1년 전-괜찮은 카레집보통 카레집보다 조금 더 맛있고 튀김도 퀄리티가 조금 더 좋은듯덕분에 점심때는 11시 20분 이후에 오면 줄을 서야먹을수 있음}{47: 별표 5개 -2년 전-기본적으로 카레가 맛있고 추가할 수 있는 토핑들의 퀄리티도 모두 훌륭합니다. 하이볼도 팔아서 간단히 한잔하기에도 좋습니다.}{46: 별표 5개 -1년 전-고로케와 함께  먹으면 더 좋아요}{45: 별표 5개 -1년 전-2번 먹으세요 맛집!}{44: 별표 4개 -6달 전-여의도 초창기 맛집 !!!}{43: 별표 5개 -1년 전-여의도 흔치않은 혼점심 가능한 집. 그리고 카레도 존맛탱 근데 좌석이 많이 없어서 빨리가야함}{42: 별표 5개 -1년 전-혼밥 혼술이 제격이다. 작은 일본식 카레집 가게.}{41: 별표 5개 -3주 전-동네 맛집 킹}{40: 별표 5개 -1년 전-바삭한 돈가츠와 진한 카레맛이 일품입니다.일본 현지 느낌을 잘살린 분위기도 좋구요.}{39: 별표 4개 -9달 전-맛있고 양도 괜찮은데 좀 비싸요}{38: 별표 3개 -2달 전-가벼운식사로 좋아요}{37: 별표 5개 -7달 전-역시 푸딘코}{36: 별표 4개 -2년 전-카레오는 혼자서 먹고가기에 부담이 없어서 좋아요. 음식 맛이나 신선도도 좋은 것 같아요!}{35: 별표 4개 -2년 전-한국 로컬라이즈가 조금된게 아쉬운거 말고는 훌륭}{34: 별표 4개 -9달 전-근방에서는 아마도 최고의 카레집이 아닐까 생각합니다.다만 사장님이 바쁘신지 요즘은 매장에서 뵐수가없네요.}{33: 별표 4개 -1년 전-작은가게이지만 매우 맛있습니다. 작아서 일본느낌이에요}{32: 별표 3개 -9달 전-점심먹기 좋음 저녁에 술먹기는 애매함 맥주가 일본잔맥주라 비쌈}{31: 별표 4개 -6달 전-깔끔하고 전통적인 카레맛!돈까스와 온천계란 맛있음!!}{30: 별표 5개 -1년 전-일본에 가지 않아도 일본식당 분위기를 느낄수 있습니다.요리의 퀄리티가 현지와 비교해도 평균 이상입니다.기본 요리의 토핑들은 가성비가 훌륭합니다.맥주는 산토리프리미엄몰츠 생으로합리적인 가격이라 생각됩니다.저는 조용한 주말 저녁 시간대를 이용했지만평일엔 상당히 붐비다고 하니 참고하세요.}{29: 별표 2개 -1년 전-'카레'만 맞는 말일 뿐 '일본카레'라든지 '카레맛집'이라 말하기엔 깊은맛은 전혀 없는 밍밍하기 그지없는 식당. 식감은 살리지 못하고 묽은 카레맛을 더 밍밍하게 만드는 양배추 슬라이스 토핑은 제발 빼기를.}{28: 별표 3개 -3년 전-양도 많고 음식의 질도 훌륭했습니다. 한가지 아쉬운점은 일본식 카레는 처음 먹어봤는데 생각보다 조금 느끼했습니다. 일본인이 운영하는 식당에서 예의는 아니지만 마음속으로 매콤한 김치가 있으면 좋겠다는 생각을 했습니다. 가격대비 훌륭한 곳이니 기회가 되시면 드셔보시길 바랍니다.}{27: 별표 4개 -2년 전-맛도 괜찮고 양배추 식감도 좋았습니다.}{26: 별표 5개 -1년 전-여의도 감안하면 가격 맛 다 좋아요.}{25: 별표 3개 -2년 전-맛은 있는데 일본식 달달한카레인것 같아서 나처럼 단계별 매운카레 좋아하는 사람들은 좋아하지않을듯..}{24: 별표 4개 -9달 전-새우튀김 진짜 큼 무거워서 들다가 떨꿈토핑 종류가 많아서 다음엔 다른 거 먹고싶음카레는 어어어어엄청 맛있진않고 걍 맛있는 정도}{23: 별표 5개 -8달 전-카레+반숙계란! 매운거 잘 못드시는 분들께 추천! 부드럽고 맛있어요&lt;U+263A&gt;&lt;U+263A&gt;}{22: 별표 4개 -5달 전-훌륭한 카레집~ 굳이 찾아서 갈 필요까지는 잘 모르겠음}{21: 별표 5개 -9달 전-카레가 맛있고 직원분들이 친절하심}{20: 별표 5개 -3년 전-여의도에서 드물게 일요일에도 영업함.일본인들이 조리 및 서빙을 함.맛도 좋은 편.날이 따뜻해 지면 11시 반 이전에 가야 줄을 서지 않음.}{19: 별표 3개 -5달 전-깔끔하니 맛 괜찮습니다.}{18: 별표 5개 -1년 전-일본사람이 하는 가게사장님이 직접 해주시는 요리류의 퀄리티는 상당히 뛰어남.개인적으로는 카레우동을 추천토핑으로 나오는 돈까스는 1조각에 3천원고기가 두툼한 전형적인 일식돈까스지만 가격에 비해 크고 갓튀긴 것이라 맛이 좋다.알바가 만들어준 하이볼은 맛이 없었음.}{17: 별표 4개 -1달 전-맛있었음. 다른카레는 몇번이면 질리는데 여긴 안그런거 같음}{16: 별표 4개 -3달 전-맛도 변함없고 깔끔한 한끼 식사로 그만입니다.}{15: 별표 5개 -1년 전-혼자 밥먹기 좋고 음식도 맛있고 깔끔하다}{14: 별표 5개 -5달 전-말해 뭐해요 ... 너무 맛있습니다 푸딘코 인스타 보고 갔는데요 하 ... 또 먹고싶네요 카레가 이렇게 맛있는 음식일줄은 몰랐어요}{13: 별표 4개 -1년 전-점심시간에 대기가 많다하여 살짝 빗겨서 방문카레라이스에 토핑은 돈카츠와 감자고로케 주문카레는 듣던대로 맛이 좋았고 돈카츠도 괜찮았음(조금더 매콤했으면 좋았을텐데)고로케는 살짝 아쉬웠는데 송파에 있는 키이로메시야가한수위(개인적으로)전체적으로 맛이 괜찮았고 친절한 접대도 굳주차도 무려 2시간(지하에 이마트 있음)}{12: 별표 5개 -2달 전-항상 맛있음 나름 단골정도라생각했는데 집이 인천이라 자주못가서 주인이 우릴못알아봄 그래서 서운함}{11: 별표 4개 -1년 전-일본 스타일의 제대로 된 카레 식당 입니다. 맛집입니다.조금 비싸지만 지역물가 생각하면 합리적인 가격일본인들이 운영합니다.}{10: 별표 5개 -1년 전-여의도에서 콩국수하면 진*집이 생각나듯 앞으로 여의도에서 일본커리를 먹고 싶으면 이곳 '카레오'에 와야겠음. 감자고로케 새우튀김 돈까스 토핑들 너무 맛있어서 배불러도 계속 먹게되는 곳.}{9: 별표 5개 -2달 전-저녁에 산토리 맥주  한 잔 곁들여 먹기 좋은 장소점심에도 맛있는집여백에 있는 라멘집도 같이 운영해요}{8: 별표 5개 -4달 전-카레도 맛있고 돈가스 등 튀김도 맛있고 생맥주까지 한잔 하면 정말 최고입니다 가게가 좁고 사람이 많아서 점심시간을 좀 피해가는걸 추천합니다}{7: 별표 5개 -1년 전-카레 맛있네요. (아마도)절인 가지 반찬도 괜찮음. 돈까스를 토핑으로 올렸는데 두툼하고 잘 튀겨졌습니다. 돈까스는 특로스같은 맛은 아니나 제일 중요한 것이 카레와 잘 어울린다는 점. 돈까스자체도 평범한 맛이 아니기에 카레 맛을 떨어뜨리지 않고 한단계 업그레이드 시키는 느낌. 그냥 튀겨서 카레에 얹은 것이 아님. 돈까스와 절인 가지를 고추소스에 찍어먹으니까 맛의 재미도 있음. 끝으로 야채를 첨가한 것도 탁월한 구성인듯요. 조리와 서빙은 상당히 빨리 이루어지고 가게 깔끔하고 일본 골목에 있는 가게 느낌나며 간결하고 그리고 절도있는 느낌도 받음.}{6: 별표 5개 -1년 전-샤보텐 돈까스보다 더바삭하고 부드러운 돈까스토핑!소스를 안찍어도 맛있는 감자고로께!밥과카레는 환상의조합! 카레에 갈은 고기를넣어서 더 깊은맛이나요~모자르면 밥과 카레를더주더라고요! 와우..아! 온천계란을 넣으면 더 담백해져요~}{5: 별표 5개 -3주 전-여의도스럽지 않은 공간과 맛입니다. 여의도에서 느끼는 연남동 성수동 같은 분위기입니다. 맛있어서 행복해 졌습니다. 회식보단 친한 친구와 가서 맥주 한잔하면 더 좋은 곳!}{4: 별표 4개 -4달 전-사골로 만든 카레라 카레자체가 맛있다는 얘기를 듣고 방문하게 되었습니다. 토핑카레 자체가 고를 수 있는 재미가 있더라구요. 우선 에비동 감자고로케 닭가라아게를 맛보았는데 튀김 자체가 엄청 바삭하고 맛있었어요. 에비동에는 타르타르 소스같은게 나오는데 거기에 고로케에 찍어먹어도 맛있더라구요. 그릇에 반쪽은 밥에 위에 식감을 올려줄 양배추 그리고 토핑이 올려지고 나머지에는 카레가 부어나오는데 저는 카레자체는 맛있다고는 잘 못 느꼈어요. 토핑이 맛있다고 생각합니다. 근무만 아니면 자몽하이볼 나중에 먹어보고 싶습니다.}{3: 별표 5개 -1주 전-정갈하니 맛bb 일본식 카레지만 조금 더 한국인 입맛에 맞는 느낌+_+ 그리고 함께 올린 토핑이 본 메뉴 수준으로 맛있음}{2: 별표 5개 -1달 전-정말 오랜만에 맛있는 카레를 만났네요. 일본 생활이 몇 년 되어서 현지의 다양한 카레를 많이 먹어보았지만  카레오의 맛은 전혀 뒤지지 않는군요. 오히려 한국인의 입맛에는 한층 잘 맞는 것 같습니다. 더욱 맛있는 카레를 만들어 주세요. 자 화이팅!   ^^}{1: 별표 5개 -1달 전-여의도 최고의 일본 카레집. 돈까스 or 새우튀김 얹어먹는 경우가 대부분. 정갈하고 깔끔해 자주 감. 하이볼과 함께 먹으면 그렇게도 행복할 수 없음. 카레에 돈까스 포함해도 1.3만원. 가성비까지 좋으니 어찌 싫어할 수 있을까.}</t>
   </si>
   <si>
@@ -277,24 +381,60 @@
     <t>슈치쿠</t>
   </si>
   <si>
+    <t>서울특별시 영등포구 63로 50</t>
+  </si>
+  <si>
     <t>{86: 별표 4개 -10달 전-}{85: 별표 5개 -6달 전-}{84: 별표 4개 -8달 전-}{83: 별표 5개 -7달 전-}{82: 별표 5개 -2달 전-}{81: 별표 5개 -7달 전-}{80: 별표 5개 -9달 전-}{79: 별표 4개 -1달 전-}{78: 별표 4개 -8달 전-}{77: 별표 5개 -2달 전-}{76: 별표 4개 -1년 전-}{75: 별표 5개 -9달 전-}{74: 별표 4개 -4년 전-}{73: 별표 4개 -1년 전-}{72: 별표 5개 -1년 전-}{71: 별표 4개 -6달 전-}{70: 별표 5개 -9달 전-}{69: 별표 5개 -1년 전-}{68: 별표 4개 -1년 전-}{67: 별표 5개 -1년 전-}{66: 별표 5개 -2년 전-}{65: 별표 5개 -1년 전-}{64: 별표 5개 -8달 전-}{63: 별표 5개 -1년 전-}{62: 별표 4개 -1년 전-}{61: 별표 5개 -3주 전-}{60: 별표 5개 -9달 전-}{59: 별표 5개 -8달 전-}{58: 별표 5개 -8달 전-}{57: 별표 5개 -1년 전-}{56: 별표 5개 -2년 전-}{55: 별표 4개 -10달 전-}{54: 별표 4개 -1년 전-}{53: 별표 5개 -7달 전-}{52: 별표 4개 -2년 전-}{51: 별표 5개 -1년 전-}{50: 별표 4개 -1년 전-(Google 번역 제공) 매우 높은 식당(원문)Extremely high Restaurant}{49: 별표 5개 -7달 전-(Google 번역 제공) 훌륭한 맛과 레스토랑을 볼 수 있습니다.환상적인 서비스.이 장소를 추천하고 싶습니다.(원문)It's great tast and view resturant. Fantastic service.I would like to highly recomend this place.}{48: 별표 5개 -1년 전-(Google 번역 제공) 멋진 초밥 친절한 직원 아름다운 장면(원문)Wonderful sushi very kind staffs and beautiful scene}{47: 별표 1개 -1달 전-(Google 번역 제공) 스시 스페셜 세트가 있었고 식중독을 앓고 2 일 동안 아 was습니다. 아마도 "최고급"식당에서 크게 실망했습니다.(원문)Had the sushi special set got food poisoning and was ill for 2 days. Hugely disappointing from a supposedly "high end" restaurant.}{46: 별표 5개 -1년 전-(Google 번역 제공) 급격한 가격 매김 그러나 음식은 명확히 그것의 가치가 있었다. 특별한 날을위한 좋은 장소(원문)Steep pricing but the food was definitely worth it. Great spot for a special occasion}{45: 별표 5개 -4년 전-가격이 부담스럽지만 분위기는 짱!!}{44: 별표 5개 -3년 전-최고다 갈 돈만 있다면 !}{43: 별표 5개 -4년 전-2002년 5월 22일 문진희선생님이랑 현석이와 저녁먹을것입니다.}{42: 별표 5개 -2년 전-가격은 비싸지만 정말 맛있습니다.}{41: 별표 5개 -9달 전-여보고마워}{40: 별표 5개 -8달 전-전망....굿...}{39: 별표 5개 -6달 전-좋아요..^^}{38: 별표 1개 -9달 전-음식이......야경보러 가는곳}{37: 별표 4개 -4년 전-63빌딩의 3대장.워킹온더 클라우드 백리향과 함께 상층부의 고급 레스토랑. 따로 마련된 룸쪽의 전망이 매우 좋다고 하는데 직접 확인하지는 못했음. 스시맛은 뛰어난 편이고 코스에 구성된 갖가지 요리구성의 경우에는 회나 스시의 퀄리티보다는 한 수 아래라는 느낌. 누군가를 대접받는다는 느낌이 팍팍 들고싶게 할 때 고려할 수 있는 식당들 중 하나. 그만큼의 가격 역시 받는 편.}{36: 별표 1개 -1년 전-초밥세트 완전실망. 오마카세는 모르겠지만 코스메뉴는 비루한 구성에 퀄리티마저 실망스럽다. 샤리도 질었고 락교에서도 오래된 냄새도 났다. 분위기는 만점인데..}{35: 별표 5개 -1년 전-분위기좋은 일식}{34: 별표 4개 -3달 전-좋아요}{33: 별표 5개 -1년 전-친절하고 음식도 정갈합니다.}{32: 별표 5개 -1년 전-고급 일식당입니다. 전망이 훌륭합니다}{31: 별표 2개 -7달 전-맛이 보통 이하. 가격은 비쌈.}{30: 별표 4개 -9달 전-깔끔하고 정갈!}{29: 별표 5개 -7달 전-최고급 오마카세  대접받는 느낌}{28: 별표 4개 -10달 전-맛은 보통. 전경이 다했다. 여자 직원분들 완전 친절 ♡}{27: 별표 4개 -3년 전-좋아요 한화멤버십있으면 할인 많이 받을 수 있고 오마카세도 괜찮습니다}{26: 별표 5개 -6달 전-스시 최고입니다}{25: 별표 5개 -7달 전-맛도 서비스도 완벽합니다.}{24: 별표 5개 -7달 전-친구 생일이라서 예약 후 방문하였는데  쉐프님 너무 친절하고 맛있는 식사를 만들어주셔서 기분좋게 먹었어요! 담번에는 부모님 모시고 갈께요 !}{23: 별표 5개 -3달 전-고급스러운 일식집 정성스러운 음식}{22: 별표 5개 -9달 전-전망좋고 서비스좋고 음식좋고 가격좋고 다좋음}{21: 별표 4개 -7달 전-가격은 높지만 뛰어난 전망 분위기 쾌적함 서비스 음식의 퀄리티 고려할 때 총분한 가치가 있다. 중요한 접대나 이벤트가 있을때 적극 추천}{20: 별표 5개 -2년 전-가격대가 좀 있는편이지만 맛과 서비스 모두 돈이 아깝지 않습니다.여의도와 한강의 야경을 즐기기 위해서라도 한번 가볼만한 식당입니다.모든 창가자리에서 한강을 볼 수 있는것 같았으며 코너에 위치한 룸은 전면창으로 되어있어서 고급스러운 자리나 특별한 가족모임에 손색이 없습니다.일반 테이블의 간격은 꽤 넓은편이고 분위기는 조용한 분위기입니다.요리의 퀄리티나 신선도 플레이팅 어느하나 흠잡을것 없이 완벽했습니다.}{19: 별표 5개 -2달 전-분위기. 맛. 기대이상입니다}{18: 별표 5개 -1년 전-가격대는 조금 있지만 훌륭한 전망과 식사. 룸보단 바 자리를 추천합니다.}{17: 별표 2개 -1달 전-가격 대비 음식 수준은 별로..}{16: 별표 5개 -1년 전-가성비는 높지않으나 경치가 좋으면 용서가 된다..롯데 소공동 모모야마와 더불어 경치가 가장 좋은 스시집...}{15: 별표 3개 -9달 전-63빌딩 58층에 위치해있고 레스토랑가는 엘레베이터는 한화생면본사건물 좌측 구석에있어서 찾아가기좀 어려웠네요. 한강이 바로보여서 뷰는 좋았고 스시 퀼리티 자체는 나쁘진않았지만 금액대 대비해서는 조금 아쉬웠습니다. 더 비싼건 더 좋을수도...?ㅠㅠ그리고 주류금액들이 전체적으로 많이비쌌습니다 그랜드하얏트보다 비싸게 받는거 같아서 좀 아이러니했네요. 서비스자체는 나쁘지않지만 금액대비 엄청 하이퀄리티는 아니여서 두번은 안갈거같아요.}{14: 별표 5개 -7달 전-오마카세를 먹었는데 정말 맛있었음. 하나하나 만들어 주실때마다 설명이 친절하고 센스가 좋으셨음. 음식은 더할 나위 없고 이벤트 받는데 서프라이즈로 해주려고 같이 도와주시고 정말 유쾌했던 식사자리를 만들어주심. 예뻤던 야경과 함께 행복했던 기억으로 남았음.}{13: 별표 5개 -1년 전-전망도 좋고 맛도 괜챃음}{12: 별표 5개 -1달 전-전망좋은곳에서 맛난일식 맛볼 수 있는곳입니다}{11: 별표 5개 -1년 전-너무 고급스럽고 맛있습니다}{10: 별표 3개 -2년 전-슈치쿠 디너코스 이용... 룸에서 식히샜으며 친구들 모임이으로 음식이 정갈하고 식자재 상태가 좋았다. 안내 및 카운터 직원 들은 아주 친절했지만 코스를 서브해 주시는 직원분께서 약간 무뚝뚝하게 코스마다 음식을 설명해 주셔서 당황했음... 계산은 특정카드 10프로 할인 가능.}{9: 별표 4개 -1년 전-하늘 위에서 품위 있는 일식을 즐길 수 있는 곳입니다. 가격은 저렴하지 않지만 맛과 분위기. 만남까지 적당한 곳이었어요.^^}{8: 별표 4개 -9달 전-가격이 저렴한 편이다. 하지만 전망은 정말 뛰어남. 음식도 맛있다. 직원분들도 참 친절했다.}{7: 별표 5개 -10달 전-할인 기회로 다녀왔는데 한강조망으로 분위기 좋음.회를 소금에 찍어 먹는 맛을 알게 됐음.가격대가 있어서 자주 가기는 힘들겠지만 고급지게 분위기 내며 맛있는 음식 먹고 싶을때 가끔 들르기 좋을 듯^^}{6: 별표 5개 -2주 전-샤리빼고 다 맘에 듭니다. 샤리의 풀림과 배합초민 신경 쓴다면 최고가아닐까 하네요}{5: 별표 5개 -6달 전-대한민국 수도 서울의 랜드마크 건축물 중 하나인 63빌딩에 있는 일식 코스 요리 전문점입니다. 슈치쿠는 63빌딩의 58층에 위치하고 잇습니다. 식당에 가려면 63빌딩의 입구에서 맨 왼쪽에 위치한 통로에 있는 고층 식당 전용 엘리베이터를 이용하시면 됩니다. 엘리베이터는 매우 고속이기 때문에 금방 고층 까지 올라가지만 살짝 귀가 멍멍할 수 있습니다. 슈치쿠에는 프라이빗한 개별 방들이 많이 있습니다. 상의를 탈의하여 걸어둘수 있는…}{4: 별표 4개 -1년 전-뷰가 다한 레스토랑!!!! 58층에서 내다보는 한강뷰와 석양은 정말 말잇못!!!! 서비스는 최고였고 음식도 최고까지는 아니지만 훌륭하였다! 스시집에서는 다찌석을 선호하는 편이지만 이곳은 프라이빗하게 룸에서 즐기는것도 매우 좋았다 First of all the view is breathtaking. Service was quite good.Food was great. Worth to check it out!}{3: 별표 5개 -4달 전-테이블에 앉아서 먹은 코스 메뉴입니다숙주와 돼지고기 메뉴와 우동에 함께나온 초밥 제외하고는 다 맛이 좋았습니다돼지고기는 매우 평범했도 우동에 나온 초밥은 네타나 샤리나 둘다..별로였습니다지리/매운탕 --우동/소바 선택시 지리/매운탕 쪽 추천합니다}{2: 별표 5개 -1달 전-너무 만족 스러웠음20 만원 넘는 어느 하이엔드 스시보다 가성비 좋으며 뷰가 너무 좋았음친절하고 서비스도 좋고 맛도 있었음후식 단호박양갱이 달지 않고 맛있었음소바 우동 다 괜찮아서 어떤 걸 선택해도 좋습니다뷰가 아니여도 음식만으로도 충분히 괜찮은 구성이라 생각합니다~}{1: 별표 5개 -5달 전-런치오마카세 12만원의 하이엔드 일식당입니다. 뷰도 그렇고 음식퀄리티 직원분들 친절함 최고입니다. 비싼 돈 아깝지 않아요. 주류가격이 좀 비싸다보니 많이 못마셔서 아쉽네요. 돈 많이 벌어야겠습니다.마지막 네잎클로버까지 포장해주시는게 인상적이었네요.}</t>
   </si>
   <si>
-    <t>{968: 별표 3개 -2달 전-}{967: 별표 4개 -1년 전-}{966: 별표 4개 -1년 전-}{965: 별표 2개 -2년 전-}{964: 별표 1개 -3주 전-}{963: 별표 4개 -3년 전-}{962: 별표 5개 -2년 전-}{961: 별표 5개 -1달 전-}{960: 별표 5개 -1년 전-}{959: 별표 3개 -10달 전-}{958: 별표 5개 -11달 전-}{957: 별표 2개 -3년 전-}{956: 별표 1개 -2년 전-}{955: 별표 4개 -1년 전-}{954: 별표 5개 -2년 전-}{953: 별표 3개 -1년 전-}{952: 별표 3개 -2년 전-}{951: 별표 3개 -2년 전-}{950: 별표 5개 -2년 전-}{949: 별표 4개 -2년 전-}{948: 별표 5개 -1달 전-}{947: 별표 5개 -2년 전-}{946: 별표 5개 -1년 전-}{945: 별표 4개 -2년 전-}{944: 별표 5개 -3년 전-(Google 번역 제공) 대단해 !!!(원문)That's great!!!}{943: 별표 2개 -1년 전-(Google 번역 제공) 그저 그래(원문)So so}{942: 별표 5개 -3년 전-(Google 번역 제공) 멋진 한국 전통 냉면 식당!(원문)weonderful Korean traditional cold noodle restaurant!}{941: 별표 4개 -11달 전-(Google 번역 제공) 확인(원문)好&lt;U+554A&gt;}{940: 별표 5개 -1년 전-(Google 번역 제공) 내가 좋아하는 것 중 하나!!!(원문)One of my favorites!!!}{939: 별표 5개 -1년 전-(Google 번역 제공) 좋은 국수.(원문)Good noodles.}{938: 별표 4개 -3년 전-(Google 번역 제공) 평양 스타일 낸면 (냉면). Michelin Guide에 의해 Bib gourmand Restaurant으로 선정 Nengmyeon 꽤 저렴.(원문)Pyongyang style Nengmyeon(cold noodle). Selected as Bib gourmand  Restaurant by Michelin Guide. Pretty cheap for Nengmyeon.}{937: 별표 4개 -2년 전-(Google 번역 제공) 맛이 좋지만 붐비다.(원문)It tastes good but crowded}{936: 별표 3개 -2년 전-(Google 번역 제공) 기대는 높지만 만족도는 낮습니다.(원문)High expectations but low satisfaction}{935: 별표 5개 -2년 전-(Google 번역 제공) 차가운 국수와 만두를 여기에서 좋아해라.(원문)Love the cold noodles and the dumplings here}{934: 별표 5개 -3년 전-(Google 번역 제공) 지금까지 먹은 평양 냉면 가장 최고!(원문)今まで食べた平&lt;U+58CC&gt;冷&lt;U+9EBA&gt;で一番最高！}{933: 별표 5개 -3년 전-(Google 번역 제공) 평양 냉면도 만두쿳 (만두 수프)도 맛있습니다.(원문)平&lt;U+58CC&gt;冷&lt;U+9EBA&gt;もマンドゥクッ（餃子ス&lt;U+30FC&gt;プ）もおいしいです。}{932: 별표 3개 -2년 전-(Google 번역 제공) 맛없는 비싼 차가운 쇠고기. 좋지만 값 비싼 국수.(원문)Tasteless overpriced cold beef. Good but overpriced noodles.}{931: 별표 5개 -2년 전-(Google 번역 제공) 양질의 '평양 랭면 (냉면)'을 맛보기에 좋은 곳. 또한 '미쉐린 가이드'레스토랑 중 하나입니다.(원문)Great place to try a quality 'peongyang raengmyeon (naengmyeon)'. Also one of 'michelin guide' restaurants.}{930: 별표 4개 -1년 전-(Google 번역 제공) 독특하고 매력적인 맛있는 요리(원문)Unique charming delicious cuisine}{929: 별표 4개 -1년 전-(Google 번역 제공) 일요일 너무 길어. 평일 점심 시간에도. 나쁜 곳은 아니지만 일찍 가십시오. 늦게가는 경우 특히 밤에 재료가 부족할 수 있습니다.(원문)Too long a line on Sundays. Even at weekdays lunchtimes. It's not a bad place but please just go early. If you go late they might run out of ingredients especially at night.}{928: 별표 5개 -1년 전-(Google 번역 제공) 최고의 냉면(원문)Best cold noodles ever}{927: 별표 1개 -1년 전-(Google 번역 제공) 그 밖의 모든 것은 좋았습니다. 추운 국수의 맛에 너무 실망했다.(원문)Everything else was good. I was so disappointed with the taste of the cold noodle...thumbs down.}{926: 별표 3개 -1년 전-(Google 번역 제공) 품위있는 고기를 얹은 차가운 국수. 수프는 내 취향에 감미롭고 소금에 절인 무는 내가 먹어 본 것 중 최고가 아니 었습니다.(원문)Good cold noodle with decent meat on top. Soup was rather sweet for my taste and salted radish was not the best I've eaten.}{925: 별표 5개 -1년 전-(Google 번역 제공) 청장인데 왠지 깊은 냉면. 만두도 최고였습니다.(원문)薄口なのになんだか深い冷&lt;U+9EBA&gt;。餃子も最高でした。}{924: 별표 4개 -1년 전-(Google 번역 제공) The noodles are a little stiff but the flavor of soba is a little low. The soup is fresh and delicious. Dumpling is also recommended!향기로운 곁탕!국수는 쫄깃한 있지만 메밀의 맛은 적다.톤찌미베스 국물은 담백하고 맛있는 (^^) 만두도 추천!평양 냉면 수요일 미식 회 128…}{923: 별표 2개 -1년 전-(Google 번역 제공) 전형적인 sns 유명한 레스토랑. 나는 40 분을 기다렸고 1 차 스푼에서 dissapointed. 또한 주차가 최악입니다. 그것은 기다릴 자격이 없다. 대기중인 사람이 없다면 괜찮습니다.하지만 기다리지 마십시오.(원문)Typical sns-famous restaurant. I waited 40 min and dissapointed at 1st spoon. moreover parking is…}{922: 별표 5개 -1년 전-(Google 번역 제공) Nengmyun를 얻을 수있는 좋은 장소. 북한 스타일.(원문)Great place to get nengmyun. North korean style.}{921: 별표 4개 -1년 전-(Google 번역 제공) 한국풍 냉면의 또 다른 스타일. 수프는 매운맛과 깊은 맛이 덜합니다. 국수는 Hamheung 작풍보다는 더 적은 chewey이다.두 가지 스타일이 뚜렷한 차이가 있기 때문에 두 가지 스타일이 마음에 들었습니다.(원문)Another style of Korean cold noodle. The soup is less spicy and deeper taste. Noodle is less chewey than the Hamheung style.I like both styles since they have distinct taste differences}{920: 별표 5개 -7달 전-(Google 번역 제공) 주문한 수제 만두 팬케이크 및 냉면 (물론). 좋은 서비스와 좋은 음식! 전체 5 성급(원문)Ordered hand made dumplings pancakes and cold noodles (of course). Good service and good food! Overall 5 stars}{919: 별표 5개 -1달 전-(Google 번역 제공) 한국 냉면을 먹기 좋은 곳.(원문)Nice place to try Korean cold noodle.}{918: 별표 3개 -2주 전-(Google 번역 제공) 메밀 국수를 사용하는 맛은 괜찮 았습니다. 면은 5000 원에면 1 만원이 더 든다.(원문)The taste was okay they use a buckwheat noodle. The noodles cost 10000 won extra noodles for 5000 won.}{917: 별표 5개 -2주 전-(Google 번역 제공) 물 냉면은 메밀로 만든 긴면으로 한국인의 대표적인 여름 음식이다. 이 식당은 물 냉면으로 유명하다. 물 냉면을 맛보고 싶다면 여기에서 시도하는 것이 좋습니다. 하지만 한국인들 사이에서도 물 냉면의 호불호가 다르기 때문에 식사 후 후회할 수 있습니다. 물 냉면을 좋아하지 않는 사람들이 물에 국수 맛이 뭐냐고 말하기 때문이다. 국물을 알고 먹는 것이이 음식의 핵심입니다.(원문)…}{916: 별표 5개 -3일 전-인기가 어마어마한 곳이죠. 근데 전 사실 평양식 냉면의 진면목을 잘 모르는 1인인지라 그닥...매번 대기줄이 어마어마한데 오늘은 코로나 영향인지 사람이 그닥 많지 않더군요.깔끔하고 괜찮아요.^^}{915: 별표 5개 -4일 전-다 맛있습니다. 체온과 소독 후에 입장 가능해요~}{914: 별표 3개 -3일 전-슴슴하고 맛은 그냥 그런데 비쌈}{913: 별표 3개 -4일 전-코로나사태가운데서도  깔끔하고  안전한 느낌이 들도록 안내해주셔서 좋았습니다  여의도맛집을 검색하면  나오는 집이라서  더운날에 찾아갔어요~1972년부터의 전통있는 집이라네요  아롱사태도  정갈하고  평양냉면과 순면을  먹었는데  깔끔한 맛이납니다  면도 다른곳보다는 굵은 편이네요  순한 맛을 찾는분들은  좋을것같습니다}{912: 별표 3개 -1주 전-오류동 본점과 크게 다르지 않은 맛}{911: 별표 4개 -4년 전-불고기는 진짜 맛있는데 면은 아.. ..... 아...... 적응하면 맛있긴 한데 아....}{910: 별표 4개 -4년 전-사람이 너무 많지만 밋있는 평양냉면집}{909: 별표 5개 -4년 전-전체적으로 심심한 간이고 음식들 맛과 퀄러티는 굿~ 다만 직원들은 좀 불친절}{908: 별표 4개 -4년 전-정인면옥}{907: 별표 4개 -3년 전-수준이상}{906: 별표 5개 -3년 전-순면이랑 만두}{905: 별표 4개 -3년 전-평양냉면의 진미를 맛볼 수 있어요}{904: 별표 1개 -3년 전-불친절(카운터 뚱땡이)}{903: 별표 5개 -3년 전-미슐렝가이드에는 못들었지만 추천에들정도의 평양냉면집}{902: 별표 4개 -3년 전-맛이 심심하지만 먹을수록 맛있음}{901: 별표 4개 -3년 전-물냉 2개 사리추가 1개 만두 한판}{900: 별표 4개 -3년 전-평양식 냉면 최고봉}{899: 별표 5개 -3년 전-미슐랭 3스타 평양냉면집}{898: 별표 3개 -3년 전-평양냉면으로 맛집이라 하는데 내 입맛에 그저그랬음}{897: 별표 5개 -3년 전-GOOD 평양냉면}{896: 별표 4개 -3년 전-더더더 단백한 평양냉면}{895: 별표 5개 -3년 전-순면 맛나요 ㅠ}{894: 별표 3개 -3년 전-오류동에서 이전해 온 평양냉면 맛집}{893: 별표 4개 -3년 전-맛남}{892: 별표 3개 -3년 전-모두가 보이지도 않는 임금님의 옷이 보인다고 말하며 어색한 미소로 평양냉면 육수를 들이켜야 하는 집.}{891: 별표 5개 -3년 전-여름엔 냉면 여의도 냉면은 정인면옥}{890: 별표 3개 -3년 전-맛별로 보통}{889: 별표 2개 -3년 전-너무 자연적 맛}{888: 별표 5개 -2년 전-맛있어요}{887: 별표 4개 -3년 전-가격은 다소 비싸나 리얼 평양냉면!}{886: 별표 4개 -3년 전-평양면옥집. 만두}{885: 별표 3개 -3년 전-정갈한 맛}{884: 별표 5개 -3년 전-깔끔한 맛}{883: 별표 5개 -3년 전-평양냉면 순면 그리고 만두}{882: 별표 4개 -3년 전-유명하지만 평범한 냉면집. }{881: 별표 4개 -3년 전-평양냉면 맛집.}{880: 별표 4개 -3년 전-여의도에 이만한 냉면집이 어디 있으랴}{879: 별표 5개 -2년 전-늘 맛있습니다}{878: 별표 4개 -2년 전-평양냉면 전문점이라 호불호가 갈림}{877: 별표 4개 -3년 전-줄 너무 서요.... }{876: 별표 1개 -3년 전-별로 맛이없다. . }{875: 별표 5개 -2년 전-맛있는  냉면}{874: 별표 2개 -2년 전-그냥 보통}{873: 별표 5개 -2년 전-평양냉면 초보부터 매니아까지 다 좋아해욥}{872: 별표 3개 -2년 전-깔끔한 맛}{871: 별표 4개 -2년 전-육수가 맛있음}{870: 별표 4개 -2년 전-두근두근}{869: 별표 2개 -2년 전-냉면맛 별루}{868: 별표 4개 -2년 전-맛있어요}{867: 별표 4개 -2년 전-육향은 조금 있은편 녹두전은 넘 심심}{866: 별표 4개 -2년 전-식사}{865: 별표 5개 -2년 전-평양냉면 한가닥 하는 맛집}{864: 별표 3개 -2년 전-먹을만함}{863: 별표 5개 -3년 전-양마니가 추가요금이 없음ㅋ}{862: 별표 4개 -2년 전-담백한 맛이나 자극적인 음식에 길들여진 사람에게는 밍밍하게 느껴짐}{861: 별표 3개 -2년 전-보통}{860: 별표 4개 -2년 전-냉면은 필동면옥 우래옥 등과 비교해 전혀 손색 없을 정도로 아주 맛있으나 직원의 태도에 실망할 수 있으니 주의..}{859: 별표 4개 -2년 전-경험했음}{858: 별표 5개 -2년 전-최고}{857: 별표 5개 -2년 전-맛있고 정갈함}{856: 별표 4개 -2년 전-맛있는 육수}{855: 별표 4개 -2년 전-만두 맛있어요}{854: 별표 2개 -2년 전-비쌈 별로다}{853: 별표 4개 -2년 전-역시 정인면옥}{852: 별표 4개 -2년 전-좋아요}{851: 별표 5개 -2년 전-평양냉면 맛집}{850: 별표 2개 -2년 전-녹두전은  정말 맛없고 냉면은 순면이 낫고 만두가 젤 괜찮음 사람 많아 정신없음  직원들이 다 짜증나 있음}{849: 별표 3개 -2년 전-먹을만해요~}{848: 별표 4개 -2년 전-굳!}{847: 별표 4개 -2년 전-서여의도에서 찾기힘든 평양냉면평양냉면 중에서도 덜짠편}{846: 별표 1개 -2년 전-불친절해요}{845: 별표 4개 -2년 전-맛있는 평양냉면}{844: 별표 3개 -2년 전-가격에 비하여 그닥....}{843: 별표 1개 -2년 전-별로네}{842: 별표 4개 -2년 전-맛있음. 그러나 불친절.}{841: 별표 4개 -2년 전-서빙이 좀 아쉽다.}{840: 별표 4개 -2년 전-만두 정말 맛있습니다!}{839: 별표 3개 -2년 전-심심한 평양냉면 맛집 서브스가 쏘쏘 사람이 워낙많다.}{838: 별표 5개 -2년 전-순면으로드세요}{837: 별표 4개 -2년 전-맛있엉}{836: 별표 5개 -2년 전-첨은별로 였는게 먹을수록갠찮음}{835: 별표 5개 -2년 전-진짜 맛집!!!}{834: 별표 5개 -2년 전-만두 맛남}{833: 별표 3개 -2년 전-불친절}{832: 별표 1개 -2년 전-제가 먹은 냉면 중 최악}{831: 별표 1개 -2년 전-불친절}{830: 별표 3개 -1년 전-가성비 별로임요}{829: 별표 5개 -2년 전-깔끔깔끔}{828: 별표 4개 -2년 전-강남 못가면 여기}{827: 별표 4개 -2년 전-굳 ㅡ ㅡ ㅡ ㅡ}{826: 별표 5개 -1년 전-평냉 맛}{825: 별표 5개 -1년 전-좋음}{824: 별표 3개 -1년 전-서비스 보강합시다!!}{823: 별표 2개 -1년 전-별로야.. 내 입맛엔}{822: 별표 5개 -2년 전-본점만은 못해도..}{821: 별표 5개 -1년 전-굿~~~~~}{820: 별표 1개 -2년 전-노맛}{819: 별표 3개 -2년 전-보통}{818: 별표 4개 -2년 전-기다려서 ㅜ}{817: 별표 5개 -2년 전-최고}{816: 별표 4개 -2년 전-만두 맛나요}{815: 별표 5개 -2년 전-아주 맛있어요}{814: 별표 2개 -1년 전-걍.....}{813: 별표 4개 -1년 전-맛남}{812: 별표 5개 -1년 전-진짜 맛}{811: 별표 5개 -1년 전-최고}{810: 별표 3개 -1년 전-냉면 맛집}{809: 별표 5개 -1년 전-존맛탱이에요}{808: 별표 5개 -1년 전-맛있어요}{807: 별표 5개 -1년 전-맛있습니다}{806: 별표 3개 -1년 전-노말}{805: 별표 5개 -1년 전-맛있다}{804: 별표 4개 -1년 전-서여의도의 오아시스}{803: 별표 4개 -1년 전-맛있어요}{802: 별표 5개 -1년 전-좋아요}{801: 별표 4개 -1년 전-비냉 맛남}{800: 별표 1개 -1년 전-모든게 쓰레기}{799: 별표 5개 -1년 전-명불허전 맛집}{798: 별표 5개 -1년 전-또 가야죠~~^^}{797: 별표 5개 -1년 전-맛있음}{796: 별표 4개 -1년 전-맛있음}{795: 별표 5개 -1년 전-맛집}{794: 별표 4개 -1년 전-괜찮음}{793: 별표 4개 -6달 전-순면}{792: 별표 5개 -8달 전-굿ㅋㅋㅋㅋㅋㅋ}{791: 별표 1개 -2년 전-사람의 입맛에 따라 편차큼}{790: 별표 2개 -3년 전-냉면 만두 등 음식맛이 별로이고 먹은 후 속이 불편한데 가격은 비교적 비쌈}{789: 별표 5개 -2년 전-비싸지만 맛있음!}{788: 별표 4개 -3년 전-오래 기다려야 하는 것이 흠. 전도 맛있다.}{787: 별표 3개 -1년 전-평범한 평양냉면임}{786: 별표 3개 -11달 전-밋있어요}{785: 별표 5개 -2년 전-여의도에서 먹을만한 맛집}{784: 별표 2개 -2년 전-별로야..실망했다}{783: 별표 3개 -1년 전-신흥 강자 아직 내공이}{782: 별표 5개 -1년 전-순면 물 ㄱ}{781: 별표 3개 -1년 전-냉면이 땡기네요}{780: 별표 4개 -1년 전-좋아요}{779: 별표 5개 -1년 전-평양냉면 그 자체}{778: 별표 3개 -1년 전-모나지 않은 맛}{777: 별표 3개 -2년 전-아마 드시고나면 저의 말에 동의 하실겁니다 "쏘쏘하네?""}{776: 별표 1개 -2년 전-내 입맛에는 안맞는걸로...}{775: 별표 3개 -3년 전-여의도에서는 선택의 여지가 없는 냉면집~}{774: 별표 5개 -5달 전-부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추…}{773: 별표 4개 -2년 전-괜찬아요~}{772: 별표 3개 -2년 전-정신없지만 여기라도 없으면 타임스퀘어 한일관까지 가야겠지요?}{771: 별표 4개 -1년 전-맛있음.}{770: 별표 3개 -3년 전-만두가 맛있음. 의외로 냉면은 보통}{769: 별표 5개 -1년 전-최고의 맛}{768: 별표 3개 -3년 전-적당한 냉면집}{767: 별표 4개 -2년 전-좋은 음식..}{766: 별표 5개 -10달 전-언제나 짱}{765: 별표 5개 -1년 전-평양냉면 맛집}{764: 별표 3개 -2년 전-점심보다 저녁에 가면 대기가 없음}{763: 별표 5개 -3년 전-여의도 냉면의 지존}{762: 별표 2개 -1년 전-기대에 못미침}{761: 별표 3개 -3년 전-여의도에 유일한(?)평양냉면!}{760: 별표 3개 -1년 전-보통 평양냉면}{759: 별표 5개 -2년 전-괜찮은 평양냉면}{758: 별표 5개 -2년 전-평양냉면진입할때아주좋을듯}{757: 별표 4개 -3년 전-수육 고기가 한정되어 있어 저녁 7시 넘어가면 못 먹을 수도 있어요}{756: 별표 5개 -2년 전-평양냉면 육수의 기준점으로 잡았습니다.}{755: 별표 1개 -2년 전-평양냉면의 맛이 원래 심심한것인지 모르겠으나 물냉면은 맹물에 면을 풀어놓은것과 같아 매우 실망했습니다.}{754: 별표 4개 -2년 전-오래 기다린것 빼고 괜찮음}{753: 별표 5개 -2년 전-말이 필요없음}{752: 별표 1개 -2년 전-불친절 맛평범}{751: 별표 4개 -8달 전-나쁘지 않아요}{750: 별표 1개 -2년 전-맛있다고 해서 왔는데 비싸기만 하고 내 입맛엔 전혀~}{749: 별표 5개 -9달 전-마이쪙}{748: 별표 4개 -1년 전-깔끔한 순면}{747: 별표 5개 -1년 전-평냉끝판왕급}{746: 별표 5개 -2년 전-인생 평양냉면이였습니다}{745: 별표 5개 -1년 전-난이도 쉬운 평냉}{744: 별표 3개 -1년 전-나쁘지 않은 물냉면}{743: 별표 4개 -1년 전-기다리는 시간이 길어요}{742: 별표 3개 -2년 전-맛은 있으나....}{741: 별표 3개 -1년 전-육수 밍밍  ..}{740: 별표 5개 -1년 전-여의도 냉면맛집}{739: 별표 2개 -1년 전-불친절한 유명한 집}{738: 별표 4개 -1년 전-여의도의 평양냉면 강자}{737: 별표 4개 -1년 전-항상 좋아요}{736: 별표 3개 -1년 전-깔끔하고 맛있음}{735: 별표 2개 -2년 전-줄서고 기다려서 먹을 정도는 아니라고 생각해요}{734: 별표 4개 -1년 전-육수의 육향이 갈수록 진해지네요}{733: 별표 5개 -1년 전-슴슴함 그 자체}{732: 별표 5개 -2년 전-맛잇읍니다 호불호는 갈릴듯해요}{731: 별표 4개 -3년 전-기다려서 먹을 가치가 있음}{730: 별표 5개 -1년 전-평양냉면의 진수}{729: 별표 4개 -3년 전-말끔한 평양냉면.}{728: 별표 4개 -2년 전-녹두전 맛있고 냉면은 심심하다. 순면이 있다.}{727: 별표 4개 -2년 전-평양냉면은 첫음식으로 경험할 때 맛은 거칠고 밍밍하나 다 먹어갈때쯤 입에 당기는 맛이 있음}{726: 별표 3개 -3년 전-슴슴한 국물맛이 가끔 생각나는 평양냉면 전문점.서비스는 조금 불만족임.}{725: 별표 5개 -1년 전-맛도 매장도 깔끔함}{724: 별표 3개 -1년 전-사람이 너무 많다}{723: 별표 4개 -1년 전-담백한 냉면 맛^^}{722: 별표 4개 -3년 전-여의도에서 그나마 정통 평양냉면을 먹으려면 이곳}{721: 별표 2개 -3년 전-영화제에서 상 받은영화 재미 없듯 미식회 나온 음식 이해불가}{720: 별표 4개 -3년 전-맛이  깔끔함평양냉면 안먹본 사람은 안 맞을수도 있음}{719: 별표 5개 -1년 전-깔~~끔 깨끗!!! 감칠맛^^}{718: 별표 3개 -4년 전-면발이 자꾸 불어 나온단 말이지.. 광명 시절이 종종 그리워}{717: 별표 5개 -2년 전-냉면이 맛있어요}{716: 별표 4개 -3년 전-평양냉면이 아주 괜찮은 집}{715: 별표 5개 -3년 전-순수한 평양냉면 맛집}{714: 별표 4개 -1년 전-비싸도 이만한곳 없음}{713: 별표 2개 -2년 전-평양냉면 과 만두...내가 이걸 먹으려고 줄까지 섰다니}{712: 별표 5개 -3년 전-최고의 평양냉면집!}{711: 별표 4개 -2년 전-3~5시 브레이크 타임이 원래 없었는데 생긴 것 같다}{710: 별표 4개 -2년 전-편육은 꼭 오돌뼈 적은 부위로 달라고...}{709: 별표 5개 -2년 전-아..텀블러에싸서다니고싶은육수맛}{708: 별표 5개 -1년 전-밍밍하지만 다시 찾게 되는 평양랭면}{707: 별표 4개 -1년 전-슴슴한맛}{706: 별표 1개 -1년 전-너무 불친절&lt;U+11A2&gt;다시는 가고 싶지 않음&lt;U+11A2&gt;}{705: 별표 4개 -2년 전-평양냉면의 참맛}{704: 별표 4개 -1년 전-괞찮은  평양냉면집}{703: 별표 3개 -9달 전-무난}{702: 별표 4개 -2년 전-심심한 육수가 호불호가 갈릴듯~ 비빔소스는 달콤매콤 맛있네요~ 만두 굿!}{701: 별표 5개 -2년 전-전이 맛있습니다 u_u꼭 드셔보세요}{700: 별표 5개 -3년 전-최고의 평양냉면 집}{699: 별표 4개 -3년 전-조금 진한 육수의 평양냉면에 순면이 제격이네요}{698: 별표 5개 -1년 전-면 추가가 가능}{697: 별표 4개 -2년 전-맛이좋다}{696: 별표 3개 -2년 전-무난한 평양냉면}{695: 별표 4개 -1년 전-광명의 본점보다는 떨어지지만 나쁘진 않다}{694: 별표 5개 -1년 전-평냉 굳 순면먹고싶다}{693: 별표 5개 -2년 전-물냉 굿. 사람 엄청 많은건 단점}{692: 별표 4개 -10달 전-평양냉면 맛집}{691: 별표 3개 -3년 전-무난한 평양냉면집}{690: 별표 3개 -3년 전-매장은 깔끔하고 좋습니다}{689: 별표 4개 -1년 전-맛은 딱 좋앗어요}{688: 별표 4개 -3년 전-깔끔함. 줄서는 경우 많음.}{687: 별표 3개 -11달 전-주차가 불편}{686: 별표 2개 -3년 전-너의 밍밍한 평양냉면을 먹느니 엠에스쥐 팍팍친 박명수의 냉면을 먹겠어. 을지로 모식당에 한수접는 아쉬운 맛.}{685: 별표 4개 -3년 전-어렵게 을밀대 가지말고 편하게 정인면옥으로}{684: 별표 4개 -3년 전-점심시간에 항상 미어집니다..물냉면 육수가 매우 인상적이죠. 가격은 9천원이라 좀 되긴하네요. }{683: 별표 5개 -2년 전-매우 훌륭한 평양냉면}{682: 별표 1개 -1년 전-역시 맛집은  찾아보고가는게 아닌듯 ㅠㅠ셋이가서 만두 1 수육1 물냉냉면2시켜 한그릇겨우먹는듯마는듯하고 한개는 남기고옴 만두도 담백그자체...}{681: 별표 4개 -2년 전-순수한 평양냉면}{680: 별표 3개 -1년 전-평양냉면의 진수? 직평해보세요가성비 꽝}{679: 별표 5개 -2년 전-만두와 녹두전 정말 맛있네요}{678: 별표 4개 -2년 전-미슐랭이 선택한 평양냉면집. 여의도로 옮긴 건 신의 한 수였다.}{677: 별표 4개 -1년 전-평양식 냉면과 만두의 진수}{676: 별표 4개 -1년 전-냉면은 육수가 밍밍(뭔가 2%부족함)면은 괜찮음만두국 맛있었슴}{675: 별표 4개 -2년 전-사람들이 너무 많은게 흠이지만 냉면맛은 정말좋다}{674: 별표 5개 -6달 전-오랜만에 나들이}{673: 별표 4개 -3년 전-정갈하고 맑은 평양냉면}{672: 별표 5개 -1년 전-내부 깔끔하고 음식 맛있어요}{671: 별표 4개 -3년 전-깔끔 9천원 양많음}{670: 별표 4개 -2년 전-정말 비싸고 맛좋네요 :-)}{669: 별표 4개 -2년 전-물냉면 육수가 우래옥보다는 맛이 덜함.}{668: 별표 3개 -2년 전-맛집이라하는데강북의 오래된 평양냉면집에 비해 내공이부족한느낌어수선하고 직원들 서비스도 엉망인데다왠 데스크의 직원은 소리소리지르고 거저 주는듯한태도맛도 기다리면서 먹을집은 아닌듯대형선풍기바람에  머리카락이 음식에 날리고 장난아님순복음교회때문에  유명세를 탄건지&lt;U+11A2&gt;다시방문할 의사없음}{667: 별표 4개 -1년 전-빕구르망 평냉집비냉 만두도 준수}{666: 별표 3개 -2년 전-맛은 좋으나 너무 기다림다.ㅜㅜ}{665: 별표 5개 -3년 전-심심한 듯 먹다보면 진하게 다가오는 맛}{664: 별표 5개 -2년 전-조미료 없고 투박하지만 최고다}{663: 별표 4개 -2년 전-면이 정말 맛있음다른 평양랭면 보다 간이 살짝 되어있어서그렇게 힘들지 않음}{662: 별표 5개 -1년 전-최상의냉면}{661: 별표 3개 -10달 전-빕 구르망}{660: 별표 5개 -10달 전-국물까지 원샷}{659: 별표 3개 -3년 전-유명 맛집이지만 딱히 뭐가 좋다고 하기 어려운....}{658: 별표 3개 -3년 전-아직 정통 평양냉면은 적응하기 힘듭니다. ㅎㅎ}{657: 별표 1개 -1년 전-추천하지 않음.}{656: 별표 4개 -1년 전-여의도 근처에 평양냉면집 차려 주실 독지가 모십니다. 정인면옥은 줄이 너무 길어요!! 손님들의 분산이 시급합니다.}{655: 별표 5개 -1년 전-전국 평양냉면 탑 10.}{654: 별표 4개 -4년 전-가격이 좀 세지만 맛이 괜찮네요. 깔끔하고요.}{653: 별표 3개 -1년 전-부산 사람 입맛에는 좀....}{652: 별표 1개 -1년 전-직원들불친절.}{651: 별표 4개 -1년 전-평양냉면의 신흥강자}{650: 별표 4개 -3년 전-평양냉면은 괜찮아요. 빈대떡은 비추}{649: 별표 5개 -3년 전-밸런스가 잘잡힌 평양냉면 육수 심심한 만두 좋습니다}{648: 별표 4개 -1년 전-개인적으로 순면보다 냉면}{647: 별표 5개 -3년 전-평양냉면으로 가성비 최고}{646: 별표 3개 -4달 전-평양냉면의 순한 맛~}{645: 별표 3개 -3년 전-슴슴한 평양냉면집. 을밀대 보다는 약한 느낌. 녹두전은 괜찮음}{644: 별표 1개 -2년 전-맛은 있지만 서비스가 거지같음.}{643: 별표 4개 -3년 전-음식의 맛이 좋아요}{642: 별표 1개 -4년 전-정인면옥은 since 1972라고 하지만 솔직히 '정인면옥'이라는 이름으로 인터넷 검색을 해보면 2013년부터임을 알수 있다. 광명점도 가보면 1972년부터 사용했던 가게라 보기게 힘들다. 1972년 냉면을 시작했다면 그 상호명이 변하기 힘들터인데 어디에서도 찾아볼 방법이 없다. 다분히 인터넷의 블로그 마케팅이 아닌가 싶으며 정통성이 의심스럽다.}{641: 별표 4개 -3년 전-여의도에 평양냉면집이 없어 사람이 몰리는 곳무난한 수준으로 평양냉면 매니아에게는 조금 부족한 느낌이라는 것이 대체적인 주변사람들의 평가}{640: 별표 3개 -2년 전-웨이팅이 길다명성에 비해서는 평범}{639: 별표 3개 -1년 전-맛있다고 해서 3번 끌려 갔었는데 제 취향은 아닌듯 주인이 너무 거만하고 고객을 좀 무시하듯 대하네요.식당 내부는 깨끗합니다.}{638: 별표 4개 -3년 전-깔끔한 육수의 평양냉면 }{637: 별표 2개 -3년 전-왜 사람이 많은지 잘 모르겠음. 특히 만두국은 꽝.}{636: 별표 5개 -3년 전-냉면 짱...점심시간에 대기줄 많아요.}{635: 별표 5개 -1년 전-맛있다 을밀대보다}{634: 별표 3개 -3년 전-점심시간대에 사람이 항상 많다. 전통 평냉스타일이긴하지만 뭔가 아쉽다.}{633: 별표 4개 -3년 전-많이 기다린만큼 맛있게 먹었어요}{632: 별표 3개 -2년 전-대기길고 주차불편 맛은 그럭저럭 먹을만해요}{631: 별표 4개 -3년 전-괜찮은 정통 평양냉면집입니다}{630: 별표 4개 -3년 전-맛있고 좋은데 줄이 너무 길어요 }{629: 별표 3개 -4년 전-2인분 = 물냉면 양많이 + 물만두 반그릇 + 녹두전}{628: 별표 4개 -3년 전-평양냉면의 기본기 좋음. 면수를 처음에 제공함.}{627: 별표 5개 -3년 전-육수가 굿. 늦게가면 괴기는 없을수도. 토욜 쉬고 일욜 영업합니다}{626: 별표 5개 -4년 전-가격대비.가장 훌륭한 평양냉면 집}{625: 별표 5개 -2년 전-아주 맛있는 평양냉면.}{624: 별표 5개 -1년 전-맛있고 값싸고}{623: 별표 5개 -1년 전-평양냉면맛}{622: 별표 4개 -3년 전-냉면이 유명하지만 만두도 맛있습니다~}{621: 별표 5개 -3년 전-평양냉면의 기본기가 아주 충실하다}{620: 별표 5개 -2년 전-맛있는 평양냉면집}{619: 별표 5개 -2년 전-냉면과 편육은 언제나 만족}{618: 별표 4개 -2년 전-장충동 평양면옥대비 대중적인맛}{617: 별표 5개 -1년 전-평양식 냉면 기억에 남는 맛집입니다.}{616: 별표 5개 -3년 전-순메밀면의 평양냉면을 맛 볼수 있는 곳. 훌륭하다.}{615: 별표 4개 -2년 전-평양냉면으로 인기있는 곳}{614: 별표 4개 -2년 전-깔끔.담백.깨끗}{613: 별표 5개 -2년 전-평양냉면 맛있어요.. 가격도 착하고..}{612: 별표 1개 -3년 전-순면을 좋아해서 가다가 이제 안 간다. 도대체 어떤 시스템으로 주문을 받고 음식을 배분하는지 알 수가 없다. 냉면이 죽 나오면 여기저기서 우리 왜 안 주냐고 손님들이 소리를 치고 아무데나 마구 가져다준다. 그나마 간신히 받은 냉면은 꽝꽝 뭉쳐서 젓가락이 안들어갈 지경인데 항의를 하자 젓가랏으로 꾹꾹 찌르더니 원래 그러니 그냥 먹으란다. 자기 젓가락으로 휘저은 음식을 다시 먹으라고 줘도 되나? 그돈 받으면서 반찬과 면수도 가져다…}{611: 별표 5개 -1년 전-베스트 평양냉면 에버}{610: 별표 4개 -1년 전-깔쌈한 국물}{609: 별표 4개 -3년 전-슴슴한 평양냉면의 매력 배우고 왔습니다ㅎ}{608: 별표 3개 -3년 전-냉면뿐 아니라 메뉴가 다양해서 좋아요~}{607: 별표 5개 -2년 전-걍 평양냉면. 원래 평양냉면은 미사여구가 필요없음}{606: 별표 2개 -1년 전-유명세에 비해 맛과 가격은 별로}{605: 별표 4개 -3년 전-후배가 맛있다고 해서 오늘 처음 왔어요. 깔끔해요.}{604: 별표 3개 -2년 전-자극적이지않고 깔끔한맛.}{603: 별표 5개 -2년 전-곱빼기가 공짜라는 말도안되는 일이!?일요일은 여의도 순복음 교회인들이 우루루 출몰해서 웨이팅이 어마어마하니 가지마세요}{602: 별표 4개 -3년 전-수요미식회에서 소개된 신예 평양냉면 집답게 깔끔한 맛.}{601: 별표 4개 -2년 전-맛있는 평양냉면집이네요~}{600: 별표 4개 -1년 전-평양냉면이지만 맛이 느껴짐}{599: 별표 4개 -2년 전-갠적으론 물냉 육수자체가 좀 짱인것 같음둘다 좋긴 좋음 ㅇㅅㅇ}{598: 별표 4개 -8달 전-평냉무난}{597: 별표 5개 -1년 전-깔끔한국물맛좋아요}{596: 별표 5개 -1년 전-딱 미슐랭 그 이상 이하도 아닙니다}{595: 별표 3개 -2년 전-여의도에 평양냉면을 타이틀로 내세운 식당. 딱 그 정도}{594: 별표 4개 -1년 전-사람 많고 맛있음}{593: 별표 5개 -1년 전-아주 훌륭한 맛}{592: 별표 4개 -3년 전-순면 때문이라도 먹어볼 만하다. 육수는 간간하고 깔끔하다. 수육은 좀 더 찬게 나을 듯. 아이러니하게도 제일 좋았던 건 식사 후 입을 헹궈주는 면수였다. 점심때는 인근 직장인들로 인해 웨이팅이 심하다. 그리고 가장 시급한 건 체계적이고 공정한 주문 시스템이다. 오더 미스가 다반사이고 늦게 온 사람들이 먼저 먹는 불쾌함을 경험할 수 있다. 그래도 순면은 먹어볼 만하다.}{591: 별표 4개 -2년 전-점심시간에 먹고싶다면 일찍가서 번호표를 뽑을것}{590: 별표 3개 -2년 전-너무 불친절해서 음식맛을 느낄새가 없네요}{589: 별표 5개 -2년 전-국물이 깔끔하게 좋았습니다}{588: 별표 1개 -3년 전-소문만 듣고 갔다가... 내가 먹어 본 냉면 중 최악의 냉면.딸은 비빔냉면 나는 물냉면. 물론 메밀 100% 순도를 자랑한다는 순면으로. 녹두전도 하나 추가.소문답게 이미 번호표 뽑아서 대기중인 손님들이 많았다...우리도 번호표 뽑고 날도 더운데 기다리다가 순서가 와서 주문하고 나온 냉면을 먹기 시작했는데 딸의 표정은 '이게 무슨 맛이지??' 나는 '밍밍한 정도가 아니라 무슨 맛인지' 알 수 없어서 자꾸만 먹고 또…}{587: 별표 4개 -1년 전-맑은육수 맛있음}{586: 별표 3개 -1년 전-다소 밍밍할수 있는맛!}{585: 별표 4개 -1년 전-면 육수 둘다 일품}{584: 별표 4개 -2년 전-기존 냉면과는 다른 면입니다. 익숙치않으신분들은 별루라구 하실지도...}{583: 별표 3개 -1달 전-맛있음}{582: 별표 1개 -1년 전-말그대로.. 무미건조한 맛?}{581: 별표 3개 -1년 전-일요일이라 그런지 원활하지 못한 손님응대가 아쉬웠습니다}{580: 별표 5개 -2년 전-평양냉면을 맛보신다면 추천}{579: 별표 1개 -2년 전-맛이나 서비스 모두 최악입니다. 절대로 가지마세요.}{578: 별표 4개 -6달 전-좋네요}{577: 별표 2개 -2년 전-평냉이 유명해지고 사람 많아진 뒤로는 맛이 변함. ㅠㅠ}{576: 별표 2개 -2년 전-메밀 함량에 따른 가격차별화 얄팍하네 .. 냉면은 뭐고 순면은 뭔지}{575: 별표 4개 -2년 전-어의도 정인면옥은 오류동 평양냉면 계열로 광명에서 시작해서 광명은 친구에게 넘기고 여의도 순복음교회 건너편에 자리를 잡았다.이곳 육수는 우래옥처럼 아주 강하지 않고 장충동 평양면옥 처럼 아주 약하지 않은 중간정도의 맛이라 생각된다.은은한 육향이 알맞게 스며들어 있어 가벼우면서도 깊은 맛을 느낄 수 있어 평양냉면 입문하기에 더없이 좋은 곳이라 말하고 싶다.아쉽게도 순면이 다 팔려 맛을 못보았지만 기본 면만으로도 메밀의…}{574: 별표 4개 -3년 전-냉면이 맛있는 집 매우 붐벼서 일찍 가야함}{573: 별표 5개 -1년 전-평양냉면 깔끔하게 잘하는 집}{572: 별표 3개 -3년 전-도심속 깨끗한 냉면에 수육을 덮어 한젓갈 하면 더위가 싹!}{571: 별표 4개 -1년 전-담백하니 좋네요}{570: 별표 1개 -1년 전-별이 아까움.불친절의 끝장}{569: 별표 5개 -2년 전-냉면만 보면 맛있음 돈값 제대로함}{568: 별표 4개 -3년 전-평양냉면과 만두 녹두전이 맛있는 곳입니다. }{567: 별표 5개 -3주 전-맛!있!다!}{566: 별표 4개 -2년 전-슴슴한 맛 같은 가격의 양많이 dh}{565: 별표 4개 -1년 전-맛 좋은 평양냉면}{564: 별표 4개 -2년 전-심심한맛..좋아하는분은.추천}{563: 별표 1개 -2년 전-불친절함이 맛을 삼켜버린다. 맛도 잘 모르겠지만}{562: 별표 3개 -2년 전-기다린것에 비해 뭐 보통입니다... 만두는 맛있었습니다}{561: 별표 5개 -3년 전-평양냉면을 좋아하는사람이라면 꼭가봐야할곳}{560: 별표 5개 -2년 전-먹어본 평냉중 육수가 가장 슴슴했던 곳. 하지만 깊고 육중하다.}{559: 별표 5개 -1년 전-괜찮은 평양냉면집}{558: 별표 2개 -2년 전-평양냉면 맛이 좀 이상했어요.}{557: 별표 5개 -10달 전-평양냉면은 단연 이집이죠!!!}{556: 별표 5개 -3년 전-맑고 고운 육수가 주는 반전의 깊은 맛 소주를 부르는 육수의 마력! 접시만두는 필요 이상으로 맛있어서 젓가락을 놓치 못하게 만들고! }{555: 별표 5개 -2년 전-판교의 능라와 더불어 굿}{554: 별표 4개 -2년 전-쫄기한 식감의 평양냉면과 부드러운 제육 반접시}{553: 별표 4개 -1년 전-주차어려움. 수육 맛 깔끔.}{552: 별표 4개 -10달 전-만두국 좋아요}{551: 별표 4개 -2년 전-일요일 저녁 7시에 방문 웨이팅은 없었고 무료주차 1시간 저녁에 방문해서 순면은 없었고 냉면과 녹두전만 가능했음 육향이 많이나는 육수였으며 녹두전이 맛있었음 냉면양이 적게 생각되서 별 하나 제외}{550: 별표 4개 -2년 전-냉면 깔금합니다. 만두 부침개도 굿}{549: 별표 5개 -1년 전-광명 시절부터 훌륭했다}{548: 별표 5개 -2년 전-간간하고 맛난 순면 추천. 만두도 맛있음}{547: 별표 5개 -11달 전-평양냉면 1티어.}{546: 별표 4개 -4년 전-이전 초기에 불안정한 모습을 보여줬지만 지금은 맛이며 서비스며 모두 안정된 듯. 훌륭한 냉면.}{545: 별표 2개 -2년 전-맛이 거의 무미에 가까움}{544: 별표 3개 -1년 전-난 평양냉면 왜먹는지 모르겠다}{543: 별표 5개 -1년 전-평양냉면 좋아하신다면 꼭드세요}{542: 별표 5개 -2년 전-평양냉면 잘해요. 만두는 쏘쏘}{541: 별표 1개 -2년 전-가본 식당중 제일 불친절 한곳. 종업원들이 왕인 곳 갈때마다 종업원들 때문에 기분이 상하는곳이라 음식 맛이 좋더라도 다신 가고 싶지 않다}{540: 별표 3개 -2년 전-내 입맛이 후져서 그런건지 다른 분에게 넘기고 온 광명 정인이 더 나은듯}{539: 별표 5개 -1년 전-양많이 개짱}{538: 별표 2개 -2년 전-일단 냉면이 너무 맹맹하고 매우비쌈.. 사람많음}{537: 별표 4개 -3년 전-평양냉면 집이라서 그런지 다들 너무 밍밍... 수육도 소스도 모두 그러함... 나는 평양냉면 매니아가 아니라... 패스!}{536: 별표 4개 -1년 전-맛은 좋습니다가격이 비싼편입니다}{535: 별표 5개 -2년 전-평양냉면 중에서도 밍밍한 편. 처음에 시킬때 양많이를 시키면 면을 두배로 줌}{534: 별표 3개 -2년 전-무난합니다. 아쉽게도 평양냉면 찾아먹는 사람들에게 손꼽힐 만한 맛집은 아닌 듯 하지만 근처에서 평양냉면을 먹고싶다면 찾아올 만 할 것 같아요.}{533: 별표 5개 -2년 전-내가 가장 좋아하는 평양냉면집}{532: 별표 5개 -1년 전-광명보다 좀 더 비싸고 좀 더 맛있는 것 같음}{531: 별표 4개 -3년 전-맛있는 평양냉면에 순면이랑 그냥을 고를수있는 것 가격도 다를 유명 평냉집에 비해 저렴 그리고 깔끔한 가게 훌륭합니다}{530: 별표 4개 -2년 전-그럭저럭 맛나요. 개성은 좀 없네요.}{529: 별표 5개 -2년 전-평양냉면을 좋아하는 분이라면 가볼만한 곳함흥냉면의 물냉면을 좋아하는 분이라면 많이 기대하지 않고 가서 먹는 것이 좋음은은하고 심심한 육수를 평소에 좋아하시는 분이라면 추천할 만한 곳}{528: 별표 4개 -2년 전-가성비는 좀.. 여튼 정통 평양 냉면을 맛보고 싶다면~}{527: 별표 4개 -2년 전-깔끔한육수맛에깜짝놀랐네요 실내도깔끔했구요}{526: 별표 5개 -2년 전-가성비 훌륭한 평양냉면집}{525: 별표 4개 -1년 전-개인적으로 슴슴한 평냉 중 밸런스가 가장 좋다고 봅니다. 편육은 조금 퍽퍽합니다만 면이 맛있습니다. 아직 순면은 못먹었습니다. 항상 브레이크타임 끝나고 가면 순면 다 떨어졋더라구요ㅠ}{524: 별표 4개 -6달 전-가끔먹으면 맛있음}{523: 별표 4개 -2년 전-이제 괜찮은 냉면집은 어느 정도 평준화 되었지만 여전히 손에 꼽힐 정도로 맛있다.}{522: 별표 4개 -2년 전-여자 둘이서 비빔하나랑 만두수육 반접시 먹으니까 딱이네요ㅎㅎ만두는 두부가 있어서 부드럽고 수육이 맛있어요 비빔은 그냥 비빔냉면 맛이고ㅎㅎ양은..적지만ㅎㅎ}{521: 별표 3개 -3년 전-육수의 간이 강하다. 여의도에서 평양냉면을 접할 수 있는 유일한 곳. 특별하진 않다.}{520: 별표 4개 -3년 전-회사선배들이 추천해줘서 다녀왔습니다. 저는 입맛에 잘맞았어요~}{519: 별표 5개 -3년 전-광명과는 또다른. 깨끗한 육수. 깊은 맛. 상대적으로 만두 녹두전은 아쉬운 맛.}{518: 별표 3개 -5달 전-맛나요}{517: 별표 5개 -1년 전-순면 12천원. 만두국 10천원. 만두 맛있음.}{516: 별표 5개 -1년 전-미슐랭 깨끗하고 정갈함}{515: 별표 5개 -1년 전-정통의 맛을 느끼고 싶다면 정인면옥}{514: 별표 5개 -3년 전-육수는 참 좋은데 면이 살짝 아쉽다. 그래도 여의도에서 이정도 하는 평냉집 없음. 훌륭!}{513: 별표 4개 -1년 전-자극적이지 않은 평양냉면. 호불호가 갈릴듯.}{512: 별표 4개 -2년 전-평양냉면순면이아주맛있어요}{511: 별표 4개 -2년 전-깔끔하고 맛좋은데 줄이 넘나길다}{510: 별표 4개 -3년 전-여의도에서는 제일 나은 평양냉면. 여름엔 저녁에도 줄 서서 기다리기 쉬움.}{509: 별표 3개 -3년 전-무난한 평양냉면집. 대기줄이 무척 길다}{508: 별표 4개 -2년 전-나름 별미의 평양냉면을 제공하는 식당}{507: 별표 5개 -2년 전-초보자도 좋아할만한 맛.}{506: 별표 4개 -8달 전-1군 냉면집}{505: 별표 5개 -1년 전-여의도 냉면 1등}{504: 별표 5개 -2년 전-평양식 냉면의 최고봉!  번호표를 뽑아서 긴 줄을 서야 하지만 그 가치가 보장되는 곳!!!}{503: 별표 3개 -1년 전-어째서 맛집인지 모를곳항상 사람은 많다}{502: 별표 4개 -1년 전-언제 먹어도 깔끔해요}{501: 별표 5개 -2년 전-맛 좋음 대기시간 상당함}{500: 별표 3개 -2년 전-점점 기계적인 서비스에 음식은 예전 그대로~~}{499: 별표 1개 -1년 전-유쾌하지 않은 분위기에서 식사를 해야하는 곳 굳이 다시 가지는 않을 듯 싶네요.}{498: 별표 4개 -2년 전-맛은 있다 그러나 여름엔 12시 전에 가도 30~40분 대기는 기본이다}{497: 별표 3개 -3년 전-여의도에 냉면집이 없어서 어차피 선택의 여지가 없음.평양냉면이고 교회때문인지 토요일 휴무. 일요일 문염.}{496: 별표 3개 -2년 전-면이 너무나 딱딱하고 뻣뻣. 순면은 좀 다를라나. 육수는 육향과 간이 적당하고 깔끔함}{495: 별표 4개 -2년 전-평균이상의 평양냉면 하지만 미지근한 만두}{494: 별표 5개 -3년 전-가성비 좋은 평양냉면 맛집. 대기 시간이 길지만 그만큼 맛이 좋다.}{493: 별표 4개 -2년 전-깔끔합니다. 깊은 맛은 조금 없어요}{492: 별표 5개 -1년 전-제가 좋아하는 평냉}{491: 별표 5개 -1년 전-만두와 순면 냉면 맛집인정}{490: 별표 4개 -1년 전-대체적으로 맛은 좋으나 평양냉면은 아직 어렵다}{489: 별표 4개 -1년 전-깔끔하고 맛있습니다!! 평양냉면중 간이 좀 되어있는 편입니다}{488: 별표 5개 -1년 전-양많이 달라고 하면 추가금없이 가능합니다}{487: 별표 4개 -1년 전-심심하게느껴지면서도 맛있어요}{486: 별표 4개 -1년 전-평냉중 굿}{485: 별표 4개 -3년 전-일단 여의도에선 최고.. 개인적으론 을밀대보다 한수위.  시내 유명면옥에 버금간다고 봄}{484: 별표 3개 -1년 전-슴슴한 맛. 아직은 이 맛에 적응이 안되네요.}{483: 별표 5개 -2년 전-메밀 순면으로 만든 평양냉면을 비교적 합리적인 가격대로 경험할 수 있는 곳}{482: 별표 5개 -3년 전-제가 평양냉면에 눈 뜬곳이죠정말 10번은 먹어야 그 맛을 안다는 ...월 한번은 갈정도로 좋아합니다}{481: 별표 4개 -3년 전-난이도가  덜 높은 평냉. 곱배기 주문하면 추가요금 없이 양 많이 먹을 수 있음.}{480: 별표 5개 -1년 전-토요일 쉽니다. 면쟁이로써 항상 국물까지 완냉하고 오는 곳.}{479: 별표 4개 -1년 전-평양맹면맛집. 식사시간엔 항상 사람 많아요}{478: 별표 5개 -3년 전-깔끔한 육수와 쫀득한 면발. 더 설명이 필요한가요?}{477: 별표 5개 -2년 전-평양냉면 물냉면 먹을 수록 진한 맛이 느껴지네요직원들이 무지 친절하구요}{476: 별표 5개 -2년 전-물냉면은 언제 다 먹었는지 모르게 끝났고 수육도  부드러워서 맛있습니다.맛의 깊이가 있습니다^^}{475: 별표 4개 -2년 전-평양냉면치고 합리적인 가격. 맛도 좋고 양많이로 시키면 성인남자도 배불리 먹을수있음}{474: 별표 1개 -1년 전-직원들이 불친절해서 기분 더러웠음.맛도 그닥 좋은지 모르겠어요.}{473: 별표 5개 -1년 전-평양냉면 맛집. 손가락안에 들어가는집}{472: 별표 4개 -2년 전-이집 냉면 먹을 땐  밍밍한데 먹고 나면 자꾸 생각나요 국물은 생수처럼 말고 투명합니다 그런데 신기하게도 깊은 육수 맛이납니다 면발은 다소 퍼석하며 뚝뚝 끊기는 느낌입니다}{471: 별표 5개 -2년 전-심심하지도 과하지도 않은 가장 적당한 맛의 평양 냉면. 해장에 적당}{470: 별표 1개 -2달 전-비추입니다}{469: 별표 1개 -2년 전-냉면은 그럭저럭. 불고기는 먹을게못됨. 직원들도 서툴고 손님이 많으면 버거워하는게 눈에보임}{468: 별표 4개 -2년 전-평양냉면 맛있어요 가까워 해장하러 자주가는집}{467: 별표 1개 -2년 전-한껏 기대하고 한시간을 기다렸는데.. 맛 없어요..ㅠㅠ 편육은 비리고 냉면은 밍밍해요 녹두전이 제일 맛남}{466: 별표 4개 -1년 전-기대를 많이 했던듯 나쁘진 않다. 가격이 비쌈}{465: 별표 5개 -8달 전-최고의 육수!}{464: 별표 5개 -7달 전-맛있었음}{463: 별표 5개 -3년 전-굵기가 다른 평냉... 맛있다 다른집 평냉은 왜 더 비싼가?p.s 6월14일 방문시 면발은 일반적이었슴... 날마다 조금씩 다른 이유가 뭘까?}{462: 별표 4개 -2년 전-담백한 전통 평양냉면과 만두를 먹을 수 있는 곳}{461: 별표 2개 -2년 전-맛있는데정신없음.포스의 여직원은 오픈 20분만에 이미 신경질적인 목소리.손님들이 주차관련번호표 관련 당연히 물어볼수 있는 내용을 물어보는데도 니가 알아서 하지 왜 물어보냐는 식의 답변.그렇게 안내가 힘들면 제발 좀 안내문을 써 붙이세요!!!! 본인이 신경질내고 본인이 주문 잘못 넣어 더 문제 생기게 하고...원나참. 그것도 정리 못하는건 당신이 일을 못하기 때문입니다~~~}{460: 별표 2개 -1년 전-명성에 비해 그닥...}{459: 별표 4개 -2년 전-사리추가해서 물냉면 하나 먹고옴. 깔끔한 맛의 냉면}{458: 별표 5개 -1년 전-여긴 평안냉면 성지}{457: 별표 1개 -1년 전-이거 왜이러세요 사무실이 있는 빌딩에 정인면옥이 있습니다}{456: 별표 5개 -1년 전-깔끔하다 최고로}{455: 별표 3개 -1년 전-면이 너무질기고 별로 맛이 없네요}{454: 별표 4개 -1년 전-대기가있으나 쪼매만기다리면됨 펀육이맛있음}{453: 별표 5개 -1년 전-무척 맛있습니다.순면추천.늦게가면 순면떨어짐.}{452: 별표 4개 -1년 전-최악의 불친절 최고의 맛}{451: 별표 5개 -1년 전-굿 맛나요 맛있어용}{450: 별표 5개 -2년 전-평양냉면의 전통을 고수하고 가격도 좋습니다 특별히 친절이 마음을 편안하게 하네요}{449: 별표 4개 -2년 전-액간은 색다른 평양냉면이네요 먹을만 합니다}{448: 별표 5개 -2년 전-비빕냉면에 간장 두 방울 넣으면 대박 맛 좋습니다.}{447: 별표 1개 -1년 전-무맛 밍밍평양 물냉 만원콜라천원숭늉따라줌}{446: 별표 4개 -1년 전-면발이 굵고 깔끔}{445: 별표 3개 -5달 전-부천에 분점 낸 뒤로 사장은 보이지 않고맛도 변했다가격 맛 위치 청결도 서비스 모두 만점}{444: 별표 5개 -1년 전-여기 좋다. 조용하고 맛있고. 음식 정갈하고.}{443: 별표 4개 -1년 전-고기향이 은은하고 간도 적당한 물냉면}{442: 별표 5개 -2년 전-깔끔한 맛의 평양냉면과 담백한 만두~! :)}{441: 별표 5개 -1년 전-냉면 만두 모두 맛있어요 비빔냉면도 맛있어요}{440: 별표 2개 -3년 전-지난주에는 광명시장 근처에 있는 정인면옥을 다녀왔고 오늘은 여의도 순복음 교회 앞에 있는 정인 면옥을 다녀왔다.  지난주에는 수육 녹두전 비냉 물냉을 먹었고 오늘은 만두 녹두전 순면 물냉 비냉이다.어째든 이집 냉면은 맛있다. 여러 단점이 많이 있어도 이집 냉면은 맛있다.그렇게 결론이 났다.. 주차장이 불편하더라도 조금 주변 환경이 안좋더라도 광명으로 가야겠다.. 냉면은 별4.5 이지만 기타 음식과…}{439: 별표 4개 -1년 전-맛이 깔끔했어요}{438: 별표 5개 -1년 전-면발이 살아있는 평양냉면..^^}{437: 별표 1개 -1년 전-서비스도 꽝이고 냉면맛은 최악 우액별하나도 아까움}{436: 별표 4개 -2년 전-깔끔하니 기본맛에 충실. 더이상은 가격올리면안될듯}{435: 별표 3개 -2년 전-왜 이렇게 재료 소진이 빨리 되는지... 남은건 평냉인데 을밀대가 조금더 좋은거 같다}{434: 별표 1개 -1년 전-9시주문마감이래서 8시50분까지주문완료했더니...9시05분부터 락스걸레질시작..음식맛은좋으나...락스냄새에..음식을먹는건지...락스바른음식을먹는건지...이해가...안돼는..9시30분 문닫는다면서요?아무리 손님이많이오는곳이래도....그렇게 락스냄새풍기면서 걸레질 할꺼면 그냥 9시에 문닫고하세요그냥!!!!락스에..바람물질있는거아닌가?돈쓰고 락스냄새맡고온느낌?ㅎㅎ더러운기분...}{433: 별표 4개 -2년 전-은은한 맛 담백한 맛 깔끔한 맛(자극적인 맛에 지쳤을 때 찾으면?? 아무 맛도 못 느낄 듯). 가격이 좀 비쌈.}{432: 별표 3개 -1년 전-기대치 보다는 특별하고 맛있는 맛은 아닌듯 직원분들이 친절하지도 않은듯해요}{431: 별표 4개 -2년 전-맛 좋고 깔끔함 사람이 줄서있어서 먹고 바로 일어나야함}{430: 별표 4개 -1년 전-담백한 맛. 평양냉면의 맛.}{429: 별표 4개 -2년 전-점심 저녁 손님이 너무 많아요 그만큼 유명한 맛집 입니다}{428: 별표 4개 -2년 전-깔끔한 평양냉면맛. 그렇게 줄서서 기다릴 정도는 아닌데 줄 엄청 깁니다.}{427: 별표 4개 -1년 전-냉면 만두 녹두전 등이 맛있었습니다. 지하주차장이 있는데 넓지는 않습니다.}{426: 별표 4개 -1년 전-냉면 맛있음. 근데 사리 5천원인데 왜 냉면 1만원인지. 사리값 올릴까봐 댓글쓰기 무섭네. 그리고 여긴 녹두전보다 접시만두가 맛남}{425: 별표 5개 -2년 전-슴슴하니 맛있네요~ 만두소도 튼실합니다:)}{424: 별표 3개 -2년 전-우래옥과 비슷한 맛의 평양냉면 깔끔한 편육 편의점 만두보다 좀 더 맛있는 만두.}{423: 별표 5개 -2년 전-순면이 좋습니다. 평양냉면 좋아하시는 분이라면 꼭 한번 들러볼 만한 식당입니다. }{422: 별표 3개 -2년 전-괜찮은 맛이지만 이런 서비스에 이런 맛이라면 굳이 또 가고 싶지 않습니다.}{421: 별표 5개 -2년 전-맑은 육수의진한 맛한 그릇 먹고 나면 행복해지는 기분}{420: 별표 5개 -1년 전-점심시간에 갔는데 줄이 어마어마하네요. 평양면옥에서 손꼽힐만 합니다.}{419: 별표 4개 -3년 전-여의도뿐만 아니라 국내에선 잘 알려진 평냉맛집. 평양냉면 처음 먹는 사람들도 쉽게 먹을 수 있는 맛입니다.}{418: 별표 1개 -1년 전-바빠서인지 원래 그러신건지 서빙하는분들이 퉁명스럽고 인상 쓴 모습으로 손님 응대하는 모습이 불편한 식당. 아무리 맛이 있다해도 맛있게 느껴질수 없는 불편한 분위기. 냉면 맛은 흉내만 낸 듯한 맛.}{417: 별표 2개 -1년 전-그렇게 맛있는지는 모르겠어요. 판교 능라가 더 나아요}{416: 별표 4개 -1년 전-평양식 냉면집주차는.. 전쟁이다깔끔하고 맛있다}{415: 별표 4개 -2년 전-초창기보다 양이 적어진 느낌이지만 여전히 과하지 않은 육수와 뚝뚝 끊어지는 면발이 조화로움}{414: 별표 5개 -4년 전-주차장은 건물 지하에 할 수 있지만 조금 좁아보입니다. 깨끗하 매장에 직원분들도 친절하시고 특히 냉면 사리가 4000원인데 고기와 달걀을 뺀 똑같은 양의 냉면 한그릇이 더 나옵니다. }{413: 별표 5개 -2달 전-인생맛집}{412: 별표 3개 -2년 전-생각보다 실망.. 교회앞이라 장사가 잘되서인지. . 냉면 본연의 맛보단.. 그리.. 감흥이 없었다}{411: 별표 3개 -3년 전-맛 좋음.  일하는 사람들의 서비스는 그럭저럭.  카운터에 젊은 남자가 있을때가 있는데 그집 주인 아들인지 모르겠지만 매우 불친절함. 그친구는 일 하지 말아야함. }{410: 별표 3개 -2년 전-담백한 평양 냉면집. 유명한 곳인데 나에겐 아직 안맞는 듯..그래도 내가 적응됬으면 하는 맛집}{409: 별표 2개 -2년 전-냉면 전문점이라고 해서 갔는데 냉면의 맛이 맛이 아니다.  한마디로 외화내빈이다. 두번 다시 찾지 않을 것 같다.}{408: 별표 4개 -1년 전-냉면 맛이 좋습니다. 순면은 품절되어 먹어보지 못했는데 더 좋을것 같다는 생각이 듭니다.}{407: 별표 4개 -2년 전-주변에 평양냉면집이 없어서 여름엔 대기가 많음 가격이 저렴하지는 않음}{406: 별표 3개 -2년 전-특별한 맛은 아니다즐겨 먹을 수 있는 맛비빔냉면을 먹을때 물냉면 육수좀 먹어보고싶다고하니 따로 준비해주셨다}{405: 별표 5개 -2년 전-평양냉면 처음접해본곳입니다.아직 익숙하지않아요~~~그래도 이곳이 맛집이라고하니맛있는평양냉면을 먹은것같긴해요}{404: 별표 5개 -1년 전-입문자도 충분히 좋아할맛}{403: 별표 4개 -1년 전-수준 높은 평양냉면}{402: 별표 4개 -2년 전-을밀대나 우래옥 처럼 이집만의 육수 맛이 있음. 만두보다는 녹두전을 추천.}{401: 별표 5개 -2년 전-우리집 근처 맛있는 평냉면집 발견!! 깔끔한 국물이 시원합니다.}{400: 별표 4개 -1년 전-맛은 있으나 사람이 많아서 정신없는 분위기}{399: 별표 5개 -8달 전-맛있으면...}{398: 별표 4개 -3년 전-날이 많이 따뜻해졌나보다. 평양냉면집에 사람이 붐비니 말이다. 여전히 정갈하게 내어주는 육수에 슴슴한 김치를 한 점 얹어 먹으니 맛이 딱 떨어진다}{397: 별표 4개 -1년 전-평양냉면 계의 대기업이 됐으나 맛은 변하지 않았다}{396: 별표 1개 -2년 전-1. 육수 : 갈수록 물맛에 가까움. 2. 주인아들 불친절3. 직원들도 마찬가지4. 반찬 김치를 너무 조금줘서 다시 달라하면 벨 4번 눌러야함}{395: 별표 4개 -1년 전-비싸긴하지만 맛은 있음 냉면은 별로 안좋아하지만 맛있음}{394: 별표 3개 -2년 전-깔끔하기는한데 맛은 밍숭맹숭하다 내입맛에 약간은친잘하지못한면도 있고}{393: 별표 5개 -1년 전-육수 면 훌륭합니다}{392: 별표 5개 -6달 전-음 쩔어}{391: 별표 2개 -2년 전-삶은 면을 물에 담아 낸듯한 맛. 뭐지? 신기하다 혹은 이상하다? 이렇게 유명한건 분명 이유가 있을건데 내가 합류하지를 못해버림.}{390: 별표 3개 -4달 전-내입에는  쏘쏘}{389: 별표 4개 -1년 전-아직도 만원을 유지해주고 있는 고마운 평양냉면집}{388: 별표 4개 -2년 전-개인적으로 평냉보다 비냉이 더 맛있는집평냉은 간이 쫌 있어서 완전 오리지널 밍밍 와중에 감칠맛 평냉을 느끼고 싶다면 살짝 실망할 수도 있지만 깔끔한 인테리어에 사이드메뉴도 맛있어서 계속 찾아가게 되는 집!}{387: 별표 3개 -1년 전-맛은 평양냉면 맛집 중 무난한 수준. 만두는 빈대떡 만드는 속이랑 똑같은 것 같음.}{386: 별표 3개 -9달 전-난  아직 평양 냉면을 몰라~광명시장 에서 시작하여 여의도 국회의사당 앞까지그리고 미슐랭스타 식당이 된 집}{385: 별표 5개 -1년 전-흔들림 없는 맛입니다~ 30분을 기다려서 먹어도 맛있네요^^}{384: 별표 3개 -2년 전-웨이팅을 견디고 먹기에는 조금 아쉬운맛. 평양냉면 메뉴 자체의 밋밋한 맛이라는 특수성을 제외하고도 주말을 마무리하는 일요일 저녁시간 30여분 웨이팅을 커버할만큼의 맛을 충족시키지 못함.사이드메뉴 녹두전과 편육은 큰 실망. 돈이 아까웠다는 표현은 왠만하면 하기싫은데... 출입문 앞에 미슐랭 2년연속 스티커가  눈앞에 아른거려서 남김..전반적인 주/부메뉴가 오히려 미슐랭이 없는곳보다 한참 뒤쳐진 집이 아닌가 싶음.}{383: 별표 4개 -9달 전-냉면은 맛만 확보되면 언제나 옳다!!  완냉성공!!!}{382: 별표 4개 -2년 전-서여의도에서 평양냉면을 맛볼 수 있는 곳. 맛은 그저그렇고 사람이 정말 많으}{381: 별표 5개 -2년 전-불고기 육수 어울어진.. 순면이 최고!술안주로도 좋아용~ 친절은 기본!}{380: 별표 4개 -3년 전-3대 평얀냉면집.. 여의도 순복음교회 근처로 이전한 평양냉면 전문점 입니다.개인적으론 가장 순하고 자극적이지 않은 맛의 평양냉면입니다.}{379: 별표 3개 -11달 전-마감할때 갔더니 밥먹는 공간 반 바닦걸레질 하는 공간 반}{378: 별표 4개 -10달 전-너~~무너무 맛있는데직원이 불친절해서 별 하나 빼요}{377: 별표 2개 -1년 전-평양냉면 씬의 새로운 강자입니다만 여의도로 이전한 이후 가격도 많이 오르고 맛이 들쭉날쭉 합니다.}{376: 별표 4개 -1년 전-맛도 좋고 깔끔한 가게. 별네개는 종업원의 친절도 반영.}{375: 별표 4개 -1년 전-테이블 많아여 맛은.. 맛잇서요 녹두전}{374: 별표 3개 -11달 전-면이 소면 덜익은걸 씹는듯한 식감이라호불호 갈릴듯만두도 얇은피에 부추가 약간씹힘 조금 맛남점심시간 지나면 내쫓는 느낌}{373: 별표 5개 -1년 전-제겐 평냉 지존. 심지어 비냉조차 맛나요}{372: 별표 4개 -2년 전-가장 좋아하는 맑고 개운한 육수의 평양냉면. 적당히 질감 있고 후두둑 끊기며 넘어가는 메밀면발. 다만 손님 많을 땐 홀서브가 우왕좌왕 하는게 흠.}{371: 별표 3개 -6달 전-비냉맛있음만두는별로}{370: 별표 5개 -1년 전-누구나 먹을만한 평양냉면.이 근방에서 제일 맛있는 냉면집}{369: 별표 3개 -8달 전-평양냉면 밍밍 그자체ㅋㅋㅋ}{368: 별표 5개 -2년 전-물보다 더 시원한 국물은 깔끔 담백.번호표를 받아 기다려 먹는 가치가 충분하다.}{367: 별표 2개 -1년 전-주입식 교육에 익숙한 사람도 아무리 방송에서 유행해도 미묘한 맛을 아직 못느끼는건 나만의 문제일까? 그런데 밑반찬을 너무 아끼셔서.세번을 추가 주문함.주인이 음식 아끼면 손님도 발길을 아낍니다.느끼한 음식에 김치라도 좀 주시지...}{366: 별표 5개 -1년 전-오류동 평양냉면과 함께 서울 서남부권에서 냉면지존입니다.}{365: 별표 2개 -11달 전-면이 제가원하던평양냉면면이 아니었음}{364: 별표 5개 -1년 전-평일 기준 오전 11:20 쯤 부터 자리가 없습니다. 다른 평양냉면집에 비해 합리적인 가격입니다.}{363: 별표 4개 -1년 전-면이 다른집면보다 굵은편. 맛있고 좋았습니다. 일부러는 안가도 근처가면 고민없이 먹을듯한 곳입니다.  (광명과 다른 곳)}{362: 별표 4개 -1년 전-음식도 맛있고 직원들도 친절해요}{361: 별표 5개 -2년 전-늘 긴줄 친절도는 그닥;;;; 굳굳 맛난 냉면 특히 계속생각나는 물냉 (단 첨에는 밍밍해서 이게모지? 하고ㅈ당황할수있음}{360: 별표 3개 -1년 전-함흥냉면이 처음이라 어색함. 맛있는 맛이라기보단 담백한 맛}{359: 별표 4개 -2년 전-평양냉면 맛이 제대로 나는 집이네요.  매장도 깔끔해요}{358: 별표 5개 -1년 전-육수가 깔끔함냉면면발도 메밀함량이 높아 맛 좋음}{357: 별표 5개 -1년 전-미슐렝 이름에 빛나는 최고의 냉면}{356: 별표 4개 -1년 전-너무 늦게가서 편육이 없었지만 내가 먹어본 평양냉면중에 제일 맛있었어요ㅠㅠ}{355: 별표 5개 -3년 전-다른 분의 평처럼 저도 여기 냉면이 가장 부드럽고 깔끔하네요. 정갈합니다. 여의도 점심때 줄이 상당하니 참고하세요.}{354: 별표 4개 -3년 전-3년전에 먹었을때는 정말 맹물같았는데 지금은 완전히 자리잡았다. 풍부한육향을 즐길 수 있는 곳. 가격도 다른 유명한 냉면집보다 착하다. 단 일요일엔 사람이 많아서 먹기가 힘들다.}{353: 별표 3개 -3년 전-글쎄....소문보다는 걍 평양냉면집 장충동스타일의 맛과 스타일..편육은 맛있다 ㅋ미쉐린가이드에 나오기엔 더괜찮은 평양냉면집이많은데....평양냉면좋아하시는분들에겐 좋은집 ㅎ}{352: 별표 4개 -1년 전-국물이 맛있어요 면 빼고}{351: 별표 5개 -4달 전-맛있는 평양냉면집 비빔도 맛있음}{350: 별표 5개 -1년 전-냉면은 물론이고 아롱사태 수육이 정말 좋음}{349: 별표 2개 -11달 전-평양냉면 생각보다 별로군요 그리고 무슨 전 있는데 삼겹살이 들어간거 별로}{348: 별표 5개 -2년 전-평양냉면 중에서도 난이도 있는 편. 평양냉면 좋아하는 사람들은 계속 생각나서 찾아오게 될거라 확신함. 100% 순면도 맛있는데 런치타임이 아니면 먹기 힘듦}{347: 별표 4개 -1년 전-비냉보다 물냉입니다. 만두 녹두전도 괜찮습니다.}{346: 별표 2개 -1년 전-점점 디그레이드되는 평양냉면 맛과 서비스}{345: 별표 1개 -2년 전-서비스 최악. 1. 일하는 사람은 많지만 뭔가 정돈 안 된 느낌.2. 앉았을 때 물 or 육수를 안 줘서 달라고 했지만 나올 때까지 안 줬음3. 숟가락을 안 주길래 냉면 나올 때 달라고 요청했더니 벨 누르고 다시 요청하라고 함.4. 벨을 2번 누를 때까지도 종업원이 안 와서 지나가는 종업원을 불러서 겨우 숟가락을 받음5. 숟가락 없이 그릇째 마셔야만 물냉면 육수 본연의 맛을 알 수 있는건가 싶음교회 앞이어서 사람이…}{344: 별표 4개 -11달 전-냉면과 돼지고기 수육 맛집 개인적으로는 광명 정인몀옥이 냉면과 녹두전이 더 맛있음}{343: 별표 2개 -2년 전-국물 간이 강함 면이 여름 이어서 그런지 맛도 향도 없음 국물과 어울리지도 국물 맛만보면 괜찮은데 평양냉면 같지 않음 면도 탄력 있는데 그게 좋지는 않음 기다리는건 번호표에 방송으로 알려줘서 좋음 면이 겨울에 맛있어 져도 취향 아닐듯 보통가지는 평양냉면 이라기엔 간이 강함}{342: 별표 5개 -1년 전-많이 기다린 만큼 맛도 좋습니다}{341: 별표 4개 -1년 전-육수맛 굿굿 다만 순면을 시켰는데 메밀맛이 강하지 않음...}{340: 별표 4개 -1달 전-먹을만함}{339: 별표 4개 -1년 전-평양냉면의 교과서같은곳. 자극적이지도 싱겁지도 않은 그느낌}{338: 별표 5개 -1년 전-물냉면 국물이 끝내줘요}{337: 별표 5개 -1년 전-평양냉면 맛있어요! 비빔 말고 평양냉면을 드세요}{336: 별표 4개 -8달 전-평양냉면 좋아}{335: 별표 4개 -1년 전-무난하게 먹을 수 있는 평양냉면. 초보자들도 잘 먹을듯.}{334: 별표 4개 -2년 전-확장 이전한 후 사이즈를 제대로 감당하지 못하고 있는 것 같다. 서비스에 구멍이 많은 편... 냉면은 훌륭.}{333: 별표 4개 -10달 전-잘먹었습니다~}{332: 별표 5개 -2년 전-고난이도 평냉. 거의 무미(無味)에 가까울 정도로 담백한 육수. 몇번 먹다보면 진짜 맛있다. 수육은 별로:)}{331: 별표 4개 -2년 전-미슐랭가이드에 소개된 평양냉면 맛집.평양냉면 기준 상대적으로 저렴한 가격 9000원에 판매.녹두지짐과 만두도 맛있다}{330: 별표 2개 -1년 전-냉면 시키자마자 20초만에 나옴...그리고 6시 이후에 가니 평양냉면 빼고는아무것도 안됌 근데 앉기전에 말안해주네요...참고하세요}{329: 별표 2개 -1년 전-평양냉면 좋아하는 사람만...}{328: 별표 3개 -2년 전-냉면을 먹고 싶어서 가까운 냉면집을 검색해서 찾아갔다.처음 들어섰을 때 밝은 분위기는 좋았다.바빠서인지 냉면을 시키고 많은 시간을 기다려야했다.(옆 테이블에서 주문하기 시작해서 다 먹을 때까지 우리 냉면은 나오질 않았다)드디어 비빔냉면과 물냉면이 하나씩 나왔다.비빔냉면은 그런대로 맛이 좋았는데 물냉면은 듬듬한 맛이라고나 할까?그냥 면이 구수해서 그런대로 먹었다.2만원을 주고 나오는데 좀 아까왔다.}{327: 별표 3개 -1년 전-광명에 있을때 맛이 그리워 지는...그래도 요즘 맣이 많이 안정화(?)되는것 같음그래도 냉면에 나오는 육수와 추가 육수의 맛차이가 난다는건 쫌!...}{326: 별표 4개 -1년 전-깔끔하긴 한데 특색있는 맛은 아님. 여의도에서 평냉을 먹고싶으면 갈만하지만 굳이 찾아가서 먹을 정도는 아닌듯}{325: 별표 5개 -1년 전-좋은 재료로 좋은 맛을 내는 냉면집}{324: 별표 2개 -11달 전-평양냉면은 첨이라 맛은 평가하기 그렇지만....서비스는 별로;;;}{323: 별표 4개 -1년 전-평양냉면 최보자에게 좋은 곳. 냉면보다 만두맛집인듯}{322: 별표 4개 -2년 전-슴슴한 평양냉면은 평양냉면집 중에서도 매 담백한 편이다</t>
-  </si>
-  <si>
-    <t>{965: 별표 5개 -1년 전-}{964: 별표 3개 -3년 전-}{963: 별표 4개 -2년 전-}{962: 별표 5개 -2년 전-}{961: 별표 4개 -2년 전-}{960: 별표 4개 -1년 전-}{959: 별표 4개 -1년 전-}{958: 별표 5개 -3주 전-}{957: 별표 4개 -1년 전-}{956: 별표 3개 -2년 전-}{955: 별표 5개 -11달 전-}{954: 별표 5개 -2년 전-}{953: 별표 4개 -1년 전-}{952: 별표 4개 -2년 전-}{951: 별표 5개 -1년 전-}{950: 별표 5개 -10달 전-}{949: 별표 4개 -10달 전-}{948: 별표 5개 -1년 전-}{947: 별표 4개 -7달 전-}{946: 별표 5개 -1년 전-}{945: 별표 4개 -1년 전-}{944: 별표 3개 -2년 전-}{943: 별표 5개 -1달 전-}{942: 별표 5개 -9달 전-}{941: 별표 5개 -1년 전-}{940: 별표 5개 -8달 전-}{939: 별표 4개 -2년 전-}{938: 별표 5개 -1년 전-}{937: 별표 3개 -11달 전-}{936: 별표 4개 -3년 전-}{935: 별표 4개 -1달 전-}{934: 별표 5개 -1년 전-}{933: 별표 5개 -6달 전-}{932: 별표 4개 -1년 전-}{931: 별표 5개 -2년 전-}{930: 별표 3개 -1주 전-}{929: 별표 5개 -3달 전-}{928: 별표 2개 -2년 전-}{927: 별표 5개 -2년 전-}{926: 별표 4개 -8달 전-}{925: 별표 5개 -4년 전-}{924: 별표 4개 -3년 전-}{923: 별표 5개 -1년 전-}{922: 별표 5개 -6달 전-}{921: 별표 3개 -9달 전-}{920: 별표 5개 -1년 전-}{919: 별표 4개 -1년 전-}{918: 별표 5개 -2년 전-}{917: 별표 4개 -3년 전-}{916: 별표 5개 -8달 전-}{915: 별표 5개 -1년 전-}{914: 별표 5개 -1년 전-}{913: 별표 5개 -1년 전-}{912: 별표 3개 -2년 전-}{911: 별표 4개 -1년 전-}{910: 별표 5개 -8달 전-}{909: 별표 4개 -8달 전-}{908: 별표 4개 -2주 전-}{907: 별표 4개 -2년 전-}{906: 별표 2개 -8달 전-}{905: 별표 5개 -2년 전-}{904: 별표 5개 -1년 전-}{903: 별표 5개 -1달 전-}{902: 별표 5개 -1년 전-}{901: 별표 4개 -1년 전-}{900: 별표 4개 -6달 전-}{899: 별표 5개 -1년 전-}{898: 별표 2개 -1년 전-}{897: 별표 5개 -2년 전-}{896: 별표 5개 -1년 전-}{895: 별표 4개 -8달 전-}{894: 별표 5개 -1년 전-}{893: 별표 4개 -3년 전-}{892: 별표 3개 -6달 전-}{891: 별표 3개 -1년 전-}{890: 별표 4개 -2달 전-}{889: 별표 5개 -3달 전-}{888: 별표 5개 -2달 전-}{887: 별표 5개 -1년 전-}{886: 별표 5개 -3달 전-}{885: 별표 4개 -1년 전-}{884: 별표 4개 -6달 전-}{883: 별표 5개 -2년 전-}{882: 별표 4개 -2년 전-}{881: 별표 4개 -1년 전-}{880: 별표 5개 -2년 전-}{879: 별표 5개 -1년 전-}{878: 별표 3개 -10달 전-}{877: 별표 5개 -1년 전-}{876: 별표 5개 -8달 전-}{875: 별표 4개 -2년 전-}{874: 별표 4개 -1년 전-}{873: 별표 5개 -3년 전-}{872: 별표 3개 -1년 전-}{871: 별표 5개 -7달 전-}{870: 별표 5개 -1년 전-}{869: 별표 4개 -1년 전-}{868: 별표 5개 -1년 전-}{867: 별표 5개 -7달 전-}{866: 별표 4개 -1년 전-먼저 찾아주셔서 감사합니다. 찾아주시는 고객님들께 만족을 드리고 싶은게 저희 마음인데..만족을 드리지 못해 너무나도 죄송합니다..어떤 부분이 아쉬우셨는지 말씀해주시면 최대한 반영하여 다음번 방문때는 만족드릴 수 있도록 개선하겠습니다. 감사합니다.}{865: 별표 3개 -2달 전-}{864: 별표 4개 -1달 전-}{863: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다. 점심시간에 고객님들이 많이 찾아주셔서 너무나도 감사하지만..한편으론 기다리게 해드려 죄송한 마음도 든답니다 ㅠ..ㅠ..이 부분 저희도 항상 고민하고 있습니다..! 빠른 시일내로 개선할 수 있도록 최선을 다하겠습니다. 감사합니다.}{862: 별표 4개 -2년 전-}{861: 별표 5개 -2년 전-}{860: 별표 4개 -2년 전-}{859: 별표 5개 -2년 전-}{858: 별표 4개 -1년 전-}{857: 별표 4개 -1년 전-}{856: 별표 3개 -1년 전-}{855: 별표 4개 -2년 전-}{854: 별표 5개 -2년 전-}{853: 별표 4개 -2년 전-}{852: 별표 5개 -1주 전-}{851: 별표 5개 -11달 전-}{850: 별표 5개 -2년 전-}{849: 별표 3개 -1일 전-}{848: 별표 5개 -7달 전-}{847: 별표 5개 -3주 전-}{846: 별표 4개 -2년 전-}{845: 별표 3개 -1년 전-}{844: 별표 4개 -1년 전-}{843: 별표 5개 -2년 전-}{842: 별표 5개 -7달 전-}{841: 별표 3개 -1년 전-}{840: 별표 5개 -2년 전-}{839: 별표 4개 -1년 전-}{838: 별표 5개 -1년 전-(Google 번역 제공) 햄버거는 조금 비싸지 만 요이도 최고의 햄버거(원문)Bit expensive for burgers but the best burger in yoido}{837: 별표 5개 -3일 전-(Google 번역 제공) 이 맛있어요!(원문)It's delicious!}{836: 별표 5개 -2년 전-(Google 번역 제공) 맛있는 햄버거와 크래프트 맥주(원문)Delicious burger and craft beer}{835: 별표 4개 -8달 전-(Google 번역 제공) 우수한 품질(원문)Fine quality}{834: 별표 4개 -1년 전-(Google 번역 제공) ybd의 상단(원문)top in ybd}{833: 별표 5개 -1년 전-(Google 번역 제공) 큰(원문)Great}{832: 별표 3개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족해 주셨나요! 고객님만의 세트구성이 있으시다면 추천해주세요! 저도 그 조합으로 도전해 보겠습니다. 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{831: 별표 5개 -6달 전-(Google 번역 제공) 맛있는(원문)yummy}{830: 별표 3개 -6달 전-방문해주셔서 감사합니다. 언제 방문하셔도 한결같은 맛과 분위기로 고객님을 만족 시켜 드릴 수 있도록 노력하는 바스버거가 되겠습니다. 소중한 리뷰와 별점 만점 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{829: 별표 5개 -1년 전-(Google 번역 제공) 꼭 가야합니다.(원문)Must Go Place.}{828: 별표 5개 -1년 전-(Google 번역 제공) 맥주와 함께 햄버거를 먹기 좋은 곳(원문)Good place to have burger with beer}{827: 별표 4개 -8달 전-(Google 번역 제공) 벌레 좋아. 비어 플레이트 불량. 무료 감자 칩 ..(원문)Buger good. Beer plate bad..free potato chip excellent..}{826: 별표 4개 -2년 전-Thank you for your visit! From now on come to me when you think of burgers and beer! I'll be ready. Thank you:)}{825: 별표 4개 -7달 전-(Google 번역 제공) goooooooood 맥주와 함께 좋은 햄버거(원문)nice burger with goooooooood beer}{824: 별표 3개 -2년 전-(Google 번역 제공) 다른 날 나는 내가 전에 가지고 있었던 다른 모든 괴롭히기꾼들에게 탱크를 달아 놓아야 할 귀중한 경험을 할 수 있었다. 어디에? 바로 여기에..썩은 빵은 내가 얼마나 맛있는 Mcdollds인지 생각 나게한다.양상추가 패티에 붙어있어 잼처럼 물 파인애플과 잘 조화를 이룹니다. thak you Bas .. 나는 행복을 가지고 무엇이든 Lott *** Mcd ***를 시도 할 수 있습니다.(원문)…}{823: 별표 5개 -2년 전-저희는 이름 그대로 "바스버거" 버거를 판매하는 곳입니다맛과 퀄리티를 항상 노력하고 개선하여 최고의 퀄리티를 낼 수 있도록 항상 노력하고있습니다오고 가실때 꼭 꼭 찾아주시면 감사하겠습니다!!}{822: 별표 5개 -9달 전-(Google 번역 제공) 그들은 햄버거를 제공합니다(원문)They serve burgers}{821: 별표 4개 -2년 전-(Google 번역 제공) 절대 최고의 버거!(원문)The absolutly best burgers ever!}{820: 별표 4개 -5달 전-(Google 번역 제공) 좋은 햄버거 좋은 곳(원문)Good burger nice place}{819: 별표 4개 -1년 전-Thank you. Come and see us again when you want to have a burger &amp; beer!}{818: 별표 5개 -2년 전-(Google 번역 제공) 맥주 한잔과 함께 햄버거를 즐기기에 좋은 곳입니다.(원문)Good place to enjoy a burger with a glass of beer.}{817: 별표 4개 -1년 전-(Google 번역 제공) 괜찮은 가격의 훌륭한 버거이지만 점심 식사 중 세트를 찾는 것은 처음에는 오지 않는 악몽 일 수 있습니다. 그러나 먼저 봉사하지만 좌석을 비운 파티에 가장 가까이 서있는 사람은 누구든지 될 수 있습니다. 그것은 나에게 이해가되지 않으며 음악 의자를 연주하는 것보다 평일 버거의 다른 곳으로 가면 충분합니다.(원문)Great burgers at a decent price but finding a…}{816: 별표 4개 -2년 전-(Google 번역 제공) 될 수있는 좋은 곳. 그러나 기다리는 사람들이있을 것을 조심하십시오.(원문)Good place to be. But beware there will be people waiting}{815: 별표 4개 -1년 전-Thank you~!}{814: 별표 5개 -3달 전-(Google 번역 제공) 중대한 햄버거는 중간 크기의 햄버거를 주문할 수 없었고 유일한 단점이었습니다.(원문)Great burger couldn't order a medium burger was my only downside.}{813: 별표 3개 -2년 전-Thank you for finding it. We will reflect your opinion and try to improve it. Thank you.}{812: 별표 4개 -1년 전-(Google 번역 제공) 좋다. 그러나 SCM은 개선되어야한다.(원문)Good but SCM has to be improved}{811: 별표 4개 -1년 전-(Google 번역 제공) 아주 좋은 아메리칸 장식. 맥주와 햄버거 선택이 좋습니다.(원문)Very nice american decor. Beer and burger selection is good.}{810: 별표 5개 -10달 전-(Google 번역 제공) 친절한 직원과 고급 버거(원문)Very kind staff and fine quality burgers}{809: 별표 5개 -1년 전-Thank you for your visit! As you said Yeouido and the Houses of Parliament are located in Yeouido! From now on I will do my best to help you become not only a favorite hamburger store in Yeouido but also in Korea. Thank you.}{808: 별표 5개 -2년 전-(Google 번역 제공) 여의도에서 가장 좋아하는 햄버거 장소. 공원 맞은 편에 다른 곳이 있습니다.(원문)favorite burger place in Yeouido by far. there's another one just like it across the park.}{807: 별표 4개 -1년 전-(Google 번역 제공) 멋진 분위기 맛있는 음식 !!!(원문)Nice atmosphere Delicious food!!!}{806: 별표 5개 -1달 전-(Google 번역 제공) 이 곳은 평상시의 점심 시간에 기업가 / 경제인들 덕분에 매우 잘 포장됩니다. 햄버거는 "세트"가있는 값은 &lt;U+0001F4B0&gt;(원문)This place gets very packed during weekday lunch times thanks to businessmen / businesswomen working around. Burgers with "set" are value for the &lt;U+0001F4B0&gt;}{805: 별표 4개 -1년 전-Thank you for visiting.I'm glad you like it.If you visit me again I will make you satisfied.Thank you :)}{804: 별표 5개 -1년 전-(Google 번역 제공) 지역 브랜드에서 잘 만들어진 버거. Shake Shack의 것과 아주 비슷합니다.(원문)A well made burger from a local brand. Quite similar to that of Shake Shack.}{803: 별표 4개 -1년 전-(Google 번역 제공) 그들은 다양한 버거와 맥주 종류 (수돗물과 병)를 제공합니다. 셀프 서비스 레스토랑으로 튀긴 칩을 무료로 제공합니다.(원문)They offer are large variety of burgers and types of of beers (tap and bottle). It is a self-serve restaurant and offer fried chips for free.}{802: 별표 4개 -1년 전-(Google 번역 제공) 서울의 금융 중심지에있는 멋진 버거 조인트.(원문)An awesome burger joint at the financial heart of Seoul.}{801: 별표 5개 -1년 전-바스버거를 이용해주셔서 감사드립니다 !!!!!!! 다음번이용시에도 더욱더 만족을 드릴수있도록 노력하는바스버거가 되겠습니다 ! 별 다섯개 정말 감사드립니다 ~!!!}{800: 별표 3개 -2달 전-(Google 번역 제공) 맛과 맛(원문)Good and taste}{799: 별표 4개 -4주 전-(Google 번역 제공) 사람들이 왜 불평하는지 상상할 수 없습니다. 몇 마일 정도 떨어진 곳에서 가장 좋은 햄버거 중 하나입니다. 나는 더블 베이컨을 먹었습니다. 기대 이상!(원문)Can't imagine why people complain. It's one of the better burger places miles around. I had the double bacon: which was delicious. Beyond expectations!}{798: 별표 3개 -6달 전-Thank you for visiting me first!Thank you very much for your favorable assessment in all areas.Come visit me when you want to enjoy hamburgers with beer in the future.Thank you :)}{797: 별표 3개 -1년 전-(Google 번역 제공) 맛있는 햄버거뿐만 아니라 프라이드 치킨 스페셜 프라이 쐐기 등과 같은 다양한 가벼운 음식을 제공하는 멋진 버거 바 또한 현지 및 세계 각지의 맥주를 다양하게 갖추고 있으며 친절한 직원이 친절합니다. 포장 된 밤을 쉽게 처리 할 수 &lt;U+200B&gt;&lt;U+200B&gt;있습니다!(원문)Nice burger bar with a great assortment of tasty burgers but also other light…}{796: 별표 4개 -5달 전-We apologize for any inconvenience you may have experienced first. I'm working hard for a good atmosphere where the store is small but I can't feel them. I'll try to show you a better version of me. Thank you =]}{795: 별표 5개 -9달 전-(Google 번역 제공) 많은 팬에게 서비스를 제공하기에 너무 작은 공간(원문)Too small space to serve many of fans}{794: 별표 5개 -1년 전-(Google 번역 제공) 맛있지 않아(원문)Not that tasty}{793: 별표 5개 -1년 전-Thank you for finding it. Please visit me again when you think of hamburgers in the future! I will always be ready. I'll see you again. Thank you.}{792: 별표 5개 -1년 전-(Google 번역 제공) 작년에 여러 번 여기 먹었어요. 햄버거는 이국적인 음식이 아닙니다. 그들은 단지 아주 좋은 사람입니다. 아주 좋은 쇠고기. 그들은 맥주 15 ~ 20 회 정도의 벽을 가지고 있습니다. 나는 한 번 한국에 여행을 먹으려 고 노력합니다. 콘래드 (Conrad)와 IFC 몰 건너편.(원문)I've eaten here several times over the last year. Burgers…}{791: 별표 5개 -1년 전-방문해주셔서 감사합니다 ^^ 부드러운 번과 육즙가득한 패티~!!!그리고 무제한으로 즐길수 있는 제임스감(감자칩)~!! 항상 맛있는바스버거가 되겠습니다.고객님의 소중한리뷰와 별점 감사합니다.}{790: 별표 5개 -1년 전-(Google 번역 제공) 무료 칩과 함께 신선한 햄버거(원문)Fresh burger with free chips}{789: 별표 5개 -1년 전-(Google 번역 제공) 마을에서 최고의 햄버거와 맥주 선택. 맥주는 서울의 다른 인기있는 주점보다 비슷하거나 좋습니다.(원문)Best burgers and selection of beers in town. Beers are comparable or better than other popular gastropub establishments in Seoul.}{788: 별표 5개 -1년 전-방문해 주셔서 감사합니다 ^^ 맛있게 드셔서 사진이 없다니 ㅠㅠ 안타깝습니다. 다음 방문시에도눈깜짝 할 사이에 없어질수 있는 맛있는 바스버거가 되겠습니다 ^^ 감사합니다.}{787: 별표 5개 -1년 전-(Google 번역 제공) 버거의 진실.사진이 없어서 사진이 없습니다.(원문)True of Burger.No photo because it has gone.}{786: 별표 4개 -1년 전-Thank you for your delicious meal!Next time you visit us we'll help you have more delicious potato chips and beer!Thank you :)}{785: 별표 4개 -2년 전-(Google 번역 제공) 내가 확신하는 것의 좋은 선택은 한국의 모든 공예 맥주입니다. IPA가 필요합니다. 무제한 리필 사내 칩을 만들었습니까? 아주 좋아.(원문)Nice selection of what I'm pretty sure is all Korean craft beer.  The IPA is on point.  Unlimited refill in-house made chips?  Very nice.}{784: 별표 3개 -10달 전-방문해주셔서 감사합니다. 더블베이컨치즈버거를 드셨던 것 중에 가장 맛있는 버거라고 극찬해주셔서 감사합니다! 직원들이 꼽은 베스트 메뉴중 하나인데요! 역시 드실줄 아시는 고객님 ㅇ_ㅇ 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요. 감사합니다. :D}{783: 별표 5개 -9달 전-(Google 번역 제공) 내가 맛본 최고의 베이컨 치즈 버거 중 하나.(원문)One of the best bacon cheese burgers I've ever tasted.}{782: 별표 4개 -2년 전-(Google 번역 제공) 매우 신선하고 육즙이 많은 햄버거에 엄선 된 공예 맥주를 제공합니다.햄버거는 다소 작지만 다른면을 사용할 수 있습니다. 합리적으로 가격이 책정되므로 큰 부분이 필요할 경우 다른 것을 가질 수 있습니다.작지만 좋은 분위기. 점심 시간에는 매우 바쁘지만 12시 30 분 이후에는 훨씬 나아집니다. 저녁 시간도 바쁠 수 있습니다.환기가 오래되었거나 인기가 계속 유지되어야합니다. (그 이유 중 하나 적은…}{781: 별표 4개 -9달 전-여의도 바스버거를 방문해주셔서 감사합니다저희 매장은 기본 감자튀김과  제임스감 탄산음료가 무료로 무한 제공 해드리고있습니다필요하실때 언제든지 요청해주시면 됩니다 ㅎㅎ다음번에도 많은 방문 부탁드리겠습니다 감사합니다}{780: 별표 3개 -1달 전-(Google 번역 제공) 바스 버거Chip + Burger + Fries&lt;U+0001F44F&gt;&lt;U+0001F3FB&gt;(원문)Bas BurgerChip+Burger+Fries&lt;U+0001F44F&gt;&lt;U+0001F3FB&gt;}{779: 별표 5개 -3년 전-Thank you for visiting first.I'm really glad you're satisfied with everything!I'll do my best to make sure you to your satisfaction the next time you come.Thank you :)}{778: 별표 4개 -1년 전-(Google 번역 제공) 좋은 장소 좋은 공예 맥주와 음식(원문)Great place good craft beer and food}{777: 별표 4개 -3달 전-방문 해주셔서 감사드립니다!^^ 맛있게 드셔주신 것 같아 저 역시 기분이 좋습니다!! 다음번에는 저희가 처음으로 수줍게 만든 ㅂㄲ라거도 강력 추천드립니다 !! 늘 언제나 소중한식사시간을 맛있게 채워 드릴 수 있는 바스버거가 되겠습니다. 감사합니다.}{776: 별표 4개 -1년 전-(Google 번역 제공) 아늑하고 수박 맥주를 맛보십시오.(원문)nice cosy try watermelon beer really nice taste (sweet)}{775: 별표 4개 -2년 전-방문해주셔서 감사합니다. 버거세트와 버팔로치킨윙을 주문해 주셨군요! 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 패티와 번은 바스버거만의 노하우로 다른곳에선 느낄 수 없는 맛입니다! 감자튀김과 치킨윙은 만족시켜 드리지 못해 속상한 마음입니다. 고객님의 소중한 피드백 감사드리며 고객님의 피드백을 귀기울여 듣고 다음 방문에서는 모든 부분에서 만족을 드릴 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{774: 별표 5개 -1년 전-(Google 번역 제공) 햄버거는 좋은 고기와 롤빵 균형입니다. 꽤 신선한. 감자 튀김은별로 좋지 않습니다. 그들은 건조하고 작습니다. 버팔로 윙은 작지만 고기가 없지만 상당히 맛이 있습니다. 버거를 위해 다시 가고 감자 튀김과 버팔로 윙을 피하십시오.(원문)Burgers are good meat and bun balance.  Pretty fresh. Fries aren't very good.  They are dry…}{773: 별표 3개 -10달 전-먼저 방문해주셔서 감사합니다 ^^ ifc몰 주변에 여러 버거집들이 있지만 최고는 바스버거죠 ~!!항상 최고가 될수 있게 노력하는 바스버거가 되겠습니다. 또한 여러가지 테이블이 있기 때문에여러명이 함께 오셔도 충분한 자리가 있습니다~!!고객님의 소중한 의견과 별점 감사합니다. 좋은하루 되세요~!}{772: 별표 4개 -1년 전-(Google 번역 제공) 신선한 야채 육즙이 많은 고기 및 멋진 햄버거 롤빵은 모든 것이 완벽합니다. IFC 근처에서 햄버거 식당을 찾으면 여기 있습니다. 그들은 맥주 소다 및 밀크 쉐이크도 가지고 있습니다! 긴 테이블은 한 번에 4 명 이상을 지원할 수 있습니다.(원문)fresh vegi juicy meat and nice burger bun all things are perfect. if u find…}{771: 별표 5개 -1년 전-고객님 안녕하세요 바스버거 이용 후 만족스러우셨다니 너무 다행입니다 ! 다음번에 또 찾아주신다면 또 만족스러우실수있도록 항상 기다리고 있겠습니다 ㅎㅎ ! 더노력하는 바스버거가 되겠습니다. 감사합니다 ♡}{770: 별표 4개 -1년 전-(Google 번역 제공) BAS와 브루클린 버거는 서울에서 버거를 먹어야 할 유일한 곳입니다(원문)BAS and brooklyn burger are the only places you should eat burgers in seoul}{769: 별표 5개 -2달 전-먼저 방문해주셔서 감사합니다. 프렌차이즈와 수제버거와는 정말 다른 맛이 있지요 ㅎㅎ수제버거만의 육즙과 바삭한 프렌치프라이~!! 항상 고객님들께 만족을 드리기 위해 최선을 다하는 바스버거 입니다^^ 다음방문시에도 더욱 맛있는 버거로 기다리겠습니다.고객님의 소중한리뷰와 별점 감사합니다 !!}{768: 별표 5개 -2년 전-(Google 번역 제공) 빛이 많지 않아 약간 어둡고 메뉴가 많으며 감자 튀김을 무료로 먹을 수 있습니다. 예상대로 손으로 만든 버거는 패스트 푸드 버거와 달리 매우 바삭하고 계속 먹고 싶습니다.(원문)It’s a little dark there because there’s not much light.And there are many menu and you can eat French fries for free. As expected hand made buger is very crispy unlike fast food burger and I want to keep eating it.}{767: 별표 5개 -1년 전-(Google 번역 제공) 그들이 제공 한 감자 칩으로 오랫동안 기다릴 수 있다면 따뜻한 버거를 먹을 수 있습니다.(원문)If you could wait for a long time with potato chips they provided you can have warm burger.}{766: 별표 4개 -1년 전-Thank you for your delicious meal! From now on I will try to be a hot place not only in Seoul but also in Korea! Thank you :)}{765: 별표 5개 -9달 전-(Google 번역 제공) 취향은 매우 좋았다. 나는 서울에서 가장 좋은 햄버거를 마침내 발견했다.나는 Double Double Burger와 Shake를 위해 이곳을 추천합니다. &lt;U+0001F60D&gt;&lt;U+263A&gt;(원문)The tastes were so good. I finally found the best burger in Seoul lolI recommend here for the Double Double Burger and the Shake. &lt;U+0001F60D&gt;&lt;U+263A&gt;}{764: 별표 2개 -1년 전-안녕하세요 저희 바스버거를 이용해주셔서 감사드립니다 ! 맛있게 드셨다니 너무 다행입니다 !! 홀에서 무료로 제공되는 감자칩은 바스버거만의 큰 장점 인데요  만족 하셨다니 다행입니다 ㅎㅎ  다음번에도 방문 해주셔서 맛있게 드셔주시는 고객님의 모습 기다리고 있겠습니다 :-) 감사합니다 더 발전하는 바스버거가 되겠습니다 ♥}{763: 별표 1개 -1년 전-(Google 번역 제공) 합리적인 가격의 괜찮은 버거. 감자 칩이 무료로 제공됩니다. 저를 처음 방문한 친구는 OK Burger라고 말했습니다. 패티와 소스는 SF의 슈퍼 듀퍼 버거를 생각 나게합니다.전반적으로 나쁘지 않다. 특별한 imo는 없습니다.재미있는 사실 ; Deloitte KR과 KPMG KR에서 각각 2 개의 CPA에 의해 설립되었습니다.(원문)Decent burger with reasonable…}{762: 별표 4개 -1년 전-(Google 번역 제공) 롤빵과 패티의 질감은 정말 부드럽습니다. 기름기가 많고 육즙이 많은 패티는 맛이 좋습니다. 그들은 사이드 메뉴와 맥주를 선택할 수있는 많은 옵션이 있습니다.(원문)Texture of bun and patty is really soft. Quite greasy and juicy patty is flavorful. They have many option to choose for side menu and beers.}{761: 별표 4개 -1년 전-(Google 번역 제공) 그것은 꽤 일관되고 튀김을 좋아합니다-뜨겁고 맛있습니다. 내 동료 중 일부는 감자 튀김을 좋아하지 않으며 이유를 모릅니다.버섯과 하와이 버거는 내가 보통 얻는 것입니다. 다른 버거 중 일부는 나에게 너무 작고 욕심 많은 버거는 너무 많습니다.(원문)It's pretty consistent and i like the fries - they're hot and juciy. Some of my…}{760: 별표 5개 -3년 전-방문해 주셔서 감사합니다 ^^ 저희 바스버거는 촉촉한번과 육즙 가득한 패티로항상 고객님께 최고의버거를 제공합니다. 다음방문시에도 만족하실수 있게 더욱 노력하는바스버거가 되겠습니다. 감사합니다.}{759: 별표 5개 -2년 전-(Google 번역 제공) 내 바보이 햄버거는 사랑 스러웠다! !! 빵은 솜털 같은 구름과 같았습니다. 고기는 주스에 흠뻑 적셔서 고르게 양념했습니다. 크래프트 맥주도 좋았습니다! &lt;U+0001F92A&gt;(원문)My gawd these burgers were lovely!!! Buns were like fluffy clouds. Meat was drenched in their juices and seasoned evenly. Craft beer was good too! &lt;U+0001F92A&gt;}{758: 별표 4개 -9달 전-방문해주셔서 감사합니다 ^^ 쉑쉑보다 저희 빵이 더 맛있다니~^^ 최고의 버거가 되게노력하는 바스버거가 되겠습니다!!! 감사합니다. 다음방문시에도 최고의 맛으로 보답해드리겠습니다. 소중한 리뷰와 별점 감사합니다 ^ㅡ^}{757: 별표 5개 -2년 전-(Google 번역 제공) 훌륭한 맛 합리적인 가격 흔들림 같은 맛 부드러운 맛 빵(원문)Great taste reasonable price for this quality taste like shake shack but with better soft taste buns}{756: 별표 5개 -6달 전-First of all thank you for using our store. I'm also very sorry to have disappointed you with some food. I'm going to show you that I'm working harder to satisfy you with everything. Thank you very much.}{755: 별표 4개 -7달 전-(Google 번역 제공) 나는 수분이 많고 맛좋은 하와이 버거를 먹었습니다. 그러나 그들의 감자 튀김과 날개는 평범했습니다. 햄버거 만 먹으면 갈거야(원문)I had their Hawaiian burger which was juicy and quite tasty. But their fries and wings were mediocre. I would go if only for the burger}{754: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다^^ 쉬림프버거가 맛있다고 해주셔서 감사합니다~!!저희 매장에서 가벼운 맥주와 버거를 즐기실수 있는 분위기를 추구하고 있습니다.다음방문시에는 가벼운 펍의 느낌으로 버거와 맥주는 즐겨보세요~!감사합니다.}{753: 별표 5개 -3년 전-(Google 번역 제공) 나는 새우 버거를 먹었고 꽤 맛있었습니다. 가벼 웠지만 만족했습니다. 내가 그것을 더 높게 읽을 수없는 이유는 그것이 너무 비싸고 그들이 제공 한 무료 선박이 좋지 않다고 생각하기 때문입니다. 너무 어려워요! 전반적으로 분위기가 좋았습니다. 펍 느낌이납니다. 낮에는 더 많은 조명을 선호했을 것입니다.(원문)I had the shrimp burger and it was pretty tasty.…}{752: 별표 5개 -1년 전-방문해주셔서 감사합니다. 바스버거는 고객님의 부담을 덜어드리고자 제임스감자칩프렌치프라이소스탄산음료를 무한리필 해드리고 있고 코울슬로미니를 100원에 판매하고 있답니다. 항상 고객님의 입장에서 만족을 드릴 수 있도록 노력하는 바스버거가 되겠습니다. 감사합니다. 또 방문해주세요! :D}{751: 별표 4개 -5달 전-(Google 번역 제공) 햄버거는 맛이 좋고 음식에 감자 칩이 있고 카운터에서 음식을 사 먹습니다. 떠나면 직원 전원이 다시 돌아올 수 있습니다. (한국어)(원문)Hamburger 好味，有薯片任食，counter 買餐自取，臨走時所有職員同&lt;U+4F60&gt;講可能是歡迎再次光臨？(因韓語)}{750: 별표 4개 -11달 전-맨날 기다림}{749: 별표 4개 -2년 전-수제버거}{748: 별표 5개 -1년 전-꽤 시간이 지났음에도 패티의 온기는 사그러들줄 모름}{747: 별표 5개 -1년 전-햄버거 싸고 맛있어요}{746: 별표 4개 -1년 전-가성비 good!!}{745: 별표 5개 -3년 전-맛좋은 햄버거}{744: 별표 5개 -1년 전-맛있습니다}{743: 별표 3개 -2년 전-맛있음. 단가는 비쌈}{742: 별표 4개 -2주 전-줄 서 먹습니다.}{741: 별표 4개 -1년 전-자극적이지 자극적이지 않은 맛이 최고의 맛}{740: 별표 5개 -11달 전-너무 맛있어용^^}{739: 별표 4개 -1년 전-최고의 버거집}{738: 별표 5개 -2년 전-맛있음}{737: 별표 5개 -1년 전-맛있음}{736: 별표 5개 -1년 전-맛있는데 빨리 좀 만들자}{735: 별표 4개 -7달 전-맛있게 드셔주셔서 감사합니다 :) 앞으로도 항상 맛있는 버거로 찾아뵙겠습니다! }{734: 별표 5개 -7달 전-맛있습니다~~}{733: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 맛있는 버거로 찾아뵙겠습니다 :) 감사합니다.}{732: 별표 4개 -5달 전-맛있어요}{731: 별표 3개 -3년 전-버거 맥주가 맛있습니다}{730: 별표 4개 -2년 전-8 ㅣ}{729: 별표 5개 -1달 전-맛있음}{728: 별표 4개 -6달 전-진짜맛있음}{727: 별표 5개 -1년 전-계란후라이}{726: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 고객님께 만족드릴 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{725: 별표 4개 -2년 전-버거도맛있고 맥주도맛있습니다}{724: 별표 4개 -1년 전-안녕하세요~! 찾아주셔서 감사합니다 :)~ 고객님이 저희 바스버거를 사랑해주시니 너무나 기쁘고 뿌듯하네요~! 많은 사랑 받는 만큼 보다 푸짐하게! 건강하게! 사랑스럽게! 맛있는 버거 만들도록 최선을 다하겠습니다~! 감사합니다.}{723: 별표 5개 -3년 전-바스버거 넘 좋아요~!!^^}{722: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다!앞으로도 자주 찾아오실 수 있도록 최선을 다하는 바스버거 되겠습니다.감사합니다 :)}{721: 별표 4개 -1년 전-괜찮은 버거집}{720: 별표 2개 -1년 전-맛있게 드셔주셔서 감사합니다!앞으로도 고객님들께 항상 만족 드릴 수 있는 바스버거가 되겠습니다~감사합니다 :)}{719: 별표 3개 -2달 전-맛있어요}{718: 별표 4개 -2주 전-맛있게 드셔주셔서 감사합니다 :) 앞으로도 맛있는 버거로 보답하겠습니다. 감사합니다.}{717: 별표 4개 -2년 전-맛나요}{716: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다!다음에 찾아주실 때도 만족감 드릴 수 있도록 최선을 다하겠습니다.감사합니다 :)}{715: 별표 5개 -2년 전-여의도에서는 여기만한데 없음}{714: 별표 5개 -9달 전-맛있게 드셔주셔서 감사합니다! 앞으로도 맛있는 버거로 찾아뵙겠습니다 :)~ 다음에 또 뵈요~!}{713: 별표 5개 -2달 전-버거 맛있어요^^}{712: 별표 5개 -2년 전-먼저 방문해주셔서 감사합니다!!엄청 맛있는 버거하고 뒤에 하트 세개까지 !! 앞으로도 고객님들께 사랑을 담아 더욱 만족드릴 수 있도록 하겠습니다♡♡♡♡감사합니다 :)}{711: 별표 4개 -2년 전-엄청 맛있는 버거♡♡♡}{710: 별표 4개 -10달 전-찾아주셔서 감사합니다! 맛 햄버거 하면 바스버거가 딱 떠오르네요! 앞으로도 맛 햄버거 하면 생각나는 맛있는 바스버거 준비하고 있겠습니다! 감사합니다 :)}{709: 별표 4개 -11달 전-맛 햄버거}{708: 별표 4개 -7달 전-좋습니다.}{707: 별표 5개 -2년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 고객님께 보다 맛잇는 버거 대접할 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{706: 별표 4개 -1년 전-맛있다 !!!!}{705: 별표 4개 -1달 전-찾아주셔서 감사합니다! 앞으로는 쉑쉑버거보다 맛있는 버거가 아닌 세계에서 제일 맛있는 버거로 거듭날 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{704: 별표 5개 -2년 전-쉑쉑보다 맛남}{703: 별표 4개 -5달 전-맛있게 드셔주셔서 감사합니다!다음번에 방문하실 때에도 맛있는 햄버거 드실 수 있도록 노력하겠습니다!감사합니다 :)}{702: 별표 5개 -10달 전-맛나게먹었어욥}{701: 별표 5개 -5달 전-맛있어요}{700: 별표 4개 -1년 전-맛있어요~}{699: 별표 3개 -9달 전-시끄럽고 번잡하다}{698: 별표 4개 -2년 전-먼저 방문해주셔서 감사드리며 소중한 시간 내주시어 방문해주셨는데 실망을 드린 것 같아 정말 죄송합니다.어떤 부분에서 실망하셨는지 구체적으로 남겨주시면 해당파트 재교육 하여 개선될 수 있도록 노력하겠습니다.다음에 방문해주신다면 고객님께 만족드려 별점만점 받을 수 있도록 하겠습니다.다시한번 정말 죄송합니다.}{697: 별표 5개 -2년 전-별루}{696: 별표 5개 -3년 전-먼저 방문해주셔서 감사합니다!다음에 방문해주실 때는 고객님께서 더욱 만족하실 수 있도록 노력하는 바스버거가 되겠습니다!찾아주셔서 감사합니다 :)}{695: 별표 4개 -1년 전-낫뱃..........}{694: 별표 4개 -2년 전-감사합니다 고객님!! 맛있는 한끼를 행복하게 드셔서 저희도 행복합니다 ^^}{693: 별표 5개 -9달 전-맛있어요}{692: 별표 4개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{691: 별표 5개 -10달 전-대존맛}{690: 별표 5개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{689: 별표 3개 -1년 전-맛있어요 ♡♡}{688: 별표 5개 -10달 전-맛나요}{687: 별표 5개 -2년 전-나이스 감자칩}{686: 별표 4개 -2년 전-여의도 수제버거의 희망!}{685: 별표 4개 -2년 전-맛있음}{684: 별표 4개 -1년 전-맛있음}{683: 별표 4개 -11달 전-방문해주셔서 감사합니다. 역삼 클라이밍랩님! 역삼점과 여의도점 모두 방문해 주셨나요 ㅇ_ㅇ 혹시 여의도점만 방문해 주셨다면 역삼점도 있으니 참고 부탁드리며 소중한 리뷰와 별점 만점 모두 감사드립니다. 다음에 또 방문해주세요! 감사합니다.  :D}{682: 별표 5개 -2년 전-흥해라 바스버거}{681: 별표 3개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족해 주셨나요! 고객님만의 세트조합이 있으시다면 추천해주세요. 저도 그 조합으로 도전해 보겠습니다! 소중한 리뷰와 별점 만점 감사드리며 언제나 이번처럼 만족을 드릴 수 있는 바스버거가 되도록 노력하겠습니다. 감사합니다. :D}{680: 별표 4개 -5달 전-맛있음.}{679: 별표 5개 -2년 전-방문해주셔서 감사합니다. 언제나 한결같은 맛과 분위기 서비스로 고객님께 감동을 드릴 수 있는 바스버거가 되도록 노력하겠으며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{678: 별표 4개 -1년 전-맛있음}{677: 별표 5개 -1년 전-좋은 평가 감사드립니다!!^^ 다음번에는 제일 괜춘한 곳에서 제일 맛있어서 또 방문하고 싶다는 평을 받을 수 있도록 더욱 노력하겠습니다 ^^ 고객님들의 평가는 저희에게 힘이 됩니다.}{676: 별표 4개 -1년 전-괜춘}{675: 별표 5개 -1년 전-먼저 저희 바스버거를 이용해주셔서 감사드립니다 :D 더욱 더 맛있는 버거를 위해 노력하는 모습 보여드리겠습니다! 좋은 별점과 리뷰 감사드립니다 ^__^}{674: 별표 3개 -8달 전-맛있음}{673: 별표 4개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴를 주문해주시고 만족해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요. 저도 고객님의 세트구성으로 도전해보도록 하겠습니다. ㅇ_ㅇ 소중한 리뷰와 별점 만점 감사드리며 항상 발전하는 바스버가 되겠습니다. 감사합니다. ♥}{672: 별표 5개 -7달 전-맛있어요}{671: 별표 5개 -8달 전-방문해주셔서 감사합니다. 바스버거는 주요 오피스지역에 많이 입점되어 있습니다. 고객님들 직장 근처 가까운 곳에 바스버거가 있을 수 있으니 검색 부탁 드리며 어느 매장을 가도 같은 맛과 분위기로 고객님들에게 만족을 드릴 수 있도록 하겠습니다. 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{670: 별표 4개 -1년 전-여의도오면 한번 먹어봐야함}{669: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다!소중한 시간 내주시어 방문해주셨을텐데 만족하신 것 같아 정말 뿌듯합니다 '0'다음에 방문해주실때도 고객님께 맛있는 한끼 드릴 수 있도록 노력하겠습니다~감사합니다 :)}{668: 별표 3개 -11달 전-햄버거중 최고!}{667: 별표 4개 -2년 전-방문해주셔서 감사합니다. 바스버거에서 판매중인 쉐이크는 전문점 못지 않은 수준의 쉐이크를 제공해드리고 있습니다. 알아봐주셔서 감사드리며 현재에 만족하지 않고 더욱 발전하고 고객님께 만족을 드리는 바스버거가 되도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{666: 별표 4개 -2년 전-쉐이크제이엠티}{665: 별표 4개 -2년 전-찾아주셔서 감사합니다. 조금 아쉬운 부분이 있으시군요 ㅠ.ㅠ..다음번엔 고객님이 만족하실 수 있도록 준비하고 있겠습니다. 감사합니다.}{664: 별표 4개 -1년 전-좋음 한번쯤은}{663: 별표 4개 -11달 전-커피좋아요}{662: 별표 3개 -1년 전-그냥 그럭저럭}{661: 별표 4개 -2년 전-방문해주셔서 감사합니다 ^^ 다음방문시에도 맛있는 바스버거로 대접하겠습니다. 항상최고의 재료들로 매일준비하는 바스버거 입니다 ^^ 다음에도 최고  로 맛있는 바스버거로 대접하겠습니다.감사합니다.}{660: 별표 3개 -6달 전-굳}{659: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다! 더블베이컨 버거가 입맛에 맞으셨다니 너무나도 기쁘네요! 앞으로도 고객님의 입맛을 사로잡을 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{658: 별표 5개 -2년 전-더블베이커 진짜맛남}{657: 별표 5개 -11달 전-바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{656: 별표 4개 -1년 전-감자 무한!}{655: 별표 4개 -1달 전-찾아주셔서 감사합니다! 햄버거와 맥주의 조합b 신선하고 최고의 조합이죠?! 앞으로도 항상 고객님이 만족하실 수 있도록 준비하고 있겠습니다 :) 감사합니다.}{654: 별표 1개 -1년 전-햄버거랑 맥주랑 맛있어요}{653: 별표 4개 -2년 전-퇴근하고 맥주한잔에 햄버거+감튀... 진리임다...가끔 포장해서 한강에서 먹곤해욤.. 크..}{652: 별표 4개 -11달 전-방문해주셔서 감사합니다 ^^ 맛있다니~ 너무너무 언제나 들어도 참 좋은말 같습니다. 고객님의 칭찬에 힘입어 더욱더 열심히 맛있는 바스버거가 되겠습니다.고객님의 소중한 리뷰와 별점 감사합니다 ^^}{651: 별표 5개 -7달 전-너무 맛있어요!!!}{650: 별표 5개 -8달 전-겁나 비쌈~~}{649: 별표 5개 -5달 전-만족스러운 식사하신 것 같아 더 기분이 좋네요~! 앞으로도 최고의 맛! 최고의 서비스로 대접하겠습니다 :)~ 감사합니다.}{648: 별표 4개 -1년 전-맛도  서비스도 좋으네요}{647: 별표 2개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{646: 별표 5개 -1년 전-맛있당}{645: 별표 3개 -1년 전-여의도 버거의 왕입니다}{644: 별표 3개 -6달 전-역시 수제버거! 수제맥주! 하면 바스버거쥬~! 앞으로도 맛있는 버거로 보답하겠습니다. 감사합니다 :)}{643: 별표 4개 -2년 전-수제버거 수제맥주}{642: 별표 4개 -1년 전-hakrok lee고객님 여의도 바스버거를 방문해주셔서 정말 감사드립니다.맛있다하신 칭찬의 말씀 깊게 새겨 듣고 더욱 발전하는 바스버거 여의도점 되겠습니다!!오늘도 좋은 하루 되세요~}{641: 별표 5개 -1년 전-맛있음}{640: 별표 5개 -1년 전-찾아주셔서 감사합니다. 대기시간이 길어..아쉬우셨군요 ㅠ.ㅠ...점심시간에 많은 고객님들이 찾아주셔서 항상 감사한 마음을 가지고 있습니다만..한편으론 기다림으로 인해 아쉬움을 드려 죄송한 마음이 드네요 ㅠ..ㅠ..이 부분 개선할 방안 열심히 찾고 있습니다! 빠른시일내로 개선될 수 있도록 노력하겠습니다. 감사합니다 .}{639: 별표 3개 -2년 전-대기시간이 넘 길어요}{638: 별표 5개 -2년 전-맛있게 드셔주셔서 감사합니다!더블바스버거에 계란후라이 추가는 어떠세요?고소함이 더해져 훨씬 풍부한 맛을 느끼실 수 있습니다 '0'다음에 찾아주실 때도 만족감 드릴 수 있도록 최선을 다하겠습니다!감사합니다 :)}{637: 별표 4개 -2년 전-신선한 재료.}{636: 별표 5개 -9달 전-맛있게 드셔주셔서 감사합니다! 하와이안 버거는 바스버거 다음으로 인기가 짱짱b많은 버거랍니다! 앞으로도 고객님께 맛있는 버거 대접할 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{635: 별표 4개 -9달 전-하와이안버거 맛있어요~~}{634: 별표 5개 -2년 전-즉석에서 만든 신선한 느낌}{633: 별표 4개 -4주 전-햄버거 맛나네요}{632: 별표 4개 -5달 전-방문해주셔서 감사합니다. 청진동IPA 맥주를 주문해 주셨군요! 바스버거에서 가장 많이 판매되는 맥주중 하나인데요. 묵직하고 씁쓸한 맛으로 고객님들의 사랑을 듬뿍 받고 있는 맥주이죠. 알아봐주셔서 감사드리며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{631: 별표 3개 -1년 전-청진동IPA 맛있음^^}{630: 별표 5개 -6달 전-찾아주셔서 감사합니다. 어수선했던 부분이 아쉬우셨군요..다음번엔 좀 더 여유로운 분위기를 즐기실 수 있도록 준비하고 있겠습니다. 감사합니다:)}{629: 별표 3개 -1년 전-서빙하시는 분들이 약간 어수선 합니다.}{628: 별표 5개 -3년 전-먼저 방문해주셔서 감사합니다!날씨가 많이 추워졌는데 기다림을 감수하고 찾아주셔서 정말 더욱 감사한 마음이 듭니다..ㅠㅠ 고객님들께서 사랑해주시는 만큼 더욱 맛있는 햄버거로 보답드리겠습니다. 감사합니다!! :)}{627: 별표 4개 -1년 전-맛있죠....줄이 길 뿐}{626: 별표 5개 -2년 전-방문해 주셔서 감사합니다 ^^ 고객님의 응원에 힘입어 더더욱 발전하는 바스버거가 되겠습니다 ^^다음방문시에도 최선을 다해 고객님을 맞이하겠습니다 감사합니다.}{625: 별표 5개 -1년 전-맛있어용~~}{624: 별표 4개 -9달 전-먼저 방문해주셔서 감사합니다!맛있게 드셔주신것 같아 더욱 기쁘네요 '0'!!다음에 찾아주신다면 조금 더 보완해 별점만점 받을 수 있도록 노력하겠습니다!!감사합니다 :)}{623: 별표 4개 -1년 전-가볍게 즐길만함}{622: 별표 4개 -9달 전-방문해주셔서 감사합니다. 어떤 메뉴를 주문해 주시고 맛있게 드셨나요! 저도 고객님만의 세트조합으로 도전해 보겠습니다. 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{621: 별표 4개 -2년 전-맛있음}{620: 별표 4개 -10달 전-먼저 매장에 방문해주셔서 감사합니다 ^^방문하시고 맛있게 드셨다니 저희도 너무 기분 좋습니다 ^^ 항상 최고의 맛을 내기위해 노력하는바스버거입니다 ~!! 다음방문시에도 더욱 맛있는 바스버거가 될수 있게 노력하고 있겠습니다.추운 날씨에 감기 조심하세요. 감사합니다.리뷰와 별점 감사합니다 ^^}{619: 별표 4개 -2년 전-맛있습니다}{618: 별표 3개 -1년 전-맥주에 버거 좋아요 ㅋ}{617: 별표 4개 -3년 전-방문해주셔서 감사합니다. 치킨버거는 당일 오전 한정수량만 작업하여 판매하고 있습니다. 다행히 품절되기 전에 주문해 주셨군요! 바스버거는 다른버거들에 비해 가장 밸런스가 좋은 버거로 어떤 토핑을 추가해도 잘어울리는 버거랍니다. 알아봐주셔서 감사드리며 다음 방문시에도 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{616: 별표 4개 -1년 전-바스버거와 치킨버거 짱!!}{615: 별표 5개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 만족감을 느껴주셨나요! 고객님만의 세트구성이 있으시다면 추천해주세요. 저도 그 조합으로 도전해 보겠습니다!  소중한 리뷰와 별점 만점 감사드리며 이번 방문처럼 언제나 만족을 드릴 수 있도록 노력하겠습니다. 감사합니다. :D}{614: 별표 5개 -2달 전-맛잇음}{613: 별표 4개 -2년 전-저희 바스버거에 찾아주셔서 감사드리고 맛있다고 해주시니 더더욱 감사할 따름입니다ㅠㅠ 언제나 맛있는 음식 만들도록 노력하겠습니다! 감사합니다!!}{612: 별표 5개 -3년 전-맛있다}{611: 별표 5개 -9달 전-방문해주셔서 감사합니다 ^^ 역시 바스는 존잘맛이지요~항상 최고의 맛으로 기다리겠습니다.}{610: 별표 4개 -2년 전-존잘맛}{609: 별표 4개 -1년 전-방문해주셔서 감사합니다. 쾌적한 매장 환경을 만들고자 점심시간에는 만석이 되었을 경우 웨이팅 제도를 시행 중에 있으며 보통 15분 내외로 주문 가능하십니다! 회전율이 빠른 편이라 걱정하지 않으셔도 된답니다! 언제나 고객님의 만족을 위해 고민하는 바스버거가 되도록 노력하겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{608: 별표 5개 -1년 전-대기시간이 길어요}{607: 별표 3개 -1년 전-맛 있는 집}{606: 별표 4개 -1년 전-방문해주셔서 감사합니다. 바스버거가 자랑스럽게 어필하는 부분들을 말씀해 주셨군요! 어느것 하나 빠지지 않고 모든부분에서 만족을 드릴 수 있도록 항상 개발과 노력을 멈추지 않겠습니다.  소중한 리뷰와 별점만점 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{605: 별표 4개 -3년 전-햄버거쉐이크맥주포테이토칩}{604: 별표 4개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴로 맛나게 드셨나요! 바스버거는 고객님만의 세트조합으로 여러구성을 즐기실 수 있답니다. 맛있게 드셔주셔서 감사드리며 소중한 리뷰 감사드립니다. 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{603: 별표 4개 -1년 전-맛있어요 냠냠}{602: 별표 5개 -1년 전-고객님 마음에 들었다니 감사합니다 !! 앞으로도 더욱 맛있는 버거맛집이 되게 노력하겠습니다!!}{601: 별표 4개 -7달 전-퀄리티 있는 버거맛집:)}{600: 별표 5개 -8달 전-먼저 방문해 주셔서 감사합니다. 항상 맛있는 버거를 만들기 위해 노력하는 바스버거가 되도록 하겠습니다다양한 조합들로 항상 새로운 맛을 느끼실 수 있도록 이 달의 버거조합들도 있도 많은 옵션들이 있으니 다음번에도 많은 방문 부탁드리겠습니다!!!고객님의 소중한 의견과 별점 감사합니다. 오늘하루도 좋은 하루 되세요~!!}{599: 별표 5개 -1년 전-맛집}{598: 별표 5개 -2년 전-찾아주셔서 감사합니다 ㅠ.ㅠ..다른 바스버거 지점에 비해서 조금 아쉬우셨군요..어떤 부분이 아쉬우셨는지 말씀해주시면 개선할 수 있도록 노력하겠습니다. 감사합니다.}{597: 별표 5개 -9달 전-다른 바스버거 체인에 비해서는 그냥그랬음}{596: 별표 4개 -2년 전-여의도에서 그나마 괜찮은 수제버거}{595: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다 :)~ 앞으로도 건강하게 푸짐하게 맛있는 버거 만들어 대접하겠습니다~! 감사합니다.}{594: 별표 4개 -5달 전-맛있는 수제버거}{593: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 바스버거를 자주 이용해주시는 고객님이시군요! 고객님의 꿀팁 감사합니다 b 앞으로도 맛있는 버거로 보답하겠습니다. }{592: 별표 5개 -1년 전-맛있어요 펍 같은 분위기 싫어하면 의사당 앞 바스버거 추천}{591: 별표 5개 -1년 전-방문해 주셔서 감사합니다 ^^ 너무나도 감사한 칭찬 정말 감사합니다 ^^앞으로도 더욱 더 맛있는 바스버거가 되겠습니다. 항상 최고가 될수 있게 노력하는 바스버거가 되겠습니다. 감사합니다 ~!!!}{590: 별표 4개 -1년 전-쉑쉑보다 나음}{589: 별표 4개 -1년 전-합리적인 가격의 훌륭한 수제버거}{588: 별표 5개 -10달 전-맛있게 드셔주셔서 감사합니다! 항상 신선한재료로 맛있는 버거 대접하고 싶은게 저희 마음이랍니다! 앞으로도 고객님께 항상 신선하고 맛있는 버거 대접할 수 있도록 최선을 다하겠습니다. 감사합니다.}{587: 별표 5개 -1년 전-맛있고 신선한 느낌입니다}{586: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다!앞으로도 더욱 더 맛있게 드실 수 있도록 최선을 다하겠습니다!감사합니다 :)}{585: 별표 4개 -1년 전-맛은괜찮아요~}{584: 별표 4개 -1년 전-펍 같은 분위기에 싸고 맛있고 좋아요 ㅎㅎ}{583: 별표 4개 -2년 전-감사합니다^^! 맛있는 버거를 위해 전직원이 함께 노력하고 있습니다. 고객님께도 맛있는 버거로 다가갈 수 있어 기분이 좋습니다 ㅎㅎ 더욱 맛있게 만들도록 항상 노력하는 바스버거가 되겠습니다.}{582: 별표 5개 -7달 전-맛있어요}{581: 별표 4개 -1년 전-안녕하세요 고객님 ! 보통이아닌 최고로 거듭날 수 있도록 노력하겠습니다 ㅜㅜ ! 다음번 이용시엔 최고에요 라는 리뷰를 남기실수 있도록 최선을 다 하는 바스버거가 되겠습니다 !! 정성스런 리뷰와 별점 감사드립니다 ! ^__^}{580: 별표 4개 -7달 전-쏘쏘해요}{579: 별표 4개 -2년 전-감튀 맛집}{578: 별표 5개 -2년 전-맛있네요}{577: 별표 5개 -1년 전-방문해주셔서 감사합니다. 어떤 메뉴를 주문해 주시고 맛있게 드셔주셨나요! 바스버거는 고객님만의 다양한 세트 구성으로 즐기실 수 있는 장점이 있답니다. 항상 고객님의 만족을 위해 노력하는 바스버거가 되도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{576: 별표 5개 -5달 전-맛있어요 ㅎㅎ}{575: 별표 4개 -1년 전-안녕하세요 아리아리냠냠님!! 저희 바스버거 매장에 방문해주셔서 감사합니다 ㅎㅎㅎ별5점을 주셨네요!! 그만큼 맛있게 잘드시고 가셨다고 생각이 듭니다!!앞으로도 무한변신 바스버거가 될 예정이오니다음번에도 많은 방문 부탁드리겠습니다 감사합니다!!}{574: 별표 4개 -7달 전-잡솨보세요}{573: 별표 5개 -2년 전-방문해주셔서 감사합니다. 바스버거는 한국을 넘어 세계에서 인정받는 수제버거가 되도록 노력중이랍니다. 항상 고객님들의 의견을 귀기울여들으며 발전할 수 있도록 하겠습니다. 다음에 또 방문해주세요. 감사합니다. :D}{572: 별표 3개 -1년 전-최고의 수제버거}{571: 별표 5개 -2년 전-찾아주셔서 감사합니다! 맛있는 음식은 0칼로리~!랍니다! 앞으로도 항상 고객님께 맛있는 버거 대접할 수 있도록 최선을 다하겠습니다. 감사합니다.}{570: 별표 5개 -1년 전-살 찌고 싶다면 ㅎㅎㅎ 맛 좋음}{569: 별표 4개 -1년 전-와사비마요-쉬림프 버거의 매력에 빠지셨군요! 톡쏘는 와사비향과 통통한 새우의 조합은 잊을 수 없는 조합이랍니다. 앞으로도 한번 먹으면 잊을 수 없는 맛으로 찾아뵙겠습니다! 감사합니다.}{568: 별표 4개 -7달 전-새우와사비 맛나요 별미임}{567: 별표 4개 -1달 전-분위기 좋음}{566: 별표 4개 -1년 전-어둡고 자리 좁고버거는 so so}{565: 별표 3개 -7달 전-이색 수제버거 전문점}{564: 별표 3개 -6달 전-☆☆☆.5}{563: 별표 5개 -1년 전-찾아주셔서 감사합니다. 아쉬운 방문이셨던 것 같은데 ㅠ.ㅠ..어떤 부분이 아쉬우셨는지 말씀해주시면..개선할 수 있도록 노력하겠습니다. 감사합니다.}{562: 별표 1개 -1년 전-칩 무료인거 빼곤 버거킹이랑 다른게 뭐죠?}{561: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다. 많은 고객님들이 찾아주셔서 항상 감사한 마음도 들지만..기다리게 해드려 죄송한 마음도 든답니다ㅠ.ㅠ..다음번엔 좀 더 만족스러운 식사가 될 수 있도록 노력하겠습니다. 감사합니다.}{560: 별표 5개 -10달 전-맛있으나 웨이팅이 길다}{559: 별표 5개 -2달 전-11시 땡 치면 바로 들어가서 먹고 나올쯤 끊임없이 들어오는 회사원들을 보며 늘 감탄하는 곳맛있고 늘 만족스럽다}{558: 별표 5개 -1년 전-일반 버거 가격으로 느끼는 수제버거의 맛 ^^}{557: 별표 5개 -2년 전-방문해주셔서 감사합니다!맛있는 한끼를 드신 것 같아 더욱 만족스럽고 감사드립니다~!앞으로도 여의도에 오시면 바스버거가 생각날 수 있도록 더욱 최선을 다하겠습니다!!감사합니다 :)}{556: 별표 5개 -2년 전-#여의도 #햄버거홀릭}{555: 별표 4개 -1년 전-바스버거는 패티를 겉은 바삭 속은 촉촉하게 미디움으로 굽고 있답니다~! 육즙 팡팡을 느끼신 것 같아 기분이 좋네요! 앞으로도 촉촉하고 맛있는 버거 제공 할 수 있도록 노력하겠습니다. 감사합니다 :)}{554: 별표 3개 -1년 전-육즙이 많고 풍미가 좋습니다}{553: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다!다음에도 찾아주신다면 더욱 만족감 드릴 수 있도록 노력하겠습니다!!감사합니다 :)}{552: 별표 5개 -2년 전-맛있습니다 좋아요ㅋㅋ 근데좀비싸다는ㅠ}{551: 별표 5개 -11달 전-방문해주셔서 감사합니다 ^^ 탐욕버거를 드셨군요 ㅎㅎ 저희매장의 최고의 버거 ㅎㅎ 탐욕이지요엄청난 양과 맛!! 넘처흐르는 육즙들 다음방문시에도 더욱 맛있는 버거로 기다리고 있겠습니다.방문 감사드리고 소중한리뷰와 별점 고맙습니다~!!}{550: 별표 1개 -1년 전-탐욕버거 진짜 맛있어요}{549: 별표 5개 -1년 전-가성비 정말 좋습니다.}{548: 별표 5개 -1년 전-신선하고 맛있는 수제버거}{547: 별표 3개 -1달 전-햄버거와 크래프트 맥주가 맛있는 집..}{546: 별표 5개 -2년 전-달달한 파인애플과 고소한 패티의 만남! 그 누구도 거부할 수 없는 맛이죠~?! 저 또한 하와이안버거가 최애버거랍니다~! 앞으로도 강!추! 할 수 있는 맛있는 버거 제공할 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{545: 별표 5개 -10달 전-하와이안버거 강추!}{544: 별표 3개 -3달 전-찾아주셔서 감사합니다! 바스버거는 다른 수제버거집과 다르게 고객님들이 한손에 드시기 편하도록 만들고 있습니다만..양이 조금 아쉬우셨군요 ㅠ.ㅠ 다음번엔 계란 후라이 추가해서 드셔보세요~! 담백하고 푸짐하게 즐길 수 있답니다.}{543: 별표 5개 -2년 전-다른 수제버거집에 비해 버거는 작은편이나 사이드디쉬 양이 괜찮고 버거맛도 괜찮음}{542: 별표 5개 -9달 전-찾아주셔서 감사합니다! ㅠ.ㅠ..점심시간은 피크타임이라 앉을 곳이 없어 불편하셨군요 ㅠ.ㅠ..매번 찾아주시는 고객님들께 감사한 마음이 들지만 한편으론 죄송한 마음도 든답니다..이 부분 저희도 계속 개선방안을 찾고있습니다만..최대한 빨리 개선될 수 있도록 노력하겠습니다. 감사합니다.}{541: 별표 4개 -1년 전-버거는 맛나요 점심에 앉을곳이 없는게 흠이에요}{540: 별표 5개 -3년 전-간단히먹을수있는곳}{539: 별표 4개 -1년 전-비슷한 퀄리티의 버거집중 비교적 저렴한 가격에 세트를 맛볼 수 있음.}{538: 별표 4개 -1년 전-맛있어요}{537: 별표 5개 -2년 전-여기 적당히 맛있습니다.}{536: 별표 3개 -1년 전-맛있게 드셔주셔서 감사합니다! 든든하게 드신 것 같아 뿌듯하네요! 앞으로도 푸짐하고 맛있는 버거 제공할 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{535: 별표 4개 -9달 전-맛나고 풍부한 맛이 느껴집니다}{534: 별표 4개 -2년 전-오케이버거와 함께 추천하는 햄버거집}{533: 별표 3개 -5달 전-어두침침한 분위기가 좋다 ㅎ}{532: 별표 5개 -2년 전-수제 햄버거와 크래프트 맥주가 맛있네요}{531: 별표 4개 -2년 전-점심저녁시간 러쉬만 피해서 가면 진짜좋을 것 같아요}{530: 별표 4개 -3년 전-쏘쏘 더이상 설명은 생략합니다}{529: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다. 고객님들이 한손에 드시기 편한 사이즈로 만들고 있다 보니 양이 조금 아쉬우셨군요 ㅠ.ㅠ 다음번엔 계란 후라이 추가해서 드셔보세요~! 고소하고! 단백하고! 푸짐하답니다~! 아주 속이 든든하실 겁니다! :)}{528: 별표 4개 -2년 전-양은 적지만 버거맛은 굿}{527: 별표 1개 -1년 전-고객님의 소중한 의견 감사합니다! 메뉴 보는게 조금 어려우셨군요 ㅠ..ㅠ..이 부분 수렴하여 개선할 수 있도록 노력하겠습니다. 감사합니다 :)}{526: 별표 5개 -2년 전-맛은 있으나 메뉴 보는게 사시1차 수준임.}{525: 별표 4개 -1년 전-미국적인 분위기에 미국 햄버거맛이 제대로나는 수제버거집}{524: 별표 5개 -11달 전-찾아주셔서 감사합니다! 음악부분이 조금 아쉬우셨군요 ㅠ.ㅠ 고객님의 소중한 의견 반영하여 저희도 열심히 고민해보겠습니다~! 감사합니다.}{523: 별표 5개 -6달 전-미국 본토맛 그런데 노래는 좀 잔잔했으면}{522: 별표 5개 -6달 전-맛있게 드셔주셔서 감사합니다! 여의도에서 최고라고 해주시니 너무나 기쁘네요 b 여의도를 넘어 세계 최고가 될 수 있도록 노력하겠습니다! 감사합니다.}{521: 별표 4개 -1년 전-맛나요!! 여의도에선 최고}{520: 별표 5개 -2년 전-다양한 풍미의 맥주 샘플러가 매력적인 곳}{519: 별표 5개 -1년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{518: 별표 4개 -5달 전-수제버거  맛있네요  가격은  좀  비싸요}{517: 별표 5개 -9달 전-안녕하세요 고객님 ~ 이용해주셔서  너무 감사드립니다.다음 이용시에도 만족스럽다는 리뷰를 남기실수 있도록서비스 맛 모두 노력하는 바스버거가 되겠습니다 ! 감사합니다 :-) !}{516: 별표 2개 -5달 전-맛있어용}{515: 별표 5개 -2년 전-트렌디함. 수제버거 거기서 거기}{514: 별표 5개 -3년 전-맛있게 드셔주셔서 감사합니다. 만족을 드린 것 같아 너무나 뿌듯하네요. 앞으로도 가성비 갑b! 푸짐하고 맛있게 준비하여 기다리고 있겠습니다 :) 감사합니다.}{513: 별표 3개 -1년 전-가성비 갑}{512: 별표 5개 -1달 전-찾아주셔서 감사합니다! 다음번엔 맛있음!!! 이라는 말이 나올 수 있도록 최선을 다하겠습니다! 감사합니다. :)}{511: 별표 4개 -1달 전-괜찮음}{510: 별표 5개 -1년 전-현재 여의도 최고 맛집빵의 부드러움 패티의 부드러움에 놀란다.}{509: 별표 4개 -3달 전-사람많아서 일찍가셔야해요}{508: 별표 5개 -7달 전-역심점이 좀더 괜찮기는 하지만 서비스는 좋습니다}{507: 별표 5개 -1년 전-분위기도 괜찮고 맛있습니다. 가격대도 세트메뉴가 만원 이내라 아주 비싼 편은 아닙니다.}{506: 별표 4개 -1년 전-가격도 괜찮고 음식도 깔끔함. 버거와 맥주한잔하기 딱좋은곳}{505: 별표 4개 -1년 전-찾아주셔서 감사합니다! 앞으로도 신선하게! 맛있게! 만들어 대접할 수 있도록 준비하고 있겠습니다 :) 다음에 또 뵙겠습니다. 감사합니다.}{504: 별표 4개 -2년 전-맥주버거 맛있고 늦은밤 2차 가기좋은곳}{503: 별표 5개 -2년 전-햄맥? 땡길때 가는 곳. 전 항상 탐욕버거만 냠냠..ㅎ}{502: 별표 5개 -1년 전-감사합니다 고객님 ^^ 항상 칭찬 들을수 있도록 노력하겠습니다!!}{501: 별표 4개 -3년 전-직원분들이 친절하세요}{500: 별표 5개 -3년 전-부드러운 빵과 육즙이 팡팡 터지는 고기의 조화가 말이 아니죠~? 앞으로도 부드럽게 드실 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{499: 별표 5개 -2년 전-빵과 고기의 부드러운 조화}{48: 별표 5개</t>
+    <t>allreviews2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>오헨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>review_score</t>
+    <t>.</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8: 별표 5개 -1년 전-손님이 넘나리 많지만 바스버거는 사랑이지요~♡}{497: 별표 5개 -1년 전-감자칩이 공짜라 좋아요. 수제 감자칩입니다}{496: 별표 5개 -1년 전-맛있게 드셨으면 고객님은 오늘 0칼로리 드신겁니다~! 앞으로도 좋은 분위기에 맛있는 버거 드실 수 있도록 최선을 다하겠습니다. 감사합니다.}{495: 별표 5개 -1년 전-분위기도 좋고 칼로리 이빠이 정통 햄버거네요}{494: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 포만감의 최고봉은 탐욕버거죠~! 앞으로도 푸짐하고 든든하게 드실 수 있도록 준비하고 있겠습니다 :) 감사합니다.}{493: 별표 4개 -2년 전-Greedy burger 가 그냥 진리. 패티를 4개까지 넣어 먹어보면 아주 포만감과 행복감이 최고라능 ㅎㅎ 수제맥주가 대부분 맛나다는건 안 비밀.}{492: 별표 4개 -2년 전-방문해주셔서 감사합니다. 어떤 메뉴로 주문해 주셨나요! 고객님만의 세트 구성이 있으시다면 추천해주세요! 저도 한번 도전해 보겠습니다 0_0 항상 고객님의 만족을 최우선으로 하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{491: 별표 5개 -1년 전-맛난버거 냠냠}{490: 별표 1개 -3년 전-개인적으로 제일 좋아하는 버거. 쉑쉑보다 입맛에 맞아요. 더블바스버거 머쉬룸버거탐욕버거까지.배달 시작하면서 주방이 많이 분주하네요.}{489: 별표 4개 -7달 전-먼저 방문해주셔서 감사합니다!저녁에는 퇴근 후 고객님들께서 조금이라도 편안하게 드셨으면 하는 마음에서 자리에서 주문을 받고 있답니다!! '0'기본 바스버거를 좋아하신다면 계란후라이를 추가해서 드셔보시는 건 어떠세요?담백한 맛이 일품이랍니다~~다음에도 방문해주신다면 만족 드릴 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{488: 별표 5개 -2년 전-저녁에는 자리에서 주문을 받아요! 기본이 제일 맛있음}{487: 별표 5개 -2년 전-버거가 부드럽고 맛있어요~ 가게 분위기도 좋음!}{486: 별표 5개 -2년 전-버맥 하러 언제 든지 놀러오세요 ~^^ 환영입니다~}{485: 별표 3개 -2년 전-버거도 맥주도 괜찮아요. 버맥?}{484: 별표 4개 -2년 전-가성비 좋은 수제버거}{483: 별표 4개 -2년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 소중한 식사시간을 만족시켜드리기 위해 조리속도나 매장환경에 대해 개선할 부분은 개선할 수 있도록 하겠습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{482: 별표 4개 -2년 전-선불 주문 후 취식까지 오래걸리는 편 치킨버거만 제일 맛있음}{481: 별표 3개 -2년 전-맛있게 드셔주셔서 감사합니다!수제버거의 진수라니..크으..정말 감사합니다 !!!앞으로도 맛있는 수제버거가 생각나실 때 저희 바스버거를 찾아주시면 최선을 다해 보답하도록 하겠습니다. 감사합니다 :)}{480: 별표 4개 -2년 전-수제버거의 진수}{479: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 고객님들이 항상 맛있게 드셔주실 때가 제일 뿌듯하고 행복하답니다! 앞으로도 고객님들께 맛있는 버거 대접할 수 있도록 최선을 다해 노력하겠습니다. 감사합니다.}{478: 별표 5개 -1년 전-수제버거가 맛있는 체인 버거집}{477: 별표 4개 -1년 전-1 맛 비용 괜찮음2 주차 어려움3 점심시간 대기 많음}{476: 별표 4개 -1년 전-버거의 양은 약간 모자라지만 맛은 좋은 편생감자 튀김이 실하고 좋다.}{475: 별표 4개 -2년 전-안녕하세요 영동 님 :) 먼저 저희 바스버거 여의도점을 이용해주셔서 감사합니다! 고객님께 깔끔한 맛을 전달드릴 수 있어 너무 뿌듯하네요 :D 언제나 깔끔하고 담백한 맛있는 바스버거를 위해 노력 또 노력하는 저희 바스버거가 되도록 하겠습니다~ 좋은 리뷰와 별점 너무 감사드립니다 ~~♥}{474: 별표 4개 -2년 전-깔끔한맛}{473: 별표 5개 -5달 전-최근 맛 본 햄버거 중에선 가장 마음에 든다. 확실한 건 쉐이크쉑 보다는 내 입맛에 맞다는 것}{472: 별표 5개 -3년 전-찾아주셔서 감사합니다! 점심시간에 많은 고객님이 찾아주셔서 ㅠ.ㅠ 기쁜 마음도 있지만 한편으로는 죄송한 마음이 든답니다..! 저희도 이 부분 개선할 방안 열심히 찾고 있습니다ㅠ..ㅠ!..최대한 빠른시일내로 개선할 수 있도록 노력하겠습니다. 감사합니다.}{471: 별표 5개 -1년 전-사람이 너무 많아서 늦게가면 기다림}{470: 별표 3개 -6달 전-맛있게 드셔주셔서 감사합니다. 앞으로도 항상 건강하고 신선한 재료로 맛있는 버거 만들어 대접하겠습니다! 감사합니다 :)}{469: 별표 2개 -5달 전-약간 비싸긴 한데 맥도날드 같은데 보다 품질이 좋네여 ㅎ}{468: 별표 4개 -1년 전-안녕하세요~! 만족하신 것 같아 너무나 기쁘네요! 앞으로도 모든 부분에서 만족하실 수 있도록 항상 최선을 다하겠습니다! 감사합니다 :)}{467: 별표 4개 -9달 전-가격맛분위기친절도 다  좋습니다.손님도 꽤 많네요.}{466: 별표 5개 -3년 전-맛 가격 분위기 모두 좋아요}{465: 별표 4개 -7달 전-맛있게 드셔주셔서 감사합니다~! 앞으로는 원탑이 될 수 있도록 최선을 다해 노력하겠습니다~! 감사합니다.}{464: 별표 5개 -1년 전-여의도에서 수제버거 전문점 중 맛있는 세곳 중 하나! 매우 맛있습니다.}{463: 별표 5개 -1년 전-맛은 괜찮습니다 그런데 지하에 어두컴컴한 인테리어가 숨이 막혀요ㅠㅠ  제가 지하식당을 선호하지 않아서 그런가 환한 곳에서 먹으면 더 맛있었겠다라는 생각이네요 코울슬로 맛있습니다}{462: 별표 4개 -4년 전-찾아주셔서 감사합니다. 가격 부분이 조금 아쉬우셨군요 ㅠ..ㅠ 이 부분 고객님의 의견 수렴하여 반영될 수 있도록 노력하겠습니다. 감사합니다.}{461: 별표 4개 -4달 전-기본기 강한 수제 햄버거! 단점은 기본이상의 가격뿐!}{460: 별표 5개 -1년 전-방문해주셔서 감사합니다. 트러플 디핑소스를 추가해서 주문해 주셨군요! 트러플 디핑소스는 바스버거에서만 만나보실 수 있는 특별한 소스로 치킨윙이랑 트러플파마산프라이와 함께 드신다면 더욱 극대화된 맛을 느낄 수 있답니다. 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요. 감사합니다. :D}{459: 별표 5개 -9달 전-여기가면 트러플 소스 꼭 추가하세요!!존맛!}{458: 별표 4개 -1년 전-방문해주셔서 감사합니다 ^^ 맛있는 감튀와 맛있는 버거~!! 항상 맛있게 만들기 위해 노력하는 바스버거가 되겠습니다!!! 좋은리뷰와 평점 감사합니다 ~!!}{457: 별표 5개 -10달 전-튀김감자 맛있셔}{456: 별표 5개 -6달 전-지갑 여유가 된다면 햄맥의 성지라고나 할까?}{455: 별표 4개 -10달 전-어둡고 흥겨운 분위기. 맛은 괜찮음 편인데 조금 양이 작은 편입니다.}{454: 별표 4개 -1년 전-방문해주셔서 감사합니다. 더블베이컨치즈버거를 주문해 주셨군요! 직원들이 꼽은 가장 인기있는 메뉴중 하나인데요! 더블베이컨치즈버거에 계란토핑을 추가해서 드신다면 담백한 맛까지 느끼실 수 있답니다! 꿀팁 참고 부탁드리며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{453: 별표 4개 -2년 전-맛있습니다. 믿고 드세요. 단 더블치즈베이컨은 채소가 없어요. 번 사이에 치즈와 패티 두장 그리고 베이컨입니다. ^^}{452: 별표 3개 -6달 전-감다튀김은 시키지 마세요. 감자칩이 바로 옆에 있습니다}{451: 별표 4개 -3년 전-바스버거 맛있어요:-) 역삼점도 생겨서 종종 가는 곳이에요~ 전 하와이안 버거가 특히 맘에 들었고 치킨윙도 생각보다 괜찮았어용}{450: 별표 4개 -2년 전-방문해주셔서 감사합니다 저희 바스버거는 신선한 재료들과 푸짐한 양과 퀄리티로 고객님께다가가고 있습니다~^^ 고객님들께 항상 최고의 맛을 전해드리고 싶은 마음으로요리를 하며 좋은 음식과 좋은분위기를 목표로 하고 있습니다~!! 방문해주셔서 너무 감사하고고객님의 소중한 리뷰와 별5개 감사드립니다!!}{449: 별표 5개 -10달 전-맛있고 합리적인 가격}{448: 별표 5개 -7달 전-저녁에 한강 자전거 타고나서나 퇴근하고서 친구들과 맥주마시기 좋은 장소입니다}{447: 별표 3개 -5달 전-찾아주셔서 감사합니다 :)~ 성별불문! 나이불문! 바스버거는 모든 고객님들께 사랑받고 있답니다~! 앞으로도 회식장소는 바스버거! 이용해주세요~! 감사합니다 :)}{446: 별표 3개 -10달 전-아재들이 젊은 직원들에게 점심 쏠 때도 좋아요!}{445: 별표 4개 -1년 전-장광남 고객님 방문해 주셔서 감사합니다 ㅠㅠ 더마아아아앗있는 버거 만들도록 노력하겠습니다!!!!}{444: 별표 2개 -3년 전-버거가 너어어어어어어어어무 맛있습니다ㅠㅠ}{443: 별표 5개 -3년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 고객님께 만족드릴 수 있도록 최선을 다하겠습니다 :) 감사합니다.}{442: 별표 5개 -3년 전-맛있음 점심은 11세 40분 전에 가야 앉아 먹을 수 있음}{441: 별표 5개 -3년 전-괜찮은 수제버거집 개인적으로 하와이안 버거를 제일로 칩니다. 저녁에 혼자 맥주한잔 마시고 싶을때 종종 방문할만한 곳입니다.}{440: 별표 4개 -3년 전-버거랑 맥주 둘다 맛있다. 점심저녁시간에는 기다리는 경우가 많음. 실패하지 않는 맛집}{439: 별표 4개 -2년 전-여의도에서 제일 맛있다고 해주시니~! 너무나 기쁘고 뿌듯하네요! 항상 최고의 맛을 선사할 수 있도록 최선을 다하겠습니다. 감사합니다 :)}{438: 별표 5개 -3년 전-여의도에서는 제일 맛있는 햄버거 다른 지점보다 이곳의 버거가 더 맛있습니다.}{437: 별표 4개 -3년 전-상대적으로 저렴한 가격에 수제버거를 먹을 수 있음 기본버거인 바스버거가 가장 가성비가 좋게 느껴짐트러플파마산프라이가 예전보다 향이 약해져서 아쉬움}{436: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다!테이블이 깨끗하지 않아 아쉬우셨군요.. 정말 죄송합니다.이 부분은 해당파트에 전달하여 더욱 신경쓸 수 있도록 하겠으며 앞으로는 이런일이 절대 발생하지 않도록 노력하겠습니다.또한 제임스감이 눅눅하게 느껴지신 부분에 대해서도 조금 더 바삭하게 튀길 수 있도록 해당파트에 전달하겠습니다.다음에 찾아주실때는 만족감드릴 수 있도록 최선을 다하겠습니다.감사합니다. }{435: 별표 5개 -2년 전-테이블 위생은 살짝 아쉽지만 맛은 있습니다. 꽁짜 감자 칩이 부족&amp;눅눅해요 ㅠ}{434: 별표 5개 -2년 전-안녕하세요! 맛있게 드셔주셔서 감사합니다 :) 수제버거 중에서 바스버거는 왕따봉이죠~! 바스버거의 부드러운 빵과 촉촉한 패티는 그 누구도 이길 수 없답니다! 앞으로도 맛있게 드실 수 있도록 최선을 다해 노력하겠습니다 :) 감사합니다.}{433: 별표 5개 -2년 전-수제버거 따봉! 빵이 되게 부드럽고 패티가 엄청 맛있음.돈 안아까움.}{432: 별표 4개 -2년 전-졸맛탱}{431: 별표 5개 -2년 전-매장내 기름냄새 심하고 굉장히 시끄러워요. 맛도 그닥}{430: 별표 4개 -2년 전-오픈한지 꽤 됐는데 맛은 초기랑 비슷해요. 개인적으로 아직까지 상위권이라고 봅니다. 탐욕버거 하나 먹으면 아주 만족스럽습니다.}{429: 별표 4개 -2년 전-맛있게 드셔주셔서 감사합니다!감튀엔 밀쉐죠!!ㅎㅎ 단짠단짠 조합으로 계속 먹을 수 있으니까요!!다음에 방문해주시면 더욱 더 맛있는 음식 대접해 별점만점 받을 수 있도록 노력하겠습니다!감사합니다 :)}{428: 별표 4개 -2년 전-보통으로 맛있습니다 감튀엔밀쉐!!제친구가 욕망버거+맥앤치즈볼+시나몬밀쉐 이렇게 먹으래요 전 다음에도전예정}{427: 별표 4개 -2년 전-UDADA님 먼저 방문해주셔서 감사드리며 추워진 날씨속 기다려 주셔서 한번더 감사드린단 말씀 드리겠습니다. 버거 특성상 다른 음식에 비해 대기시간은 짧아 15분내로 테이블 안내해드리고 있으나 줄이 길어 대기가 어려우신 경우 포장주문으로도 주문 도와드리고 있으니 참고 부탁드리겠습니다! 좋은 평가 감사드리며 소중한 식사시간을 맛있는 음식으로 보답하는 바스버거가 되겠습니다!}{426: 별표 5개 -2년 전-줄이 좀 긴데 맛있습니다.}{425: 별표 4개 -2년 전-찾아주셔서 감사합니다! 다음번에 버거와 맥주가 생각날 때 또 찾아주세요! 준비하고 있겠습니다! 감사합니다 :)}{424: 별표 5개 -2년 전-버거에 수제 맥주! 제가 가장 좋아하는 조합이에요}{423: 별표 4개 -2년 전-에...맛있어요..여의도서 토요일 일요일하는 집은 드물죠. 주말도 장사를 하는집은 잘되는집이죠.^^}{422: 별표 4개 -1년 전-먼저 방문해 주셔서 감사합니다 ~!! 월~일 언제든지 열려 있는 바스버거 입니다!!항상 최고의 맛을 내기 위해 더 노력하는 바스버거가 되겠습니다 감사합니다.고객님의 소중한 피드백과 별점 감사합니다 ~!! 다음에는 별 5개 받게 더욱 노력하겠습니다.}{421: 별표 5개 -2년 전-일요일에 사무실 나올때 점심 먹는 곳}{420: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다! 튀긴새우가 아닌 불향을 머금은 통통한 새우라 참 매력적이죠? 또한 수제맥주도 참 매력적이랍니다! 앞으로도 매력적일 수 있도록 노력하겠습니다! 감사합니다.}{419: 별표 5개 -1년 전-수리프버거 세트 메뉴 먹었는데 맛있습니다. 수제버거이고 디리버리된 수제맥주도 파는 것 같아요.}{418: 별표 5개 -2년 전-방문해주셔서 감사합니다. 이번 방문에서는 아쉬운 부분이 있으셨군요. 어떤 부분이 부족했는지 피드백 주시면 고객님의 말씀을 귀기울여 듣고 개선할 수 있도록 하겠습니다. 저희를 위한 소중한 피드백 감사드리며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{417: 별표 5개 -1년 전-수제버거라는데 별로였습니다.}{416: 별표 4개 -2년 전-수제햄버거와 다양한 맥주를 제공함. 맛있음.}{415: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다!평균이상이라니..정말 뿌듯합니다 '-'다음에 방문해주실때는 5점만점이 될 수 있도록 최선을 다하겠습니다.감사합니다 :)}{414: 별표 5개 -2년 전-평균이상하는 맥주와 함께하는 버맥이 좋은 집}{413: 별표 5개 -1년 전-방문해주셔서 감사합니다. 저희에게 어떤 부분이 부족했는지 번거로우시겠지만 코멘트 남겨주시면 개선하고 발전할 수 있도록 노력하겠습니다. 항상 고객님들의 의견을 소중히 새겨 듣고 더 나은 바스버거를 만들도록 하겠습니다. 감사합니다.}{412: 별표 4개 -1년 전-별로. 이돈이면 국바...  아니 버거킹 콰치와퍼 먹으셈}{411: 별표 5개 -1년 전-김세준님 칭찬 감사드립니다!!칭찬해주신 만큼 더욱 노력하여 언제나 명불허전이 되는 모습 보여드리며다양하고 맛있는 메뉴들 많이 준비되어 있으니다시 찾아 뵜을때는 정말 맛있는 바스버거 여의도점으로 보여드리겠습니다.^^소중한 말씀 감사드리며오늘도 좋은 하루 되세요~~}{410: 별표 4개 -1년 전-명불허전 바스버억}{409: 별표 4개 -1년 전-여의도에서 가성비가 으뜸인 햄버거집. 가볍게 즐기실분은  기본 바스버거 추천. 해비한 스타일을 추구하시면 탐욕버거를 추천합니다.}{408: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다! 육즙 팡팡 터지는게 바스버거의 매력이지 않을까 생각됩니다! 앞으로도 푸짐하게! 든든한 한끼 식사하실 수 있도록 준비하고 있겠습니다. 감사합니다:)}{407: 별표 1개 -1년 전-햄버거를 씹었을때 육즙이 나와 느낌이 좋습니다세트 시켯을시 양도 많은편입니다감자칩과  감자튀김 햄버거인데많아서 조금 남겼습니다수제버거 집답게 조금 가격대는 있습니다}{406: 별표 1개 -1년 전-맛있게 드셔주셔서 감사합니다! 앞으로도 고객님께 만족드릴 수 있도록 최선을 다하겠습니다 :) 다음에 또 뵙겠습니다. 감사합니다.}{405: 별표 5개 -1년 전-점심 가성비 괜찮은곳!기본 버거들이 맛있다.}{404: 별표 4개 -1년 전-안녕하세요 저희 바스버거의 대표메뉴 중 하나 인 이름처럼 탐욕이 흘러 넘치는 탐욕 버거를 맛보시고 만족스럽다니 다행입니다 ! 탐욕버거도 맛있지만 한가지 꿀팁을 말씀 드리자면  다른 버거에 여러 토핑을 추가하면 탐욕버거보다 더 탐욕스럽게 드실수 있습니다 !!이용해주셔서 감사드립니다 더 노력하는바스버거가 되겠습니다 ♡}{403: 별표 5개 -1년 전-탐욕버거 탐욕스럽게 먹음 :))}{402: 별표 4개 -1년 전-방문해주셔서 감사합니다. 바스버거는 한국을 넘어 세계에서 통한다는 신념으로 끊임없이 개발과 노력을 멈추지 않고 있습니다. 고객님들의 성원에 보답하기 위해 더욱더 노력하겠으며 항상 고객님의 만족을 위해서도 노력하겠습니다. 저희를 위한 소중한 피드백 감사드리며 별점 만점과 소중한 리뷰 감사드립니다. 다음에 또 방문해주세요. 감사합니다. :D}{401: 별표 5개 -1년 전-처음은 쉑쉑은 카피버젼 이라 생각했지만 지금은 바스버거는 바스버거 처음 주문한 음식들 기다리며 먹는 감자칩이 맛나다}{400: 별표 5개 -1년 전-이런 맛이!!!}{399: 별표 5개 -1년 전-맛있지요. 자리가 좀 불편한점빼곤 음식은 정말 좋습니다.}{398: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다 ㅠ.ㅠ 만족감을 드리지 못해 많이 아쉽네요.. 다음번엔 꼭! 좀 더 신속하게! 포장해드릴 수 있도록 노력하겠습니다. 감사합니다.}{397: 별표 5개 -1년 전-확실히 가격대비 맛있는 수제 버거집. 포장인데도 25분이나 기다렸음}{396: 별표 5개 -1년 전-방문해주셔서 감사합니다. 이번 방문에서는 만족하지 못하셨나봅니다. 어떠한 부분이 부족했는지 피드백 주신다면 귀기울여 듣고 개선과 발전 할 수 있도록 하겠습니다. 언제나 발전하는 바스버거가 되도록 노력하겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다.}{395: 별표 5개 -1년 전-명성에 비해 아쉬운 집}{394: 별표 5개 -1년 전-맛있게 드셔주셔서 감사합니다!패티와 번 둘다 맛있다고 해주시니 뿌듯하네요 '-' !!앞으로도 실망시켜드리지 않도록 최선을 다하겠습니다~감사합니다 :)}{393: 별표 4개 -9달 전-가성비 최고&lt;U+0001F44D&gt; 패티는 물론 번도 맛있어요.}{392: 별표 4개 -5달 전-찾아주셔서 감사합니다! 다음번엔 배달로 주문해서 드셔보세요! 매장에서 드시는 것처럼 따끈~따끈하게 만들어 전달하도록 하겠습니다 :) 다음번엔 배달로 찾아뵙겠습니다! 감사합니다!}{391: 별표 5개 -1년 전-여의도의 맛있는수제버거집 배달이 가능하니 직장 동료들끼리 시켜먹으면 좋다}{390: 별표 5개 -1년 전-찾아주셔서 감사합니다! 분위기! 맛! 구성! 모두 만족하신 것 같아 기쁘네요! 앞으로도 고객님이 좋은 분위기에서 즐겁게 식사하실 수 있도록 최선을 다하겠습니다 :) 감사합니다!}{389: 별표 5개 -1년 전-분위기및 맛이 좋습니다^^~메뉴구성도 좋구 가격대비 괜찮습니다}{388: 별표 5개 -1년 전-오케이 보다 양은 적은데 맛있는 듯}{387: 별표 4개 -2년 전-찾아주셔서 감사합니다. 점심시간에 많은 고객님들이 찾아주셔셔.. 앉을 자리가 없으셨군요..다음번엔 고객님이 앉을 자리가 생겼을 때 음식을 받을 수 있도록 최선을 다해 노력하겠습니다. 감사합니다.}{386: 별표 5개 -1년 전-점심시간대를 잘 맞춰야한다. 앉을 자리가 없는데 음식이 나오는 상황도 종종 발생함}{385: 별표 3개 -1년 전-주문 처리 미스로 55분 기다렸고 받은 버거의 패티가 다 타있어 취소하고 나왔습니다.이에대한 처리도 미숙하더군요.}{384: 별표 5개 -11달 전-대존맛}{383: 별표 5개 -1년 전-방문해주셔서 감사합니다. 바스버거는 좋은 가성비와 수준높은 퀄리티를 제공해드리려 항상 노력하고 있습니다. 또한 고객님만의 세트 구성으로 다양하게 즐기실 수 있답니다. 항상 고객님의 만족을 최우선으로 생각하는 바스버가가 되도록 노력하겠습니다. 다음에 또 방문해주세요. 감사합니다. :D}{382: 별표 5개 -1년 전-여의도에서 유명한 수제버거집! 가성비 좋은 수제버거!!}{381: 별표 5개 -2년 전-맛있게 드셔주셔서 감사합니다!고객님께 배부른 한끼가 되었으면 좋겠습니다 '0' !다음에도 실망시켜드리지 않도록 최선을 다하겠습니다. 감사합니다 :)}{380: 별표 4개 -1년 전-맛있음}{379: 별표 4개 -8달 전-맛있게 드셔주셔서 감사합니다! 달달한 파인애플과 고소한 패티의 조합은 말.잇.못 이랍니다! 앞으로도 항상 맛있는 버거로 보답하겠습니다! 감사합니다 :)}{378: 별표 1개 -1년 전-수제 햄버거가 정말 맛있는곳 하와이안 버거 정말 맛있어요}{377: 별표 5개 -2년 전-먼저 방문해주셔서 감사합니다 ^^ 버거이지만 항상 신선한 재료들과 최고의 재료들만 사용하여깔끔하고 맛있는 맛을 내는 바스버거 입니다!!  방문해주셔서 정말 감사하고 고객님의 버거 조합을 찾아보는 재미도 있는 바스버거 입니다. ^^ 다음방문시에도 최고의 맛으로대접할수있는 바스버거가 되겠습니다. 감사합니다~!!}{376: 별표 4개 -1년 전-저는 아보카도 새우버거 먹었는데 정말 맛있었습니다~!}{375: 별표 5개 -1년 전-안녕하세요 고객님 바스버거는 역시 대박입니다맛있는 식사 제공해 드린거 같아 기분이 좋습니다 ★항상 옳을 수 있도록 노력하고 발전하는 저희 바스버거 다음번에도 많은 방문 부탁드리겠습니다!!!}{374: 별표 4개 -2년 전-바스는 옳다.}{373: 별표 4개 -3달 전-패티와 맥주가 맛있는집 감튀도 대박}{372: 별표 4개 -1년 전-bibiana Kim님 먼저 방문해주셔서 감사합니다!!맛있게 드셨다니 다행입니다 :D다음번에도 많은 방문과 입소문 부탁드리며항상 더욱 더 발전하는 여의도 바스버거 기대 부탁드리겠습니다감사합니다★}{371: 별표 4개 -1년 전-맛있습니다}{370: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다!앞으로는 가성비도 좋게끔 더욱 더 노력하도록 하겠습니다. 감사합니다 :)}{369: 별표 4개 -3년 전-여의도 버거킹 없어진 이후로 자주 가는 집 가성비는 모르겠지만 맛은 있음}{368: 별표 4개 -1년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있으며 고객님의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필과 코울슬로미니를 백원에 판매하고 있답니다. 혹시 부족한 부분이 있었다면 저희에게 피드백 해주세요! 고객님의 말씀을 귀기울여 듣고 개선할 수 있도록 하겠습니다. 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠으며 다음에 또 방문해주세요. 감사합니다. :D}{367: 별표 5개 -1년 전-작지만 맛은 있는 버거  감자칩은 호불호  갈릴 듯 (포카칩 같음) 특별함 없는 평범한 수제버거 집}{366: 별표 3개 -2년 전-맛있게 드셔주셔서 감사합니다! 게다가 추천까지 b 왕따봉이네요! 앞으로도 가성비갑b 맛있는 버거 대접할 수 있도록 준비하고 있겠습니다! 감사합니다.}{365: 별표 5개 -1년 전-버거가 부드럽고 맛있어요 바스버거 세트에 수제맥주로 바꿔서 먹었는데 12000원 정도 나왔으니 가격대도 근방에 있는 다른 버거집에 비해 적당한 편인 거 같아요. 추천!}{364: 별표 4개 -1년 전-나름 여의도에서 갈만한 맛집이었는데 오픈때보다 패티의 양이 줄어든 것같고 프렌치 프라이가 좀 식어서 나옴...}{363: 별표 4개 -1년 전-방문해주셔서 감사합니다 저희 바스버거는 수제버거중에 고객님들께서 좀 더 편안히 다가오실수 있는 가격을 자랑하고있습니다 뿐만 아니라 맛 또한 자부심을 가지고 있습니다!!다음번에는 별5점을 받을 수 있도록 더욱더 노력하고 발전하는 바스가 되도록 하겠습니다!!!고객님의 소중한 리뷰와 별점 감사합니다!!}{362: 별표 4개 -1년 전-착한가격 놀라운맛}{361: 별표 4개 -7달 전-안녕하세요 효준 님! 먼저 저희 바스버거를 이용해주셔서 감사드립니다 :) 고객님께 좋은 가성비와 좋은 맛으로 다가갈 수 있어 정말 기분 좋습니다 ^ㅇ^ 앞으로도 좋은 모습만 보여드릴 수 있는 바스버거가 되도록 노력하겠습니다! 좋은 별점과 리뷰 감사드립니다 ~~♡}{360: 별표 3개 -3년 전-가성비 굿굿!}{359: 별표 5개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ 여의도에 제일ㅎㅎ 듣기만해도 너무 기분좋은 말인거 같습니다 ^^다음방문시에도 최고의 버거로 기다리고 있겠습니다. 고객님의 소중한 칭찬 과 별점 감사합니다!!오늘 하루도 좋은 하루 되세요~!!}{358: 별표 4개 -1년 전-여의도에서 제일 맛있는 버거집}{357: 별표 5개 -9달 전-빵이 부들부들하고 속도 가득하네요! 먹기도 좋아요}{356: 별표 5개 -10달 전-방문해주셔서 감사합니다. 어떤버거를 드시고 만족해주셨나요! 궁금합니다^^ 항상 수준높은 음식으로 고객님들께 감동을 드릴 수 있는 바스버거가 되도록 항상 노력하겠습니다. 별점 만점과 소중한 리뷰 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{355: 별표 2개 -1년 전-고급진 버거 느낌~ 맛있어요~^^}{354: 별표 4개 -1년 전-가격과 맛 둘다 만족스러운곳! 강남에서 이가격에 수제버거를 먹을 수 있는게 신기했다. 실내가 좀 더운편이며 맥주가 땡긴다. 추천할만한 버거집!}{353: 별표 5개 -1년 전-풍성한 패티. 부드러운 빵. 여의도 수제버거 집 중에 최고~~~}{352: 별표 4개 -1년 전-방문해주셔서 감사합니다. 점심피크 시간에 방문해 주셨군요. 고객님들의 피드백으로 현재는 매장에 방문해주시는 고객님들에게 배달이나 포장으로 인해 주문을 늦게 내어드리는 일이 없도록 하고 있습니다. 항상 이번처럼 저희가 부족한 부분이 보이셨다면 주저말고 말씀해주세요. 고객님들의 의견을 귀기울여 듣고 개선 할 부분은 개선 할 수 있도록 하겠습니다. 다음에 또 방문해주세요. 감사합니다. :D}{351: 별표 5개 -1년 전-가장 핫 한 점심 시간 대기줄 비정상적으로 많아 비추천! 그 이유는 점심시간에 배달 주문을 받음으로 매장 방문 고객은 뒷전인 상황}{350: 별표 5개 -2달 전-푸짐푸짐.  살찌는 맛 호호호. 그래도 난 간돠. 맥주도 한잔 때려줘야 제맛!}{349: 별표 3개 -1년 전-맛도 괜찮고 조용해서 ifc보다 식사하기는 좋은듯. 서비스 감튀도 먹을만했음.}{348: 별표 4개 -3년 전-안녕하세요 김찬님 고객님! 오늘도 바스버거를 이용해주셔서 먼저 감사 말씀 드립니다:)언제나 김찬민 고객님께서 바스버거를 생각날수 있도록 항상 노력하는 바스버거가 되겠습니다 ^^ 다음번에도 만족할수 있는 바스버거가 되어 있겠습니다~ 감사합니다}{347: 별표 4개 -2년 전-또생각나는맛!!}{346: 별표 5개 -2년 전-먼저 방문해주셔서 감사합니다^^ 이런 어마어마한 칭찬을 ㅎㅎ 고객님의 말씀처럼백종원쌤이 오셔도 칭찬받는 앞으로 더욱 발전하는 바스버거가 되겠습니다 ^^.오셔서 맛있게 드셔주셔서 정말 감사합니다~!! 다음방문시에도 최고의 바스버거로 기다리고 있겠습니다.고객님의 소중한 리뷰와 별점 감사합니다.}{345: 별표 5개 -11달 전-백종원쌤이 오시면 칭찬할 만한 집}{344: 별표 5개 -3년 전-방문해주셔서 감사합니다. 언제 어느 지점을 방문하셔도 같은 맛과 같은 감동을 드릴 수 있는 바스버거가 노력 하겠으며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{343: 별표 5개 -1년 전-^^맛나요}{342: 별표 4개 -1년 전-합리적인 가격과 신선한 재료}{341: 별표 5개 -3년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료 무한리필을 시행중에 있으며 코울슬로미니를 백원에 판매하고 있습니다. 항상 쾌적하고 오고싶은 매장을 만들기 위해 노력하겠으며 부족한 부분이 있으시다면 말씀해주세요! 항상 고객님들의 의견을 귀기울여 듣는 바스버거가 되겠습니다. 감사합니다. :D}{340: 별표 5개 -8달 전-국회의사당점보다 손님이 많은 듯. 감자칩은 셀프.}{339: 별표 3개 -6달 전-먼저 방문해주셔서 감사합니다 ^^ 환상적인 맛이라니~ 듣기만해도 너무 기분좋은 말인거 같습니다 ^^다음방문시에도 최고의 버거로 기다리고 있겠습니다.고객님의 소중한 칭찬 과 별점 감사합니다!!오늘 하루도 좋은 하루 되세요~!!}{338: 별표 5개 -1년 전-Good~~바스버거는 환상적인 맛이네요~~~}{337: 별표 5개 -1년 전-방문해주셔서 감사합니다. 친구분들과 함께 자주 방문해 주시는군요! 어떤 메뉴를 주로 드시는지 궁금합니다! 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 언제 오셔도 한결같은 맛으로 고객님들에게 감동을 드릴 수 있도록 하겠습니다. 친구분들의 소개에서 또 다른친구분들의 소개로 이어질 수 있도록 노력하겠습니다. 감사합니다. :D}{336: 별표 4개 -1년 전-친구들이 좋아해서 자주감  부드럽고  심플 담백한편}{335: 별표 5개 -5달 전-가장 기본 바스버거도 &lt;U+0001F60B&gt;좋고 머쉬룸 버거도 건강한 맛. 여의도 버거 중 제일 맛있음.}{334: 별표 5개 -1년 전-방문해주셔서 감사합니다. 바스버거는 당일 오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 고객님의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필과 코울슬로 미니를 백원에 판매하고 있답니다! 항상 고객님의 만족을 위해 노력하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{333: 별표 4개 -1년 전-맛자체도 좋고 가격도 굿입니다.}{332: 별표 5개 -2년 전-방문해주셔서 감사합니다. 점심시간에 방문해 주셨군요! 고객님의 식사시간에 쾌적한 환경을 만들어 드리고자 좌석이 만석일 경우 웨이팅 제도를 운영중에 있어 좀 더 여유있고 쾌적한 환경에서 점심을 즐기 실 수 있습니다. 항상 이번 방문처럼 만족을 드릴 수 있도록 항상 노력하는 바스버거가 되겠으며 다음에 또 방문해주세요. 감사합니다. :D}{331: 별표 4개 -3년 전-점심에는 일찍 나오세요. 금방 자리 다 차니까}{330: 별표 2개 -1년 전-방문해 주셔서 감사합니다 ^^ 저희 바스버거는 겉바속촉 의 느낌으로 촉촉하지만 맛있는 버거를 추구하고 있습니다 ^^ 방문해서 맛있게 드셨다니 저희도 기분이 너무 좋습니다 ^^ 항상 최고의 맛을 전해드리고 싶은 마음으로요리를 하며 좋은 음식과 좋은분위기를 목표로 하고 있습니다~!! 방문해주셔서 너무 감사하고고객님의 소중한 리뷰와 별5개 감사드립니다!!}{329: 별표 5개 -2년 전-촉촉하고 너무 맛있었어요!!}{328: 별표 4개 -8달 전-방문해주셔서 감사합니다. 진정한 미국식수제버거를 느끼셨군요!! 한국을 넘어 미국에서도 통하는 버거를 만들기 위해 끊임없이 노력하고 있습니다. 소중한 리뷰와 별점만점 감사드리며 언제나 다음 방문에서도 감동을 드릴 수 있도록 하겠습니다.감사합니다. :D}{327: 별표 1개 -2년 전-미국에서 먹던 햄버거임...강추}{326: 별표 4개 -2년 전-먼저 방문해주셔서 감사합니다. 고객님께서 방문해주셨는데 아쉬움을 드려 정말 죄송합니다.항상 최고의 맛을 내기 위해 하루하루 열심히 하고 있지만 아쉬움을 드린점 직원들과 공유하고 좀 맛있는 버거를 만들수 있게 노력하겠습니다. 고객님의 소중한 피드백 겸허히 받아들이고다음방문시에는 별5개 맛있는 맛집이 될수있게 노력하겠습니다 감사합니다.}{325: 별표 5개 -3년 전-그렇게 대단한 맛집은 아님}{324: 별표 4개 -2년 전-적당한 가격에 수제버거를!}{323: 별표 4개 -1년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료 무한리필을 시행중에 있으며 코울슬로미니를 백원에 판매하고 있습니다. 항상 쾌적하고 오고싶은 매장을 만들기 위해 노력하겠으며 부족한 부분이 있으시다면 말씀해주세요! 항상 고객님들의 의견을 귀기울여 듣는 바스버거가 되겠습니다. 감사합니다. :D}{322: 별표 5개 -2년 전-맛은 소소 가격은 조금 높고 사람은 매우 많음}{321: 별표 4개 -1년 전-방문해주셔서 감사합니다 저희 바스버거는 신선한 재료들과 푸짐한 양과 퀄리티로 고객님께다가가고 있습니다~^^ 고객님들께 항상 최고의 맛을 전해드리고 싶은 마음으로 요리를 하며 좋은 음식과 좋은분위기를 목표로 하고 있습니다~!! 방문해주셔서 너무 감사하고고객님의 소중한 리뷰와 별5개 감사드립니다!!}{320: 별표 5개 -10달 전-패티 푸짐하고 맛있어요.}{319: 별표 4개 -3년 전-맛있으나 점심시간엔 대기가 많네요. 저녁때는 맥주도 괜찮다네요}{318: 별표 5개 -2년 전-버거도 맛있지만수제맥주도 상당히 맛있음}{317: 별표 3개 -2년 전-안녕하세요 이름 처럼 비주얼도 맛도 GREEDY한 탐욕버거 !! 맛있게 드셔주셨다니 다행입니다 ^-^ 맛있으면 0칼로리 ~ 아시죠? ㅎㅎ다음 번 방문시에도 만족 드릴수있도록 노력하는 바스버거가 되겠습니다 감사합니다 !!! ^-^}{316: 별표 5개 -2년 전-탐욕버거가 엄청 맛있습니다.}{315: 별표 5개 -2년 전-Haesung Jung님 칭찬 감사드립니다!!칭찬해주신 만큼 더욱 노력하여 발전해 나아가는 모습 보여드리며다양하고 맛있는 메뉴들 많이 준비되어 있으니 다시 찾아 뵜을때는 정말 맛있는 바스버거 여의도점으로 보여드리겠습니다.^^소중한 말씀 감사드리며 오늘도 좋은 하루 되세요~~}{314: 별표 4개 -1년 전-빅맥보다 조금 맛남}{313: 별표 4개 -1년 전-가격대는 있으나 햄버거와 수제맥주가 어울림}{312: 별표 5개 -3년 전-먼저 방문해 주셔서 감사합니다 ^^ 기본에 충실하지만 뭐가 아쉬운점이 있으셨나봅니다....ㅠㅠ고객님의 소중한 의견 겸허히 받아드려 다음에는 별5개를 받을 수 있게 노력하는 바스버거가 되겠습니다. 감사합니다.}{311: 별표 4개 -1년 전-기본에 충실한 평범한 수제버거집}{310: 별표 5개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ 여러가지버거들도 맛있지만 특히나 치킨버거는 매일 정해진 수량만 만들어지다 보니 늦게오시면 종종 솔드아웃일때도 있는 치킨버거~~ 맛있게 드셨다니 저희도 너무 기분이 좋습니다 ^^ 다음방문시에는 별5개를 받을수 있게 더욱 발전하는 바스버거가 되겠습니다. 감사합니다.}{309: 별표 5개 -2년 전-감자칩 무한으로 먹을 수있고 치킨버거가 다른 수제버거집에 비해 맛있고 먹기 편했습니다~!}{308: 별표 5개 -3년 전-와우 최고라고 칭찬해주셔서 정말 감사합니다 !! 앞으로도 항상 최고가 될수 있게 노력하겠습니다. 직장동료분들과 언제든지 드시러 오세요^^}{307: 별표 4개 -2년 전-한국에서 최고의 수제햄버거중 하나라고 생각합니다. 주변 친구들이나 직장동료들에게도 꼭 가보라고 추천하는 곳입니다}{306: 별표 5개 -3년 전-방문해주셔서 감사합니다! 더욱 더  맛있는 버거를 만들어 버거를 먹기위해 여의도를 방문하고 싶도록 만들겠습니다! 별4점 리뷰 감사드립니다.}{305: 별표 4개 -1년 전-여의도이서 먹어볼만한 버거집}{304: 별표 3개 -1년 전-방문해 주셔서 감사합니다 ^^ 다음방문시에는 감튀가 아니라 버거로 만족할수 있도록 더욱 노력하겠습니다 ^^ }{303: 별표 4개 -2년 전-맛있음버거는 최고라고까지는 말은 못해도 상급감자튀김? 무한 리필에 맛있음}{302: 별표 4개 -1년 전-방문해주셔서 감사합니다. 우연히 방문해 주셨는데 맛집을 찾으셨군요! 바스버거는 모든 메뉴를 직접 매장에서 손질하고 조리해서 제공해드리고 있습니다. 좋은 가격으로 최고의 음식을 제공해드리려 노력하는 바스버거가 되겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{301: 별표 4개 -3년 전-우연히 가게된 맛있는 햄버거점칠리치즈 감자프라이도 좋아요}{300: 별표 5개 -2년 전-방문해주셔서 감사합니다 ^^ 부드러운 번과 육즙가득한 패티~!!!맛있다는 칭찬~ 언제들어도 좋은 말 같습니다 ^^ 감사하고 더욱발전 하는 바스버거가 되겠습니다. 감사합니다.고객님의 소중한리뷰와 별점 감사합니다.}{299: 별표 5개 -2년 전-번이 부드럽고 상당히 맛있어요!}{298: 별표 4개 -2년 전-방문해주셔서 감사합니다. 언제나 고객님 입장에서 생각하여 쾌적한 환경에서 부담없이 드실 수 있도록 개선하고 발전하도록 하겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{297: 별표 4개 -1년 전-맛 좋음 사람많음 웨이팅 많음가격비쌈}{296: 별표 4개 -6달 전-먼저 방문해주셔서 감사합니다!점점 맛있어진다니.. 고객님의 말씀에 힘이 솟아나는것 같네요 '0' !!다음에 방문해주신다면 더욱 만족드려 별점만점 받을 수 있도록 노력하겠습니다~감사합니다 :)}{295: 별표 4개 -2년 전-점점 맛있어지는 수제버거. 버거킹의 가격에 추가로 몇천원만 더 지불하면 근사한 수제버거를 세트로 즐길수 있다. 공짜로 제공하는 감자칩도 맛남.}{294: 별표 5개 -2년 전-박정수님 먼저 주문해주셔서 감사합니다!!조금 느끼 하셨나요?고객님의 입맛과 취향을 좀 더 신경쓰며다시 방문해주실때는 고객님을 만족시킬수 있도록노력하는 바스버거 여의도점 되겠습니다!!!오늘도 좋은 하루 되세요^^}{293: 별표 3개 -2년 전-조금느낌했음.}{292: 별표 5개 -3년 전-먼저 방문해주셔서 감사합니다 ^^ 가장좋아하신다닌 저희도 너무 좋습니다 ^^ 가장좋아하는 버거집으로 영원히 될수 있게 항상 노력하는 바스버거가 되겠습니다 좋은 리뷰와 평점 감사합니다 ~!! 좋은하루 되세요~}{291: 별표 4개 -1년 전-가장 좋아하는 햄버거집}{290: 별표 4개 -1년 전-안녕하세요 고객님 하와이안 버거를 맛있게 드셔주셨다니 다행입니다.하와이안 버거는 연속으로 이달의 버거에 선정되고있는 아주 인기 많은 버거입니다 !하와이안 이외에도 다른 맛난 버거들이 많으니 다른버거도 다음에 이용 해보시길 추천드립니다^^다음에도 만족 하실수있도록 더 노력하는바스버거가 되겠습니다 감사합니다 !!!!!!!!!}{289: 별표 5개 -3년 전-하와이안버거 강추}{288: 별표 5개 -2년 전-방문해주셔서 감사합니다 저희 바스버거는 수제버거중에 고객님들께서 좀 더 편안히 다가오실수 있는 분위기를 자랑하고있습니다 뿐만 아니라 맛 또한 자부심을 가지고 있고 맥주 또한 맛있습니다.!!다음번에는 별5점을 받을 수 있도록 더욱더 노력하고 발전하는 바스가 되도록 하겠습니다!!!고객님의 소중한 리뷰와 별점 감사합니다!!}{287: 별표 4개 -1년 전-맛있어요 저녁에 맥주 가볍게한잔하기도 좋습니다}{286: 별표 4개 -2년 전-김도일님 먼저 주문해주셔서 감사드립니다.이렇게 저희 바스버거 사랑해주시고 칭찬해주셔서항상 감사하는 마음 가지며재방문시에도 고객님께서 만족해주실수 있도록맛있는 메뉴와 다양한 버거들로 준비하겠습니다.오늘도 좋은 하루 되세요~~}{285: 별표 5개 -1년 전-맛잇음}{284: 별표 5개 -2년 전-먼저 소중한 시간 내주시어 방문 해주셨는데 불편을 드려 정말 죄송합니다..고객님께서 남겨주신 리뷰는 경각심을 가지고 매장에 근무하는 직원들과 공유하도록 하겠습니다. 다음번에 방문해주실 때는 부족했던 부분을 개선해 만점받을 수 있도록 노력하겠습니다.다시한번 불편을 드려 정말 죄송합니다.}{283: 별표 4개 -1년 전-작년에 맛있게먹은것같은데.. 주인이 바뀌었나요?진짜 돈아깝네요. 재료가 없으면 문을닫던가 하나를 만들어도 제대로 만들어서 팔던가...다 기름이 쩔어있거나 새끼맣거나...다신 안올듯하네요.}{282: 별표 3개 -2년 전-방문해주셔서 감사합니다. 바스버거는 당일오전 배송되는 신선한 식재료들로 조리해드리고 있습니다. 더불어 고객님들의 부담을 덜어드리고자 프렌치프라이제임스감자칩탄산음료를 무한리필 시행중에 있으며 코울슬로미니를 백원에 판매 하고 있습니다. 소중한 식사시간을 만족시켜드리기 위해 조리속도나 매장환경에 대해 개선할 부분은 개선할 수 있도록 하겠습니다. 항상 고객님의 의견을 귀기울여 듣고 발전하는 바스버거가 될 수 있도록 노력하겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{281: 별표 4개 -2년 전-여의도 인근 인기 수제버거. 음식 나오는 속도가 좀 느립니다. 가격도 좀 하구요. 맛은 괜찮습니다.}{280: 별표 4개 -2년 전-핫한 장소점심때가면 주문만  30분 걸림맛도 좋음}{279: 별표 4개 -1년 전-찾아주셔서 감사합니다! 바스버거는 고객님이 한손에 드시기 편한 사이즈로 만들고 있어 다소 아쉬움이 있으셨던 것 같습니다! 다음번엔 고객님께 별만점 받을 수 있도록 발전한 모습으로 찾아뵙겠습니다! 감사합니다 :)}{278: 별표 5개 -3년 전-외국의 펍같은 느낌의 버거집입니다. 버거가 크지는 않지만 고기의 육즙이 느껴지고 전반적으로 분위기도 버거의 맛도 좋습니다!}{277: 별표 4개 -1년 전-안녕하세요 저희 바스버거를 찾아와 주셨는데 주문이 어려운점에 대해서 불편함이 있으셨군요 ㅠ_ㅠ!! 처음 오셨다면 복잡할수도 있지만 저희가 고객님들이 여러가지를 드실수 있도록 선택의 폭을 다양하게 준비하다보니 그렇게 느끼신거같습니다 ! 다음부터는 방문 하셔서 저희 바스버거 직원에게 질문 해 주시면  친절한 설명으로 보답하겠습니다 !  이용해주셔서 너무 감사드립니다 :) ♡}{276: 별표 5개 -2년 전-주문이 복잡하지만 맛있음초코첵스 쉐이크 존맛감튀도 맛있고 버거도 맛있음}{275: 별표 5개 -1년 전-방문해주셔서 감사합니다 ^^ 부드러운 번과 육즙가득한 패티~!!!맛있다는 칭찬~ 언제들어도 좋은 말 같습니다 ^^ 감사하고 더욱발전 하는 바스버거가 되겠습니다. 감사합니다.고객님의 소중한리뷰와 별점 감사합니다.}{274: 별표 4개 -1년 전-깔끔하고 맛있고 신선먹어볼만함}{273: 별표 4개 -1년 전-방문해 주셔서 감사합니다 ^^ 좋은 분위기에 맥주 한잔 하기 좋은 분위기를 만들기 위해 노력하는바스버거 입니다 ^ㅡ^ 여의도의 최고가 되도록 더욱 열심히 하는 바스버거가 되겠습니다 감사합니다.}{272: 별표 4개 -1년 전-좋은 분위기 여의도치곤 적당한 가격}{271: 별표 4개 -2년 전-방문 해주셔서 감사드립니다!^^ 맛있게 드셔주신 것 같아 저 역시 기분이 좋습니다!! 다음번에는 저희가 처음으로 수줍게 만든 ㅂㄲ라거도 강력 추천드립니다 !! 늘 언제나 소중한식사시간을 맛있게 채워 드릴 수 있는 바스버거가 되겠습니다. 감사합니다.}{270: 별표 4개 -1년 전-수제버거 진리의 맛집 모든 매뉴에 실패는 없음}{269: 별표 4개 -2년 전-방문해주셔서 감사합니다. 바스버거에서 판매중인 프라이는 매장에서 하나하나 손질하여 정성스럽게 조리해 제공해드리고 있습니다. 저희의 정성이 조금이나마 전달된것 같아 다행이고 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{268: 별표 5개 -7달 전-사이드메뉴 다 먹어보시죠 다 추천}{267: 별표 4개 -3년 전-방문해주셔서 감사합니다. 바스버거는 당일 오전 배송되는 신선한 재료들로 조리해드리고 있고수준높은 음식을 제공해드리려 노력하고 있습니다. 전 매장 동일한 레시피로 어느 매장을 가시던 한결같은 맛을 느끼실 수 있게 노력하는 바스버거가 되겠습니다. 저희를 위한 소중한 피드백 감사드리며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{266: 별표 4개 -1년 전-바스버거 지점중 여의도점이 맛있는 편에 속하는 같다}{265: 별표 5개 -2년 전-방문해주셔서 감사합니다. 바스버거는 한국을 넘어 세계에서도 통한다는 신념으로 더욱 노력하고 발전하고 있습니다. 고객님들의 성원에 보답할 수 있도록 성장하도록 하겠습니다. 다음에 또 방문해주시고 다음 방문시에는 별점 만점 받을 수 있도록 하겠습니다. 감사합니다. :D}{264: 별표 4개 -2년 전-국내 버거 중에서는 그마나 제일 괜찮은 집......}{263: 별표 5개 -1년 전-방문해주셔서 감사합니다 ^^ 버거가 맛있다니~!!!! 너무 듣기좋은 칭찬입니다~!!매장에서 바로 즐기실수 있는 제임스감(칩)이나 레귤러프라이즈도 리필 가능하고요~제임스감과 즐기는 맥주는 정말 하루의 피로를 날려주는 맛 입니다 ㅎㅎ다음방문시에도 최고의 맛으로 대접하겠습니다 감사합니다.고객님의 소중한 리뷰와 별점 감사합니다.!!}{262: 별표 4개 -2년 전-버거가 맛있네요. 감자칩은 리필되고요}{261: 별표 3개 -1년 전-방문해주셔서 감사합니다. 고객님에게 감자칩이 많이 짜게 느껴지셨군요! 여러 의견을 수렴하여 더 나은 감자칩을 제공해드릴 수 있도록 노력하겠습니다. 언제나 고객님께 감동을 드릴 수 있도록 발전하겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{260: 별표 5개 -1년 전-인기많은 수제버거집. 감자칩은 많이 짜요.}{259: 별표 5개 -1년 전-방문해주셔서 감사합니다 ^^  항상 최고의 버거맛을 내기 위해 항상 노력하는 바스버거 입니다.  버거번부터 패티까지 항상 최우선으로 생각하는 재료들입니다 ^^ 더불어 신선한 야채들까지 ㅎㅎ 다음방문시에도 맛있는 바스버거로 대접하겠습니다! 감사합니다.}{258: 별표 5개 -8달 전-버거 번부터 패티까지 완벽하네요 !}{257: 별표 4개 -1년 전-좋은 평가 감사드립니다!!^^ 다음번에는 제일 괜춘한 곳에서 제일 맛있어서 또 방문하고 싶다는 평을 받을 수 있도록 더욱 노력하겠습니다 ^^ 고객님들의 평가는 저희에게  힘이 됩니다.}{256: 별표 3개 -2년 전-여의도 버거집들 중 가성비 맛 총점이서 제일 괜춘}{255: 별표 5개 -1년 전-살짝 늦은 점심시간에 가면 붐비지도 않고 잠시 업무중에 쉬다가는 느낌 잔뜩 받을수 있어요. 분위기도 좋고. 하와이안버거 개인적으로 강추}{254: 별표 3개 -1년 전-안녕하세요! 점심시간에 기다리는 부분이 아쉬우셨군요 ㅠ.ㅠ..고객님의 소중한 의견 감사합니다! 저희도 항상 이 부분 때문에 고민이랍니다! 빠른 시일내로 해결방안 찾아 개선할 수 있도록 노력하겠습니다. 다음번엔 별만점 받을 수 있도록 발전한 모습으로 찾아뵙겠습니다! 감사합니다.}{253: 별표 4개 -1년 전-여의도 한가운데 대낮에 스웩 넘치는 버거가게가 있네요.. 지하로 들어가니 다른세상에 온것 같습니다. 사람이 꽉차있고 어두운 와중에 버거 굽는 냄새가 폴폴.. 한낮에 맥주를 마셔도 전혀 이상하지 않을법한 곳아네요.. 더블치즈베이컨인가 먹었는데 작아보이더니 간신히 다 먹었습니다. 빵이 정말 부드럽고 쫄깃하고 고기나 치즈는 티피컬 수제버거입니다. 무료로 제공되는 감자칩이 정말 바삭하고 맛있는데 너무 많이 먹으면 배불러서 햄버거 다…}{252: 별표 5개 -10달 전-음악선곡 조명등 분위기 굿. 점심때 대기자가 다소 많지만 기다릴 가치가 있음. 칼로리 신경 끄고 먹을 것. 탐욕버거? 쉐이크 굿!!좋아하는 브루클린버거 급!}{251: 별표 4개 -2년 전-Minjung Jung님 먼저 방문해주셔서 감사합니다!!맛있게 드셨다니 저희도 기분이 좋습니다*~*항상 발전하고 노력하는 바스버거 여의도점 믿고 다음번에도 많은 방문 부탁드리겠습니다!!마지막으로 고객님의 소중한 리뷰와 별5점 감사합니다★}{250: 별표 4개 -2년 전-맛있어요~^^}{249: 별표 5개 -9달 전-방문해주셔서 감사합니다. 바스버거는 다양한 버거와 수제맥주 라인업으로 고객님만의 세트구성으로 즐기실 수 있는 장점이 있답니다. 일상에 지친 현대인들에게 잠시나마 일탈의 느낌을 제공해드리고자 노력하고 있습니다. 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠으며 다음에 또 방문해주세요. 감사합니다. :D}{248: 별표 5개 -1년 전-맛있는 수제버거와 맥주를 즐길수 있습니다.}{247: 별표 4개 -2년 전-방문해주셔서 감사합니다 저희 바스버거는 수제버거중에 고객님들께서 좀 더 편안히 다가오실수 있는 분위기를 자랑하고있습니다 뿐만 아니라 맛 또한 자부심을 가지고 있고 맥주 또한 맛있습니다.!!다음번에는 별5점을 받을 수 있도록 더욱더 노력하고 발전하는 바스가 되도록 하겠습니다!!!고객님의 소중한 리뷰와 별점 감사합니다!!}{246: 별표 5개 -3년 전-맥주 한잔이랑 가볍게 즐길수 있는 곳이에요.}{245: 별표 5개 -2년 전-이국적 펍 분위기가 좋다 그래서 시끄럽기도 하지만 버거는 일품}{244: 별표 4개 -1년 전-안녕하세요 태윤 님! 먼저 저희 바스버거를 이용해주셔서 감사합니다! 고객님의 재방문 의사를 보며 만족을 느끼신 거 같아 너무 기쁩니다 ^__^ 항상 오고 또 오고 싶게 만드는 매력을 유지할 수 있도록 노력하겠습니다! 버거의 느끼함을 잡아주기 위해 함께 곁들여먹기 좋은 메뉴인 코울슬로인데 많이 느끼하셨나요 :( .. 직원들끼리 시식 후 다시 한 번 피드백을 나누면서 느끼한 맛을 잡을 수 있도록 개선하겠습니다. 나중 방문 시 코울슬로 이용 후 느끼함이 그대로라면 저희에게 다시 한 번 말씀 부탁드릴게요 ㅠ ㅠ 좋은 별점과 리뷰 감사드리며 다가오는 설 연휴 잘 보내시길 바랍니다! 감사합니다~~♥}{243: 별표 4개 -1년 전-또가고 싶네요. 코울슬로는 좀느끼해서 별루}{242: 별표 5개 -2년 전-먼저 방문해주셔서 감사합니다 ^^ 여의도에 제일ㅎㅎ 듣기만해도 너무 기분좋은 말인거 같습니다 ^^다음방문시에도 최고의 버거로 기다리고 있겠습니다.고객님의 소중한 칭찬 과 별점 감사합니다!!오늘 하루도 좋은 하루 되세요~!!}{241: 별표 5개 -3년 전-맛난 수제버거와 좋은 분위기의 수제버거집}{240: 별표 1개 -1년 전-방문해주셔서 감사합니다 고객님들께서 소중한 시간 내주어 방문해주셔서 저희도 편안한 식사되실수있도록 서비스청결 맛 퀄리티를 항상 노력하고있습니다!!다음번에도 재방문하고싶은 매장이 될 수 있도록 노력하고 발전하는 모습 보여드리겠습니다다시한번 고객님의 소중한 피드백 감사드립니다!!}{239: 별표 5개 -2년 전-깨끗한 매장 직원이 친절함 음식이 맛있음}{238: 별표 4개 -1년 전-먼저 방문해주셔서 감사합니다 ^^ 어느 지점이든 맛있게 통일될수 있게 여러 메뉴얼을 통해항상 교육받고 교육하고 있습니다. 앞으로도 쭉 맛잇는 바스버거가 될수 있게 노력하겠습니다.고객님의 소중한 피드백과 별점 감사합니다 ^^ 좋은하루 되세요.}{237: 별표 4개 -9달 전-바스버거는 어느 지점이나 괜찮은 것 같아요}{236: 별표 5개 -2년 전-안녕하세요! 맛있게 드셔주셔서 감사합니다! 음악소리가 좀 크셨군요 ㅠ.ㅠ.. 고객님 의견 적극반영하여 음악볼륨 낮출 수 있도록 하겠습니다 :) 감사합니다.}{235: 별표 5개 -2년 전-버거 맛나요. 콜라리필 좋아여. 음악은 조금 커요}{234: 별표 3개 -10달 전-안녕하세요 고객님 별점과 리뷰 감사드립니다 ! 다음 번 이용시에도 괜찮다는 평 남기실수 있도록 노력 또 노력하는 바스버거가 되겠습니다 ^__^}{233: 별표 4개 -2년 전-맛 ㅅㅌㅊ 사이드도 ㄱㅊ 가격은 ㅍㅌㅊ}{232: 별표 2개 -1년 전-방문해주셔서 감사합니다. 음식의 맛이나 퀄리티 저희가 고객님들에게 제공하는 서비스의 수준은 항상 높아야 한다고 생각하고 있습니다. 저희의 마음을 조금이나마 전달 해드린 것 같아 기쁘고 언제 방문하셔도 지금처럼 만족을 드릴 수 있도록 하겠습니다. 소중한 리뷰와 별점 만점 감사드리며 다음에 또 방문해주세요! 감사합니다. :D}{231: 별표 5개 -3년 전-수제버거의 맛은  최고 입니다&lt;U+11A2&gt;고객지향마음 및 친절은 베리굿입니다다양한 종류의 토핑과 수제맥주 역시매우맛있고 &lt;U+11A2&gt;합리적인 가격!적극추천합니다&lt;U+11A2&gt;}{230: 별표 4개 -1년 전-햄버거 안좋아하는데도 맛있게 먹음. 와사비쉬림프랑 머쉬룸버거 둘다 먹었는데 최애 조합은 와사비쉬림프에 계란후라이추가 세트 + 후라이를 베이컨샐러드 로 바꾸는게 짱맛. 감자칩도 맛있음 ♡}{229: 별표 1개 -1년 전-방문해주셔서 감사합니다. 바스버거는 따로 브레이크타임이 없어서 오픈중 어느때나 오셔도 자유롭게 즐기실 수 있답니다. 또한 고객님들께 퀄리티 있는 음식과 쾌적한 환경을 제공해드리고자 항상 노력하고 있는데 조금이나마 저희의 마음이 전달된것 같아 다행입니다. 항상 고객님의 만족을 위해 노력하는 바스버거가 되겠으며 다음에 또 방문해주세요! 감사합니다. :D}{228: 별표 5개 -3달 전-점심 저녁 어느 때나 편하게 이용 가능해서 좋습니다. 전에 방문했을때 청소중이었는데 위생 관리도 엄청 신경쓰는것 같았습니다.}{227: 별표 5개 -2년 전-자주 가는 맛집이예요!청결하고 맛있고 직원들 응대도 친절해요!평일 점심엔 여의도직장인들이 많으니 그 시간대 피해서 가는걸 추천해요}{226: 별표 5개 -2년 전-방문해주셔서 감사합니다. 바스버거는 고객님의 부담을 덜어드리고자 제임스감자칩프렌치프라이소스탄산음료를 무한리필하고 있으며 코울슬로미니는 100원에 판매하고 있습니다. 또한 일상 회사생활에 지친 회사원들에게 잠시나마 점심에 일탈을 느끼게 해드릴만한 분위기를 제공해드리고 있고 또한 저녁에도 신나게 하루의 마무리를 할 수 있는 장소랍니다. 언제나 고객님들에게 만족을 드릴 수 있는 바스버거가 되도록 노력하겠으며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{225: 별표 4개 -1년 전-나름 괜찮은 맛과 양! 분위기는 점심보다는 저녁에 맥주한잔과 먹으면 좋을곳. 점심에는 분위기가 과함...}{224: 별표 5개 -6달 전-먼저 저희 매장을 방문해주셔서 감사합니다! 매장이 좁다고 하셨는데 혹시 불편한 사항이 있으셨는지요 =[ 그런 점이 있다면 나중 방문 시 저희 직원들에게 살짝 말씀해주시면 개선할 수 있도록 하겠습니다 ^__^ 좋은 별점 감사드리며 새해 복 많이 받으세요! 감사합니다 ~~♥}{223: 별표 5개 -1년 전-수제버거 맛이 나쁘지 않다. 조금 좁은 건 흠.}{222: 별표 5개 -2년 전-방문해주셔서 감사합니다 ^^ 깔끔함 뿐 아니라 맛있다 까지 느끼실수 있는 바스버가가 되기 위해 더욱 노력하겠습니다!!! 버거를 기다리는동안 무료로 드실수 있는 제임스감이 정말 또 다른 매력포인트죠~!! 다음방문시에는 별5개 받을수 있는 매장이 되겠습니다. 감사합니다.}{221: 별표 4개 -1년 전-전체적으로 깔끔한 햄버거. 그리고 감자튀김을 계속 먹을수 있다!}{220: 별표 4개 -2년 전-방문해주셔서 감사합니다!!!!많은 메뉴들과 다양한 조합들로 많은 구성들이 준비 되어있으니다음번에도 많은 방문 부탁드리겠습니다!!!별5점 받는 그날까지 항상 노력하는 바스버거가 되겠습니다&gt;_&lt;}{219: 별표 2개 -1년 전-바스버거.. 맛있어요 !!!}{218: 별표 5개 -1년 전-방문해주셔서 감사합니다. 탐욕버거와 하와이안을 좋아하시는 고객님이시군요! 탐욕버거는 앞으로도 계속 고객님들께 제공해드릴 예정이니 걱정마시고 언제든 찾아주시길 바랍니다 ^^ 맛있게 드셔주셔서 감사드리며 소중한 리뷰와 별점 만점 감사드립니다. 다음에 또 방문해주세요! 감사합니다. :D}{217: 별표 5개 -1년 전-이곳은 한번 쯤 먹어볼만한 탐욕버거(언제또 메뉴서 사라질지 모름..)저의 원픽인 하와이안버거(저는 이게 제일맛있음)가 너무 맛있는곳!!}{216: 별표 4개 -1년 전-맛있게 드셔주셔서 감사합니다~! 앞으로도 보다 맛있는 버거! 푸짐한 버거로 보답하겠습니다 :) 다음에 또뵙겠습니다!}{215: 별표 4개 -1년 전-맛난 버거~ 핫윙 괘얀음}{214: 별표 5개 -2년 전-매장 방문해주셨는데 여러 면에서 고객님께 만족을 드리지 못한 점 죄송합니다. 앞으로 이런 일이 없도록 직원들에게 내용 공유 및 교육을 통해 개선하겠으며 더 나은 모습을 보여드릴 수 있도록 노력하겠습니다. 다시 한 번 정말 죄송하다는 말씀 드리며 추운 날씨에 감기 조심하세요. 감사합니다.}{213: 별표 1개 -1년 전-맛도 별로. 친절함도 별로.}{212: 별표 5개 -1년 전-맛있다 패티가 크다점원이 친절하다직접 음식을 가지러 가야한다.다 먹은 음식은 카운터에 줘야한다.계산은 선불이다.화장실은 밖에있다.이 가게는 건물 지하에 있다.}{211: 별표 4개 -1년 전-날씨가 많이 더운데도 찾아주셔서 감사합니다. 매장안이 많이 더우셨군요 ㅠ.ㅠ..다음번엔! 시원하게 식사하실 수 있도록 준비하고 있겠습니다. 감사합니다 :)}{210: 별표 4개 -1년 전-사람이 많고 약간 더워요. 음식이나 서비스 괜찮습니다.}{209: 별표 5개 -2년 전-방문해주셔서 감사합니다!! 하와이안버거를 드셨군요 파인애플이 들어가 상큼달달한 맛이 입에 담겨지는 버거입니다 양이 부족하셨다면 다음번에는 토핑추가 중에 패티추가도있으니 추가해서 드시면 더욱더 풍성한 버거로 준비해드리겠습니다!!다음번에도 별5점이 될수있도록 항상 노력하는 바스버거가 되겠습니다소중한 리뷰 달아주셔서 정말 감사합니다!!!}{208: 별표 5개 -11달 전-파인에플 버거 맛있어요! 버거가 크진않지만 셋트로 먹으면 충분하네요}{207: 별표 5개 -2달 전-안녕하세요 ! 저희 바스버거를 찾아주셨는데 맛있는 햄버거를 못드셨다니 너무 아쉽습니다 .. ㅠ_ㅠ!!다음번에 방문해주시면 햄버거랑 맥주를 꼭 같이 드셔보시길 추천드립니다 왜냐하면 너무 맛있거든요 !! ♡방문해주셔서 감사드리고 별점과 리뷰에 또한번 감사드립니다 더 노력하는 바스버거가 되겠습니다.}{206: 별표 4개 -1년 전-수제버거집인데 버거는 못먹고 맥주만 먹었어요^^감튀 추천 맥주 에일~~~}{205: 별표 5개 -1달 전-저희매장에 방문해주셔서 감사합니다 ^^ 직원들의아쉬움을 느끼셨군요....정말 죄송합니다 고객님의 소중한에 대해 직원들과  공유하고 재교육하여 다음방문시에는 웃는얼굴로 고객님들과 마주할수 있는 바스버거가 되겠습니다 ^^ 감사합니다.}{204: 별표 5개 -1년 전-맛은 좋아요하지만 직원들이 좀 웃었으면 좋겠어요}{203: 별표 3개 -1년 전-방문해주셔서 감사합니다. 바스버거는 대한민국을 넘어 세계에서 통하는 브랜드로 성장하기 위해 노력하고 있습니다. 저희를 위한 고객님들의 소중한 의견을 귀기울여 듣고  개선하고 발전하겠습니다. 다음에 또 방문해주세요. 감사합니다. :D}{202: 별표 4개 -2년 전-트랜디한 버거집 나쁘지않고 시장조사 잘하고 들어오는 버거집느낌. 맛으로 승부하는지는 모르겠음}{201: 별표 3개 -1년 전-매장 방문해주셨는데 여러 면에서 고객님께 만족을 드리지 못한 점 죄송합니다. 앞으로 이런 일이 없도록 직원들에게 내용 공유 및 교육을 통해 개선하겠으며 더 나은 모습을 보여드릴 수 있도록 노력하겠습니다. 다시 한 번 정말 죄송하다는 말씀 드리며 추운 날씨에 감기 조심하세요. 감사합니다.}{200: 별표 4개 -11달 전-맥주랑 햄버거랑 같이 시켰더니햄버거만 딸랑감자칩 무한 이라던데 감자만 먹다가 목이 막힘알바생은 메뉴 이해를 못하고 불친절홀 관리 전혀 안됨}{199: 별표 4개 -5달 전-방문해주셔서 감사합니다. 바스버거는 여의도를 넘어 대한민국 세계에서 통할 수 있도록 항상 개발과 노력을 멈추지 않고 있습니다. 고객님 말씀처럼 조리시간에 대해서는 고객님들께서 만족하실 수 있게 좀 더 빠른 시스템으로 제공해드릴 수 있도록 개선하겠습니다. 방문해주셔서 감사드리며 다음 방문시에는 별점 만점 받을 수 있도록 노력하겠습니다. 감사합니다. :D}{198: 별표 4개 -10달 전-여의도에서  찾기  힘든 괜찮은 수제버거집. 다만 조리시간이 꽤 길다. 저녁타임에도 웨이팅이 좀 있음}{197: 별표 4개 -1년 전-가격적당 맛적당 적당버거 바스버거 추가해서먹으면 더맛날듯!}{196: 별표 5개 -1년 전-찾아주셔서 감사합니다. 버거 사이즈가 조금 아쉬우셨군요 ㅠ.ㅠ..바스버거는 고객님이 한손으로 드시기 편한 사이즈로 만들고 있습니다만..그 부분이 아쉬우셨다니 ㅠ..ㅠ.. 저희도 너무나 아쉽네요! 고객님의 소중한 의견 수렴하여 반영될 수 있도록 노력하겠습니다. 감사합니다.}{195: 별표 3개 -3년 전-수제버거 답지않은 사이즈 좀 작은 듯 맛은 있고 술집같은 분위기지만 햄버거만 먹고 나와도 상관없어여}{194: 별표 5개 -3년 전-맛있게 드셨다니 ^^ 저희도 너무 좋습니다 ㅎㅎ 직원들이 수제로 매일 코올슬로를 만들고 있습니다!! 앞으로도 항상 맛잇는 버거로 보답하겠습니다. 감사합니다}{193: 별표 3개 -1년 전-버거 맛있고 코울슬로 감동 ㅠ}{192: 별표 4개 -1년 전-먼저 방문해주셔 감사합니다 ^^ 맛있게 드시고 행복한 시간을 보내셨다니 정말 저희도 기분이 너무 좋습니다. 다만 고객님께서 아쉬움을 느끼신부분에 대해 바로 고칠수 있도록 하겠습니다 불편을 느끼게 해드려 너무 죄송하고 다음방문시에는 이런 불편함까지도 없는 바스버거가 되겠습니다 ^^ 감사합니다.}{191: 별표 4개 -1년 전-가격도 싸고 감자랑 음료 리필도 되고 버거 퀄리티도 정말 괜찮았습니다. 단 한가지 아쉬운 점은 앉아있는 테이블이 고정되지 않고 계속 삐걱거러 먹으면서 불편했다는 것입니다}{190: 별표 4개 -2달 전-안녕하세요 별다섯개 를 보니 아주 힘이 나는 것 같습니다.고객님의 리뷰에 힘입어 더 만족 하실 수 있도록 노력하는 바스 버거가 되셌습니다 !자리가 좁아서 불편하셨군요 ㅠㅠ 해당사항은 직원들과 공유하여 개선점을 찾도록 노력하겠습니다 감사합니다 .}{189: 별표 5개 -10달 전-맛있어요! 자리는 약간 좁습니다}{188: 별표 5개 -1년 전-방문해주셔서 감사합니다. 아메리칸버거위크 기간에 방문해 주셨군요! 작년에 이어서 올해도 행사를 진행했었는데 고객님들의 사랑으로 잘 마무리 되었습니다. 감사하단 말씀 드리면서 이번 기회로 트러플디핑소스가 많이 알려지것 같아 좋습니다! 언제나 쾌적하고 오고싶은 자리를 만들기 위해 노력하는 바스버거가 되겠습니다. 다음에 또 방문해주세요! 감사합니다. :D}{187: 별표 4개 -2년 전-아메리칸버거위크가 진행되어 정가보다 저렴하게 버거를 맛봤다. 트러플버거세트에 함께나오는 트러플마요네즈는 풍미가득!주말엔 한적하니 좋다}{186: 별표 4개 -1년 전-서정호님 방문해주셔서 감사합니다!!!특유의 향이나는 청진동IPA와 감자튀김을 드셨군요많은 고객님들께서 맛있다고 해주시는 메뉴들입니다ㅎㅎ다양한 맛있는 메뉴들이 많이 준비되어있으니 앞으로도 많은 이용 부탁드리겠습니다 감사합니다!!}{185: 별표 4개 -8달 전-감자튀김을 무한으로 먹을수있음 ipa맥주 맛남}{184: 별표 5개 -1년 전-덕현 님 안녕하세요! 먼저 저희 바스버거를 이용해주셔서 감사합니다! 착한 가격과 좋은 맛으로 덕현 님께 다가갈 수 있어서 너무 기분 좋습니다 :D!! 앞으로도 저희 바스버거 이용 부탁드리며 항상 좋은 피드백 받을 수 있도록 노력하고 발전하는 모습 보여드리겠습니다~~! 다시 한 번 좋은 리뷰와 별점 감사드리며 새해 복 많이 받으세요! 감사합니다~~♥}{183: 별표 4개 -1년 전-가격도괜춘. 맛도괜춘. 사람은 터진다.}{182: 별표 5개 -1년 전-백재현님 방문해주셔서 감사합니다:D항상 맛과 퀄리티 분위기를 신경써 고객님들께서 즐거운 시간 보내실수 있도록 노력하고있습니다!!다음번에도 많은 재방문 부탁드리겠습니다고객님의 소중한 리뷰와 별5점 감사드립니다!!!!}{181: 별표 5개 -1년 전-버거도 맛있고 분위기 괜춘하다.}{180: 별표 5개 -10달 전-먼저 방문해주셔서 감사합니다. 감자 리필뿐 아니라 버거의 맛으로 고객님들께만족을 드릴수 있는 바스버거가 될수 있도록 노력한는 바스버거가 되겠습니다.다음 방문시에는 고객님께서 만족하실수 있게 더 발전한는 바스버거가 되겠습니다.고객님의 소중한 리뷰와 별점 감사합니다.}{179: 별표 5개 -1년 전-감자 리필이 큰 매력햄버거 맛만 보러가겠다하면 비추!}{178: 별표 3개 -11달 전-찾아주셔서 감사합니다. 앞으로는 더욱 발전하여 고객님이 자주 찾아주실 수 있도록 최선을 다하겠습니다. 감사합니다.}{177: 별표 4개 -3년 전-부드러운 고기패티가 인상적개인적으로 씹는 맛을 좋아하기는 하지만 만족스러운 질감이었다시그니쳐 수제 맥주도 있어 마셔 보았는데 이 역시 매우 부드러운 목 넘김이었다하지만 크게 특색있는 느낌은 아니어서 근처에 있지 않으면 자주 갈 것 같지는 않다}{176: 별표 3개 -1년 전-안녕하세요 고객님 바스버거를 이용해주셨는데 약간 아쉬움점이 있으셨군요 ㅠㅠ 죄송합니다 모든면에서 만족을 드릴수있도록 더욱 더 노력하겠습니다 !}{175: 별표 5개 -11달 전-바스버거 빵 패티도 맛있고 리필이 되는 점도 좋았습니다주차가 다소 아쉬웠습니다}{174: 별표 4개 -1년 전-맛난 수제버거에 맛난 수제맥주의 조합 좋아요! 굳굳}{173: 별표 5개 -4년 전-분위기도 좋고 맛도 좋고... 근데 패티가 좀 널널하다는 느낌적인 느낌. 고기가 꽉찬 패티라기 보다는 슬렁슬렁 뻥튀기한 느낌이 듬. 근데 머..먹을만하긴 함.}{172: 별표 5개 -5달 전-방문해주셔서 감사합니다 ^^ 버거의 양이 살짝 부족하셨군요~!! 저희 메뉴중에토핑 추가 메뉴들이 있는데 계란이나 해쉬브라운 추가하시면 부족한 양 부분도충분히 배부르게 드실수 있으실거 같습니다~!! 다음방문시 토핑 추가도 해보시면좋을거 같습니다 ^^ 감사합니다.}{171: 별표 3개 -3달 전-버거 자체는 맛있었음. 분위기도 괜찮음. 근데 한끼 식사로는 약간부족.. 순전히 개인 의견}{170: 별표 4개 -2년 전-여의도 바스버거에 방문해주셔서 감사합니다!!!전희섭 고객님께서 말씀해주신 합리적인 가격!! 칭찬에 감사드리며  더욱 노력하는 바스버거 여의도점 되겠습니다.^^오늘 하루 좋은하루 되세요~~}{169: 별표 3개 -10달 전-합리적인 가격의 수제 햄버거}{168: 별표 4개 -11달 전-이국적인 분위기에 괜찮은 퀄리티를 유지하는 수제버거집}{167: 별표 5개 -1년 전-햄버거도 매장음악도 매우 신경 쓰고 있어서 아주 좋아요!}{166: 별표 4개 -8달 전-유진 님 :) 먼저 저희 바스버거를 이용해주셔서 감사드립니다 ^__^ 카이피라 양이 많아 불편을 드렸네요 ㅠ ㅠ 나중에 주문하실 때 미리 말씀해주시면 양 조절해서 제공해드리겠습니다! 다음에는 고객님의 마음에 흡족 할 수 있도록 더욱 노력하는 바스버거가 되겠습니다 감사합니다 :D}{165: 별표 5개 -1년 전-상추가.. 넘 많았지만! 맥주도 맛있었고 번도 너무 맛있었음!!!!!!!굿굿}{164: 별표 4개 -1년 전-Marco Jo 고객님 !! 오늘도 바스버거를 이용해 주셔서 먼저 감사 말씀 드립니다! 저희 햄버거와 쉐이크를 만족하셔서 아낌없는 칭찬과 별점 5점 감사드리고 다른 다양하고 맛잇는 버거와 쉐이크도 있으니깐 담에도 또 이용해주세요~감사합니다 ^ ^}{163: 별표 5개 -9달 전-맛있다 버거도 쉐이크도 !!}{162: 별표 4개 -1년 전-여의도 수제버거 중 최고. 더블바스가가장 무난하면서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>allreviews3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:2달 전 :  별표 3개  : }{2:1년 전 :  별표 4개  : }{3:1년 전 :  별표 4개  : }{4:2년 전 :  별표 2개  : }{5:3주 전 :  별표 1개  : }{6:3년 전 :  별표 4개  : }{7:2년 전 :  별표 5개  : }{8:1달 전 :  별표 5개  : }{9:1년 전 :  별표 5개  : }{10:11달 전 :  별표 3개  : }{11:11달 전 :  별표 5개  : }{12:3년 전 :  별표 2개  : }{13:2년 전 :  별표 1개  : }{14:1년 전 :  별표 4개  : }{15:2년 전 :  별표 5개  : }{16:1년 전 :  별표 3개  : }{17:2년 전 :  별표 3개  : }{18:2년 전 :  별표 3개  : }{19:2년 전 :  별표 5개  : }{20:2년 전 :  별표 4개  : }{21:1달 전 :  별표 5개  : }{22:2년 전 :  별표 5개  : }{23:1년 전 :  별표 5개  : }{24:2년 전 :  별표 4개  : }{25:3년 전 :  별표 5개  : (Google 번역 제공) 대단해 !!!(원문)That's great!!!}{26:1년 전 :  별표 2개  : (Google 번역 제공) 그저 그래(원문)So so}{27:3년 전 :  별표 5개  : (Google 번역 제공) 멋진 한국 전통 냉면 식당!(원문)weonderful Korean traditional cold noodle restaurant!}{28:11달 전 :  별표 4개  : (Google 번역 제공) 확인(원문)好&lt;U+554A&gt;}{29:1년 전 :  별표 5개  : (Google 번역 제공) 내가 좋아하는 것 중 하나!!!(원문)One of my favorites!!!}{30:1년 전 :  별표 5개  : (Google 번역 제공) 좋은 국수.(원문)Good noodles.}{31:2년 전 :  별표 4개  : (Google 번역 제공) 맛이 좋지만 붐비다.(원문)It tastes good but crowded}{32:2년 전 :  별표 3개  : (Google 번역 제공) 기대는 높지만 만족도는 낮습니다.(원문)High expectations but low satisfaction}{33:2년 전 :  별표 5개  : (Google 번역 제공) 차가운 국수와 만두를 여기에서 좋아해라.(원문)Love the cold noodles and the dumplings here}{34:3년 전 :  별표 5개  : (Google 번역 제공) 평양 냉면도 만두쿳 (만두 수프)도 맛있습니다.(원문)平&lt;U+58CC&gt;冷&lt;U+9EBA&gt;もマンドゥクッ（餃子ス&lt;U+30FC&gt;プ）もおいしいです。}{35:3년 전 :  별표 5개  : (Google 번역 제공) 지금까지 먹은 평양 냉면 가장 최고!(원문)今まで食べた平&lt;U+58CC&gt;冷&lt;U+9EBA&gt;で一番最高！}{36:2년 전 :  별표 3개  : (Google 번역 제공) 맛없는 비싼 차가운 쇠고기. 좋지만 값 비싼 국수.(원문)Tasteless overpriced cold beef. Good but overpriced noodles.}{37:2년 전 :  별표 5개  : (Google 번역 제공) 양질의 '평양 랭면 (냉면)'을 맛보기에 좋은 곳. 또한 '미쉐린 가이드'레스토랑 중 하나입니다.(원문)Great place to try a quality 'peongyang raengmyeon (naengmyeon)'. Also one of 'michelin guide' restaurants.}{38:1년 전 :  별표 4개  : (Google 번역 제공) 일요일 너무 길어. 평일 점심 시간에도. 나쁜 곳은 아니지만 일찍 가십시오. 늦게가는 경우 특히 밤에 재료가 부족할 수 있습니다.(원문)Too long a line on Sundays. Even at weekdays lunchtimes. It's not a bad place but please just go early. If you go late they might run out of ingredients especially at night.}{39:1년 전 :  별표 1개  : (Google 번역 제공) 그 밖의 모든 것은 좋았습니다. 추운 국수의 맛에 너무 실망했다.(원문)Everything else was good. I was so disappointed with the taste of the cold noodle...thumbs down.}{40:3년 전 :  별표 4개  : (Google 번역 제공) 평양 스타일 낸면 (냉면). Michelin Guide에 의해 Bib gourmand Restaurant으로 선정 Nengmyeon 꽤 저렴.(원문)Pyongyang style Nengmyeon(cold noodle). Selected as Bib gourmand  Restaurant by Michelin Guide. Pretty cheap for Nengmyeon.}{41:1년 전 :  별표 5개  : (Google 번역 제공) 최고의 냉면(원문)Best cold noodles ever}{42:2년 전 :  별표 3개  : (Google 번역 제공) 품위있는 고기를 얹은 차가운 국수. 수프는 내 취향에 감미롭고 소금에 절인 무는 내가 먹어 본 것 중 최고가 아니 었습니다.(원문)Good cold noodle with decent meat on top. Soup was rather sweet for my taste and salted radish was not the best I've eaten.}{43:1년 전 :  별표 2개  : (Google 번역 제공) 전형적인 sns 유명한 레스토랑. 나는 40 분을 기다렸고 1 차 스푼에서 dissapointed. 또한 주차가 최악입니다. 그것은 기다릴 자격이 없다. 대기중인 사람이 없다면 괜찮습니다.하지만 기다리지 마십시오.(원문)Typical sns-famous restaurant. I waited 40 min and dissapointed at 1st spoon. moreover parking is…}{44:1년 전 :  별표 5개  : (Google 번역 제공) Nengmyun를 얻을 수있는 좋은 장소. 북한 스타일.(원문)Great place to get nengmyun. North korean style.}{45:1년 전 :  별표 4개  : (Google 번역 제공) 한국풍 냉면의 또 다른 스타일. 수프는 매운맛과 깊은 맛이 덜합니다. 국수는 Hamheung 작풍보다는 더 적은 chewey이다.두 가지 스타일이 뚜렷한 차이가 있기 때문에 두 가지 스타일이 마음에 들었습니다.(원문)Another style of Korean cold noodle. The soup is less spicy and deeper taste. Noodle is less chewey than the Hamheung style.I like both styles since they have distinct taste differences}{46:1년 전 :  별표 5개  : (Google 번역 제공) 청장인데 왠지 깊은 냉면. 만두도 최고였습니다.(원문)薄口なのになんだか深い冷&lt;U+9EBA&gt;。餃子も最高でした。}{47:1년 전 :  별표 4개  : (Google 번역 제공) 독특하고 매력적인 맛있는 요리(원문)Unique charming delicious cuisine}{48:1년 전 :  별표 4개  : (Google 번역 제공) The noodles are a little stiff but the flavor of soba is a little low. The soup is fresh and delicious. Dumpling is also recommended!향기로운 곁탕!국수는 쫄깃한 있지만 메밀의 맛은 적다.톤찌미베스 국물은 담백하고 맛있는 (^^) 만두도 추천!평양 냉면 수요일 미식 회 128…}{49:7달 전 :  별표 5개  : (Google 번역 제공) 주문한 수제 만두 팬케이크 및 냉면 (물론). 좋은 서비스와 좋은 음식! 전체 5 성급(원문)Ordered hand made dumplings pancakes and cold noodles (of course). Good service and good food! Overall 5 stars}{50:1달 전 :  별표 5개  : (Google 번역 제공) 한국 냉면을 먹기 좋은 곳.(원문)Nice place to try Korean cold noodle.}{51:2주 전 :  별표 5개  : (Google 번역 제공) 물 냉면은 메밀로 만든 긴면으로 한국인의 대표적인 여름 음식이다. 이 식당은 물 냉면으로 유명하다. 물 냉면을 맛보고 싶다면 여기에서 시도하는 것이 좋습니다. 하지만 한국인들 사이에서도 물 냉면의 호불호가 다르기 때문에 식사 후 후회할 수 있습니다. 물 냉면을 좋아하지 않는 사람들이 물에 국수 맛이 뭐냐고 말하기 때문이다. 국물을 알고 먹는 것이이 음식의 핵심입니다.(원문)…}{52:2주 전 :  별표 3개  : (Google 번역 제공) 메밀 국수를 사용하는 맛은 괜찮 았습니다. 면은 5000 원에면 1 만원이 더 든다.(원문)The taste was okay they use a buckwheat noodle. The noodles cost 10000 won extra noodles for 5000 won.}{53:4년 전 :  별표 4개  : 불고기는 진짜 맛있는데 면은 아.. ..... 아...... 적응하면 맛있긴 한데 아....}{54:4년 전 :  별표 4개  : 사람이 너무 많지만 밋있는 평양냉면집}{55:4년 전 :  별표 5개  : 전체적으로 심심한 간이고 음식들 맛과 퀄러티는 굿~ 다만 직원들은 좀 불친절}{56:4년 전 :  별표 4개  : 정인면옥}{57:3년 전 :  별표 4개  : 수준이상}{58:3년 전 :  별표 5개  : 순면이랑 만두}{59:3년 전 :  별표 4개  : 평양냉면의 진미를 맛볼 수 있어요}{60:3년 전 :  별표 1개  : 불친절(카운터 뚱땡이)}{61:3년 전 :  별표 5개  : 미슐렝가이드에는 못들었지만 추천에들정도의 평양냉면집}{62:3년 전 :  별표 4개  : 맛이 심심하지만 먹을수록 맛있음}{63:3년 전 :  별표 4개  : 물냉 2개 사리추가 1개 만두 한판}{64:3년 전 :  별표 4개  : 평양식 냉면 최고봉}{65:3년 전 :  별표 5개  : 미슐랭 3스타 평양냉면집}{66:3년 전 :  별표 3개  : 평양냉면으로 맛집이라 하는데 내 입맛에 그저그랬음}{67:3년 전 :  별표 5개  : GOOD 평양냉면}{68:3년 전 :  별표 4개  : 더더더 단백한 평양냉면}{69:3년 전 :  별표 5개  : 순면 맛나요 ㅠ}{70:3년 전 :  별표 4개  : 맛남}{71:3년 전 :  별표 3개  : 모두가 보이지도 않는 임금님의 옷이 보인다고 말하며 어색한 미소로 평양냉면 육수를 들이켜야 하는 집.}{72:3년 전 :  별표 5개  : 여름엔 냉면 여의도 냉면은 정인면옥}{73:3년 전 :  별표 3개  : 맛별로 보통}{74:3년 전 :  별표 2개  : 너무 자연적 맛}{75:2년 전 :  별표 5개  : 맛있어요}{76:3년 전 :  별표 4개  : 가격은 다소 비싸나 리얼 평양냉면!}{77:3년 전 :  별표 4개  : 평양면옥집. 만두}{78:3년 전 :  별표 3개  : 정갈한 맛}{79:3년 전 :  별표 5개  : 깔끔한 맛}{80:3년 전 :  별표 5개  : 평양냉면 순면 그리고 만두}{81:3년 전 :  별표 4개  : 유명하지만 평범한 냉면집. }{82:3년 전 :  별표 4개  : 평양냉면 맛집.}{83:3년 전 :  별표 4개  : 여의도에 이만한 냉면집이 어디 있으랴}{84:2년 전 :  별표 5개  : 늘 맛있습니다}{85:2년 전 :  별표 4개  : 평양냉면 전문점이라 호불호가 갈림}{86:3년 전 :  별표 4개  : 줄 너무 서요.... }{87:3년 전 :  별표 1개  : 별로 맛이없다. . }{88:2년 전 :  별표 5개  : 맛있는  냉면}{89:2년 전 :  별표 2개  : 그냥 보통}{90:2년 전 :  별표 5개  : 평양냉면 초보부터 매니아까지 다 좋아해욥}{91:2년 전 :  별표 3개  : 깔끔한 맛}{92:2년 전 :  별표 4개  : 육수가 맛있음}{93:2년 전 :  별표 4개  : 두근두근}{94:2년 전 :  별표 2개  : 냉면맛 별루}{95:2년 전 :  별표 4개  : 맛있어요}{96:2년 전 :  별표 4개  : 육향은 조금 있은편 녹두전은 넘 심심}{97:2년 전 :  별표 4개  : 식사}{98:2년 전 :  별표 5개  : 평양냉면 한가닥 하는 맛집}{99:2년 전 :  별표 3개  : 먹을만함}{100:3년 전 :  별표 5개  : 양마니가 추가요금이 없음ㅋ}{101:2년 전 :  별표 4개  : 담백한 맛이나 자극적인 음식에 길들여진 사람에게는 밍밍하게 느껴짐}{102:2년 전 :  별표 3개  : 보통}{103:2년 전 :  별표 4개  : 냉면은 필동면옥 우래옥 등과 비교해 전혀 손색 없을 정도로 아주 맛있으나 직원의 태도에 실망할 수 있으니 주의..}{104:2년 전 :  별표 4개  : 경험했음}{105:2년 전 :  별표 5개  : 최고}{106:2년 전 :  별표 5개  : 맛있고 정갈함}{107:2년 전 :  별표 4개  : 맛있는 육수}{108:2년 전 :  별표 4개  : 만두 맛있어요}{109:2년 전 :  별표 2개  : 비쌈 별로다}{110:2년 전 :  별표 4개  : 역시 정인면옥}{111:2년 전 :  별표 4개  : 좋아요}{112:2년 전 :  별표 5개  : 평양냉면 맛집}{113:2년 전 :  별표 2개  : 녹두전은  정말 맛없고 냉면은 순면이 낫고 만두가 젤 괜찮음 사람 많아 정신없음  직원들이 다 짜증나 있음}{114:2년 전 :  별표 3개  : 먹을만해요~}{115:2년 전 :  별표 4개  : 굳!}{116:2년 전 :  별표 4개  : 서여의도에서 찾기힘든 평양냉면평양냉면 중에서도 덜짠편}{117:2년 전 :  별표 1개  : 불친절해요}{118:2년 전 :  별표 4개  : 맛있는 평양냉면}{119:2년 전 :  별표 3개  : 가격에 비하여 그닥....}{120:2년 전 :  별표 2개  : 줄서고 기다려서 먹을 정도는 아니라고 생각해요}{121:2년 전 :  별표 1개  : 별로네}{122:2년 전 :  별표 4개  : 맛있음. 그러나 불친절.}{123:2년 전 :  별표 4개  : 서빙이 좀 아쉽다.}{124:2년 전 :  별표 4개  : 만두 정말 맛있습니다!}{125:2년 전 :  별표 3개  : 심심한 평양냉면 맛집 서브스가 쏘쏘 사람이 워낙많다.}{126:2년 전 :  별표 5개  : 순면으로드세요}{127:2년 전 :  별표 4개  : 맛있엉}{128:2년 전 :  별표 5개  : 첨은별로 였는게 먹을수록갠찮음}{129:2년 전 :  별표 5개  : 진짜 맛집!!!}{130:2년 전 :  별표 5개  : 만두 맛남}{131:2년 전 :  별표 3개  : 불친절}{132:2년 전 :  별표 1개  : 제가 먹은 냉면 중 최악}{133:2년 전 :  별표 1개  : 불친절}{134:1년 전 :  별표 3개  : 가성비 별로임요}{135:2년 전 :  별표 5개  : 깔끔깔끔}{136:2년 전 :  별표 4개  : 강남 못가면 여기}{137:2년 전 :  별표 4개  : 굳 ㅡ ㅡ ㅡ ㅡ}{138:1년 전 :  별표 5개  : 평냉 맛}{139:1년 전 :  별표 5개  : 좋음}{140:1년 전 :  별표 3개  : 서비스 보강합시다!!}{141:1년 전 :  별표 2개  : 별로야.. 내 입맛엔}{142:2년 전 :  별표 5개  : 본점만은 못해도..}{143:1년 전 :  별표 5개  : 굿~~~~~}{144:2년 전 :  별표 1개  : 노맛}{145:2년 전 :  별표 3개  : 보통}{146:2년 전 :  별표 4개  : 기다려서 ㅜ}{147:2년 전 :  별표 5개  : 최고}{148:2년 전 :  별표 4개  : 만두 맛나요}{149:2년 전 :  별표 5개  : 아주 맛있어요}{150:1년 전 :  별표 2개  : 걍.....}{151:1년 전 :  별표 4개  : 맛남}{152:1년 전 :  별표 5개  : 진짜 맛}{153:1년 전 :  별표 5개  : 최고}{154:1년 전 :  별표 3개  : 냉면 맛집}{155:1년 전 :  별표 5개  : 존맛탱이에요}{156:1년 전 :  별표 5개  : 맛있어요}{157:1년 전 :  별표 5개  : 맛있습니다}{158:1년 전 :  별표 3개  : 노말}{159:1년 전 :  별표 5개  : 맛있다}{160:1년 전 :  별표 4개  : 서여의도의 오아시스}{161:1년 전 :  별표 4개  : 맛있어요}{162:1년 전 :  별표 5개  : 좋아요}{163:1년 전 :  별표 4개  : 비냉 맛남}{164:1년 전 :  별표 1개  : 모든게 쓰레기}{165:1년 전 :  별표 5개  : 명불허전 맛집}{166:1년 전 :  별표 5개  : 또 가야죠~~^^}{167:1년 전 :  별표 5개  : 맛있음}{168:1년 전 :  별표 4개  : 맛있음}{169:1년 전 :  별표 5개  : 맛집}{170:1년 전 :  별표 4개  : 괜찮음}{171:7달 전 :  별표 4개  : 순면}{172:8달 전 :  별표 5개  : 굿ㅋㅋㅋㅋㅋㅋ}{173:2년 전 :  별표 1개  : 사람의 입맛에 따라 편차큼}{174:3년 전 :  별표 2개  : 냉면 만두 등 음식맛이 별로이고 먹은 후 속이 불편한데 가격은 비교적 비쌈}{175:3년 전 :  별표 4개  : 오래 기다려야 하는 것이 흠. 전도 맛있다.}{176:1년 전 :  별표 3개  : 평범한 평양냉면임}{177:11달 전 :  별표 3개  : 밋있어요}{178:2년 전 :  별표 5개  : 여의도에서 먹을만한 맛집}{179:2년 전 :  별표 2개  : 별로야..실망했다}{180:1년 전 :  별표 3개  : 신흥 강자 아직 내공이}{181:1년 전 :  별표 5개  : 순면 물 ㄱ}{182:2년 전 :  별표 3개  : 냉면이 땡기네요}{183:1년 전 :  별표 4개  : 좋아요}{184:1년 전 :  별표 3개  : 모나지 않은 맛}{185:2년 전 :  별표 3개  : 아마 드시고나면 저의 말에 동의 하실겁니다 "쏘쏘하네?""}{186:2년 전 :  별표 1개  : 내 입맛에는 안맞는걸로...}{187:3년 전 :  별표 3개  : 여의도에서는 선택의 여지가 없는 냉면집~}{188:5달 전 :  별표 5개  : 부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추부추…}{189:2년 전 :  별표 4개  : 괜찬아요~}{190:2년 전 :  별표 3개  : 정신없지만 여기라도 없으면 타임스퀘어 한일관까지 가야겠지요?}{191:1년 전 :  별표 4개  : 맛있음.}{192:3년 전 :  별표 3개  : 만두가 맛있음. 의외로 냉면은 보통}{193:1년 전 :  별표 5개  : 최고의 맛}{194:3년 전 :  별표 3개  : 적당한 냉면집}{195:2년 전 :  별표 4개  : 좋은 음식..}{196:10달 전 :  별표 5개  : 언제나 짱}{197:1년 전 :  별표 5개  : 평양냉면 맛집}{198:2년 전 :  별표 3개  : 점심보다 저녁에 가면 대기가 없음}{199:3년 전 :  별표 5개  : 여의도 냉면의 지존}{200:1년 전 :  별표 2개  : 기대에 못미침}{201:3년 전 :  별표 3개  : 여의도에 유일한(?)평양냉면!}{202:1년 전 :  별표 3개  : 보통 평양냉면}{203:2년 전 :  별표 5개  : 괜찮은 평양냉면}{204:2년 전 :  별표 5개  : 평양냉면진입할때아주좋을듯}{205:3년 전 :  별표 4개  : 수육 고기가 한정되어 있어 저녁 7시 넘어가면 못 먹을 수도 있어요}{206:2년 전 :  별표 5개  : 평양냉면 육수의 기준점으로 잡았습니다.}{207:2년 전 :  별표 1개  : 평양냉면의 맛이 원래 심심한것인지 모르겠으나 물냉면은 맹물에 면을 풀어놓은것과 같아 매우 실망했습니다.}{208:2년 전 :  별표 4개  : 오래 기다린것 빼고 괜찮음}{209:2년 전 :  별표 5개  : 말이 필요없음}{210:2년 전 :  별표 1개  : 불친절 맛평범}{211:8달 전 :  별표 4개  : 나쁘지 않아요}{212:2년 전 :  별표 4개  : 평양냉면은 첫음식으로 경험할 때 맛은 거칠고 밍밍하나 다 먹어갈때쯤 입에 당기는 맛이 있음}{213:2년 전 :  별표 1개  : 맛있다고 해서 왔는데 비싸기만 하고 내 입맛엔 전혀~}{214:9달 전 :  별표 5개  : 마이쪙}{215:1년 전 :  별표 4개  : 깔끔한 순면}{216:1년 전 :  별표 5개  : 평냉끝판왕급}{217:1년 전 :  별표 5개  : 난이도 쉬운 평냉}{218:1년 전 :  별표 3개  : 나쁘지 않은 물냉면}{219:1년 전 :  별표 4개  : 기다리는 시간이 길어요}{220:2년 전 :  별표 3개  : 맛은 있으나....}{221:1년 전 :  별표 3개  : 육수 밍밍  ..}{222:1년 전 :  별표 5개  : 여의도 냉면맛집}{223:1년 전 :  별표 2개  : 불친절한 유명한 집}{224:1년 전 :  별표 4개  : 여의도의 평양냉면 강자}{225:1년 전 :  별표 4개  : 항상 좋아요}{226:1년 전 :  별표 3개  : 깔끔하고 맛있음}{227:1년 전 :  별표 4개  : 육수의 육향이 갈수록 진해지네요}{228:1년 전 :  별표 5개  : 슴슴함 그 자체}{229:2년 전 :  별표 5개  : 맛잇읍니다 호불호는 갈릴듯해요}{230:3년 전 :  별표 4개  : 기다려서 먹을 가치가 있음}{231:1년 전 :  별표 5개  : 평양냉면의 진수}{232:3년 전 :  별표 4개  : 말끔한 평양냉면.}{233:2년 전 :  별표 4개  : 녹두전 맛있고 냉면은 심심하다. 순면이 있다.}{234:3년 전 :  별표 3개  : 슴슴한 국물맛이 가끔 생각나는 평양냉면 전문점.서비스는 조금 불만족임.}{235:1년 전 :  별표 5개  : 맛도 매장도 깔끔함}{236:1년 전 :  별표 3개  : 사람이 너무 많다}{237:1년 전 :  별표 4개  : 담백한 냉면 맛^^}{238:3년 전 :  별표 4개  : 여의도에서 그나마 정통 평양냉면을 먹으려면 이곳}{239:3년 전 :  별표 2개  : 영화제에서 상 받은영화 재미 없듯 미식회 나온 음식 이해불가}{240:3년 전 :  별표 4개  : 맛이  깔끔함평양냉면 안먹본 사람은 안 맞을수도 있음}{241:1년 전 :  별표 5개  : 깔~~끔 깨끗!!! 감칠맛^^}{242:4년 전 :  별표 3개  : 면발이 자꾸 불어 나온단 말이지.. 광명 시절이 종종 그리워}{243:2년 전 :  별표 5개  : 냉면이 맛있어요}{244:3년 전 :  별표 4개  : 평양냉면이 아주 괜찮은 집}{245:3년 전 :  별표 5개  : 순수한 평양냉면 맛집}{246:1년 전 :  별표 4개  : 비싸도 이만한곳 없음}{247:2년 전 :  별표 2개  : 평양냉면 과 만두...내가 이걸 먹으려고 줄까지 섰다니}{248:3년 전 :  별표 3개  : 오류동에서 이전해 온 평양냉면 맛집}{249:3년 전 :  별표 5개  : 최고의 평양냉면집!}{250:2년 전 :  별표 4개  : 3~5시 브레이크 타임이 원래 없었는데 생긴 것 같다}{251:2년 전 :  별표 4개  : 편육은 꼭 오돌뼈 적은 부위로 달라고...}{252:1년 전 :  별표 5개  : 면 추가가 가능}{253:2년 전 :  별표 5개  : 아..텀블러에싸서다니고싶은육수맛}{254:1년 전 :  별표 5개  : 밍밍하지만 다시 찾게 되는 평양랭면}{255:2년 전 :  별표 3개  : 무난한 평양냉면}{256:1년 전 :  별표 4개  : 슴슴한맛}{257:1년 전 :  별표 1개  : 너무 불친절&lt;U+11A2&gt;다시는 가고 싶지 않음&lt;U+11A2&gt;}{258:2년 전 :  별표 4개  : 평양냉면의 참맛}{259:1년 전 :  별표 4개  : 괞찮은  평양냉면집}{260:9달 전 :  별표 3개  : 무난}{261:2년 전 :  별표 4개  : 심심한 육수가 호불호가 갈릴듯~ 비빔소스는 달콤매콤 맛있네요~ 만두 굿!}{262:2년 전 :  별표 5개  : 전이 맛있습니다 u_u꼭 드셔보세요}{263:2년 전 :  별표 5개  : 인생 평양냉면이였습니다}{264:3년 전 :  별표 5개  : 최고의 평양냉면 집}{265:2년 전 :  별표 5개  : 비싸지만 맛있음!}{266:3년 전 :  별표 4개  : 조금 진한 육수의 평양냉면에 순면이 제격이네요}{267:1년 전 :  별표 5개  : 평양냉면 그 자체}{268:1년 전 :  별표 1개  : 역시 맛집은  찾아보고가는게 아닌듯 ㅠㅠ셋이가서 만두 1 수육1 물냉냉면2시켜 한그릇겨우먹는듯마는듯하고 한개는 남기고옴 만두도 담백그자체...}{269:3년 전 :  별표 4개  : 점심시간에 항상 미어집니다..물냉면 육수가 매우 인상적이죠. 가격은 9천원이라 좀 되긴하네요. }{270:2년 전 :  별표 4개  : 맛이좋다}{271:1년 전 :  별표 4개  : 광명의 본점보다는 떨어지지만 나쁘진 않다}{272:1년 전 :  별표 5개  : 평냉 굳 순면먹고싶다}{273:2년 전 :  별표 5개  : 물냉 굿. 사람 엄청 많은건 단점}{274:10달 전 :  별표 4개  : 평양냉면 맛집}{275:3년 전 :  별표 3개  : 무난한 평양냉면집}{276:3년 전 :  별표 3개  : 매장은 깔끔하고 좋습니다}{277:1년 전 :  별표 4개  : 맛은 딱 좋앗어요}{278:3년 전 :  별표 4개  : 깔끔함. 줄서는 경우 많음.}{279:11달 전 :  별표 3개  : 주차가 불편}{280:3년 전 :  별표 2개  : 너의 밍밍한 평양냉면을 먹느니 엠에스쥐 팍팍친 박명수의 냉면을 먹겠어. 을지로 모식당에 한수접는 아쉬운 맛.}{281:3년 전 :  별표 4개  : 어렵게 을밀대 가지말고 편하게 정인면옥으로}{282:2년 전 :  별표 5개  : 매우 훌륭한 평양냉면}{283:2년 전 :  별표 4개  : 순수한 평양냉면}{284:1년 전 :  별표 3개  : 평양냉면의 진수? 직평해보세요가성비 꽝}{285:2년 전 :  별표 5개  : 만두와 녹두전 정말 맛있네요}{286:2년 전 :  별표 4개  : 미슐랭이 선택한 평양냉면집. 여의도로 옮긴 건 신의 한 수였다.}{287:1년 전 :  별표 4개  : 평양식 냉면과 만두의 진수}{288:1년 전 :  별표 4개  : 냉면은 육수가 밍밍(뭔가 2%부족함)면은 괜찮음만두국 맛있었슴}{289:2년 전 :  별표 4개  : 사람들이 너무 많은게 흠이지만 냉면맛은 정말좋다}{290:6달 전 :  별표 5개  : 오랜만에 나들이}{291:3년 전 :  별표 4개  : 정갈하고 맑은 평양냉면}{292:1년 전 :  별표 5개  : 내부 깔끔하고 음식 맛있어요}{293:2년 전 :  별표 4개  : 정말 비싸고 맛좋네요 :-)}{294:2년 전 :  별표 4개  : 물냉면 육수가 우래옥보다는 맛이 덜함.}{295:2년 전 :  별표 3개  : 맛집이라하는데강북의 오래된 평양냉면집에 비해 내공이부족한느낌어수선하고 직원들 서비스도 엉망인데다왠 데스크의 직원은 소리소리지르고 거저 주는듯한태도맛도 기다리면서 먹을집은 아닌듯대형선풍기바람에  머리카락이 음식에 날리고 장난아님순복음교회때문에  유명세를 탄건지&lt;U+11A2&gt;다시방문할 의사없음}{296:2년 전 :  별표 4개  : 여의도 근처에 평양냉면집 차려 주실 독지가 모십니다. 정인면옥은 줄이 너무 길어요!! 손님들의 분산이 시급합니다.}{297:1년 전 :  별표 4개  : 빕구르망 평냉집비냉 만두도 준수}{298:2년 전 :  별표 3개  : 맛은 좋으나 너무 기다림다.ㅜㅜ}{299:3년 전 :  별표 5개  : 심심한 듯 먹다보면 진하게 다가오는 맛}{300:2년 전 :  별표 5개  : 조미료 없고 투박하지만 최고다}{301:1년 전 :  별표 5개  : 최상의냉면}{302:10달 전 :  별표 3개  : 빕 구르망}{303:10달 전 :  별표 5개  : 국물까지 원샷}{304:3년 전 :  별표 3개  : 유명 맛집이지만 딱히 뭐가 좋다고 하기 어려운....}{305:1년 전 :  별표 4개  : 개인적으로 순면보다 냉면}{306:3년 전 :  별표 4개  : 깔끔 9천원 양많음}{307:1년 전 :  별표 1개  : 추천하지 않음.}{308:1년 전 :  별표 5개  : 전국 평양냉면 탑 10.}{309:4년 전 :  별표 4개  : 가격이 좀 세지만 맛이 괜찮네요. 깔끔하고요.}{310:1년 전 :  별표 3개  : 부산 사람 입맛에는 좀....}{311:1년 전 :  별표 1개  : 직원들불친절.}{312:3년 전 :  별표 5개  : 밸런스가 잘잡힌 평양냉면 육수 심심한 만두 좋습니다}{313:3년 전 :  별표 5개  : 평양냉면으로 가성비 최고}{314:4달 전 :  별표 3개  : 평양냉면의 순한 맛~}{315:3년 전 :  별표 3개  : 슴슴한 평양냉면집. 을밀대 보다는 약한 느낌. 녹두전은 괜찮음}{316:2년 전 :  별표 1개  : 맛은 있지만 서비스가 거지같음.}{317:3년 전 :  별표 4개  : 음식의 맛이 좋아요}{318:4년 전 :  별표 1개  : 정인면옥은 since 1972라고 하지만 솔직히 '정인면옥'이라는 이름으로 인터넷 검색을 해보면 2013년부터임을 알수 있다. 광명점도 가보면 1972년부터 사용했던 가게라 보기게 힘들다. 1972년 냉면을 시작했다면 그 상호명이 변하기 힘들터인데 어디에서도 찾아볼 방법이 없다. 다분히 인터넷의 블로그 마케팅이 아닌가 싶으며 정통성이 의심스럽다.}{319:3년 전 :  별표 4개  : 여의도에 평양냉면집이 없어 사람이 몰리는 곳무난한 수준으로 평양냉면 매니아에게는 조금 부족한 느낌이라는 것이 대체적인 주변사람들의 평가}{320:9달 전 :  별표 4개  : 평냉무난}{321:2년 전 :  별표 3개  : 웨이팅이 길다명성에 비해서는 평범}{322:3년 전 :  별표 4개  : 깔끔한 육수의 평양냉면 }{323:3년 전 :  별표 2개  : 왜 사람이 많은지 잘 모르겠음. 특히 만두국은 꽝.}{324:3년 전 :  별표 5개  : 냉면 짱...점심시간에 대기줄 많아요.}{325:1년 전 :  별표 5개  : 맛있다 을밀대보다}{326:3년 전 :  별표 3개  : 점심시간대에 사람이 항상 많다. 전통 평냉스타일이긴하지만 뭔가 아쉽다.}{327:3년 전 :  별표 4개  : 많이 기다린만큼 맛있게 먹었어요}{328:2년 전 :  별표 3개  : 대기길고 주차불편 맛은 그럭저럭 먹을만해요}{329:3년 전 :  별표 4개  : 괜찮은 정통 평양냉면집입니다}{330:3년 전 :  별표 4개  : 맛있고 좋은데 줄이 너무 길어요 }{331:4년 전 :  별표 3개  : 2인분 = 물냉면 양많이 + 물만두 반그릇 + 녹두전}{332:3년 전 :  별표 4개  : 평양냉면의 기본기 좋음. 면수를 처음에 제공함.}{333:1년 전 :  별표 3개  : 일요일이라 그런지 원활하지 못한 손님응대가 아쉬웠습니다}{334:3년 전 :  별표 5개  : 육수가 굿. 늦게가면 괴기는 없을수도. 토욜 쉬고 일욜 영업합니다}{335:4년 전 :  별표 5개  : 가격대비.가장 훌륭한 평양냉면 집}{336:6달 전 :  별표 4개  : 좋네요}{337:2년 전 :  별표 5개  : 아주 맛있는 평양냉면.}{338:1년 전 :  별표 5개  : 맛있고 값싸고}{339:1년 전 :  별표 5개  : 평양냉면맛}{340:3년 전 :  별표 4개  : 냉면이 유명하지만 만두도 맛있습니다~}{341:2년 전 :  별표 5개  : 맛있는 평양냉면집}{342:2년 전 :  별표 5개  : 냉면과 편육은 언제나 만족}{343:2년 전 :  별표 4개  : 장충동 평양면옥대비 대중적인맛}{344:1년 전 :  별표 5개  : 평양식 냉면 기억에 남는 맛집입니다.}{345:3년 전 :  별표 5개  : 순메밀면의 평양냉면을 맛 볼수 있는 곳. 훌륭하다.}{346:2년 전 :  별표 4개  : 평양냉면으로 인기있는 곳}{347:2년 전 :  별표 4개  : 깔끔.담백.깨끗}{348:2년 전 :  별표 5개  : 평양냉면 맛있어요.. 가격도 착하고..}{349:3년 전 :  별표 1개  : 순면을 좋아해서 가다가 이제 안 간다. 도대체 어떤 시스템으로 주문을 받고 음식을 배분하는지 알 수가 없다. 냉면이 죽 나오면 여기저기서 우리 왜 안 주냐고 손님들이 소리를 치고 아무데나 마구 가져다준다. 그나마 간신히 받은 냉면은 꽝꽝 뭉쳐서 젓가락이 안들어갈 지경인데 항의를 하자 젓가랏으로 꾹꾹 찌르더니 원래 그러니 그냥 먹으란다. 자기 젓가락으로 휘저은 음식을 다시 먹으라고 줘도 되나? 그돈 받으면서 반찬과 면수도 가져다…}{350:1년 전 :  별표 5개  : 베스트 평양냉면 에버}{351:1년 전 :  별표 4개  : 깔쌈한 국물}{352:3년 전 :  별표 4개  : 슴슴한 평양냉면의 매력 배우고 왔습니다ㅎ}{353:3년 전 :  별표 3개  : 냉면뿐 아니라 메뉴가 다양해서 좋아요~}{354:2년 전 :  별표 5개  : 걍 평양냉면. 원래 평양냉면은 미사여구가 필요없음}{355:1년 전 :  별표 2개  : 유명세에 비해 맛과 가격은 별로}{356:3년 전 :  별표 4개  : 후배가 맛있다고 해서 오늘 처음 왔어요. 깔끔해요.}{357:2년 전 :  별표 3개  : 자극적이지않고 깔끔한맛.}{358:2년 전 :  별표 5개  : 곱빼기가 공짜라는 말도안되는 일이!?일요일은 여의도 순복음 교회인들이 우루루 출몰해서 웨이팅이 어마어마하니 가지마세요}{359:3년 전 :  별표 4개  : 수요미식회에서 소개된 신예 평양냉면 집답게 깔끔한 맛.}{360:2년 전 :  별표 4개  : 맛있는 평양냉면집이네요~}{361:1년 전 :  별표 4개  : 평양냉면이지만 맛이 느껴짐}{362:1년 전 :  별표 5개  : 평양냉면 좋아하신다면 꼭드세요}{363:1년 전 :  별표 5개  : 깔끔한국물맛좋아요}{364:1년 전 :  별표 5개  : 딱 미슐랭 그 이상 이하도 아닙니다}{365:2년 전 :  별표 3개  : 여의도에 평양냉면을 타이틀로 내세운 식당. 딱 그 정도}{366:1년 전 :  별표 3개  : 맛있다고 해서 3번 끌려 갔었는데 제 취향은 아닌듯 주인이 너무 거만하고 고객을 좀 무시하듯 대하네요.식당 내부는 깨끗합니다.}{367:1년 전 :  별표 4개  : 사람 많고 맛있음}{368:3년 전 :  별표 4개  : 순면 때문이라도 먹어볼 만하다. 육수는 간간하고 깔끔하다. 수육은 좀 더 찬게 나을 듯. 아이러니하게도 제일 좋았던 건 식사 후 입을 헹궈주는 면수였다. 점심때는 인근 직장인들로 인해 웨이팅이 심하다. 그리고 가장 시급한 건 체계적이고 공정한 주문 시스템이다. 오더 미스가 다반사이고 늦게 온 사람들이 먼저 먹는 불쾌함을 경험할 수 있다. 그래도 순면은 먹어볼 만하다.}{369:2년 전 :  별표 4개  : 점심시간에 먹고싶다면 일찍가서 번호표를 뽑을것}{370:2년 전 :  별표 3개  : 너무 불친절해서 음식맛을 느낄새가 없네요}{371:2년 전 :  별표 5개  : 국물이 깔끔하게 좋았습니다}{372:3년 전 :  별표 1개  : 소문만 듣고 갔다가... 내가 먹어 본 냉면 중 최악의 냉면.딸은 비빔냉면 나는 물냉면. 물론 메밀 100% 순도를 자랑한다는 순면으로. 녹두전도 하나 추가.소문답게 이미 번호표 뽑아서 대기중인 손님들이 많았다...우리도 번호표 뽑고 날도 더운데 기다리다가 순서가 와서 주문하고 나온 냉면을 먹기 시작했는데 딸의 표정은 '이게 무슨 맛이지??' 나는 '밍밍한 정도가 아니라 무슨 맛인지' 알 수 없어서 자꾸만 먹고 또…}{373:1년 전 :  별표 4개  : 맑은육수 맛있음}{374:1년 전 :  별표 3개  : 다소 밍밍할수 있는맛!}{375:1년 전 :  별표 4개  : 면 육수 둘다 일품}{376:1달 전 :  별표 3개  : 맛있음}{377:1년 전 :  별표 1개  : 말그대로.. 무미건조한 맛?}{378:2년 전 :  별표 1개  : 맛이나 서비스 모두 최악입니다. 절대로 가지마세요.}{379:2년 전 :  별표 2개  : 평냉이 유명해지고 사람 많아진 뒤로는 맛이 변함. ㅠㅠ}{380:2년 전 :  별표 2개  : 메밀 함량에 따른 가격차별화 얄팍하네 .. 냉면은 뭐고 순면은 뭔지}{381:3년 전 :  별표 4개  : 냉면이 맛있는 집 매우 붐벼서 일찍 가야함}{382:1년 전 :  별표 5개  : 평양냉면 깔끔하게 잘하는 집}{383:3년 전 :  별표 3개  : 도심속 깨끗한 냉면에 수육을 덮어 한젓갈 하면 더위가 싹!}{384:1년 전 :  별표 4개  : 담백하니 좋네요}{385:1년 전 :  별표 1개  : 별이 아까움.불친절의 끝장}{386:2년 전 :  별표 5개  : 냉면만 보면 맛있음 돈값 제대로함}{387:3년 전 :  별표 4개  : 평양냉면과 만두 녹두전이 맛있는 곳입니다. }{388:3주 전 :  별표 5개  : 맛!있!다!}{389:2년 전 :  별표 4개  : 슴슴한 맛 같은 가격의 양많이 dh}{390:1년 전 :  별표 4개  : 맛 좋은 평양냉면}{391:2년 전 :  별표 4개  : 심심한맛..좋아하는분은.추천}{392:2년 전 :  별표 1개  : 불친절함이 맛을 삼켜버린다. 맛도 잘 모르겠지만}{393:8달 전 :  별표 4개  : 1군 냉면집}{394:2년 전 :  별표 3개  : 기다린것에 비해 뭐 보통입니다... 만두는 맛있었습니다}{395:3년 전 :  별표 5개  : 평양냉면을 좋아하는사람이라면 꼭가봐야할곳}{396:2년 전 :  별표 5개  : 먹어본 평냉중 육수가 가장 슴슴했던 곳. 하지만 깊고 육중하다.}{397:1년 전 :  별표 5개  : 괜찮은 평양냉면집}{398:2년 전 :  별표 2개  : 평양냉면 맛이 좀 이상했어요.}{399:10달 전 :  별표 5개  : 평양냉면은 단연 이집이죠!!!}{400:3년 전 :  별표 5개  : 맑고 고운 육수가 주는 반전의 깊은 맛 소주를 부르는 육수의 마력! 접시만두는 필요 이상으로 맛있어서 젓가락을 놓치 못하게 만들고! }{401:2년 전 :  별표 5개  : 판교의 능라와 더불어 굿}{402:2년 전 :  별표 4개  : 쫄기한 식감의 평양냉면과 부드러운 제육 반접시}{403:1년 전 :  별표 4개  : 주차어려움. 수육 맛 깔끔.}{404:2년 전 :  별표 4개  : 일요일 저녁 7시에 방문 웨이팅은 없었고 무료주차 1시간 저녁에 방문해서 순면은 없었고 냉면과 녹두전만 가능했음 육향이 많이나는 육수였으며 녹두전이 맛있었음 냉면양이 적게 생각되서 별 하나 제외}{405:2년 전 :  별표 4개  : 냉면 깔금합니다. 만두 부침개도 굿}{406:1년 전 :  별표 5개  : 광명 시절부터 훌륭했다}{407:2년 전 :  별표 5개  : 간간하고 맛난 순면 추천. 만두도 맛있음}{408:11달 전 :  별표 5개  : 평양냉면 1티어.}{409:4년 전 :  별표 4개  : 이전 초기에 불안정한 모습을 보여줬지만 지금은 맛이며 서비스며 모두 안정된 듯. 훌륭한 냉면.}{410:2년 전 :  별표 2개  : 맛이 거의 무미에 가까움}{411:1년 전 :  별표 3개  : 난 평양냉면 왜먹는지 모르겠다}{412:2년 전 :  별표 5개  : 평양냉면 잘해요. 만두는 쏘쏘}{413:2년 전 :  별표 1개  : 가본 식당중 제일 불친절 한곳. 종업원들이 왕인 곳 갈때마다 종업원들 때문에 기분이 상하는곳이라 음식 맛이 좋더라도 다신 가고 싶지 않다}{414:2년 전 :  별표 3개  : 내 입맛이 후져서 그런건지 다른 분에게 넘기고 온 광명 정인이 더 나은듯}{415:1년 전 :  별표 5개  : 양많이 개짱}{416:2년 전 :  별표 2개  : 일단 냉면이 너무 맹맹하고 매우비쌈.. 사람많음}{417:3년 전 :  별표 4개  : 평양냉면 집이라서 그런지 다들 너무 밍밍... 수육도 소스도 모두 그러함... 나는 평양냉면 매니아가 아니라... 패스!}{418:1년 전 :  별표 4개  : 맛은 좋습니다가격이 비싼편입니다}{419:2년 전 :  별표 5개  : 평양냉면 중에서도 밍밍한 편. 처음에 시킬때 양많이를 시키면 면을 두배로 줌}{420:2년 전 :  별표 3개  : 무난합니다. 아쉽게도 평양냉면 찾아먹는 사람들에게 손꼽힐 만한 맛집은 아닌 듯 하지만 근처에서 평양냉면을 먹고싶다면 찾아올 만 할 것 같아요.}{421:2년 전 :  별표 5개  : 내가 가장 좋아하는 평양냉면집}{422:1년 전 :  별표 5개  : 광명보다 좀 더 비싸고 좀 더 맛있는 것 같음}{423:3년 전 :  별표 4개  : 맛있는 평양냉면에 순면이랑 그냥을 고를수있는 것 가격도 다를 유명 평냉집에 비해 저렴 그리고 깔끔한 가게 훌륭합니다}{424:2년 전 :  별표 4개  : 그럭저럭 맛나요. 개성은 좀 없네요.}{425:2년 전 :  별표 5개  : 평양냉면을 좋아하는 분이라면 가볼만한 곳함흥냉면의 물냉면을 좋아하는 분이라면 많이 기대하지 않고 가서 먹는 것이 좋음은은하고 심심한 육수를 평소에 좋아하시는 분이라면 추천할 만한 곳}{426:2년 전 :  별표 4개  : 가성비는 좀.. 여튼 정통 평양 냉면을 맛보고 싶다면~}{427:2년 전 :  별표 4개  : 깔끔한육수맛에깜짝놀랐네요 실내도깔끔했구요}{428:2년 전 :  별표 5개  : 가성비 훌륭한 평양냉면집}{429:1년 전 :  별표 4개  : 개인적으로 슴슴한 평냉 중 밸런스가 가장 좋다고 봅니다. 편육은 조금 퍽퍽합니다만 면이 맛있습니다. 아직 순면은 못먹었습니다. 항상 브레이크타임 끝나고 가면 순면 다 떨어졋더라구요ㅠ}{430:7달 전 :  별표 4개  : 가끔먹으면 맛있음}{431:2년 전 :  별표 4개  : 여자 둘이서 비빔하나랑 만두수육 반접시 먹으니까 딱이네요ㅎㅎ만두는 두부가 있어서 부드럽고 수육이 맛있어요 비빔은 그냥 비빔냉면 맛이고ㅎㅎ양은..적지만ㅎㅎ}{432:3년 전 :  별표 3개  : 육수의 간이 강하다. 여의도에서 평양냉면을 접할 수 있는 유일한 곳. 특별하진 않다.}{433:3년 전 :  별표 4개  : 회사선배들이 추천해줘서 다녀왔습니다. 저는 입맛에 잘맞았어요~}{434:5달 전 :  별표 3개  : 맛나요}{435:1년 전 :  별표 5개  : 순면 12천원. 만두국 10천원. 만두 맛있음.}{436:2년 전 :  별표 5개  : 평양냉면을 맛보신다면 추천}{437:1년 전 :  별표 5개  : 정통의 맛을 느끼고 싶다면 정인면옥}{438:3년 전 :  별표 5개  : 육수는 참 좋은데 면이 살짝 아쉽다. 그래도 여의도에서 이정도 하는 평냉집 없음. 훌륭!}{439:2년 전 :  별표 4개  : 평양냉면순면이아주맛있어요}{440:1년 전 :  별표 5개  : 깔끔하다 최고로}{441:2년 전 :  별표 4개  : 깔끔하고 맛좋은데 줄이 넘나길다}{442:3년 전 :  별표 4개  : 여의도에서는 제일 나은 평양냉면. 여름엔 저녁에도 줄 서서 기다리기 쉬움.}{443:3년 전 :  별표 3개  : 무난한 평양냉면집. 대기줄이 무척 길다}{444:2년 전 :  별표 4개  : 나름 별미의 평양냉면을 제공하는 식당}{445:2년 전 :  별표 5개  : 초보자도 좋아할만한 맛.}{446:1년 전 :  별표 5개  : 여의도 냉면 1등}{447:2년 전 :  별표 5개  : 평양식 냉면의 최고봉!  번호표를 뽑아서 긴 줄을 서야 하지만 그 가치가 보장되는 곳!!!}{448:1년 전 :  별표 3개  : 어째서 맛집인지 모를곳항상 사람은 많다}{449:1년 전 :  별표 4개  : 언제 먹어도 깔끔해요}{450:2년 전 :  별표 5개  : 맛 좋음 대기시간 상당함}{451:2년 전 :  별표 3개  : 점점 기계적인 서비스에 음식은 예전 그대로~~}{452:1년 전 :  별표 1개  : 유쾌하지 않은 분위기에서 식사를 해야하는 곳 굳이 다시 가지는 않을 듯 싶네요.}{453:2년 전 :  별표 4개  : 맛은 있다 그러나 여름엔 12시 전에 가도 30~40분 대기는 기본이다}{454:3년 전 :  별표 3개  : 여의도에 냉면집이 없어서 어차피 선택의 여지가 없음.평양냉면이고 교회때문인지 토요일 휴무. 일요일 문염.}{455:2년 전 :  별표 4개  : 평균이상의 평양냉면 하지만 미지근한 만두}{456:2년 전 :  별표 4개  : 깔끔합니다. 깊은 맛은 조금 없어요}{457:1년 전 :  별표 5개  : 제가 좋아하는 평냉}{458:1년 전 :  별표 5개  : 만두와 순면 냉면 맛집인정}{459:1년 전 :  별표 4개  : 대체적으로 맛은 좋으나 평양냉면은 아직 어렵다}{460:1년 전 :  별표 5개  : 양많이 달라고 하면 추가금없이 가능합니다}{461:1년 전 :  별표 4개  : 심심하게느껴지면서도 맛있어요}{462:1년 전 :  별표 4개  : 평냉중 굿}{463:3년 전 :  별표 4개  : 일단 여의도에선 최고.. 개인적으론 을밀대보다 한수위.  시내 유명면옥에 버금간다고 봄}{464:1년 전 :  별표 3개  : 슴슴한 맛. 아직은 이 맛에 적응이 안되네요.}{465:2년 전 :  별표 5개  : 메밀 순면으로 만든 평양냉면을 비교적 합리적인 가격대로 경험할 수 있는 곳}{466:3년 전 :  별표 5개  : 제가 평양냉면에 눈 뜬곳이죠정말 10번은 먹어야 그 맛을 안다는 ...월 한번은 갈정도로 좋아합니다}{467:3년 전 :  별표 4개  : 난이도가  덜 높은 평냉. 곱배기 주문하면 추가요금 없이 양 많이 먹을 수 있음.}{468:1년 전 :  별표 5개  : 토요일 쉽니다. 면쟁이로써 항상 국물까지 완냉하고 오는 곳.}{469:2년 전 :  별표 4개  : 깔끔한 평양냉면맛. 그렇게 줄서서 기다릴 정도는 아닌데 줄 엄청 깁니다.}{470:1년 전 :  별표 4개  : 평양맹면맛집. 식사시간엔 항상 사람 많아요}{471:3년 전 :  별표 5개  : 깔끔한 육수와 쫀득한 면발. 더 설명이 필요한가요?}{472:2년 전 :  별표 5개  : 평양냉면 물냉면 먹을 수록 진한 맛이 느껴지네요직원들이 무지 친절하구요}{473:2년 전 :  별표 5개  : 물냉면은 언제 다 먹었는지 모르게 끝났고 수육도  부드러워서 맛있습니다.맛의 깊이가 있습니다^^}{474:2년 전 :  별표 4개  : 평양냉면치고 합리적인 가격. 맛도 좋고 양많이로 시키면 성인남자도 배불리 먹을수있음}{475:1년 전 :  별표 1개  : 직원들이 불친절해서 기분 더러웠음.맛도 그닥 좋은지 모르겠어요.}{476:1년 전 :  별표 5개  : 평양냉면 맛집. 손가락안에 들어가는집}{477:2년 전 :  별표 4개  : 이집 냉면 먹을 땐  밍밍한데 먹고 나면 자꾸 생각나요 국물은 생수처럼 말고 투명합니다 그런데 신기하게도 깊은 육수 맛이납니다 면발은 다소 퍼석하며 뚝뚝 끊기는 느낌입니다}{478:2년 전 :  별표 5개  : 심심하지도 과하지도 않은 가장 적당한 맛의 평양 냉면. 해장에 적당}{479:2달 전 :  별표 1개  : 비추입니다}{480:2달 전 :  별표 5개  : 인생맛집}{481:2년 전 :  별표 1개  : 냉면은 그럭저럭. 불고기는 먹을게못됨. 직원들도 서툴고 손님이 많으면 버거워하는게 눈에보임}{482:2년 전 :  별표 4개  : 평양냉면 맛있어요 가까워 해장하러 자주가는집}{483:2년 전 :  별표 1개  : 한껏 기대하고 한시간을 기다렸는데.. 맛 없어요..ㅠㅠ 편육은 비리고 냉면은 밍밍해요 녹두전이 제일 맛남}{484:1년 전 :  별표 4개  : 기대를 많이 했던듯 나쁘진 않다. 가격이 비쌈}{485:8달 전 :  별표 5개  : 최고의 육수!}{486:7달 전 :  별표 5개  : 맛있었음}{487:2년 전 :  별표 4개  : 담백한 전통 평양냉면과 만두를 먹을 수 있는 곳}{488:2년 전 :  별표 2개  : 맛있는데정신없음.포스의 여직원은 오픈 20분만에 이미 신경질적인 목소리.손님들이 주차관련번호표 관련 당연히 물어볼수 있는 내용을 물어보는데도 니가 알아서 하지 왜 물어보냐는 식의 답변.그렇게 안내가 힘들면 제발 좀 안내문을 써 붙이세요!!!! 본인이 신경질내고 본인이 주문 잘못 넣어 더 문제 생기게 하고...원나참. 그것도 정리 못하는건 당신이 일을 못하기 때문입니다~~~}{489:1년 전 :  별표 2개  : 명성에 비해 그닥...}{490:2년 전 :  별표 4개  : 사리추가해서 물냉면 하나 먹고옴. 깔끔한 맛의 냉면}{491:1년 전 :  별표 5개  : 여긴 평안냉면 성지}{492:1년 전 :  별표 1개  : 이거 왜이러세요 사무실이 있는 빌딩에 정인면옥이 있습니다}{493:1년 전 :  별표 3개  : 면이 너무질기고 별로 맛이 없네요}{494:1년 전 :  별표 4개  : 대기가있으나 쪼매만기다리면됨 펀육이맛있음}{495:1년 전 :  별표 4개  : 자극적이지 않은 평양냉면. 호불호가 갈릴듯.}{496:1년 전 :  별표 5개  : 무척 맛있습니다.순면추천.늦게가면 순면떨어짐.}{497:1년 전 :  별표 5개  : 굿 맛나요 맛있어용}{498:2년 전 :  별표 5개  : 평양냉면의 전통을 고수하고 가격도 좋습니다 특별히 친절이 마음을 편안하게 하네요}{499:2년 전 :  별표 5개  : 비빕냉면에 간장 두 방울 넣으면 대박 맛 좋습니다.}{500:1년 전 :  별표 4개  : 면발이 굵고 깔끔}{501:2년 전 :  별표 5개  : 우리집 근처 맛있는 평냉면집 발견!! 깔끔한 국물이 시원합니다.}{502:5달 전 :  별표 3개  : 부천에 분점 낸 뒤로 사장은 보이지 않고맛도 변했다가격 맛 위치 청결도 서비스 모두 만점}{503:1년 전 :  별표 5개  : 여기 좋다. 조용하고 맛있고. 음식 정갈하고.}{504:1년 전 :  별표 4개  : 고기향이 은은하고 간도 적당한 물냉면}{505:1년 전 :  별표 5개  : 냉면 만두 모두 맛있어요 비빔냉면도 맛있어요}{506:3년 전 :  별표 2개  : 지난주에는 광명시장 근처에 있는 정인면옥을 다녀왔고 오늘은 여의도 순복음 교회 앞에 있는 정인 면옥을 다녀왔다.  지난주에는 수육 녹두전 비냉 물냉을 먹었고 오늘은 만두 녹두전 순면 물냉 비냉이다.어째든 이집 냉면은 맛있다. 여러 단점이 많이 있어도 이집 냉면은 맛있다.그렇게 결론이 났다.. 주차장이 불편하더라도 조금 주변 환경이 안좋더라도 광명으로 가야겠다.. 냉면은 별4.5 이지만 기타 음식과…}{507:1년 전 :  별표 4개  : 맛이 깔끔했어요}{508:1년 전 :  별표 5개  : 면발이 살아있는 평양냉면..^^}{509:1년 전 :  별표 1개  : 서비스도 꽝이고 냉면맛은 최악 우액별하나도 아까움}{510:2년 전 :  별표 4개  : 깔끔하니 기본맛에 충실. 더이상은 가격올리면안될듯}{511:2년 전 :  별표 3개  : 깔끔하기는한데 맛은 밍숭맹숭하다 내입맛에 약간은친잘하지못한면도 있고}{512:2년 전 :  별표 3개  : 왜 이렇게 재료 소진이 빨리 되는지... 남은건 평냉인데 을밀대가 조금더 좋은거 같다}{513:1년 전 :  별표 4개  : 평양냉면의 신흥강자}{514:2년 전 :  별표 4개  : 은은한 맛 담백한 맛 깔끔한 맛(자극적인 맛에 지쳤을 때 찾으면?? 아무 맛도 못 느낄 듯). 가격이 좀 비쌈.}{515:1년 전 :  별표 3개  : 기대치 보다는 특별하고 맛있는 맛은 아닌듯 직원분들이 친절하지도 않은듯해요}{516:4달 전 :  별표 3개  : 내입에는  쏘쏘}{517:3년 전 :  별표 4개  : 평양냉면은 괜찮아요. 빈대떡은 비추}{518:2년 전 :  별표 4개  : 맛 좋고 깔끔함 사람이 줄서있어서 먹고 바로 일어나야함}{519:1년 전 :  별표 4개  : 담백한 맛. 평양냉면의 맛.}{520:2년 전 :  별표 3개  : 면이 너무나 딱딱하고 뻣뻣. 순면은 좀 다를라나. 육수는 육향과 간이 적당하고 깔끔함}{521:2년 전 :  별표 4개  : 점심 저녁 손님이 너무 많아요 그만큼 유명한 맛집 입니다}{522:3년 전 :  별표 3개  : 아직 정통 평양냉면은 적응하기 힘듭니다. ㅎㅎ}{523:1년 전 :  별표 4개  : 냉면 만두 녹두전 등이 맛있었습니다. 지하주차장이 있는데 넓지는 않습니다.}{524:1년 전 :  별표 4개  : 냉면 맛있음. 근데 사리 5천원인데 왜 냉면 1만원인지. 사리값 올릴까봐 댓글쓰기 무섭네. 그리고 여긴 녹두전보다 접시만두가 맛남}{525:2년 전 :  별표 5개  : 순면이 좋습니다. 평양냉면 좋아하시는 분이라면 꼭 한번 들러볼 만한 식당입니다. }{526:2년 전 :  별표 3개  : 괜찮은 맛이지만 이런 서비스에 이런 맛이라면 굳이 또 가고 싶지 않습니다.}{527:2년 전 :  별표 5개  : 맑은 육수의진한 맛한 그릇 먹고 나면 행복해지는 기분}{528:1년 전 :  별표 5개  : 점심시간에 갔는데 줄이 어마어마하네요. 평양면옥에서 손꼽힐만 합니다.}{529:3년 전 :  별표 4개  : 여의도뿐만 아니라 국내에선 잘 알려진 평냉맛집. 평양냉면 처음 먹는 사람들도 쉽게 먹을 수 있는 맛입니다.}{530:2년 전 :  별표 4개  : 면이 정말 맛있음다른 평양랭면 보다 간이 살짝 되어있어서그렇게 힘들지 않음}{531:1년 전 :  별표 1개  : 바빠서인지 원래 그러신건지 서빙하는분들이 퉁명스럽고 인상 쓴 모습으로 손님 응대하는 모습이 불편한 식당. 아무리 맛이 있다해도 맛있게 느껴질수 없는 불편한 분위기. 냉면 맛은 흉내만 낸 듯한 맛.}{532:1년 전 :  별표 2개  : 그렇게 맛있는지는 모르겠어요. 판교 능라가 더 나아요}{533:1년 전 :  별표 4개  : 평양식 냉면집주차는.. 전쟁이다깔끔하고 맛있다}{534:2년 전 :  별표 4개  : 초창기보다 양이 적어진 느낌이지만 여전히 과하지 않은 육수와 뚝뚝 끊어지는 면발이 조화로움}{535:4년 전 :  별표 5개  : 주차장은 건물 지하에 할 수 있지만 조금 좁아보입니다. 깨끗하 매장에 직원분들도 친절하시고 특히 냉면 사리가 4000원인데 고기와 달걀을 뺀 똑같은 양의 냉면 한그릇이 더 나옵니다. }{536:2년 전 :  별표 3개  : 생각보다 실망.. 교회앞이라 장사가 잘되서인지. . 냉면 본연의 맛보단.. 그리.. 감흥이 없었다}{537:3년 전 :  별표 3개  : 맛 좋음.  일하는 사람들의 서비스는 그럭저럭.  카운터에 젊은 남자가 있을때가 있는데 그집 주인 아들인지 모르겠지만 매우 불친절함. 그친구는 일 하지 말아야함. }{538:2년 전 :  별표 3개  : 담백한 평양 냉면집. 유명한 곳인데 나에겐 아직 안맞는 듯..그래도 내가 적응됬으면 하는 맛집}{539:2년 전 :  별표 2개  : 냉면 전문점이라고 해서 갔는데 냉면의 맛이 맛이 아니다.  한마디로 외화내빈이다. 두번 다시 찾지 않을 것 같다.}{540:1년 전 :  별표 4개  : 냉면 맛이 좋습니다. 순면은 품절되어 먹어보지 못했는데 더 좋을것 같다는 생각이 듭니다.}{541:2년 전 :  별표 4개  : 주변에 평양냉면집이 없어서 여름엔 대기가 많음 가격이 저렴하지는 않음}{542:2년 전 :  별표 5개  : 평양냉면 처음접해본곳입니다.아직 익숙하지않아요~~~그래도 이곳이 맛집이라고하니맛있는평양냉면을 먹은것같긴해요}{543:1년 전 :  별표 5개  : 입문자도 충분히 좋아할맛}{544:3년 전 :  별표 5개  : 가성비 좋은 평양냉면 맛집. 대기 시간이 길지만 그만큼 맛이 좋다.}{545:1년 전 :  별표 4개  : 수준 높은 평양냉면}{546:1년 전 :  별표 4개  : 맛은 있으나 사람이 많아서 정신없는 분위기}{547:8달 전 :  별표 5개  : 맛있으면...}{548:1년 전 :  별표 4개  : 평양냉면 계의 대기업이 됐으나 맛은 변하지 않았다}{549:2년 전 :  별표 1개  : 1. 육수 : 갈수록 물맛에 가까움. 2. 주인아들 불친절3. 직원들도 마찬가지4. 반찬 김치를 너무 조금줘서 다시 달라하면 벨 4번 눌러야함}{550:1달 전 :  별표 4개  : 먹을만함}{551:1년 전 :  별표 4개  : 깔끔하고 맛있습니다!! 평양냉면중 간이 좀 되어있는 편입니다}{552:1년 전 :  별표 4개  : 비싸긴하지만 맛은 있음 냉면은 별로 안좋아하지만 맛있음}{553:1년 전 :  별표 5개  : 육수 면 훌륭합니다}{554:2년 전 :  별표 2개  : 삶은 면을 물에 담아 낸듯한 맛. 뭐지? 신기하다 혹은 이상하다? 이렇게 유명한건 분명 이유가 있을건데 내가 합류하지를 못해버림.}{555:2년 전 :  별표 4개  : 액간은 색다른 평양냉면이네요 먹을만 합니다}{556:1년 전 :  별표 4개  : 아직도 만원을 유지해주고 있는 고마운 평양냉면집}{557:2년 전 :  별표 5개  : 깔끔한 맛의 평양냉면과 담백한 만두~! :)}{558:2년 전 :  별표 4개  : 개인적으로 평냉보다 비냉이 더 맛있는집평냉은 간이 쫌 있어서 완전 오리지널 밍밍 와중에 감칠맛 평냉을 느끼고 싶다면 살짝 실망할 수도 있지만 깔끔한 인테리어에 사이드메뉴도 맛있어서 계속 찾아가게 되는 집!}{559:9달 전 :  별표 3개  : 난  아직 평양 냉면을 몰라~광명시장 에서 시작하여 여의도 국회의사당 앞까지그리고 미슐랭스타 식당이 된 집}{560:1년 전 :  별표 5개  : 흔들림 없는 맛입니다~ 30분을 기다려서 먹어도 맛있네요^^}{561:9달 전 :  별표 4개  : 냉면은 맛만 확보되면 언제나 옳다!!  완냉성공!!!}{562:1년 전 :  별표 4개  : 국물이 맛있어요 면 빼고}{563:2년 전 :  별표 5개  : 불고기 육수 어울어진.. 순면이 최고!술안주로도 좋아용~ 친절은 기본!}{564:3년 전 :  별표 4개  : 3대 평얀냉면집.. 여의도 순복음교회 근처로 이전한 평양냉면 전문점 입니다.개인적으론 가장 순하고 자극적이지 않은 맛의 평양냉면입니다.}{565:11달 전 :  별표 3개  : 마감할때 갔더니 밥먹는 공간 반 바닦걸레질 하는 공간 반}{566:11달 전 :  별표 4개  : 너~~무너무 맛있는데직원이 불친절해서 별 하나 빼요}{567:1년 전 :  별표 2개  : 평양냉면 씬의 새로운 강자입니다만 여의도로 이전한 이후 가격도 많이 오르고 맛이 들쭉날쭉 합니다.}{568:1년 전 :  별표 4개  : 맛도 좋고 깔끔한 가게. 별네개는 종업원의 친절도 반영.}{569:1년 전 :  별표 4개  : 테이블 많아여 맛은.. 맛잇서요 녹두전}{570:11달 전 :  별표 3개  : 면이 소면 덜익은걸 씹는듯한 식감이라호불호 갈릴듯만두도 얇은피에 부추가 약간씹힘 조금 맛남점심시간 지나면 내쫓는 느낌}{571:1년 전 :  별표 5개  : 제겐 평냉 지존. 심지어 비냉조차 맛나요}{572:8달 전 :  별표 4개  : 평양냉면 좋아}{573:1년 전 :  별표 5개  : 누구나 먹을만한 평양냉면.이 근방에서 제일 맛있는 냉면집}{574:8달 전 :  별표 3개  : 평양냉면 밍밍 그자체ㅋㅋㅋ}{575:1년 전 :  별표 5개  : 평양냉면 맛있어요! 비빔 말고 평양냉면을 드세요}{576:1년 전 :  별표 1개  : 무맛 밍밍평양 물냉 만원콜라천원숭늉따라줌}{577:1년 전 :  별표 2개  : 주입식 교육에 익숙한 사람도 아무리 방송에서 유행해도 미묘한 맛을 아직 못느끼는건 나만의 문제일까? 그런데 밑반찬을 너무 아끼셔서.세번을 추가 주문함.주인이 음식 아끼면 손님도 발길을 아낍니다.느끼한 음식에 김치라도 좀 주시지...}{578:1년 전 :  별표 5개  : 오류동 평양냉면과 함께 서울 서남부권에서 냉면지존입니다.}{579:11달 전 :  별표 2개  : 면이 제가원하던평양냉면면이 아니었음}{580:1년 전 :  별표 5개  : 아주 훌륭한 맛}{581:1년 전 :  별표 5개  : 평일 기준 오전 11:20 쯤 부터 자리가 없습니다. 다른 평양냉면집에 비해 합리적인 가격입니다.}{582:1년 전 :  별표 1개  : 9시주문마감이래서 8시50분까지주문완료했더니...9시05분부터 락스걸레질시작..음식맛은좋으나...락스냄새에..음식을먹는건지...락스바른음식을먹는건지...이해가...안돼는..9시30분 문닫는다면서요?아무리 손님이많이오는곳이래도....그렇게 락스냄새풍기면서 걸레질 할꺼면 그냥 9시에 문닫고하세요그냥!!!!락스에..바람물질있는거아닌가?돈쓰고 락스냄새맡고온느낌?ㅎㅎ더러운기분...}{583:2년 전 :  별표 3개  : 우래옥과 비슷한 맛의 평양냉면 깔끔한 편육 편의점 만두보다 좀 더 맛있는 만두.}{584:1년 전 :  별표 4개  : 음식도 맛있고 직원들도 친절해요}{585:2년 전 :  별표 5개  : 늘 긴줄 친절도는 그닥;;;; 굳굳 맛난 냉면 특히 계속생각나는 물냉 (단 첨에는 밍밍해서 이게모지? 하고ㅈ당황할수있음}{586:1년 전 :  별표 3개  : 함흥냉면이 처음이라 어색함. 맛있는 맛이라기보단 담백한 맛}{587:2년 전 :  별표 3개  : 냉면을 먹고 싶어서 가까운 냉면집을 검색해서 찾아갔다.처음 들어섰을 때 밝은 분위기는 좋았다.바빠서인지 냉면을 시키고 많은 시간을 기다려야했다.(옆 테이블에서 주문하기 시작해서 다 먹을 때까지 우리 냉면은 나오질 않았다)드디어 비빔냉면과 물냉면이 하나씩 나왔다.비빔냉면은 그런대로 맛이 좋았는데 물냉면은 듬듬한 맛이라고나 할까?그냥 면이 구수해서 그런대로 먹었다.2만원을 주고 나오는데 좀 아까왔다.}{588:2년 전 :  별표 4개  : 평양냉면 맛이 제대로 나는 집이네요.  매장도 깔끔해요}{589:1년 전 :  별표 5개  : 육수가 깔끔함냉면면발도 메밀함량이 높아 맛 좋음}{590:1년 전 :  별표 5개  : 미슐렝 이름에 빛나는 최고의 냉면}{591:3년 전 :  별표 5개  : 다른 분의 평처럼 저도 여기 냉면이 가장 부드럽고 깔끔하네요. 정갈합니다. 여의도 점심때 줄이 상당하니 참고하세요.}{592:3년 전 :  별표 3개  : 글쎄....소문보다는 걍 평양냉면집 장충동스타일의 맛과 스타일..편육은 맛있다 ㅋ미쉐린가이드에 나오기엔 더괜찮은 평양냉면집이많은데....평양냉면좋아하시는분들에겐 좋은집 ㅎ}{593:4달 전 :  별표 5개  : 맛있는 평양냉면집 비빔도 맛있음}{594:1년 전 :  별표 5개  : 냉면은 물론이고 아롱사태 수육이 정말 좋음}{595:11달 전 :  별표 2개  : 평양냉면 생각보다 별로군요 그리고 무슨 전 있는데 삼겹살이 들어간거 별로}{596:2년 전 :  별표 5개  : 평양냉면 중에서도 난이도 있는 편. 평양냉면 좋아하는 사람들은 계속 생각나서 찾아오게 될거라 확신함. 100% 순면도 맛있는데 런치타임이 아니면 먹기 힘듦}{597:1년 전 :  별표 4개  : 담백한 평양면옥! 빈대떡에 돼지고기 크기 대박}{598:1년 전 :  별표 4개  : 비냉보다 물냉입니다. 만두 녹두전도 괜찮습니다.}{599:1년 전 :  별표 2개  : 점점 디그레이드되는 평양냉면 맛과 서비스}{600:2년 전 :  별표 1개  : 서비스 최악. 1. 일하는 사람은 많지만 뭔가 정돈 안 된 느낌.2. 앉았을 때 물 or 육수를 안 줘서 달라고 했지만 나올 때까지 안 줬음3. 숟가락을 안 주길래 냉면 나올 때 달라고 요청했더니 벨 누르고 다시 요청하라고 함.4. 벨을 2번 누를 때까지도 종업원이 안 와서 지나가는 종업원을 불러서 겨우 숟가락을 받음5. 숟가락 없이 그릇째 마셔야만 물냉면 육수 본연의 맛을 알 수 있는건가 싶음교회 앞이어서 사람이…}{601:11달 전 :  별표 4개  : 냉면과 돼지고기 수육 맛집 개인적으로는 광명 정인몀옥이 냉면과 녹두전이 더 맛있음}{602:2년 전 :  별표 2개  : 국물 간이 강함 면이 여름 이어서 그런지 맛도 향도 없음 국물과 어울리지도 국물 맛만보면 괜찮은데 평양냉면 같지 않음 면도 탄력 있는데 그게 좋지는 않음 기다리는건 번호표에 방송으로 알려줘서 좋음 면이 겨울에 맛있어 져도 취향 아닐듯 보통가지는 평양냉면 이라기엔 간이 강함}{603:1년 전 :  별표 1개  : 종종 가는 곳인데 불친절하네요. 기분나쁘게 나왔습니다}{604:1년 전 :  별표 5개  : 많이 기다린 만큼 맛도 좋습니다}{605:1년 전 :  별표 4개  : 육수맛 굿굿 다만 순면을 시켰는데 메밀맛이 강하지 않음...}{606:1년 전 :  별표 4개  : 평양냉면의 교과서같은곳. 자극적이지도 싱겁지도 않은 그느낌}{607:1년 전 :  별표 5개  : 물냉면 국물이 끝내줘요}{608:2년 전 :  별표 4개  : 갠적으론 물냉 육수자체가 좀 짱인것 같음둘다 좋긴 좋음 ㅇㅅㅇ}{609:2년 전 :  별표 4개  : 서여의도에서 평양냉면을 맛볼 수 있는 곳. 맛은 그저그렇고 사람이 정말 많으}{610:1년 전 :  별표 4개  : 무난하게 먹을 수 있는 평양냉면. 초보자들도 잘 먹을듯.}{611:2년 전 :  별표 4개  : 확장 이전한 후 사이즈를 제대로 감당하지 못하고 있는 것 같다. 서비스에 구멍이 많은 편... 냉면은 훌륭.}{612:10달 전 :  별표 4개  : 잘먹었습니다~}{613:1년 전 :  별표 2개  : 냉면 시키자마자 20초만에 나옴...그리고 6시 이후에 가니 평양냉면 빼고는아무것도 안됌 근데 앉기전에 말안해주네요...참고하세요}{614:1년 전 :  별표 2개  : 평양냉면 좋아하는 사람만...}{615:1년 전 :  별표 3개  : 광명에 있을때 맛이 그리워 지는...그래도 요즘 맣이 많이 안정화(?)되는것 같음그래도 냉면에 나오는 육수와 추가 육수의 맛차이가 난다는건 쫌!...}{616:1년 전 :  별표 4개  : 깔끔하긴 한데 특색있는 맛은 아님. 여의도에서 평냉을 먹고싶으면 갈만하지만 굳이 찾아가서 먹을 정도는 아닌듯}{617:1년 전 :  별표 5개  : 좋은 재료로 좋은 맛을 내는 냉면집}{618:1년 전 :  별표 4개  : 심심한듯 시원하고 담백한듯</t>
+  </si>
+  <si>
+    <t>짭조름한 육수굵지고 얇지고 않은 면식초를 넣지 않고 먹어야 제맛}{619:11달 전 :  별표 2개  : 평양냉면은 첨이라 맛은 평가하기 그렇지만....서비스는 별로;;;}{620:1년 전 :  별표 4개  : 평양냉면 최보자에게 좋은 곳. 냉면보다 만두맛집인듯}{621:2년 전 :  별표 4개  : 슴슴한 평양냉면은 평양냉면집 중에서도 매우 담백한 편이다. 진한 맛을 선호하는 내 입맛에는 맞지 않아 별 네개. 맛을 느끼기 쉽지 않다.}{622:6달 전 :  별표 2개  : 돈아까운맛}{623:2년 전 :  별표 1개  : 매장에  들어갔는데 고객을  아무도 신경쓰지 않는 분위기에 놀람으로 시작해서 성의없는 서비스와 맛에 두번 놀라고 갑니다. 절대  추천안합니다.}{624:1년 전 :  별표 4개  : 맛있다 하지만 난 광명이 더 생각이 난다}{625:1달 전 :  별표 4개  : 좋아요}{626:1달 전 :  별표 5개  : 존맛ㅠ}{627:1년 전 :  별표 4개  : 가성비 최강의 평냉}{628:2년 전 :  별표 5개  : 필동 을지에 비해 육수는 약간 덜하지만 밸런스로 보면 가장 완벽하다고 생각합니다 순면이 천원밖에 안함... 다만 바쁜 시간 몇몇 이모들 서비스가 안좋습니다}{629:10달 전 :  별표 3개  : 면옥집으로 적극추천~~}{630:1년 전 :  별표 3개  : 담백하거나 혹은 닝닝하거나. 자극적인 냉면을 선호하는 분과는 잘 안맞으실듯. 가격은 최저가 1만원으로 다소 비싸요.}{631:3년 전 :  별표 5개  : 진짜 깔끔한 맛. 고명으로 올라가는 고기가 진짜 부드러움. 냉면 육수 더 달라고 하면 따로 주심. 가격도 적당하고 맛있어서 좋음:)  점심시간에는 직장인 분들로 가득하니 약간 늦게가면 괜찮다. }{632:1년 전 :  별표 4개  : 깔끔하고 냉면 너무 좋아요. 주차와 기다리는 문제가 좀 있네요}{633:3달 전 :  별표 2개  : 두번은 안가고싶어요}{634:10달 전 :  별표 5개  : 냉면이 아주 맛집이네요 ㅎ주차장도 나름 괜찮았음.}{635:2년 전 :  별표 4개  : 가장 좋아하는 맑고 개운한 육수의 평양냉면. 적당히 질감 있고 후두둑 끊기며 넘어가는 메밀면발. 다만 손님 많을 땐 홀서브가 우왕좌왕 하는게 흠.}{636:6달 전 :  별표 3개  : 비냉맛있음만두는별로}{637:2년 전 :  별표 5개  : 만두. 맛 인정! 비빔냉면 맛 인정! 편육. 맛 인정!잠시 살찌는 건 잊어버려도 되는 맛}{638:1년 전 :  별표 4개  : 일단 물랭 양많이! 외쳐주면 양을 두배로 줍니다. 랭면은 그냥 그렇고요.}{639:9달 전 :  별표 4개  : 순면이 먼저다 ㅋㅋㅋ}{640:1년 전 :  별표 3개  : 개인적으로 을밀대가 더 맛있는것 같습니다.}{641:2년 전 :  별표 4개  : 평양냉면을 순면으로 먹고싶다면...줄서도 ㅇㅋㅇㅋ 만두 녹두빈대떡 다 좋아요! 미쉐린가이드 2018  서울편 빕그루망에 올랐죠! 메밀가루 100프로라는 순면은 물냉면이 최고죠! 비빔냉면도 있는데 저는 물냉면이 더 좋아요! 다른 집들처럼 면이 쫄깃하지 않아요! 전분을 넣지 않은 증거죠! 얼음둥둥이나 살얼음 없는 평양냉면 국물도 매력있지요! 그리고 회심의 만두는 직접 빚은 만두인데요! 찐만두는 접시만두와 만두국으로 주문할수 있습니다. 여의도 순복음교회 옆에 위치합니다.}{642:8달 전 :  별표 4개  : 여의도에서  냉면은 선택의 여지가 없다는...}{643:1년 전 :  별표 3개  : 덜하지도 더하지도 않은 평양냉면의 가장 기본적인 맛. 양은 다소 적은듯}{644:1년 전 :  별표 2개  : 왜 유명한지 모르겠음}{645:2년 전 :  별표 4개  : 평양냉면 전문점으로 광명과 여의도에 있다. 평양냉면뿐 아니라 녹두전이 맛있다.녹두전을 추천합니다. 만두는 두부가 많이들어간 것으로 잡에서 빚어 먹는듯한 만두로 평양에서 이렇게 먹는지 궁금해집니다. 오픈시간에 맞춰가면 바로 입장이 가능하지만 조금만 눚으면 대기가 필수더라구요. 기다릴 준비하고가면 속편할거에요.}{646:1년 전 :  별표 5개  : 비빔냉면 맛있어요 지하 주차장은 좁고 많지않음}{647:1년 전 :  별표 4개  : 가볼만 함. 그런데 광명의 정인면옥이 오히려 더 낫다는 오묘한 느낌을 지울 수 없음.}{648:1년 전 :  별표 3개  : 평양냉면을 모르지만... 맛있었다라고 느껴지지 않음. 호불호가 있을듯}{649:1년 전 :  별표 4개  : 크고 깨끗하지만 광명에 있는 예전 점포가 더 맛있는 듯}{650:3년 전 :  별표 4개  : 3년전에 먹었을때는 정말 맹물같았는데 지금은 완전히 자리잡았다. 풍부한육향을 즐길 수 있는 곳. 가격도 다른 유명한 냉면집보다 착하다. 단 일요일엔 사람이 많아서 먹기가 힘들다.}{651:1년 전 :  별표 4개  : 깔끔하지만 고기내음이 잘 스며들어있는 평양냉면. 녹두전은 꼭 먹어야 할 메뉴!}{652:2년 전 :  별표 3개  : 불고기집 후식 냉면 좋아하시면 이 집은 비추.괜히 어설프게 본인이 미식가랍시고 멋진척 하는 친구들은 블로그 한마디 논평하려고 가겠지만 사실 밍밍한 맛의 깊이를 실향민이 아닌 다음에는 느끼며 먹기는 힘들다.그리고 무엇보다 냉면집은 편육을 먹어보면 진짜 고깃국물을 쓴건지 가늠이 되는데 이 집의 편육은 누린내가 심하다.썩 좋은 재료를 썼다고 하긴 힘들다.그래도 서울 유명 냉면집 맛과 비슷하긴 하다.}{653:1년 전 :  별표 4개  : 평양냉면 맛있어요 구수한 국물 깔끔한 면발 평냉집 중에 구수한 편인 듯}{654:3주 전 :  별표 3개  : 소소}{655:8달 전 :  별표 5개  : 평양냉면의 정수를 보여주는 육수와 면}{656:2년 전 :  별표 3개  : 사람이 바글바글하면 손님응대가 다소 꼬인다.심지어 불친절하다. 불러도 안온다. 추가주문해도 쌩무시.비싼돈 주고 이리 무시당해도 되나 싶은 생각이 들음.맛은 괜찮았음. 육수도 괜찮고 면식감도 특징있게 좋았음.하지만 다시 갈 생각 없음.더 맛있는 평양냉면집은 널렸으니깐.}{657:10달 전 :  별표 4개  : Good.  최고 점}{658:2년 전 :  별표 5개  : 순면 아닌 물 1 비빔 1 만두 1 편육 1 먹어보았습니다. 냉면 육수 굉장히 깔끔하고 만두도 맛있습니다. 편육도 매우 괜찮았습니다. 전반적으로 좋은재료를 쓴다는 생각이 듭니다.}{659:2년 전 :  별표 3개  : 너무 밍밍해서 평균적인 한국인 입맛엔 안맞는 것 같습니다. 하지만 면자체도 고급스럽고 건강한 음식이라는 느낌을 받았습니다. 평양냉면 좋아한다면 괜찮아 보입니다.}{660:1달 전 :  별표 3개  : 그냥 그렇다.}{661:1년 전 :  별표 4개  : 평범하게 맛있는 동네 냉면집}{662:6달 전 :  별표 5개  : 평양냉면 맛있어요}{663:9달 전 :  별표 3개  : 비싸긴해도 맛은 나쁘지 않음}{664:2년 전 :  별표 5개  : 평양냉면집. 양많이도 충분하고요. 만두수육같은 부가메뉴도 좋아요. 점심시간에 가면 제법 기다리기는 해야하죠.}{665:9달 전 :  별표 4개  : 겨울이라서 그런지 안기다려서 좋았습니다}{666:1년 전 :  별표 4개  : 평양냉면을 담백하게 잘 만드는 것 같아요! 식당도 크고 깔끔해서 매우 좋아요!}{667:3주 전 :  별표 4개  : 좋아요}{668:1년 전 :  별표 3개  : 가격비쌈.위치좋음.친절하지 않음.미슐랭은 친절도는 평가하지 않는가봄.맛????평범함.가성비 없음.}{669:1년 전 :  별표 1개  : 촌에서 왔는데 영 맛이없네요. 서울사람들은 맛나는지 자리가 없어서 대기번호를  뽑아서 기다리시네요.}{670:2년 전 :  별표 3개  : 광명 정인면옥을 먼저가보고 여기가 더 맛있다하여 왔습니다 기다가 커서 그런지 실망감이 컷습니다녹두전은 무슨 팬케익처럼 같더군요 배는 불렀네요냉면은 뭐 평균적인 맛입니다그래도 순면 메뉴가 있는걸 모르고 시켰는데 순면이었으면 괜찮았을까 싶습니다 일반 냉면의 면은 그냥저냥이었습니다 특별히 여길 다시 찾을 만한 맛은 아닙니다 차는 가져가지 마세요 식당손님을 위한 자리는 없고 대부분 다른 회사 전용 자리여서 주차하기…}{671:2년 전 :  별표 5개  : 맛있음 비냉 짱맛물냉도 짱맛...평양냉면치고 심심하진 않고 ...적당한데짠거좋아하는 분은 입에안맞을수도}{672:1년 전 :  별표 4개  : 훌륭합니다.. 광명시절과는 맛도 퀄도 차원이 다르네요..}{673:10달 전 :  별표 4개  : 깔끔하고 정갈한 맛이 일품}{674:1년 전 :  별표 3개  : 육수의 맛에서 고기맛이 강함. 그냥 그럼}{675:11달 전 :  별표 3개  : 호불호가 강한집 평양냉면이 원래 자극적이지 않지만 우리나라사람 기준으로생각할때 너무심심하지 않나 생각이드나 기본음식은 정말잘한다 미슐랭 받을만한집}{676:1달 전 :  별표 5개  : 평양냉먄 맛집}{677:2년 전 :  별표 4개  : 국물이 진하다기보단 깔끔하네요. 평냉 입문자들에게 좋은 선택이겠네요. 양많이는 가격 추가 없이 주네요}{678:10달 전 :  별표 4개  : 만두국 좋아요}{679:1년 전 :  별표 5개  : 기대하지 않고 방문했는데 생각보다 담백하고 맛있었음}{680:2년 전 :  별표 4개  : 이제 괜찮은 냉면집은 어느 정도 평준화 되었지만 여전히 손에 꼽힐 정도로 맛있다.}{681:2년 전 :  별표 5개  : 손님이 매우 많아 대기시간이 깁니다. 약간 시끄럽고 어수선하지만 직원분들이 열심히 친절히 응대해줍니다.면이 매우 훌륭합니다.  만두도 맛있고 냉면 고명의 편육도 맛있습니다. 모든 음식이 싱겁고 조미료 맛이 안나 먹고나면 개운하고 건강한 느낌이 듭니다.}{682:1년 전 :  별표 5개  : 육향 가득한 평양냉면을 즐길 수 있는 곳.}{683:2년 전 :  별표 4개  : 제대로된 평양냉면집이다 가격은 비싼편이나  여의도 물가가 다 거기서 거기지‥‥ 음식은 적당한시간에 나오고 사람이 많은데도 불구하고 많이 소란스럽지 않다. 점심시간에 갔을때는 대기를 30분정도 하였다.밑반찬도 나쁘지않았다}{684:1년 전 :  별표 5개  : 종업원의 적당한 거리감. 친절하지도 그렇다고 불친절하지도 않은. 맛은 2~3주 정도 계속 생각나는 맛.}{685:2년 전 :  별표 4개  : 먹어본 냉면 중에 제일 시원한 맛임.그냥 물에 면푼 맛이지만 왠지 그게 더 매력임.같이 시킨 녹두빈대떡 만두 수육 중 추천하자면 만두가 제일 나음.}{686:3년 전 :  별표 4개  : 미쉐린 가이드에 소개된 평양냉면집. 냉면과 만두 모두 슴슴한 맛에 먹는 집이다. 여름에는 특히 많이 기다리는 탓에 기다리는 것을 좋아하지 않는 사람은 추천하지 않는다. 편안한 맛에 먹는 냉면인지라 강렬한 맛이 없어 싫어하는 사람도 있는 편이다}{687:1년 전 :  별표 3개  : 생각만큼 별로라는 생각이 들었다. 육수는 고기향이 가득했으나 그 고기향이 인공적이라는 느낌이 들었다.}{688:1년 전 :  별표 5개  : jmt! jmt! jmt에 깨끗하고적당히 친절하고 친구 직장 동료 누구든 데려가도 부담없어요.}{689:2주 전 :  별표 4개  : 굿}{690:7달 전 :  별표 5개  : 아~맛좋다!}{691:5달 전 :  별표 5개  : 넘넘 맛있는 곳!}{692:2년 전 :  별표 4개  : 맛있다. 삼삼한 평양냉면 육수가 일품이다. (봉피양보다 심심한 맛이다)국수에서 메밀향이 나서 특히 맛있다.}{693:1년 전 :  별표 4개  : 평양냉면 호불호 갈리는걸 모르고ㅡ.. 아직잘..}{694:1년 전 :  별표 5개  : 20년만에 진짜 맛있는 녹두전을 먹네요}{695:3년 전 :  별표 5개  : 평양냉면의 기본기가 아주 충실하다}{696:1년 전 :  별표 3개  : 줄서서 먹을정도인지는 잘 모르겠습니다}{697:2년 전 :  별표 2개  : 일단 맛은 있다. 편육도 큰 편이고 고기도 맛있다.. 냉면도 순면이 더 메밀냄새가 진하고 천원 더 비싼 대신에 더 맛있고 하루 정량을 팔기때문에 2시에 갔는데 순면 다 팔렸다고 한다. 평양냉면도 맛은 있었다..  그런데 직원 아주머니분들이 매우 불친절하시다. 오늘 있었던 일인데 물과 면수를 가져다 주시지 않으시길래 갖다달라고 벨을 누르고 기다렸는데 아주머니가 오시지도 않고 저 멀리서 주문을 받으신다. 사람도 별로…}{698:2년 전 :  별표 5개  : 을밀대를 뛰어넘는 맛과 깔끔한 인테리어 그리고 편리한 주차까지...만족스런 곳입니다. 특히나 면수가 담백하면서도 잊을수 없는 뒷맛이 일품입니다.}{699:1년 전 :  별표 5개  : 개인적으로 자극적이지 않아서 좋았어요. 만두도 맛있었고요. 입맛에 따라 심심하다고 하실 수도 있고요.}{700:2년 전 :  별표 4개  : 면이 굳은 느낌으로 나왔지만 냉면국물 맛났고 접시만두도 맛났어요. 또 와서 다른 것도 먹어볼 거예요. 종업원 분들은 친절했는데 전체적으로 느리다는 느낌은 받았어요.}{701:2년 전 :  별표 4개  : 평양냉면 입문자들에게 아주 좋은거 같습니다. 다른 곳과는 달리 고구육수 향이 진하게 느껴지는 맑은육수 입니다~ 여기는 일반 평양냉면순면이 있는데 순면은 메밀함량이 높은 면으로 인기가 많아 오후 2시쯤 방문하였을때는 이미 매진이었어요ㅠㅠ만두도 매진... 아롱사태수육은 다른 말이 필요없습니다. 굿!!!}{702:2년 전 :  별표 5개  : 슴슴하니 맛있네요~ 만두소도 튼실합니다:)}{703:11달 전 :  별표 4개  : 주차장이 만차일 때가 많습니다..}{704:2년 전 :  별표 5개  : 여의도 순복음교회 맞은편에 있는 평양냉면 집이다.마땅한 냉면집이 없는 여의도에 유일한 평양식 냉면 맛집이다.TV 유명프로그램에 나온 후로 더욱 붐비는데 점심시간에는 30분정도 기다려야 한다. 평양식이지만 메밀 삶는 향이 약하고 육수가 담백해 평양냉면을 처음 접하는 사람에게 거부감이 적다. 돼지고기가 씹히는 녹두전과 함께 먹으면 좋다.건물지하 주차장 이용}{705:1년 전 :  별표 4개  : 잘 알고 계시는 평양냉면입니다. 2년 연속 미슐랭이나 밋밋한 맛이 별로라면 패스하시길. 비빔 냉면은 꽤 맵습니다.}{706:1년 전 :  별표 4개  : 평일 점심 만두국만 두 번 먹었는데 맛있어요. 줄서서 기다린 보람이 있었어요.}{707:10달 전 :  별표 5개  : 서울에사 제일 맛있는 집}{708:1년 전 :  별표 5개  : 물냉호불호가 갈리지만 시원하고 맛있다. 중독성있는맛.}{709:1년 전 :  별표 4개  : 좋은 가격에 평양냉면을 접하기 좋은 곳이다.}{710:3년 전 :  별표 5개  : 광명과는 또다른. 깨끗한 육수. 깊은 맛. 상대적으로 만두 녹두전은 아쉬운 맛.}{711:1년 전 :  별표 4개  : 일요일 저녁에가니 만두가없네요ㅜ그래도맛있어요 최고!}{712:1년 전 :  별표 3개  : 일반 평양냉면집이네요. 깔끔하고 회전도 금방되어서 오래 기다리지 않지만 다른 평양냉면집 대비 어떤 점이 좋아서 미슐랭 별을 받았는지는 잘 모르겠음}{713:1년 전 :  별표 5개  : 오..메밀순면 아주 뒷맛이 깔끔해요..만두도 속이 꽉 차서..만두소가 죻앗어요}{714:11달 전 :  별표 5개  : 깔끔한 평양냉면을 먹을 수 있다}{715:2년 전 :  별표 3개  : 특별한 맛은 아니다즐겨 먹을 수 있는 맛비빔냉면을 먹을때 물냉면 육수좀 먹어보고싶다고하니 따로 준비해주셨다}{716:1년 전 :  별표 4개  : 광명시장에 있을때보단 질이 떨어진 느낌이지만 아직도 개인적 서울 평냉집 탑텐안에 들어감. 순면이 예전 같지가 않아 아쉬움 . 참고로 지인이 인수받은 광명시장 정인면옥이 육향이 더 강해지면서 여의도 본점보다 더 맛날때가 있음}{717:1년 전 :  별표 5개  : 그냥 정말 맛있는.... 그리고 다른 평랭집보단 조금 저렴한 곳. 양많이 달라고하면 곱배기 비용 추가없이 딱 두배로 줍니다.}{718:2년 전 :  별표 4개  : 기존 냉면과는 다른 면입니다. 익숙치않으신분들은 별루라구 하실지도...}{719:1년 전 :  별표 3개  : 평양냉면싫어하는사람은 비추 맛이 삼삼하고 서비스좋음}{720:1년 전 :  별표 1개  : 냉면맛은 깔끔하나 더운 여름인데 밖에서 대기하라고 강요하는 몹쓸놈의 식당...꼭 가야하지 않는다면 안가는게 좋은곳}{721:10달 전 :  별표 5개  : 미쉐린 빕구르망에 빛나는 맛집}{722:1년 전 :  별표 3개  : 무난한 맛의 평양 냉면.딱히 인기 있는 이유는 모르겠네요.}{723:1년 전 :  별표 3개  : 음식은 깔끔하고 만두국이나 수육 모두 평범한 맛. 평양냉면은 맛이 좀 진해서 평냉부심 부리는 사람들한테는 안좋을 맛. 식당이 깔끔해 간단하게 식사나 술한잔 하기에는 나쁘지 않음. 그렇다고 미슐랭 운운할만한 집은 아님.}{724:1년 전 :  별표 4개  : 깔끔허게 시원한 평냉 한 그릇 하기 딱 좋다 가격도 적당하고 말이지}{725:9달 전 :  별표 4개  : 2019 미쉐린 맛집이라 와이프와 갔는데 평양냉면이 맛있었습니다~}{726:10달 전 :  별표 5개  : 냉면이 맛있어요 &lt;U+11A2&gt;만두도 밋있어요}{727:1년 전 :  별표 5개  : 여의도로 오기 전부터 참 좋아하던 냉면 입니다. 여전히 맛있네요. 순면 12000원 입니다.}{728:1년 전 :  별표 3개  : 친절합니다.다만 평양냉면이 이런 맛인가 싶을 정도로 맛을 잘 모르겠다 싶더군요.솔직히 처음 먹어보는 것이라 다른 곳과 비교도 할 수 없고..저한테는 안 맞았습니다만..모르지요. 다른 사람들은 맛있을지도..별3개는 친절해서 붙입니다.맛은 다른 분의 의견을 보세요.}{729:1년 전 :  별표 4개  : 서울에서 가장 자주가는 평냉집 중 하나인데 사람이 정말정말 많을 때는 맛이 살짝 흔들리기도 한다. 하지만 맛있다는 건 부정할 수 없는 집.}{730:2달 전 :  별표 5개  : 깔끔해요}{731:1년 전 :  별표 5개  : 사람이 많이 줄서야하는것 빼고는 훌륭한 맛.}{732:2년 전 :  별표 3개  : 웨이팅을 견디고 먹기에는 조금 아쉬운맛. 평양냉면 메뉴 자체의 밋밋한 맛이라는 특수성을 제외하고도 주말을 마무리하는 일요일 저녁시간 30여분 웨이팅을 커버할만큼의 맛을 충족시키지 못함.사이드메뉴 녹두전과 편육은 큰 실망. 돈이 아까웠다는 표현은 왠만하면 하기싫은데... 출입문 앞에 미슐랭 2년연속 스티커가  눈앞에 아른거려서 남김..전반적인 주/부메뉴가 오히려 미슐랭이 없는곳보다 한참 뒤쳐진 집이 아닌가 싶음.}{733:1년 전 :  별표 5개  : 냉면 국물이 맑고 시원해서 좋았습니다 중독 될겁니다! 한 번 먹어본사람은 계속 찾을겁니다}{734:3달 전 :  별표 5개  : 신흥 평냉 강자}{735:1년 전 :  별표 4개  : 최악의 불친절 최고의 맛}{736:6달 전 :  별표 4개  : 괜춘.비빔도 덜자극적}{737:1년 전 :  별표 4개  : 아이들은 만두국을 제일 좋아하고 저는 비빔냉면이 더 맛있었어요. 녹두전 간도 약하니 슴슴합니다. 외국인들에게 강추}{738:1년 전 :  별표 4개  : 순면 보다는 일반이 나은ㆍ ㆍ ㆍ육수가 전보다 살짝 달게 느껴지는}{739:2달 전 :  별표 4개  : 맛있네요}{740:11달 전 :  별표 1개  : 종업원 바쁘다고 주문받는 데 짜증에 남은 만두 포장 안 된다며 짜증에 지나가는 종업원 부르자 벨 누르라며 짜증에 최악의 식사 경험. 아무리 맛집이라도 다시는 안 감.}{741:8달 전 :  별표 4개  : 만둣국 맛있고 냉면도 처음엔 심심했는데 먹다보니 맛있네요}{742:1년 전 :  별표 5개  : 불고기와 평양비냉을 먹고싶어서 찾은 집인데 미쉐린이었네요!! 주차는 상가에 하면되요.1층에 번호표가있으니 빛의속도로 반호표를 뽑고기다리면 마이크로 번호를불러줍니다1~2인은 번호순으로3인이상은 200번대로 차이를두어 불러요냉면회전율이좋다보니 금방금방 번호부르니 너무 대기가 많다고 걱정안해도될거같습니다제가시킨메뉴는불고기 + 비냉!불고기는 버섯과 고기가 끝이에요~ 야채가조금다있으면좋겠지만..But 맛은…}{743:1년 전 :  별표 5개  : 평양냉면집 깔끔한맛 점심시간은 대기표 뽑고 한참 기다려야하니 30분 일찍 혹은 30분 늦게 방문하는것 추천}{744:1년 전 :  별표 1개  : 맛을 떠나서 직원이 너무 싸가지 없어서 다시는 안갑니다 물론 맛도 별로엿구요}{745:5달 전 :  별표 4개  : 슴슴한 평양냉면 그자체}{746:1년 전 :  별표 4개  : 평양냉면은 기대한 만큼을 충족시켜줬고 만두국이 대박! 깔끔한 국물에 담백한 만두속! 먹고난 후 기분좋은 포만감과 깔끔함이 여운남는다.}{747:1년 전 :  별표 3개  : 유명하긴 한데 왜인지 잘 모르겠는 적절한 맛.}{748:2년 전 :  별표 4개  : 을밀대나 우래옥 처럼 이집만의 육수 맛이 있음. 만두보다는 녹두전을 추천.}{749:1년 전 :  별표 2개  : 처음 평양물냉면을 먹어보았고 배가부른상태에서 왔는데 평소에 MSG맛에 길들여진 나로써는 평양냉면이 원래 삼삼하다는걸 알고 있어도.. 무슨 맛으로 먹는건지 모르겠다. 개인차가 있는듯하다.}{750:1년 전 :  별표 3개  : 여의도에서 그나마 중간 이상 맛으로 먹을 수 있는 평양냉면}{751:1년 전 :  별표 4개  : 순면으로 먹었는데 깔끔하지만밍밍하지도 않은 감칠맛이 일품.다른 평양냉면집 비해 가성비가 좋음.}{752:11달 전 :  별표 5개  : 필동면옥만큼 맛있었어요. (원래 필동이 최애 평냉집임)}{753:1달 전 :  별표 4개  : 심심한 맛이 좋았어요}{754:2년 전 :  별표 4개  : 평양냉면 처음먹어봤는데 국물에 육향이 은은한듯 깊게 배어있어서 정말 놀라웠습니다. 고명으로 올라간 소고기 또한 면과 같이먹기에 아주 훌륭했고요. 직원분들 다 친절하시고 좋았습니다.}{755:2달 전 :  별표 5개  : 늘 맛깔나는 평양냉면}{756:2년 전 :  별표 4개  : 어의도 정인면옥은 오류동 평양냉면 계열로 광명에서 시작해서 광명은 친구에게 넘기고 여의도 순복음교회 건너편에 자리를 잡았다.이곳 육수는 우래옥처럼 아주 강하지 않고 장충동 평양면옥 처럼 아주 약하지 않은 중간정도의 맛이라 생각된다.은은한 육향이 알맞게 스며들어 있어 가벼우면서도 깊은 맛을 느낄 수 있어 평양냉면 입문하기에 더없이 좋은 곳이라 말하고 싶다.아쉽게도 순면이 다 팔려 맛을 못보았지만 기본 면만으로도 메밀의…}{757:1년 전 :  별표 4개  : 가히 서남권 최고의 평양냉면 강자로 불릴만한 집. 토요일 휴무. 토요일 휴무. 토요일 휴무. 토요일 휴무. 토요일 휴무. 토요일 휴무. ㅠㅠㅠㅠ}{758:10달 전 :  별표 2개  : 면이 너무 별로였어요 서비스는 좋습니다}{759:1년 전 :  별표 5개  : 요새 서울에서 잘 나가는 평양면옥집들 중 개인적으로 필동면옥 진미평양면옥과 함께 최고로 꼽는집. 어떤 집들은 냉면을 처음 받고나서 육수맛과 먹다가 메밀면이 풀어지면서 메밀 향이 섞여나는 육수맛이 달라지는데 여긴 면 맛은 면 맛대로 육수 맛은 육수맛대로 잘 섞이지 않고 그대로라서 먹다가도 잘 물리지 않는듯}{760:1년 전 :  별표 3개  : 글쎄요... 평양냉면이 보통 냉면의 감칠맛과 새콤함을 기대하기 힘들어요. 비빔냉면은 비빔국수 같았고 물냉면은 차가운 갈비탕 국물에 면 말아먹는 느낌이에요. 개인적으로 실 같이 얇은 면을 좋아하는 편이라 정인면옥은 저에게 특별한 맛은 아니었네요ㅎㅎ 하나 좋은 맛을 꼽자면 계란이 갓 삶은 것처럼 노른자는 부드럽고 흰자는 촉촉하니 뭔가 삶을 때 비법이 있는 느낌이었네요 ㅎㅎ 가성비로 따지면.. 만원주고 먹을 맛은 아니었네요.}{761:3년 전 :  별표 4개  : 날이 많이 따뜻해졌나보다. 평양냉면집에 사람이 붐비니 말이다. 여전히 정갈하게 내어주는 육수에 슴슴한 김치를 한 점 얹어 먹으니 맛이 딱 떨어진다}{762:3년 전 :  별표 5개  : 굵기가 다른 평냉... 맛있다 다른집 평냉은 왜 더 비싼가?p.s 6월14일 방문시 면발은 일반적이었슴... 날마다 조금씩 다른 이유가 뭘까?}{763:1달 전 :  별표 4개  : 뭐야 다 어디갔어}{764:10달 전 :  별표 5개  : 만두 직접 빚으시는건가봐요 맛있어요}{765:9달 전 :  별표 5개  : 육수맛이 깊고 깔끔해서 맛있어요}{766:1년 전 :  별표 3개  : '정갈하고 맛있다'라는 리뷰들이 많아서 기대하고 갔건만 냉면집인데 고깃집인 삼원가든 식후 평양냉면보다 맛이 없게 느껴지는 이유는 ㅜㅜ순면 녹두전 만두를 시켰는데기본적으로 모든 음식이 죄다 간이 약하게 나온다(심지어 밑반찬들마저도)슴슴하다고 표현하는 맛이 싱겁다는 뜻인건가?(음식의 기본은 간이라고 알고 있건만...)아니면 죄다 나트륨 적게 먹는 분들의 성지인건가?간을 못 맞춘(?)걸 빼면 만두도 잘 빚어졌고 녹두전도 나쁘지 않다.음식 나르는 카트가 쭈욱 굴러가서 앉은 손님의 의자 뒤를 때려도 아무도 사과하지 않는 것도 참 그렇던데...(그 손님이 보살)}{767:1년 전 :  별표 4개  : 12000원 가격대 훌륭한 냉면집. 순면 추천. 단 시간은 일반 냉면보다 오래걸린다}{768:10달 전 :  별표 4개  : 굵은 면의 평양냉면. 간장의 풍미가 특별한 육수.}{769:10달 전 :  별표 4개  : 국회 근처에 있는 심심한 평양냉면 집. 불고기도 괜찮음. 깨끗함.}{770:10달 전 :  별표 3개  : 맛있다. 반찬도 심심한편.하지만 능라도가 더욱 맛있는 느낌이다.}{771:1년 전 :  별표 1개  : 유명한 맛집이라해서 두번 가서 물냉과 비냉 만두를 먹었는데 솔직히 너무 맛이 없어서 왜 맛집으로 유명한지 고개가 갸웅뚱 ...}{772:1년 전 :  별표 5개  : 미슐랭 깨끗하고 정갈함}{773:1년 전 :  별표 3개  : 맛은 평양냉면 맛집 중 무난한 수준. 만두는 빈대떡 만드는 속이랑 똑같은 것 같음.}{774:1년 전 :  별표 5개  : 맑지만 진한국물의 평양냉면한강공원근처에 자주가고싶은 식당만두는 호불호가 있을수 있음.}{775:11달 전 :  별표 4개  : 여의도 냉면 최강자. 슴슴한 육수의 불고기도 은근한 별미}{776:7달 전 :  별표 5개  : 냉면을 별로 좋아하지 않는데 이곳은 맛있네요}{777:10달 전 :  별표 5개  : 정갈하고.. 건너편 순복음 교회사람들만 피하면 됨}{778:1년 전 :  별표 5개  : 착한 가게인것 같아요. 다른 유명한 냉면집에 비해서 맛이 비슷하거나 조금 나은데도 가격이 저렴하고 양이 넉넉하다.}{779:2년 전 :  별표 5개  : 고난이도 평냉. 거의 무미(無味)에 가까울 정도로 담백한 육수. 몇번 먹다보면 진짜 맛있다. 수육은 별로:)}{780:2달 전 :  별표 4개  : 맛있는 왕만두국}{781:1년 전 :  별표 4개  : 너무 늦게가서 편육이 없었지만 내가 먹어본 평양냉면중에 제일 맛있었어요ㅠㅠ}{782:3달 전 :  별표 3개  : 만두가 맛있어요}{783:1년 전 :  별표 4개  : 여의도 냉면맛집...정인면옥만의 면발과 육수가 맛있습니다 점심시간엔 주변 직장인 이 많아 피하시는게 좋습니다}{784:11달 전 :  별표 5개  : 평양냉면 맛있어요 양많이를 해도 가격은 동일하네요ㅁ}{785:6달 전 :  별표 5개  : 평냉 좀 먹어본 제 입장에서 말하자면이집 아주 훌륭합니다}{786:7달 전 :  별표 1개  : 밍밍..김치마저도 밍밍...하...나랑절대로 친해질 수 없는 평양냉면...정말  다 밍숭생숭한 맛..}{787:1년 전 :  별표 4개  : 깔끔한 맛  가게 내부 깨끗함  서비스 평균 ( 일에 지쳐서 그런지 사장님 외엔 웃지를 않으심 )}{788:2년 전 :  별표 3개  : 뭔가 전반적으로 정리되지 않는 분위기. 냉면 맛은 무난하다. 1시 조금 넘은 시간에 방문했는데 되는 메뉴가 많이 없어서 조금 놀람.}{789:6달 전 :  별표 5개  : 음 쩔어}{790:9달 전 :  별표 5개  : 추워지면 생각나는 맛^^}{791:3달 전 :  별표 3개  : 냉면보다만두가 기가막힘}{792:1년 전 :  별표 1개  : 순면시켰는데 기다리기만하다 나왔네요.중간에 메뉴누락 체크부탁해도 순면이라 늦다고만하고..일행이 다 먹고 같이 기다리도록 못나올 상황이면 미리 안내를 해야죠.결국 순면은 취소하고 나왔습니다.}{793:3달 전 :  별표 2개  : 국물이 호불호가 있을 것 같네요}{794:1년 전 :  별표 4개  : 메쉐린가이드에 선정된 평양냉면은 육수가 물같이 맑은 업소가 많이 선정되는듯하다. 이곳과 비슷한 곳이 역시 미쉐린가이드에 선정된 강남의 진미평양냉면 정도 인것 같다. 두 가게를 비교하면 개인적으로 평양냉면은 우열을 가리긴 어려우나 만두는 확실히 진미가 나은듯.  또한 정인면옥의 단점은 주차가 어렵다는 점}{795:11달 전 :  별표 4개  : 물냉면과 만두가 맛있는 여의도 순복음교회 맞은편에 있는 냉면 전문점}{796:7달 전 :  별표 5개  : 냉면과 녹두전 만두가 맛있어요}{797:1년 전 :  별표 4개  : 면이 다른집면보다 굵은편. 맛있고 좋았습니다. 일부러는 안가도 근처가면 고민없이 먹을듯한 곳입니다.  (광명과 다른 곳)}{798:6달 전 :  별표 5개  : 의정부식? 깔끔한 육수. 맛있음...}{799:1달 전 :  별표 5개  : 맛있습니다. 만두국도요}{800:1년 전 :  별표 3개  : 여의도순복음교회 맞은편에 있어서 토요일에 쉬고 일요일에 영업을 하는데 점심시간에 자리가 만석이 된다.  그런데 소문만큼 맛은 그리 좋지 않다. 냉면도 어디서 맛 볼 수 있는 평범한 맛이고 다만 수육이 부드럽고 연하니 맛있었다. 녹두 빈대떡은 뜬금없이 삼겹살 세점이 올려졌는데 고기냄새가 훅 올라와 식욕을 떨쳐낸다. 만두는 속이 꽉차서 맛있다}{801:2주 전 :  별표 5개  : 맛있어요}{802:1년 전 :  별표 4개  : 돼지수육 비계부분이 쫄깃쫄깃 삶는기술이 좋으신듯해요. 녹두전도 맛있고 순면이 있고 일반 평양냉면이 있는데 쫄깃한 식감은 확실이 일반냉면 더 좋네요. 저는 순면이 입에 맞았어요. 순면이라고 너무퍼석거리고 그러지않아요.  만두도 숙주랑 두부가 많이 들어있어 담백하니 맛있었어요. 다만 열무김치 리필하는데 그릇 던지듯  놓고 불러도 대답  없네요. 사장님 뭐 그래도 사람 줄서서 먹는 집이라 걱정없긴하실텐데 기왕이면 맛있는거 먹고 기분좋은 마음으로 나갈수있게 직원교육에 신경한번써주시길 의견내봅니다.맛은 좋았습니다!}{803:6달 전 :  별표 4개  : 냉면과 만두전골 유명한 곳}{804:8달 전 :  별표 3개  : 비빔냉면 비추입니다. 면이 퍼져서 양념을 금방 흡수해 버리니 뻑뻑하고 텁텁합니다. 물냉면 전문점이라 그런가 짐작해 봅니다.}{805:1년 전 :  별표 4개  : 여의도에 있는 평양냉면 맛집으로 1972년부터 영업을 시작해서 꽤 역사가 있는(?) 가게입니다.순면과 일반평양냉면으로 주문할 수 있고 순면의 경우에는 메밀 100%를 사용한 면이라 맛이 조금 다르다고 합니다.처음 주문할때 '면많이'로 주문하면 기본 면 두덩어리를 넣어서 주시기때문에 양이 부족하신분들은 '면많이'로 주문하시면 좋을 것 같습니다.육수가 부족하면 요청 시 리필해주는점도 좋았습니다.평양냉면의 맛은 전체적으로…}{806:1년 전 :  별표 5개  : 리뷰보고 걱정했는데 생각보다 내 기준에 평양냉면스럽게 잘 먹었습니다~ 암퇘지수육은 추천하기 어렵고 빈대떡이랑 만두는 같이 먹기 좋습니다~ 가격은 비싸지만 순면이 메밀향이라고 해야하나..면의 풍미가 일반 면보단 잘 살아나서 좋았구요~ 아마 평점에는 순면기준 12000원 일반 냉면 10000원이라는 가격이 반영되어진 것 같습니다~ 가격 말고는 전반적으로 만족스러웠던 저녁이었습니다~}{807:3달 전 :  별표 5개  : 여의도 1등 평양냉면}{808:9달 전 :  별표 5개  : 순면 최고평양냉면 베스트중 한곳}{809:8달 전 :  별표 4개  : 조미료 전혀 없는 맛이네요. 실제로 썼는지 않썼는지는 모르겠지만 제가 느끼기에는 안쓴거 같아요. 일반적 냉면 생각하셨다면 조금 심심하다 할수도 있을듯해요}{810:1달 전 :  별표 2개  : 그냥 그럭저럭..}{811:5달 전 :  별표 3개  : 기대안하고 가면 맛있다.}{812:2달 전 :  별표 3개  : 내겐 너무 밋밋함 평양냉면}{813:10달 전 :  별표 5개  : 깔끔한 평양냉면 맛. 면을 먹을때 은은하게 나는 고기향이 좋네요 평양냉면 입문자에게 추천!!!}{814:10달 전 :  별표 3개  : 가격대비론 좋네요. 많이 달라하면 많이 주고요. 가격 안따지면 우래옥이나 남포면옥이 좋은듯요.}{815:6달 전 :  별표 4개  : 많이 건강한 맛이였습니당}{816:2달 전 :  별표 4개  : 깨끗하고 밋있었습니다.&lt;U+0001F647&gt;&lt;U+200D&gt;♂&lt;U+FE0F&gt;&lt;U+0001F60D&gt;&lt;U+0001F917&gt;&lt;U+0001F970&gt;&lt;U+0001F64F&gt;}{817:1달 전 :  별표 5개  : 말해뭐해ㅠ더워도 기다렸다 먹어야함 ㅠㅠ}{818:2년 전 :  별표 5개  : 소위 말하는 3세대 냉면집중 가성비가 가장 좋은 집입니다. 육수에만 한정하자면 가장 훌륭한 집이 아닌가 싶기도 하고요. 광명에 있을때보다는 조금 더 대중적인 입맛을 겨냥한데 아닐까 생각도 들지만 그게 꼭 나쁜것 만은 아니겠자요. 가급적이면 번잡스러운 시간대는 피하시길...}{819:1년 전 :  별표 5개  : 나에게는 세손가락 안에드는 평냉집. 구수한 육수와 맛난 만두로 매주 가도 즐거운 가게! 평냉 초보자라면 입문하기 좋은 가게!}{820:1년 전 :  별표 5개  : 정인면옥에서 평양냉면을 맛을 보았습니다. 정갈하고 깔끔하고 자극적이지 않아 좋았어요.만두는 너무 크고 속고 꽉 차 있고 편육은 부드럽고 오돌뼈가 오독오곡 씹히니 식감도 좋았습니다. 녹두전은 바삭해서 과자같은 식감을 주었어요}{821:2년 전 :  별표 5개  : 평양냉면 전문점 중 육수맛은 가장 깔끔한 곳.냉면 위의 고기도 맛있다.다른 평양냉면집에  비해 면은 좀 질긴 편이었으나 순면이 메뉴판에  있는걸로 봐서 쫄깃함이 이 집의 특징인듯하다.양많이 라고 하면 양이 많게 나오니 주문시 참고하세요!주차가능.}{822:2년 전 :  별표 5개  : 물보다 더 시원한 국물은 깔끔 담백.번호표를 받아 기다려 먹는 가치가 충분하다.}{823:2달 전 :  별표 5개  : 언제나 만족합니다}{824:11달 전 :  별표 5개  : 깨끗하고 맑은 맛.""와 맛있다!"" 보다는 ""정갈하다~""가 어울린다.깔끔한 음식 좋아하는 분들 추천}{825:9달 전 :  별표 4개  : 맹숭맹숭한 물냉면 양많이에 만두 반접시 즐거운 정담 참 좋네요}{826:1년 전 :  별표 4개  : 식초조금 넣으면 담백한맛이납니다 순면추천이요수육제육은 걍그래요}{827:11달 전 :  별표 4개  : 국물이 깔끔하고 시원하며 직원분들이 친절하시다. 면도 쫄깃하니 맛있으며 다른 평양냉면집들보다 면발이 두툼해서 독특한 매력이 있다}{828:8달 전 :  별표 5개  : 냉면이 깔끔하게 맛있습니다. 냉면과 함께 전까지 먹으면 금상첨화입니다!}{829:8달 전 :  별표 3개  : 내가 전혀 모르고 있던 냉면이었어요 비냉 비추 온냉 그냥 물냉 강추 입니다}{830:2년 전 :  별표 4개  : 미슐랭가이드에 소개된 평양냉면 맛집.평양냉면 기준 상대적으로 저렴한 가격 9000원에 판매.녹두지짐과 만두도 맛있다}{831:7달 전 :  별표 3개  : 평양냉면 많이 안먹어본 비기너한테는 꽤 괜찮은 평냉}{832:3달 전 :  별표 4개  : 맛 만큼이나 대기줄도 길어요}{833:1년 전 :  별표 4개  : 일요일 12시방문.교회때문에 그런지 대기 앞에 12팀.편육 반접시.만두 반접시.순면 물 1개평양 물 2개주문.음식 제공시간 10-15분.만두는 간이 좀 약해서 간장 넣어 먹으면 딱이고.편육은 새우젓 겉들이면 딱.냉면은 식초 5cc + 겨자 1g이면 딱임.난 좋았는데 일행은 육향이 조금 비렸다고 함. 난 대만족}{834:3달 전 :  별표 4개  : 대부분의 음식들 문안하게 맛있지만 개인적으로 면의 식감이나 냉면육수 등이 평양냉면집 중에 탑클래스라고 하기에는 다소 부족한 듯 하네요.}{835:5달 전 :  별표 4개  : 어린이 입맛을 갖고 있는 사람에게는 비추임. 만두는 괜찮았음}{836:1년 전 :  별표 5개  : 요즘 같은 물가에 평양냉면을 10000원에 팔고 있어서 일단 가격면에서 만족합니다. 그리고 맛도 면이 쫄깃하고 육수역시 진해서 좋습니다. 육수는 리필도 잘 해주시구요. 만족했습니다.}{837:1년 전 :  별표 5개  : 정기적으로 가게 되는 곳. 거품없는 가격 부담없는 분위기. 전혀 부담없지 않은 깊은 맛. 가장 맛있는 집ㅇ라기보다 가성비 대한민국 최고인 맛집. 우x옥 을x면옥 봉x양은 멀고 비싸서 안가도 여긴 그냥 자연스럽게 가게 되는 곳.}{838:1달 전 :  별표 1개  : 맛이 밍밍 맹탕 맛}{839:2달 전 :  별표 5개  : 맛있음 사람 많아서 걱정은 좀 되지만.}{840:4달 전 :  별표 3개  : 주말에는  복잡하다  번호표 받고  기다린다깨끗하고  저갈 하다  맛있고 친절하다좀 비싼 거 같아요}{841:8달 전 :  별표 4개  : 평양냉면 시작하는 단계에서 방문하기 딱 좋은 곳}{842:1달 전 :  별표 3개  : 괜찮고 사람들도 많긴한데 저한테는 좀 맹맛이더라구요ㅎㅎㅎ 역시 미식가의 길은 멀고도 험난한가봐요~}{843:1달 전 :  별표 1개  : 육수도 미지근하고 지금까지 먹어본냉면중 최악~}{844:8달 전 :  별표 2개  : 평양냉면의 깊고 구수한 맛은 기대하기 어렵다. 을밀대 냉면이 한수인것 확인할수 있음.}{845:6달 전 :  별표 4개  : 친절하고 수육도 좋고 물냉면 추천합니다}{846:7달 전 :  별표 3개  : 그럭저럭 하는 집.다리 건너 마포 능라도를 추천.}{847:11달 전 :  별표 3개  : 유명한 평양냉면집이라고 해서 가봄 물냉 비냉 수육 먹음평양냉면에 익숙한줄알았는데 또 색다른 맛이였다참 맑다 ㅋㅋㅋ만두를 못 먹어 봐서 아쉬운 ㅠㅠ비냉은 약간 매콤? 누구나 좋아할거같음}{848:7달 전 :  별표 4개  : 평양냉면 굿. 날씨가 추워서 사람이 많지 않아 좋았다.}{849:6달 전 :  별표 5개  : 슴슴한냉면 초보자에게 어울리면서 상급자도 좋아할맛}{850:2달 전 :  별표 4개  : 실망하지 않는 냉면 맛집}{851:1년 전 :  별표 5개  : 최고의 평양냉면 전문점 중 하나이다. 밸런스가 좋고 단정한 맛이다. 수육과 함께 먹으면 더 맛있다. 만두도 괜찮은 편이다.}{852:1년 전 :  별표 4개  : 2019 미슐랭 가이드 빕구르망..깔끔한 평양냉면 한 그릇..다른 집들이 워낙 비싸서 그런가 10000원짜리 평양냉면이 저렴??하게 느껴지는..^^;;차갑게 나오는 아롱사태 수육은 고소한 맛은 있지만 너무 비싸게 느껴지고..만두는 시골집에서 해먹는 맛이 나지만 ㅍㅇㅁㅇ만두가 워낙 맛있어서..깔끔한 냉면이 생각난다면 들러보세요~~^^}{853:1년 전 :  별표 4개  : 지인과 저녁식사를 위해 방문하였습니다. 두 명이서 녹두전 수육 작은 것을 시켰고 마무리로 물냉면을 주문하였습니다. 녹두전은 점심때 가서도 시켜서 새로울 것이 없었고 수육은 처음 먹는 것이라 기대를 많이 했는데. 향이 없는 오향장육이란 생각이 들었습니다. 간장소스 외에 뭔가 곁들여 먹을 수 있는 것이 있으면 좋겠다는 생각이 들었습니다.물냉면은 그간 평냉집을 갈때마다 고개를 갸웃했는데 이번에는 겨자 식초를 잘 탔는지 아님…}{854:1년 전 :  별표 4개  : 냉면육수 깔끔하고 깊어요.만두는 담백해서 김치만두 좋아하는내 입맛에 별로.줄이 길어서 문 열기 전에 가야 편히먹을수 있다.}{855:2달 전 :  별표 2개  : 맛은 좋으나 직원들 서비스는 불만족!}{856:5달 전 :  별표 5개  : 미슐랭 선정 음식점. 일반 평양랭면에 비해 조금 더 간이 있다우}{857:6달 전 :  별표 5개  : 육수에서 고기향이 진하게나고 감칠맛이 풍부해서 맛있게먹었습니다 다만 심심하게 드시는걸 안좋아하시는분은 추천드리지 않겠습니다.}{858:11달 전 :  별표 4개  : 맑고 슴슴한 맛을 내는 육수로 늘 일정한 맛을 내는 정인면옥.순면과 일반면을 선택할 수 있다. 일반적으로 생각하는스탠다드한 평양냉면의 맛이라고 생각한다. 만족.}{859:3달 전 :  별표 5개  : 1-2인부터 3인 이상 같은 방식으로 나눠서 번호표를 주기에 많이 기다리지 않아요}{860:1년 전 :  별표 3개  : 일요일 1시 30분쯤 도착해서 웨이팅 하고 들어가서 주문하는데 약15분정도 걸렸어요만두 반접시 수육 반접시/ 평양냉면 1그릇 을 2명(성인 남녀) 이 나눠 먹었고 배도 불렀어요만두는 반접시에 3개 나오는데 속도 알차고 맛있어요(밖에서 만두 잘못 먹으면 속이 안좋은데 그런 느낌 없었어요)수육은 반접시에 16000원이고 고기가 아주 두껍게 잘려진 상태는 아니나 맛있게 먹었어요 또 먹고 싶은 생각이 들정도는…}{861:1년 전 :  별표 4개  : 수육이 기가막힙니다. 사악한 가격에도 찾아갈수밖에 없는 맛이에요. 만두도 맛있고 다른지점도 갔었는데 여의도가 더 맛있고 면이 거칠어서 제스타일이에요. 약간 아쉬운건 면수가 다른 편양냉면집보다 그다지 맛이있진않습니다. 가게도 넓고 또 방문하고싶네요}{862:1년 전 :  별표 5개  : 밸런스가 잘 잡힌 평양냉면 순면은(메밀 100%) 이정 도 맛에 다른 평냉집에 비해 가격도 착하다. 만두는 속이 꽉찬 간결한 맛}{863:1년 전 :  별표 4개  : 평양냉면의 은은한 맛을 느끼고 싶다만 강추. 다른 냉면집보다 면이 굵고 질겨 개인 호불호가 있을수 있음}{864:7달 전 :  별표 4개  : 평양냉면이 호불호라... 음.. 여긴 슴슴하다+약간 양념 있다 정도?입니다. 그래도 추천합니다!}{865:7달 전 :  별표 4개  : 평냉 입문자가 육수에 빠지기 좋은곳. 불친절한 종업원이 있었는데 아주머니들의 개인차. 주인은 친절함. 평냉입문을 여기서 했는데 점점 짜게변하는 냉면 육수는 아쉬움. 입문인 만큼 정인면옥에 대한 애정이 있는데 면이 덜익혀나온 경우도 있었다 직원들의 응대가 사장님의 친절함만큼 따라오지 못하는편. 면뽑는 직원이 브레이크때 밖에서 흡연을 하던데 좋아보이지않았음. 점점 맛이 오락가락하는 면이 좀 있어보임.}{866:9달 전 :  별표 5개  : 다소 굵은 면발과 간이 약한 육수. 맛있는 냉면. 돼지고기 편육이 맛있었다}{867:1년 전 :  별표 3개  : 전형적인 평양 냉면 집이다. 별점은 개인 취향이라서 입에 맞는 분들에게는 좋을 수도 있다. 개인적으로는 우레옥이나 한일관 냉면과도 또다른 차원의 맛이라서 만족스럽지는 않았다. 심지어 따라주는 컵의 육수조차 원초적인 그맛이다. 물냉면은 그냥저냥 배를 채웠고 비빔냉면은 괜찮다. 평양냉면 취향이면 방문할만하지만 고깃집 냉면 취향이면 별로일 것이다. 다만 수육은 최고이다. 옛날 방식의 그 편육 맛이 나고 잡내 하나없이…}{868:2주 전 :  별표 4개  : 맛잇지만 너무번잡함}{869:5달 전 :  별표 5개  : 아 이상하게 생각나는 맛물냉에 녹두전이 최고인듯}{870:1년 전 :  별표 4개  : 먹기 쉬운 평양냉면인데 맛의 밸런스가 잘 잡혀있어서 그런듯함. 부담스럽지않고 나릉 시험에 들게하는 평양냉면이 아닙니당. 입에 잘 맞는 평양냉면집입니다.  냉면이 적당히 굵은게 특징입니다. 먹어보세요 추천해여}{871:2달 전 :  별표 5개  : 평양냉면의 맛집 11시에가면웨이팅없을수있는데 그이후로가면 웨이팅있음}{872:9달 전 :  별표 5개  : 점심시간 놓쳤을때 혼자 가서 물냉면 한그룻 먹고 오는데 냉면 맛이 상당히 좋습니다 맑은 국물인데 깊은 맛이 납니다양많이 달라고 하면 같은 가격에 면사리 하나를 더 넣어줘서 양이 많은 사람도 넉넉하게 먹을 수있습니다점심시간에는 평일 주말 전부다 사람이 많아서 대기를 해야합니다 혼자 와서 먹고 가는 사람들도 꽤 있네요 나름 주차공간도 넉넉해서 편합니다}{873:3달 전 :  별표 4개  : 노말 너무 차지않은 생각보다 진한 고기육수의 맛 적절하지만오래기다린다면 커져버린 기대감대비 아쉬울수도}{874:8달 전 :  별표 4개  : 넓은 좌석 편리한 주차 전반적으로 맛있다.미쉐린가이드 2020 이라서 너무 기대했나?; 개인적으로는 4.하지만 맛있다.}{875:3주 전 :  별표 5개  : 깔끔한 평양냉면맛}{876:1년 전 :  별표 5개  : 평양냉면 기본에 충실한 슴슴한 맛집. 메밀향이 잘베어나오는 면과 국물이 먹으면 먹을수록 맛나요 여의도에 깔끔한 인테리어 맛집입니다...만두는 보통이네요 녹두전은 꼭먹어야합니다...녹두전 강추}{877:1년 전 :  별표 5개  : &lt;U+200B&gt;▶ 히스토리 ◀ 원래 새콤달콤한 함흥냉면만 먹던 내가 친구의 추천으로 한 번 먹어보고 평양냉면 매니아로 돌변하게 만든 주인공.광명에서 여의도로 이전하면서 가격은 약간 올랐으나 역시 맛은 명불허전. ▶ 맛 ◀&lt;U+200B&gt; 평양냉면은 물냉면이 진리다. 맛은 처음엔 조금 밋밋하다고 느껴지나 계속 먹을수록 육수의 깊은 맛이 살아나면서 간이 점점 진해지는 느낌. 면발은 메밀이지만 찰지고 맛있다. 먹고 집에가면 분명 분명히 다시 생각나는…}{878:3달 전 :  별표 5개  : 미슐랭 가이드에도 소개된 맛집! 을밀대보다 간이 더 심심해요}{879:11달 전 :  별표 4개  : 깔끔한 평냉. 점심시간엔 대기하는 사람도 많다. 최근에 가격이 올라 비싸다는 느낌이 있지만 양많이 달라그럼 추가요금없이 많이주긴한다. 그래서 많이 못먹는 사람은 손해보는 느낌.....}{880:9달 전 :  별표 4개  : 특별하진 않은데 매우 깔끔하게 평양냉면을 맛볼 수 있음}{881:5달 전 :  별표 4개  : 평양냉면과 건강생각한다면 물냉추천애기입맛은 비냉 추천}{882:1달 전 :  별표 5개  : 젤좋아하는 냉면집}{883:4주 전 :  별표 5개  : 심심함이 특징인 을지면옥류와는 그 궤를 달리하는 육향이 있는 냉면 맛집}{884:9달 전 :  별표 5개  : 평냉 입문용으로 아주 좋습니다. 약간은 고기육수의 간이 느껴지지만 고급지고 많이 밍밍하지 않습니다. 만두도 아주 훌륭합니다!}{885:4주 전 :  별표 5개  : 맛나게 잘 먹고 갑니다~~~^-^}{886:9달 전 :  별표 4개  : 육향 가득한 평냉 그리고 면이 약간 두꺼운 스타일...나는 의정부 평양면옥 스타일이 좀더 내입맛에 가까운거 같음}{887:3달 전 :  별표 4개  : 다른 유명맛집보다 저렴하고 맛있다.}{888:8달 전 :  별표 4개  : 별 4.5개를 주고 싶다. 미친듯이 오르는 요즘 평양냉면계에 좋은 가성비를 가졌다. 평양냉면집은 일정 레벨 넘으면 가까운 곳이 최애집.}{889:2달 전 :  별표 4개  : 뭐라 설명할수 없는 국물맛이 (고기맛+오묘맛+동치미맛) 일품이다...}{890:11달 전 :  별표 4개  : 순면 다소 굵고 거친식감 육수는 보통 평양냉면보다 슴슴함이 덜하고 감칠맛을 느낄수 있는곳.미슐렝이라 한번쯤 가볼만 곳깔끔함과 친절함 디테일이 장점인 식당}{891:2달 전 :  별표 5개  : 담백한 육수가 좋은 맛집입.}{892:11달 전 :  별표 5개  : 평양냉면의 스탠다드가 여의도에5대면옥부터 수많은 평양냉면을 먹어보았지만 가장 확고한 맛을 가지고 있습니다.특히 다른곳과 다른 슴슴하고 깊은 국물이 일품!}{893:1년 전 :  별표 3개  : 삼삼한 맛의 냉면과 만두를 즐길수 있음 (전혀 자극적이지 않아 맹맹하게 느껴지는 냉면과 만두임). 건강에는 매우 좋을 것 같은 맛임. 점심시간에는 11:30분 전에는 도착을 해야 5-10분 이내로 기다려 먹을 수 있음}{894:1년 전 :  별표 4개  : 평냉은 사랑임다.. 욕심껏 곱빼기로 시켰는데 가격은 그대로...? 왜죠? ㅠㅠ 아주 간도 좋고 슴슴하면서 고기육수 진한 맛이 일품!!!! 마지막에 겨자를 좀 넣어서 먹었는데 바로 후회했다 ㅠㅠ 여러분 겨자 넣지 마세요 ㅠ  식초만 넣으세요 !!!!! 만두는 완전 자극없이 담백하고 건강한 맛이에요 조아요 조아요}{895:8달 전 :  별표 2개  : 역시 평양냉면은 내 입에 안 맞는 건가? 그래도 의정부 평양냉면은 괜찮던데...  동행한 두 여성분(한 사람은 집사람 또 한 분은 미식가라 할 만한 대단한 한식요리사?)은 육수와 면발에 대해 칭찬을 아끼지 않네요. 그래도 녹두전은 맛있게 먹었어요.}{896:1년 전 :  별표 3개  : 여의도 평양냉면 맛집이라고 소문난 집.평양냉면의 특유 심심한 맛을 충분히 느낄 수 있지만 심심한 맛이 나의 식성과는 맞지 않아서 별로였음.평양냉면을 좋아하는 사람이면 충분히 가볼만함.녹두전에는 수육 조각이 들어가서 식감이 좋았음}{897:3달 전 :  별표 5개  : 깔끔한 냉면 바삭한 녹두전 슴슴한 이북식 왕만두! 수육은 글쎄...}{898:1년 전 :  별표 4개  : 냉면 맛은 명성에 걸맞는 적절한 육향과 메밀의 조화가 돋보인다. 일요일에는 앞에 여의도 순복음 교회 사람들로 붐빈다. 다만 넓은 매장에 비해 어수선한 느낌.  주방 가까이에 앉으면 서빙 직원과 주방 직원들의 짜증이 들랴서 신경쓰인다}{899:7달 전 :  별표 3개  : 좋아하던 곳이고 회사 근처라 자주 다니던 곳인데 지난해 일반면으로 먹다가 면의 쫄깃함과 미끈함이 맛 버렸구나 했는데... 순면은 다시 먹어 보니 그런대로 괜찮았고. 오늘 다시 와 보니 순면이 예전 일반면 비슷하고 육수는 살짝 달달해 진 것이 여의도 초기 맛과 좀 달라진 듯. 서초로 사무실을 옮긴 후에도 종종 왔는데 지금 추가로 시킨 일반면 사리 먹어 보고 또 놀랍니다. 거의 을밀대 수준의 쫄깃함... 결국 순면이 예전 일반면 수준의 메밀 함량 아닌가 싶습니다. 외진 데 있어도 은평구 만포면옥이 나은듯.}{900:3달 전 :  별표 3개  : 무난한 평양냉면 입니다. 여의도에 있어 접근성이 좋아요.}{901:1년 전 :  별표 5개  : 정말 밸런스가 좋은 냉면집. 만두도 훌륭함. 다음에 방문하면 순면을 꼭 먹어보고싶음. 일요일날 가면 사람 너무많음 미리준비해놔서 냉면이 좀 질이떨어진다는 지인의 소문이있음}{902:1달 전 :  별표 4개  : 맛집인건 인정! 다만 사람이 너무 많아서 대기가... ;;}{903:3달 전 :  별표 5개  : 순면으로 드세요평양냉면 물냉 비냉 다 맛있어요아주 훌룡하네요}{904:1달 전 :  별표 5개  : 몇개월전보다  직원들이 더친절했다}{905:6달 전 :  별표 4개  : 매우 흘륭함.서울시내 평양냉면집 10군데 넘게 다닌 사람으로서...Top3에 꼽을만.만두와 만두국도 아주 맛있고 녹두전도 좋음.하지만 별 하나를 덜 준 이유는.가끔씩 카운터에 앉아있는 그 집 아들로 추정되는 매우 불친절한 남자사람 때문. 그 분 빼고는 모든 게 나이쓰.}{906:1달 전 :  별표 5개  : 순면의 구수함! 만두 소가 엄청 부드럽다~}{907:2달 전 :  별표 4개  : 물냉면 국물은 일반 평양냉면집들보다 짭쪼름해서 평야냉면빠가 아니더라도 즐길수 있을 맛이고 만두나 편육은 그냥 그저그렇네요. 다시 갈 의사는 있는 집입니다.}{908:5달 전 :  별표 5개  : 서여의도 최강자 중 하나여의도 거주민으로서 자주 간다평양냉면을 좋아하는 분들께는 강츄하지만...삼삼함을 싫어하는 분들은 싫어할꺼임..호불호가 명확히 갈리던 집...개인적으로는 최애 집 중 하나임!}{909:1주 전 :  별표 2개  : 예전보다 맛이 덜함. 냉면을 풀기전 국물맛은 좋지만 면을 풀고 나서는 그닥}{910:1달 전 :  별표 4개  : 담백한 맛의 육수특유의 면발 중후한 맛}{911:1달 전 :  별표 2개  : 제 입맛에는 별로에요. 맛이 많이 심심함}{912:1달 전 :  별표 5개  : 직원분들이 친절하시고 담백하고 맛있습니다.}{913:2달 전 :  별표 5개  : 만두국 냉면을 점심에 간편하면서 Light 하게 먹기 좋았습니다. 그리고 맛하고 가게 분위기도 괜찮았습니다}{914:1달 전 :  별표 5개  : 밸런스가 좋다 냉면도 편육도. 혼자는 반접시에 냉면소주가 딱}{915:4주 전 :  별표 5개  : 평양랭면 첫경험 맛있다}{916:4달 전 :  별표 2개  : 주차: 건물 지하주차장.역사 및 개요: 광명 본점과 같은 계열.특징: 물냉면 및 만두/수육/편육 등 냉면집의 보편적 메뉴 제공. 호불호가 있겠으나 특정 평양냉면계열에 익숙한 나로서는 그닥 감명적이지 않음.}{917:1달 전 :  별표 4개  : 불고기에 평양냉면 사리를 넣어주어요.별미입니다}{918:1달 전 :  별표 4개  : 무난하고 깔끔하다 서비스도 적당하다 타 냉면집대비 가격도 합리적}{919:2달 전 :  별표 4개  : 을지면옥에 비해 육수 맛이 강함. 좀 더 대중적인 맛}{920:2달 전 :  별표 4개  : 이북전통음식이라 담백하고 시원합니다.매장도 청결합니다}{921:11달 전 :  별표 4개  : 3년 연속 미슐랭에 선정된 냉면맛집..&lt;U+0001F44F&gt;물냉면의 맑디 맑은 육수에 한번 당황&lt;U+0001F605&gt; 그 맑은 육수의 사골국물맛(?)에 또 한번 놀람암튼 늘 먹던 단짠새콤의 일반적 냉면과 전혀 다른고급진 맛이라고 할 수 있지만 슴슴한 것이 싸구려 내 입맛을 기쁘게 충족시켜주지는 못했음이 팩트..!호불호 분명 갈릴 듯~전반적으로  같이 나오는 김치 등 포함해서 간이 세지 않음}{922:1달 전 :  별표 4개  : 친절한 사장님과 직원분들비교적 저렴한 음식수육 편육 모두 반접시씩 파는게 좋음의외로 비냉도 갠춘}{923:2달 전 :  별표 1개  : 어제 어머님모시고 일부러 검색해서 여기 맛있을거같아 영등포에서 모시고 갔는데물냉면 육수도 맛없고 면도 영~~~다데기 달라고하고 억지로 다데기맛으로 먹었는데어머님은 거의 안드심...계속 둥지냉면 집에서 끓인게 더 맛있겠다고ㅜㅜ어제 저만 이렇게 맛없었나요?손님은 디게 많던데...}{924:4달 전 :  별표 5개  : 맑고 살짝 짭쪼름한 국물과 슴슴 순메밀면의 간 조절이 섞였을 때 그 절묘함이 더해지는~ &lt;U+0001F44D&gt;&lt;U+0001F3FC&gt;&lt;U+0001F44D&gt;&lt;U+0001F3FC&gt; 만두 필수에요.}{925:6달 전 :  별표 4개  : 평양냉면을 좋아한다면 무난한 선택.  개인적으로는 만두가 별미였음. 평양냉면이 처음이거나 선호도가 낮다면 필히 비빔냉면을 시킬 것.}{926:4주 전 :  별표 5개  : 피크 타임에는 바쁘긴한데 직원분들이 많아서 순환은 잘됩니다. 의외로 비빔냉면도 괜찮았습니다.}{927:1달 전 :  별표 3개  : 삼삼한 물냉면과 편육 수육 만두를 맛 볼수 았는 곳...}{928:2달 전 :  별표 5개  : 평양냉면을 먹으면 약간 사기당하는 것 같다. 단순한 맛. 저렴하지도 않다. 비싼데도 왜인지 깔끔하면서 만족스럽다. 이거 뭐지 싶은~}{929:1달 전 :  별표 5개  : 국물 맛이 깔끔합니다. 제 개인적인 취향으로는 면이 다소 두껍게 느껴졌습니다.}{930:5달 전 :  별표 4개  : 물보다 비빔이 나은듯육수 육향은 적당한 수준}{931:4주 전 :  별표 5개  : 다른 평양냉면 집보다 가격은 저렴한데 맛은 떨어지지 않아요}{932:4주 전 :  별표 4개  : 메밀면과 깔끔한 냉면 육수가 잘어울리는 명품 평냉집입니다}{933:3주 전 :  별표 5개  : 나름 식도락가라고 생각하는  사람으로서 가장 맛있는 곳 손님을 기분좋게 만드는 곳 추천을 공유한다는 즐거움이 있다. 이 곳은 메밀면의 참맛을 느끼고 싶은 사람들에게 강추!! 불고기는 아주 싱겁게 드시길 좋아하는 사람에게는 권함..서비스 하는 분들의 친절함도 감사하고 싶을 정도로 최고이다}{934:1주 전 :  별표 3개  : 오류동 본점과 크게 다르지 않은 맛}{935:1주 전 :  별표 3개  : 새로운 맛의 냉면냉면의 맛은 좋으나 곁들여 먹은 음식들이 아쉬움을 준다.주차도 가능쾌적한 공간}{936:1주 전 :  별표 5개  : 평냉의 정석 맛}{937:3주 전 :  별표 3개  : 얼음이 없어서 아쉬움수용가능한 냉면가격임. 봉피양 평냉이랑 비교시 살짝 떨어지는 느낌.봉피양보다 면이 싱겁기때문에 육수를 홀짝거리면서 먹음.}{938:2달 전 :  별표 4개  : 별점은 개인적인 입맛입니다!월래 입맛이 자극적인걸 좋아하다보니 제 입맛에는 물냉면이 너무 싱거웠던.. 평양냉면이 슴슴한 맛에 먹는거지만ㅜㅜ결코 맛이 없다는건 아닙니다!!!! 대신 비냉은 맛있게 먹었습니다녹두전은 엄청 바사삭 속은 촉촉!!만두는 비비고 만두의 세배크기?? 반접시 시키셔도 될꺼같아요~}{939:4주 전 :  별표 4개  : 순면이 뚝뚝 끊기지 않고 적당한 탄력을 유지하고 있어 식감이 좋고 메밀향과 더불어 육수와 조화가 잘 됨 가격도 12000원으로 가성비도 좋음}{940:4주 전 :  별표 4개  : 유명한 집이라는데 아직 제가 평양냉면 맛을 몰라서요. 제대로 맛을 느끼려면 1년은 꾸준히 먹어봐야 한다는데.}{941:1달 전 :  별표 4개  : 기본으로 주문해도 넉넉하게 나오는 편이고면 추가 없어도 양 많이 말씀드리면 푸짐하게 주셔서 좋습니다. 맛도 깔끔해요.}{942:3주 전 :  별표 4개  : 평양냉면 초심자도 접근하기 좋은 냉면집. 너무 싱겁지도 너무 짜지도 않은 적당한 간에 평양냉면의 매력을 느낄 수 있음.}{943:1달 전 :  별표 5개  : 정통 평양냉면집. 언제 가도 맛이 한결 같다. 반드시 순메밀면으로 드시길 추천!}{944:2주 전 :  별표 5개  : 검증된 만두맛집이었는데 비냉 물냉 모두 발전해 대표냉면집에 손색없네요.아주 만족스러운 한끼였습니다}{945:2달 전 :  별표 5개  : 총평: 평양 냉면의 맛을 아는 사람이라면 정말 맛있다. 가격 무난. 깔끔하다. 서비스 만족. 주차장 있음. 설명: 우린 한강 공원 들러서 대여 자전거 타고 평양 냉면 먹으러 갔다. 우린 물냉면(만원) 주문. 아이들은 아롱 사태 편육 한 접시(3만원)와 공기밥 주문. 찬은 심심한 열무 김치. 평양 냉면의 심심하면서도 시원한 국물이 아주 깔끔한 맛이다. 면도 주문 즉시 바로 뽑는다. 국물도 마셔 보기를 추천한다. 아이들은 아롱 사태 편육을 소스에 찍어서 열무김치와 주었더니 정말 잘 먹었다. 기름기도 없고 아이들 먹기에 너무 좋았다. 한 접시나 시켰는데도 우리 먹을 게 없었다.}{946:1달 전 :  별표 5개  : 평양냉면은 내 입맛에 굉장히 안맞지만 비빔냉면은 매우 맛있다.면이 엄청 탱탱하고 맛있음.녹두전도 굉장히 맛있게 먹음}{947:5일 전 :  별표 3개  : 슴슴하고 맛은 그냥 그런데 비쌈}{948:2달 전 :  별표 4개  : 면이야 다른 유명 평냉맛집과 비슷하지만 육수는 나름이 개성이 있다. 훌륭한 맛. 여긴 사리를 따로 시킬 수도 있지만 주문 때 많이 달라면 살짝 곱배기가 된다. ^^}{949:6일 전 :  별표 5개  : 다 맛있습니다. 체온과 소독 후에 입장 가능해요~}{950:1달 전 :  별표 5개  : 너무 좋아하는 곳이예요. 대기가 항상 있지만 식사 시간을 조금 빗겨가면 대기 없이 먹는 행운이 따를 때도 있답니다.순면 냉면에 아롱사태는 꼭 드셔보세요! 입에서 고기가 녹아요&lt;U+0001F61B&gt;}{951:2주 전 :  별표 3개  : 초심자들이 즐기기 쉬운평양냉면 만두 펀육 보쌈등 사이드 메뉴들도 좋다.}{952:3달 전 :  별표 5개  : 아주 괜찮은 (평냉) 순면과 아쉬움이 남는 기본 평양냉면 준수한 녹두전 맛있었던 만두. 육수가 메밀향과 육향이 잘 어우러져 향긋했고 면발에도 육수가 잘 감겨 먹기에 좋았다. 우래옥 을지면옥 등의 평양냉면과는 또다른 인상적인 한 그릇.}{953:4주 전 :  별표 4개  : 간이 좀 세졌네. 그래도 먹을만 하다. 깔끔한 맛.순면 안 돼서 일반면으로 시켰는데 메밀향도 꽤 나네?면 질감도 나쁘진 않고 양도 많이 줌.여의도에서 이 정도의 평냉이라면? 4점도 줄 수 있다고 봐.}{954:1달 전 :  별표 4개  : 평양냉면 추천합니다.만두는 안에 숙주가 들어있고 속이 정말 꽉차 있습니다.평일 점심에는 줄을 많이 서니.. 11시20분 이전에 가시는걸 추천합니다}{955:1달 전 :  별표 4개  : 불고기의 담백ㆍ깔끔 ㆍ은근 깊은 맛을 느낄수 있어요.물냉면은 국물까지  다 클리어합니다. 섬세한 맛 즐기시는 분 강추입니다~}{956:2달 전 :  별표 5개  : .정인면옥 순면.담백함의 극치면발의 고소함 목넘김 최고육수의 순수함잔잔한 마음에 큰 울림 같이편안하게 음미할 맛이다...다만 조미료에 익숙한나에게 어색했을뿐.&lt;U+0001F61C&gt;...#정인면옥 #순면 #미슐랭 #미슐랭가이드 #여의도맛집 #여의도  @ 여의도 정인면옥}{957:2달 전 :  별표 4개  : 슴슴한 평양냉면 아주 깔끔하고 주차도 편합니다. 다만 녹두전에 들어간 고기에서 수육의 누린내가 납니다.  전은 바삭바삭하고 맛있어요.}{958:3달 전 :  별표 4개  : 능라도와 더불어 2세대 평양냉면을 대표하는 여의도 정인면옥-아이들과 함께하기 좋다. 기름기 적고 쫀득한 아롱사태수육 육향이 강하지는 않지만 자꾸만 당기는 평양냉면에 오늘도 엄마의 점심식사 해결. 면이 굵어서 얇은면을 선호하는 사람에겐 호불호가 갈릴 수 있다.무튼 아이들을 위한 좌식 테이블에 애기의자 배려는 너무나 좋고 추가로 비용을 받지 않고 곱배기로 두덩이는 더욱 좋다-}{959:2주 전 :  별표 4개  : 평양물냉면 녹두전 접시만두 암퇘지편육 모두 맛있게 먹었습니다.}{960:2달 전 :  별표 4개  : 전통 평양냉면을 생각하면 딱!!고기국물인데도 워낙 깔끔하며 매밀국수발이 다고 두꺼워서 씹는 맛이 더 좋았다. 조부모님과 부모님이 모두 평양분이셔서 나에겐 그리운 추억의 이북식 ! 면발 가는고 쫄깃한 함흥식에 길드려진 분이라면 싫어할수도~ . 그러나 담백 정갈한 음식매니아라면 좋아하실거다}{961:2달 전 :  별표 4개  : 기라성같은 평양냉면집들과 어깨를 나란히 할 수 있을 정도로 메밀순면과 다소육향은 적지만 밸런스가 좋습니다.초보자들도 입문이 가능합니다.녹두전이 광명 정인면옥과 비교하기 어려운것을 빼고 나머지 음식들도 훌륭합니다.}{962:3주 전 :  별표 4개  : 가격 맛 모두좋다! 비싸지도 싸지도 않은 가격  만원!주차괜찮고.만두도 괜찮다.근데 육수가왜 자꾸 콩나묵냉국이 생각이나는지 이상하다.면발은 개인적으론 좀 질기다.살짝 더 익혔으면..하지만 깔끔한 인테리어와 홀서빙하시는분들이  친절하고  신속하다.}{963:5일 전 :  별표 5개  : 인기가 어마어마한 곳이죠. 근데 전 사실 평양식 냉면의 진면목을 잘 모르는 1인인지라 그닥...매번 대기줄이 어마어마한데 오늘은 코로나 영향인지 사람이 그닥 많지 않더군요.깔끔하고 괜찮아요.^^}{964:1주 전 :  별표 2개  : 면이 좀 단단해요 메밀이 많아서 뚝뚝 끊기는 느낌이라기 보다 그냥 덜삶은듯한 식감입니다 국물은 살짝 짜요.국물맛은 나쁘지 않았는데 단단한면이랑 짠국물이 좀 따로 논다는 느낌입니다 편육이 몇점 올라가 있는데 살짝 잡내가 났어요 그냥 먹긴 좀 그렇고 같이주신 겨자랑 먹으니 먹을만 합니다 전체적으로 그저그런 맛이네요}{965:1주 전 :  별표 5개  : 양많고 좋아염~근데 국물이 너무 연해염~그래도 맛나염.}{966:4주 전 :  별표 5개  : 평냉집 중에서는 정갈하고 깔끔한 인테리어인게 맘에듦. 사이드도 반접시 단위로 시킬수 있어서 좋고 무엇보다 평냉 자체도 모자람없이 맛있다. 평냉을 처음 접하고 몇군데 못가보았을때엔 아주 슴슴하다고 느꼈었으나 아주 그런건 아니었고 타평냉 육수 대비 짭쪼름함이 강조되는 육수라고 생각이 든다. 육향이 소금기에 살짝 묻힌다는 느낌}{967:6일 전 :  별표 3개  : 코로나사태가운데서도  깔끔하고  안전한 느낌이 들도록 안내해주셔서 좋았습니다  여의도맛집을 검색하면  나오는 집이라서  더운날에 찾아갔어요~1972년부터의 전통있는 집이라네요  아롱사태도  정갈하고  평양냉면과 순면을  먹었는데  깔끔한 맛이납니다  면도 다른곳보다는 굵은 편이네요  순한 맛을 찾는분들은  좋을것같습니다}{968:2주 전 :  별표 4개  : 평양냉면은 처음이었는데 국물이 참 맑은데서 놀라고 깔끔한 맛이어서 놀랐습니다.맛이 없다는것이 아니라 자극적이지 않은 맛이네요.투명한 유리같은 맛..! 면은 더욱 투명한 맛입니다.저는 자극적인게 익숙해서인지 다시 먹을지는 미지수 입니다! 그래도 한 번쯤은 추천해드려요.}"</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{1:1년 전 :  별표 3개  : 기다려서까지 먹어야 하나?정도에요}{2:2년 전 :  별표 5개  : 안 가본 사람은 있어도 한번만 가본 사람은 없을듯..^^}{3:1년 전 :  별표 5개  : 맛나요~^^}{4:2년 전 :  별표 5개  : 콩국수와비빔국수 절대 강자}{5:1년 전 :  별표 4개  : 김치맛이 예술}{6:3년 전 :  별표 4개  : 맛은 좋지만 콩국수 가격이 깡패}{7:1년 전 :  별표 2개  : 가격은 오르는데 서비스는 더 낮아지네요}{8:1년 전 :  별표 2개  : 칼국수 가격이 좀 비쌈.}{9:2년 전 :  별표 5개  : 콩국수 대박.}{10:2년 전 :  별표 4개  : 특이한 상콤매콤 오이중독}{11:1년 전 :  별표 4개  : 콩국수를 안 하고 있어서 아쉬웠습니다.}{12:1년 전 :  별표 5개  : 심심하면서 심심하지않은맛}{13:2년 전 :  별표 2개  : 비빔국수는 짜고단맛이 강하고 콩국수는  너무 걸죽하더라구요 만두가 제일맛있네요}{14:1년 전 :  별표 3개  : 김치만맟있다}{15:11달 전 :  별표 5개  : 그냥 맛나요}{16:2년 전 :  별표 3개  : 평균수준인데 왜이렇게 난리인지 ㅋㅋ}{17:1년 전 :  별표 4개  : 국수의 지존!}{18:8달 전 :  별표 3개  : 가성비 보통}{19:2년 전 :  별표 4개  : 줄서서 먹지만 그럴만 함.}{20:1달 전 :  별표 5개  : 콩국수}{21:2년 전 :  별표 5개  : 대한민국 최고의 콩국수집중 하나}{22:1년 전 :  별표 5개  : 맛있네요.}{23:3년 전 :  별표 4개  : 콩국수랑 김치가 맛나요}{24:2년 전 :  별표 3개  : 점심시간은 줄서야해서.. 줄서서까지 먹을 정도는 아닌...}{25:1년 전 :  별표 4개  : 어느덧 콩국수 가격이 1만원 돌파!!}{26:1년 전 :  별표 4개  : 비빔국수가 너무 단것같은데 너무 맛있어...}{27:4년 전 :  별표 3개  : 콩국수랑 김치랑 정말 잘 어울림}{28:2년 전 :  별표 1개  : 주차불만  주차권현금으로만구입 해야함. 주차장협소주차비 10분당1000 원 주차 불친절 등}{29:2년 전 :  별표 5개  : 콩국수 짱짱맨}{30:2년 전 :  별표 5개  : 김치도 맛있어요}{31:1년 전 :  별표 5개  : 콩국수 최고.}{32:1년 전 :  별표 5개  : 겨울에도 콩국수 해주세요ㅠㅠ}{33:3년 전 :  별표 5개  : 콩국수먹으러 다녀왔습니드 정말맛있었어요 다음엔 달갈국수 도전!!}{34:3년 전 :  별표 4개  : 걸죽한 콩국이 정말 일품이다.~~}{35:1년 전 :  별표 5개  : 여의도 최강 맛집!}{36:10달 전 :  별표 5개  : 콩국수 맛집... 김치 맛집 ^^/}{37:3년 전 :  별표 5개  : 줄 길고 비싸고 가게 별로고너무 맛있고!!!!! 모든 메뉴 강력추천.}{38:1달 전 :  별표 5개  : 존맛}{39:2년 전 :  별표 1개  : 대기 시간이 긴편에 비해 음식이 너무 달고 비싸다.}{40:2년 전 :  별표 4개  : 콩국수는 여전히 맛있어요. 가격인상은 좀.}{41:2년 전 :  별표 4개  : 더운날 콩국수 한그릇 먹고나면 뱃속까지 시원해지네요}{42:3년 전 :  별표 3개  : 달달하고 맛난데 비싸다}{43:1년 전 :  별표 5개  : 국수가 먹고싶을땐..마약 국수}{44:11달 전 :  별표 1개  : 맛없음}{45:2년 전 :  별표 5개  : 대기줄이 롯데월드 온듯함}{46:2년 전 :  별표 4개  : 콩국수에 땅콩이 들어가서 고소합니다만 가격이 너무 비싸요ㅠ}{47:2년 전 :  별표 5개  : 콩국수 굿 김치도 굿}{48:4년 전 :  별표 5개  : 여기는 말이 필요 없다. 뮤조건 강추}{49:1년 전 :  별표 3개  : 콩국수 중상비빔국수 중닭칼국수 중하만두 중하비싸고 정신없고 다신 안갈듯}{50:3년 전 :  별표 3개  : 가격대비 맛은 별로.}{51:3년 전 :  별표 4개  : 비싸지만 않으면 최고 김치도 최고}{52:3년 전 :  별표 5개  : 맛 집. 점심애는 줄서야 함.}{53:4년 전 :  별표 4개  : 좀 비싸지만 맛은 있다.특히 김치가 맛있다.}{54:4년 전 :  별표 5개  : 겨울에도 맛있는 콩국수를 먹을 수 있습니다.}{55:2년 전 :  별표 4개  : 사람이 너무 많아요!!}{56:1년 전 :  별표 5개  : 콩국수 김치가 끝내줌}{57:2년 전 :  별표 5개  : 점심시간 대기줄 100m 맛집입니다콩국수 닭칼국수 비빔국수 만두 다 맛있습니다}{58:3년 전 :  별표 4개  : 콩국수의 전설. 대신 많이 기다려야하고 가격은 센편}{59:3년 전 :  별표 5개  : 닭칼국수는 가끔씩 생각나는 별미}{60:4년 전 :  별표 3개  : 국수가 맛있는집가격이 싸지는 않지만 맛있으니까}{61:3달 전 :  별표 5개  : 인생 콩국수 진주회관과 더불어 쌍벽집}{62:3년 전 :  별표 5개  : 세상 진한 콩국수. 콩국수가 진리다. 나머지도 맛있지만 조금 비싼 감이.}{63:2년 전 :  별표 5개  : 내 인생 최고의 국수집}{64:1년 전 :  별표 4개  : 가격이 좀 비싸요}{65:1년 전 :  별표 4개  : 콩국수를 안해서 겨울에는 soso}{66:2년 전 :  별표 5개  : 콩국수 대박집. 국물이 진해요~}{67:1년 전 :  별표 4개  : 닭칼국수 맛있었어요}{68:3년 전 :  별표 5개  : 여의도 최고의 맛집입니다. 국수 메뉴가 시그니처입니다.}{69:4년 전 :  별표 3개  : 진하고 맛있는 콩국수로 유명...그러나 걸죽해서 내입맛엔 쏘쏘했음}{70:1년 전 :  별표 4개  : 닭칼국수 맛있어요}{71:3년 전 :  별표 5개  : 내가 본 최고로 사람 많은 식당}{72:3년 전 :  별표 5개  : 최고의 콩국수 전문점! 후회 없는 선택. }{73:2년 전 :  별표 5개  : 항상 맛좋은 콩국수 강추}{74:3년 전 :  별표 4개  : 콩국수와 보쌈김치가 일품}{75:3년 전 :  별표 5개  : 최고의 콩국수 비빔국수 그리고 맛있는 김치}{76:1년 전 :  별표 4개  : 만두 국수 최고}{77:1년 전 :  별표 5개  : 둘이 가서 비빔국수하나 콩국수 하나 시켜먹으면 꿀맛!}{78:1년 전 :  별표 4개  : 회전율이 엄청난 속도라서 줄이 길더라도 잠시만 기다려주세요^^ 금방 먹을수 있어요♡}{79:2년 전 :  별표 3개  : 단짠단짠이 강함..}{80:3년 전 :  별표 4개  : 비싸지만 고소하고 맛있는 냉콩국수}{81:3년 전 :  별표 4개  : 가격은 좀 비싸지만 맛이 좋습니다.}{82:1년 전 :  별표 3개  : 비싼거 비하면 값어치 하는지 모르겠음}{83:3년 전 :  별표 5개  : 콩국수비빔국수 맛집.점심시간에 사람이 많지만 금방금방 차례가 와요.}{84:1년 전 :  별표 3개  : 개인적으로 닭국수가 콩국수보다 먹을만 하다.}{85:1년 전 :  별표 5개  : 콩국수가 진국 가격은 비쌈}{86:2년 전 :  별표 5개  : 종종 생각나서 다녀가는곳}{87:2년 전 :  별표 4개  : 콩국수가 한국 내 최고}{88:1년 전 :  별표 4개  : 1년에 한 번씩은 먹는 집}{89:2년 전 :  별표 4개  : 콩국수  참맛있네요포기김치도  참좋았습니다}{90:2년 전 :  별표 4개  : 여의도 물가로 매우 비싸다. 콩국수 맛이 괜찮기에 돈이 아깝다는 생각은 들지 않는다.}{91:1년 전 :  별표 3개  : 맛은잇는데 비쌈}{92:1년 전 :  별표 4개  : 맛있음. 종종생각남}{93:2년 전 :  별표 4개  : 콩국수와 김치 환상조합 비빔국수도 맛있어요 가격이 좀 비싼데 맛은 인정}{94:3년 전 :  별표 3개  : 모두가 콩국수 가격의 적절성과 작은 사장님의 학벌을 이야기하며 김치를 추가해서 먹는 집.}{95:1년 전 :  별표 5개  : 소문 듣고 갔는데 맛있더라구요}{96:1년 전 :  별표 4개  : 비빔국수 콩국수 만두 겁나 맛있어요~^^}{97:2년 전 :  별표 3개  : 줄서서 먹을정도는 아닌듯.}{98:1년 전 :  별표 4개  : 김치가 생각나서 다녀왔습니다}{99:1년 전 :  별표 5개  : 콩국수가 맛 있어요..}{100:2년 전 :  별표 5개  : 오랜만에 갔어도 콩국수와 김치맛은 여전히  경쟁력있네요}{101:3년 전 :  별표 4개  : 진한 콩국수와 김치의 조화. 먹고싶다면 점심 훨씬전에 도착해야... 단점이라면 가격이 올랐다는..}{102:2년 전 :  별표 5개  : 콩국수김치 최고}{103:3년 전 :  별표 5개  : 콩국수 비빔국수 그리고 이집의 김치는 최고}{104:3년 전 :  별표 4개  : 맛있고 가격도 괜찮은데 점심에는 사람이 너무 많아서 오래기다려야합니다}{105:2년 전 :  별표 4개  : 맛은 있으나 가격이 좀 쎄다고 느껴짐. 그러나 맛있음}{106:3년 전 :  별표 5개  : 여기야 워낙유명하니깐 비빔국수 콩국수 대박}{107:2년 전 :  별표 4개  : 맛있다! 블루리본4년차}{108:1년 전 :  별표 4개  : 여전히 맛있지만 예전만 못한느낌}{109:1년 전 :  별표 3개  : 콩국수맛이 예전의 맛이 아니네요}{110:1년 전 :  별표 5개  : 항상 손님이 많은 칼국수 맛집}{111:3년 전 :  별표 4개  : 면발은 비빔이나 콩국수가 더 쫄깃합니다.}{112:1년 전 :  별표 5개  : 전국 최고의 콩국수 맛집}{113:3년 전 :  별표 5개  : 콩국수집으로 유명하며 비빔국수랑 닭칼국수도 맛있음}{114:1년 전 :  별표 1개  : 닭칼국수 왜 맛나다고 하는지 이해 안감}{115:3년 전 :  별표 4개  : 일찍 와서 가게 밖에 줄 서 있는 사람들 보며 한번 웃고진한 콩국물 보며 한번 웃습니다그런데 냉면보다는 밀면을 더 좋아하는 스타일인제 입맛엔 김치 없이는 다 못먹겠네요}{116:1년 전 :  별표 4개  : 주차하기 힘들긴한데 음식은 맛있음}{117:2년 전 :  별표 3개  : 독특한 콩국수 맛있다.}{118:1년 전 :  별표 5개  : 비빔국수도 맛잇어요!!}{119:4년 전 :  별표 3개  : 콩국수(9500) 닭칼국수(7000) 좀.. 비쌈. 같이나오는 무말랭이가 아주 맛있음. 사람 많음.}{120:2년 전 :  별표 1개  : 유명한 식당치고는 맛없어요진짜 콩국물이 아니고 콩가루 귝수 같아요  ㅠㅠ가격대비 별로였어요}{121:3년 전 :  별표 5개  : 맛은 좋음. 근데 점심에 가면 못먹음. 그냥 저녁에 와서 드세요 주말이나.}{122:2년 전 :  별표 5개  : 진한 콩국수의 맛}{123:2년 전 :  별표 5개  : 진짜 콩국물 강추}{124:2년 전 :  별표 5개  : 닭칼국수가 맛나요}{125:9달 전 :  별표 4개  : 공기밥 무료}{126:1년 전 :  별표 3개  : 콩국수 맛이 예전만 못하다}{127:1년 전 :  별표 3개  : 긴줄 사람 바글 단순하고 뻔한 맛}{128:2년 전 :  별표 3개  : 간단히 점심해결 혼밥해도좋은장소}{129:1년 전 :  별표 5개  : 그냥 드셔보세요 그럼 압니다 아 여긴 맛집이구나}{130:2년 전 :  별표 5개  : 콩국수 비빔국수가 맛있는 집}{131:3년 전 :  별표 4개  : 콩국수가 워낙 유명한 곳으로 칼국수도 맛있는 편}{132:6달 전 :  별표 5개  : 닭칼국수맛있음}{133:1년 전 :  별표 4개  : 콩국수 비빔국수의 강자. 해마다 오백원 천원씩 값을 올리는 장삿속에 다시는 안 가리라 다짐하지만... 20년째 국수 먹으러 굴복하고 있다.}{134:1년 전 :  별표 2개  : 가격 대비 별로입니다}{135:1년 전 :  별표 4개  : 맛은 있으나 너무 단짠임}{136:2년 전 :  별표 4개  : 콩국수 고소하네요.. 줄이 너무 길어서.. 일찍가셔야 합니다}{137:8달 전 :  별표 2개  : 소문에 비해...}{138:2년 전 :  별표 4개  : 콩국수 만 원 시대를 연 곳. 좀 다르긴 다르다.}{139:1년 전 :  별표 5개  : 뭐 콩국수로 꼭 가볼만한 근디 가격이 좀}{140:1년 전 :  별표 5개  : 굿친절하고 맛있음}{141:1년 전 :  별표 4개  : 콩국수 닭칼 비빔 가성비는 안좋은데 맛남}{142:1년 전 :  별표 5개  : JMT 콩국수 비빔국수 칼국수 만두 다 맛있음}{143:1년 전 :  별표 5개  : 여기 정말 맛있음 이영자도 여의도의 맛집이라 표현한곳}{144:2년 전 :  별표 3개  : 양많고 적당히 맛있고}{145:1년 전 :  별표 4개  : 가격이 후덜덜하지만 맛난 집입니다}{146:1년 전 :  별표 3개  : 맛은 있지만 비싸다고 느끼는 곳}{147:1년 전 :  별표 3개  : 평일 점심 11시 30분부터 12시 30분까지 헬게이트맛은 굿}{148:1년 전 :  별표 3개  : 예전보다 못하다는 생각이.. 콩국수가 없는 겨울에는 망설여지는 곳인듯..}{149:3년 전 :  별표 4개  : 콩국수와 만두를 함께 먹을 수 있어서 좋아요! 김치 맛이 무엇보다 최고!}{150:1년 전 :  별표 3개  : 비빔국수 제입맛에는 너무 달아요..}{151:3년 전 :  별표 4개  : 맑은 콩물에 먹는 콩국수를 좋아하면 별로고 걸쭉하고 고소한 맛 좋아하면 맛있음.}{152:1년 전 :  별표 4개  : 가격빼고는 다 만족}{153:2년 전 :  별표 5개  : 오이를 강요하지 않는 콩국수라니!!!}{154:1년 전 :  별표 4개  : 맛잇고 대기줄 회전율빠름ㅋㅋ}{155:1년 전 :  별표 4개  : 김치가 맛있음 콩국수는 난 그냥그런데 여름에 사람들 많이 먹고 닭칼국수 맛있음}{156:1년 전 :  별표 3개  : 겨울이라고 콩국수가 없다니.ㅠ}{157:3년 전 :  별표 5개  : 여의도 백화점 지하 1층에 위치.20분 주차시 무료. 주차권은 500원에 구입해야 두시간 무료.시청 진주회관과는 같은 다른 맛. 약간 노란빛이 도는 콩국물이 고소하고 비린내가 나지 않음. 콩국수 이외에도 비빔국수가 맛있어서  매번 고민하게 만듦. 김치가 맛있고 포장가능 (포장시 면은 생면으로 집에가서 삶아야함)}{158:1년 전 :  별표 3개  : 그냥 평타..칼국수가 가격은비쌈 김치가젤맛있음}{159:7년 전 :  별표 4개  : 맛이 있다보니사람도 너무 많고여의도는 점심시간이 11시30분부터인지라늦게가면 줄서는 시간 감안해야 함반찬으로 나오는 김치가 맛있고콩국수야 당연한거고닭칼국수도 괜찮음..}{160:2년 전 :  별표 5개  : 콩국수 좋아요.1만원으로 올랐어요..}{161:1년 전 :  별표 5개  : 말이 필요 없죠 그런데 값은 계속 ㅠㅠ}{162:1년 전 :  별표 4개  : 맛있다..근데 가격이..}{163:1년 전 :  별표 4개  : 닭칼국수도 맛있고 김치와 무말랭이도 맛있었다.}{164:2년 전 :  별표 5개  : 콩국수가 아주 맛있어요 ~}{165:2년 전 :  별표 4개  : 콩국수로는 최고인듯}{166:1년 전 :  별표 4개  : 맛있으나 비쌈 직원 친절}{167:1년 전 :  별표 4개  : 몇년만에 갔었는데...더이상 팥칼국수가 없네요ㅠㅠ}{168:2년 전 :  별표 3개  : 앉음과 동시에 음식이 나옴}{169:1년 전 :  별표 1개  : 국수가격이 넘비싸요! 콩국수 맛있는데 먹고나면 속이 더부룩ㅠ}{170:1년 전 :  별표 3개  : 평범한데 방송이 부풀린 맛}{171:2년 전 :  별표 4개  : 국수가 유명한곳. 만두도 괜찮네요}{172:1년 전 :  별표 4개  : 맛집이나 가격이 너무 비싸 서민이 이용하기에는 부담스러움}{173:2년 전 :  별표 3개  : 왜 맛집인지는 잘 모르겠음겉절이가 너무 달아서 싫음}{174:8달 전 :  별표 5개  : 여의도 가성비 맛집!}{175:1년 전 :  별표 4개  : 여의도 유명 맛집.}{176:2년 전 :  별표 5개  : 여의도에서 최고의 식당. 언제나 가고싶은 곳}{177:2년 전 :  별표 4개  : 저는 좋아하는 정소예요.}{178:2년 전 :  별표 4개  : 콩국수 먹고쁘면. 자기 되는 집. 김치가 예술. 누구에게나 추천해도 무방.}{179:2년 전 :  별표 5개  : 구수하고 맛최고  굿}{180:2년 전 :  별표 4개  : 걸쭉한 콩국수 본연의 맛.}{181:2년 전 :  별표 5개  : 진주집 중독. 시콤새콤 비빔국수 곱빼기도 부족. ^^}{182:2년 전 :  별표 4개  : 콩국수가 느끼하지 않고 맛있어요}{183:2년 전 :  별표 5개  : 모든 국수가 맛있다~^^}{184:2년 전 :  별표 4개  : 콩국수가 굿입니다.}{185:1년 전 :  별표 4개  : 김치가 내 입맛에 딱 맞다.}{186:1년 전 :  별표 5개  : 자주왔어요. 너무 맛있어요!!!}{187:1달 전 :  별표 5개  : 맛있어요!!}{188:2년 전 :  별표 5개  : 중독성  쩌는  국수집  국수팔아 사장이 빌딩 올렸다던데  콩국수  칼국수 비빔국수 다 맛나다   특히 콩국수는    }{189:1년 전 :  별표 5개  : 점심 저녁으로 항상 대기줄 있는 맛집}{190:1년 전 :  별표 5개  : 여전히 국수 맛으로 만원이네요.}{191:1년 전 :  별표 5개  : 콩국수 가격이 만원이지만 다시 가고 싶습니다}{192:8년 전 :  별표 4개  : 처음에 4천원쯤할 때 먹어보고 반했었는데 이제는 거의 만원 가까이 올랐다는 점이 아쉽네요. 여름에 정말 후회하지 않을 진하고 구수한 멋진 콩국수 맛을 보여줍니다.}{193:1년 전 :  별표 3개  : 맛있고 비싸다 9천원}{194:10달 전 :  별표 5개  : 미친농도의 콩국물}{195:11달 전 :  별표 1개  : 맛없고 사람 많고}{196:2년 전 :  별표 3개  : 콩국수 및 김치는 좋음. 그 외에는 별로임. 여름엔 대기가 김.}{197:10달 전 :  별표 5개  : 여의도 비빔국수 맛집!!! 만두도 맛잇어오!}{198:1년 전 :  별표 3개  : 생각보다 맛 없었음}{199:2년 전 :  별표 5개  : 닭칼국수 비빔국수 냉콩국수 다 맛있음. 특히 냉콩국수는 여름 별미}{200:7달 전 :  별표 5개  : 맛 맛맛}{201:2년 전 :  별표 5개  : 유명한 음식점  맛도 굿}{202:1년 전 :  별표 5개  : 너무맛있었습니다.}{203:1년 전 :  별표 3개  : 가격 매년 인상..  콩국수 만천원ㅠ}{204:1년 전 :  별표 5개  : 여기는 콩국수를 먹어야함}{205:1년 전 :  별표 3개  : 맛은 정상 가격은 비정상}{206:2년 전 :  별표 5개  : 최고의 콩국수.  거기에 잘 어울리는 김치!}{207:2년 전 :  별표 5개  : 걸죽한 콩국수의 진수.}{208:2년 전 :  별표 5개  : 대기는길어도 회전율빠름}{209:1년 전 :  별표 5개  : 올해 겨울에는 2달간 콩국수를 하지 않습니다. 너무너무 좋아하는데 우울합니다. 대안으로 닭칼국수를 먹고 있습니다.}{210:1년 전 :  별표 5개  : 콩국수 국내최고.}{211:2년 전 :  별표 4개  : 맛있는 콩국수집. 비싼가격. 주차비 500원}{212:3년 전 :  별표 4개  : 비빔국수와 닭칼국수가 메인인 가게.콩국수도 괜찮다는 평.점심시간엔 줄을 서야할정도.}{213:1년 전 :  별표 5개  : 콩국수가 가장 유명해서 많은 테이블에서 콩국수만 드시는데 닭칼국수나 비빔국수도 굉장히 맛있음.}{214:2년 전 :  별표 3개  : 맛은 그럭저럭줄은 왜 서는지 모르겠음}{215:2년 전 :  별표 3개  : 진한콩국수.가격은 맘에 안든다}{216:1년 전 :  별표 4개  : 맛은 좋으나 가격이 좀 비싸네요}{217:1년 전 :  별표 5개  : 너무 맛있었어요!}{218:1년 전 :  별표 4개  : 콩국수 11000원으로 올랐어요.ㅜ}{219:2년 전 :  별표 3개  : 점심 피크 시간을 살짝 피해 가는 것이 요령입니다. 붐비기도 하거니와 맛도 살짝 아쉬워 지는 듯해서요...}{220:3년 전 :  별표 3개  : 평일 점심에 사람이 많다..콩국수가 간판이라는데 내 입맛엔 비빔국수가 나은듯}{221:1년 전 :  별표 5개  : 아주맛잇엇습니다. 좀 짜지만 맛은좋어요}{222:1년 전 :  별표 1개  : 왜 줄을 서서 기다리는가..}{223:2년 전 :  별표 4개  : 나사콩국수와 함께 콩국수 투톱인 진주집토요일에 가는게 좋음 ㅋ}{224:2년 전 :  별표 5개  : 콩국수 만큼 김치가 훌륭합니다.}{225:2년 전 :  별표 4개  : 단점이라면 가격이비싸다는것.  근데 콩국수는 정말 고소하고 맛있음.}{226:3년 전 :  별표 5개  : 이렇게 맛있는 비빔국수가...비빔국수와 콩국수를 같이 먹으면 진정 맛있음!!!!강추강추}{227:1년 전 :  별표 4개  : 개인적으로 김치가 좋아요}{228:4년 전 :  별표 5개  : 콩국수 칼국수 비빔국수 만두 모두 기본에 충실한 맛. 강추 입니다.그러나 가격이 좀 쎄네요. 콩국수는 9500원 나머지는 8000원}{229:2년 전 :  별표 5개  : 콩국수는 기본이고 비빔국수도 맛있어요}{230:2년 전 :  별표 5개  : 비빔국수 최고에요 만두는 비싼 편이지만 알차고 맛있어요 (8000원) 콩국수와 비빔 국수 진짜 맛있고 닭칼국수는 그냥 그랬어요 보쌈김치 정말 맛있고 포장도 가능합니다}{231:2년 전 :  별표 4개  : 언제나 즐겨 찾는 콩국수가 유명한 집}{232:1년 전 :  별표 5개  : 이집 비빔국수는 죽기전에 다시 먹고 싶은 맛.}{233:1달 전 :  별표 5개  : 양마늠}{234:1년 전 :  별표 5개  : 콩국수가 갑이라 하나 겨울이라 안될줄 알고 닭칼국수 먹었는데 지금도 가능하다고 하네요 ㅠ 암튼 닭칼국수도 짱이였습니다 맛집 강추~}{235:1년 전 :  별표 4개  : 3월까지 콩국수는 하지 않는다고 해서 비빔국수 먹었는데 맛있네요}{236:2년 전 :  별표 5개  : 콩국수가  맛나요  김치도 맛있고요}{237:3년 전 :  별표 5개  : 비빔국수 진짜 맛있어요!!! 김치가 칼국수랑 정말 잘 어울려요. 김치 판매하면 좋을텐뎅 ㅜㅎ}{238:1년 전 :  별표 4개  : 콩국수에서 비린내 1도 안나고 너무 고소했어요. 김치도 존맛}{239:1년 전 :  별표 4개  : 맛 있으나 다소 가격이 있음}{240:2년 전 :  별표 4개  : 이곳의 응대는 항상 사람을 당황시킨다...인간 테트리스를 너무 심하게 해서 짜증난다.맛 없음 안갈텐데.... 비싸기까지 하지만. 그래도 가끔 간다.맛은 있다!!!}{241:1년 전 :  별표 4개  : 줄이너무길어요ㅠㅠ운좋게 바로먹을수있었어요}{242:2년 전 :  별표 5개  : 콩국수는 전국 최고맛입니다}{243:1년 전 :  별표 5개  : 신세계 콩국수. 김치의 조화&lt;U+0001F44D&gt;}{244:2년 전 :  별표 5개  : 사람이 항상 많은거 빼고는 훌륭.}{245:1년 전 :  별표 4개  : 여의도 맛집. 초스피드 테이블회전}{246:1년 전 :  별표 5개  : 국수도 만두도 너무너무 맛있다}{247:1년 전 :  별표 4개  : 넓직하고    좋았음.  김치가 특이했고}{248:1년 전 :  별표 5개  : 가을에도 겨울에도 콩국수 일품}{249:2년 전 :  별표 5개  : 콩국수 강추 살~짝 짭짤한데 아주 맛있었어요콩국도 딱 적당한 농도로 진한 콩맛이 맛있고국수는 예술이었어요}{250:2년 전 :  별표 3개  : 평일 점심 사람이 너무 많음.}{251:1달 전 :  별표 5개  : 콩국수 레전드}{252:1년 전 :  별표 4개  : 콩국수 먹으러 갔다가 비빔국수에 반하고 간다.}{253:2년 전 :  별표 4개  : 좀 기다리긴 했지만 생각보다 줄이 빨리 빠지고 국수도 맛있는 편이었음}{254:2년 전 :  별표 1개  : 비싸고 주차비도 내돈 내야됨 안감}{255:1년 전 :  별표 4개  : 콩국수와 맛김치의 절묘한 조화라고 할까요 콩국수중에 대한민국 최고라고 생각합니다 방문하시려면 토요일 방문하세요 손님이 너무많아 평일은 자리잡기 힘들어요}{256:1년 전 :  별표 4개  : 콩국수 맛있음. 허나 주차장 및 서비스 노답.}{257:2년 전 :  별표 5개  : 비빔국수 최고임. 대한항공 이명희 빰빠구 후려치는 개운한 맛임.}{258:2년 전 :  별표 4개  : 맛있고  깨끗하다 가족단위 식사도 좋다}{259:2년 전 :  별표 5개  : 인생국수를 만남}{260:1년 전 :  별표 4개  : 기대 많이 하지마세오}{261:2년 전 :  별표 5개  : 콩국수 국물이 진하고 맛있으나 한그릇 만원}{262:1년 전 :  별표 5개  : 모든 메뉴가 다 맛있음}{263:1년 전 :  별표 5개  : 콩국수는 역시 지존인집입니다.}{264:2년 전 :  별표 5개  : 맛좋아요.일찍 가든가 늦게 가야합니다.}{265:1년 전 :  별표 4개  : 영자언니의 픽으로 go! 갠적으로 닭칼국수가 위너}{266:2년 전 :  별표 4개  : 괜한 명성은 아니었음. 추천함.}{267:1년 전 :  별표 4개  : 여의도 백화점 지하 1층에 있는 진주집. 가게를 확장해서 여러 곳이 있다. 냉콩국수는 소금을 넣은듯 소금맛이 나지만 맛있다. 만두도 괜찮은편. 평일 오전 11시 반쯤가니 한산했지만 조금지나니 바로 붐볐음. 가격은 조금 비싼 것 같았으나 여의도 물가생각하면 무난한 것 같다.(콩국수 만원 접시만두 8천원). 식사 후 주차권 1시간(500원)을 구매할 수 있으니 주차하신분들은 참고.}{268:4년 전 :  별표 4개  : 직접 담든 김치를 포기김치처럼 한 사람이 계속 써는 걸 보여주는 퍼포먼스를 한다. 닭칼국수는 만두가 들어가 있고 걸죽한 맛. 콩국수는 담백하고 면발이 쫄깃. 만두는 상대적으로 좀 약한 맛..}{269:2년 전 :  별표 4개  : 맛있으면 4점이죠~^}{270:3년 전 :  별표 5개  : 콩국수가 정말 맛있습니다. 김치는 더 맛있구요. 콩국수 좋아하시는 분은 꼭꼭 가보세요}{271:1년 전 :  별표 5개  : 진하고 고소한 콩국수와 맵지않고 매끈한 비빔국수}{272:2년 전 :  별표 3개  : 맛이 자꾸 변해가는듯해서 아쉬움점이 있음. 김치와 면에  신경을 좀썼으면~~~}{273:2년 전 :  별표 1개  : 맛은 떨어지고 가격은 올라가고~}{274:2년 전 :  별표 5개  : 난 콩국수보다 닭칼국수가 좋았어요 일단 김치가 일품입니다 꼭 드셔보시길}{275:1년 전 :  별표 4개  : 여기 콩국수가 진리입니다. 다른곳에서 콩국수 안먹어요. 오직 여기서만 먹어요.}{276:1년 전 :  별표 5개  : 진리의 콩국수 김치까지 완벽}{277:1년 전 :  별표 4개  : 콩국수 진하고 맛있어요 짜지 않고 보신되는 느낌이에요.}{278:1년 전 :  별표 4개  : 가성비 잘 모르겠음}{279:2년 전 :  별표 4개  : 맛은 있는데  비쌈. 차라리 양을 줄이고 가격을 내렸으면 ㅠㅠ 양 진짜 많음}{280:10달 전 :  별표 5개  : 언제가도 실망은없네요}{281:2년 전 :  별표 4개  : 영자누님추천집김치가 맛나요}{282:1년 전 :  별표 4개  : 맛은 있으나 비싸고 줄을 서야함}{283:1년 전 :  별표 5개  : 김치맛집! 물론 음식도 맛있습니다}{284:10달 전 :  별표 4개  : 콩국수는 맛있음 비빔은 달달한편}{285:1년 전 :  별표 5개  : 콩국수에 짭쪼름한 김치 한점. 강추!!}{286:1년 전 :  별표 4개  : 미원맛나는 김치와 콩국수는 최고의조합!!!!}{287:3달 전 :  별표 5개  : 콩국수 끝장}{288:1년 전 :  별표 5개  : 콩국수 꿀맛  만두도 꿀맛... 점심도 저녁도 사람은 항상 많음간단히 먹고 퇴근하기에 딱좋음!!}{289:2년 전 :  별표 4개  : 서울 최고의 콩국수 맛집이죠전국맛집일수도보쌈김치도 최고죠대기 줄 기다림과시끄럽고 혼잡한 식당홀은 불편합니다만가격대비 만족합니다}{290:1달 전 :  별표 4개  : 김치짱}{291:3년 전 :  별표 2개  : 길게 줄을서서 먹어야할만큼의 가치를 못느끼겠음 ... 닭칼국수 육수는 맛남.   콩국수는 최악중최악 느끼해서 거의 몇젓가락 못먹고 나옴...속이 니글거렸음}{292:2년 전 :  별표 4개  : 4가지 메뉴 모두 맛있는집. 4명이서 4가지 메뉴주문!}{293:3년 전 :  별표 5개  : 맛있습니다.저는 콩국수보단 닭칼국수가 맛있더군요.그리고 김치가 맛납니다.점심때는 대기해야되니 피하시는게 좋습니다.}{294:1년 전 :  별표 3개  : 콩국수 맛집인데 겨울이라 콩국수를 안함ㅜㅜ}{295:8년 전 :  별표 5개  : 여름엔 콩국수 겨울에도 다른국수. 가격이 꽤 비싸지만 먹고나면 맛도좋고 배도불러 그렇게 아깝지는 않음. 김치와 무말랭이도 맛있다. 일요일에 안하는게 흠이랄까.(요즘은 하는지 어떤지 모르겠다)}{296:2년 전 :  별표 5개  : 최고의 콩국수 집.대기 줄도 엄청나요}{297:2년 전 :  별표 4개  : 가격은 깡패지만 맛있습니다.줄은 길지만 회전율이 좋아서 금방 먹을수 있어요}{298:1년 전 :  별표 4개  : 닭 육수로 만든 맛있는 칼국수집!}{299:2년 전 :  별표 4개  : 맛있는 국수집이만 가성비는 별로...}{300:1년 전 :  별표 5개  : 최고의 여름별미 콩국수 집}{301:1년 전 :  별표 5개  : 비교불가 크림 콩국수 맛}{302:1년 전 :  별표 5개  : 더운 여름날 시원한 콩국수 한그릇!}{303:1년 전 :  별표 2개  : 예전맛집이라 간간히가는데 예전맛이전혀안나요 닭칼국수는 명동칼국수보다못해요}{304:2년 전 :  별표 5개  : 닭칼국수미만잡 만두도 맛있어요 칼국수에 만두 두 개 포함 되어 있으니 많이 드시는 분 아니라면 굳이 만두 추가하실 필요는 없습니다}{305:1년 전 :  별표 4개  : 맛있어요.많이들이용하세요.}{306:1년 전 :  별표 3개  : 여의도의 명소? 직장인들이 왜 몰리는지 연구대상}{307:2년 전 :  별표 5개  : 닭칼국수 비빔국수 육개장 냉콩국수 다 완전맛있어요 겉절이도 정말 굿이여요~ 평일저녁이나 주말에가면 웨이팅없이들어갈수있어요}{308:2년 전 :  별표 5개  : 너무너무 맛있습니다. 인생 콩국수!고소해서 그릇을 계속 핥게 되네요}{309:2년 전 :  별표 4개  : 맛은 별 다섯. 가격은 별 셋.주차권은 대당 500원. 주간 1시간 야간 3시간.}{310:2년 전 :  별표 5개  : 기다림의 즐거움 진정 맛집으로 소개드립니다^^♡♡♡}{311:2년 전 :  별표 3개  : 걸쭉한 국물에 김치올려먹는..평범하지 않아서 특이하긴 한데 스페셜하진 않음일부러 찾아갈 필요까진 한번은 가볼만}{312:1년 전 :  별표 3개  : 맛은 좋으나 갈때마다 가격이 오름}{313:5달 전 :  별표 4개  : 찐한 콩국수}{314:1년 전 :  별표 5개  : 개인적으로는 닭칼이 이 집 최고 메뉴 ㅋㅋ}{315:1년 전 :  별표 4개  : 가격은 다소 비싸지만 남대문 진주집과 달리 콩국수와 김치 맛을 잘 지키고 있습니다.}{316:1년 전 :  별표 4개  : 언제나 변치않는 맛}{317:1년 전 :  별표 5개  : 쫀득한 면발/ 넓고 많은 식탁/ 친절한 서빙}{318:3년 전 :  별표 5개  : 콩국수와 비빔국수가 맛있습니다. 겨울엔 닭 칼국수도 좋구요. 김치가 맛있는집. 사람이 너무 많아서 점심시간에는 대기가 필요합니다}{319:2년 전 :  별표 4개  : 맛있어여 정신없지만..?? 근데 줄서서까지 먹을정돈 아니구 김치는 최고!}{320:1년 전 :  별표 3개  : 콩국수랑 만두 먹어봄콩국수는 우리동네 콩국수가 더 맛있었고만두는 그냥 손만두김치는 꿀맛}{321:2년 전 :  별표 4개  : 콩국수외에 비빔국수나 닭칼국수도 맛남. 김치도 별미.}{322:1년 전 :  별표 4개  : 이집은 김치가 다함 닭칼국수하고 만두 그리고 김치가 최고 &lt;U+0001F44D&gt;&lt;U+0001F3FB&gt;&lt;U+0001F44D&gt;&lt;U+0001F3FB&gt;&lt;U+0001F44D&gt;&lt;U+0001F3FB&gt;&lt;U+0001F44D&gt;&lt;U+0001F3FB&gt;&lt;U+0001F44D&gt;&lt;U+0001F3FB&gt;&lt;U+0001F44D&gt;&lt;U+0001F3FB&gt;}{323:2년 전 :  별표 4개  : 콩국수 맛집이지만 정작 콩국수가 별로였던게 아쉽네요 제 지방의 콩국수맛과 많이 달랐음}{324:1년 전 :  별표 5개  : 말이 필요없는 최고의 콩국수집}{325:11달 전 :  별표 4개  : 맛있게 먹었습니다.}{326:1년 전 :  별표 5개  : 닭칼국수 고소하고 정말 맛있습니다 ㅎ}{327:2년 전 :  별표 5개  : 닭칼국수너무좋아해서 가끔가는데콩국수도 비빔국수도 맛나요신랑이랑 둘이가면 닭칼하나 비빔하나 접시만두하나 쎄립니다}{328:1년 전 :  별표 1개  : 콩국수는  그냥그냥~~김치는너무달고  msg맛이너무마니느껴지고  별로임!!}{329:1년 전 :  별표 1개  : 조미료 맛이 너무 강해서 그런지 뒷맛이 개운치 않아요}{330:2년 전 :  별표 2개  : 콩국수는 기대하지말고가세요 별로인데 1만원 비빔국수는 맛있어요 주차비500원 현금받는것도 별루였어요}{331:2년 전 :  별표 5개  : 닭칼국수로 유명하며 김치가 최고입니다}{332:1년 전 :  별표 5개  : 여긴 역사적으로 유명한 국수집. 여의도백화점 지하}{333:2년 전 :  별표 5개  : 비빔국수가 생각보다 안맵다. 콩국수가 진하다. 계단앞에 커피집 사장언니가 이쁘다.}{334:2년 전 :  별표 4개  : 모든 메뉴 다 맛있고 가성비도 좋다. 사람은 항상 많은편.}{335:1년 전 :  별표 5개  : 김치가맛나요 메뉴는 기본이구요~}{336:1년 전 :  별표 5개  : 첨엔 비싸다!! 생각했으나...먹어보면 후회없다!}{337:2년 전 :  별표 4개  : 콩국수는 맛있게 진하고 비빔국수는 매콤달콤하고 겉저리 김치가 맛있습니다..}{338:2년 전 :  별표 5개  : 내가 아는 서울에 단 2개 있는 맛있는 콩국수 집 중 하나.}{339:1년 전 :  별표 5개  : 비빔국수 정말 맛있어요  추천합니다 ^^}{340:1년 전 :  별표 5개  : 여름콩국수가 진짜 맛있는집}{341:2년 전 :  별표 3개  : 콩물국수 만두. 닭국수 먹었습니다. 맛은 보통의 맛.}{342:1년 전 :  별표 5개  : 정말 맛있어요콩국수 최고입니다}{343:1년 전 :  별표 4개  : 콩국수맛집.칼국수는 쏘쏘비빔국수는 쏘쏘김치맛집}{344:2년 전 :  별표 5개  : 닭칼 콩국 비빔국수 만두 대기시간 10분정도 맛 있음  최고임}{345:1년 전 :  별표 4개  : 처음 먹을 때는 엄청 맛있었는데.. 오늘 먹으니 너무 짰어요... 소금덩어리인줄 ㅜ}{346:1년 전 :  별표 4개  : 최애 콩국수집 가격은 깡패중에 깡패 김치가 예술}{347:2년 전 :  별표 4개  : 콩국수의 콩국물과 국수 두 맛의 조합이 적절하게 어우러져 맛이 뛰어남그러나 사람이 많아 오래 기다리려야 함}{348:1년 전 :  별표 3개  : 만두는 맛있었는데 칼국수 국수가 너무 쫄깃거리지 않어서 실망했어요}{349:1년 전 :  별표 5개  : 여의도에서는  상당히 유명한 콩국수 닭칼국수 맛집}{350:2년 전 :  별표 5개  : 맛있습니다. 여름 별미로 최고인듯 합니다.}{351:1년 전 :  별표 4개  : 비빔국수가 맛있는곳}{352:1년 전 :  별표 4개  : 맛있어요. 자주 가고 싶은 곳.}{353:1년 전 :  별표 3개  : 가격은 여의도라 비쌈 맛은 괜찮음 구천원에서 만천원}{354:2년 전 :  별표 5개  : 비빔닭국수보다 닭칼국수가 맛있어요 개인적으로 콩국수보다 닭칼국수가 더 맛있는듯}{355:3년 전 :  별표 4개  : 콩국수가 진하고 좋아요. 보통은 칼국수를 많이 먹지요. 점심시간 줄서있는 모습이 아주 장관입니다. 줄이 너무 길어요. }{356:1년 전 :  별표 5개  : 대기가 있지만 회전이 빨라서 기다릴만해요 김치가 예술이네요}{357:1년 전 :  별표 4개  : 진주집은 “콩숙수 + 김치”는 귿. 하지만 나머지 메뉴는 가격이 너무 비싸고 맛도 별로.}{358:1년 전 :  별표 1개  : 시끄러워. 일던 예전맛은 없고.. 아줌마들 불친절... 주차비 현금으로 할인권 사라하고.. 정산할때비싸니 사던지 말던지 하라하는 개 싸가지 인간들.. 가격도 드럽게 올랐다.}{359:7달 전 :  별표 4개  : 맛집이라 찾아갔는데 보통.}{360:2년 전 :  별표 4개  : 콩국수먹었는데 시원하고 고소해서 너무 잘먹었어요김치도 꿀맛}{361:3년 전 :  별표 4개  : '나사에서 만든' 믹서기로 만든 콩국수와 닭칼국수.콩국수는 귀한 콩으로 맨든거라 그런지 부드럽다. 닭칼국수는 딱 기대한만큼의 맛.가끔은 생각날만 한 집인듯 함.}{362:1년 전 :  별표 4개  : 점심 가볍게 먹기 좋음 김치 존맛}{363:2년 전 :  별표 5개  : 콩국수 맛있는곳. 그외 닭칼국수와 비빔국수도 맛있는 곳. 여름에는 줄이 길어 점심 먹기 정말 힘든 곳 ㅎ}{364:1년 전 :  별표 5개  : ㄹㅇ흠잡을데없이 모든 음식이 맛있다}{365:1년 전 :  별표 5개  : 여름에 일주일에 2번씩 찾는 콩국수맛집콩국수 초보도 충분히 도전가능한곳~!!!}{366:1년 전 :  별표 5개  : 항상 일정한 맛을 유지해서 좋습니다 콩국수 중 갑인듯}{367:1년 전 :  별표 4개  : 여의도 국수 맛집 아주 좋아요 단 가격이 좀 높아요}{368:2년 전 :  별표 5개  : 콩국수 맛있어요. 김치도 맛있어요. 다음엔 다른것도 먹어볼게요}{369:3년 전 :  별표 4개  : 프랜차이즈 가득한 동여의도에서 감히 맛집이라 칭할 수 있는 곳. 여름 점심 때는 미어터지나 회전율이 높아 자리가 빨리 남}{370:2년 전 :  별표 5개  : 가격도 적당하고(여의도 그 고물가 지역 내에서는요.) 맛도 있습니다. 비빔국수는 맛있었고요. (단 단 거 별로 안좋아하시면 비추입니다. 약간 달게 나옵니다.) 다른메뉴는 잘 모르겠네요.}{371:1년 전 :  별표 3개  : 찐한 콩국! 달큰한 김치!맛있다고는 안했다..}{372:2년 전 :  별표 4개  : 예전만큼은 못하지만여의도에서 줄 제일 많이 서는 집.ㅠㅠ.그래도회전율이 빨라서최장 10분 이내에는 먹는다는여름에는 콩국수가 젤 인기지만(넘 비쌈.ㅠㅠ) 난 항상 닭칼국수가 최고~!!}{373:1년 전 :  별표 5개  : 콩국수 먹는 사람이 이리 많을 줄이야콩국수랑 비빔국수가 맛있습니다김치도  Good}{374:1년 전 :  별표 4개  : 맛있습니다.주문도 빨리 나오구시원한 김치도 좋아요.}{375:1년 전 :  별표 3개  : 맛은 괞찮으나 너무정신없음}{376:1년 전 :  별표 5개  : 감히 서울 내에서는 타의 추종을 불허하는 비빔국수 맛이라고 생각(2위는 망향국수)가격이 비싼게 흠. 내부 인테리어는 시간의 흐름이 멈춘 듯 ㅎㅎ}{377:1년 전 :  별표 5개  : 역시 여름에는 콩국수 한 그릇.점심시간에는 30분이상 줄을 서야 먹을 수 있습니다.}{378:2년 전 :  별표 4개  : 식사시간 때에 가면  줄서는거 관리하는 직원이 따로 있을 정도로 많이 기다림 하지만 맛이나 가격 모두 만족함}{379:1년 전 :  별표 4개  : 가격이 저렴한건 아니지만 맛은 훌륭함}{380:1달 전 :  별표 5개  : 콩국수 맛집}{381:1년 전 :  별표 3개  : 비빔국수와 만두가 맛있어요!!! 양도 푸짐하지만 가격대비 가성비는 좀 아쉬운 곳 ㅠㅠ}{382:1년 전 :  별표 4개  : 웨이팅없이 먹기엔 괜찮은곳이에요 콩국수특이함 여긴만두맛집임}{383:1년 전 :  별표 5개  : 여기 콩국수랑 김치는 진짜 최고}{384:1년 전 :  별표 3개  : 비빔국수 양념이 여름이라 그런지 평소보다 짜고 달아 자극적인 맛이 심했어요}{385:3년 전 :  별표 5개  : 재료 좋다. 맛 좋다. 양도 충분. 양 많이 달라고 해도 가격 같다. 식사시간에 사람 많음}{386:3년 전 :  별표 4개  : 진한 콩국수. 여러명이서 간다면 비빈국수도 한두개 시켜서 나눠먹으면 더 좋을듯}{387:1년 전 :  별표 4개  : 사람이 너무 많아 점심시간 이용할 때는 일찍이나 늦게 가시는걸 추천 드려요.}{388:1년 전 :  별표 5개  : 국물 진함.점심때는 항상 줄이 있음.}{389:2년 전 :  별표 4개  : 여의도 직딩 10년차... 한때 여의도 최고 맛집이라는 명성도 있었지만....어딘지 모르게 달라져버린 맛...  이제는 누군가에게 추천하지 않습니다}{390:1년 전 :  별표 5개  : 비싸지만 콩국수의 정석}{391:1년 전 :  별표 4개  : 콩국수는 최고 비빔국수는 별로}{392:1년 전 :  별표 5개  : 닭칼국수 그리고 서울3대 콩국수집 우왕 맛잇어요}{393:3년 전 :  별표 5개  : 점심에 근처 직장인들이 긴 줄을 서서 기다리다 먹습니다. 아무리 줄이 길어도 회전이 빨라 20분 내외면 들어갈 수 있습니다. 콩국물이 진하고 무척 고소합니다. 기다린 보람을 느낄 수 있습니다.}{394:1년 전 :  별표 3개  : 괜찮은 맛의 국수들을 팔지만 굳이 찾아먹을 맛은 아님.}{395:1년 전 :  별표 5개  : 맛나긴 맛나요 묘한매력}{396:2년 전 :  별표 4개  : 콩국수 맛난데 비쌈. 칼국수랑 비빔은 옛날과 맛이 좀 바뀐듯. 점심때 가면 한줄.}{397:1년 전 :  별표 5개  : 콩국수가 진짜 진하고 맛있어요 비빔국수도 맛있고 단 줄이 엄~~~~청 길어요 하지만 사람들이금새 빠징}{398:1년 전 :  별표 3개  : 콩국수의 전통맛집..다른데 비해 가격이 좀 세다는 평}{399:1년 전 :  별표 4개  : 콩국수는 정말 인정. 값이 좀 비싸다면 비싼게 흠이랄까.}{400:10달 전 :  별표 4개  : 김치가 특색있음}{401:1년 전 :  별표 4개  : 사실 그렇게 까지 인기 있는 이유는 모르겠음}{402:9달 전 :  별표 4개  : 닭칼국수 맛있고 비빔국수가 지존!!!}{403:1년 전 :  별표 5개  : 진한 콩국물에 씹는맛이 일품인 무우말랭이. 진짜 넘 맛있음.}{404:2년 전 :  별표 4개  : 직원들이 프로라서 일을 일사천리도 한다. 음식도 빨리 나온다.. 맛도 맛나다.. 가격도 비싸다..}{405:1년 전 :  별표 5개  : 비빔국수 고소하고 맛있어요! 직원분들도 친절하고 너무좋았습니다!}{406:2년 전 :  별표 2개  : 태평로 진주식당에 크게 못미침. 30% 수준의 아주 평범한 맛 만두와 칼국수는 조미료 향이 물씬.}{407:1년 전 :  별표 4개  : 국수 맛있어요. 빨리 먹어야 하는 압박감이 아쉽네요.}{408:3년 전 :  별표 4개  : 콩국수와 만두가 일품인집.콩국수는 서울에서 5손가락 안에 들 정도의고소한맛. 줄을서는 경우가 많음.}{409:1년 전 :  별표 5개  : 온몸에 단백질이 충만해지는것같은 건강한맛입니다}{410:1년 전 :  별표 5개  : 콩국수가 이곳보다 진하고 맛나는데를 가본적이없다}{411:1년 전 :  별표 3개  : 비빔국수는 너무달고 만두는 그럭저럭 닭칼국수는 보통이네요!!}{412:2년 전 :  별표 5개  : 이영자님의 입맛은 옮습니다영자님께서 방문했다는 집을 처음으로 가보았습니다정답입니다칼국수 정말 맛있습니다만두 정말 정말 맛있습니다김치!!! 정말정말정말 맛있습니다모두 맛있습니다}{413:1년 전 :  별표 4개  : 웨이팅 감수걸쭉한 콩국수를 원한다면 강추. 만두 추천}{414:2년 전 :  별표 4개  : 비빔국수가 맛있긴한데 참기름이 엄청 많이 들어간거 같아요 콩국수는 콩으로만 한것 같진않고 다른게 같이 들어간거 같은데 제입맛에는 안맞네요}{415:1년 전 :  별표 5개  : 살아있는 콩국수 전설이죠!}{416:1년 전 :  별표 1개  : 너무 짜다. 시청에 있는 진주집과는 전혀 다른 맛... 다시는 안갈란다...}{417:1년 전 :  별표 4개  : 가성비가 좋아요. 콩국수 국물이 진합니다.}{418:1년 전 :  별표 4개  : 칼국수콩국수비빔국수가 생각날때 좋아요}{419:11달 전 :  별표 4개  : 사람이많은덴이유가있더라}{420:1년 전 :  별표 3개  : 콩국수 야 너무나 유명하지만 맛 으론 비빔국수 도 밀리지 않아요. 하지만 전체적으로 보면 수십년째 가성비론 살짝 의구심이 들기도 해요}{421:1년 전 :  별표 4개  : 가격 비싸지맘 맛있습니다. 또 가고 싶어질 듯}{422:1년 전 :  별표 4개  : 진한 콩국물. 닭칼국수도 맛남. 김치도 맛남. 서비스는 그닥.}{423:1년 전 :  별표 5개  : 역시 실망을 주지 않는 진주집.. 하지만 오늘은 비빔국수가 조금 짜요... 주방장님의 컨디션이 안 좋았는지.. 하지만.. 민두가 정말 맛나서.. 괜찮았음.. 역시 진주집 하면 콩국수 걸죽함을 추천 추천..}{424:1년 전 :  별표 4개  : 이곳에 올 때마다 항상 설명이 필요없는 콩국수만 먹다가 닭칼국수도 먹어 봤는데 담에 올 땐 뭘 시킬지 고민될 맛이다. 김치에 단맛만 조금 빠졌으면^^}{425:2년 전 :  별표 5개  : 여의도치고 적당한 가격에 맛도 좋음. 김치가 특히 맛있습니다. 여름엔 콩국수 먹으러 또 갈듯}{426:1년 전 :  별표 4개  : 한결같은 콩물맛에 오늘도 만족합니다.}{427:1년 전 :  별표 5개  : 최고의 콩국수와 김치!! 만두도 넘 맛나요!!}{428:1년 전 :  별표 4개  : 콩국수와 비빔국수 맛나요.콩국수면은 좀더 굵은게 더 좋은것같아요.}{429:1년 전 :  별표 4개  : 여름이면 생각나는 콩국수 먹으러 방문. 여름에는 대기가 길지만 맛은 무난합니다}{430:1년 전 :  별표 3개  : 가격이 너무 비싸다.}{431:1년 전 :  별표 3개  : 명성이나 웨이팅에 비해서는 맛이 썩....기대할 정도는 아녜요}{432:1년 전 :  별표 3개  : 비빔국수 콩국수 맛은 별 네개가격은 비싸서 별 두개평균 3점입니다.}{433:2년 전 :  별표 4개  : 여의도 백화점 지하 식당에 있고요. 나름 색다른 콩국수와 비빔국수 닭칼국수 좋습니다.}{434:1년 전 :  별표 5개  : 개인적으로 콩국수를 좋아하지 않아서 칼국수만 먹는데.. 칼국수는 아주 만족.}{435:1년 전 :  별표 4개  : 여의도 최고 맛집 중 하나. 콩국수가 그렇게나 유명함. 난 콩국수는 싫어하니 닭칼국수만 먹음.}{436:1년 전 :  별표 5개  : 콩국수찐하고 김치가 달달하고 맛나요}{437:1년 전 :  별표 4개  : 여름엔 긴~줄을 서서 먹을 정도로 인기좋은 콩국수와겨울엔 닭칼국수가 인기.}{438:2년 전 :  별표 5개  : 빠른시간에 제공하는 노하우 콩국수와 비빔국수는 최상급의 맛을 자랑한다. 지역의 특성상 비싼편이나 여의도 평균가액이다.}{439:9달 전 :  별표 5개  : 정말 맛있는 국수집}{440:1년 전 :  별표 4개  : 콩국수가 대표. 다른 메뉴도 맛있도. 회전율도 빨라서 좋아요.}{441:1년 전 :  별표 4개  : 콩국수 비빔면 맛있어요. 콩물 사다가 집에서도 먹습니다.}{442:2년 전 :  별표 4개  : 점심가면 사람 엄청많아요...미리 가도 사람다 안오면 입장못해요.}{443:2년 전 :  별표 5개  : 이십년도 더 전에 직장다닐때부터 단골집입니다.구수하고걸쭉한 콩국물과 같이나오는 달콤짭쪼름한 김치가 정말끝내줍니다}{444:1년 전 :  별표 4개  : 맛은 있는데 콩국수 11000원은 좀 저항감이 있다.}{445:3년 전 :  별표 3개  : 진주회관은 큰 아들 진주집은 작은 아들이라고 한다. (진짜인지는 정확히 모르지만)형만한 아우 없다? 진주회관보다 양이 많고 김치가 단연 맛있지만 진주회관이 승!그래도 이 정도 콩국수는 서울에 별로 없다. }{446:2년 전 :  별표 4개  : 맛있다. 비싸다. 서빙 시스템은 국대급이다. 줄이 길어도 생각보단 빨리 차례가 오는 집.}{447:10달 전 :  별표 1개  : 서울엔 콩국수 맛집 찾기가 진짜 힘든가보다이 정도 맛으로 이런 미친 가격을 쳐 받다니}{448:11달 전 :  별표 5개  : 맛있어요:)김치도 정말 맛있어요~~!}{449:2년 전 :  별표 4개  : 일단 사람이 매우매우 많습니다 그래서 식사시간에 찾아가면 기다려야하는 경우가 있습니다. 하지만 여기가 회사 근처라 회전율도 빠르기 때문에 조금의 인내심으로 통과 하였습니다. 비빔국수 만두 콩국수 이렇게 먹었는데 하나당 8천원씩합니다. 저는 원래 부산사람이라 가격에 매우 충격 받았지만 양과 맛은 매우 만족했습니다!! 둘이서 3개 먹기가 힘들었어요! 다들 맛있는 점심 드세요!}{450:2년 전 :  별표 3개  : 콩국수가 유명하다고 해서 먹으러 갔는데 국수도 괜찮고 콩국물도 진했어요.김치도 맛있었어요.}{451:3년 전 :  별표 4개  : 지속적으로 가격이 오른 걸쭉하고 진한 콩국수 맛깔난 접시만두를 드시고 싶다면 주차비 500원을 준비하세요.You need to prepare 500 Korean won for parking fee when you want to have noodles in cold bean soup which has thick soup but price has been increased consistently and delicious dumpling.}{452:1년 전 :  별표 1개  : 소문난 잔치 먹을거 없답니다. 양념이 짜고 달고 비빔국수는 최악이었어요.}{453:8달 전 :  별표 4개  : 맛나요 근데 비빔국수는 넘달아서 ㅠ}{454:1년 전 :  별표 4개  : 양이 정말 많아요~~만두도 맛있구요..가격 내리고 양 돔 줄이면 좋겠어요~~}{455:2년 전 :  별표 4개  : 칼국수면도 정말부드럽고 김치도 맛있습니다와서 줄서서 먹어야하지만 아깝지 않을 맛여의도쪽에서 맛집하나 발견했습니다}{456:1년 전 :  별표 4개  : 콩국수국무리 구수합니다.}{457:1년 전 :  별표 5개  : 가격은 비싼데 맛은 확실합니다. 평일 점심시간엔 웨이팅이 길어요}{458:1년 전 :  별표 3개  : 20년전부터 다니다가 가격이 스믈스믈 올라서 안갔는데 오랜만에 가니 맛도 변했네요.TT}{459:1년 전 :  별표 4개  : 맛있는 국수와 무말랭이김치. 가격은 조금.}{460:1년 전 :  별표 4개  : 콩국수 맛나네요 여름엔 꼭 한번은 가는듯}{461:1년 전 :  별표 4개  : 콩국수  비빔국수 보쌈김치 맛나요  줄서서 들어가지만 금방자리납니다. ㅎ}{462:1년 전 :  별표 5개  : 두번말하면 입아픕니다.. 비빔국수 콩국수 둘다 짱 ㅠ ㅠ}{463:1년 전 :  별표 5개  : 기다리는 사람 100명넘어보였는데 이십분만에 맛있게 먹고왔오요ㅎㅎ}{464:1년 전 :  별표 4개  : 친구 추천으로 방문했는데 양이 많고 맛있었어요.}{465:9달 전 :  별표 4개  : 가격빼곤 다 좋음}{466:1년 전 :  별표 3개  : 너무비싸요. 콩국수 11000 원.. 주차요금도 따로받는건 너무한듯}{467:1년 전 :  별표 5개  : 최고의 콩국수집. 비빔 국수도 맛있어요. 저는 칼국수를 좋아하지 않지만 진주집 칼국수는 먹어요.}{468:2주 전 :  별표 3개  : 좋아요}{469:1년 전 :  별표 5개  : 언제나 최고! 다른 곳의 콩국수는 못 먹는다..이제}{470:1년 전 :  별표 5개  : 가격이외엔 흠잡을게 없어요}{471:1년 전 :  별표 5개  : 맛있음~~4가지 다 시켜 먹었어요. 비빔국수가 제일 맛있더라고요^^}{472:8달 전 :  별표 5개  : 메뉴 4가지 맛집일요일은 닫음겨울은 칼국수 맛집}{473:1년 전 :  별표 4개  : 콩국수와 비빔국수가 내 입맛에 맞는집...거기에 김치한점이란 ^^}{474:1년 전 :  별표 3개  : 영자누나말듣고갔는데겨울엔콩국수안함}{475:1년 전 :  별표 5개  : 진한 국물에 그 맛이 정말 일품이다. 콩국수가 생각날 때면 여의도 진주집.}{476:2년 전 :  별표 4개  : 콩국수가 진하고 맛납니다. 김치가 특히 굿이네요. 점심시간에는 줄을 엄청 섭니다. 근데 회전율이 높아 오래 안기다려도 됩니다. 콩국수는 만원}{477:9달 전 :  별표 4개  : 가성비는 떨어지나 워낙 유명하니 한번은 먹을만함}{478:9달 전 :  별표 3개  : 그냥 먹을만 그정도}{479:1년 전 :  별표 4개  : 여름에 콩국수 비빔국수 맛남닭칼국수에 만두가 동동.  여의도백화점 지하 나름 손꼽히는 집~}{480:1년 전 :  별표 4개  : 맛있는데 점심에는 사람 너무 많아요}{481:1년 전 :  별표 4개  : 맛있습니다. 예전에는 비싼 가격이었지만 지금은 다른 물가가 너무 올라 상대적으로 비싼 느낌이 없습니다. 주차 조금 불편합니다. 콩국수가 가장 좋은 집이고 비빔국수 국물을 좀 더 성의있게 만들어 줘야 할 거 같습니다.}{482:1년 전 :  별표 4개  : 토요일인데 20분 정도 줄서서 먹었다~콩국수 본연의 맛보다는 땅콩이 많이 첨가된 느낌~넘 곱게 갈리어서 요쿠르트를 먹는 듯함~~콩국수보단 김치가 더 맛있었음~~김치 킹왕짱!!!!!}{483:1년 전 :  별표 3개  : 개인적인 생각입니다. 소문만큼의 맛과 분위기는 아닌듯합니다. 음식에 비해 가격대도 과하고 서비스도 많이 부족합니다.}{484:1년 전 :  별표 5개  : 닭칼구수랑 김치 맛있음 시원한 맛에 속이 풀림}{485:1년 전 :  별표 5개  : 줄이 너무 길다 점심때 수천명 온듯}{486:2년 전 :  별표 5개  : 최고의 콩국수 맛을 자랑합니다. 진한 콩국물이 김치랑 잘 어울려서 특별히 소금은 뿌리지 않고 같이 먹습니다.}{487:1달 전 :  별표 5개  : 말모말모}{488:2년 전 :  별표 4개  : 진주회관에는 살짝 미치지 못하지만 찾아가는 수고로움이 아깝지 않다.여름을 잘 지낼 것 같다!}{489:1년 전 :  별표 5개  : 콩국수맛집이지만 마늘향 짙은 김치가 넘 맛있어여.}{490:1년 전 :  별표 3개  : 콩국수 훌륭한데... 비싸다싶고.. 술을 안팔아요.}{491:1년 전 :  별표 5개  : 진하고 얼음 안 탄 걸쭉한 콩국수에 육즙이 살아있는 만두 원래는 안 좋아하지만 여기서는 꼭 먹어야 하는 칼국수}{492:7달 전 :  별표 5개  : 빠른 회전 오래된 맛집!}{493:1년 전 :  별표 4개  : 맛있는데 좀 비싸요ㅜ 만두도 맛있어요ㅋㅋ}{494:1년 전 :  별표 5개  : 걸죽한 콩국수 맛나요}{495:1년 전 :  별표 4개  : 간만에 갔는데 여전히 많은 사람들로 북적여전히 찐하고 맛있는 콩국수 11천원.. 콩국물 양이 좀 줄었네요}{496:1년 전 :  별표 5개  : 콩국수 닭갈국수 특히 김치 짱 맛있네요}{497:2년 전 :  별표 5개  : 여의도 백화점(맨하탄빌딩) 지하 콩국수집이다.입소문만큼이나 고소한 콩물과 곁들여 나오는 김치가 일품이다.립스틱 파운데이션 같은 화장품은 그라인딩 기술이 요체라는걸 아시는지? 이 집은 콩을 가는 그라인딩기술이 특별하다. 콩물의 껄죽하고 크리미한 맛과 보쌈김치가 식도락의 즐거움을 더해준다.여름철 점심시간은 번호대기가 길다. 9호선 5호선 여의도역에서 도보로 5분 걸린다.}{498:1년 전 :  별표 5개  : 우와 줄은 대박 긴데 닭칼국수 정말 맛있어요}{499:2년 전 :  별표 5개  : 개인적인 입맛으로는 서울에서 가장 맛있는 콩국수인갓같다. 콩국수/닭칼국수가 맛있고 비빔국수는 그냥 그렇다. 김치가 너무 맛있었서 칼국수 맛이 배가 되는거 같다}{500:11달 전 :  별표 4개  : 가격은 비싸지만 맛은 인정}{501:2년 전 :  별표 5개  : 난 비빔! 여기에 만두 추가하면...인생의 비빔면이다... 콩국수는...처음 먹어보는 맛이다. 만원 짜리라는게 납득이 된다.검은 옷에 콩국수 국물이 한방울 튀면 안지워진다. 그만큼 진한 콩국...}{502:1년 전 :  별표 5개  : 가성비최고! 비빔국수 아주 맛있어요}{503:2년 전 :  별표 3개  : 사람이 무진장 많다. 다행히 테이블 회전은 빠른 편이라서 엄청나게 오래 기다리지는 않는 것 같다. 맛은 있는 편이나 멀리 있는 사람들이 엄청 오래 줄을 서서 기다릴 정도로 대단한 편은 아니라고 개인적으로 생각한다. 닭칼국수와 콩국수가 주 메뉴이고 김치도 맛있게 나온다. 여의도 주변에 갈 일이 있고 시간적으로도 여유가 있다면 한 번 쯤 방문해서 먹어봐도 괜찮을 집이라고 개인적으로 생각한다.}{504:1년 전 :  별표 2개  : 개인차가있겠지만...콩국수 좋아하는 사람 입장으로서 다시는 안 갈 예정가격대비 가성비 별로임이해가 안가는 대박 집}{505:2년 전 :  별표 3개  : 콩국수는 역시.... 하지만 한 그릇 1만원은 좀 과한듯해요...이외에 비빔국수와 닭칼국수도 있기는 해요.. 8천원..이 집의 좋은 것은 김치가 마치 보쌈김치 같다는 거에요....혹 주차하실 경우 현금500원을 주고 주차권을 구매해야 하니 참고하세요}{506:1년 전 :  별표 4개  : 진하고 고소한 콩물에 탱탱하고 쫄깃한 면발 냉콩국수 보쌈김치의 환상궁합근데 콩국물이 좀 짜진것 같음..}{507:1년 전 :  별표 3개  : 콩국수는 걸쭉 해요. 호불호가 갈릴것 같은데 저는 불호 쪽 이네요 고소하긴 한데 보이는 것 만큼은 아니구요 접시 만두는 만두피가 두껍고 식감이 거칠어요. 부들부들하고 육즙흐르는 만두를 기대하면 실망하겠네요.}{508:1년 전 :  별표 4개  : 콩국수가 맛있고 닭칼국수가 단백하고 맛있습니다. 비빔국수는 맵지않고 괜찮아요.}{509:1년 전 :  별표 5개  : 콩국수 하면 진주집이죠.가격은  좀 거시기해도맛은 변함없네요.국내  쵝오의 맛집~~}{510:1년 전 :  별표 2개  : 직장인 점심먹을곳이 없어 유명한거지 맛이 특별하지 않고 자극적이다}{511:1년 전 :  별표 3개  : 콩국수만 맛있어요~다른것들은 전체적으로 간이 너무 쎄요ㅜㅜ}{512:6달 전 :  별표 3개  : 콩국수를 먹었어야 하는데 닭칼국수를 먹어서...}{513:1년 전 :  별표 3개  : 콩국수로 유명한 집인데 가격이 너무 비싸고 그 가격만큼 맛있는지 모르겠어요}{514:1년 전 :  별표 5개  : 맛있어요. 심심하니 맛있는 시골 내려가다가 한적한 곳에서 파는 칼국수 맛입니다.}{515:1년 전 :  별표 4개  : 콩국수가 고소하고 맛 있어요.}{516:2년 전 :  별표 4개  : 좋아요 예전과 다르게 서비스가 좀 약해졌습니다.주차비 500원을 추가로 내야하고 가격도 많이 올라서 최근에는 예전에  보여주시던 분위기가 아닙니다.   1세대  주인은 않보이고  2세대 경영상 태인것 같습니다.}{517:11달 전 :  별표 5개  : 빠르고. 정확하고. 맛있다.}{518:7달 전 :  별표 5개  : 콩국수랑 칼국수 뭐 다 맛남}{519:1년 전 :  별표 5개  : 콩국수 최고! 콩스프 먹는줄 부드럽고 고소하고보쌈김치까지 궁합최고칼국수도 맛있음}{520:8달 전 :  별표 4개  : 5년전까지 엄청자주갔었는데 오랫만에 갔더니 양은 많아졌는데 맛은 좀 변한거같아요제 입맛이 변한건지 양념색깔도 달라진거같구옛 추억 생각하며 갔는데 약간 속상했네요}{521:1년 전 :  별표 5개  : 비빔국수랑 닭칼국수 먹었어요^^원래 밀가루면을 많이 못먹는데정말 국물 한방울 안남기고 다 먹었어요ㅎ음식도 빨리 나오고 특히 김치가 너무너무 맛있었어요또 갈게요^^}{522:10달 전 :  별표 4개  : 콩국수 맛집이지만 갠적으로 콩구수보단 아닥하고 닼칼구수 ㅋㅋ}{523:1년 전 :  별표 2개  : 그 가격의 맛은 아닙니다. 가격대비 맛은 떨어집니다.}{524:1달 전 :  별표 5개  : 변하지 않는 맛}{525:2년 전 :  별표 1개  : 가격대비  맛도없는데  먼 사람은그리많은지~~콩국수가 만원이면갈비탕가격인데 콩가루맛 ㆍ닭칼국수는 팔천원인데 닭겨린내에불은면ㆍ뜨겁지도않고   ㆍ정말 두번다시    안가고싶은집  칼국수안에   만두는  그럭저럭먹을만 ~~  이런음식을  줄을서서  행복하게먹는동네가  여의도라니~~~~헐~~~~}{526:1년 전 :  별표 5개  : 콩국수하면 진주집!! 콩국수의 기본적인 맛을 가장 잘 맛 볼수 있는 것 같음. 다만 가격이....}{527:2년 전 :  별표 5개  : 점심시간에 콩국수를 먹으러 방문. 세상 여의도 사람들이 줄서있는듯 가게를 둘러싸고 늘어선 줄이 흡사 놀이동산에 온 기분을 느끼게 하였다. 진주집이 여의도백화점 지하 여러군데를 확보하고 있어 회전율은 빠르다. 콩국수의 소감은 매우 맛있었다. 매우 걸쭉한 콩국물에 대한 호불호가 갈리는듯 하나 나의 입맛엔 딱 맞고 좋았다. 진한 콩국수를 원한다면 추천}{528:1년 전 :  별표 3개  : 반찬 저거딸랑한개 서울의 야박함? 아쉽 맛집으로  평에비해 평범하다 생각됨}{529:10달 전 :  별표 4개  : 가격은 비싸지만 맛있네요}{530:1년 전 :  별표 3개  : 콩국수는 진리지만 가격대비 양은 기대마시라}{531:2년 전 :  별표 3개  : 맛은 좋은데 식사한 손님에게 주차권을 파는게 영.원래 여의도백화점 이 다 그런지는 모르겠슴}{532:1년 전 :  별표 4개  : 내 인생 최고의 콩국수. 국수를 빛나게 하는 김치의 위력}{533:1년 전 :  별표 4개  : 콩국수가 생각나면 찾아가는 식당여의도백화점 지하많이 기다릴수있어요^^}{534:2년 전 :  별표 3개  : 콩국물이 제대로임. 이것이 장점이기도 하지만 한편으로는 금방 질림. 한번은 먹어볼만함.}{535:1년 전 :  별표 4개  : 콩국수 맛있구요 전 김치가 정말 맛있었어요}{536:2년 전 :  별표 5개  : 칼국수 비빔국수 다 맛있습니다. 홀이 큰 데도 점심시간에 가면 늘 줄을 서는 여의도 대표맛집! 가격은 좀 있지만 (그리고 계속 꾸준히 오르고 있지만) 이름값을 하는 맛집입니다.}{537:1년 전 :  별표 5개  : 선배 따라 방문하였는데 진짜 너무 맛있네요  국물이 진하고 김치가 일품이라 잘어울러요  줄이 어마무시하게 긴데 회전율이 빨라서 한 20분만어 들어갔네요 앞에 한 50명은 있었던거같은데ㅋ}{538:9달 전 :  별표 5개  : 콩국수가 진해요 김치 맛있어요}{539:2년 전 :  별표 5개  : 콩국수랑 접시만두를 먹었는데 국물이 비지와 콩물의 중간정도의 걸쭉한 입자감입니다. 재료를 어찌나 좋은걸 쓰시는지 고소함이 정말 깊습니다. 면은 생면을 사용해서 시원한 콩국물이 코팅되어 더욱 쫄깃한 식감을 느낄 수 있는데 면을 풀어헤치면 비로소 적당한 염도가 느껴집니다. 여기에 무절임이 올려져 나오는 김치가 아주 별미고요 추가로 시킨 접시만두 또한 상상 이상이었습니다. 회전율이 빨라 웨이팅이 그리 길지 않습니다 다만 마감시간이 빨라서 저녁8시부터는 식당 입장이 제한됩니다.}{540:1년 전 :  별표 4개  : 콩국수가 맛있네요. 가끔 생각나는 맛입니다.}{541:1달 전 :  별표 5개  : 유명한 콩국수집}{542:1년 전 :  별표 2개  : 비싸고 자리가 비었어도 줄세운뒤 인원수에 따라 배정. 줄이 길어도자리가 빨리 나기는 함}{543:1년 전 :  별표 4개  : 여의도 유명한 콩국수집콩국수/만두/김치가 좋으며비빔국수는 맛있는데 넘 달다.}{544:1년 전 :  별표 4개  : 아주 맛잇음 콩국수 다만 가격이조금 비쌈}{545:1년 전 :  별표 5개  : 콩국수 뿐 아니라 비빔국수도 최고}{546:2년 전 :  별표 5개  : 이집 콩국수를 먹지 않고는 여름이 왔다고 말할 수 없다. 콩국물의 진한맛과 적당히 삶아진 면발에 꼬들꼬들 무배추김치와의 조화는 상상만으로도 침샘을 자극한다. 무더운 밤 그 맛이 떠오른다.}{547:1년 전 :  별표 4개  : 넘 비싼게 흠이지만 콩국수 맛 있습니다. 돈을 갈쿠리로 끌어담습디다}{548:1년 전 :  별표 5개  : 맛있어요 ~줄서서먹는맛집 김치까지완벽}{549:8달 전 :  별표 3개  : 콩국수 닭칼국수 둘다 괜찮네요}{550:2년 전 :  별표 5개  : 콩국수를 좋아하시는 분이라면 꼭 가봐야하는 곳이라고 생각합니다. 콩국수와 김치가 맛있고 사람은 많지만 음식 나오는 시간이 짧고 식당이 넓어서 점심 시간만 아니라면 금방 먹을 수 있습니다.}{551:1년 전 :  별표 5개  : 콩국수 칼국수 비빔국수 만두 모두 맛있어요.}{552:10달 전 :  별표 4개  : 김치가 맛있어여~가격대는 좀 있습니다. 그리고 줄이 너무 길어서 먹기가 힘들어요 ㅠㅠ}{553:1년 전 :  별표 1개  : 30분 기다려 콩국수와 만두를 먹었습니다. 배가 고팠는데도 반 이상 먹어내기 힘들었습니다.}{554:1년 전 :  별표 3개  : 콩국수는 진하고 맛있었습니다.비빔국수는 단맛이 강했습니다.반찬으로 나오는 김치가 맛있었습니다.}{555:2년 전 :  별표 4개  : 콩국수 좋아하는 사람들이 찾아가기 좋음. 다만 평일 점심시간은 포기해야 함. 닭칼국수는 신김치가 좀 덜 들어갔으면 하는 느낌. 육수의 진한 맛을 감소시키는 듯.}{556:7달 전 :  별표 2개  : 겨울에 가지마세요. 실망입니다}{557:1년 전 :  별표 5개  : 콩국수 맛있네요. 진주회관과 비슷해요.김치랑 먹으니 금방 한그릇 뚝딱!}{558:1년 전 :  별표 5개  : 비빔국수 접시만두 콩국수 진짜 맛있고 나오는 김치가 정말 너무 맛있다}{559:2년 전 :  별표 3개  : 콩국수가 좋아서 저녁에 세 번 방문했습니다. 넓지만 사람 많고 복잡해요. 그냥 그냥 먹습니다만 너무 상업화된 것 같아 갈때마다 씁쓸합니다. 그러다보니 그닥 정은 안 가네요. 제 주관적인 느낌적 느낌이니 뭐라 테클 걸지 마세요.}{560:1년 전 :  별표 5개  : 메뉴가 늘었어요. 육개장칼국수도 파네요. 값은 비싸지만 먹어보면 또오게 됩니다.}{561:1년 전 :  별표 5개  : 콩국수 비빔국수 칼국수 모두 맛있고 김치도 맛있어요 그리고 친절해요}{562:2년 전 :  별표 4개  : 진한 콩국수에 맛있는 김치의 궁합이 좋네요. 만두도 두터운 피에 부드러운 소가 잘 어울립니다. 다만 반접시만 팔면 좋겠어요.... ㅠㅠ 11시부터 대기하니 점심시간 피크타임은 피하시는게 좋을듯해요. 곱배기는 추가 금액이 없으니 양이 적겠다고 생각되시면 미리 얘기하시는게 좋습니다}{563:1년 전 :  별표 5개  : 콩국수맛집근데 비빔국수랑 만두도 개맛있음레알루최고임}{564:3달 전 :  별표 5개  : 콩국수가 진하고 맛있습니다. 김치도 맛있어요.여의도 살았으면 맨날 먹었을텐데 먼것이 한이다.}{565:7달 전 :  별표 5개  : 국수 짱 맛집.가격이 올랐네요}{566:1년 전 :  별표 4개  : 점심때 줄이 엄청납니다.가격이 좀 쎄지만 인생콩국수네요. 김치도 보쌈스타일로 맛있고.}{567:2년 전 :  별표 4개  : 비빔국수를 먹었는데 매콤 새콤 달콤하니 맛있었다. 달랑 김치 하나 나오는데 어찌나 맛있던지 </t>
+  </si>
+  <si>
+    <t>국수를 먹지 않은 것을 후회.이미 맛집으로 유명한 곳인 듯하여 평소 점심시간만 되면 줄이 늘어선다나.홀이 넓은데도 장사가 잘돼 가게 두세개쯤 확장했는데 그나마도 줄을 선다니.. 다음에 가면 꼭 콩국수를 먹어보리라.}{568:2년 전 :  별표 5개  : 국물이 콩비린내도 없고 고소하고 진합니다. 김치랑 무도 맛있어서 환상짝꿍! 콩국수 싫어했는데 여기거 먹어보고 생각이 바뀌었습니다 ㅋㅋ 줄이 길어도 금방 빠져요. 평일 점심은 사람 많으니 점심 시간대 피하거나 좀 일찍 가서 드시면 좋습니다. 만두도 맛있어요!}{569:9달 전 :  별표 1개  : 콩국수에 묵은냄새가 진동..전에 먹었을때는 엄청 고소했는데. 왜?????}{570:2년 전 :  별표 3개  : 뭐라고 해야할까 &lt;U+11A2&gt;예전에 맛있었던 기억을 갖구 정말 오랜만에 다시 찾았는데 그냥 추억속의 맛집으로만 남겨둘껄&lt;U+11A2&gt;하는 아쉬움만 남았습니다.원래 불친절한 집이라서 친절을 기대하지는 않았지만 그래도 옛날보다는 친절해져 있더군요.맛은&lt;U+11A2&gt;에휴&lt;U+11A2&gt;아쉽네&lt;U+11A2&gt;이집의 명품 콩국수는 구수한 콩맛을 능가하는 면발의 밀가루맛이 나서 의아했는데 닭칼국수의 면에서도 밀가루맛을 느끼고 실망을&lt;U+11A2&gt;비빔국수는 그나마 그중에서 낫더군여&lt;U+11A2&gt;김치는 엄청 짠데 속은 양념이 전혀 배지않아서 맛이 여엉&lt;U+11A2&gt;그래도 손님은 엄청 많더군여&lt;U+11A2&gt;마케팅의 성공인듯&lt;U+11A2&gt;}{571:1년 전 :  별표 4개  : 국수 아주 맛있어요 추천!very goodsoybean sauce noodle}{572:1년 전 :  별표 5개  : 맛있는 콩국수와 보쌈김치는 일품 입니다~  ^^(남은 콩국에 밥을 넣어 드시면 아주 맛있습니다!)}{573:1년 전 :  별표 4개  : 점심시간엔 사람이 너무 많아요11:30까지 가시면 좀 편하게 드실수 있어요}{574:9달 전 :  별표 5개  : 반찬이 깔끔하니 맛있어요}{575:1년 전 :  별표 4개  : 시간이 지나 방문해도 예전 그 맛을 그대로}{576:1년 전 :  별표 4개  : 걸쭉한 콩국수와 진한양념의 보쌈김치}{577:2년 전 :  별표 5개  : 콩국수 닭칼국수 비빔국수 만두 .이집 메뉴다~ 간단하고 고민 안해도 된다 그런가~ 맛집이다 김치또한 이 집을 생각나게 하는 맛을가졌다~ 맛집이라 그런가 종업원이 불친절하다고 하지만 바쁜집이라 모든 손님의 욕구을 다 받아줄수 있는곳이 아니다~ 주차는 쿠폰 500원 주고 사야 된다. 그럼 1시간 무료쿠폰을 준다~ 그냥 나가면 낭패을 본다}{578:1년 전 :  별표 4개  : 2번째방문 찐한 콩국수 좋아하시는 분들 생각보다 많이 걸쭉 합니다.}{579:11달 전 :  별표 5개  : 최고의 콩국수~ 내년 여름에 다시 만나요!!}{580:1년 전 :  별표 5개  : 여전히 맛있어요. 맛을 타협하지는 않는 듯. 가격을 올리지만요}{581:6달 전 :  별표 1개  : 이영자씨가 나왔다 해서 힘들게 찾아 갔는데 재료도 부실하고 너무 맛이 없었다.}{582:1년 전 :  별표 4개  : 대기시간 길고 비싸지만 정기적으로 갈만한 별미집}{583:1년 전 :  별표 5개  : 참 허름한 데 있었으나 맛은 허름하지 않았다. 아는 맛을 맛있게 하기 얼마나 어려운가. 여긴 해냈다}{584:2년 전 :  별표 4개  : 콩국수와 닭칼국수 만두로 한끼 간단히 먹을만 한 곳. 정말 콩국수는 곱게 갈린 국물이 걸쭉하게 면을 따라 올라 옴.}{585:2달 전 :  별표 5개  : 최고의 콩국수집~~}{586:1년 전 :  별표 5개  : 냉콩국수 11000 비빔국수 9000 만두 9000비빔국수는 맵기보다는 좀 단 편이에요.콩국수는 진하고 고소해요김치가 진짜 맛있었어요 ㅎㅎ만두는 꼭 드세요!}{587:8달 전 :  별표 5개  : 항상가는 닭칼국수 집 국물이 끝내줘요}{588:1년 전 :  별표 4개  : 맛집 콩국수 완전 진해요. 서리태는 아니구요. 비비은 달콤 새콤. 전체적으로 음식이 달아요~}{589:1년 전 :  별표 4개  : 사람들이11시반부터기다리는곳 워낙순환이빠르다 금방빠진다 이곳에서는국물을즐기기위해 평소국수처럼먹기보다 국물과면을숟가락에담아 먹는다 마지막에 국물과면이 모두 동시에없어질수있도록}{590:6달 전 :  별표 4개  : 여의도 콩국수 맛집! 언제나 평균이상은 합니다~}{591:2년 전 :  별표 5개  : 죽이라 불리워도 될 정도의 진한 콩국수 국물. 진한 닭육수로 채워진 칼국수. 반찬으로 나오는 보쌈김치. 어느 것 하나 맛있지 않은 것이 없다. 최고.}{592:10달 전 :  별표 5개  : 콩국수11000원 비빔국수9000원 가격이 아깝지않은 맛입니다...! 김치도 겁나 짱..!}{593:2년 전 :  별표 5개  : 점심만 되면 50명씩 줄서서 기다리는 국수집 50명이 줄을 서도 10~15분정도면 입장 가능. 콩국수/비빔국수/닭칼국수/찐만두 메뉴구성. 가격은 8000~10000많이 달라고 하면 양도 많이주시고 반찬도 맛있고 준수한 편...}{594:1년 전 :  별표 4개  : 비빔국수 너무 맛있어요. 스트레스 받은 날 자극적인 맛이 땡길 때 한입 딱 먹으면 핵맛염 ㅋ}{595:2년 전 :  별표 4개  : 콩국수가 가장 유명하지만 전 5번 정도를 방문할 동안 비빔국수와 만두만 먹어봤습니다. 비빔국수는 맛이 강해서 첫 젓가락을 먹을 땐 엄청 맛있지만 금방 질립니다. 양도 어마어마하게 많아서 다 먹기 힘든 메뉴입니다.}{596:2년 전 :  별표 5개  : 오전11시45분도착.  줄이 두 줄...100미터~~콩국수..칙접 갈아서   걸쭉 합니다믈을조금섞어야~~것저리 김치도 일품입니다가격1만원지하주차장  있구요일.공휴일 휴무입니다}{597:1년 전 :  별표 4개  : 닭칼국수와 김치가 유명해요. 근데 조금 비싼 감도 있어요. 9천원}{598:1년 전 :  별표 3개  : 이렇게 줄 서서 먹어야하나 싶어서... 발길을 돌린. 이것은 토요일 오후 5시 풍경입니다}{599:1년 전 :  별표 4개  : 콩국수는 꾸덕꾸덕하고 고소..}{600:10달 전 :  별표 5개  : 실패하지 않을모든 메뉴가 좋다}{601:1년 전 :  별표 4개  : 일단 콩국수에서 가장중요한 콩국물이 맛있다...}{602:9달 전 :  별표 5개  : 언제나 줄서서 먹는 최고의 콩국수집}{603:1년 전 :  별표 2개  : 콩국수는 2인분 이상 포장 가능하고먹다가 너무 배불러서 만두김치 먹은거 포장해달라고 했더니김치는 안된다함 이유를 여쭤보니 중국 교포 분이라 대화가 약간 어려움양도 많고 국수라 회전율이 굉장히 빠름}{604:1년 전 :  별표 5개  : 진주집 콩국수 맛있네요아주 만족합니다.평일 11시경에 가보니 안기다리고 먹을수있었습니다.}{605:11달 전 :  별표 3개  : 뜨겁고 맛있는 닭칼국수와 무더운 가게}{606:3주 전 :  별표 1개  : 가성비 꽝}{607:1년 전 :  별표 5개  : 점심 때 줄서서 먹을정도로 맛있고 직원들도 친절하다. 반찬도 김치 하나만 나오지만 그것마저 맛있다.}{608:9달 전 :  별표 4개  : 맛있는데  짜요 전 비빔국수강추}{609:1년 전 :  별표 4개  : 여의도 백화점 지하에 있는 국수집.어느 블로거의 서울 3대 콩국수집이라는 포스트를 보고 방문했다.맛집으로 알려져서인지 사람이 바글바글하고 기다리는 줄도 길다. 콩국수는 여름 한 철이여서 일까?백화점 지하에 몇 개인가의 매장을 매입해서 넓게 한다고 했으나 실제적으로는 매장 2개만을 사용중이었다.오랜 기다림이 지나고 자리를 안내받았다.역시 테이블 간격이 좁다. 안쪽에 앉으면 바깥쪽 사람이 닐어설 때 까지 일어나기…}{610:1년 전 :  별표 3개  : 맛는 있는데 가격이 비싼 편입니다. 내가 원하는 자리에는 절대 못앉아요.쥔장이 정해진 자리에 앉아야 합니다.식수 인원이 다 도착해야 입장이 가능합니다.}{611:8달 전 :  별표 3개  : 여의도라 비싸지만 닭칼 평범함}{612:1년 전 :  별표 4개  : 이집 콩국수 먹고나면 다른 콩구수들이 모두 심심해질정도로 콩물이 진함. 날더워지면 대기줄이 가게를 두바퀴 감을정도로 인기}{613:1년 전 :  별표 4개  : 진득한 콩국물과 김치의 조합~ 비빔국수와 육개장칼국수도 추천}{614:1년 전 :  별표 5개  : 단연코 한국 최고의 콩국수집. 맛도 최고 가격도 최고비쌈}{615:7달 전 :  별표 5개  : 진주집은 진리지요.오브가 코스구요.Good taste. Good soup with noodles&amp;chicken.}{616:1년 전 :  별표 2개  : 닭칼국수하고 비빔국수먹었는데 일단 비빔국수 너무답니다.... 닭칼국수는 담백하긴한데 만두가 재료소진으로 없어서 그랬는진 몰라도 그저그랬어요}{617:1년 전 :  별표 5개  : 공간이 커서 시끄러워요 하지만 콩국수와 비빔국수는 맛있어요 점심시간을 피해가면 한산하게 즐길 수 있어요}{618:1년 전 :  별표 5개  : 적당히 맛있고 김치가 맛있음. 여름엔 대기 줄이 있지만 테이블이 많아서 금방 금방 들어감.}{619:1년 전 :  별표 2개  : 가격대비 만족도가 떨어집니다. 비빔국수와 칼국수가 9000원. 뭔가요...}{620:11달 전 :  별표 4개  : 소문이 많이 난곳이라이집음식맞을 보려고 줄을 서서기다린후에야  발을 들여놀수있는 집이지요 그만큼 맛은 있는거 맞아요 허지만 좁은장소에손님 들이 빼곡히 들어서 있는것은 너무 심한거 같아요}{621:1년 전 :  별표 5개  : 콩국수 최고죠 몇 십년이 지나도 변치 않는 맛}{622:1년 전 :  별표 5개  : 비빔국수 맛있어요 콩국수도 고소해요!비빔국수 또먹고싶어요}{623:1년 전 :  별표 5개  : 만두맛집임 ㅋㅋ ㅋ콩국수가 진하고 맛있음. 원래 못먹는 사람은 느끼해서 못드실수도.... 비빔국수는 다른데서는 못먹어본 맛임. 닭칼국수는 평타수준. 김치도 맛있어요~}{624:1년 전 :  별표 3개  : 엄청 크고 옛날 느낌 나는 곳.겨울이라 콩국수를 못먹어서 아쉽닭칼국수도 진하고 나름 맛있었다}{625:1달 전 :  별표 5개  : 맛잇어요}{626:1년 전 :  별표 4개  : 진한 콩국수를 맛 보고 싶다면 웨이팅은 필수.가격은 좀 비쌈 11000원}{627:1년 전 :  별표 3개  : 고소한 콩국수와 오이에 비빔장의 비빔국수&lt;U+0001F917&gt;}{628:4주 전 :  별표 5개  : 콩국수+김치조합}{629:1년 전 :  별표 4개  : 비빔국수  콩국수  모두맛있게먹었습니다~  하지만 시청에있는 진주회관보다는 조금 떨어지네요}{630:1년 전 :  별표 4개  : 가성비 좋은 닭칼국수집입니다. 저녁에는 혼밥하기에도 좋아요.}{631:1달 전 :  별표 1개  : 생각보다별루요}{632:1년 전 :  별표 5개  : 콩국수 고소 비빔국수는 새콤달콤함. 그리고 김치는  최고임}{633:9달 전 :  별표 4개  : 콩국수는 대박 다른건 그닥}{634:11달 전 :  별표 5개  : 맛있는  콩국수.김치.비빔국수도  ㅊㅊ}{635:1년 전 :  별표 5개  : 서울 최고의 콩국수를 먹을 수 있다. 콩국의 농후한 맛과  면의 탄력이 인상적이다. 수십 번 방문했지만 맛으로는 한번도 실망시킨 적이 없다. 시청 근처 진주회관에 비해 김치도 맛있다.단 서비스는 기대하지 말 것. 너무 손님이 많다 보니 만인에게 불친절하다.}{636:1년 전 :  별표 5개  : 닭칼국수 맛있고 만두소가 진짜 맛있어여}{637:1년 전 :  별표 4개  : 역시 콩국수 양대산맥 진주집. 진주회관1그릇11000원 걸쭉하고 깊은 콩국면이떡져서 나오나 잘풀리고달달한 김치는 보쌈김치보다 더맛있음&lt;U+0001F44F&gt;&lt;U+0001F44F&gt;&lt;U+0001F44F&gt;콩국 리필안됨주의&lt;U+274C&gt;}{638:8달 전 :  별표 3개  : 콩국수는 못먹었지만 닭칼국수는 평범한맛}{639:8달 전 :  별표 3개  : 국수만 있고 밥이 없아요. ㅜ.ㅜ}{640:2년 전 :  별표 3개  : '음 괜찮아 맛있어' 하는 먹을만한 식당. 하지만 가격에 비해 맛이 그냥 그렇고 맛에 비해 가격이 비싸다. 그래서 별3개. 맛있고 괜찮은 집이지만 줄서서 먹을만한 가치가 있을까?}{641:11달 전 :  별표 4개  : 칼국수도 콩국수도 이곳의 김치가 있기에 더욱 빛남 계속 오르는 가격은 안빛남 ㅠ}{642:2주 전 :  별표 5개  : 소문대로 맛집}{643:1달 전 :  별표 4개  : 맛있습니다만 가격이 비싸요}{644:1년 전 :  별표 4개  : 콩국수는 맛있고 유닉했고 비빔면은 그냥저냥 평범 닭칼국수는 별로였음..줄이 엄청났는데 빨리 줄어 들었음}{645:2년 전 :  별표 4개  : 진주집.여의도를 대표하는 칼국수 집이라 표현해도 과언이 아닌듯.토요일에 방문 했는데역시나 손님이 많았어요.평일 점심시간 줄서서 먹었던 북적스러움 보단 덜해서 좋았는데역시나  찾는 분이 많은 진주집.예전 보다 못해진것이 하나 있다면이날 따라 왜 면이 불어서 나왔는지.쫄깃한 식감도 없었고..요즘 반죽 방법을 달리하시나..라는 의아함이 들었다.여느곳들의 쫄깃한 칼국수 면발 보다 많이 못했다.내 입맛이 그런건지 아님 주방이 변한것인지.둘중 하나겠죠?어찌 되었든 여의도백화점의 그 유명한 진주집 닭칼국수는  이날 나의 우선 메뉴에서 사라졌답니다 ㅠ}{646:1년 전 :  별표 5개  : 걸쭉한 콩국물이 비리지 않았고 맛난 김치에 배부르게 먹었습니다 :)}{647:1년 전 :  별표 5개  : 콩국수 좋아하지 않아서 닭칼국수 주문했는데 남편먹는 콩국수 국물과 면을 같이 먹었을때 멈출수가 없었음.--@}{648:1년 전 :  별표 5개  : 닭칼국수 : 국물진하고 맛있어요.비빔국수 : 야채 많아서 국수랑 싸먹기 좋아요.접시만두 : 너무 작지도 너무 크지도 않아서 한입에 쏙! 맛있어요.김치 : 진짜 웬만한 보쌈집 김치보다 맛있어요. 이것 때문에 국수들 맛이 Up 되는 것 같아요.다음에는 콩국수랑 육개장칼국수 먹으러 올 예정이에요.}{649:2년 전 :  별표 5개  : 정말 걸죽하고 맛있는 콩국수집이네요 닭칼국수에 들어 있는 만두도 맛있어서 놀랬습니다}{650:1년 전 :  별표 4개  : 원래도 사람많은곳. 이영자  때문에 더 소문난곳.다 맛있는곳}{651:1년 전 :  별표 4개  : 손님 많은데도 음식 바로 나옴맛도 훌륭함시설 쾌적함만두양 줄이고 가격도 줄였으면 더 좋을듯}{652:2년 전 :  별표 5개  : 맛있었습니다. 줄 생각보다 빨리 빠집니다.}{653:1년 전 :  별표 5개  : 한달에 한번씩은 먹어줘야 함. 시청역 진주회관은 너무 멀어서 항상 여의도로 가게 되는데 시청보다 덜 분주하고 더 친절해서 좋다! 닭칼국수는 맛이없다ㅠㅠ 콩국수만 먹는 걸로!}{654:1년 전 :  별표 5개  : 걸쭉한 콩국수 국물맛은 최고... 함께 먹는 만두도 우수....일요일 공휴일은 휴무...}{655:9달 전 :  별표 2개  : 24 남) 처음은 30분가량 기달려서 콩국수를 두번째는 저녁시간에 비빔국수를 먹었는데요. 개인적으로는 콩국수는 평범하면서 기대이하였고.비빔국수는 너무 짜요. .물론 제 주관적인 생각을 적었을뿐입니다.}{656:1년 전 :  별표 4개  : 콩수수 맛집이지만 비빔국수도 끝내준다.닭칼국수는 잡내없이 국물은 좋았지만 면발이 두껍고 퍼짐}{657:2년 전 :  별표 4개  : 여의도에서 유명한 콩국수 맛집. 걸죽한 콩국물과 쫀득한 면발 그리고 맛갈스런 김치가 잘 어울리는 집. 그러나 가격이 점점 오르고있는게 아쉬움. 한그릇에 만원됐음}{658:11달 전 :  별표 5개  : 점심시간 항상 붐비는 곳이지만  꼭 한번 먹어볼만한 장소  콩국수가 유명하다 그리고 가격은  꽤 비쌈}{659:1년 전 :  별표 5개  : 콩국수의 끝판왕이라 할 수 있습니다. 최고의 콩국수 맛집. 하지만 겨울엔 팔지 않으니 미리 확인이 필요합니다. 콩국수 없을땐 비빔국수도 맛있긴 해요.}{660:1년 전 :  별표 3개  : 사람이 엄청 많습니다. 주차료 따로 받습니다. 저는 비빔을 먹었는데 특별한 맛은 느끼지 못했습니다. 다음번에 대표메뉴인 콩국수를 먹고 리뷰를 수정 해 보겠습니다.}{661:7달 전 :  별표 4개  : 정말 맛있는데 가격이 좀 쎔. 비빔 존맛탱}{662:1년 전 :  별표 4개  : 걸죽~~~한 콩국수 국물과 맵진않지만 맛있는 비빔국수}{663:10달 전 :  별표 5개  : 역시 소문대로네요. 칼국수도 맛있지만 같이 나오는 김치가 예술이네요}{664:1년 전 :  별표 5개  : 여름앤 비빔국수보다 콩국수가 더 멋있는 여의도의 맛집}{665:2년 전 :  별표 4개  : 소문난 칼수국집이라 손님이 많음을 확인....줄서서 10분정도 대기하고 먹은 콩국수는 약간 콩비름 냄새가 있으나 그자체가 콩국수 풍미가 있음그리고 곁들여 먹은 만두도 적극 추천합니다~~~}{666:1년 전 :  별표 1개  : 맛이 정말 별로네요국물은 텁텁하고 만두는 정말 별로고 면발도 하급이고 왜 유명한지 모르겠네요.실망만하고 돌아갑니다.그나마 콩국수는 괜찮은편인데 근처산다면 모를까 찾아가서 먹을정도는 아니네요}{667:1년 전 :  별표 3개  : 회사가 많아 평일 점심엔 대기가 길어요.  가볼만 합니다. 그런데 그렇게 맛집이라고 할만큼 뭔가 특별하게 맛있다고 느껴지진 않아요. 하지만 그래서 맛있는 것인지도 모르겠어요.}{668:1년 전 :  별표 5개  : 2008년부터 다니던곳 콩국수 여기보다 맛있는곳 없었음비빔국수는 갈때마다 약간 맛이 다르기도 했지만 달짜지근매콤한맛이 내스타일이라 좋다.단맛이 많은편에 속하지만 매콤함과 비율이 적정하다}{669:1년 전 :  별표 4개  : 진한 콩국수와 칼국수를 먹을 수 있다. 이만한 콩국물을 먹을 수 있는 곳은 흔치않다.}{670:1년 전 :  별표 3개  : 국수가 별미다.. 비빔국수는 조금 짜고 달다.. 콩국수 고소하니 맛나다.. 국수의 가격에 헉 했다}{671:2년 전 :  별표 4개  : 걸쭉하고 고소한 콩국수가 대표 메뉴인 집입니다. 잘게 찢은 닭고기와 만두가 담긴 닭칼국수도 맛있습니다. 전국적으로 유명한 몇몇 콩국수 집들을 떠올려 보면 콩국수 맛 자체는 특별히 더 맛있다고 하기는 어려우나 콩국수와 잘 어울리는 이 집의 김치맛이 무척 좋습니다. 대기열이 긴 편이나 회전율은 빠른 편입니다.}{672:1년 전 :  별표 4개  : 가격이 좀 있긴하지만 명성이 자자해서 가봤는데 어릴적 할머니가 콩국으로 갈아주시던 맛이 났다 고소한거 좋아해서 너무 맛있었다bb}{673:1년 전 :  별표 4개  : 콩국수가 시그니처메뉴. 줄이 테마파크급으로 길지만 회전속도가 빨라 금방 빠짐}{674:1년 전 :  별표 5개  : 대한민국 최고 콩국수. 비빔국수도 좋다. 만두는 보통.}{675:1년 전 :  별표 5개  : 김치 맛집ㅋㅋ 콩국수 국물도 진하고 맛있어요 면 양이 많이서 여자 혼자는 먹기 힘들어요! 주말에도 웨이팅이 잠시 있었지만 회전율이 매우 빨라요:)}{676:1달 전 :  별표 5개  : 대박!}{677:2년 전 :  별표 4개  : 냉콩국수 비빔국수 양도 많고 맛있구요.같이 나오는 김치도 너무 맛있네요~만두도 시켜서 드세요 잘어울려요.단 많이 시끄러우니 그부분은 참고하세요!}{678:2년 전 :  별표 5개  : 확실히 콩국수 맛집. 진한 콩물이 고소하고 부드라워요. 만두도 고기향이 가득한 만두입니다. 무말랭이 무침도 입맛을 돋구는 맛이라 콩국수와 같이 먹기에 딱 좋네요.}{679:1년 전 :  별표 5개  : 찐득한 콩국물 압권비빔국수는 반찬으로 시켜먹으면 배터지고 좋아요}{680:1년 전 :  별표 3개  : 넷이가서 종류별로 시켰는데 왜 칼국수가 대표메뉴인지 알것 같다. 콩국수보다 칼국수가 훨씬 괜찮았고 비빔은 맛이 강해서 혼자 다먹기엔 부담스럽고 나눠먹기에 더 나았을것 같다.}{681:1년 전 :  별표 5개  : 닭칼국수강추}{682:10달 전 :  별표 5개  : 콩국수 싫어했는데 이곳을 와서 콩국수를 좋아하게 됨. 줄서서 먹는 맛집. 무말랭이 김치가 너무 맛있음.}{683:10달 전 :  별표 4개  : 워낙 유명하니~예전보다 간이 쎄짐. 가격은 ㅎㄷㄷ}{684:7달 전 :  별표 1개  : 절대 비추한다.안쪽에 빈 자리도 많은데 자꾸 옆에 합석자리나 입구쪽에 앉으란다.}{685:9달 전 :  별표 5개  : 비싼 편이기는 하나 아주 진한 콩국수를 먹을 수 잇는곳. 면은 하얀 소면? 중면?}{686:1년 전 :  별표 5개  : 맛있는데 줄이 너무길다. 닭칼국수도맛있다}{687:1년 전 :  별표 4개  : 콩맛 진한 콩국수 굿!!}{688:1년 전 :  별표 4개  : 만두김치콩국수비빔국수닭칼국수 그냥 가서 드셔보세요 왜 맛집인지 알게될겁니다. 콩국 정말 진하고 비빔국수 달콤새콤매콤 메뉴 다 맛나요}{689:1년 전 :  별표 3개  : 닭칼국수는 4천원짜리 시골 장날 국수를 8천원에 먹는 느낌. 이 집은 콩국수가 유명함. 콩국수가 11000원 여름에는 점심시간에 콩국수 먹는 줄이 엄청 김. 이집 콩국수는 볽은 콩을 갈아서 만든 느낌. 마치 크림같은 서초동 산동칼국수와 비교해보면 사람마다 좋아하는 쪽이 다를 듯.  주차권은 현금 500원 주고 사면 된다.}{690:1년 전 :  별표 4개  : 맛있긴한데 이렇게까지 기다릴만한 곳인지는... 이라고 생각했으나 회전율이 미쳐서 금방 먹음}{691:2년 전 :  별표 5개  : 너무 맛있었습니다!! 웨이팅이 많이긴 했지만 금방 빠져서 별로 불편함이 없었고 양도 충분히 많았습니다 ㅎㅎ}{692:1년 전 :  별표 4개  : 콩국수는 언제나 진리. 점심시간에는 늘 붐비는데 그 시간만 살짝 피해서 가시면 편하게 먹을 수 있어요. 콩국수 먹을 때 만두도 같이 시켜서 드세요.둘이가면 콩국수2개에 만두1개 필수 입니다.}{693:8달 전 :  별표 4개  : 만두도 맛있고 닭칼국수고 맛있어요}{694:1년 전 :  별표 3개  : 자리가 많아 비어있는데도 일부러 그러는건지.. 대기를 엄청 시킨다.. 콩국수 맛은 시청앞 진주집을 못 따라간다.}{695:3주 전 :  별표 5개  : 콩국수가 특이한 집 11000원}{696:1년 전 :  별표 4개  : 맑은 깊은 msg국물이 좋은 설렁탕입니다. 가격 9000원. 고기도 많이 넣어주시고 좋습니다. 평타는 치는 식당}{697:1년 전 :  별표 3개  : 음 점심시간에 갖는데 많은손님들이 줄 서 있어서 쪼금 놀랬고...냉콩국수를  먹었는데 그런데로 맛은 있었던것 같습니다}{698:1년 전 :  별표 3개  : 오래간만에 방문이었는데...음~ 실망이었습니다. 예전에는 면이 탱글탱글하고 좋았는데 지금은 마치 쫄면같은 느낌이었구요.. 국물의 농도와 고소함도 예전만 못한 거 같습니다}{699:5달 전 :  별표 4개  : 콩국수가 진리 닭칼국수의 정석 비빔국수도 괜춘}{700:2달 전 :  별표 5개  : 콩국수 맛있다.}{701:1년 전 :  별표 4개  : 개인적으론 진주회관쪽이 더 맛있었지만 충분히 용호상박인 진주집 콩국수.보는 그대로 크리미한 콩국맛이지만 약간 뭔가 부족한 것 같긴 하다.하지만 김치는 그 누구도 견줄 수 없는 최고의 맛이다.김치 맛집이네!}{702:1년 전 :  별표 3개  : 맛은 여전하다. 서울 최고의 콩국수집이다.다만 가격은 매년 1천원씩 오르는데 너무 하다. 가격대비는 평하}{703:10달 전 :  별표 5개  : 콩국수가 진하니 맛있어요..김치도 맛있고 만두도 맛있습니다}{704:11달 전 :  별표 5개  : 로테이션도 금방이고 음식도 금방나오고 맛은 예술이다 콩국수와 만두는 필수!}{705:1년 전 :  별표 5개  : 콩국이 찐하고 첨가물을 안넣은거같아서 너무좋음. 한끼로 먹으면 배불뚝이 하루종일 감. 최고&lt;U+0001F44D&gt;}{706:7달 전 :  별표 5개  : 닭칼국수 하나씩에 비빔국수반찬으로 먹으면 기가맥히게 마시있지요}{707:2년 전 :  별표 5개  : 여의도백화점 지하 1층 위치. 차량 이동시 3시간 무료 주차권 별도 구매가능. 비빔국수와 닭칼국수 강력 추천하며 기본 반찬으로 나오는 보쌈 김치도 매우 훌륭함. 가격 대비 맛과 가격 만족하는 수준.}{708:3년 전 :  별표 4개  : 여름을 시작하는 나만의 의식은 냉모밀과 콩국수.콩국수는 진주집이 그래도 진퉁입니다.조금씩 오르는 가격이 아쉽지만....접시만두도 꼭 같이 드시길...}{709:1년 전 :  별표 3개  : 전반적으로 가성비 떨어지는 고가의 국수집. 그럼에도 보쌈집 수준의 김치가 발걸음을 잡는다. 콩국수 : 별점 네개. 일반적인 콩국수와는 다소 다른 느낌의 콩국수가 맛있음. 땅콩국물 같기도 하고 베지밀국물 같기도 한 느낌의 걸죽한 콩국물이 김치와 조화를 이룸. (시청 진주회관이 따라오지 못하는 점이 바로 김치!!) 칼국수와 만두 : 별점 두개...육개장칼국수는 안먹어봐서 모르겠음.비빔국수 : 별점 두개...(분식집 쫄면 정도의 퀄리티인데... 오장동회냉면의 가격!!!)재방문의사 : 있음. 다만 법인카드로 누가 사줬으면...}{710:1년 전 :  별표 4개  : 자극적인 맛 얼큰하고 빨리나와서 좋아요}{711:1년 전 :  별표 5개  : 콩국수 국물 겁나 진하구요 면발은 쫀득합니다! 김치는 완전 예술입니다 ~~}{712:2주 전 :  별표 2개  : 기대보다 별로였음}{713:8달 전 :  별표 5개  : 단골이라 자주오는데 항상 맛있게 먹고 갑니다}{714:1년 전 :  별표 1개  : 일행이 아직 안왔으면 계속 줄 서있어야 해서 엄청 불편함 미리 시키는 것도 안되고}{715:1년 전 :  별표 4개  : 여의도에선 아마 최고의 콩국수 맛집일 듯. 서울로 범위를 넓힌다면 시청 쪽 진주회관이나 양재 쪽 임병주산동칼국수에 더 높은 점수을 줘야할 듯하다.}{716:11달 전 :  별표 3개  : 줄서서 그돈주고 먹을정도아님 너무비쌈 맛도별론데}{717:2년 전 :  별표 4개  : 모든 메뉴가 맛있는 곳! 줄이 아무리 길어도 회전율도 빠르고 손님 응대도 착착 맞아서 10-15분이면 무조건 들어가요. 음식도 빠르게 나오고 맛있어요. 다만 김치가 너무 많아서 항상 남기는게 아깝네요. 갠적으로 비빔국수가 으뜸입니다}{718:1년 전 :  별표 3개  : 콩국수중에는 최고 수준. 개인적으로 콩국수 별로고 가격도 싸지 않으면서 기다리는거 안좋아해서 3점.}{719:10달 전 :  별표 3개  : 여름에 콩구수로 유명한 집입니다. 그런데 가격은 놀랄 정도로 비쌉니다...}{720:11달 전 :  별표 4개  : 콩국수가 맛있어 역삼동서 점심시간에 왔다갑니다. 콩국수 가격 치고는 좀 비싸지만... 맛이있죠}{721:1년 전 :  별표 4개  : 여의도 백화점 건물 지하의 최고 인기 맛집이죠. 멀리서 일부러 올 정도는 아니만 가볼만한 집입니다. 콩국수와 닭칼국수는 추천이고 비빔국수와 만두는 그냥 저냥입니다.}{722:10달 전 :  별표 4개  : 진하기로는 최고 개인적으로는 일산 두리원이 더나음}{723:1년 전 :  별표 5개  : 콩국수 맛집이지만 닭칼국수도 엄청 맛있었어요! 국물도 깔끔하고 먹고나면 몸이 따뜻해집니다. 김치는 보쌈 김치 스타일이라서 많이 단 편인데 보쌈이랑 먹으면 진짜 맛있을 것 같아요!!}{724:7달 전 :  별표 4개  : 맛은 있는데 가격이 계속 올라감}{725:11달 전 :  별표 5개  : ㅈㅁㅌ 제발 늦게까지 열어주세여 마니 안 바람 21시까지만 열어주셧으면}{726:7달 전 :  별표 4개  : 콩국수와 김치 밋은 있다. 11000원은 인간적으로 너무 한듯}{727:1년 전 :  별표 5개  : 겨울에 육개장칼국수는 진리인 것 같아요 초등생 닭칼국수 잘 먹어요. 비빔국수는 조금 짭니다. 접시만두 여자 1인 혼자 다 꿀떡할 만큼 맛있어요}{728:1년 전 :  별표 1개  : 음식에서 비닐나옴 제대로된 사과도 없음. 그냥 사장님께 전달하겠음 하고 끝..}{729:1년 전 :  별표 4개  : 단거 안좋아하는데도 비빔국수가 맛나요~ 3대가 같이 와서 맛있게 먹을 수 있는 음식점}{730:2년 전 :  별표 5개  : 국산콩을 직접 갈아 진한 콩국수 맛을 느낄 수 있는 곳. 다른곳의 콩가루 물에 탄 콩국수를 먹다가 진주집 콩국수를 먹으면 그 차이를 확실히 느낄 수 있다. 가격이 조금 비싸긴 하나 국산콩국물의 맛을 생각하면 아쉽진 않은 정도.}{731:5달 전 :  별표 5개  : 여기는 비빔국수가 아주 맛있더라}{732:1년 전 :  별표 3개  : 콩국수 맛집으로 유명함. 맛은 있음. 그런데 가격이 해마다 오름. 그래도 사람 많고 장사잘 되지만 망설여지는 가격대임. 콩국수는 그렇다쳐도 비빔국수는 왜 그렇게 비싼지.... 닭 칼국수도 맛있긴한데 가끔 재수없으면 냉동했던 닭을 쓴거라고 의심되는 맛이 조금 이상하고 냄새나는 고기가 있는 국수를 만나기도 함.}{733:2년 전 :  별표 5개  : 콩국수의 콩물이 걸쭉하고 담백하고 고소하고 정말 좋습니다! 콩국수집 대부분이 옆에 곁들여 먹으라고 설탕 소금을 주는데 여긴 그런것 없이 본연의 맛으로 승부합니다. 같이 주는 김치가 예술입니다!!}{734:1년 전 :  별표 4개  : 추천받아서 가보았는데 왜 추천 해 주셨는지 알겠더라구요! 저는 완전 만족스러웠어요!! 점심시간에는 줄이 길지만 기다린시간이 아깝지 않았어요! 회전율 좋아서 생각보다 빨리 빠진답니다 (&lt;U+15D2&gt;&lt;U+15E8&gt;&lt;U+15D5&gt;)}{735:1년 전 :  별표 3개  : 전체적으로 단맛이난다.여의도백화점 지하에서 대성하여 대형확장을통해 지금은 거의 여의도백화점 지하층 1층절반가까이가 다 진주집인듯함..맛은...콩국수는 한여름에 추천할만한 메뉴로 여름점심시간엔 줄이 몇바퀴를 돌아서 대기할정도. 하지만 자리도 많아서 줄은 금방줄어드는편.콩국수외에 비빔국수 닭칼국수 육개장칼국수 만두와 만두국등을판매함. 김치가 보쌈김치처럼나와 맛있다. 다만 전체적으로 맛이 달달한 편이라 단맛을 그닥 선호하지않는 내겐 별점 3점.그런데 의외로 만두가 존맛이다!!!}{736:1년 전 :  별표 5개  : 진짜 맛있어요 닭칼국수ㅜㅜㅜㅜ대박입니다!양도 꾀 많고요! 재료도 아끼지 않으시는듯해요~만두도 꼭 드세요!! 최고의 조합이에요~^^!}{737:1년 전 :  별표 1개  : 가격은 비싸고 서비스는 별루 특히 중요한건 맛이 변했다는 사실. 고소했던 콩국물의 맛이 옛날같지가 않음.}{738:1달 전 :  별표 5개  : 김치와 칼국수가 끝내줌}{739:1년 전 :  별표 3개  : 다양한 면요리. 매장이 커서 대기를 별로 안해서 좋음. 맛은 평범함}{740:11달 전 :  별표 5개  : 비빔국수 콩국수 환상적인 맛~ 콩국수의 콩국물은 어찌나 걸죽한지 다음에 또 가고 싶어요}{741:1년 전 :  별표 5개  : 콩국수로 유명하지만 비빔국수도 매우 훌륭합니다.그리고 일반적으로 비빔국수를 먹으면 상대적으로 콩국수나 칼국수 때보다 김치를 덜 찾을 것 같지만 김치가 워낙 핵존맛이 라 먹게됩니다. 정말 맛있습니다.. (평일 점심시간은 피해야합니다)}{742:1년 전 :  별표 4개  : 빠른 테이블 회전율 줄이 아무리 길어도 10-20분 내로 식사가능. 여름엔 콩국수 겨울엔 닭칼국수. 가격이 매년 천원씩 자꾸 오르다가 최근에는 동결. 사장님 아들내미가 하버드 경영과 졸업하고 여기서 일 거드는데는 이유가 있는듯}{743:1년 전 :  별표 4개  : 닭고기 육수의 담백한 국물과 만두 맛김치가 잘 어울리는 칼국수 일품.}{744:10달 전 :  별표 4개  : 김치가 맛있어서 칼국수랑 콩국수랑 잘어울려요~  가격이 계속 오르는건 아쉽네요}{745:1년 전 :  별표 5개  : 웨이팅이 좀 있더라도 오래걸리지않아 입장이 가능하다.}{746:1년 전 :  별표 3개  : 사람엄청많음! 주말에 11시쯤가면 웨이팅없이 들어갈수있음콩국수는 그냥 그랬음사람들이 비빔면 많이먹던데 그게 맛있나봄}{747:1년 전 :  별표 5개  : 면이 뭔지 모르게 특이하고 맛있어요. 꼬돌한 식감.. 그런데 비빔 먹고 콩국수 먹으면 아무맛도 안나니 조심하세요}{748:8달 전 :  별표 5개  : 맛 대비 합리적 가격 좋은 서비스 참 좋습니다}{749:1달 전 :  별표 3개  : 콩국수가 11000원... 비싸요}{750:9달 전 :  별표 4개  : 닭칼국수 먹었는데 맛있네요. 가격은 좀 하지만 맛은 좋았어요.}{751:10달 전 :  별표 3개  : 그냥 국수집. 콩국수는 진하고 맛있다.굳이 . 여의도까지 찾아가서는 먹고 싶지는않다.}{752:1년 전 :  별표 5개  : 콩국수와 비빔국수로 유명한 곳입니다. 맛은 딱히 흠잡을곳 없으나 사람이 많아서 정신없는 느낌이 좀 있습니다. 다만 유명한 곳 치고 서비스도 나쁘지 않고 회전율이 높아 줄이 길어도 금방금방 빠지긴합니다.}{753:1년 전 :  별표 3개  : 꽤 비싸지만 군더더기 없이 훌륭한 콩국수. 주차비로 주간 1시간에 500원을 따로 받는다.}{754:7달 전 :  별표 3개  : 콩국수 맛있습니다!다만 그게 전부인 듯 합니다..닭칼국수 맛은 있나 특별할 건 없고만두도 평범합니다. 간장 향도 쫌 강하구요}{755:1년 전 :  별표 5개  : 비빔국수 콩국수 모두 수준이 높다. 특히 국수와 잘 어울리는 반찬이 일품이다. 밑반찬이 어찌 이런 맛을 내는지~ 국수 치고는 가격이 다소 높고 평일 점심시간에는 대기가 길다는 점이 흠.}{756:8달 전 :  별표 3개  : 밍밍하니 무슨 맛인지 모르겠어요만두는 나쁘지 않았어요맑은국물 좋아하는 사람들은 좋아할수도 있겠지만 되게 맛있다 정도는 아녔어요다시 방문의사 없어요서빙직원 불친절해요카운터 계신분은 친절해요돈내서 그런가?}{757:8달 전 :  별표 5개  : 콩국수 맛은 정말 좋음 가격은 좀 높음}{758:1달 전 :  별표 5개  : 국물이 진하고 김치가맛있음}{759:1년 전 :  별표 5개  : 회사 근처라 퇴근 후 사람이 없을 줄 알고 갔는데 대박 많네요 ㅎㅎㅎ콩국수 국물은 전체적으로 노르스름해요. 인위적이지 않고 자연스러운 맛이고 양은 적당한 편이예요. 워낙 소문이 자자해서 갔는데 어느 정도 이름값은 하네요 ~}{760:1년 전 :  별표 3개  : 여의도 백화점 지하1층..비빔국수 맛집으로 유명하다. 만두와 비빔국수 조합 좋음..요즘은 콩국수 손님도 많아짐..오랫만에 갔는데 맛이 예전만 못해진거 같다}{761:5달 전 :  별표 4개  : 콩국수 맛은 논할필요가 없죠 단지 주차비 내야하는점  이렇게 오랜세월 사랑받았으면 테이블과 인테리어가 좀더 깔끔하게 해주셨으면 하는 바램}{762:1년 전 :  별표 5개  : 오늘 저녁으로 진주집을 갔습니다9000원하는 비빔국수를 주문하였고참기름이 담백해  간도 강하지않아 속 편히 맛있게 먹었습니다 주문시 1~2분정도에 음식이나와 정말 만족하였습니다!!}{763:11달 전 :  별표 4개  : 부드럽고 맛있으나 줄서서 먹었다면 아주 억울했을듯. 굳이 찾아갈 이유는 없겠네요}{764:1년 전 :  별표 4개  : 줄 많이 서야함11시 정도 가야 걍 먹을 수 있음콩국수는 일단 맛집이라 기본이상은 함하지만 가격에 비해서는.....이 가격이면 이정도는 해야지...김치는 일단 달고 달고 또 달다....만두도 평범친절도는 중하사람이 워낙 많이 와서인지는 모르겠지만 빈자리가 있어도 일행이 다 오지 않으면 자리에 앉지 못하게 한다.혼자느 두명이 가면 합석이 기본.만약 나에게 다시 줄서서 먹으라고 하면 과연 다시 먹을까???}{765:7달 전 :  별표 3개  : 예전과 달리 맛이 조금씩 변해가네요}{766:7달 전 :  별표 4개  : 여기 모르는 여의도 사람 있을까요? 역사도 역사지만 콩국수와 닭칼국수 맛 레벨이 후덜덜 합니다}{767:8달 전 :  별표 2개  : 음식 값이 9천넌이나 하는데 질과 양이 별루 입니다}{768:11달 전 :  별표 5개  : 김치가 제일 대박..}{769:8달 전 :  별표 5개  : 깊은 닭육수의 쫄깃한 면발. 중독성 강함.}{770:1년 전 :  별표 4개  : 유명한 콩국수집. 누구나 좋아할만한 맛을 낸다. 메뉴는 네가지로 콩국수 닭칼국수 비빔국수 만두이다. 동절기에는 육개장칼국수가 추가된다고 한다.}{771:1년 전 :  별표 4개  : 맛은 이십년전 그대로 옛날맛입니다!더위에 점심시간은 밖에서 십분이상 기다리다먹기엔 아쉬웠구요!역시 가격이 문제입니다!콩국수 한그릇에 11000을 지불하기엔 과하쥬!!}{772:10달 전 :  별표 4개  : 콩국수맛이 부드럽고 고소한게 크림같네요 국수면발도 넘 쫄깃함 만두는 그냥 평범함 비빔은 적당히 신맛 단맛이 그리 강하지 않고 좋음 단 국수를 그 가격에 먹기엔 살짝 부담}{773:1년 전 :  별표 5개  : 여의도 백화점의 최고 맛집전주집! 다 아시는 식단이죠?아직도 모르신다고요 헐~~~냉콩국수 100%비빕국수 100%닭칼국수 100%접시만두 100%봄 여름 가을 겨울에 맞는 심플하면서 간단한 메뉴맛이요... 최상급 인정 ☆☆☆☆☆ + ☆여의도백화점으로 출발~참고로 평일날 점심시간에 포기 ㅠㅠ 손님 만세}{774:1년 전 :  별표 4개  : 이제는 콩국수 한그릇에 11000원......그냥 지나기 어려우니 매년 여름 딱 한번만 먹습니다. 내 돈아니고 남의 돈으로 먹을때...그런데 말입니다. 맛은 정말 좋습니다. 걸죽한 콩국은 최고입니다. 딱 하나 단점은 가격입니다. ㅠㅠ}{775:9달 전 :  별표 3개  : 고향의 맛(ㄷㅅㄷ)진하게 느껴지는 집입니다 육수에서요 ㅎ 비빔국수 나름 맛나더라구요}{776:1년 전 :  별표 3개  : 콩국수는 맛있어요. 다른거도 나쁜진 않지만 가격대비 So-So.}{777:1년 전 :  별표 5개  : 더 이상의 표현이 의미없는 콩국수 전통 강자 중의 강자. 진주회관!!}{778:10달 전 :  별표 4개  : 맛... 겁나맛있고.. 양? 괜찮고.. 면상태 쫄깃하고... 근데 여의도라고 해도 약간 가격이....}{779:10달 전 :  별표 5개  : 콩국수 맛집입니다. 비빔국수도 맛있고 닭칼국수도 끝내줍니다. 같이나오는 김치가 예술이에요~!}{780:9달 전 :  별표 4개  : 닭칼 육칼 다 맛있다. 콩국수 만두 무난. 그러나 올해 가격을 올려 -5점}{781:10달 전 :  별표 5개  : 콩국물이 담백하고 진하며 김치가 맛있음여름이면 대기줄이 길지만 회전율이 빨라서 기다려서 먹어보길.. 나사의 기술력이 함께한 콩국수}{782:1달 전 :  별표 5개  : 콩국수... 4계절 먹고싶은 메뉴~}{783:8달 전 :  별표 4개  : 가성비 좋은 호텔 하지만 같은 타입 객실이 일관성 없음}{784:11달 전 :  별표 5개  : 콩국수와 비빔국수를 전문으로 하는 곳입니다. 가격이 비싼것 빼고는 다 좋습니다. 특히 보쌈김치는 아주 좋습니다.}{785:1년 전 :  별표 5개  : 맛있다. 사람이 많다. 평일점심은 11시 10분까진 가야한다. 김치가 보쌈김치같다. 달다. 만두는 찜솥만두 같다. 가격은 비싸다.}{786:1년 전 :  별표 1개  : 유명하길래 제 돈 주고 사먹어봤습니다. 평소 콩국수 정말 좋아하는데 .. 콩 고유의 맛보다는 미원 맛이 강하네요 비빔국수는 특히나 더 미원 맛이 강하게 느껴졌습니다 ㅠㅠ 김치는 굉장히 단 편이구요. 만두는 맛있게 먹었습니다. 마지막으로 가격이 굉장히 사악합니다 ㅠㅠ}{787:1년 전 :  별표 3개  : 콩국수 맛은 괜찮았습니다. 서브도 빨랐구요. 그 유명하다는 김치는 좀 지나치게 달았습니다. 콩국물은 많이 뻑뻑해서 따로 수저로 떠먹지 않아도 면 먹다보면 별로 남지 않을 정도이니 호불호가 갈릴 수 있습니다. 염두에 두시길}{788:3달 전 :  별표 5개  : 친절하고 콩국수 넘맛나요}{789:1년 전 :  별표 4개  : 10년전부터 다니는 곳. 콩국수는 여전하고 비빔은 살짝 맛이 변한 것 같기도 한데 그럼에도 중독성은 여전합니다. 점심먹으러 가려면 오전 11시언저리에 가세요. 11시20분만되도 자리가 없고 12시전에 줄줄이 비엔나처럼 줄이 형성됩니다. 늘 잘되는 집. 예전하고 똑같이 징사잘되더라구요.}{790:7달 전 :  별표 5개  : 이곳의 콩국수는 천하제일.  더 맛있는 곳? 어디?}{791:1년 전 :  별표 5개  : 사실 이집..콩국수에 들어간 재료라곤 콩국물과 면인데 왜이렇게 맛있을까..콩국물이 진짜 너무 진하다 두유크림 느낌이랄까.. 근데 계속 퍼먹게 됨. 김치도 너무 맛있다.. 근데 왜 슬금슬금 가격 올리나요 ㅠㅠ 엉엉}{792:1년 전 :  별표 5개  : 콩국수와 보쌈김치 조합은 치킨과 맥주 커피와 도넛 수준으로 진짜 맛있음. 콩비린내도 안 남.단 비빔국수는 비추. 너무 달고 비쌈. 만두는 소도 맛있고 피의 식감도 좋음.}{793:1년 전 :  별표 4개  : 내가 여의도에 간게 1994년 그때도 사장님 사각 벤츠타셨다. 그당시 벤츠는 요즘 벤츠가 아님. 트렁크에서 배추며 파며 꺼내시던 모습 봄 ㅋㅋㅋ. 그 시절에도 줄서던 집. 지금은 확장에 확장.. 그러나. 칼국수는 별로임.. 명동칼국수가 나음. 비빔국수 좋고. 접시만두 좋고. 콩국수 최고임. 같이 주는 김치 넘나 맛있음}{794:1년 전 :  별표 5개  : 이 콩국수 한그릇이면 여름의 시작을 알 수 있다.무더운 여름이 찾아왔을 때 수 많은 여의도의 인파를 뚫고 목덜미를 타고 흐르는 땀방울을 훔치며 진주집에 도착해 앉아 콩국수 한그릇을 시킨다.음식이 나오기 까지 그렇게 오랜시간이 걸리는 것은 아니지만 앞에있는 주전자의 찬물도 마시지 않고 음식을 간절하게 기다린다.음식이 나왓을때 두 손으로 떠받들어 꿀꺽 한입 크게 삼켰을때걸쭉하면서 고소한 콩국수 국물이 목젖을 타고 넘어갈때 짜릿함이란 다른 음식으론 표현 할 수 없을 정도다.행복하다.매콤 달큰한 비빔국수는 또다른 별미. 만두에 싸먹는거 잊지마세요.}{795:2주 전 :  별표 4개  : 가격이 이젠 너무 비싸짐}{796:1년 전 :  별표 4개  : 미친듯이 흡입하게되는 콩국수의 진한맛! 양이 장난아니라서 왠만한 성인 남성도 배부르게 먹을 수 있는곳. 만두도 별미므로 꼭 드셔보시길!}{797:1년 전 :  별표 2개  : 전 콩국수를 원래 안좋아해서 비빔국수를 먹었는데 양녀장 베이스가 엄창 깊이 있는 맛이였습니다. 그런데 너무 짜서 먹기가 힘들 정도였어요. 오랜만에 기대하고갔는데.. 아쉬웠네요. 줄도 워낙길고 국수가 아무리 맜있어도 9천원은 비싼 느낌입니다. 콩구수는 만천원...ㅡ.ㅡ}{798:1년 전 :  별표 3개  : 그냥 콩국수맛이다. 깊은맛이 있지만 걸쭉한게 더해서 진미를 느낄 수 있지만 콩국수맛이다. 다들 바빠서 서비스도 없고 빠르게 회전이 중요해서 정은 없는곳이다.}{799:5달 전 :  별표 4개  : 날이 갑자기 더워져서 냉콩국수 시켰는데먹을만해요 보쌈 생각나게하는 김치 굳굳&lt;U+0001F44D&gt;만두는 개인적으로 별로요}{800:1년 전 :  별표 5개  : 콩국수 맛집인데 비빔국수도 이렇게 맛있기 있나요. 보쌈김치같은 느낌의 김치도 진짜맛있어요. 토요일 오후4시에도 건물기둥 3면을 감싸는 웨이팅 줄이있었지만 10분내로 입장가능하고 음식도 빨리나옵니다.}{801:3달 전 :  별표 5개  : 맛남~ 사람 많음 ㅜㅜ}{802:1달 전 :  별표 3개  : 맛있으나 마이 비쌈}{803:9달 전 :  별표 5개  : 단골집~. 저는 여기 비빔국수를 제일 좋아해요서빙 아주머니들이 빠르게 잘 하셔요일요일 영업 안하고 평일 저녁도 늦게 가면 안해요}{804:1년 전 :  별표 4개  : 걸쭉하고 고소한 콩국수 감칠맛나는 비빔국수! 김치는 살착 예전보다 고소함이 없어진듯}{805:1년 전 :  별표 4개  : 콩국수 맛집 입니다. 서소문 잔주식당과는 찬척 사이라고 하지만 콩국수를 재외한 매뉴에 차이가 있습니다. 진주식당 &amp; 대치동 맛자랑과 비교한다면 조금 거친맛입니다. 닭칼국수 등 타 메뉴의 맛도 뛰어납니다.  김치맛도 일품입니다.}{806:11달 전 :  별표 5개  : 12년이 지나 오랜만에 방문했는데12년전에 맛이 그대로 느껴지는... 어떻게 이렇게  맛유지를 하는지.. 정말 존경스럽습니다.비빔국수와 콩국수는 이곳이 진리 입니다}{807:9달 전 :  별표 2개  : 콩국수가 11000원 닭칼국수 9000원 비빔국수 9000원... 가성비는 많이 떨어집니다. 맛도 예전같지 않음.}{808:7달 전 :  별표 5개  : 여백지하의 맛집콩국수와 김치의 궁합은 가히 최고}{809:1년 전 :  별표 5개  : 깊고 풍부한 콩국물에 반했어요접시만두 만두도 속이나 피 모두 흠잡을 데 없네요겉절이 무랑 겉절이 김치도 식감이 너무 훌륭합니다왜 엄지척 식당인지 실감하고 왔어요}{810:1년 전 :  별표 5개  : 여의도 맛집으로 뜨는 곳 중에 이영자 맛집이라길래 제일 가보고 싶었는데 일요일엔 안열어서 매번 안맞아 못가다가 토요일에 여의도에 갈일이 생겨 드디어 방문했어요~ 여의도백화점 지하에 거의 대부분을 차지하고 있어요. 토요일 점심이었는데 사람 정말 많더라구요~ 다행히 짧은 대기 후에 금방 들어갔습니다. 찬음식과 따듯한 음식을 함께 먹기 위해 콩국수랑 닭칼국수 주문했어요. 결론적으로 두가지 시키길 참 잘했어요~ 일단 콩국수 국물이…}{811:1년 전 :  별표 5개  : 역시 명불허전 진주집. 콩국수가 유명하지만 비빔국수와 만두도 맛있어요 줄이 길지만 빨리 줄어듭니다}{812:1년 전 :  별표 5개  : 맛있는 콩국수집. 형 격인 진주회관에 비해 콩국수도 김치도 좀 달달하다. 그래서인지 먹을 땐 맛있지만 나중에 생각나는 건 진주회관 쪽이다. 그래도 진한 국물과 깊이 있는 맛이 일품인 콩국수 대표 맛집임에는 분명하다. 콩국수 외에 다른 메뉴는 무난한 느낌이다.}{813:2달 전 :  별표 2개  : 비빔국수 9천원은 솔직히 사기다}{814:7달 전 :  별표 5개  : 저렴하며 맛나고 메뉴가 몇개없어 전문적인집으로 보임}{815:9달 전 :  별표 4개  : 오늘은 콩국수가 아닌 칼국수를 맛있게 먹었네요.쌀쌀해진 가을에 따끈한 칼국수도 좋네요}{816:8달 전 :  별표 4개  : 콩국수 고소해요. 닭칼국수 담백해요. 비빔국수 후루룩 짭짭입니다.}{817:1년 전 :  별표 4개  : 콩국수를 좋아하시는 분들께 추천드립니다~~!!만두피가 약간 두꺼워지긴 했지만 여전히 맛있는 콩국수 비빔국수와 김치를 맛볼 수 있습니다기다린 시간을 배신하지 않을 맛이지만 점심시간에는 사람이 밀려서 줄을 서야되니 참고하세요~~(토요일에도 오후까지 영업해서 전 주로 토요일 점심에 갑니다)}{818:1년 전 :  별표 4개  : 콩국이 엄청 꾸덕하고..꼬수운건 맞는데..인기가무척많고 다들 맛있다는데 나는 아직잘 모르겠는맛}{819:5달 전 :  별표 5개  : 콩국수는 여전히 짱! 비빔국수에 만두 궁합도 짱!평일주차는 1시간이던데 토요일주차는 3시간 주길래 여의도공원 산책까지 하고 옴}{820:1달 전 :  별표 4개  : 맛나고 인기있는 맛집}{821:5달 전 :  별표 3개  : 왜 줄을 서서 먹는것인지..옛날 공국물을 아시는지..다시 가기 시러요}{822:10달 전 :  별표 3개  : 특별히 호불호 없이 콩국수 맛볼 수 있는 곳. 내 입에는 약간 짜다. 맛 자체로는 양재역 산동칼국수가 훨씬 낫긴 하지만 꾸준히 여의도를 지키고 있어 인정.}{823:1년 전 :  별표 5개  : 유명한 콩국수 맛집. 김치가 맛있어서 설탕 없이 먹을 수 있다. 다른 메뉴(칼국수비빔국수)도 기본이상은 해서 콩국수 싫아하는 사람과 같이 와도 좋다}{824:10달 전 :  별표 5개  : 서울 오면 반드시 이집 투천함.콩국수가 머가 다를까 하지만 비린내 안나고 구수하고 걸쭉하니 맛있음.사람이 너무많아 놀라고 대기시간에서 놀라고 맛있어서 놀람.오래되고 사람이 많은데도 맛이 변하지 않네}{825:11달 전 :  별표 1개  : 평점도 높고 여의도라 기대하고 갔는데 대실망 입니다.먹은 메뉴들 리뷰입니다 - 콩국수: 시중에 파는 콩가루 진하게 풀어서 나온것 말고 아무것도 없습니다. 직접 간 콩의 고소함 그런거 기대하시면 무조건 실망합니다. - 닭칼국수: 우선 닭고기가 당일 삶은게 아닙니다. 뻣뻣하고 말라있어서 질깁니다.  국물도 닭육수와 다른육수를 반반? 섞은맛입니다. 멸치육수인지... - 만두 : 시제품은 아닌것 같고 그럭저럭 보통입니다. - 반찬 김치: 맛은 괜찮으나 조금 매운편입니다.총평: 가격대비 맛 생각하면 영 아닙니다. 그래도 궁금하시면 직접 가서 드셔보세요}{826:8달 전 :  별표 5개  : 가격은 만만치 않지만 맛과 질로 콩국수의 명성을 지켜가는 곳. 추가된 메뉴인 비빔국수도 범상치 않다.}{827:1달 전 :  별표 5개  : 아무리 먹어도 질리지 않는 닭칼국수}{828:1달 전 :  별표 5개  : 대기가 길어도 40분이면 대기 주문 서빙 식사까지 가능}{829:1년 전 :  별표 5개  : 여의도 백화점 지하 1층. 진주집. 콩국수하나만큼은 정직하게 1등. 만두도 맛집. 김치는 하아 말해뭐하겠음...주차도 지원되고. 여름엔 최고!!!}{830:1년 전 :  별표 2개  : 콩국수 만천원이나 내기에는 그닥...이다. 밑반찬도 김치하나며 기존 콩구수의 맑은 고소한 맛보다는 탁하고 둔한 맛이고 느끼하다. 닭칼국수도 예외가 아니다. 칼칼하고 시원하다기보다는 비리고 느끼한 맛이 강하여 먹고난 뒤에 개운함이 없다.}{831:1달 전 :  별표 4개  : 김치맛집입니다 보통 콩국수보다 국물이 진해요 콩비린내 싫어하는 사람은 못먹더라구요ㅜ}{832:2주 전 :  별표 5개  : 정말 유니크한 콩국수}{833:3주 전 :  별표 5개  : 맛집이라갔는데 맛있어요}{834:3주 전 :  별표 5개  : 걸죽한 콩국물}{835:2주 전 :  별표 4개  : 비싸지만 맛있네요}{836:1년 전 :  별표 3개  : 긴 대기줄이 복도에 길게 늘어서 있는 풍경이 이색적이었다. 닭칼국수를 먹었는데 특유의 닭삶은 냄새때문에 조금 별로였다. 갓담근 겉절이는 별미였고 콩국수가 더 맛있다고들 한다. 점심시간이 한마디로 전쟁통이었다.유명하다고들 하는데 맛은 그닥 평범했다.The scenery where the long waiting line was lined up in the corridor was unusual. I ate chicken…}{837:10달 전 :  별표 4개  : 1년만에 찾았는데 그새 가격이 또 올랐더라는!!콩국수가 만원이넘는것도 놀랬지만 김치는 솔까 더 맛있긴하다. 회전율도 매우높다.주말에도 찾는 사람이 많다는게 신기하다.가격때문에 별하나 감점.}{838:11달 전 :  별표 5개  : 두번째 방문이고 콩국수를 찾아서 먹진 않지만 여기서 한그릇 킬했네요.콩국수가 디게 진하고 고소해서 맛있어요.1인 1국수에 만두 추가하면 배터져요. 남자 둘이서 겨우 다 먹음.}{839:1달 전 :  별표 4개  : 맛은있는데가격이쎄요}{840:3주 전 :  별표 3개  : 만두가 맛있으나 비쌈}{841:2년 전 :  별표 3개  : 3.5정도 되는것 같다.콩국수 국뮬은 진한데 살짝 단맛이난다. 두유 등을 섞었나?김치는 회전율이 빨라서인지 겉절이 맛이좋지만 조미료 맛도 무시할순 없다비빔도 맛있다우리 먹는 특성이 달라서 누구는 국물만 누그는 면만 먹고 누구는 다먹었다 ㅋㅋㅋㅋ}{842:1년 전 :  별표 5개  : 콩국수: 콩국물이 진하고 아주 곱고 견과류 맛이 거의 느껴지지 않아서 좋다(개취). 메뉴에 적혀있지 않지만 카운터에 문의해보니 콩국물도 따로 판매하신다고 했다.처음 먹었을 때에는 면이 개인적 취향과 거리가 있다고 생각했는데 여러번 먹다보니 콩국물과 면이 잘 어울리는 것 같다.김치는 간이 쎄고 단맛이 좀 있는 편. 무가 오독오독 씹히는게 식감이 좋다. 다만 간이 쎄서 많이 먹으면 콩국물 본연의 맛을 느끼기 어렵다.콩국수는 다부분 계절메뉴라 겨울엔 먹기 힘든데 여기선 겨울에도 콩국수를 먹을 수 있어서 좋다.만두: 평범한 편. 특별 맛있는지는 잘 모르겠다. 그렇다고 맛이 없지는 않다.}{843:1년 전 :  별표 5개  : 서울특별시 열등 포구 국제금융으로 6길 33 여의도 백화점 지하 1층에 위치한 이곳! 점심시간에는 직장인들로 늘 북적이는 곳이지요. 대표 메뉴는 국내산 콩으로만 국물을 만들어 깊은 풍미를 자랑하는 콩국수 집으로 유명하지요. 콩국수는 여름에 드시면 좋을 것 같아요. 안타깝게도 콩국수는 계절메뉴라 지금은 없어요. 대신 겨울에는 따뜻한 닭칼국수와 손 만둣국이 인기지요. 이곳 30년 전통의 맛 집! 여의도 부근 국숫집 중 가장…}{844:1년 전 :  별표 5개  : 여의도 백화점 지하에 위치하는 식당. 여름한철 기간을 정해 콩국수를 판매하는데 김치와 함께 먹는데 맛이 좋다. 특히 더운날엔 점심이나 저녁식사 시간내내 긴 줄이 늘어설 만큼 인기가 엄청나다. 콩국수도 좋지만 함께 나오는 김치도 참 독특한 맛을 자랑하며 비빔국수또한 괜찮으니 여러사람이 갈땐 서로 다른 메뉴로 덜어 먹어도 좋을것 같다}{845:1달 전 :  별표 5개  : 맛 괜찮음 음식 빨리 나옴}{846:1년 전 :  별표 5개  : 엄청나게 줄서서 먹는 전통의 맛집. 모든 메뉴가 맛있다.}{847:1년 전 :  별표 5개  : 콩국수는 국물이 진하고 면은 쫄깃했다.  맛있었다.만두는 피가 부드럽고 비빔국수를 샇짝 얹어 먹으면 별미다. 4종류의 면과 만두가 잘 어우러진 가성비 좋은 집이다.}{848:3주 전 :  별표 3개  : 그냥 왜 줄을서는지 모르겠음}{849:1년 전 :  별표 5개  : 말해뭐합니까. 정말 맛있어요. 콩국수 가격대있어도 먹고나면 건강해지는 느낌입니다. 반찬으로나오는 꼬들배기 김치도 맛있어요. 둘이 가면 비빔 국수 하나 콩국수 하나요-}{850:3달 전 :  별표 4개  : 콩국수대박맛집 비빔국수도 좋다! 칼국수는 그저그럼}{851:1달 전 :  별표 3개  : 가격은 매우 비싸지만 먹을만 함.}{852:11달 전 :  별표 3개  : 너무 유명해서 손님이 많아 자리 없을까 벼루고벼룩다가 평일 2시반쯤 해서 시간이 나서 방문했습니다. 다행히 웨이팅은 없었지만 내부는 손님들로 가득했고 콩국수는 아주 스피드하게 나왔습니다.서울 최고의 콩국수라고 하기에는 좀 모자른 맛이었습니다.콩국수에 빠져서 맛있는 집이라면 다 다녀 보았지만 여기보다 맛있는집이 많이 있습니다.근처라면 가끔 먹는정도 맛이지만 찾아와서 먹을 맛은 절대 아닙니다.소문난 잔치에 먹을거 없다는}{853:8달 전 :  별표 5개  : 여전히 아름다운 맛...서울시내에서 이만한 콩국수를 먹어보지 못했다. 간만에 건강음식 먹고 갑니다. ^^}{854:1년 전 :  별표 5개  : 콩국수☆☆☆☆☆누구나 다 아는 맛은 아닙니다. 특유의 고소함이 있습니다.비빔국수☆☆☆☆☆☆☆가성비로 따지면 비쌀순 있지만 엄청 맛있습니다.닭칼국수☆☆☆☆조미료가없어 확실히 깔끔한 맛이지만묵직한맛이 없어 아쉽습니다. 김치가 하드캐리하여 별네개드립니다 김치아니면 별세개정도.팁!!만두 두개가 들어갑니다만두☆☆☆개인적으로 김치만두만먹는편이라 점수가 낫습니다.하지만 특유의 고기 냄새가 나지않아 좋습니다.피가 너무 두꺼워 제입맛에는 맞지않습니다.}{855:1주 전 :  별표 5개  : 저는 닭칼이 최고 ㅎㅎㅎㅎ}{856:1년 전 :  별표 5개  : 매콤달콤한 김치와 고소하고 진한 콩국물 조화가 맛있는 집~! 영화보고 들러서 먹었다. Cj에 점령당한 ifc몰에서 벗어나 조금만 걸어가면 되는 곳이라... 운이 좋아서 바로 들어가긴 했는데 3시 무렵에도 웨이팅이 있던 집; 다음번엔 닭칼국수와 만두를 먹으러 다시 오고 싶다!}{857:11달 전 :  별표 5개  : 콩국수가 메인이고 콩국물이 담백하면서 진해서 맛있다. 사람이 많아서 대기열이 있지만 회전이 빨라서 금방 들어갈 수 있다. 김치가 보쌈김치처럼 속이 많이 들어가 있으니 콩국수와 함께 먹으면 조합이 좋다.}{858:7달 전 :  별표 4개  : 오래되고 유명한 맛집이죠~개인적으로 닭비린?누린내에 민감!!하신분들은 비추입니다~그러나 대부분 잘~드세요. 면발이 살아있습니다~}{859:8달 전 :  별표 5개  : 닭칼국수 만두 시켜드세용. 여기 맛있어요. 여의도에서 밥 먹을 곳을 찾는다 하면 여기 오시면 되요. 연예인도 많이 온다 합니당.}{860:8달 전 :  별표 4개  : 식당 크기에 놀라고 맛에 놀라고. 김치가 내공깊은 맛.}{861:1달 전 :  별표 5개  : 콩국수 콩물 진하고 내 입맛에 맞아요}{862:1달 전 :  별표 5개  : 줄서서 먹을만 하네요  맛있어요}{863:1년 전 :  별표 5개  : 역시 최고..!! 콩국수 닭칼국수 다 맛있음.기다릴만한 가치도 있고 생각보다 줄이 금방 줄어서 괜찮음!}{864:2주 전 :  별표 4개  : 닭칼국수 맛있게 먹었어요}{865:1달 전 :  별표 4개  : 김치가 점점.. 근데 개운한 콩국수가 굿!}{866:2년 전 :  별표 5개  : 콩국수 자체도 너무 훌륭하지만 원조(?)라고 할 수 있는 진주회관 보다 이곳을 더욱 즐겨찾는 이유는 비빔국수와 김치 때문입니다. 진한 콩국수에 김치와 비빔국수를 함께하면 정말이지ㅠ진주집엔 혼자보다 둘 이상이 가셔서 꼭 여러 메뉴를 같이 드시길 추천합니다 :)}{867:1년 전 :  별표 5개  : 여의도 백화점 지하에 있는 칼국수 + 콩국수 맛집 입니다. 점심시간에 가면 직장인들이 몰려서 상상이상으로 줄을 서야 합니다. 그래도 매장 규모가 워낙 커서 금방 빠지는 편. 콩국수가 더 유명한 것 같지만 제 입맛에는 칼국수가 더 맛있었습니다. 만두도 맛있는 편. 김치도 달달하고 마늘 냄새도 많이 나는 것이 맛있습니다.}{868:3주 전 :  별표 4개  : 김치가 맛있는 닭칼국수집.}{869:3주 전 :  별표 3개  : 3년만에 방문했는데 예전보다 고소함이 적어졌어요.  좀 아쉽네요....}{870:1년 전 :  별표 4개  : 오래전부터 유명했던 맛집답게 맛있다. 비빔국수는 조금 양념이 쌔진 것 같긴한데 냉콩국수도 끝내주고 무엇보다 김치가 예술.자세한 솔직후기는 조만간 '진짜정보 완최' 공식블로그에서 확인하길.}{871:9달 전 :  별표 5개  : 언제가도만족스러운곳! 면을 옥수수전분을 섞으시나 보통소면보다 탄력이 좋고 단단한데 궁금하네요. 콩국수와 비빔시켜서 번갈아가며 먹으면 환상의궁합입니다. 심심하면 만두추가! 닭칼국수는 평범하다는 생각입니다^^ 오래오래 그자리에 계셔주시길 바라는 식당입니다}{872:3주 전 :  별표 3개  : 비빔국수가 맛있었는데.. 맛이 심하게 변함.}{873:1년 전 :  별표 4개  : 토요일 12시 좀 안되서 도착 대기는 3분정도로 거의 기다리지 않았음두명이서 콩국수 닭칼국수 비빔국수 만두 시켜서 먹었는데 배불러서 만두 5개는 포장해옴가격에 비해 양이 적아서 아쉬움주문하면 바로 나오고 음식맛은 대체적으로 맛있음닭칼국수에는 만두 2알이 들어있으니 닭칼국수 시키시는 분들은 따로 만두를 안시켜도 될듯함}{874:6달 전 :  별표 3개  : 콩국수가 일품이다. 국물이 진하고 고소하다. 곁들여 나오는 김치도 좋다.}{875:2달 전 :  별표 5개  : 줄서는데 30분?   먹는덴 5분!30년전에도 갔었지만30년 후에도 찻아갈집}{876:1년 전 :  별표 5개  : 정말 맛있네요. 진하기도 진할뿐더러 간이 아주딱. (옛날할머니맛...) 가격은조금있지만 양도많고. 재방문해야게쎈요^^ 점심시간엔 줄이 좀 길지만 테이블이 많아서 금방 빠집니다~}{877:3주 전 :  별표 5개  : 최고에요 인생맛집입니다..}{878:3주 전 :  별표 5개  : 콩국수 / 닭칼국수 최고입니다!!}{879:4달 전 :  별표 5개  : 최고의 콩국수. 다른 메뉴들도 먹을만하다고들 하는데 갈 때마다 콩국수만 먹어서 먹어볼 기회가 없네요...}{880:4주 전 :  별표 4개  : 눈이 번쩍 뜨이는 맛은 아니지만 섬섬하고 걸쭉한 국물은 일품인듯}{881:8달 전 :  별표 4개  : 비빔이 개인적으로 좋아하는 스타일설탕맛이 강하나 새콤달콤매콤의 정석근데 닭칼국수를 안먹기는 조금 아쉽고둘이가서 2개 1개 먹는게 딱}{882:1년 전 :  별표 4개  : 여의도에서 닭칼국수 콩국수 비빔국수 하면 유명한 곳만두는 더 맛있고 김치는 정말 맛있습니다이 무렵 항상 줄 서 있는 집!! 추천합니다!}{883:3주 전 :  별표 4개  : 콩국수 칼국수 비빔국수 만두 다 맛있습니다. 대신 오래기다리네요ㅜ}{884:8달 전 :  별표 5개  : 여의도 쵝오의 콩국수 맛집!!!☆4개반과 5개사이^^^맛은 ☆5개인데 장소가 좀구려서ㅋ아무 고명없는 불친절한ㅋ 비주얼의 콩국수!!그만큼 콩국물로만 과감한 승부수던지는데 진짜 강추!!!워낙 콩국수 즐기지않았는데 이진주집때문에 지금12월에도 국물까지 싹비우고 옴^^^너무 뻑뻑하지도 너무묽지도 않은 콩국물과 언제나 쫄깃한 국수면발 거기에 맛난 김치더이상의 반찬없이 이것만으로도 환상의 맛!! 주차불편에 좀어수선한 장소모두 상쇄함ㅋ추운날씨엔 칼국수도 다들 즐겨먹는데 이번에 떡국과 떡만두국 육개장칼국수도 추가됨^^하지만 추운겨울에도 난 여전히 콩국수파^^^비빔국수도 맛남ㅋ}{885:3주 전 :  별표 3개  : 소문대비 그냥그냥 국수집}{886:2달 전 :  별표 5개  : 개인적으로 콩국수보다는 비빔국수를 추천합니다.}{887:5일 전 :  별표 5개  : 콩국물이 진국입니다}{888:1달 전 :  별표 4개  : 시청 진주회관과 비교되는데비빔맛있고 양은적지만더담백한거같음}{889:3주 전 :  별표 5개  : 콩국수 맛있게 먹었습니다 :) 김치도 맛있어요 :)}{890:1년 전 :  별표 5개  : 줄이 길었지만 회전율이 빨라서 그런지 몇 분 안 기다렸다. 콩국수와 비빔국수 둘 다 정말 맛있다. 콩국수는 국물도 맛있고 면과 같이 먹으면 더 맛있다. 비빔국수는 맵지 않으며 약간의 달콤함이 느껴진다. 주차권은 1시간짜리를 현금 500원에 살 수 있다.}{891:1주 전 :  별표 4개  : 콩국수 변하지 않는 맛....비빔국수 닭칼국수 만두도 있음}{892:2달 전 :  별표 5개  : 오늘 더워서인지 이제까지 줄서본 중에서 제일 길게 서봤네요^^;최소한 150m는 선 것 같아요^^시원하고 고소한 콩국수를 먹었는데 역시나 실망시키지 않는 맛이었습니다^^더운 여름철의 시원한 보양식입니다^^}{893:5달 전 :  별표 2개  : 여름콩국수는 맛있는편. 예전에는 것절이에 굴도 많이 들어있어 그 맛에 일부러 찾곤 했는데 이제는 그다지 발걸음이 안가게 되었다여의도 음식점유형}{894:3주 전 :  별표 5개  : 100%순수 국산콩으로 만든 순수의 맛 무더운 여름에 더위와 건강을 잡을수 있는 1석2조의 맛입니다...}{895:5달 전 :  별표 4개  : 콩비린내가 살짝 난다고 느껴질 정도로 진한 콩국물이 특징입니다. 매력있고 맛있습니다. 다만 비빔면(?)은 많이 짭니다. 가격대가 조금 높고 자리는 상당히 어수선합니다. 콩국수 맛만 기대하고 방문하시면 되겠습니다.}{896:2달 전 :  별표 3개  : 작년에 비해 뭔가 달라짐}{897:2달 전 :  별표 4개  : 비빔국수가 맛있어요 ㅎㅎ 점심때 웨이팅이 길긴한데 줄 금방 금방 줄어요.테이크아웃도 가능한데 요건 줄 안기다려도 바로 포장해갈수 있어서 좋음}{898:1달 전 :  별표 4개  : 콩국물이 일품입니다. 면이 쫄깃합니다}{899:3주 전 :  별표 4개  : 훌륭합니다. 콩국수 가격이 올라서 아쉽네요}{900:1년 전 :  별표 4개  : 여의도에서 엄청나게 유명한 맛집 진주집.메뉴는 닭칼국수 비빔국수 콩국수 손만두단촐하지만 강력하다.콩국수 콩국물은 정말 진득하다 색깔자체만 봐도 느껴진다 진함이.맛있는 콩국수 였다.닭칼국수는 첫 국물뜨는순간 감칠맛이 따봉.닭칼국수 안에 만두 두알이 들어있다.만두 또한 쌍따봉.만두는 직접 만드는 손만두이다.}{901:1년 전 :  별표 5개  : 인생콩국수를 만났어요. 솔직히 여의도 맛집하면 맨날 나오길래 한번 가봐야지 생각은 했지만 콩국수가 굳이 먹으러갈만큼 대중적인 음식은 아니기에 미루고 미루다 이번에 드디어 와봤네요. 솔직히 국수집치고는 가격이 사악한데 나올땐 돈이 안아깝더라구요. 태어나서 먹은 콩국수중에 정말 최고에요. 국물도 진하고 콩비린내도 전혀 안나고 중면인지 소면인지랑도 너무나 잘어울려서 순식간에 다먹었어요. 그리고 같이주는 무말랭이김치랑 김치는…}{902:4주 전 :  별표 4개  : 콩국수 별로 안좋아하는데 구수하고 맛있네요}{903:3주 전 :  별표 4개  : 진주회관이 더 맛있는듯.. 김치는 짱}{904:1주 전 :  별표 3개  : 전반적으로 모든 메뉴 맛있는지 모르겠음}{905:1주 전 :  별표 5개  : 서울3대콩국수집...비빔국수도 맛있어요}{906:4주 전 :  별표 5개  : 대표메뉴는 콩국수지만 닭칼국수도 괜찮습니다}{907:9달 전 :  별표 4개  : 2번째 방문입니다. 여전히 친절하시고 다들 웃으시면서 일하시는게 보기좋아요. 비빔국수는 언제나 진리구요bb 가격대가 비싸다고 느끼실 수 있지만 양은 많은편이고 면발이 쫄깃해서 일반 건면과는 차이를 느낄 수 있었어요. 만두는 뭐 항상 꽉차있어서 맛있구요. 밑반찬으로 나오는 김치 너무 맛있어요. 누군가에게 소개해주고 싶은 장소 하면 이곳이 생각나요. 다음번에는 육개장 칼국수를 먹어보고 싶어요. 추천추천!}{908:1주 전 :  별표 5개  : 김치가 끝내줍니다.}{909:11달 전 :  별표 4개  : 서울시청 근처의 콩국수 명가 ‘진주회관’과 유사한 가게가 여의도에도 있다는데(친척이라는데 진짜인지는 모르겠음)과연 고소하고 부드러운 콩국물의 질감이나 맛이 비슷함하지만 역시나 비싼 가격도 똑같은데;다른 점은 진주회관은 바쁜시간에는 콩국수 밖에 시킬 수가 없는데여기는 닭칼국수 비빔국수 만두를 주문할 수 있다는 점과김치에 무말랭이가 같이 나오는 것 정도?개인적으로는 시청 옆 진주회관이 좀 더 나은듯}{910:1년 전 :  별표 5개  : 콩국수의 끝판왕이!!!!  국물은 물이 안든 그냥 갈은거라서 생면임에도 흘러내림이 아닌 국수와함께 입안에서 행복을 느끼게합니다!!!김치는 맵지도 짜지도않게 적당하고 위의 무말랭이는...크!!!접시만두도 좋습니다!!피가 얇은걸 웡하는 분들에게는 별로일거같긴한데... 적당한 만두피를 원하신다면 강강추추!!!}{911:2주 전 :  별표 4개  : 맛이 나쁘지는 않은데 줄서서 먹을 정도는 ..}{912:1년 전 :  별표 5개  : 여의도백화점 지하 음식백화점 5672728에 위치한 진주집. 단연코 최고입니다.!!!!!!!!주변이 금융가라 식사시간 때에는 엄청나게 줄서서 먹습니다. 그래서 식사시간을 피해서 가시는 걸 추천드려요~ 그래도 줄서서 먹을 수 있는 곳. 인정합니다........이영자 맛집 리스트에도 소개된 이곳 진주집은 콩국수 맛집인데 비빔국수도 맛있고 만두도 맛있고 무말랭이와 김치도 전부 다 맛있어요.... 최곱니다. 더 번창하세요 ^~^}{913:3주 전 :  별표 5개  : 콩국수에 김치면 일주일 내내 먹어도 안질릴듯.가격이 좀 비싸지만...}{914:1주 전 :  별표 1개  : 맛있는지...모르겠어요다만 김치는 맛있어요.}{915:2주 전 :  별표 4개  : 콩국수가 빨리 떻어집미다}{916:3주 전 :  별표 4개  : 맛있게 잘 먹었습니다. 콩국수가 젤 맛있네요}{917:5일 전 :  별표 4개</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 맛있어요! 음식도 빨리 나옵니다!}{918:1주 전 :  별표 2개  : 맛은최고가격에비해양이너무적음}{919:3달 전 :  별표 3개  : 콩국수를 평소에도 아누먹기 때문에... 닭칼국수랑 비빔국수 먹었습니다. 맛 괜찮은데 특별하다 정도는 아닌? 다들 콩국수 드시긴 하더라고요 ㅎㅎ}{920:10달 전 :  별표 3개  : 음식들 맛이 대체적으로 보통 이상은 합니다. 콩국수 저는 맛있게 먹었습니다.. 다만 메주콩 냄새가 좀 느껴져서 냄새에 민감하신 분들이나 메주냄새에 민감하신 분들에겐 호불호가 있을수 있겠네요. 별3개 인 이유는 가격이 사악합니다. 여의도라 그런가요..?ㅎㅎㅎ 그래도 이 돈 내고 여기까지 콩국수를 먹겠다고 다시 찾아오진 않을듯 하네요.  아.. 김치 맛은 달고 별로 입니다. 콩국수와 어울리지 않습니다.. 보통 구구수집 김치는 맛있던데.. 이건 실망..}{921:1달 전 :  별표 5개  : 언제나 최고! 여렷이 간다면 비빔국수 닭칼국수도  별미}{922:1달 전 :  별표 4개  : 평일 점심때는 주변기업체 회사원들로 길게 줄을 서니 그시간대를 피하시고 계절풍미 맛보시길...콩국수 추천}{923:1달 전 :  별표 1개  : 사람들이 맛있다고해서 갔는데 줄이 길더라고요콩국수를 시켰는데~국물은 탁하고 끈적이고 암튼 집에서 해먹던 맛은 전혀아니였어요.글구 김치도 맛없구 손님이 많아서 그런지 친절하지도 않아요.}{924:1달 전 :  별표 3개  : 맛은 있는 편인데 너무 비싸요. 김치가 감칠맛이 있고 손이가는 맛인데 그럼에도 불구하고 만 천원짜리 콩국수를 다시 먹으러 가지는 않을 것 같네요}{925:3달 전 :  별표 5개  : 항상 붐비고 조금 불친절하지만 그리고 11000원이라는 가격이 그리 저렴하지는 않지만 너무 맛있는 집입니다. 고소한 국물맛을 따라올 데가 없습니다. 다만 비빔국수와 만두는 나쁘지는 않지만 평범한 맛이니 이 곳에서는 꼭 콩국수를 드세요. :)}{926:1달 전 :  별표 4개  : 진한 콩국수의 맛을 여기처럼 제대로 느낄 수 있는 곳이 있을까? 가격의 압박이 조금 아쉬움!}{927:1달 전 :  별표 3개  : 기격은 여의도라 높은것 같은데 그에비해 양도적고 맛도 일반적임}{928:2달 전 :  별표 1개  : 닭칼국수.. 굵은 면인데 좀 불은 느낌이었고 엄청나게 맛있지는 않았다. 그냥 평범... 닭육수가 진하지 않음. 기대 많이하고 가지 마세요. 웨이팅 줄 엄청 긴데 금방금방 빠집니다.}{929:4주 전 :  별표 4개  : 콩국수 맛도 좋고 김치도 맛있고 비빔국수도 좋은데 가격이 야금야금 자꾸 올라요}{930:1달 전 :  별표 1개  : 콩국수 닭칼국수 만두 다 별로 였어요 조미료 맛이 많이 나서 가격대비 정말 맛없어요}{931:1달 전 :  별표 2개  : 콩국수는 진하고 담담한 맛비빔국수는 무난.면 양은 많았으나 김치는 조미료 범벅이라 조화가 잘 안되었어요.굳이 재방문은 안할 듯 합니다.}{932:2달 전 :  별표 4개  : 콩국수를 좋아해서 여기저기서 먹어봤는데진주집 콩국수는 콩국물이 진한 편이었고 맛있었습니다.닭칼국수도 잘 먹었습니다.다만 제 입맛에는 김치가 달고 가격이 조금 비싸네요.}{933:1달 전 :  별표 5개  : 서울 3대 콩국수집 답습니다. 닭칼국수도 맛있습니다. 만두까지 2개 넣어주네요. 강추합니다.}{934:3주 전 :  별표 5개  : 닭칼국수는 국물 최고콩국수의 진한맛 좋고만두는 배부름 ㅋ}{935:4주 전 :  별표 5개  : 콩국구 맛은 아주 좋으나 가격대비 양이 조금 적게 느껴질 수 있습니다. 김치맛이 아주 좋습니다.}{936:1달 전 :  별표 5개  : 맛있다. 가격은 생각보다 조금 비쌌음. 평균 9천원대.  손님 많음. 닭칼국수 먹었는데 맜있었음.}{937:1달 전 :  별표 5개  : 평범한듯 맛있어요. 콩국수는 담백하고 비빔국수는 달달하네요. 하나만 먹으면 좀 질리니까 콩국수 비빔국수 만두 다 시켜서 돌아가며 먹으면 안질리고 다먹을수 있음 ^^}{938:2달 전 :  별표 4개  : 맛도 담백하고 좋다. 근데 가격이 11000원에 주차는 500원 쿠폰 주고 사야함. 김치가 맛있긴한데 많이 달다. 다시한번 말하지만 맛은 일품  가격이 너무 비싸서 아쉽다.}{939:5달 전 :  별표 5개  : 여의도 백화점 지하 1층에 위치한 진주집에서 대표메뉴 콩국수와 닭칼국수를 주문해 먹었는데 각각의 국수가 다른 굵기로 콩국수는 소면을 사용했고 칼국수는 식감 좋은 굵은칼국수 면을 사용했는데 면발의 식감을 중요하게 생각하는 나에겐 아주 만족스럽게 쫄깃하게 삶아져서 좋았다. 개인적으로는 닭칼국수가 콩국수보다 더 좋았다. 닭칼국수에 들어 있는 만두도 엄지척~! 특히나 이 집의 아주 독특한 맛을 내는 김치가 한 몫을 톡톡히 한다. 점심시간에 너무 많은 직장인이 몰리니까 참고하세요..}{940:1달 전 :  별표 5개  : 콩국수와 김치의 궁합이 엄지척. 늘 사랑받는 이유가 있는 콩국수 맛집입니다.}{941:1달 전 :  별표 5개  : 콩국수를 먹었네요 맛이야 콩수국 좀 한다는 집이라면 이맛은 물론이다 더이상 맛있을수는없다 ㅎㅎ 콩100%가 낼수있는 한계가 여기까지다 이집의 메인은 김치다 김치.. 맛으로 어깨 좀 으슥 댄다는 집들의 공통점은 김치를 그집만의 방식으로 풀어 밥상에 올려놓는다는 얼추 들어맞는 공식이 작용한다}{942:1달 전 :  별표 4개  : 여의도에서 가장 유명한 맛집.콩국수가 가장 유명한 집인데 비빔국수도 맛있습니다.다만 간이 좀 쎄서 짜게 느껴지실수도 있겠네요.만두는 담백한 손만두맛입니다.}{943:3달 전 :  별표 5개  : 콩국수 맛있기로 알려진 집들 가운데 가장 국물이 진하고 걸쭉한 집이 아닐까 싶다. 국물만 연거푸 몇 번이고 떠먹게 되는 콩국수가 정말 맛있는 집. 함께 나오는 겉절이와의 조화도 훌륭하다.}{944:1달 전 :  별표 2개  : 기대한것보다는 아쉬운맛. 국물이 크리미하긴 한데 콩국수라는 이름에 걸맞지 않게 전혀 고소하지가 않음 ㅜㅜ}{945:1달 전 :  별표 1개  : 여의도 백화점 주차장...최악...극혐....1시간동안 주차장에서 빠져 나가지 못하고 있음....음식은 맛있는데...주차장 때문에 토 나옴.....주차장 최악..극혐...}{946:3주 전 :  별표 5개  : 김치맛집. 콩국수는 그냥 저냥인데 김치가 너무 맛있음. 김치 위에 얹어진 무우말랭이가 ㅈㅁㅌ. 김치만 따로 좀 팔았으면. 명동 교자와 함께 김치가 아주 끝내줌.}{947:2주 전 :  별표 4개  : 국수가 참 맛있음. 비빔국수 콩국수 둘 다 추천사람이 많아서 줄을 서야함}{948:2주 전 :  별표 4개  : 매번 올때마다 느끼지만 명불허전. 진주회관보다 나은듯. 오랜만에 오니 줄도 길지않고... 면이 좀 바뀐듯}{949:4주 전 :  별표 4개  : 착한식당 느낌의 콩국수와 비빔면둘다 모두 쫄면의 면느낌이지만 비빔면 면발이 더 얇고 대부분의 손님이 콩국수와 비빔면 만두 이세가지 주문을 같이 합니다.만두도 돼지고기 잘 먹지 않는데 먹을만합니다.}{950:3주 전 :  별표 3개  : 오랜만에 갔는데 옛날같지 않네요. 콩물추가 8000원 김치는 위에만 무우로 데코레이션되어있고 밑부분에는 양념이 제대로 안되어있음.하지만 콩국수 맛은 괜찮았습니다.}{951:6일 전 :  별표 3개  : 여의도백화점 건물 지하1층에 위치한 진주집 메뉴는 딱 3개  사진은 비빔국수 ㅎㅎ 비빔국수 양념장은 좀 달다 적당히 단게 아니라 좀 많이 달다 단걸 부담스러워 한다면 비빔국수는 비추}{952:1달 전 :  별표 2개  : 여름이라 시원한 냉콩국수가 먹고싶었다. 콩국수 맛집으로 뜨길래 기대하고 갔다. 줄을 서긴했지만 회전율이 빠르고 음식도 금방 나왔다. 콩국수(\ 11000) + 비빔국수(\9000) + 접시만두 (\9000) 시켰다. 내입맛에는  콩국수보다는 비빔국수가 맛있었고 콩국수 먹으러 재방문의사는 없다. 만두는 쏘쏘였지만 콩국수를 거의 남겨서 만두로 배채웠다. 콩국수는 이맛도 저맛도 아닌 맛....  김치는 별로라는 말이 많아서 기대안해서 그런지 먹을만했다.}{953:1주 전 :  별표 5개  : 콩국수가 부드럽고 진해서 맛있었어요.닭칼국수는 진한 닭육수의 우러나옴으로 맛이 더욱 맛있었습니다.}{954:2달 전 :  별표 5개  : 기대하고 갔는데도정말 맛있게 먹었어요진짜 진한 맛인데또 너무 되직하진 않아서국수랑 먹기 너무 좋았어요김치맛집이라는 리뷰도 많이 봐서기대했는데 그 이상으로 맛있네요음식 나오는것도 빠르고아주머니들도 적당히 친절하고 빠른 느낌이라 좋았는데혼자와서 신경을 덜 쓰신건지 물도 안주시고...다른테이블에 주전자가 하나씩 있던데귀찮아서 난 왜 안주냐고 묻지도 않고국수만 호로록 먹고 나왔네요비빔국수랑 만두 먹으러콩국수 또 먹으러가야겠어요}{955:1달 전 :  별표 3개  : 콩국수는 콩물은 구수하고 면은 쫄깃 비빔국수도 새콤달콤했어요 근데 김치가 너무 조미료에 비벼진 자극적인 맛이였어요 콩국수의 담백하고 구수한 맛을 아주 흐리다 못해 삭제 당하는기분이였어요... 근데 여기 너무 사람들이 많이 떠드는건 아닌거 같은데 시끄럽네요 명동칼국수의 씨끄럽고 정신사나움 하고 동급인거 같아요}{956:4일 전 :  별표 5개  : 2인 면3종 셋트 추천그릇은 각자쓰고!!}{957:3주 전 :  별표 3개  : 여의도 백화점 지하 식당가에 위치한 유명 콩국수 전문점으로 오랜만에 방문...서울 3대 콩국수 중에서도 최고로 불리우는 곳으로 항상 손님들로 가득하며 웨이팅은 기본인 곳이다. 여의도에 오면 의무적으로 가야 할 곳이라  여겨질 정도의 유명한 곳...특히 요즘 같은 시기에는 단단히 기다림을 각오하고 가야만 하는 곳이다.워낙 유명한 만큼 개인적 소개 및 평가도 많아 굳이 설명이 필요 없는 곳이지만 반면에 개인적으로는…}{958:1주 전 :  별표 4개  : 진한 콩국수 맛. 간단한 메뉴와 빠른식사준비.위생이나 쾌적한 서비스를 점수주기는 힘들다}{959:3달 전 :  별표 5개  : 여의도에서 오래 살았지만 정작 여기를 와볼 기회가 없었습니다. 친구들과 갈수가 없었거든요. 여긴 술 안파니까 ㅠ.ㅠ 제대로 된 밥집에 가고 싶은데 결국 술이니.. (맨날 술이야) 드디어 왔습니다. 진주회관 그 콩국수 맛이 절로 떠오르는 정말 순수담백한 콩국물 먹고 울뻔 ㅠ.ㅠ the simple is the best 라든데 이 집이 딱 그런집. 접시만두도 먹을만 했습니다. 김치가 좋네요. 콩국수 만두와 잘 어울립니다. 좋은 분과 같이해서 그런지 더 맛있게 느껴졌던.}{960:1달 전 :  별표 5개  : 전 메뉴가 다 맛있어요. 전날 과음해서 닭칼국수가 좀 많이 땡기긴 했는데 콩국수랑 비빔국수랑 김치도 너무 맛있도 좋아요.포장시에는 생면과 육수(콩국물)를 준다고 합니다. 포장도 많더라구요.친구들이랑 가서 메뉴에 있는거 다 달라고 할때의 짜릿함이란..}{961:2달 전 :  별표 4개  : 여의도 백화점 지하1층에 위치해있고 아마 여의도에서 제일 유명한 식당이 아닌가싶습니다. 평일 점심시간 12시 반쯤에 가면 앞에 스무명 정도 줄이 있는데 워낙 가게자체가 크고 회전율이 좋아 5~10분 기다리면 줄이 빠집니다. 사실 여기 처음오고 국수가격대가 너무 비싸다고 생각했는데 그래도 사람이 많아요. 제일 유명한건 콩국수이고 콩을 갈아 국물맛이 고소해요. 면 양이 엄청 많아요 항상 다 못 먹었습니다.. 비빔국수는 단 맛이…}{962:2달 전 :  별표 2개  : 주차권 오백주고 사야함 ㅡㅡ장난???이게 최고의 콩국수라고 치면 제주도 윤정식당의 콩국수는 세계재패급 콩국수... 기대하고 왔는데생각보다 너무 기본적이고 게다가 가격도 너무 핵 비싸요. 여기 김치 맛집 아닌가요???? 김치 속 무말랭이 넘 맛있어요. :)이영자 효과 제대로 보는듯. 기본적으로 테이블에 소금 설탕 없고 달라해야 줍니다. 얼음없이 진하게 먹으라고 주는지 모르겠지만 저는 시원하지 않아 별로였고 오히려 역시 비싼 구천원짜리 비빔국수가 나았어요. 국수가 구천원이라니....세상에마상에. 금으로 된 국수를 쓰나봅니다. 비빔국수랑 무말랭이가 별을 세개 주게 만듭니다}{963:3일 전 :  별표 1개  : 점심시간에 갔는데사람이많아서주방에서급하게 했는지 면이덜익어서나옴}{964:1달 전 :  별표 3개  : 콩국수 비빔국수 접시만두 주문콩국수는 평소에 자주먹어본 음식이 아니라 조금은 어색했지만 앞으로 먹을 콩국수맛의 기준으로 삼을 예정입니다. 콩물도 걸쭉한편에 담백하고 고소한 맛이 좋았습니다. 콩비린내없이 살짝 짭쪼름한 맛이 좋아서 맛있게 잘 먹었습니다. 비빔국수는 간이 조금 쌔긴하지만 맛이 없을 수 없게 만들어 둬서 무조건 시키시는게 좋다고 생각합니다. 두 면음식의 면은 쫄깃하고 양념이나 국물이랑 잘 어울린다…}{965:3일 전 :  별표 4개  : 시골집에놀러가면할머니가해주셨던느낌의식사였어요.콩국수의국물이진짜'찐'이였어요~^^칼국수도여러조미료의요란한맛이아니라좋았어요.다음번에는비빔국수를먹어봐야겠어요~^^주차비는식당에서500원내고주차권을구입하면끝~!!!}{966:1주 전 :  별표 4개  : 콩국수 비빔국수 김치 다 맛있다완벽함곱배기 추가금 없음내가 별점을 하나 깎은 이유는?다른 곳에서도 이정도 수준의 맛있는 콩국수 집은 있는데여긴 한 그릇에 11000원이라는 비싼 가격때문임!서울 물가가 비싸서 그런지 아쉽다하지만 맛은 보장한다!}{967:3주 전 :  별표 5개  : 콩국수는 진짜 맛있는곳입니다. 가격은 콩국수 치고는 굉장히 비싼편입니다. 하지만 양이 어마어마 합니다. 저는 콩국수를 먹다가 물려서 어느 콩국수집을 가든 다 남기는데 이곳은 그 많은 양을 다먹었네요. 국물 진짜 진하고 여기 콩국수 먹으면 다른콩국수를 못먹습니다. 간은 살짝 되어있습니다. 그래서 소금 안넣고 김치를 살짝 얹어먹으면 기가막히게 드실수 있습니다.웨이팅 줄이 길지만 식당도 넓고 회전이 빨라 금방 드실수 있습니다.…}{968:6일 전 :  별표 5개  : 콩국수가 걸죽하게 나오는데 증말 맛있게 먹었고 김치도 짱 맛있어요 비빔국수 역시 최고. 이집 또'또가고 싶은 곳입니다}"</t>
   </si>
 </sst>
 </file>
@@ -1212,806 +1352,1196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>4.7</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1689</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>4.3</v>
+      </c>
+      <c r="E8">
+        <v>761</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>4.2</v>
+      </c>
+      <c r="E9">
+        <v>2348</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>4.3</v>
+      </c>
+      <c r="E11">
+        <v>968</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12">
+        <v>192</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>4.3</v>
+      </c>
+      <c r="E14">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E17">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>4.3</v>
+      </c>
+      <c r="E18">
+        <v>246</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>3.7</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>4.7</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>2.5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>4.2</v>
+      </c>
+      <c r="E22">
+        <v>222</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <v>3.8</v>
+      </c>
+      <c r="E23">
+        <v>331</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>3.8</v>
+      </c>
+      <c r="E24">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>3.9</v>
+      </c>
+      <c r="E25">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>4.7</v>
+      </c>
+      <c r="E26">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28">
+        <v>3.5</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E30">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>3.9</v>
+      </c>
+      <c r="E31">
+        <v>241</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <v>3.9</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>3.3</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>3.7</v>
+      </c>
+      <c r="E34">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>3.7</v>
+      </c>
+      <c r="E35">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E36">
+        <v>413</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E37">
+        <v>487</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E38">
+        <v>239</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>4.2</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>198</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>3.3</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42">
+        <v>3.9</v>
+      </c>
+      <c r="E42">
+        <v>399</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43">
+        <v>4.3</v>
+      </c>
+      <c r="E43">
+        <v>158</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E44">
+        <v>234</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45">
+        <v>4.5</v>
+      </c>
+      <c r="E45">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H45">
+    <sortState ref="A2:H45">
+      <sortCondition ref="A1:A45"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D2">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>4.7</v>
-      </c>
-      <c r="D4">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D5">
-        <v>301</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1689</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3.5</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>4.3</v>
-      </c>
-      <c r="D8">
-        <v>761</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>4.2</v>
-      </c>
-      <c r="D9">
-        <v>2348</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D10">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>4.3</v>
-      </c>
-      <c r="D11">
-        <v>968</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D12">
-        <v>192</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D13">
-        <v>109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>4.3</v>
-      </c>
-      <c r="D14">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D16">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>4.3</v>
-      </c>
-      <c r="D18">
-        <v>246</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>3.7</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>4.7</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>2.5</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>4.2</v>
-      </c>
-      <c r="D22">
-        <v>222</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>3.8</v>
-      </c>
-      <c r="D23">
-        <v>331</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>3.8</v>
-      </c>
-      <c r="D24">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>3.9</v>
-      </c>
-      <c r="D25">
-        <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>4.7</v>
-      </c>
-      <c r="D26">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D27">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28">
-        <v>3.5</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D30">
-        <v>152</v>
-      </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>3.9</v>
-      </c>
-      <c r="D31">
-        <v>241</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32">
-        <v>3.9</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>3.3</v>
-      </c>
-      <c r="D33">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>3.7</v>
-      </c>
-      <c r="D34">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>3.7</v>
-      </c>
-      <c r="D35">
-        <v>130</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D36">
-        <v>413</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D37">
-        <v>487</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D38">
-        <v>239</v>
-      </c>
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39">
-        <v>4.2</v>
-      </c>
-      <c r="D39">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>198</v>
-      </c>
-      <c r="E40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41">
-        <v>3.3</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42">
-        <v>3.9</v>
-      </c>
-      <c r="D42">
-        <v>399</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43">
-        <v>4.3</v>
-      </c>
-      <c r="D43">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D44">
-        <v>234</v>
-      </c>
-      <c r="E44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45">
-        <v>4.5</v>
-      </c>
-      <c r="D45">
-        <v>86</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>